--- a/regular_season_final.xlsx
+++ b/regular_season_final.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1901" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="173">
   <si>
     <t/>
   </si>
@@ -359,9 +359,6 @@
     <t>Lions</t>
   </si>
   <si>
-    <t>Chiefs</t>
-  </si>
-  <si>
     <t>Texans</t>
   </si>
   <si>
@@ -369,9 +366,6 @@
   </si>
   <si>
     <t>Patriots</t>
-  </si>
-  <si>
-    <t>Saints</t>
   </si>
   <si>
     <t>Giants</t>
@@ -395,9 +389,6 @@
     <t>Cardinals</t>
   </si>
   <si>
-    <t>Seahawks</t>
-  </si>
-  <si>
     <t>Rams</t>
   </si>
   <si>
@@ -411,9 +402,6 @@
   </si>
   <si>
     <t>Raiders</t>
-  </si>
-  <si>
-    <t>Jaguars</t>
   </si>
   <si>
     <t>Chargers</t>
@@ -449,109 +437,112 @@
     <t xml:space="preserve">Scores:  </t>
   </si>
   <si>
-    <t>4</t>
+    <t>5</t>
   </si>
   <si>
-    <t>Week 4 Scores</t>
+    <t>Week 5 Scores</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w4_p1_picks         = ["H","V","V","H","V","H","H","V","H","V","H","H","V","H","H"];</t>
+    <t xml:space="preserve">   var w5_p1_picks         = ["V","H","V","V","H","H","H","H","H","V","H","H","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w4_p2_picks         = ["H","V","H","H","V","H","H","V","H","V","H","H","V","H","H"];</t>
+    <t xml:space="preserve">   var w5_p2_picks         = ["V","H","V","V","H","H","H","H","H","V","H","H","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w4_p3_picks         = [];</t>
+    <t xml:space="preserve">   var w5_p3_picks         = ["V","H","V","V","H","H","H","H","H","H","H","H","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w4_p4_picks         = ["H","V","H","H","H","H","H","V","H","V","H","V","V","H","H"];</t>
+    <t>Eagles</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w4_p5_picks         = ["H","V","V","H","V","H","H","V","H","V","H","H","V","H","V"];</t>
+    <t xml:space="preserve">   var w5_p4_picks         = ["V","H","V","V","H","H","H","H","H","H","H","H","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w4_p6_picks         = ["H","V","V","V","V","H","H","V","H","V","V","H","V","H","H"];</t>
+    <t xml:space="preserve">   var w5_p5_picks         = ["H","H","V","V","H","H","H","H","H","V","H","H","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w4_p7_picks         = ["H","V","H","V","V","H","V","H","H","V","H","V","V","H","H"];</t>
+    <t xml:space="preserve">   var w5_p6_picks         = ["H","V","V","V","V","V","H","H","H","H","H","H","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w4_p8_picks         = ["H","V","V","H","V","H","H","H","H","V","H","V","V","H","H"];</t>
+    <t xml:space="preserve">   var w5_p7_picks         = ["V","V","V","V","H","H","H","H","V","V","V","V","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w4_p9_picks         = ["H","V","H","V","V","H","H","H","H","V","H","H","V","H","H"];</t>
+    <t xml:space="preserve">   var w5_p8_picks         = ["V","H","V","H","H","H","H","H","H","V","H","H","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w4_p10_picks        = ["H","V","V","H","V","H","H","V","H","V","H","H","V","H","H"];</t>
+    <t xml:space="preserve">   var w5_p9_picks         = ["V","H","V","V","H","V","H","H","H","H","H","H","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w4_p11_picks        = ["H","V","V","H","V","H","H","H","H","H","H","H","V","V","H"];</t>
+    <t xml:space="preserve">   var w5_p10_picks        = ["V","H","V","V","H","H","H","H","H","V","H","H","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w4_p12_picks        = ["H","V","H","H","V","H","H","V","H","V","H","H","V","H","H"];</t>
+    <t xml:space="preserve">   var w5_p11_picks        = ["V","H","V","V","H","H","H","H","H","V","H","H","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w4_p1_weights       = ["16","5","7","8","6","11","13","3","15","9","14","2","4","12","10"];</t>
+    <t xml:space="preserve">   var w5_p12_picks        = ["V","H","V","V","H","H","H","H","H","H","H","H","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w4_p2_weights       = ["8","7","4","5","9","10","6","3","11","2","12","13","14","15","16"];</t>
+    <t>Packers</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w4_p3_weights       = [];</t>
+    <t xml:space="preserve">   var w5_p1_weights       = ["9","7","16","5","10","6","13","14","12","3","4","8","15","11"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w4_p4_weights       = ["15","7","3","9","2","11","14","6","13","10","16","4","8","5","12"];</t>
+    <t xml:space="preserve">   var w5_p2_weights       = ["14","16","15","3","13","12","4","11","10","5","6","7","8","9"];</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t xml:space="preserve">   var w5_p3_weights       = ["9","7","16","5","10","8","13","14","12","3","4","6","15","11"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w4_p5_weights       = ["12","5","11","4","13","9","8","7","14","15","16","3","6","10","2"];</t>
+    <t xml:space="preserve">   var w5_p4_weights       = ["6","9","14","5","10","8","11","15","12","3","4","7","16","13"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w4_p6_weights       = ["14","5","13","2","4","6","7","10","16","15","3","8","9","12","11"];</t>
+    <t xml:space="preserve">   var w5_p5_weights       = ["7","8","16","13","9","10","15","12","11","6","5","4","14","3"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w4_p7_weights       = ["6","7","3","4","5","14","2","12","13","9","8","10","15","16","11"];</t>
+    <t xml:space="preserve">   var w5_p6_weights       = ["5","4","16","14","3","6","12","15","7","10","13","8","9","11"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w4_p8_weights       = ["15","9","7","6","5","13","16","8","10","4","3","2","11","14","12"];</t>
+    <t xml:space="preserve">   var w5_p7_weights       = ["3","12","15","11","10","6","13","16","9","8","5","4","14","7"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w4_p9_weights       = ["13","12","11","4","3","10","5","2","16","15","8","6","9","14","7"];</t>
+    <t xml:space="preserve">   var w5_p8_weights       = ["10","5","16","13","14","3","9","15","8","7","6","4","11","12"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w4_p10_weights      = ["14","3","7","9","6","5","13","2","16","12","15","8","4","11","10"];</t>
+    <t xml:space="preserve">   var w5_p9_weights       = ["6","11","16","12","10","5","13","15","7","4","3","8","14","9"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w4_p11_weights      = ["13","3","7","8","6","10","11","2","15","5","14","12","4","16","9"];</t>
+    <t xml:space="preserve">   var w5_p10_weights      = ["6","9","16","5","10","8","12","14","11","3","4","7","15","13"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w4_p12_weights      = ["16","12","2","13","6","5","15","14","8","11","3","4","9","7","10"];</t>
+    <t xml:space="preserve">   var w5_p11_weights      = ["10","6","16","3","9","8","12","14","11","4","5","7","15","13"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w4_winners          = ["H","H","H","V","H","H","V","V","H","V","V","V","V","H","H"];</t>
+    <t xml:space="preserve">   var w5_p12_weights      = ["3","8","16","10","6","7","9","11","5","4","13","14","15","12"];</t>
   </si>
   <si>
-    <t>Packers, Eagles</t>
+    <t xml:space="preserve">   var w5_winners          = ["V","V","V","H","H","V","H","H","V","H","V","H","H","V"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w4_mn_points        = ["43","51","","42","44","42","38","47","49","43","42","38"];</t>
+    <t>Jaguars, Chiefs, Saints, Seahawks</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w4_actual_mn_points = 0;</t>
+    <t xml:space="preserve">   var w5_mn_points        = ["39","51","48","42","32","65","38","45","40","15","42","38"];</t>
   </si>
   <si>
-    <t>Week 4 Final</t>
+    <t xml:space="preserve">   var w5_actual_mn_points = 0;</t>
   </si>
   <si>
-    <t>'Week 4'!$B$2</t>
+    <t>Week 5 Final</t>
   </si>
   <si>
-    <t>'Week 4'!$C$2</t>
+    <t>'Week 5'!$B$2</t>
   </si>
   <si>
-    <t>'Week 4'!$D$2</t>
+    <t>'Week 5'!$C$2</t>
+  </si>
+  <si>
+    <t>'Week 5'!$D$2</t>
   </si>
 </sst>
 </file>
@@ -4055,9 +4046,6 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="169" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4132,6 +4120,9 @@
     </xf>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="176" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5190,95 +5181,95 @@
       <c r="B2" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="272" t="s">
-        <v>141</v>
+      <c r="C2" s="297" t="s">
+        <v>137</v>
       </c>
       <c r="D2" s="112" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E2" s="113"/>
       <c r="F2" s="114" t="s">
         <v>91</v>
       </c>
       <c r="G2" s="115">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="H2" s="116"/>
       <c r="I2" s="114" t="s">
         <v>92</v>
       </c>
       <c r="J2" s="115">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="K2" s="116"/>
       <c r="L2" s="114" t="s">
         <v>93</v>
       </c>
       <c r="M2" s="115">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="N2" s="116"/>
       <c r="O2" s="114" t="s">
         <v>94</v>
       </c>
       <c r="P2" s="115">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="Q2" s="116"/>
       <c r="R2" s="114" t="s">
         <v>95</v>
       </c>
       <c r="S2" s="115">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="T2" s="116"/>
       <c r="U2" s="114" t="s">
         <v>96</v>
       </c>
       <c r="V2" s="115">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="W2" s="116"/>
       <c r="X2" s="114" t="s">
         <v>97</v>
       </c>
       <c r="Y2" s="115">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="Z2" s="116"/>
       <c r="AA2" s="114" t="s">
         <v>98</v>
       </c>
       <c r="AB2" s="115">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="AC2" s="116"/>
       <c r="AD2" s="114" t="s">
         <v>99</v>
       </c>
       <c r="AE2" s="115">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AF2" s="116"/>
       <c r="AG2" s="114" t="s">
         <v>100</v>
       </c>
       <c r="AH2" s="115">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="AI2" s="116"/>
       <c r="AJ2" s="114" t="s">
         <v>101</v>
       </c>
       <c r="AK2" s="115">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="AL2" s="116"/>
       <c r="AM2" s="114" t="s">
         <v>102</v>
       </c>
       <c r="AN2" s="115">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="AO2" s="117"/>
       <c r="AP2" s="3"/>
@@ -5297,7 +5288,7 @@
       <c r="AV2" s="305"/>
       <c r="AW2" s="3"/>
       <c r="BE2" s="300" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="BF2" s="301"/>
       <c r="BG2" s="302"/>
@@ -5449,7 +5440,7 @@
       </c>
       <c r="AP3" s="3"/>
       <c r="AR3" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS3" s="9" t="s">
         <v>52</v>
@@ -5517,45 +5508,49 @@
     </row>
     <row r="4" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="180" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C4" s="181" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="181" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E4" s="182" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F4" s="183" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="G4" s="184">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H4" s="185" t="s">
         <v>0</v>
       </c>
       <c r="I4" s="186" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="J4" s="184">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K4" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="186"/>
-      <c r="M4" s="184"/>
+      <c r="L4" s="186" t="s">
+        <v>88</v>
+      </c>
+      <c r="M4" s="184">
+        <v>9</v>
+      </c>
       <c r="N4" s="185" t="s">
         <v>0</v>
       </c>
       <c r="O4" s="186" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="P4" s="184">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="Q4" s="185" t="s">
         <v>0</v>
@@ -5564,94 +5559,94 @@
         <v>60</v>
       </c>
       <c r="S4" s="184">
-        <v>12</v>
-      </c>
-      <c r="T4" s="185" t="s">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="T4" s="185">
+        <v>-7</v>
       </c>
       <c r="U4" s="186" t="s">
         <v>60</v>
       </c>
       <c r="V4" s="184">
-        <v>14</v>
-      </c>
-      <c r="W4" s="185" t="s">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="W4" s="185">
+        <v>-5</v>
       </c>
       <c r="X4" s="186" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="Y4" s="184">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="185" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="186" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB4" s="184">
+        <v>10</v>
+      </c>
+      <c r="AC4" s="185" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="186" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE4" s="184">
         <v>6</v>
       </c>
-      <c r="Z4" s="185" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="186" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB4" s="184">
-        <v>15</v>
-      </c>
-      <c r="AC4" s="185" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="186" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE4" s="184">
-        <v>13</v>
-      </c>
       <c r="AF4" s="185" t="s">
         <v>0</v>
       </c>
       <c r="AG4" s="186" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AH4" s="184">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AI4" s="185" t="s">
         <v>0</v>
       </c>
       <c r="AJ4" s="186" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AK4" s="184">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AL4" s="185" t="s">
         <v>0</v>
       </c>
       <c r="AM4" s="186" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AN4" s="184">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="AO4" s="187" t="s">
         <v>0</v>
       </c>
       <c r="AT4" s="188" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AU4" s="184">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AV4" s="187" t="s">
         <v>0</v>
       </c>
       <c r="AX4" s="4">
-        <v>142</v>
+        <v>-64</v>
       </c>
       <c r="AY4" s="4">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="AZ4" s="4">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="BA4" s="4">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="BB4" s="4">
         <v>1</v>
@@ -5666,45 +5661,45 @@
         <v>97</v>
       </c>
       <c r="BG4" s="61">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="BH4" s="189"/>
       <c r="BI4" s="62">
         <v>1</v>
       </c>
       <c r="BJ4" s="63" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="BK4" s="64">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="BL4" s="65">
-        <v>309</v>
+        <v>404</v>
       </c>
       <c r="BM4" s="172"/>
       <c r="BN4" s="66">
         <v>1</v>
       </c>
       <c r="BO4" s="67" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="BP4" s="68">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="BQ4" s="69">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="BR4" s="70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BS4" s="71">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="BT4" s="72" t="s">
         <v>61</v>
       </c>
       <c r="BU4" s="71">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BV4" s="72" t="s">
         <v>0</v>
@@ -5713,130 +5708,134 @@
         <v>0</v>
       </c>
       <c r="BY4" s="12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="190" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C5" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="191" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="E5" s="192" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="193" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="193" t="s">
-        <v>88</v>
-      </c>
       <c r="G5" s="194">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H5" s="195">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="I5" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="J5" s="194">
+        <v>16</v>
+      </c>
+      <c r="K5" s="195">
+        <v>-16</v>
+      </c>
+      <c r="L5" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" s="194">
         <v>7</v>
       </c>
-      <c r="K5" s="195">
+      <c r="N5" s="195">
         <v>-7</v>
       </c>
-      <c r="L5" s="196"/>
-      <c r="M5" s="194"/>
-      <c r="N5" s="195" t="s">
-        <v>0</v>
-      </c>
       <c r="O5" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="P5" s="194">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q5" s="195">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="R5" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="S5" s="194">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T5" s="195">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="U5" s="196" t="s">
         <v>88</v>
       </c>
       <c r="V5" s="194">
-        <v>5</v>
-      </c>
-      <c r="W5" s="195">
-        <v>-5</v>
+        <v>4</v>
+      </c>
+      <c r="W5" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="X5" s="196" t="s">
         <v>88</v>
       </c>
       <c r="Y5" s="194">
-        <v>7</v>
-      </c>
-      <c r="Z5" s="195">
-        <v>-7</v>
+        <v>12</v>
+      </c>
+      <c r="Z5" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AA5" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AB5" s="194">
+        <v>5</v>
+      </c>
+      <c r="AC5" s="195">
+        <v>-5</v>
+      </c>
+      <c r="AD5" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE5" s="194">
+        <v>11</v>
+      </c>
+      <c r="AF5" s="195">
+        <v>-11</v>
+      </c>
+      <c r="AG5" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH5" s="194">
         <v>9</v>
       </c>
-      <c r="AC5" s="195">
+      <c r="AI5" s="195">
         <v>-9</v>
       </c>
-      <c r="AD5" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE5" s="194">
-        <v>12</v>
-      </c>
-      <c r="AF5" s="195">
-        <v>-12</v>
-      </c>
-      <c r="AG5" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH5" s="194">
-        <v>3</v>
-      </c>
-      <c r="AI5" s="195">
-        <v>-3</v>
-      </c>
       <c r="AJ5" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AK5" s="194">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AL5" s="195">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="AM5" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AN5" s="194">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AO5" s="197">
-        <v>-12</v>
+        <v>-8</v>
       </c>
       <c r="AR5" s="8"/>
       <c r="AS5" s="9"/>
       <c r="AT5" s="198" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AU5" s="194">
         <v>7</v>
@@ -5845,16 +5844,16 @@
         <v>-7</v>
       </c>
       <c r="AX5" s="4">
-        <v>-75</v>
+        <v>70</v>
       </c>
       <c r="AY5" s="4">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AZ5" s="4">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BA5" s="4">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BB5" s="4">
         <v>2</v>
@@ -5866,36 +5865,36 @@
         <v>2</v>
       </c>
       <c r="BF5" s="77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BG5" s="78">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="BH5" s="189"/>
       <c r="BI5" s="79">
         <v>2</v>
       </c>
       <c r="BJ5" s="80" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="BK5" s="81">
-        <v>102.33333333333333</v>
+        <v>97.75</v>
       </c>
       <c r="BL5" s="82">
-        <v>307</v>
+        <v>391</v>
       </c>
       <c r="BM5" s="172"/>
       <c r="BN5" s="79">
         <v>2</v>
       </c>
       <c r="BO5" s="80" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="BP5" s="83">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BQ5" s="84">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="BR5" s="85">
         <v>1</v>
@@ -5913,53 +5912,57 @@
         <v>61</v>
       </c>
       <c r="BW5" s="88">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BY5" s="12" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="190" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C6" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="191" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="E6" s="192" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F6" s="193" t="s">
         <v>88</v>
       </c>
       <c r="G6" s="194">
-        <v>7</v>
-      </c>
-      <c r="H6" s="195">
-        <v>-7</v>
+        <v>16</v>
+      </c>
+      <c r="H6" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="I6" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="J6" s="194">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="K6" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="L6" s="196"/>
-      <c r="M6" s="194"/>
+      <c r="L6" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" s="194">
+        <v>16</v>
+      </c>
       <c r="N6" s="195" t="s">
         <v>0</v>
       </c>
       <c r="O6" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="P6" s="194">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="195" t="s">
         <v>0</v>
@@ -5968,25 +5971,25 @@
         <v>88</v>
       </c>
       <c r="S6" s="194">
-        <v>11</v>
-      </c>
-      <c r="T6" s="195">
-        <v>-11</v>
+        <v>16</v>
+      </c>
+      <c r="T6" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="U6" s="196" t="s">
         <v>88</v>
       </c>
       <c r="V6" s="194">
-        <v>13</v>
-      </c>
-      <c r="W6" s="195">
-        <v>-13</v>
+        <v>16</v>
+      </c>
+      <c r="W6" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="X6" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="Y6" s="194">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="Z6" s="195" t="s">
         <v>0</v>
@@ -5995,16 +5998,16 @@
         <v>88</v>
       </c>
       <c r="AB6" s="194">
-        <v>7</v>
-      </c>
-      <c r="AC6" s="195">
-        <v>-7</v>
+        <v>16</v>
+      </c>
+      <c r="AC6" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AD6" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AE6" s="194">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AF6" s="195" t="s">
         <v>0</v>
@@ -6013,25 +6016,25 @@
         <v>88</v>
       </c>
       <c r="AH6" s="194">
-        <v>7</v>
-      </c>
-      <c r="AI6" s="195">
-        <v>-7</v>
+        <v>16</v>
+      </c>
+      <c r="AI6" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AJ6" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AK6" s="194">
-        <v>7</v>
-      </c>
-      <c r="AL6" s="195">
-        <v>-7</v>
+        <v>16</v>
+      </c>
+      <c r="AL6" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AM6" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AN6" s="194">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="AO6" s="197" t="s">
         <v>0</v>
@@ -6042,22 +6045,22 @@
         <v>88</v>
       </c>
       <c r="AU6" s="194">
-        <v>3</v>
-      </c>
-      <c r="AV6" s="197">
-        <v>-3</v>
+        <v>16</v>
+      </c>
+      <c r="AV6" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AX6" s="4">
-        <v>-29</v>
+        <v>-188</v>
       </c>
       <c r="AY6" s="4">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="AZ6" s="4">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="BA6" s="4">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="BB6" s="4">
         <v>3</v>
@@ -6069,10 +6072,10 @@
         <v>3</v>
       </c>
       <c r="BF6" s="77" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="BG6" s="78">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="BH6" s="189"/>
       <c r="BI6" s="79">
@@ -6082,10 +6085,10 @@
         <v>99</v>
       </c>
       <c r="BK6" s="81">
-        <v>99.333333333333329</v>
+        <v>97.25</v>
       </c>
       <c r="BL6" s="82">
-        <v>298</v>
+        <v>389</v>
       </c>
       <c r="BM6" s="172"/>
       <c r="BN6" s="79">
@@ -6095,10 +6098,10 @@
         <v>95</v>
       </c>
       <c r="BP6" s="83">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BQ6" s="84">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="BR6" s="85">
         <v>1</v>
@@ -6119,146 +6122,150 @@
         <v>0</v>
       </c>
       <c r="BY6" s="12" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="190" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="C7" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="191" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E7" s="192" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="193" t="s">
         <v>88</v>
       </c>
-      <c r="F7" s="193" t="s">
-        <v>60</v>
-      </c>
       <c r="G7" s="194">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H7" s="195">
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="I7" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="J7" s="194">
+        <v>3</v>
+      </c>
+      <c r="K7" s="195">
+        <v>-3</v>
+      </c>
+      <c r="L7" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" s="194">
         <v>5</v>
       </c>
-      <c r="K7" s="195">
+      <c r="N7" s="195">
         <v>-5</v>
       </c>
-      <c r="L7" s="196"/>
-      <c r="M7" s="194"/>
-      <c r="N7" s="195" t="s">
-        <v>0</v>
-      </c>
       <c r="O7" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="P7" s="194">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q7" s="195">
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="R7" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="S7" s="194">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="T7" s="195">
-        <v>-4</v>
+        <v>-13</v>
       </c>
       <c r="U7" s="196" t="s">
         <v>88</v>
       </c>
       <c r="V7" s="194">
-        <v>2</v>
-      </c>
-      <c r="W7" s="195" t="s">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="W7" s="195">
+        <v>-14</v>
       </c>
       <c r="X7" s="196" t="s">
         <v>88</v>
       </c>
       <c r="Y7" s="194">
-        <v>4</v>
-      </c>
-      <c r="Z7" s="195" t="s">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="Z7" s="195">
+        <v>-11</v>
       </c>
       <c r="AA7" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AB7" s="194">
-        <v>6</v>
-      </c>
-      <c r="AC7" s="195">
-        <v>-6</v>
+        <v>13</v>
+      </c>
+      <c r="AC7" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AD7" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AE7" s="194">
-        <v>4</v>
-      </c>
-      <c r="AF7" s="195" t="s">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="AF7" s="195">
+        <v>-12</v>
       </c>
       <c r="AG7" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AH7" s="194">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AI7" s="195">
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="AJ7" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AK7" s="194">
+        <v>3</v>
+      </c>
+      <c r="AL7" s="195">
+        <v>-3</v>
+      </c>
+      <c r="AM7" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN7" s="194">
+        <v>10</v>
+      </c>
+      <c r="AO7" s="197">
+        <v>-10</v>
+      </c>
+      <c r="AT7" s="198" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU7" s="194">
         <v>8</v>
       </c>
-      <c r="AL7" s="195">
+      <c r="AV7" s="197">
         <v>-8</v>
       </c>
-      <c r="AM7" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN7" s="194">
-        <v>13</v>
-      </c>
-      <c r="AO7" s="197">
-        <v>-13</v>
-      </c>
-      <c r="AT7" s="198" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU7" s="194">
-        <v>5</v>
-      </c>
-      <c r="AV7" s="197">
-        <v>-5</v>
-      </c>
       <c r="AX7" s="4">
-        <v>52</v>
+        <v>-73</v>
       </c>
       <c r="AY7" s="4">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="AZ7" s="4">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="BA7" s="4">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="BB7" s="4">
         <v>4</v>
@@ -6270,23 +6277,23 @@
         <v>4</v>
       </c>
       <c r="BF7" s="77" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BG7" s="78">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="BH7" s="189"/>
       <c r="BI7" s="79">
         <v>4</v>
       </c>
       <c r="BJ7" s="80" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="BK7" s="81">
-        <v>91.333333333333329</v>
+        <v>87.5</v>
       </c>
       <c r="BL7" s="82">
-        <v>274</v>
+        <v>350</v>
       </c>
       <c r="BM7" s="172"/>
       <c r="BN7" s="79">
@@ -6296,10 +6303,10 @@
         <v>99</v>
       </c>
       <c r="BP7" s="83">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BQ7" s="84">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="BR7" s="85">
         <v>1</v>
@@ -6320,42 +6327,46 @@
         <v>0</v>
       </c>
       <c r="BY7" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="190" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="C8" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="191" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E8" s="192" t="s">
         <v>60</v>
       </c>
       <c r="F8" s="193" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="G8" s="194">
-        <v>6</v>
-      </c>
-      <c r="H8" s="195">
-        <v>-6</v>
+        <v>10</v>
+      </c>
+      <c r="H8" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="I8" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="J8" s="194">
-        <v>9</v>
-      </c>
-      <c r="K8" s="195">
-        <v>-9</v>
-      </c>
-      <c r="L8" s="196"/>
-      <c r="M8" s="194"/>
+        <v>13</v>
+      </c>
+      <c r="K8" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" s="194">
+        <v>10</v>
+      </c>
       <c r="N8" s="195" t="s">
         <v>0</v>
       </c>
@@ -6363,103 +6374,103 @@
         <v>60</v>
       </c>
       <c r="P8" s="194">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="Q8" s="195" t="s">
         <v>0</v>
       </c>
       <c r="R8" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="S8" s="194">
-        <v>13</v>
-      </c>
-      <c r="T8" s="195">
-        <v>-13</v>
+        <v>9</v>
+      </c>
+      <c r="T8" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="U8" s="196" t="s">
         <v>88</v>
       </c>
       <c r="V8" s="194">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W8" s="195">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="X8" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="Y8" s="194">
-        <v>5</v>
-      </c>
-      <c r="Z8" s="195">
-        <v>-5</v>
+        <v>10</v>
+      </c>
+      <c r="Z8" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AA8" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AB8" s="194">
-        <v>5</v>
-      </c>
-      <c r="AC8" s="195">
-        <v>-5</v>
+        <v>14</v>
+      </c>
+      <c r="AC8" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AD8" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AE8" s="194">
-        <v>3</v>
-      </c>
-      <c r="AF8" s="195">
-        <v>-3</v>
+        <v>10</v>
+      </c>
+      <c r="AF8" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AG8" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AH8" s="194">
-        <v>6</v>
-      </c>
-      <c r="AI8" s="195">
-        <v>-6</v>
+        <v>10</v>
+      </c>
+      <c r="AI8" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AJ8" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AK8" s="194">
-        <v>6</v>
-      </c>
-      <c r="AL8" s="195">
-        <v>-6</v>
+        <v>9</v>
+      </c>
+      <c r="AL8" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AM8" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AN8" s="194">
         <v>6</v>
       </c>
-      <c r="AO8" s="197">
-        <v>-6</v>
+      <c r="AO8" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AT8" s="198" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AU8" s="194">
-        <v>6</v>
-      </c>
-      <c r="AV8" s="197">
-        <v>-6</v>
+        <v>11</v>
+      </c>
+      <c r="AV8" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AX8" s="4">
-        <v>-61</v>
+        <v>108</v>
       </c>
       <c r="AY8" s="4">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="AZ8" s="4">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="BA8" s="4">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="BB8" s="4">
         <v>5</v>
@@ -6471,23 +6482,23 @@
         <v>5</v>
       </c>
       <c r="BF8" s="77" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BG8" s="78">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="BH8" s="189"/>
       <c r="BI8" s="79">
         <v>5</v>
       </c>
       <c r="BJ8" s="80" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="BK8" s="81">
-        <v>87.666666666666671</v>
+        <v>86.25</v>
       </c>
       <c r="BL8" s="82">
-        <v>263</v>
+        <v>345</v>
       </c>
       <c r="BM8" s="172"/>
       <c r="BN8" s="79">
@@ -6497,10 +6508,10 @@
         <v>91</v>
       </c>
       <c r="BP8" s="83">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="BQ8" s="84">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="BR8" s="85" t="s">
         <v>0</v>
@@ -6521,7 +6532,7 @@
         <v>0</v>
       </c>
       <c r="BY8" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6535,51 +6546,55 @@
         <v>112</v>
       </c>
       <c r="E9" s="192" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F9" s="193" t="s">
         <v>60</v>
       </c>
       <c r="G9" s="194">
-        <v>11</v>
-      </c>
-      <c r="H9" s="195" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="H9" s="195">
+        <v>-6</v>
       </c>
       <c r="I9" s="196" t="s">
         <v>60</v>
       </c>
       <c r="J9" s="194">
-        <v>10</v>
-      </c>
-      <c r="K9" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="L9" s="196"/>
-      <c r="M9" s="194"/>
-      <c r="N9" s="195" t="s">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="K9" s="195">
+        <v>-12</v>
+      </c>
+      <c r="L9" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" s="194">
+        <v>8</v>
+      </c>
+      <c r="N9" s="195">
+        <v>-8</v>
       </c>
       <c r="O9" s="196" t="s">
         <v>60</v>
       </c>
       <c r="P9" s="194">
-        <v>11</v>
-      </c>
-      <c r="Q9" s="195" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="Q9" s="195">
+        <v>-8</v>
       </c>
       <c r="R9" s="196" t="s">
         <v>60</v>
       </c>
       <c r="S9" s="194">
-        <v>9</v>
-      </c>
-      <c r="T9" s="195" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="T9" s="195">
+        <v>-10</v>
       </c>
       <c r="U9" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="V9" s="194">
         <v>6</v>
@@ -6591,25 +6606,25 @@
         <v>60</v>
       </c>
       <c r="Y9" s="194">
-        <v>14</v>
-      </c>
-      <c r="Z9" s="195" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="Z9" s="195">
+        <v>-6</v>
       </c>
       <c r="AA9" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AB9" s="194">
-        <v>13</v>
-      </c>
-      <c r="AC9" s="195" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="AC9" s="195">
+        <v>-3</v>
       </c>
       <c r="AD9" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AE9" s="194">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AF9" s="195" t="s">
         <v>0</v>
@@ -6618,49 +6633,49 @@
         <v>60</v>
       </c>
       <c r="AH9" s="194">
-        <v>5</v>
-      </c>
-      <c r="AI9" s="195" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="AI9" s="195">
+        <v>-8</v>
       </c>
       <c r="AJ9" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AK9" s="194">
-        <v>10</v>
-      </c>
-      <c r="AL9" s="195" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="AL9" s="195">
+        <v>-8</v>
       </c>
       <c r="AM9" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AN9" s="194">
-        <v>5</v>
-      </c>
-      <c r="AO9" s="197" t="s">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="AO9" s="197">
+        <v>-7</v>
       </c>
       <c r="AT9" s="198" t="s">
         <v>60</v>
       </c>
       <c r="AU9" s="194">
-        <v>11</v>
-      </c>
-      <c r="AV9" s="197" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="AV9" s="197">
+        <v>-6</v>
       </c>
       <c r="AX9" s="4">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="AY9" s="4">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="AZ9" s="4">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="BA9" s="4">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="BB9" s="4">
         <v>6</v>
@@ -6672,23 +6687,23 @@
         <v>6</v>
       </c>
       <c r="BF9" s="77" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BG9" s="78">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BH9" s="189"/>
       <c r="BI9" s="79">
         <v>6</v>
       </c>
       <c r="BJ9" s="80" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="BK9" s="81">
-        <v>86.666666666666671</v>
+        <v>86</v>
       </c>
       <c r="BL9" s="82">
-        <v>260</v>
+        <v>344</v>
       </c>
       <c r="BM9" s="172"/>
       <c r="BN9" s="79">
@@ -6698,10 +6713,10 @@
         <v>92</v>
       </c>
       <c r="BP9" s="83">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="BQ9" s="84">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="BR9" s="85" t="s">
         <v>0</v>
@@ -6722,21 +6737,21 @@
         <v>0</v>
       </c>
       <c r="BY9" s="12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="190" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C10" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="191" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="E10" s="192" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F10" s="193" t="s">
         <v>60</v>
@@ -6744,20 +6759,24 @@
       <c r="G10" s="194">
         <v>13</v>
       </c>
-      <c r="H10" s="195">
-        <v>-13</v>
+      <c r="H10" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="I10" s="196" t="s">
         <v>60</v>
       </c>
       <c r="J10" s="194">
-        <v>6</v>
-      </c>
-      <c r="K10" s="195">
-        <v>-6</v>
-      </c>
-      <c r="L10" s="196"/>
-      <c r="M10" s="194"/>
+        <v>4</v>
+      </c>
+      <c r="K10" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" s="194">
+        <v>13</v>
+      </c>
       <c r="N10" s="195" t="s">
         <v>0</v>
       </c>
@@ -6765,34 +6784,34 @@
         <v>60</v>
       </c>
       <c r="P10" s="194">
-        <v>14</v>
-      </c>
-      <c r="Q10" s="195">
-        <v>-14</v>
+        <v>11</v>
+      </c>
+      <c r="Q10" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="R10" s="196" t="s">
         <v>60</v>
       </c>
       <c r="S10" s="194">
-        <v>8</v>
-      </c>
-      <c r="T10" s="195">
-        <v>-8</v>
+        <v>15</v>
+      </c>
+      <c r="T10" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="U10" s="196" t="s">
         <v>60</v>
       </c>
       <c r="V10" s="194">
-        <v>7</v>
-      </c>
-      <c r="W10" s="195">
-        <v>-7</v>
+        <v>12</v>
+      </c>
+      <c r="W10" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="X10" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="Y10" s="194">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="Z10" s="195" t="s">
         <v>0</v>
@@ -6801,67 +6820,67 @@
         <v>60</v>
       </c>
       <c r="AB10" s="194">
-        <v>16</v>
-      </c>
-      <c r="AC10" s="195">
-        <v>-16</v>
+        <v>9</v>
+      </c>
+      <c r="AC10" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AD10" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AE10" s="194">
-        <v>5</v>
-      </c>
-      <c r="AF10" s="195">
-        <v>-5</v>
+        <v>13</v>
+      </c>
+      <c r="AF10" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AG10" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AH10" s="194">
-        <v>13</v>
-      </c>
-      <c r="AI10" s="195">
-        <v>-13</v>
+        <v>12</v>
+      </c>
+      <c r="AI10" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AJ10" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AK10" s="194">
-        <v>11</v>
-      </c>
-      <c r="AL10" s="195">
-        <v>-11</v>
+        <v>12</v>
+      </c>
+      <c r="AL10" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AM10" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AN10" s="194">
-        <v>15</v>
-      </c>
-      <c r="AO10" s="197">
-        <v>-15</v>
+        <v>9</v>
+      </c>
+      <c r="AO10" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AT10" s="198" t="s">
         <v>60</v>
       </c>
       <c r="AU10" s="194">
-        <v>12</v>
-      </c>
-      <c r="AV10" s="197">
-        <v>-12</v>
+        <v>13</v>
+      </c>
+      <c r="AV10" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AX10" s="4">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="AY10" s="4">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="AZ10" s="4">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="BA10" s="4">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="BB10" s="4">
         <v>7</v>
@@ -6873,23 +6892,23 @@
         <v>7</v>
       </c>
       <c r="BF10" s="77" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="BG10" s="78">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BH10" s="189"/>
       <c r="BI10" s="79">
         <v>7</v>
       </c>
       <c r="BJ10" s="80" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="BK10" s="81">
-        <v>86.333333333333329</v>
+        <v>85.75</v>
       </c>
       <c r="BL10" s="82">
-        <v>259</v>
+        <v>343</v>
       </c>
       <c r="BM10" s="172"/>
       <c r="BN10" s="79">
@@ -6899,10 +6918,10 @@
         <v>93</v>
       </c>
       <c r="BP10" s="83">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="BQ10" s="84">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="BR10" s="85" t="s">
         <v>0</v>
@@ -6923,68 +6942,72 @@
         <v>0</v>
       </c>
       <c r="BY10" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="190" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C11" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="191" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="E11" s="192" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F11" s="193" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="G11" s="194">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="H11" s="195" t="s">
         <v>0</v>
       </c>
       <c r="I11" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="J11" s="194">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K11" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="L11" s="196"/>
-      <c r="M11" s="194"/>
+      <c r="L11" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" s="194">
+        <v>14</v>
+      </c>
       <c r="N11" s="195" t="s">
         <v>0</v>
       </c>
       <c r="O11" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="P11" s="194">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="Q11" s="195" t="s">
         <v>0</v>
       </c>
       <c r="R11" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="S11" s="194">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="T11" s="195" t="s">
         <v>0</v>
       </c>
       <c r="U11" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="V11" s="194">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="W11" s="195" t="s">
         <v>0</v>
@@ -6993,34 +7016,34 @@
         <v>60</v>
       </c>
       <c r="Y11" s="194">
-        <v>12</v>
-      </c>
-      <c r="Z11" s="195">
-        <v>-12</v>
+        <v>16</v>
+      </c>
+      <c r="Z11" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AA11" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AB11" s="194">
-        <v>8</v>
-      </c>
-      <c r="AC11" s="195">
-        <v>-8</v>
+        <v>15</v>
+      </c>
+      <c r="AC11" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AD11" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AE11" s="194">
-        <v>2</v>
-      </c>
-      <c r="AF11" s="195">
-        <v>-2</v>
+        <v>15</v>
+      </c>
+      <c r="AF11" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AG11" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AH11" s="194">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AI11" s="195" t="s">
         <v>0</v>
@@ -7029,40 +7052,40 @@
         <v>60</v>
       </c>
       <c r="AK11" s="194">
-        <v>2</v>
-      </c>
-      <c r="AL11" s="195">
-        <v>-2</v>
+        <v>14</v>
+      </c>
+      <c r="AL11" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AM11" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AN11" s="194">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AO11" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AT11" s="198" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AU11" s="194">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AV11" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX11" s="4">
-        <v>-21</v>
+        <v>166</v>
       </c>
       <c r="AY11" s="4">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="AZ11" s="4">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="BA11" s="4">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="BB11" s="4">
         <v>8</v>
@@ -7074,7 +7097,7 @@
         <v>8</v>
       </c>
       <c r="BF11" s="77" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="BG11" s="78">
         <v>80</v>
@@ -7084,13 +7107,13 @@
         <v>8</v>
       </c>
       <c r="BJ11" s="80" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="BK11" s="81">
-        <v>86</v>
+        <v>85.5</v>
       </c>
       <c r="BL11" s="82">
-        <v>258</v>
+        <v>342</v>
       </c>
       <c r="BM11" s="172"/>
       <c r="BN11" s="79">
@@ -7100,10 +7123,10 @@
         <v>94</v>
       </c>
       <c r="BP11" s="83">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="BQ11" s="84">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="BR11" s="85" t="s">
         <v>0</v>
@@ -7124,77 +7147,81 @@
         <v>0</v>
       </c>
       <c r="BY11" s="12" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="190" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C12" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="191" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E12" s="192" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F12" s="193" t="s">
         <v>60</v>
       </c>
       <c r="G12" s="194">
-        <v>15</v>
-      </c>
-      <c r="H12" s="195" t="s">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="H12" s="195">
+        <v>-12</v>
       </c>
       <c r="I12" s="196" t="s">
         <v>60</v>
       </c>
       <c r="J12" s="194">
-        <v>11</v>
-      </c>
-      <c r="K12" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="L12" s="196"/>
-      <c r="M12" s="194"/>
-      <c r="N12" s="195" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="K12" s="195">
+        <v>-10</v>
+      </c>
+      <c r="L12" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="M12" s="194">
+        <v>12</v>
+      </c>
+      <c r="N12" s="195">
+        <v>-12</v>
       </c>
       <c r="O12" s="196" t="s">
         <v>60</v>
       </c>
       <c r="P12" s="194">
-        <v>13</v>
-      </c>
-      <c r="Q12" s="195" t="s">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="Q12" s="195">
+        <v>-12</v>
       </c>
       <c r="R12" s="196" t="s">
         <v>60</v>
       </c>
       <c r="S12" s="194">
-        <v>14</v>
-      </c>
-      <c r="T12" s="195" t="s">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="T12" s="195">
+        <v>-11</v>
       </c>
       <c r="U12" s="196" t="s">
         <v>60</v>
       </c>
       <c r="V12" s="194">
-        <v>16</v>
-      </c>
-      <c r="W12" s="195" t="s">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="W12" s="195">
+        <v>-7</v>
       </c>
       <c r="X12" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="Y12" s="194">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Z12" s="195" t="s">
         <v>0</v>
@@ -7203,67 +7230,67 @@
         <v>60</v>
       </c>
       <c r="AB12" s="194">
-        <v>10</v>
-      </c>
-      <c r="AC12" s="195" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="AC12" s="195">
+        <v>-8</v>
       </c>
       <c r="AD12" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AE12" s="194">
-        <v>16</v>
-      </c>
-      <c r="AF12" s="195" t="s">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="AF12" s="195">
+        <v>-7</v>
       </c>
       <c r="AG12" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AH12" s="194">
-        <v>16</v>
-      </c>
-      <c r="AI12" s="195" t="s">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="AI12" s="195">
+        <v>-11</v>
       </c>
       <c r="AJ12" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AK12" s="194">
-        <v>15</v>
-      </c>
-      <c r="AL12" s="195" t="s">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="AL12" s="195">
+        <v>-11</v>
       </c>
       <c r="AM12" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AN12" s="194">
-        <v>8</v>
-      </c>
-      <c r="AO12" s="197" t="s">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="AO12" s="197">
+        <v>-5</v>
       </c>
       <c r="AT12" s="198" t="s">
         <v>60</v>
       </c>
       <c r="AU12" s="194">
-        <v>16</v>
-      </c>
-      <c r="AV12" s="197" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="AV12" s="197">
+        <v>-10</v>
       </c>
       <c r="AX12" s="4">
-        <v>147</v>
+        <v>97</v>
       </c>
       <c r="AY12" s="4">
-        <v>147</v>
+        <v>97</v>
       </c>
       <c r="AZ12" s="4">
-        <v>147</v>
+        <v>97</v>
       </c>
       <c r="BA12" s="4">
-        <v>147</v>
+        <v>97</v>
       </c>
       <c r="BB12" s="4">
         <v>9</v>
@@ -7272,13 +7299,13 @@
         <v>1</v>
       </c>
       <c r="BE12" s="76">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BF12" s="77" t="s">
         <v>100</v>
       </c>
       <c r="BG12" s="78">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="BH12" s="189"/>
       <c r="BI12" s="79">
@@ -7288,10 +7315,10 @@
         <v>92</v>
       </c>
       <c r="BK12" s="81">
-        <v>85</v>
+        <v>82.25</v>
       </c>
       <c r="BL12" s="82">
-        <v>255</v>
+        <v>329</v>
       </c>
       <c r="BM12" s="172"/>
       <c r="BN12" s="79">
@@ -7301,10 +7328,10 @@
         <v>96</v>
       </c>
       <c r="BP12" s="83">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="BQ12" s="84">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="BR12" s="85" t="s">
         <v>0</v>
@@ -7325,50 +7352,54 @@
         <v>0</v>
       </c>
       <c r="BY12" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="190" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C13" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="191" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E13" s="192" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F13" s="193" t="s">
         <v>88</v>
       </c>
       <c r="G13" s="194">
-        <v>9</v>
-      </c>
-      <c r="H13" s="195" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="H13" s="195">
+        <v>-3</v>
       </c>
       <c r="I13" s="196" t="s">
         <v>88</v>
       </c>
       <c r="J13" s="194">
-        <v>2</v>
-      </c>
-      <c r="K13" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="196"/>
-      <c r="M13" s="194"/>
+        <v>5</v>
+      </c>
+      <c r="K13" s="195">
+        <v>-5</v>
+      </c>
+      <c r="L13" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="M13" s="194">
+        <v>3</v>
+      </c>
       <c r="N13" s="195" t="s">
         <v>0</v>
       </c>
       <c r="O13" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="P13" s="194">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q13" s="195" t="s">
         <v>0</v>
@@ -7377,16 +7408,16 @@
         <v>88</v>
       </c>
       <c r="S13" s="194">
-        <v>15</v>
-      </c>
-      <c r="T13" s="195" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="T13" s="195">
+        <v>-6</v>
       </c>
       <c r="U13" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="V13" s="194">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="W13" s="195" t="s">
         <v>0</v>
@@ -7395,25 +7426,25 @@
         <v>88</v>
       </c>
       <c r="Y13" s="194">
-        <v>9</v>
-      </c>
-      <c r="Z13" s="195" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="Z13" s="195">
+        <v>-8</v>
       </c>
       <c r="AA13" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AB13" s="194">
+        <v>7</v>
+      </c>
+      <c r="AC13" s="195">
+        <v>-7</v>
+      </c>
+      <c r="AD13" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE13" s="194">
         <v>4</v>
-      </c>
-      <c r="AC13" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE13" s="194">
-        <v>15</v>
       </c>
       <c r="AF13" s="195" t="s">
         <v>0</v>
@@ -7422,25 +7453,25 @@
         <v>88</v>
       </c>
       <c r="AH13" s="194">
-        <v>12</v>
-      </c>
-      <c r="AI13" s="195" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="AI13" s="195">
+        <v>-3</v>
       </c>
       <c r="AJ13" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK13" s="194">
+        <v>4</v>
+      </c>
+      <c r="AL13" s="195">
+        <v>-4</v>
+      </c>
+      <c r="AM13" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="AK13" s="194">
-        <v>5</v>
-      </c>
-      <c r="AL13" s="195">
-        <v>-5</v>
-      </c>
-      <c r="AM13" s="196" t="s">
-        <v>88</v>
-      </c>
       <c r="AN13" s="194">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AO13" s="197" t="s">
         <v>0</v>
@@ -7449,22 +7480,22 @@
         <v>88</v>
       </c>
       <c r="AU13" s="194">
-        <v>9</v>
-      </c>
-      <c r="AV13" s="197" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="AV13" s="197">
+        <v>-3</v>
       </c>
       <c r="AX13" s="4">
-        <v>-97</v>
+        <v>-12</v>
       </c>
       <c r="AY13" s="4">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="AZ13" s="4">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="BA13" s="4">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="BB13" s="4">
         <v>10</v>
@@ -7476,10 +7507,10 @@
         <v>10</v>
       </c>
       <c r="BF13" s="77" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="BG13" s="78">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="BH13" s="189"/>
       <c r="BI13" s="79">
@@ -7489,10 +7520,10 @@
         <v>91</v>
       </c>
       <c r="BK13" s="81">
-        <v>79.666666666666671</v>
+        <v>81</v>
       </c>
       <c r="BL13" s="82">
-        <v>239</v>
+        <v>324</v>
       </c>
       <c r="BM13" s="172"/>
       <c r="BN13" s="79">
@@ -7502,10 +7533,10 @@
         <v>98</v>
       </c>
       <c r="BP13" s="83">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="BQ13" s="84">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="BR13" s="85" t="s">
         <v>0</v>
@@ -7526,18 +7557,18 @@
         <v>0</v>
       </c>
       <c r="BY13" s="12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="190" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C14" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="191" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E14" s="192" t="s">
         <v>88</v>
@@ -7546,141 +7577,145 @@
         <v>60</v>
       </c>
       <c r="G14" s="194">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H14" s="195">
-        <v>-14</v>
+        <v>-4</v>
       </c>
       <c r="I14" s="196" t="s">
         <v>60</v>
       </c>
       <c r="J14" s="194">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K14" s="195">
-        <v>-12</v>
-      </c>
-      <c r="L14" s="196"/>
-      <c r="M14" s="194"/>
-      <c r="N14" s="195" t="s">
-        <v>0</v>
+        <v>-6</v>
+      </c>
+      <c r="L14" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="M14" s="194">
+        <v>4</v>
+      </c>
+      <c r="N14" s="195">
+        <v>-4</v>
       </c>
       <c r="O14" s="196" t="s">
         <v>60</v>
       </c>
       <c r="P14" s="194">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="Q14" s="195">
-        <v>-16</v>
+        <v>-4</v>
       </c>
       <c r="R14" s="196" t="s">
         <v>60</v>
       </c>
       <c r="S14" s="194">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="T14" s="195">
-        <v>-16</v>
+        <v>-5</v>
       </c>
       <c r="U14" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="V14" s="194">
+        <v>13</v>
+      </c>
+      <c r="W14" s="195">
+        <v>-13</v>
+      </c>
+      <c r="X14" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="V14" s="194">
-        <v>3</v>
-      </c>
-      <c r="W14" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="X14" s="196" t="s">
-        <v>60</v>
-      </c>
       <c r="Y14" s="194">
-        <v>8</v>
-      </c>
-      <c r="Z14" s="195">
-        <v>-8</v>
+        <v>5</v>
+      </c>
+      <c r="Z14" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AA14" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AB14" s="194">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AC14" s="195">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="AD14" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AE14" s="194">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AF14" s="195">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="AG14" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AH14" s="194">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="AI14" s="195">
-        <v>-15</v>
+        <v>-4</v>
       </c>
       <c r="AJ14" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AK14" s="194">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AL14" s="195">
-        <v>-14</v>
+        <v>-5</v>
       </c>
       <c r="AM14" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AN14" s="194">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AO14" s="197">
-        <v>-3</v>
+        <v>-13</v>
       </c>
       <c r="AT14" s="198" t="s">
         <v>60</v>
       </c>
       <c r="AU14" s="194">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AV14" s="197">
-        <v>-13</v>
+        <v>-4</v>
       </c>
       <c r="AX14" s="4">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="AY14" s="4">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="AZ14" s="4">
-        <v>106.1</v>
+        <v>62</v>
       </c>
       <c r="BA14" s="4">
-        <v>106.1</v>
+        <v>62</v>
       </c>
       <c r="BB14" s="4">
         <v>11</v>
       </c>
       <c r="BC14" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BE14" s="76">
         <v>11</v>
       </c>
       <c r="BF14" s="77" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="BG14" s="78">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="BH14" s="189"/>
       <c r="BI14" s="79">
@@ -7690,10 +7725,10 @@
         <v>101</v>
       </c>
       <c r="BK14" s="81">
-        <v>76.333333333333329</v>
+        <v>78</v>
       </c>
       <c r="BL14" s="82">
-        <v>229</v>
+        <v>312</v>
       </c>
       <c r="BM14" s="172"/>
       <c r="BN14" s="79">
@@ -7703,10 +7738,10 @@
         <v>100</v>
       </c>
       <c r="BP14" s="83">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="BQ14" s="84">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="BR14" s="85" t="s">
         <v>0</v>
@@ -7727,50 +7762,54 @@
         <v>0</v>
       </c>
       <c r="BY14" s="12" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:77" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="190" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C15" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="191" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E15" s="192" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F15" s="193" t="s">
         <v>60</v>
       </c>
       <c r="G15" s="194">
-        <v>2</v>
-      </c>
-      <c r="H15" s="195">
-        <v>-2</v>
+        <v>8</v>
+      </c>
+      <c r="H15" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="I15" s="196" t="s">
         <v>60</v>
       </c>
       <c r="J15" s="194">
-        <v>13</v>
-      </c>
-      <c r="K15" s="195">
-        <v>-13</v>
-      </c>
-      <c r="L15" s="196"/>
-      <c r="M15" s="194"/>
+        <v>7</v>
+      </c>
+      <c r="K15" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="M15" s="194">
+        <v>6</v>
+      </c>
       <c r="N15" s="195" t="s">
         <v>0</v>
       </c>
       <c r="O15" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="P15" s="194">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q15" s="195" t="s">
         <v>0</v>
@@ -7779,10 +7818,10 @@
         <v>60</v>
       </c>
       <c r="S15" s="194">
-        <v>3</v>
-      </c>
-      <c r="T15" s="195">
-        <v>-3</v>
+        <v>4</v>
+      </c>
+      <c r="T15" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="U15" s="196" t="s">
         <v>60</v>
@@ -7790,23 +7829,23 @@
       <c r="V15" s="194">
         <v>8</v>
       </c>
-      <c r="W15" s="195">
-        <v>-8</v>
+      <c r="W15" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="X15" s="196" t="s">
         <v>88</v>
       </c>
       <c r="Y15" s="194">
-        <v>10</v>
-      </c>
-      <c r="Z15" s="195" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="Z15" s="195">
+        <v>-4</v>
       </c>
       <c r="AA15" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AB15" s="194">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC15" s="195" t="s">
         <v>0</v>
@@ -7815,58 +7854,58 @@
         <v>60</v>
       </c>
       <c r="AE15" s="194">
-        <v>6</v>
-      </c>
-      <c r="AF15" s="195">
-        <v>-6</v>
+        <v>8</v>
+      </c>
+      <c r="AF15" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AG15" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AH15" s="194">
-        <v>8</v>
-      </c>
-      <c r="AI15" s="195">
-        <v>-8</v>
+        <v>7</v>
+      </c>
+      <c r="AI15" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AJ15" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AK15" s="194">
-        <v>12</v>
-      </c>
-      <c r="AL15" s="195">
-        <v>-12</v>
+        <v>7</v>
+      </c>
+      <c r="AL15" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AM15" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AN15" s="194">
-        <v>4</v>
-      </c>
-      <c r="AO15" s="197">
-        <v>-4</v>
+        <v>14</v>
+      </c>
+      <c r="AO15" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AT15" s="198" t="s">
         <v>60</v>
       </c>
       <c r="AU15" s="194">
-        <v>4</v>
-      </c>
-      <c r="AV15" s="197">
-        <v>-4</v>
+        <v>9</v>
+      </c>
+      <c r="AV15" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AX15" s="4">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AY15" s="4">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AZ15" s="4">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="BA15" s="4">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="BB15" s="4">
         <v>12</v>
@@ -7878,10 +7917,10 @@
         <v>12</v>
       </c>
       <c r="BF15" s="90" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="BG15" s="91">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="BH15" s="189"/>
       <c r="BI15" s="92">
@@ -7891,10 +7930,10 @@
         <v>100</v>
       </c>
       <c r="BK15" s="94">
-        <v>73.333333333333329</v>
+        <v>75</v>
       </c>
       <c r="BL15" s="95">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="BM15" s="172"/>
       <c r="BN15" s="92">
@@ -7904,10 +7943,10 @@
         <v>101</v>
       </c>
       <c r="BP15" s="96">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="BQ15" s="97">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="BR15" s="98" t="s">
         <v>0</v>
@@ -7928,65 +7967,69 @@
         <v>0</v>
       </c>
       <c r="BY15" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:77" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B16" s="190" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C16" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="191" t="s">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c r="E16" s="192" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F16" s="193" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="G16" s="194">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H16" s="195" t="s">
         <v>0</v>
       </c>
       <c r="I16" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="J16" s="194">
+        <v>8</v>
+      </c>
+      <c r="K16" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="M16" s="194">
+        <v>15</v>
+      </c>
+      <c r="N16" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="O16" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" s="194">
+        <v>16</v>
+      </c>
+      <c r="Q16" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="R16" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="S16" s="194">
         <v>14</v>
       </c>
-      <c r="K16" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="L16" s="196"/>
-      <c r="M16" s="194"/>
-      <c r="N16" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="O16" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="P16" s="194">
-        <v>8</v>
-      </c>
-      <c r="Q16" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="R16" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="S16" s="194">
-        <v>6</v>
-      </c>
       <c r="T16" s="195" t="s">
         <v>0</v>
       </c>
       <c r="U16" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="V16" s="194">
         <v>9</v>
@@ -7995,16 +8038,16 @@
         <v>0</v>
       </c>
       <c r="X16" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="Y16" s="194">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z16" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AA16" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AB16" s="194">
         <v>11</v>
@@ -8013,61 +8056,61 @@
         <v>0</v>
       </c>
       <c r="AD16" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AE16" s="194">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AF16" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AG16" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AH16" s="194">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AI16" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AJ16" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AK16" s="194">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AL16" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AM16" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AN16" s="194">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AO16" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AT16" s="198" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AU16" s="194">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AV16" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX16" s="4">
-        <v>-93</v>
+        <v>161</v>
       </c>
       <c r="AY16" s="4">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="AZ16" s="4">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="BA16" s="4">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="BB16" s="4">
         <v>13</v>
@@ -8076,37 +8119,27 @@
         <v>1</v>
       </c>
       <c r="BY16" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="190" t="s">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="C17" s="191" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D17" s="191" t="s">
-        <v>118</v>
-      </c>
-      <c r="E17" s="192" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="193" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="194">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E17" s="192"/>
+      <c r="F17" s="193"/>
+      <c r="G17" s="194"/>
       <c r="H17" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="I17" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="J17" s="194">
-        <v>15</v>
-      </c>
+      <c r="I17" s="196"/>
+      <c r="J17" s="194"/>
       <c r="K17" s="195" t="s">
         <v>0</v>
       </c>
@@ -8115,107 +8148,71 @@
       <c r="N17" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="O17" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="P17" s="194">
-        <v>5</v>
-      </c>
+      <c r="O17" s="196"/>
+      <c r="P17" s="194"/>
       <c r="Q17" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="R17" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="S17" s="194">
-        <v>10</v>
-      </c>
+      <c r="R17" s="196"/>
+      <c r="S17" s="194"/>
       <c r="T17" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="U17" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="V17" s="194">
-        <v>12</v>
-      </c>
+      <c r="U17" s="196"/>
+      <c r="V17" s="194"/>
       <c r="W17" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="X17" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y17" s="194">
-        <v>16</v>
-      </c>
+      <c r="X17" s="196"/>
+      <c r="Y17" s="194"/>
       <c r="Z17" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="AA17" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB17" s="194">
-        <v>14</v>
-      </c>
+      <c r="AA17" s="196"/>
+      <c r="AB17" s="194"/>
       <c r="AC17" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="AD17" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE17" s="194">
-        <v>14</v>
-      </c>
+      <c r="AD17" s="196"/>
+      <c r="AE17" s="194"/>
       <c r="AF17" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="AG17" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH17" s="194">
-        <v>11</v>
-      </c>
+      <c r="AG17" s="196"/>
+      <c r="AH17" s="194"/>
       <c r="AI17" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="AJ17" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK17" s="194">
-        <v>16</v>
-      </c>
-      <c r="AL17" s="195">
-        <v>-16</v>
-      </c>
-      <c r="AM17" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN17" s="194">
-        <v>7</v>
-      </c>
+      <c r="AJ17" s="196"/>
+      <c r="AK17" s="194"/>
+      <c r="AL17" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="196"/>
+      <c r="AN17" s="194"/>
       <c r="AO17" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AT17" s="198" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU17" s="194">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="AU17" s="194" t="s">
+        <v>0</v>
       </c>
       <c r="AV17" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX17" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="4">
-        <v>100</v>
+        <v>-0.1</v>
       </c>
       <c r="AZ17" s="4">
-        <v>100</v>
+        <v>-0.1</v>
       </c>
       <c r="BA17" s="4">
-        <v>100</v>
+        <v>-0.1</v>
       </c>
       <c r="BB17" s="4">
         <v>14</v>
@@ -8224,7 +8221,7 @@
         <v>1</v>
       </c>
       <c r="BY17" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8323,65 +8320,69 @@
         <v>15</v>
       </c>
       <c r="BC18" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BY18" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="190" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C19" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="191" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="E19" s="192" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F19" s="193" t="s">
         <v>60</v>
       </c>
       <c r="G19" s="194">
-        <v>10</v>
-      </c>
-      <c r="H19" s="195" t="s">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="H19" s="195">
+        <v>-11</v>
       </c>
       <c r="I19" s="196" t="s">
         <v>60</v>
       </c>
       <c r="J19" s="194">
-        <v>16</v>
-      </c>
-      <c r="K19" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="L19" s="196"/>
-      <c r="M19" s="194"/>
-      <c r="N19" s="195" t="s">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="K19" s="195">
+        <v>-9</v>
+      </c>
+      <c r="L19" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="M19" s="194">
+        <v>11</v>
+      </c>
+      <c r="N19" s="195">
+        <v>-11</v>
       </c>
       <c r="O19" s="196" t="s">
         <v>60</v>
       </c>
       <c r="P19" s="194">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="195" t="s">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="Q19" s="195">
+        <v>-13</v>
       </c>
       <c r="R19" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="S19" s="194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T19" s="195">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="U19" s="196" t="s">
         <v>60</v>
@@ -8389,17 +8390,17 @@
       <c r="V19" s="194">
         <v>11</v>
       </c>
-      <c r="W19" s="195" t="s">
-        <v>0</v>
+      <c r="W19" s="195">
+        <v>-11</v>
       </c>
       <c r="X19" s="196" t="s">
         <v>60</v>
       </c>
       <c r="Y19" s="194">
-        <v>11</v>
-      </c>
-      <c r="Z19" s="195" t="s">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="Z19" s="195">
+        <v>-7</v>
       </c>
       <c r="AA19" s="196" t="s">
         <v>60</v>
@@ -8407,74 +8408,74 @@
       <c r="AB19" s="194">
         <v>12</v>
       </c>
-      <c r="AC19" s="195" t="s">
-        <v>0</v>
+      <c r="AC19" s="195">
+        <v>-12</v>
       </c>
       <c r="AD19" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AE19" s="194">
-        <v>7</v>
-      </c>
-      <c r="AF19" s="195" t="s">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="AF19" s="195">
+        <v>-9</v>
       </c>
       <c r="AG19" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AH19" s="194">
-        <v>10</v>
-      </c>
-      <c r="AI19" s="195" t="s">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="AI19" s="195">
+        <v>-13</v>
       </c>
       <c r="AJ19" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AK19" s="194">
-        <v>9</v>
-      </c>
-      <c r="AL19" s="195" t="s">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="AL19" s="195">
+        <v>-13</v>
       </c>
       <c r="AM19" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AN19" s="194">
-        <v>10</v>
-      </c>
-      <c r="AO19" s="197" t="s">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="AO19" s="197">
+        <v>-12</v>
       </c>
       <c r="AT19" s="198" t="s">
         <v>60</v>
       </c>
       <c r="AU19" s="194">
-        <v>14</v>
-      </c>
-      <c r="AV19" s="197" t="s">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="AV19" s="197">
+        <v>-12</v>
       </c>
       <c r="AX19" s="4">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="AY19" s="4">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="AZ19" s="4">
-        <v>106.2</v>
+        <v>124</v>
       </c>
       <c r="BA19" s="4">
-        <v>106.2</v>
+        <v>124</v>
       </c>
       <c r="BB19" s="4">
         <v>16</v>
       </c>
       <c r="BC19" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BY19" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8482,85 +8483,87 @@
       <c r="C20" s="103"/>
       <c r="D20" s="103"/>
       <c r="E20" s="199" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F20" s="104" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G20" s="105">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H20" s="122"/>
       <c r="I20" s="106" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="J20" s="105">
         <v>51</v>
       </c>
       <c r="K20" s="122"/>
       <c r="L20" s="106" t="s">
-        <v>159</v>
-      </c>
-      <c r="M20" s="105"/>
+        <v>132</v>
+      </c>
+      <c r="M20" s="105">
+        <v>48</v>
+      </c>
       <c r="N20" s="122"/>
       <c r="O20" s="106" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="P20" s="105">
         <v>42</v>
       </c>
       <c r="Q20" s="122"/>
       <c r="R20" s="106" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="S20" s="105">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="T20" s="122"/>
       <c r="U20" s="106" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="V20" s="105">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="W20" s="122"/>
       <c r="X20" s="106" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Y20" s="105">
         <v>38</v>
       </c>
       <c r="Z20" s="122"/>
       <c r="AA20" s="106" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AB20" s="105">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AC20" s="122"/>
       <c r="AD20" s="106" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AE20" s="105">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="AF20" s="122"/>
       <c r="AG20" s="106" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AH20" s="105">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="AI20" s="122"/>
       <c r="AJ20" s="106" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AK20" s="105">
         <v>42</v>
       </c>
       <c r="AL20" s="122"/>
       <c r="AM20" s="106" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AN20" s="105">
         <v>38</v>
@@ -8580,7 +8583,7 @@
       <c r="BM20" s="13"/>
       <c r="BN20" s="13"/>
       <c r="BY20" s="12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:77" s="13" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8589,99 +8592,99 @@
       <c r="C21" s="201"/>
       <c r="D21" s="201"/>
       <c r="E21" s="202" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F21" s="203"/>
       <c r="G21" s="204">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H21" s="205">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I21" s="206"/>
       <c r="J21" s="204">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K21" s="205">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="L21" s="206"/>
       <c r="M21" s="204">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="N21" s="205">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="O21" s="206"/>
       <c r="P21" s="204">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q21" s="205">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="R21" s="206"/>
       <c r="S21" s="204">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T21" s="205">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="U21" s="206"/>
       <c r="V21" s="204">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="W21" s="205">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="X21" s="206"/>
       <c r="Y21" s="204">
         <v>1</v>
       </c>
       <c r="Z21" s="205">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="AA21" s="206"/>
       <c r="AB21" s="204">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AC21" s="205">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AD21" s="206"/>
       <c r="AE21" s="204">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF21" s="205">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AG21" s="206"/>
       <c r="AH21" s="204">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI21" s="205">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ21" s="206"/>
       <c r="AK21" s="204">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AL21" s="205">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="AM21" s="206"/>
       <c r="AN21" s="204">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AO21" s="207">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AP21" s="3"/>
       <c r="AT21" s="208"/>
       <c r="AU21" s="209">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV21" s="210">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AW21" s="3"/>
       <c r="AX21" s="14"/>
@@ -8705,7 +8708,7 @@
       <c r="BV21" s="6"/>
       <c r="BW21" s="6"/>
       <c r="BY21" s="12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:77" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8721,84 +8724,84 @@
         <v>10</v>
       </c>
       <c r="H22" s="129">
-        <v>79.666666666666671</v>
+        <v>81</v>
       </c>
       <c r="I22" s="130"/>
       <c r="J22" s="128">
         <v>9</v>
       </c>
       <c r="K22" s="129">
-        <v>85</v>
+        <v>82.25</v>
       </c>
       <c r="L22" s="130"/>
       <c r="M22" s="128">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N22" s="129">
-        <v>86.333333333333329</v>
+        <v>86.25</v>
       </c>
       <c r="O22" s="130"/>
       <c r="P22" s="128">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q22" s="129">
-        <v>86.666666666666671</v>
+        <v>85.5</v>
       </c>
       <c r="R22" s="130"/>
       <c r="S22" s="128">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T22" s="129">
-        <v>91.333333333333329</v>
+        <v>86</v>
       </c>
       <c r="U22" s="130"/>
       <c r="V22" s="128">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W22" s="129">
-        <v>87.666666666666671</v>
+        <v>85.75</v>
       </c>
       <c r="X22" s="130"/>
       <c r="Y22" s="128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z22" s="129">
-        <v>102.33333333333333</v>
+        <v>101</v>
       </c>
       <c r="AA22" s="130"/>
       <c r="AB22" s="128">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AC22" s="129">
-        <v>86</v>
+        <v>87.5</v>
       </c>
       <c r="AD22" s="130"/>
       <c r="AE22" s="128">
         <v>3</v>
       </c>
       <c r="AF22" s="129">
-        <v>99.333333333333329</v>
+        <v>97.25</v>
       </c>
       <c r="AG22" s="130"/>
       <c r="AH22" s="128">
         <v>12</v>
       </c>
       <c r="AI22" s="129">
-        <v>73.333333333333329</v>
+        <v>75</v>
       </c>
       <c r="AJ22" s="130"/>
       <c r="AK22" s="128">
         <v>11</v>
       </c>
       <c r="AL22" s="129">
-        <v>76.333333333333329</v>
+        <v>78</v>
       </c>
       <c r="AM22" s="130"/>
       <c r="AN22" s="128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO22" s="131">
-        <v>103</v>
+        <v>97.75</v>
       </c>
       <c r="AP22" s="3"/>
       <c r="AU22" s="14"/>
@@ -8823,7 +8826,7 @@
       <c r="BV22" s="6"/>
       <c r="BW22" s="6"/>
       <c r="BY22" s="12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:77" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8837,62 +8840,62 @@
       <c r="F23" s="135"/>
       <c r="G23" s="136"/>
       <c r="H23" s="137">
-        <v>239</v>
+        <v>324</v>
       </c>
       <c r="I23" s="138"/>
       <c r="J23" s="136"/>
       <c r="K23" s="137">
-        <v>255</v>
+        <v>329</v>
       </c>
       <c r="L23" s="138"/>
       <c r="M23" s="136"/>
       <c r="N23" s="137">
-        <v>259</v>
+        <v>345</v>
       </c>
       <c r="O23" s="138"/>
       <c r="P23" s="136"/>
       <c r="Q23" s="137">
-        <v>260</v>
+        <v>342</v>
       </c>
       <c r="R23" s="138"/>
       <c r="S23" s="136"/>
       <c r="T23" s="137">
-        <v>274</v>
+        <v>344</v>
       </c>
       <c r="U23" s="138"/>
       <c r="V23" s="136"/>
       <c r="W23" s="137">
-        <v>263</v>
+        <v>343</v>
       </c>
       <c r="X23" s="138"/>
       <c r="Y23" s="136"/>
       <c r="Z23" s="137">
-        <v>307</v>
+        <v>404</v>
       </c>
       <c r="AA23" s="138"/>
       <c r="AB23" s="136"/>
       <c r="AC23" s="137">
-        <v>258</v>
+        <v>350</v>
       </c>
       <c r="AD23" s="138"/>
       <c r="AE23" s="136"/>
       <c r="AF23" s="137">
-        <v>298</v>
+        <v>389</v>
       </c>
       <c r="AG23" s="138"/>
       <c r="AH23" s="136"/>
       <c r="AI23" s="137">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="AJ23" s="138"/>
       <c r="AK23" s="136"/>
       <c r="AL23" s="137">
-        <v>229</v>
+        <v>312</v>
       </c>
       <c r="AM23" s="138"/>
       <c r="AN23" s="136"/>
       <c r="AO23" s="139">
-        <v>309</v>
+        <v>391</v>
       </c>
       <c r="AP23" s="3"/>
       <c r="AU23" s="14"/>
@@ -8907,7 +8910,7 @@
       <c r="BV23" s="6"/>
       <c r="BW23" s="6"/>
       <c r="BY23" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:77" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8926,7 +8929,7 @@
       <c r="I24" s="138"/>
       <c r="J24" s="136"/>
       <c r="K24" s="137">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L24" s="138"/>
       <c r="M24" s="136"/>
@@ -8976,7 +8979,7 @@
       <c r="AM24" s="138"/>
       <c r="AN24" s="136"/>
       <c r="AO24" s="139">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AP24" s="3"/>
       <c r="AW24" s="3"/>
@@ -8990,7 +8993,7 @@
       <c r="BV24" s="6"/>
       <c r="BW24" s="6"/>
       <c r="BY24" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:77" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9003,87 +9006,87 @@
       </c>
       <c r="F25" s="135"/>
       <c r="G25" s="140">
-        <v>0.53333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="H25" s="137">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I25" s="138"/>
       <c r="J25" s="140">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K25" s="137">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L25" s="138"/>
       <c r="M25" s="140">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="N25" s="137">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O25" s="138"/>
       <c r="P25" s="140">
-        <v>0.73333333333333328</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="Q25" s="137">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="R25" s="138"/>
       <c r="S25" s="140">
-        <v>0.46666666666666667</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="T25" s="137">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U25" s="138"/>
       <c r="V25" s="140">
-        <v>0.66666666666666663</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="W25" s="137">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="X25" s="138"/>
       <c r="Y25" s="140">
-        <v>0.73333333333333328</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="Z25" s="137">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AA25" s="138"/>
       <c r="AB25" s="140">
-        <v>0.53333333333333333</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AC25" s="137">
         <v>8</v>
       </c>
       <c r="AD25" s="138"/>
       <c r="AE25" s="140">
-        <v>0.6</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="AF25" s="137">
         <v>9</v>
       </c>
       <c r="AG25" s="138"/>
       <c r="AH25" s="140">
-        <v>0.53333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="AI25" s="137">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ25" s="138"/>
       <c r="AK25" s="140">
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="AL25" s="137">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AM25" s="138"/>
       <c r="AN25" s="140">
-        <v>0.6</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AO25" s="139">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP25" s="3"/>
       <c r="AW25" s="3"/>
@@ -9097,7 +9100,7 @@
       <c r="BV25" s="6"/>
       <c r="BW25" s="6"/>
       <c r="BY25" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:77" s="13" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9110,87 +9113,87 @@
       </c>
       <c r="F26" s="144"/>
       <c r="G26" s="145">
-        <v>0.3968253968253968</v>
+        <v>0.41558441558441561</v>
       </c>
       <c r="H26" s="146">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I26" s="147"/>
       <c r="J26" s="145">
-        <v>0.5714285714285714</v>
+        <v>0.55844155844155841</v>
       </c>
       <c r="K26" s="146">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="L26" s="147"/>
       <c r="M26" s="145">
-        <v>0.44444444444444442</v>
+        <v>0.46753246753246752</v>
       </c>
       <c r="N26" s="146">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="O26" s="147"/>
       <c r="P26" s="145">
-        <v>0.61904761904761907</v>
+        <v>0.61038961038961037</v>
       </c>
       <c r="Q26" s="146">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="R26" s="147"/>
       <c r="S26" s="145">
-        <v>0.58730158730158732</v>
+        <v>0.55844155844155841</v>
       </c>
       <c r="T26" s="146">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="U26" s="147"/>
       <c r="V26" s="145">
-        <v>0.50793650793650791</v>
+        <v>0.51948051948051943</v>
       </c>
       <c r="W26" s="146">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="X26" s="147"/>
       <c r="Y26" s="145">
-        <v>0.65079365079365081</v>
+        <v>0.64935064935064934</v>
       </c>
       <c r="Z26" s="146">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AA26" s="147"/>
       <c r="AB26" s="145">
-        <v>0.53968253968253965</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="AC26" s="146">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AD26" s="147"/>
       <c r="AE26" s="145">
-        <v>0.60317460317460314</v>
+        <v>0.61038961038961037</v>
       </c>
       <c r="AF26" s="146">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="AG26" s="147"/>
       <c r="AH26" s="145">
-        <v>0.3968253968253968</v>
+        <v>0.41558441558441561</v>
       </c>
       <c r="AI26" s="146">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AJ26" s="147"/>
       <c r="AK26" s="145">
-        <v>0.44444444444444442</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="AL26" s="146">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="AM26" s="147"/>
       <c r="AN26" s="145">
-        <v>0.66666666666666663</v>
+        <v>0.64935064935064934</v>
       </c>
       <c r="AO26" s="148">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AP26" s="3"/>
       <c r="AW26" s="3"/>
@@ -9214,7 +9217,7 @@
       <c r="BV26" s="6"/>
       <c r="BW26" s="6"/>
       <c r="BY26" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:77" s="7" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9238,7 +9241,7 @@
         <v>68</v>
       </c>
       <c r="P27" s="153">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="Q27" s="150"/>
       <c r="R27" s="150"/>
@@ -9251,7 +9254,7 @@
         <v>69</v>
       </c>
       <c r="Y27" s="154">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Z27" s="150"/>
       <c r="AA27" s="152"/>
@@ -9264,7 +9267,7 @@
         <v>70</v>
       </c>
       <c r="AH27" s="154">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI27" s="150"/>
       <c r="AJ27" s="152"/>
@@ -9273,7 +9276,7 @@
       <c r="AM27" s="150"/>
       <c r="AN27" s="150"/>
       <c r="AO27" s="155" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AP27" s="3"/>
       <c r="AW27" s="3"/>
@@ -9287,7 +9290,7 @@
       <c r="BV27" s="6"/>
       <c r="BW27" s="6"/>
       <c r="BY27" s="12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:77" s="7" customFormat="1" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -9344,7 +9347,7 @@
       <c r="BV28" s="6"/>
       <c r="BW28" s="6"/>
       <c r="BY28" s="12" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:77" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -9353,7 +9356,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="17"/>
@@ -9405,7 +9408,7 @@
       <c r="BV29" s="6"/>
       <c r="BW29" s="6"/>
       <c r="BY29" s="12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:77" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -9462,7 +9465,7 @@
       <c r="BV30" s="6"/>
       <c r="BW30" s="6"/>
       <c r="BY30" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:77" s="7" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9474,7 +9477,7 @@
         <v>71</v>
       </c>
       <c r="F31" s="23">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G31" s="18"/>
       <c r="H31" s="17"/>
@@ -9541,47 +9544,47 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="25">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H32" s="26"/>
       <c r="I32" s="26"/>
       <c r="J32" s="25">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K32" s="26"/>
       <c r="L32" s="26"/>
       <c r="M32" s="25">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="P32" s="25">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="S32" s="25">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="V32" s="25">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Y32" s="25">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AB32" s="25">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AE32" s="25">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AH32" s="25">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AK32" s="25">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AN32" s="25">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AU32" s="25">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="BY32" s="12"/>
     </row>
@@ -9613,47 +9616,47 @@
       <c r="F34" s="26"/>
       <c r="G34" s="25"/>
       <c r="H34" s="26">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I34" s="26"/>
       <c r="J34" s="26"/>
       <c r="K34" s="26">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="L34" s="26"/>
       <c r="M34" s="26"/>
       <c r="N34" s="26">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="Q34" s="26">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="T34" s="26">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="W34" s="26">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="Z34" s="26">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="AC34" s="26">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AF34" s="26">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AI34" s="26">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AL34" s="26">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="AO34" s="26">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AV34" s="26">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="BY34" s="12"/>
     </row>
@@ -9663,44 +9666,44 @@
       <c r="F35" s="3"/>
       <c r="G35" s="27"/>
       <c r="H35" s="28">
-        <v>79.666666666666671</v>
+        <v>81</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="28">
-        <v>85</v>
+        <v>82.25</v>
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="28">
-        <v>86.333333333333329</v>
+        <v>86.25</v>
       </c>
       <c r="Q35" s="28">
-        <v>86.666666666666671</v>
+        <v>85.5</v>
       </c>
       <c r="T35" s="28">
-        <v>91.333333333333329</v>
+        <v>86</v>
       </c>
       <c r="W35" s="28">
-        <v>87.666666666666671</v>
+        <v>85.75</v>
       </c>
       <c r="Z35" s="28">
-        <v>102.33333333333333</v>
+        <v>101</v>
       </c>
       <c r="AC35" s="28">
-        <v>86</v>
+        <v>87.5</v>
       </c>
       <c r="AF35" s="28">
-        <v>99.333333333333329</v>
+        <v>97.25</v>
       </c>
       <c r="AI35" s="28">
-        <v>73.333333333333329</v>
+        <v>75</v>
       </c>
       <c r="AL35" s="28">
-        <v>76.333333333333329</v>
+        <v>78</v>
       </c>
       <c r="AO35" s="28">
-        <v>103</v>
+        <v>97.75</v>
       </c>
       <c r="BY35" s="12"/>
     </row>
@@ -9710,44 +9713,44 @@
       <c r="F36" s="3"/>
       <c r="G36" s="27"/>
       <c r="H36" s="28">
-        <v>239</v>
+        <v>324</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="28">
-        <v>255</v>
+        <v>329</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="28">
-        <v>259</v>
+        <v>345</v>
       </c>
       <c r="Q36" s="28">
-        <v>260</v>
+        <v>342</v>
       </c>
       <c r="T36" s="28">
-        <v>274</v>
+        <v>344</v>
       </c>
       <c r="W36" s="28">
-        <v>263</v>
+        <v>343</v>
       </c>
       <c r="Z36" s="28">
-        <v>307</v>
+        <v>404</v>
       </c>
       <c r="AC36" s="28">
-        <v>258</v>
+        <v>350</v>
       </c>
       <c r="AF36" s="28">
-        <v>298</v>
+        <v>389</v>
       </c>
       <c r="AI36" s="28">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="AL36" s="28">
-        <v>229</v>
+        <v>312</v>
       </c>
       <c r="AO36" s="28">
-        <v>309</v>
+        <v>391</v>
       </c>
       <c r="BY36" s="12"/>
     </row>
@@ -9762,7 +9765,7 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="28">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
@@ -9794,7 +9797,7 @@
         <v>51</v>
       </c>
       <c r="AO37" s="28">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="BY37" s="12"/>
     </row>
@@ -9804,29 +9807,29 @@
       <c r="F38" s="3"/>
       <c r="G38" s="27"/>
       <c r="H38" s="28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="28">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q38" s="28">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="T38" s="28">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W38" s="28">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Z38" s="28">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AC38" s="28">
         <v>8</v>
@@ -9835,13 +9838,13 @@
         <v>9</v>
       </c>
       <c r="AI38" s="28">
+        <v>7</v>
+      </c>
+      <c r="AL38" s="28">
+        <v>7</v>
+      </c>
+      <c r="AO38" s="28">
         <v>8</v>
-      </c>
-      <c r="AL38" s="28">
-        <v>5</v>
-      </c>
-      <c r="AO38" s="28">
-        <v>9</v>
       </c>
       <c r="BY38" s="12"/>
     </row>
@@ -9851,44 +9854,44 @@
       <c r="F39" s="3"/>
       <c r="G39" s="27"/>
       <c r="H39" s="28">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="28">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="28">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="Q39" s="28">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="T39" s="28">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="W39" s="28">
+        <v>40</v>
+      </c>
+      <c r="Z39" s="28">
+        <v>50</v>
+      </c>
+      <c r="AC39" s="28">
+        <v>42</v>
+      </c>
+      <c r="AF39" s="28">
+        <v>47</v>
+      </c>
+      <c r="AI39" s="28">
         <v>32</v>
       </c>
-      <c r="Z39" s="28">
-        <v>41</v>
-      </c>
-      <c r="AC39" s="28">
-        <v>34</v>
-      </c>
-      <c r="AF39" s="28">
-        <v>38</v>
-      </c>
-      <c r="AI39" s="28">
-        <v>25</v>
-      </c>
       <c r="AL39" s="28">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="AO39" s="28">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="BY39" s="12"/>
     </row>
@@ -9907,27 +9910,27 @@
       <c r="K40" s="28"/>
       <c r="L40" s="3"/>
       <c r="M40" s="27">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N40" s="28"/>
       <c r="P40" s="27">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q40" s="28"/>
       <c r="S40" s="27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T40" s="28"/>
       <c r="V40" s="27">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W40" s="28"/>
       <c r="Y40" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z40" s="28"/>
       <c r="AB40" s="27">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AC40" s="28"/>
       <c r="AE40" s="27">
@@ -9943,7 +9946,7 @@
       </c>
       <c r="AL40" s="28"/>
       <c r="AN40" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO40" s="28"/>
       <c r="AR40" s="29">
@@ -9959,44 +9962,44 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="27">
-        <v>0.53333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="27">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="27">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="P41" s="27">
-        <v>0.73333333333333328</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="S41" s="27">
-        <v>0.46666666666666667</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="V41" s="27">
-        <v>0.66666666666666663</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="Y41" s="27">
-        <v>0.73333333333333328</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="AB41" s="27">
-        <v>0.53333333333333333</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AE41" s="27">
-        <v>0.6</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="AH41" s="27">
-        <v>0.53333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="AK41" s="27">
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="AN41" s="27">
-        <v>0.6</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AR41" s="29">
         <v>1</v>
@@ -10011,44 +10014,44 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="27">
-        <v>0.3968253968253968</v>
+        <v>0.41558441558441561</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="27">
-        <v>0.5714285714285714</v>
+        <v>0.55844155844155841</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="27">
-        <v>0.44444444444444442</v>
+        <v>0.46753246753246752</v>
       </c>
       <c r="P42" s="27">
-        <v>0.61904761904761907</v>
+        <v>0.61038961038961037</v>
       </c>
       <c r="S42" s="27">
-        <v>0.58730158730158732</v>
+        <v>0.55844155844155841</v>
       </c>
       <c r="V42" s="27">
-        <v>0.50793650793650791</v>
+        <v>0.51948051948051943</v>
       </c>
       <c r="Y42" s="27">
-        <v>0.65079365079365081</v>
+        <v>0.64935064935064934</v>
       </c>
       <c r="AB42" s="27">
-        <v>0.53968253968253965</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="AE42" s="27">
-        <v>0.60317460317460314</v>
+        <v>0.61038961038961037</v>
       </c>
       <c r="AH42" s="27">
-        <v>0.3968253968253968</v>
+        <v>0.41558441558441561</v>
       </c>
       <c r="AK42" s="27">
-        <v>0.44444444444444442</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="AN42" s="27">
-        <v>0.66666666666666663</v>
+        <v>0.64935064935064934</v>
       </c>
       <c r="BY42" s="12"/>
     </row>
@@ -10086,7 +10089,7 @@
         <v>76</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="BY45" s="12"/>
     </row>
@@ -12198,7 +12201,7 @@
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
       <c r="U1" s="168" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
@@ -12243,94 +12246,94 @@
     </row>
     <row r="2" spans="2:99" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="307" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C2" s="308" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D2" s="309"/>
       <c r="E2" s="156" t="s">
         <v>91</v>
       </c>
       <c r="F2" s="115">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="G2" s="157"/>
       <c r="H2" s="156" t="s">
         <v>92</v>
       </c>
       <c r="I2" s="115">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="J2" s="157"/>
       <c r="K2" s="156" t="s">
         <v>93</v>
       </c>
       <c r="L2" s="115">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="M2" s="157"/>
       <c r="N2" s="156" t="s">
         <v>94</v>
       </c>
       <c r="O2" s="115">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="P2" s="157"/>
       <c r="Q2" s="156" t="s">
         <v>95</v>
       </c>
       <c r="R2" s="115">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S2" s="157"/>
       <c r="T2" s="156" t="s">
         <v>96</v>
       </c>
       <c r="U2" s="115">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="V2" s="157"/>
       <c r="W2" s="156" t="s">
         <v>97</v>
       </c>
       <c r="X2" s="115">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="Y2" s="157"/>
       <c r="Z2" s="156" t="s">
         <v>98</v>
       </c>
       <c r="AA2" s="115">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="AB2" s="157"/>
       <c r="AC2" s="156" t="s">
         <v>99</v>
       </c>
       <c r="AD2" s="115">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AE2" s="157"/>
       <c r="AF2" s="156" t="s">
         <v>100</v>
       </c>
       <c r="AG2" s="115">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="AH2" s="157"/>
       <c r="AI2" s="156" t="s">
         <v>101</v>
       </c>
       <c r="AJ2" s="115">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="AK2" s="157"/>
       <c r="AL2" s="156" t="s">
         <v>102</v>
       </c>
       <c r="AM2" s="115">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="AN2" s="158"/>
       <c r="AO2" s="211">
@@ -12340,7 +12343,7 @@
         <v>8</v>
       </c>
       <c r="AQ2" s="39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR2" s="40" t="s">
         <v>9</v>
@@ -12472,7 +12475,7 @@
         <v>14</v>
       </c>
       <c r="AQ3" s="41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR3" s="40" t="s">
         <v>15</v>
@@ -13358,116 +13361,116 @@
       <c r="C8" s="191">
         <v>14</v>
       </c>
-      <c r="D8" s="222" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="193" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="K8" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="L8" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="M8" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="N8" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="O8" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="P8" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="R8" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="S8" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="T8" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="U8" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="V8" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="W8" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="X8" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="225" t="s">
-        <v>0</v>
+      <c r="D8" s="222">
+        <v>14</v>
+      </c>
+      <c r="E8" s="193">
+        <v>5</v>
+      </c>
+      <c r="F8" s="223">
+        <v>7</v>
+      </c>
+      <c r="G8" s="224">
+        <v>85</v>
+      </c>
+      <c r="H8" s="196">
+        <v>11</v>
+      </c>
+      <c r="I8" s="223">
+        <v>7</v>
+      </c>
+      <c r="J8" s="224">
+        <v>72</v>
+      </c>
+      <c r="K8" s="196">
+        <v>4</v>
+      </c>
+      <c r="L8" s="223">
+        <v>8</v>
+      </c>
+      <c r="M8" s="224">
+        <v>86</v>
+      </c>
+      <c r="N8" s="196">
+        <v>7</v>
+      </c>
+      <c r="O8" s="223">
+        <v>8</v>
+      </c>
+      <c r="P8" s="224">
+        <v>82</v>
+      </c>
+      <c r="Q8" s="196">
+        <v>12</v>
+      </c>
+      <c r="R8" s="223">
+        <v>6</v>
+      </c>
+      <c r="S8" s="224">
+        <v>70</v>
+      </c>
+      <c r="T8" s="196">
+        <v>8</v>
+      </c>
+      <c r="U8" s="223">
+        <v>8</v>
+      </c>
+      <c r="V8" s="224">
+        <v>80</v>
+      </c>
+      <c r="W8" s="196">
+        <v>1</v>
+      </c>
+      <c r="X8" s="223">
+        <v>9</v>
+      </c>
+      <c r="Y8" s="224">
+        <v>97</v>
+      </c>
+      <c r="Z8" s="196">
+        <v>2</v>
+      </c>
+      <c r="AA8" s="223">
+        <v>8</v>
+      </c>
+      <c r="AB8" s="224">
+        <v>92</v>
+      </c>
+      <c r="AC8" s="196">
+        <v>3</v>
+      </c>
+      <c r="AD8" s="223">
+        <v>9</v>
+      </c>
+      <c r="AE8" s="224">
+        <v>91</v>
+      </c>
+      <c r="AF8" s="196">
+        <v>8</v>
+      </c>
+      <c r="AG8" s="223">
+        <v>7</v>
+      </c>
+      <c r="AH8" s="224">
+        <v>80</v>
+      </c>
+      <c r="AI8" s="196">
+        <v>6</v>
+      </c>
+      <c r="AJ8" s="223">
+        <v>7</v>
+      </c>
+      <c r="AK8" s="224">
+        <v>83</v>
+      </c>
+      <c r="AL8" s="196">
+        <v>10</v>
+      </c>
+      <c r="AM8" s="223">
+        <v>8</v>
+      </c>
+      <c r="AN8" s="225">
+        <v>78</v>
       </c>
       <c r="AO8" s="45"/>
       <c r="AQ8" s="45"/>
@@ -13479,85 +13482,85 @@
         <v>0</v>
       </c>
       <c r="BL8" s="4"/>
-      <c r="BM8" s="4" t="s">
-        <v>0</v>
+      <c r="BM8" s="4">
+        <v>85</v>
       </c>
       <c r="BN8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="BO8" s="4"/>
-      <c r="BP8" s="4" t="s">
-        <v>0</v>
+      <c r="BP8" s="4">
+        <v>72</v>
       </c>
       <c r="BQ8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="BR8" s="4"/>
-      <c r="BS8" s="4" t="s">
-        <v>0</v>
+      <c r="BS8" s="4">
+        <v>86</v>
       </c>
       <c r="BT8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="BU8" s="4"/>
-      <c r="BV8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW8" s="4" t="s">
-        <v>0</v>
+      <c r="BV8" s="4">
+        <v>82</v>
+      </c>
+      <c r="BW8" s="4">
+        <v>1</v>
       </c>
       <c r="BX8" s="4"/>
-      <c r="BY8" s="4" t="s">
-        <v>0</v>
+      <c r="BY8" s="4">
+        <v>70</v>
       </c>
       <c r="BZ8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CA8" s="4"/>
-      <c r="CB8" s="4" t="s">
-        <v>0</v>
+      <c r="CB8" s="4">
+        <v>80</v>
       </c>
       <c r="CC8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CD8" s="4"/>
-      <c r="CE8" s="4" t="s">
-        <v>0</v>
+      <c r="CE8" s="4">
+        <v>97</v>
       </c>
       <c r="CF8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CG8" s="4"/>
-      <c r="CH8" s="4" t="s">
-        <v>0</v>
+      <c r="CH8" s="4">
+        <v>92</v>
       </c>
       <c r="CI8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CJ8" s="4"/>
-      <c r="CK8" s="4" t="s">
-        <v>0</v>
+      <c r="CK8" s="4">
+        <v>91</v>
       </c>
       <c r="CL8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CM8" s="4"/>
-      <c r="CN8" s="4" t="s">
-        <v>0</v>
+      <c r="CN8" s="4">
+        <v>80</v>
       </c>
       <c r="CO8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CP8" s="4"/>
-      <c r="CQ8" s="4" t="s">
-        <v>0</v>
+      <c r="CQ8" s="4">
+        <v>83</v>
       </c>
       <c r="CR8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CS8" s="4"/>
-      <c r="CT8" s="4" t="s">
-        <v>0</v>
+      <c r="CT8" s="4">
+        <v>78</v>
       </c>
       <c r="CU8" s="4"/>
     </row>
@@ -13685,7 +13688,7 @@
       </c>
       <c r="AQ9" s="45"/>
       <c r="AR9" s="47" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AS9" s="4">
         <v>15</v>
@@ -13897,11 +13900,11 @@
       </c>
       <c r="AO10" s="45"/>
       <c r="AP10" s="226" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AQ10" s="45"/>
       <c r="AR10" s="47" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AS10" s="4">
         <v>15</v>
@@ -14115,7 +14118,7 @@
       <c r="AP11" s="46"/>
       <c r="AQ11" s="45"/>
       <c r="AR11" s="47" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AS11" s="4">
         <v>13</v>
@@ -14329,7 +14332,7 @@
       <c r="AP12" s="46"/>
       <c r="AQ12" s="45"/>
       <c r="AR12" s="47" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AS12" s="4">
         <v>13</v>
@@ -16123,115 +16126,115 @@
         <v>22</v>
       </c>
       <c r="D21" s="237">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="E21" s="238">
         <v>10</v>
       </c>
       <c r="F21" s="239">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G21" s="240">
-        <v>239</v>
+        <v>324</v>
       </c>
       <c r="H21" s="241">
         <v>9</v>
       </c>
       <c r="I21" s="239">
+        <v>43</v>
+      </c>
+      <c r="J21" s="240">
+        <v>329</v>
+      </c>
+      <c r="K21" s="241">
+        <v>5</v>
+      </c>
+      <c r="L21" s="239">
         <v>36</v>
       </c>
-      <c r="J21" s="240">
-        <v>255</v>
-      </c>
-      <c r="K21" s="241">
+      <c r="M21" s="240">
+        <v>345</v>
+      </c>
+      <c r="N21" s="241">
+        <v>8</v>
+      </c>
+      <c r="O21" s="239">
+        <v>47</v>
+      </c>
+      <c r="P21" s="240">
+        <v>342</v>
+      </c>
+      <c r="Q21" s="241">
+        <v>6</v>
+      </c>
+      <c r="R21" s="239">
+        <v>43</v>
+      </c>
+      <c r="S21" s="240">
+        <v>344</v>
+      </c>
+      <c r="T21" s="241">
         <v>7</v>
       </c>
-      <c r="L21" s="239">
-        <v>28</v>
-      </c>
-      <c r="M21" s="240">
-        <v>259</v>
-      </c>
-      <c r="N21" s="241">
-        <v>6</v>
-      </c>
-      <c r="O21" s="239">
-        <v>39</v>
-      </c>
-      <c r="P21" s="240">
-        <v>260</v>
-      </c>
-      <c r="Q21" s="241">
+      <c r="U21" s="239">
+        <v>40</v>
+      </c>
+      <c r="V21" s="240">
+        <v>343</v>
+      </c>
+      <c r="W21" s="241">
+        <v>1</v>
+      </c>
+      <c r="X21" s="239">
+        <v>50</v>
+      </c>
+      <c r="Y21" s="240">
+        <v>404</v>
+      </c>
+      <c r="Z21" s="241">
         <v>4</v>
       </c>
-      <c r="R21" s="239">
-        <v>37</v>
-      </c>
-      <c r="S21" s="240">
-        <v>274</v>
-      </c>
-      <c r="T21" s="241">
-        <v>5</v>
-      </c>
-      <c r="U21" s="239">
-        <v>32</v>
-      </c>
-      <c r="V21" s="240">
-        <v>263</v>
-      </c>
-      <c r="W21" s="241">
-        <v>2</v>
-      </c>
-      <c r="X21" s="239">
-        <v>41</v>
-      </c>
-      <c r="Y21" s="240">
-        <v>307</v>
-      </c>
-      <c r="Z21" s="241">
-        <v>8</v>
-      </c>
       <c r="AA21" s="239">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AB21" s="240">
-        <v>258</v>
+        <v>350</v>
       </c>
       <c r="AC21" s="241">
         <v>3</v>
       </c>
       <c r="AD21" s="239">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="AE21" s="240">
-        <v>298</v>
+        <v>389</v>
       </c>
       <c r="AF21" s="241">
         <v>12</v>
       </c>
       <c r="AG21" s="239">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AH21" s="240">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="AI21" s="241">
         <v>11</v>
       </c>
       <c r="AJ21" s="239">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="AK21" s="240">
-        <v>229</v>
+        <v>312</v>
       </c>
       <c r="AL21" s="241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM21" s="239">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AN21" s="242">
-        <v>309</v>
+        <v>391</v>
       </c>
       <c r="AO21" s="48"/>
       <c r="AP21" s="49"/>
@@ -16242,62 +16245,62 @@
       <c r="BK21" s="4"/>
       <c r="BL21" s="4"/>
       <c r="BM21" s="4">
-        <v>239</v>
+        <v>324</v>
       </c>
       <c r="BN21" s="4"/>
       <c r="BO21" s="4"/>
       <c r="BP21" s="4">
-        <v>255</v>
+        <v>329</v>
       </c>
       <c r="BQ21" s="4"/>
       <c r="BR21" s="4"/>
       <c r="BS21" s="4">
-        <v>259</v>
+        <v>345</v>
       </c>
       <c r="BT21" s="4"/>
       <c r="BU21" s="4"/>
       <c r="BV21" s="4">
-        <v>260</v>
+        <v>342</v>
       </c>
       <c r="BW21" s="4"/>
       <c r="BX21" s="4"/>
       <c r="BY21" s="4">
-        <v>274</v>
+        <v>344</v>
       </c>
       <c r="BZ21" s="4"/>
       <c r="CA21" s="4"/>
       <c r="CB21" s="4">
-        <v>263</v>
+        <v>343</v>
       </c>
       <c r="CC21" s="4"/>
       <c r="CD21" s="4"/>
       <c r="CE21" s="4">
-        <v>307</v>
+        <v>404</v>
       </c>
       <c r="CF21" s="4"/>
       <c r="CG21" s="4"/>
       <c r="CH21" s="4">
-        <v>258</v>
+        <v>350</v>
       </c>
       <c r="CI21" s="4"/>
       <c r="CJ21" s="4"/>
       <c r="CK21" s="4">
-        <v>298</v>
+        <v>389</v>
       </c>
       <c r="CL21" s="4"/>
       <c r="CM21" s="4"/>
       <c r="CN21" s="4">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="CO21" s="4"/>
       <c r="CP21" s="4"/>
       <c r="CQ21" s="4">
-        <v>229</v>
+        <v>312</v>
       </c>
       <c r="CR21" s="4"/>
       <c r="CS21" s="4"/>
       <c r="CT21" s="4">
-        <v>309</v>
+        <v>391</v>
       </c>
       <c r="CU21" s="4"/>
     </row>
@@ -16308,49 +16311,49 @@
         <v>23</v>
       </c>
       <c r="E22" s="246">
-        <v>7.333333333333333</v>
+        <v>6.75</v>
       </c>
       <c r="F22" s="247">
-        <v>6.25</v>
+        <v>6.4</v>
       </c>
       <c r="G22" s="248">
-        <v>79.666666666666671</v>
+        <v>81</v>
       </c>
       <c r="H22" s="249">
-        <v>6.25</v>
+        <v>7.2</v>
       </c>
       <c r="I22" s="247">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="J22" s="248">
-        <v>85</v>
+        <v>82.25</v>
       </c>
       <c r="K22" s="249">
-        <v>4.333333333333333</v>
+        <v>4.25</v>
       </c>
       <c r="L22" s="247">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="M22" s="248">
-        <v>86.333333333333329</v>
+        <v>86.25</v>
       </c>
       <c r="N22" s="249">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="O22" s="247">
-        <v>9.75</v>
+        <v>9.4</v>
       </c>
       <c r="P22" s="248">
-        <v>86.666666666666671</v>
+        <v>85.5</v>
       </c>
       <c r="Q22" s="249">
-        <v>6.25</v>
+        <v>7.4</v>
       </c>
       <c r="R22" s="247">
-        <v>9.25</v>
+        <v>8.6</v>
       </c>
       <c r="S22" s="248">
-        <v>91.333333333333329</v>
+        <v>86</v>
       </c>
       <c r="T22" s="249">
         <v>8</v>
@@ -16359,61 +16362,61 @@
         <v>8</v>
       </c>
       <c r="V22" s="248">
-        <v>87.666666666666671</v>
+        <v>85.75</v>
       </c>
       <c r="W22" s="249">
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="X22" s="247">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="Y22" s="248">
-        <v>102.33333333333333</v>
+        <v>101</v>
       </c>
       <c r="Z22" s="249">
-        <v>7.75</v>
+        <v>6.6</v>
       </c>
       <c r="AA22" s="247">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="AB22" s="248">
-        <v>86</v>
+        <v>87.5</v>
       </c>
       <c r="AC22" s="249">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="AD22" s="247">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="AE22" s="248">
-        <v>99.333333333333329</v>
+        <v>97.25</v>
       </c>
       <c r="AF22" s="249">
         <v>8</v>
       </c>
       <c r="AG22" s="247">
-        <v>6.25</v>
+        <v>6.4</v>
       </c>
       <c r="AH22" s="248">
-        <v>73.333333333333329</v>
+        <v>75</v>
       </c>
       <c r="AI22" s="249">
-        <v>8.75</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AJ22" s="247">
         <v>7</v>
       </c>
       <c r="AK22" s="248">
-        <v>76.333333333333329</v>
+        <v>78</v>
       </c>
       <c r="AL22" s="249">
-        <v>3.25</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AM22" s="247">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AN22" s="250">
-        <v>103</v>
+        <v>97.75</v>
       </c>
       <c r="AO22" s="48"/>
       <c r="AP22" s="49"/>
@@ -16496,7 +16499,7 @@
       <c r="U23" s="255"/>
       <c r="V23" s="256"/>
       <c r="W23" s="257">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X23" s="255"/>
       <c r="Y23" s="256"/>
@@ -16610,8 +16613,8 @@
       </c>
       <c r="X24" s="108"/>
       <c r="Y24" s="109"/>
-      <c r="Z24" s="75" t="s">
-        <v>0</v>
+      <c r="Z24" s="75">
+        <v>1</v>
       </c>
       <c r="AA24" s="108"/>
       <c r="AB24" s="109"/>
@@ -16749,8 +16752,8 @@
       </c>
       <c r="AA25" s="108"/>
       <c r="AB25" s="109"/>
-      <c r="AC25" s="75" t="s">
-        <v>0</v>
+      <c r="AC25" s="75">
+        <v>1</v>
       </c>
       <c r="AD25" s="108"/>
       <c r="AE25" s="109"/>
@@ -16863,8 +16866,8 @@
       </c>
       <c r="O26" s="108"/>
       <c r="P26" s="109"/>
-      <c r="Q26" s="75" t="s">
-        <v>0</v>
+      <c r="Q26" s="75">
+        <v>1</v>
       </c>
       <c r="R26" s="108"/>
       <c r="S26" s="109"/>
@@ -17108,70 +17111,70 @@
     <row r="28" spans="2:99" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="BJ28" s="4"/>
       <c r="BK28" s="4"/>
-      <c r="BL28" s="4" t="s">
-        <v>0</v>
+      <c r="BL28" s="4">
+        <v>7</v>
       </c>
       <c r="BM28" s="4"/>
       <c r="BN28" s="4"/>
-      <c r="BO28" s="4" t="s">
-        <v>0</v>
+      <c r="BO28" s="4">
+        <v>7</v>
       </c>
       <c r="BP28" s="4"/>
       <c r="BQ28" s="4"/>
-      <c r="BR28" s="4" t="s">
-        <v>0</v>
+      <c r="BR28" s="4">
+        <v>8</v>
       </c>
       <c r="BS28" s="4"/>
       <c r="BT28" s="4"/>
-      <c r="BU28" s="4" t="s">
-        <v>0</v>
+      <c r="BU28" s="4">
+        <v>8</v>
       </c>
       <c r="BV28" s="4"/>
       <c r="BW28" s="4"/>
-      <c r="BX28" s="4" t="s">
-        <v>0</v>
+      <c r="BX28" s="4">
+        <v>6</v>
       </c>
       <c r="BY28" s="4"/>
       <c r="BZ28" s="4"/>
-      <c r="CA28" s="4" t="s">
-        <v>0</v>
+      <c r="CA28" s="4">
+        <v>8</v>
       </c>
       <c r="CB28" s="4"/>
       <c r="CC28" s="4"/>
-      <c r="CD28" s="4" t="s">
-        <v>0</v>
+      <c r="CD28" s="4">
+        <v>9</v>
       </c>
       <c r="CE28" s="4"/>
       <c r="CF28" s="4"/>
-      <c r="CG28" s="4" t="s">
-        <v>0</v>
+      <c r="CG28" s="4">
+        <v>8</v>
       </c>
       <c r="CH28" s="4"/>
       <c r="CI28" s="4"/>
-      <c r="CJ28" s="4" t="s">
-        <v>0</v>
+      <c r="CJ28" s="4">
+        <v>9</v>
       </c>
       <c r="CK28" s="4"/>
       <c r="CL28" s="4"/>
-      <c r="CM28" s="4" t="s">
-        <v>0</v>
+      <c r="CM28" s="4">
+        <v>7</v>
       </c>
       <c r="CN28" s="4"/>
       <c r="CO28" s="4"/>
-      <c r="CP28" s="4" t="s">
-        <v>0</v>
+      <c r="CP28" s="4">
+        <v>7</v>
       </c>
       <c r="CQ28" s="4"/>
       <c r="CR28" s="4"/>
-      <c r="CS28" s="4" t="s">
-        <v>0</v>
+      <c r="CS28" s="4">
+        <v>8</v>
       </c>
       <c r="CT28" s="4"/>
       <c r="CU28" s="4"/>
     </row>
     <row r="29" spans="2:99" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AT29" s="300" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AU29" s="310"/>
       <c r="AV29" s="310"/>
@@ -17519,39 +17522,39 @@
     </row>
     <row r="33" spans="46:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AT33" s="270" t="s">
-        <v>102</v>
-      </c>
-      <c r="AU33" s="273">
-        <v>31</v>
-      </c>
-      <c r="AV33" s="274">
-        <v>-12</v>
-      </c>
-      <c r="AW33" s="275">
-        <v>1</v>
-      </c>
-      <c r="AX33" s="276">
-        <v>31</v>
-      </c>
-      <c r="AY33" s="277" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU33" s="272">
+        <v>62</v>
+      </c>
+      <c r="AV33" s="273">
+        <v>-15</v>
+      </c>
+      <c r="AW33" s="274">
+        <v>2</v>
+      </c>
+      <c r="AX33" s="275">
+        <v>62</v>
+      </c>
+      <c r="AY33" s="276" t="s">
         <v>61</v>
       </c>
-      <c r="AZ33" s="276">
-        <v>12</v>
-      </c>
-      <c r="BA33" s="278" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB33" s="279" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC33" s="280"/>
-      <c r="BD33" s="275"/>
-      <c r="BE33" s="276"/>
-      <c r="BF33" s="277"/>
-      <c r="BG33" s="276"/>
-      <c r="BH33" s="278"/>
-      <c r="BI33" s="279"/>
+      <c r="AZ33" s="275">
+        <v>15</v>
+      </c>
+      <c r="BA33" s="277" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB33" s="278" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC33" s="279"/>
+      <c r="BD33" s="274"/>
+      <c r="BE33" s="275"/>
+      <c r="BF33" s="276"/>
+      <c r="BG33" s="275"/>
+      <c r="BH33" s="277"/>
+      <c r="BI33" s="278"/>
       <c r="BJ33" s="4"/>
       <c r="BK33" s="4"/>
       <c r="BL33" s="4" t="s">
@@ -17617,39 +17620,39 @@
     </row>
     <row r="34" spans="46:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AT34" s="271" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU34" s="281">
-        <v>27</v>
-      </c>
-      <c r="AV34" s="282">
-        <v>-12</v>
-      </c>
-      <c r="AW34" s="283">
+        <v>102</v>
+      </c>
+      <c r="AU34" s="280">
+        <v>26</v>
+      </c>
+      <c r="AV34" s="281">
+        <v>-15</v>
+      </c>
+      <c r="AW34" s="282">
         <v>1</v>
       </c>
-      <c r="AX34" s="284">
+      <c r="AX34" s="283">
         <v>31</v>
       </c>
-      <c r="AY34" s="285" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ34" s="284" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA34" s="286" t="s">
+      <c r="AY34" s="284" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ34" s="283" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA34" s="285" t="s">
         <v>61</v>
       </c>
-      <c r="BB34" s="287">
-        <v>8</v>
-      </c>
-      <c r="BC34" s="288"/>
-      <c r="BD34" s="283"/>
-      <c r="BE34" s="284"/>
-      <c r="BF34" s="285"/>
-      <c r="BG34" s="284"/>
-      <c r="BH34" s="286"/>
-      <c r="BI34" s="287"/>
+      <c r="BB34" s="286">
+        <v>10</v>
+      </c>
+      <c r="BC34" s="287"/>
+      <c r="BD34" s="282"/>
+      <c r="BE34" s="283"/>
+      <c r="BF34" s="284"/>
+      <c r="BG34" s="283"/>
+      <c r="BH34" s="285"/>
+      <c r="BI34" s="286"/>
       <c r="BJ34" s="4"/>
       <c r="BK34" s="4"/>
       <c r="BL34" s="4" t="s">
@@ -17717,37 +17720,37 @@
       <c r="AT35" s="271" t="s">
         <v>95</v>
       </c>
-      <c r="AU35" s="281">
-        <v>19</v>
-      </c>
-      <c r="AV35" s="282">
-        <v>-12</v>
-      </c>
-      <c r="AW35" s="283">
+      <c r="AU35" s="280">
+        <v>16</v>
+      </c>
+      <c r="AV35" s="281">
+        <v>-15</v>
+      </c>
+      <c r="AW35" s="282">
         <v>1</v>
       </c>
-      <c r="AX35" s="284">
+      <c r="AX35" s="283">
         <v>31</v>
       </c>
-      <c r="AY35" s="285" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ35" s="284" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA35" s="286" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB35" s="287" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC35" s="288"/>
-      <c r="BD35" s="283"/>
-      <c r="BE35" s="284"/>
-      <c r="BF35" s="285"/>
-      <c r="BG35" s="284"/>
-      <c r="BH35" s="286"/>
-      <c r="BI35" s="287"/>
+      <c r="AY35" s="284" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ35" s="283" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA35" s="285" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB35" s="286" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC35" s="287"/>
+      <c r="BD35" s="282"/>
+      <c r="BE35" s="283"/>
+      <c r="BF35" s="284"/>
+      <c r="BG35" s="283"/>
+      <c r="BH35" s="285"/>
+      <c r="BI35" s="286"/>
       <c r="BJ35" s="4"/>
       <c r="BK35" s="4"/>
       <c r="BL35" s="4" t="s">
@@ -17815,37 +17818,37 @@
       <c r="AT36" s="271" t="s">
         <v>99</v>
       </c>
-      <c r="AU36" s="281">
-        <v>19</v>
-      </c>
-      <c r="AV36" s="282">
-        <v>-12</v>
-      </c>
-      <c r="AW36" s="283">
+      <c r="AU36" s="280">
+        <v>16</v>
+      </c>
+      <c r="AV36" s="281">
+        <v>-15</v>
+      </c>
+      <c r="AW36" s="282">
         <v>1</v>
       </c>
-      <c r="AX36" s="284">
+      <c r="AX36" s="283">
         <v>31</v>
       </c>
-      <c r="AY36" s="285" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ36" s="284" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA36" s="286" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB36" s="287" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC36" s="288"/>
-      <c r="BD36" s="283"/>
-      <c r="BE36" s="284"/>
-      <c r="BF36" s="285"/>
-      <c r="BG36" s="284"/>
-      <c r="BH36" s="286"/>
-      <c r="BI36" s="287"/>
+      <c r="AY36" s="284" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ36" s="283" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA36" s="285" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB36" s="286" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC36" s="287"/>
+      <c r="BD36" s="282"/>
+      <c r="BE36" s="283"/>
+      <c r="BF36" s="284"/>
+      <c r="BG36" s="283"/>
+      <c r="BH36" s="285"/>
+      <c r="BI36" s="286"/>
       <c r="BJ36" s="4"/>
       <c r="BK36" s="4"/>
       <c r="BL36" s="4" t="s">
@@ -17913,37 +17916,37 @@
       <c r="AT37" s="271" t="s">
         <v>91</v>
       </c>
-      <c r="AU37" s="281">
-        <v>-12</v>
-      </c>
-      <c r="AV37" s="282">
-        <v>-12</v>
-      </c>
-      <c r="AW37" s="283" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX37" s="284" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY37" s="285" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ37" s="284" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA37" s="286" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB37" s="287" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC37" s="288"/>
-      <c r="BD37" s="283"/>
-      <c r="BE37" s="284"/>
-      <c r="BF37" s="285"/>
-      <c r="BG37" s="284"/>
-      <c r="BH37" s="286"/>
-      <c r="BI37" s="287"/>
+      <c r="AU37" s="280">
+        <v>-15</v>
+      </c>
+      <c r="AV37" s="281">
+        <v>-15</v>
+      </c>
+      <c r="AW37" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX37" s="283" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY37" s="284" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ37" s="283" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA37" s="285" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB37" s="286" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC37" s="287"/>
+      <c r="BD37" s="282"/>
+      <c r="BE37" s="283"/>
+      <c r="BF37" s="284"/>
+      <c r="BG37" s="283"/>
+      <c r="BH37" s="285"/>
+      <c r="BI37" s="286"/>
       <c r="BJ37" s="4"/>
       <c r="BK37" s="4"/>
       <c r="BL37" s="4" t="s">
@@ -18011,37 +18014,37 @@
       <c r="AT38" s="271" t="s">
         <v>92</v>
       </c>
-      <c r="AU38" s="281">
-        <v>-12</v>
-      </c>
-      <c r="AV38" s="282">
-        <v>-12</v>
-      </c>
-      <c r="AW38" s="283" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX38" s="284" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY38" s="285" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ38" s="284" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA38" s="286" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB38" s="287" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC38" s="288"/>
-      <c r="BD38" s="283"/>
-      <c r="BE38" s="284"/>
-      <c r="BF38" s="285"/>
-      <c r="BG38" s="284"/>
-      <c r="BH38" s="286"/>
-      <c r="BI38" s="287"/>
+      <c r="AU38" s="280">
+        <v>-15</v>
+      </c>
+      <c r="AV38" s="281">
+        <v>-15</v>
+      </c>
+      <c r="AW38" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX38" s="283" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY38" s="284" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ38" s="283" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA38" s="285" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB38" s="286" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC38" s="287"/>
+      <c r="BD38" s="282"/>
+      <c r="BE38" s="283"/>
+      <c r="BF38" s="284"/>
+      <c r="BG38" s="283"/>
+      <c r="BH38" s="285"/>
+      <c r="BI38" s="286"/>
       <c r="BJ38" s="4"/>
       <c r="BK38" s="4"/>
       <c r="BL38" s="4" t="s">
@@ -18109,37 +18112,37 @@
       <c r="AT39" s="271" t="s">
         <v>93</v>
       </c>
-      <c r="AU39" s="281">
-        <v>-12</v>
-      </c>
-      <c r="AV39" s="282">
-        <v>-12</v>
-      </c>
-      <c r="AW39" s="283" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX39" s="284" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY39" s="285" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ39" s="284" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA39" s="286" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB39" s="287" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC39" s="288"/>
-      <c r="BD39" s="283"/>
-      <c r="BE39" s="284"/>
-      <c r="BF39" s="285"/>
-      <c r="BG39" s="284"/>
-      <c r="BH39" s="286"/>
-      <c r="BI39" s="287"/>
+      <c r="AU39" s="280">
+        <v>-15</v>
+      </c>
+      <c r="AV39" s="281">
+        <v>-15</v>
+      </c>
+      <c r="AW39" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX39" s="283" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY39" s="284" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ39" s="283" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA39" s="285" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB39" s="286" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC39" s="287"/>
+      <c r="BD39" s="282"/>
+      <c r="BE39" s="283"/>
+      <c r="BF39" s="284"/>
+      <c r="BG39" s="283"/>
+      <c r="BH39" s="285"/>
+      <c r="BI39" s="286"/>
       <c r="BJ39" s="4"/>
       <c r="BK39" s="4"/>
       <c r="BL39" s="4" t="s">
@@ -18207,37 +18210,37 @@
       <c r="AT40" s="271" t="s">
         <v>94</v>
       </c>
-      <c r="AU40" s="281">
-        <v>-12</v>
-      </c>
-      <c r="AV40" s="282">
-        <v>-12</v>
-      </c>
-      <c r="AW40" s="283" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX40" s="284" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY40" s="285" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ40" s="284" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA40" s="286" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB40" s="287" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC40" s="288"/>
-      <c r="BD40" s="283"/>
-      <c r="BE40" s="284"/>
-      <c r="BF40" s="285"/>
-      <c r="BG40" s="284"/>
-      <c r="BH40" s="286"/>
-      <c r="BI40" s="287"/>
+      <c r="AU40" s="280">
+        <v>-15</v>
+      </c>
+      <c r="AV40" s="281">
+        <v>-15</v>
+      </c>
+      <c r="AW40" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX40" s="283" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY40" s="284" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ40" s="283" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA40" s="285" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB40" s="286" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC40" s="287"/>
+      <c r="BD40" s="282"/>
+      <c r="BE40" s="283"/>
+      <c r="BF40" s="284"/>
+      <c r="BG40" s="283"/>
+      <c r="BH40" s="285"/>
+      <c r="BI40" s="286"/>
       <c r="BJ40" s="4"/>
       <c r="BK40" s="4"/>
       <c r="BL40" s="4" t="s">
@@ -18305,96 +18308,96 @@
       <c r="AT41" s="271" t="s">
         <v>96</v>
       </c>
-      <c r="AU41" s="281">
-        <v>-12</v>
-      </c>
-      <c r="AV41" s="282">
-        <v>-12</v>
-      </c>
-      <c r="AW41" s="283" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX41" s="284" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY41" s="285" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ41" s="284" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA41" s="286" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB41" s="287" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC41" s="288"/>
-      <c r="BD41" s="283"/>
-      <c r="BE41" s="284"/>
-      <c r="BF41" s="285"/>
-      <c r="BG41" s="284"/>
-      <c r="BH41" s="286"/>
-      <c r="BI41" s="287"/>
+      <c r="AU41" s="280">
+        <v>-15</v>
+      </c>
+      <c r="AV41" s="281">
+        <v>-15</v>
+      </c>
+      <c r="AW41" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX41" s="283" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY41" s="284" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ41" s="283" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA41" s="285" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB41" s="286" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC41" s="287"/>
+      <c r="BD41" s="282"/>
+      <c r="BE41" s="283"/>
+      <c r="BF41" s="284"/>
+      <c r="BG41" s="283"/>
+      <c r="BH41" s="285"/>
+      <c r="BI41" s="286"/>
       <c r="BJ41" s="4"/>
       <c r="BK41" s="4"/>
       <c r="BL41" s="4">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="BM41" s="4"/>
       <c r="BN41" s="4"/>
       <c r="BO41" s="4">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="BP41" s="4"/>
       <c r="BQ41" s="4"/>
       <c r="BR41" s="4">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="BS41" s="4"/>
       <c r="BT41" s="4"/>
       <c r="BU41" s="4">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="BV41" s="4"/>
       <c r="BW41" s="4"/>
       <c r="BX41" s="4">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="BY41" s="4"/>
       <c r="BZ41" s="4"/>
       <c r="CA41" s="4">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="CB41" s="4"/>
       <c r="CC41" s="4"/>
       <c r="CD41" s="4">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="CE41" s="4"/>
       <c r="CF41" s="4"/>
       <c r="CG41" s="4">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="CH41" s="4"/>
       <c r="CI41" s="4"/>
       <c r="CJ41" s="4">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="CK41" s="4"/>
       <c r="CL41" s="4"/>
       <c r="CM41" s="4">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="CN41" s="4"/>
       <c r="CO41" s="4"/>
       <c r="CP41" s="4">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="CQ41" s="4"/>
       <c r="CR41" s="4"/>
       <c r="CS41" s="4">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="CT41" s="4"/>
       <c r="CU41" s="4"/>
@@ -18403,60 +18406,60 @@
       <c r="AT42" s="271" t="s">
         <v>98</v>
       </c>
-      <c r="AU42" s="281">
-        <v>-12</v>
-      </c>
-      <c r="AV42" s="282">
-        <v>-12</v>
-      </c>
-      <c r="AW42" s="283" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX42" s="284" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY42" s="285" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ42" s="284" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA42" s="286" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB42" s="287" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC42" s="288"/>
-      <c r="BD42" s="283"/>
-      <c r="BE42" s="284"/>
-      <c r="BF42" s="285"/>
-      <c r="BG42" s="284"/>
-      <c r="BH42" s="286"/>
-      <c r="BI42" s="287"/>
+      <c r="AU42" s="280">
+        <v>-15</v>
+      </c>
+      <c r="AV42" s="281">
+        <v>-15</v>
+      </c>
+      <c r="AW42" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX42" s="283" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY42" s="284" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ42" s="283" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA42" s="285" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB42" s="286" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC42" s="287"/>
+      <c r="BD42" s="282"/>
+      <c r="BE42" s="283"/>
+      <c r="BF42" s="284"/>
+      <c r="BG42" s="283"/>
+      <c r="BH42" s="285"/>
+      <c r="BI42" s="286"/>
       <c r="BJ42" s="50"/>
       <c r="BK42" s="50">
-        <v>7.333333333333333</v>
+        <v>6.75</v>
       </c>
       <c r="BL42" s="50"/>
       <c r="BM42" s="50"/>
       <c r="BN42" s="50">
-        <v>6.25</v>
+        <v>7.2</v>
       </c>
       <c r="BO42" s="50"/>
       <c r="BP42" s="50"/>
       <c r="BQ42" s="50">
-        <v>4.333333333333333</v>
+        <v>4.25</v>
       </c>
       <c r="BR42" s="50"/>
       <c r="BS42" s="50"/>
       <c r="BT42" s="50">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="BU42" s="50"/>
       <c r="BV42" s="50"/>
       <c r="BW42" s="50">
-        <v>6.25</v>
+        <v>7.4</v>
       </c>
       <c r="BX42" s="50"/>
       <c r="BY42" s="50"/>
@@ -18466,17 +18469,17 @@
       <c r="CA42" s="50"/>
       <c r="CB42" s="50"/>
       <c r="CC42" s="50">
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="CD42" s="50"/>
       <c r="CE42" s="50"/>
       <c r="CF42" s="50">
-        <v>7.75</v>
+        <v>6.6</v>
       </c>
       <c r="CG42" s="50"/>
       <c r="CH42" s="50"/>
       <c r="CI42" s="50">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="CJ42" s="50"/>
       <c r="CK42" s="50"/>
@@ -18486,12 +18489,12 @@
       <c r="CM42" s="50"/>
       <c r="CN42" s="50"/>
       <c r="CO42" s="50">
-        <v>8.75</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="CP42" s="50"/>
       <c r="CQ42" s="50"/>
       <c r="CR42" s="50">
-        <v>3.25</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="CS42" s="50"/>
       <c r="CT42" s="50"/>
@@ -18501,73 +18504,73 @@
       <c r="AT43" s="271" t="s">
         <v>100</v>
       </c>
-      <c r="AU43" s="281">
-        <v>-12</v>
-      </c>
-      <c r="AV43" s="282">
-        <v>-12</v>
-      </c>
-      <c r="AW43" s="283" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX43" s="284" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY43" s="285" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ43" s="284" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA43" s="286" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB43" s="287" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC43" s="288"/>
-      <c r="BD43" s="283"/>
-      <c r="BE43" s="284"/>
-      <c r="BF43" s="285"/>
-      <c r="BG43" s="284"/>
-      <c r="BH43" s="286"/>
-      <c r="BI43" s="287"/>
+      <c r="AU43" s="280">
+        <v>-15</v>
+      </c>
+      <c r="AV43" s="281">
+        <v>-15</v>
+      </c>
+      <c r="AW43" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX43" s="283" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY43" s="284" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ43" s="283" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA43" s="285" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB43" s="286" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC43" s="287"/>
+      <c r="BD43" s="282"/>
+      <c r="BE43" s="283"/>
+      <c r="BF43" s="284"/>
+      <c r="BG43" s="283"/>
+      <c r="BH43" s="285"/>
+      <c r="BI43" s="286"/>
     </row>
     <row r="44" spans="46:99" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AT44" s="289" t="s">
+      <c r="AT44" s="288" t="s">
         <v>101</v>
       </c>
-      <c r="AU44" s="290">
-        <v>-12</v>
-      </c>
-      <c r="AV44" s="291">
-        <v>-12</v>
-      </c>
-      <c r="AW44" s="292" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX44" s="293" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY44" s="294" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ44" s="293" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA44" s="295" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB44" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC44" s="297"/>
-      <c r="BD44" s="292"/>
-      <c r="BE44" s="293"/>
-      <c r="BF44" s="294"/>
-      <c r="BG44" s="293"/>
-      <c r="BH44" s="295"/>
-      <c r="BI44" s="296"/>
+      <c r="AU44" s="289">
+        <v>-15</v>
+      </c>
+      <c r="AV44" s="290">
+        <v>-15</v>
+      </c>
+      <c r="AW44" s="291" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX44" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY44" s="293" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ44" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA44" s="294" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB44" s="295" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC44" s="296"/>
+      <c r="BD44" s="291"/>
+      <c r="BE44" s="292"/>
+      <c r="BF44" s="293"/>
+      <c r="BG44" s="292"/>
+      <c r="BH44" s="294"/>
+      <c r="BI44" s="295"/>
     </row>
     <row r="45" spans="46:99" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="67" spans="41:45" x14ac:dyDescent="0.2">

--- a/regular_season_final.xlsx
+++ b/regular_season_final.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="176">
   <si>
     <t/>
   </si>
@@ -383,9 +383,6 @@
     <t>Redskins</t>
   </si>
   <si>
-    <t>Buccaneers</t>
-  </si>
-  <si>
     <t>Cardinals</t>
   </si>
   <si>
@@ -405,9 +402,6 @@
   </si>
   <si>
     <t>Chargers</t>
-  </si>
-  <si>
-    <t>Vikings</t>
   </si>
   <si>
     <t>Bears</t>
@@ -437,112 +431,127 @@
     <t xml:space="preserve">Scores:  </t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Week 5 Scores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w5_p1_picks         = ["V","H","V","V","H","H","H","H","H","V","H","H","H","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w5_p2_picks         = ["V","H","V","V","H","H","H","H","H","V","H","H","H","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w5_p3_picks         = ["V","H","V","V","H","H","H","H","H","H","H","H","H","H"];</t>
-  </si>
-  <si>
     <t>Eagles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w5_p4_picks         = ["V","H","V","V","H","H","H","H","H","H","H","H","H","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w5_p5_picks         = ["H","H","V","V","H","H","H","H","H","V","H","H","H","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w5_p6_picks         = ["H","V","V","V","V","V","H","H","H","H","H","H","H","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w5_p7_picks         = ["V","V","V","V","H","H","H","H","V","V","V","V","H","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w5_p8_picks         = ["V","H","V","H","H","H","H","H","H","V","H","H","H","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w5_p9_picks         = ["V","H","V","V","H","V","H","H","H","H","H","H","H","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w5_p10_picks        = ["V","H","V","V","H","H","H","H","H","V","H","H","H","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w5_p11_picks        = ["V","H","V","V","H","H","H","H","H","V","H","H","H","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w5_p12_picks        = ["V","H","V","V","H","H","H","H","H","H","H","H","H","H"];</t>
   </si>
   <si>
     <t>Packers</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w5_p1_weights       = ["9","7","16","5","10","6","13","14","12","3","4","8","15","11"];</t>
+    <t>6</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w5_p2_weights       = ["14","16","15","3","13","12","4","11","10","5","6","7","8","9"];</t>
+    <t>Week 6 Scores</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w5_p3_weights       = ["9","7","16","5","10","8","13","14","12","3","4","6","15","11"];</t>
+    <t xml:space="preserve">   var w6_p1_picks         = ["V","H","H","H","V","H","V","H","H","V","H","H","H","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w5_p4_weights       = ["6","9","14","5","10","8","11","15","12","3","4","7","16","13"];</t>
+    <t xml:space="preserve">   var w6_p2_picks         = ["V","H","H","V","H","H","H","H","H","H","H","H","H","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w5_p5_weights       = ["7","8","16","13","9","10","15","12","11","6","5","4","14","3"];</t>
+    <t>Jaguars</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w5_p6_weights       = ["5","4","16","14","3","6","12","15","7","10","13","8","9","11"];</t>
+    <t xml:space="preserve">   var w6_p3_picks         = ["V","H","H","H","V","H","V","V","H","V","H","H","H","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w5_p7_weights       = ["3","12","15","11","10","6","13","16","9","8","5","4","14","7"];</t>
+    <t xml:space="preserve">   var w6_p4_picks         = ["V","H","H","H","V","H","H","V","H","V","V","H","H","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w5_p8_weights       = ["10","5","16","13","14","3","9","15","8","7","6","4","11","12"];</t>
+    <t xml:space="preserve">   var w6_p5_picks         = ["V","H","V","V","V","H","H","H","H","V","H","H","H","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w5_p9_weights       = ["6","11","16","12","10","5","13","15","7","4","3","8","14","9"];</t>
+    <t xml:space="preserve">   var w6_p6_picks         = ["V","H","H","H","V","H","H","H","H","H","H","V","V","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w5_p10_weights      = ["6","9","16","5","10","8","12","14","11","3","4","7","15","13"];</t>
+    <t>Saints</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w5_p11_weights      = ["10","6","16","3","9","8","12","14","11","4","5","7","15","13"];</t>
+    <t xml:space="preserve">   var w6_p7_picks         = ["H","H","H","H","V","H","H","H","V","H","V","V","V","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w5_p12_weights      = ["3","8","16","10","6","7","9","11","5","4","13","14","15","12"];</t>
+    <t xml:space="preserve">   var w6_p8_picks         = ["V","H","H","H","V","H","H","H","V","H","H","H","V","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w5_winners          = ["V","V","V","H","H","V","H","H","V","H","V","H","H","V"];</t>
+    <t xml:space="preserve">   var w6_p9_picks         = ["V","H","H","H","V","H","H","H","H","H","H","H","V","V","H"];</t>
   </si>
   <si>
-    <t>Jaguars, Chiefs, Saints, Seahawks</t>
+    <t xml:space="preserve">   var w6_p10_picks        = ["V","H","V","H","H","H","V","V","H","H","H","H","H","V","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w5_mn_points        = ["39","51","48","42","32","65","38","45","40","15","42","38"];</t>
+    <t>Chiefs</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w5_actual_mn_points = 0;</t>
+    <t xml:space="preserve">   var w6_p11_picks        = [];</t>
   </si>
   <si>
-    <t>Week 5 Final</t>
+    <t xml:space="preserve">   var w6_p12_picks        = ["V","H","H","V","V","H","H","V","H","V","H","H","H","V","H"];</t>
   </si>
   <si>
-    <t>'Week 5'!$B$2</t>
+    <t>Seahawks</t>
   </si>
   <si>
-    <t>'Week 5'!$C$2</t>
+    <t xml:space="preserve">   var w6_p1_weights       = ["9","16","4","8","12","15","7","6","13","3","2","10","11","5","14"];</t>
   </si>
   <si>
-    <t>'Week 5'!$D$2</t>
+    <t xml:space="preserve">   var w6_p2_weights       = ["2","5","3","4","6","16","15","7","8","10","9","12","14","11","13"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w6_p3_weights       = ["8","15","4","9","13","16","5","7","12","3","2","10","11","6","14"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w6_p4_weights       = ["6","15","4","9","13","16","5","8","12","3","2","10","11","7","14"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w6_p5_weights       = ["13","16","11","7","12","9","6","3","14","10","8","2","5","4","15"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w6_p6_weights       = ["14","13","7","6","15","16","8","9","12","4","11","3","2","5","10"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w6_p7_weights       = ["3","15","9","11","16","2","10","14","4","8","12","5","13","6","7"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w6_p8_weights       = ["8","13","4","10","15","16","3","7","2","5","6","12","9","11","14"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w6_p9_weights       = ["10","13","4","3","15","16","11","2","12","7","9","6","8","5","14"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w6_p10_weights      = ["2","10","4","5","8","13","9","3","15","14","7","12","6","11","16"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w6_p11_weights      = [];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w6_p12_weights      = ["15","12","9","14","16","13","3","11","10","8","6","4","7","5","2"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w6_winners          = ["H","H","V","H","H","H","H","H","H","H","V","V","H","H","H"];</t>
+  </si>
+  <si>
+    <t>Vikings, Buccaneers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w6_mn_points        = ["45","49","47","42","37","56","38","41","43","50","","33"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w6_actual_mn_points = 0;</t>
+  </si>
+  <si>
+    <t>Week 6 Final</t>
+  </si>
+  <si>
+    <t>'Week 6'!$B$2</t>
+  </si>
+  <si>
+    <t>'Week 6'!$C$2</t>
+  </si>
+  <si>
+    <t>'Week 6'!$D$2</t>
   </si>
 </sst>
 </file>
@@ -5185,49 +5194,49 @@
         <v>137</v>
       </c>
       <c r="D2" s="112" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E2" s="113"/>
       <c r="F2" s="114" t="s">
         <v>91</v>
       </c>
       <c r="G2" s="115">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="H2" s="116"/>
       <c r="I2" s="114" t="s">
         <v>92</v>
       </c>
       <c r="J2" s="115">
-        <v>-15</v>
+        <v>13</v>
       </c>
       <c r="K2" s="116"/>
       <c r="L2" s="114" t="s">
         <v>93</v>
       </c>
       <c r="M2" s="115">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="N2" s="116"/>
       <c r="O2" s="114" t="s">
         <v>94</v>
       </c>
       <c r="P2" s="115">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="Q2" s="116"/>
       <c r="R2" s="114" t="s">
         <v>95</v>
       </c>
       <c r="S2" s="115">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="T2" s="116"/>
       <c r="U2" s="114" t="s">
         <v>96</v>
       </c>
       <c r="V2" s="115">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="W2" s="116"/>
       <c r="X2" s="114" t="s">
@@ -5241,35 +5250,35 @@
         <v>98</v>
       </c>
       <c r="AB2" s="115">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="AC2" s="116"/>
       <c r="AD2" s="114" t="s">
         <v>99</v>
       </c>
       <c r="AE2" s="115">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AF2" s="116"/>
       <c r="AG2" s="114" t="s">
         <v>100</v>
       </c>
       <c r="AH2" s="115">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="AI2" s="116"/>
       <c r="AJ2" s="114" t="s">
         <v>101</v>
       </c>
       <c r="AK2" s="115">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="AL2" s="116"/>
       <c r="AM2" s="114" t="s">
         <v>102</v>
       </c>
       <c r="AN2" s="115">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO2" s="117"/>
       <c r="AP2" s="3"/>
@@ -5440,7 +5449,7 @@
       </c>
       <c r="AP3" s="3"/>
       <c r="AR3" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS3" s="9" t="s">
         <v>52</v>
@@ -5508,16 +5517,16 @@
     </row>
     <row r="4" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="180" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C4" s="181" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="181" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="E4" s="182" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F4" s="183" t="s">
         <v>88</v>
@@ -5525,26 +5534,26 @@
       <c r="G4" s="184">
         <v>9</v>
       </c>
-      <c r="H4" s="185" t="s">
-        <v>0</v>
+      <c r="H4" s="185">
+        <v>-9</v>
       </c>
       <c r="I4" s="186" t="s">
         <v>88</v>
       </c>
       <c r="J4" s="184">
-        <v>14</v>
-      </c>
-      <c r="K4" s="185" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="K4" s="185">
+        <v>-2</v>
       </c>
       <c r="L4" s="186" t="s">
         <v>88</v>
       </c>
       <c r="M4" s="184">
-        <v>9</v>
-      </c>
-      <c r="N4" s="185" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="N4" s="185">
+        <v>-8</v>
       </c>
       <c r="O4" s="186" t="s">
         <v>88</v>
@@ -5552,29 +5561,29 @@
       <c r="P4" s="184">
         <v>6</v>
       </c>
-      <c r="Q4" s="185" t="s">
-        <v>0</v>
+      <c r="Q4" s="185">
+        <v>-6</v>
       </c>
       <c r="R4" s="186" t="s">
+        <v>88</v>
+      </c>
+      <c r="S4" s="184">
+        <v>13</v>
+      </c>
+      <c r="T4" s="185">
+        <v>-13</v>
+      </c>
+      <c r="U4" s="186" t="s">
+        <v>88</v>
+      </c>
+      <c r="V4" s="184">
+        <v>14</v>
+      </c>
+      <c r="W4" s="185">
+        <v>-14</v>
+      </c>
+      <c r="X4" s="186" t="s">
         <v>60</v>
-      </c>
-      <c r="S4" s="184">
-        <v>7</v>
-      </c>
-      <c r="T4" s="185">
-        <v>-7</v>
-      </c>
-      <c r="U4" s="186" t="s">
-        <v>60</v>
-      </c>
-      <c r="V4" s="184">
-        <v>5</v>
-      </c>
-      <c r="W4" s="185">
-        <v>-5</v>
-      </c>
-      <c r="X4" s="186" t="s">
-        <v>88</v>
       </c>
       <c r="Y4" s="184">
         <v>3</v>
@@ -5586,35 +5595,31 @@
         <v>88</v>
       </c>
       <c r="AB4" s="184">
-        <v>10</v>
-      </c>
-      <c r="AC4" s="185" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="AC4" s="185">
+        <v>-8</v>
       </c>
       <c r="AD4" s="186" t="s">
         <v>88</v>
       </c>
       <c r="AE4" s="184">
-        <v>6</v>
-      </c>
-      <c r="AF4" s="185" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="AF4" s="185">
+        <v>-10</v>
       </c>
       <c r="AG4" s="186" t="s">
         <v>88</v>
       </c>
       <c r="AH4" s="184">
-        <v>6</v>
-      </c>
-      <c r="AI4" s="185" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="186" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK4" s="184">
-        <v>10</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="AI4" s="185">
+        <v>-2</v>
+      </c>
+      <c r="AJ4" s="186"/>
+      <c r="AK4" s="184"/>
       <c r="AL4" s="185" t="s">
         <v>0</v>
       </c>
@@ -5622,31 +5627,31 @@
         <v>88</v>
       </c>
       <c r="AN4" s="184">
-        <v>3</v>
-      </c>
-      <c r="AO4" s="187" t="s">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="AO4" s="187">
+        <v>-15</v>
       </c>
       <c r="AT4" s="188" t="s">
         <v>88</v>
       </c>
       <c r="AU4" s="184">
-        <v>5</v>
-      </c>
-      <c r="AV4" s="187" t="s">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="AV4" s="187">
+        <v>-11</v>
       </c>
       <c r="AX4" s="4">
-        <v>-64</v>
+        <v>-84</v>
       </c>
       <c r="AY4" s="4">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="AZ4" s="4">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="BA4" s="4">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="BB4" s="4">
         <v>1</v>
@@ -5658,10 +5663,10 @@
         <v>1</v>
       </c>
       <c r="BF4" s="60" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="BG4" s="61">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="BH4" s="189"/>
       <c r="BI4" s="62">
@@ -5671,10 +5676,10 @@
         <v>97</v>
       </c>
       <c r="BK4" s="64">
-        <v>101</v>
+        <v>99.4</v>
       </c>
       <c r="BL4" s="65">
-        <v>404</v>
+        <v>497</v>
       </c>
       <c r="BM4" s="172"/>
       <c r="BN4" s="66">
@@ -5687,7 +5692,7 @@
         <v>62</v>
       </c>
       <c r="BQ4" s="69">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="BR4" s="70">
         <v>2</v>
@@ -5699,7 +5704,7 @@
         <v>61</v>
       </c>
       <c r="BU4" s="71">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BV4" s="72" t="s">
         <v>0</v>
@@ -5713,76 +5718,76 @@
     </row>
     <row r="5" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="190" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C5" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="191" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E5" s="192" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F5" s="193" t="s">
         <v>60</v>
       </c>
       <c r="G5" s="194">
-        <v>7</v>
-      </c>
-      <c r="H5" s="195">
-        <v>-7</v>
+        <v>16</v>
+      </c>
+      <c r="H5" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="I5" s="196" t="s">
         <v>60</v>
       </c>
       <c r="J5" s="194">
-        <v>16</v>
-      </c>
-      <c r="K5" s="195">
-        <v>-16</v>
+        <v>5</v>
+      </c>
+      <c r="K5" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="L5" s="196" t="s">
         <v>60</v>
       </c>
       <c r="M5" s="194">
-        <v>7</v>
-      </c>
-      <c r="N5" s="195">
-        <v>-7</v>
+        <v>15</v>
+      </c>
+      <c r="N5" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="O5" s="196" t="s">
         <v>60</v>
       </c>
       <c r="P5" s="194">
-        <v>9</v>
-      </c>
-      <c r="Q5" s="195">
-        <v>-9</v>
+        <v>15</v>
+      </c>
+      <c r="Q5" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="R5" s="196" t="s">
         <v>60</v>
       </c>
       <c r="S5" s="194">
-        <v>8</v>
-      </c>
-      <c r="T5" s="195">
-        <v>-8</v>
+        <v>16</v>
+      </c>
+      <c r="T5" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="U5" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="V5" s="194">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="W5" s="195" t="s">
         <v>0</v>
       </c>
       <c r="X5" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="Y5" s="194">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Z5" s="195" t="s">
         <v>0</v>
@@ -5791,46 +5796,42 @@
         <v>60</v>
       </c>
       <c r="AB5" s="194">
-        <v>5</v>
-      </c>
-      <c r="AC5" s="195">
-        <v>-5</v>
+        <v>13</v>
+      </c>
+      <c r="AC5" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AD5" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AE5" s="194">
-        <v>11</v>
-      </c>
-      <c r="AF5" s="195">
-        <v>-11</v>
+        <v>13</v>
+      </c>
+      <c r="AF5" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AG5" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AH5" s="194">
-        <v>9</v>
-      </c>
-      <c r="AI5" s="195">
-        <v>-9</v>
-      </c>
-      <c r="AJ5" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK5" s="194">
-        <v>6</v>
-      </c>
-      <c r="AL5" s="195">
-        <v>-6</v>
+        <v>10</v>
+      </c>
+      <c r="AI5" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="196"/>
+      <c r="AK5" s="194"/>
+      <c r="AL5" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AM5" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AN5" s="194">
-        <v>8</v>
-      </c>
-      <c r="AO5" s="197">
-        <v>-8</v>
+        <v>12</v>
+      </c>
+      <c r="AO5" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AR5" s="8"/>
       <c r="AS5" s="9"/>
@@ -5838,22 +5839,22 @@
         <v>60</v>
       </c>
       <c r="AU5" s="194">
-        <v>7</v>
-      </c>
-      <c r="AV5" s="197">
-        <v>-7</v>
+        <v>15</v>
+      </c>
+      <c r="AV5" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AX5" s="4">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="AY5" s="4">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="AZ5" s="4">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="BA5" s="4">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="BB5" s="4">
         <v>2</v>
@@ -5865,10 +5866,10 @@
         <v>2</v>
       </c>
       <c r="BF5" s="77" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BG5" s="78">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="BH5" s="189"/>
       <c r="BI5" s="79">
@@ -5878,10 +5879,10 @@
         <v>102</v>
       </c>
       <c r="BK5" s="81">
-        <v>97.75</v>
+        <v>93.8</v>
       </c>
       <c r="BL5" s="82">
-        <v>391</v>
+        <v>469</v>
       </c>
       <c r="BM5" s="172"/>
       <c r="BN5" s="79">
@@ -5891,10 +5892,10 @@
         <v>102</v>
       </c>
       <c r="BP5" s="83">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BQ5" s="84">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="BR5" s="85">
         <v>1</v>
@@ -5912,7 +5913,7 @@
         <v>61</v>
       </c>
       <c r="BW5" s="88">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BY5" s="12" t="s">
         <v>140</v>
@@ -5920,147 +5921,143 @@
     </row>
     <row r="6" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="190" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C6" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="191" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="E6" s="192" t="s">
         <v>88</v>
       </c>
       <c r="F6" s="193" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="G6" s="194">
-        <v>16</v>
-      </c>
-      <c r="H6" s="195" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="H6" s="195">
+        <v>-4</v>
       </c>
       <c r="I6" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="J6" s="194">
-        <v>15</v>
-      </c>
-      <c r="K6" s="195" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="K6" s="195">
+        <v>-3</v>
       </c>
       <c r="L6" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="M6" s="194">
-        <v>16</v>
-      </c>
-      <c r="N6" s="195" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="N6" s="195">
+        <v>-4</v>
       </c>
       <c r="O6" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="P6" s="194">
-        <v>14</v>
-      </c>
-      <c r="Q6" s="195" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="Q6" s="195">
+        <v>-4</v>
       </c>
       <c r="R6" s="196" t="s">
         <v>88</v>
       </c>
       <c r="S6" s="194">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="T6" s="195" t="s">
         <v>0</v>
       </c>
       <c r="U6" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="V6" s="194">
-        <v>16</v>
-      </c>
-      <c r="W6" s="195" t="s">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="W6" s="195">
+        <v>-7</v>
       </c>
       <c r="X6" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="Y6" s="194">
-        <v>15</v>
-      </c>
-      <c r="Z6" s="195" t="s">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="Z6" s="195">
+        <v>-9</v>
       </c>
       <c r="AA6" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AB6" s="194">
-        <v>16</v>
-      </c>
-      <c r="AC6" s="195" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="AC6" s="195">
+        <v>-4</v>
       </c>
       <c r="AD6" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AE6" s="194">
-        <v>16</v>
-      </c>
-      <c r="AF6" s="195" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="AF6" s="195">
+        <v>-4</v>
       </c>
       <c r="AG6" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AH6" s="194">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AI6" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="AJ6" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK6" s="194">
-        <v>16</v>
-      </c>
+      <c r="AJ6" s="196"/>
+      <c r="AK6" s="194"/>
       <c r="AL6" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AM6" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AN6" s="194">
-        <v>16</v>
-      </c>
-      <c r="AO6" s="197" t="s">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="AO6" s="197">
+        <v>-9</v>
       </c>
       <c r="AR6" s="8"/>
       <c r="AS6" s="9"/>
       <c r="AT6" s="198" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AU6" s="194">
-        <v>16</v>
-      </c>
-      <c r="AV6" s="197" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="AV6" s="197">
+        <v>-4</v>
       </c>
       <c r="AX6" s="4">
-        <v>-188</v>
+        <v>33</v>
       </c>
       <c r="AY6" s="4">
-        <v>188</v>
+        <v>33</v>
       </c>
       <c r="AZ6" s="4">
-        <v>188</v>
+        <v>33</v>
       </c>
       <c r="BA6" s="4">
-        <v>188</v>
+        <v>33</v>
       </c>
       <c r="BB6" s="4">
         <v>3</v>
@@ -6072,7 +6069,7 @@
         <v>3</v>
       </c>
       <c r="BF6" s="77" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="BG6" s="78">
         <v>91</v>
@@ -6085,23 +6082,23 @@
         <v>99</v>
       </c>
       <c r="BK6" s="81">
-        <v>97.25</v>
+        <v>93.4</v>
       </c>
       <c r="BL6" s="82">
-        <v>389</v>
+        <v>467</v>
       </c>
       <c r="BM6" s="172"/>
       <c r="BN6" s="79">
         <v>3</v>
       </c>
       <c r="BO6" s="80" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="BP6" s="83">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BQ6" s="84">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="BR6" s="85">
         <v>1</v>
@@ -6122,12 +6119,12 @@
         <v>0</v>
       </c>
       <c r="BY6" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="190" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="C7" s="191" t="s">
         <v>6</v>
@@ -6139,133 +6136,129 @@
         <v>60</v>
       </c>
       <c r="F7" s="193" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="G7" s="194">
-        <v>5</v>
-      </c>
-      <c r="H7" s="195">
-        <v>-5</v>
+        <v>8</v>
+      </c>
+      <c r="H7" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="I7" s="196" t="s">
         <v>88</v>
       </c>
       <c r="J7" s="194">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K7" s="195">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="L7" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="M7" s="194">
-        <v>5</v>
-      </c>
-      <c r="N7" s="195">
-        <v>-5</v>
+        <v>9</v>
+      </c>
+      <c r="N7" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="O7" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="P7" s="194">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="195">
-        <v>-5</v>
+        <v>9</v>
+      </c>
+      <c r="Q7" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="R7" s="196" t="s">
         <v>88</v>
       </c>
       <c r="S7" s="194">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="T7" s="195">
-        <v>-13</v>
+        <v>-7</v>
       </c>
       <c r="U7" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="V7" s="194">
-        <v>14</v>
-      </c>
-      <c r="W7" s="195">
-        <v>-14</v>
+        <v>6</v>
+      </c>
+      <c r="W7" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="X7" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="Y7" s="194">
         <v>11</v>
       </c>
-      <c r="Z7" s="195">
-        <v>-11</v>
+      <c r="Z7" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AA7" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AB7" s="194">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AC7" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AD7" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AE7" s="194">
-        <v>12</v>
-      </c>
-      <c r="AF7" s="195">
-        <v>-12</v>
+        <v>3</v>
+      </c>
+      <c r="AF7" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AG7" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AH7" s="194">
         <v>5</v>
       </c>
-      <c r="AI7" s="195">
-        <v>-5</v>
-      </c>
-      <c r="AJ7" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK7" s="194">
-        <v>3</v>
-      </c>
-      <c r="AL7" s="195">
-        <v>-3</v>
+      <c r="AI7" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="196"/>
+      <c r="AK7" s="194"/>
+      <c r="AL7" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AM7" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AN7" s="194">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AO7" s="197">
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="AT7" s="198" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AU7" s="194">
-        <v>8</v>
-      </c>
-      <c r="AV7" s="197">
-        <v>-8</v>
+        <v>7</v>
+      </c>
+      <c r="AV7" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AX7" s="4">
-        <v>-73</v>
+        <v>36</v>
       </c>
       <c r="AY7" s="4">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="AZ7" s="4">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="BA7" s="4">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="BB7" s="4">
         <v>4</v>
@@ -6274,39 +6267,39 @@
         <v>1</v>
       </c>
       <c r="BE7" s="76">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF7" s="77" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="BG7" s="78">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="BH7" s="189"/>
       <c r="BI7" s="79">
         <v>4</v>
       </c>
       <c r="BJ7" s="80" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="BK7" s="81">
-        <v>87.5</v>
+        <v>86.8</v>
       </c>
       <c r="BL7" s="82">
-        <v>350</v>
+        <v>434</v>
       </c>
       <c r="BM7" s="172"/>
       <c r="BN7" s="79">
         <v>3</v>
       </c>
       <c r="BO7" s="80" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="BP7" s="83">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BQ7" s="84">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="BR7" s="85">
         <v>1</v>
@@ -6332,145 +6325,141 @@
     </row>
     <row r="8" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="190" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C8" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="191" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E8" s="192" t="s">
         <v>60</v>
       </c>
       <c r="F8" s="193" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="G8" s="194">
-        <v>10</v>
-      </c>
-      <c r="H8" s="195" t="s">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="H8" s="195">
+        <v>-12</v>
       </c>
       <c r="I8" s="196" t="s">
         <v>60</v>
       </c>
       <c r="J8" s="194">
+        <v>6</v>
+      </c>
+      <c r="K8" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" s="194">
         <v>13</v>
       </c>
-      <c r="K8" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="L8" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="M8" s="194">
-        <v>10</v>
-      </c>
-      <c r="N8" s="195" t="s">
-        <v>0</v>
+      <c r="N8" s="195">
+        <v>-13</v>
       </c>
       <c r="O8" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="P8" s="194">
-        <v>10</v>
-      </c>
-      <c r="Q8" s="195" t="s">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="Q8" s="195">
+        <v>-13</v>
       </c>
       <c r="R8" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="S8" s="194">
-        <v>9</v>
-      </c>
-      <c r="T8" s="195" t="s">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="T8" s="195">
+        <v>-12</v>
       </c>
       <c r="U8" s="196" t="s">
         <v>88</v>
       </c>
       <c r="V8" s="194">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="W8" s="195">
-        <v>-3</v>
+        <v>-15</v>
       </c>
       <c r="X8" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="Y8" s="194">
-        <v>10</v>
-      </c>
-      <c r="Z8" s="195" t="s">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="Z8" s="195">
+        <v>-16</v>
       </c>
       <c r="AA8" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AB8" s="194">
-        <v>14</v>
-      </c>
-      <c r="AC8" s="195" t="s">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="AC8" s="195">
+        <v>-15</v>
       </c>
       <c r="AD8" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AE8" s="194">
-        <v>10</v>
-      </c>
-      <c r="AF8" s="195" t="s">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="AF8" s="195">
+        <v>-15</v>
       </c>
       <c r="AG8" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AH8" s="194">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI8" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="AJ8" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK8" s="194">
-        <v>9</v>
-      </c>
+      <c r="AJ8" s="196"/>
+      <c r="AK8" s="194"/>
       <c r="AL8" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AM8" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AN8" s="194">
-        <v>6</v>
-      </c>
-      <c r="AO8" s="197" t="s">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="AO8" s="197">
+        <v>-16</v>
       </c>
       <c r="AT8" s="198" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AU8" s="194">
-        <v>11</v>
-      </c>
-      <c r="AV8" s="197" t="s">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="AV8" s="197">
+        <v>-13</v>
       </c>
       <c r="AX8" s="4">
-        <v>108</v>
+        <v>-113</v>
       </c>
       <c r="AY8" s="4">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AZ8" s="4">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="BA8" s="4">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="BB8" s="4">
         <v>5</v>
@@ -6485,39 +6474,39 @@
         <v>91</v>
       </c>
       <c r="BG8" s="78">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="BH8" s="189"/>
       <c r="BI8" s="79">
         <v>5</v>
       </c>
       <c r="BJ8" s="80" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="BK8" s="81">
-        <v>86.25</v>
+        <v>86.6</v>
       </c>
       <c r="BL8" s="82">
-        <v>345</v>
+        <v>433</v>
       </c>
       <c r="BM8" s="172"/>
       <c r="BN8" s="79">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BO8" s="80" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="BP8" s="83">
-        <v>-15</v>
+        <v>13</v>
       </c>
       <c r="BQ8" s="84">
-        <v>-15</v>
-      </c>
-      <c r="BR8" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS8" s="86" t="s">
-        <v>0</v>
+        <v>-18</v>
+      </c>
+      <c r="BR8" s="85">
+        <v>1</v>
+      </c>
+      <c r="BS8" s="86">
+        <v>31</v>
       </c>
       <c r="BT8" s="87" t="s">
         <v>0</v>
@@ -6537,67 +6526,67 @@
     </row>
     <row r="9" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="190" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C9" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="191" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E9" s="192" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F9" s="193" t="s">
         <v>60</v>
       </c>
       <c r="G9" s="194">
-        <v>6</v>
-      </c>
-      <c r="H9" s="195">
-        <v>-6</v>
+        <v>15</v>
+      </c>
+      <c r="H9" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="I9" s="196" t="s">
         <v>60</v>
       </c>
       <c r="J9" s="194">
-        <v>12</v>
-      </c>
-      <c r="K9" s="195">
-        <v>-12</v>
+        <v>16</v>
+      </c>
+      <c r="K9" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="L9" s="196" t="s">
         <v>60</v>
       </c>
       <c r="M9" s="194">
-        <v>8</v>
-      </c>
-      <c r="N9" s="195">
-        <v>-8</v>
+        <v>16</v>
+      </c>
+      <c r="N9" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="O9" s="196" t="s">
         <v>60</v>
       </c>
       <c r="P9" s="194">
-        <v>8</v>
-      </c>
-      <c r="Q9" s="195">
-        <v>-8</v>
+        <v>16</v>
+      </c>
+      <c r="Q9" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="R9" s="196" t="s">
         <v>60</v>
       </c>
       <c r="S9" s="194">
-        <v>10</v>
-      </c>
-      <c r="T9" s="195">
-        <v>-10</v>
+        <v>9</v>
+      </c>
+      <c r="T9" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="U9" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="V9" s="194">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="W9" s="195" t="s">
         <v>0</v>
@@ -6606,25 +6595,25 @@
         <v>60</v>
       </c>
       <c r="Y9" s="194">
-        <v>6</v>
-      </c>
-      <c r="Z9" s="195">
-        <v>-6</v>
+        <v>2</v>
+      </c>
+      <c r="Z9" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AA9" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AB9" s="194">
-        <v>3</v>
-      </c>
-      <c r="AC9" s="195">
-        <v>-3</v>
+        <v>16</v>
+      </c>
+      <c r="AC9" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AD9" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AE9" s="194">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AF9" s="195" t="s">
         <v>0</v>
@@ -6633,49 +6622,45 @@
         <v>60</v>
       </c>
       <c r="AH9" s="194">
-        <v>8</v>
-      </c>
-      <c r="AI9" s="195">
-        <v>-8</v>
-      </c>
-      <c r="AJ9" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK9" s="194">
-        <v>8</v>
-      </c>
-      <c r="AL9" s="195">
-        <v>-8</v>
+        <v>13</v>
+      </c>
+      <c r="AI9" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="196"/>
+      <c r="AK9" s="194"/>
+      <c r="AL9" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AM9" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AN9" s="194">
-        <v>7</v>
-      </c>
-      <c r="AO9" s="197">
-        <v>-7</v>
+        <v>13</v>
+      </c>
+      <c r="AO9" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AT9" s="198" t="s">
         <v>60</v>
       </c>
       <c r="AU9" s="194">
-        <v>6</v>
-      </c>
-      <c r="AV9" s="197">
-        <v>-6</v>
+        <v>16</v>
+      </c>
+      <c r="AV9" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AX9" s="4">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="AY9" s="4">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="AZ9" s="4">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="BA9" s="4">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="BB9" s="4">
         <v>6</v>
@@ -6687,36 +6672,36 @@
         <v>6</v>
       </c>
       <c r="BF9" s="77" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="BG9" s="78">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="BH9" s="189"/>
       <c r="BI9" s="79">
         <v>6</v>
       </c>
       <c r="BJ9" s="80" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BK9" s="81">
-        <v>86</v>
+        <v>85.8</v>
       </c>
       <c r="BL9" s="82">
-        <v>344</v>
+        <v>429</v>
       </c>
       <c r="BM9" s="172"/>
       <c r="BN9" s="79">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BO9" s="80" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BP9" s="83">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="BQ9" s="84">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="BR9" s="85" t="s">
         <v>0</v>
@@ -6742,49 +6727,49 @@
     </row>
     <row r="10" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="190" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C10" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="191" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="E10" s="192" t="s">
         <v>60</v>
       </c>
       <c r="F10" s="193" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="G10" s="194">
-        <v>13</v>
-      </c>
-      <c r="H10" s="195" t="s">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="H10" s="195">
+        <v>-7</v>
       </c>
       <c r="I10" s="196" t="s">
         <v>60</v>
       </c>
       <c r="J10" s="194">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="K10" s="195" t="s">
         <v>0</v>
       </c>
       <c r="L10" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="M10" s="194">
-        <v>13</v>
-      </c>
-      <c r="N10" s="195" t="s">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="N10" s="195">
+        <v>-5</v>
       </c>
       <c r="O10" s="196" t="s">
         <v>60</v>
       </c>
       <c r="P10" s="194">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="Q10" s="195" t="s">
         <v>0</v>
@@ -6793,7 +6778,7 @@
         <v>60</v>
       </c>
       <c r="S10" s="194">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="T10" s="195" t="s">
         <v>0</v>
@@ -6802,7 +6787,7 @@
         <v>60</v>
       </c>
       <c r="V10" s="194">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="W10" s="195" t="s">
         <v>0</v>
@@ -6811,7 +6796,7 @@
         <v>60</v>
       </c>
       <c r="Y10" s="194">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Z10" s="195" t="s">
         <v>0</v>
@@ -6820,7 +6805,7 @@
         <v>60</v>
       </c>
       <c r="AB10" s="194">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AC10" s="195" t="s">
         <v>0</v>
@@ -6829,26 +6814,22 @@
         <v>60</v>
       </c>
       <c r="AE10" s="194">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AF10" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AG10" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AH10" s="194">
-        <v>12</v>
-      </c>
-      <c r="AI10" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK10" s="194">
-        <v>12</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="AI10" s="195">
+        <v>-9</v>
+      </c>
+      <c r="AJ10" s="196"/>
+      <c r="AK10" s="194"/>
       <c r="AL10" s="195" t="s">
         <v>0</v>
       </c>
@@ -6856,7 +6837,7 @@
         <v>60</v>
       </c>
       <c r="AN10" s="194">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AO10" s="197" t="s">
         <v>0</v>
@@ -6865,22 +6846,22 @@
         <v>60</v>
       </c>
       <c r="AU10" s="194">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AV10" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX10" s="4">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="AY10" s="4">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="AZ10" s="4">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="BA10" s="4">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="BB10" s="4">
         <v>7</v>
@@ -6892,36 +6873,36 @@
         <v>7</v>
       </c>
       <c r="BF10" s="77" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BG10" s="78">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BH10" s="189"/>
       <c r="BI10" s="79">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BJ10" s="80" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="BK10" s="81">
-        <v>85.75</v>
+        <v>85.8</v>
       </c>
       <c r="BL10" s="82">
-        <v>343</v>
+        <v>429</v>
       </c>
       <c r="BM10" s="172"/>
       <c r="BN10" s="79">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BO10" s="80" t="s">
         <v>93</v>
       </c>
       <c r="BP10" s="83">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="BQ10" s="84">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="BR10" s="85" t="s">
         <v>0</v>
@@ -6942,18 +6923,18 @@
         <v>0</v>
       </c>
       <c r="BY10" s="12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="190" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C11" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="191" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E11" s="192" t="s">
         <v>60</v>
@@ -6962,7 +6943,7 @@
         <v>60</v>
       </c>
       <c r="G11" s="194">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H11" s="195" t="s">
         <v>0</v>
@@ -6971,34 +6952,34 @@
         <v>60</v>
       </c>
       <c r="J11" s="194">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K11" s="195" t="s">
         <v>0</v>
       </c>
       <c r="L11" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="M11" s="194">
-        <v>14</v>
-      </c>
-      <c r="N11" s="195" t="s">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="N11" s="195">
+        <v>-7</v>
       </c>
       <c r="O11" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="P11" s="194">
-        <v>15</v>
-      </c>
-      <c r="Q11" s="195" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="Q11" s="195">
+        <v>-8</v>
       </c>
       <c r="R11" s="196" t="s">
         <v>60</v>
       </c>
       <c r="S11" s="194">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="T11" s="195" t="s">
         <v>0</v>
@@ -7007,7 +6988,7 @@
         <v>60</v>
       </c>
       <c r="V11" s="194">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="W11" s="195" t="s">
         <v>0</v>
@@ -7016,7 +6997,7 @@
         <v>60</v>
       </c>
       <c r="Y11" s="194">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Z11" s="195" t="s">
         <v>0</v>
@@ -7025,7 +7006,7 @@
         <v>60</v>
       </c>
       <c r="AB11" s="194">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AC11" s="195" t="s">
         <v>0</v>
@@ -7034,58 +7015,54 @@
         <v>60</v>
       </c>
       <c r="AE11" s="194">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="AF11" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AG11" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AH11" s="194">
-        <v>14</v>
-      </c>
-      <c r="AI11" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK11" s="194">
-        <v>14</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="AI11" s="195">
+        <v>-3</v>
+      </c>
+      <c r="AJ11" s="196"/>
+      <c r="AK11" s="194"/>
       <c r="AL11" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AM11" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AN11" s="194">
         <v>11</v>
       </c>
-      <c r="AO11" s="197" t="s">
-        <v>0</v>
+      <c r="AO11" s="197">
+        <v>-11</v>
       </c>
       <c r="AT11" s="198" t="s">
         <v>60</v>
       </c>
       <c r="AU11" s="194">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="AV11" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX11" s="4">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="AY11" s="4">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="AZ11" s="4">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="BA11" s="4">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="BB11" s="4">
         <v>8</v>
@@ -7094,39 +7071,39 @@
         <v>1</v>
       </c>
       <c r="BE11" s="76">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BF11" s="77" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BG11" s="78">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="BH11" s="189"/>
       <c r="BI11" s="79">
         <v>8</v>
       </c>
       <c r="BJ11" s="80" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BK11" s="81">
-        <v>85.5</v>
+        <v>85.6</v>
       </c>
       <c r="BL11" s="82">
-        <v>342</v>
+        <v>428</v>
       </c>
       <c r="BM11" s="172"/>
       <c r="BN11" s="79">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BO11" s="80" t="s">
         <v>94</v>
       </c>
       <c r="BP11" s="83">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="BQ11" s="84">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="BR11" s="85" t="s">
         <v>0</v>
@@ -7147,39 +7124,39 @@
         <v>0</v>
       </c>
       <c r="BY11" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="190" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C12" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="191" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E12" s="192" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F12" s="193" t="s">
         <v>60</v>
       </c>
       <c r="G12" s="194">
-        <v>12</v>
-      </c>
-      <c r="H12" s="195">
-        <v>-12</v>
+        <v>13</v>
+      </c>
+      <c r="H12" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="I12" s="196" t="s">
         <v>60</v>
       </c>
       <c r="J12" s="194">
-        <v>10</v>
-      </c>
-      <c r="K12" s="195">
-        <v>-10</v>
+        <v>8</v>
+      </c>
+      <c r="K12" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="L12" s="196" t="s">
         <v>60</v>
@@ -7187,8 +7164,8 @@
       <c r="M12" s="194">
         <v>12</v>
       </c>
-      <c r="N12" s="195">
-        <v>-12</v>
+      <c r="N12" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="O12" s="196" t="s">
         <v>60</v>
@@ -7196,101 +7173,97 @@
       <c r="P12" s="194">
         <v>12</v>
       </c>
-      <c r="Q12" s="195">
-        <v>-12</v>
+      <c r="Q12" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="R12" s="196" t="s">
         <v>60</v>
       </c>
       <c r="S12" s="194">
-        <v>11</v>
-      </c>
-      <c r="T12" s="195">
-        <v>-11</v>
+        <v>14</v>
+      </c>
+      <c r="T12" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="U12" s="196" t="s">
         <v>60</v>
       </c>
       <c r="V12" s="194">
-        <v>7</v>
-      </c>
-      <c r="W12" s="195">
-        <v>-7</v>
+        <v>12</v>
+      </c>
+      <c r="W12" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="X12" s="196" t="s">
         <v>88</v>
       </c>
       <c r="Y12" s="194">
-        <v>9</v>
-      </c>
-      <c r="Z12" s="195" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="Z12" s="195">
+        <v>-4</v>
       </c>
       <c r="AA12" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AB12" s="194">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AC12" s="195">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="AD12" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AE12" s="194">
-        <v>7</v>
-      </c>
-      <c r="AF12" s="195">
-        <v>-7</v>
+        <v>12</v>
+      </c>
+      <c r="AF12" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AG12" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AH12" s="194">
-        <v>11</v>
-      </c>
-      <c r="AI12" s="195">
-        <v>-11</v>
-      </c>
-      <c r="AJ12" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK12" s="194">
-        <v>11</v>
-      </c>
-      <c r="AL12" s="195">
-        <v>-11</v>
+        <v>15</v>
+      </c>
+      <c r="AI12" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="196"/>
+      <c r="AK12" s="194"/>
+      <c r="AL12" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AM12" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AN12" s="194">
-        <v>5</v>
-      </c>
-      <c r="AO12" s="197">
-        <v>-5</v>
+        <v>10</v>
+      </c>
+      <c r="AO12" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AT12" s="198" t="s">
         <v>60</v>
       </c>
       <c r="AU12" s="194">
-        <v>10</v>
-      </c>
-      <c r="AV12" s="197">
-        <v>-10</v>
+        <v>12</v>
+      </c>
+      <c r="AV12" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AX12" s="4">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AY12" s="4">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AZ12" s="4">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="BA12" s="4">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="BB12" s="4">
         <v>9</v>
@@ -7299,39 +7272,39 @@
         <v>1</v>
       </c>
       <c r="BE12" s="76">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BF12" s="77" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="BG12" s="78">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BH12" s="189"/>
       <c r="BI12" s="79">
         <v>9</v>
       </c>
       <c r="BJ12" s="80" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="BK12" s="81">
-        <v>82.25</v>
+        <v>85.4</v>
       </c>
       <c r="BL12" s="82">
-        <v>329</v>
+        <v>427</v>
       </c>
       <c r="BM12" s="172"/>
       <c r="BN12" s="79">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BO12" s="80" t="s">
         <v>96</v>
       </c>
       <c r="BP12" s="83">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="BQ12" s="84">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="BR12" s="85" t="s">
         <v>0</v>
@@ -7352,18 +7325,18 @@
         <v>0</v>
       </c>
       <c r="BY12" s="12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="190" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="C13" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="191" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E13" s="192" t="s">
         <v>60</v>
@@ -7378,124 +7351,120 @@
         <v>-3</v>
       </c>
       <c r="I13" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" s="194">
+        <v>10</v>
+      </c>
+      <c r="K13" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="196" t="s">
         <v>88</v>
-      </c>
-      <c r="J13" s="194">
-        <v>5</v>
-      </c>
-      <c r="K13" s="195">
-        <v>-5</v>
-      </c>
-      <c r="L13" s="196" t="s">
-        <v>60</v>
       </c>
       <c r="M13" s="194">
         <v>3</v>
       </c>
-      <c r="N13" s="195" t="s">
-        <v>0</v>
+      <c r="N13" s="195">
+        <v>-3</v>
       </c>
       <c r="O13" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="P13" s="194">
         <v>3</v>
       </c>
-      <c r="Q13" s="195" t="s">
-        <v>0</v>
+      <c r="Q13" s="195">
+        <v>-3</v>
       </c>
       <c r="R13" s="196" t="s">
         <v>88</v>
       </c>
       <c r="S13" s="194">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="T13" s="195">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="U13" s="196" t="s">
         <v>60</v>
       </c>
       <c r="V13" s="194">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="W13" s="195" t="s">
         <v>0</v>
       </c>
       <c r="X13" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="Y13" s="194">
         <v>8</v>
       </c>
-      <c r="Z13" s="195">
-        <v>-8</v>
+      <c r="Z13" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AA13" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AB13" s="194">
-        <v>7</v>
-      </c>
-      <c r="AC13" s="195">
-        <v>-7</v>
+        <v>5</v>
+      </c>
+      <c r="AC13" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AD13" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AE13" s="194">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AF13" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AG13" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH13" s="194">
+        <v>14</v>
+      </c>
+      <c r="AI13" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="196"/>
+      <c r="AK13" s="194"/>
+      <c r="AL13" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="AH13" s="194">
-        <v>3</v>
-      </c>
-      <c r="AI13" s="195">
-        <v>-3</v>
-      </c>
-      <c r="AJ13" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK13" s="194">
-        <v>4</v>
-      </c>
-      <c r="AL13" s="195">
-        <v>-4</v>
-      </c>
-      <c r="AM13" s="196" t="s">
+      <c r="AN13" s="194">
+        <v>8</v>
+      </c>
+      <c r="AO13" s="197">
+        <v>-8</v>
+      </c>
+      <c r="AT13" s="198" t="s">
         <v>60</v>
-      </c>
-      <c r="AN13" s="194">
-        <v>4</v>
-      </c>
-      <c r="AO13" s="197" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT13" s="198" t="s">
-        <v>88</v>
       </c>
       <c r="AU13" s="194">
         <v>3</v>
       </c>
-      <c r="AV13" s="197">
-        <v>-3</v>
+      <c r="AV13" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AX13" s="4">
-        <v>-12</v>
+        <v>21</v>
       </c>
       <c r="AY13" s="4">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AZ13" s="4">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="BA13" s="4">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="BB13" s="4">
         <v>10</v>
@@ -7507,7 +7476,7 @@
         <v>10</v>
       </c>
       <c r="BF13" s="77" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="BG13" s="78">
         <v>78</v>
@@ -7520,23 +7489,23 @@
         <v>91</v>
       </c>
       <c r="BK13" s="81">
-        <v>81</v>
+        <v>82.4</v>
       </c>
       <c r="BL13" s="82">
-        <v>324</v>
+        <v>412</v>
       </c>
       <c r="BM13" s="172"/>
       <c r="BN13" s="79">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BO13" s="80" t="s">
         <v>98</v>
       </c>
       <c r="BP13" s="83">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="BQ13" s="84">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="BR13" s="85" t="s">
         <v>0</v>
@@ -7557,18 +7526,18 @@
         <v>0</v>
       </c>
       <c r="BY13" s="12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="190" t="s">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="C14" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="191" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E14" s="192" t="s">
         <v>88</v>
@@ -7577,61 +7546,61 @@
         <v>60</v>
       </c>
       <c r="G14" s="194">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H14" s="195">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="I14" s="196" t="s">
         <v>60</v>
       </c>
       <c r="J14" s="194">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K14" s="195">
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="L14" s="196" t="s">
         <v>60</v>
       </c>
       <c r="M14" s="194">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N14" s="195">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="O14" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="P14" s="194">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="195">
-        <v>-4</v>
+        <v>2</v>
+      </c>
+      <c r="Q14" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="R14" s="196" t="s">
         <v>60</v>
       </c>
       <c r="S14" s="194">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T14" s="195">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="U14" s="196" t="s">
         <v>60</v>
       </c>
       <c r="V14" s="194">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="W14" s="195">
-        <v>-13</v>
+        <v>-11</v>
       </c>
       <c r="X14" s="196" t="s">
         <v>88</v>
       </c>
       <c r="Y14" s="194">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="Z14" s="195" t="s">
         <v>0</v>
@@ -7649,58 +7618,54 @@
         <v>60</v>
       </c>
       <c r="AE14" s="194">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AF14" s="195">
-        <v>-3</v>
+        <v>-9</v>
       </c>
       <c r="AG14" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AH14" s="194">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AI14" s="195">
-        <v>-4</v>
-      </c>
-      <c r="AJ14" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK14" s="194">
-        <v>5</v>
-      </c>
-      <c r="AL14" s="195">
-        <v>-5</v>
+        <v>-7</v>
+      </c>
+      <c r="AJ14" s="196"/>
+      <c r="AK14" s="194"/>
+      <c r="AL14" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AM14" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AN14" s="194">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AO14" s="197">
-        <v>-13</v>
+        <v>-6</v>
       </c>
       <c r="AT14" s="198" t="s">
         <v>60</v>
       </c>
       <c r="AU14" s="194">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AV14" s="197">
-        <v>-4</v>
+        <v>-9</v>
       </c>
       <c r="AX14" s="4">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="AY14" s="4">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="AZ14" s="4">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="BA14" s="4">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="BB14" s="4">
         <v>11</v>
@@ -7712,36 +7677,36 @@
         <v>11</v>
       </c>
       <c r="BF14" s="77" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="BG14" s="78">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="BH14" s="189"/>
       <c r="BI14" s="79">
         <v>11</v>
       </c>
       <c r="BJ14" s="80" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BK14" s="81">
-        <v>78</v>
+        <v>78.2</v>
       </c>
       <c r="BL14" s="82">
-        <v>312</v>
+        <v>391</v>
       </c>
       <c r="BM14" s="172"/>
       <c r="BN14" s="79">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BO14" s="80" t="s">
         <v>100</v>
       </c>
       <c r="BP14" s="83">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="BQ14" s="84">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="BR14" s="85" t="s">
         <v>0</v>
@@ -7762,72 +7727,72 @@
         <v>0</v>
       </c>
       <c r="BY14" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:77" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="190" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C15" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="191" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="E15" s="192" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F15" s="193" t="s">
         <v>60</v>
       </c>
       <c r="G15" s="194">
-        <v>8</v>
-      </c>
-      <c r="H15" s="195" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="H15" s="195">
+        <v>-10</v>
       </c>
       <c r="I15" s="196" t="s">
         <v>60</v>
       </c>
       <c r="J15" s="194">
-        <v>7</v>
-      </c>
-      <c r="K15" s="195" t="s">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="K15" s="195">
+        <v>-12</v>
       </c>
       <c r="L15" s="196" t="s">
         <v>60</v>
       </c>
       <c r="M15" s="194">
-        <v>6</v>
-      </c>
-      <c r="N15" s="195" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="N15" s="195">
+        <v>-10</v>
       </c>
       <c r="O15" s="196" t="s">
         <v>60</v>
       </c>
       <c r="P15" s="194">
-        <v>7</v>
-      </c>
-      <c r="Q15" s="195" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="Q15" s="195">
+        <v>-10</v>
       </c>
       <c r="R15" s="196" t="s">
         <v>60</v>
       </c>
       <c r="S15" s="194">
-        <v>4</v>
-      </c>
-      <c r="T15" s="195" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="T15" s="195">
+        <v>-2</v>
       </c>
       <c r="U15" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="V15" s="194">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="W15" s="195" t="s">
         <v>0</v>
@@ -7836,44 +7801,40 @@
         <v>88</v>
       </c>
       <c r="Y15" s="194">
-        <v>4</v>
-      </c>
-      <c r="Z15" s="195">
-        <v>-4</v>
+        <v>5</v>
+      </c>
+      <c r="Z15" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AA15" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AB15" s="194">
-        <v>4</v>
-      </c>
-      <c r="AC15" s="195" t="s">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="AC15" s="195">
+        <v>-12</v>
       </c>
       <c r="AD15" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AE15" s="194">
-        <v>8</v>
-      </c>
-      <c r="AF15" s="195" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="AF15" s="195">
+        <v>-6</v>
       </c>
       <c r="AG15" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AH15" s="194">
-        <v>7</v>
-      </c>
-      <c r="AI15" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK15" s="194">
-        <v>7</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="AI15" s="195">
+        <v>-12</v>
+      </c>
+      <c r="AJ15" s="196"/>
+      <c r="AK15" s="194"/>
       <c r="AL15" s="195" t="s">
         <v>0</v>
       </c>
@@ -7881,31 +7842,31 @@
         <v>60</v>
       </c>
       <c r="AN15" s="194">
-        <v>14</v>
-      </c>
-      <c r="AO15" s="197" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="AO15" s="197">
+        <v>-4</v>
       </c>
       <c r="AT15" s="198" t="s">
         <v>60</v>
       </c>
       <c r="AU15" s="194">
-        <v>9</v>
-      </c>
-      <c r="AV15" s="197" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="AV15" s="197">
+        <v>-10</v>
       </c>
       <c r="AX15" s="4">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="AY15" s="4">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="AZ15" s="4">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BA15" s="4">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BB15" s="4">
         <v>12</v>
@@ -7917,36 +7878,36 @@
         <v>12</v>
       </c>
       <c r="BF15" s="90" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="BG15" s="91">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="BH15" s="189"/>
       <c r="BI15" s="92">
         <v>12</v>
       </c>
       <c r="BJ15" s="93" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BK15" s="94">
-        <v>75</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="BL15" s="95">
-        <v>300</v>
+        <v>363</v>
       </c>
       <c r="BM15" s="172"/>
       <c r="BN15" s="92">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BO15" s="93" t="s">
         <v>101</v>
       </c>
       <c r="BP15" s="96">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="BQ15" s="97">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="BR15" s="98" t="s">
         <v>0</v>
@@ -7967,18 +7928,18 @@
         <v>0</v>
       </c>
       <c r="BY15" s="12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:77" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B16" s="190" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C16" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="191" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E16" s="192" t="s">
         <v>60</v>
@@ -7987,7 +7948,7 @@
         <v>60</v>
       </c>
       <c r="G16" s="194">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H16" s="195" t="s">
         <v>0</v>
@@ -7996,7 +7957,7 @@
         <v>60</v>
       </c>
       <c r="J16" s="194">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K16" s="195" t="s">
         <v>0</v>
@@ -8005,7 +7966,7 @@
         <v>60</v>
       </c>
       <c r="M16" s="194">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N16" s="195" t="s">
         <v>0</v>
@@ -8014,7 +7975,7 @@
         <v>60</v>
       </c>
       <c r="P16" s="194">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="195" t="s">
         <v>0</v>
@@ -8023,62 +7984,58 @@
         <v>60</v>
       </c>
       <c r="S16" s="194">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="T16" s="195" t="s">
         <v>0</v>
       </c>
       <c r="U16" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="V16" s="194">
+        <v>2</v>
+      </c>
+      <c r="W16" s="195">
+        <v>-2</v>
+      </c>
+      <c r="X16" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y16" s="194">
+        <v>13</v>
+      </c>
+      <c r="Z16" s="195">
+        <v>-13</v>
+      </c>
+      <c r="AA16" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB16" s="194">
         <v>9</v>
       </c>
-      <c r="W16" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="X16" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y16" s="194">
-        <v>14</v>
-      </c>
-      <c r="Z16" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB16" s="194">
-        <v>11</v>
-      </c>
-      <c r="AC16" s="195" t="s">
-        <v>0</v>
+      <c r="AC16" s="195">
+        <v>-9</v>
       </c>
       <c r="AD16" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AE16" s="194">
-        <v>14</v>
-      </c>
-      <c r="AF16" s="195" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="AF16" s="195">
+        <v>-8</v>
       </c>
       <c r="AG16" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AH16" s="194">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AI16" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="AJ16" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK16" s="194">
-        <v>15</v>
-      </c>
+      <c r="AJ16" s="196"/>
+      <c r="AK16" s="194"/>
       <c r="AL16" s="195" t="s">
         <v>0</v>
       </c>
@@ -8086,7 +8043,7 @@
         <v>60</v>
       </c>
       <c r="AN16" s="194">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AO16" s="197" t="s">
         <v>0</v>
@@ -8095,124 +8052,170 @@
         <v>60</v>
       </c>
       <c r="AU16" s="194">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AV16" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX16" s="4">
-        <v>161</v>
+        <v>33</v>
       </c>
       <c r="AY16" s="4">
-        <v>161</v>
+        <v>33</v>
       </c>
       <c r="AZ16" s="4">
-        <v>161</v>
+        <v>33.1</v>
       </c>
       <c r="BA16" s="4">
-        <v>161</v>
+        <v>33.1</v>
       </c>
       <c r="BB16" s="4">
         <v>13</v>
       </c>
       <c r="BC16" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BY16" s="12" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="190" t="s">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="C17" s="191" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D17" s="191" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="192"/>
-      <c r="F17" s="193"/>
-      <c r="G17" s="194"/>
+        <v>111</v>
+      </c>
+      <c r="E17" s="192" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="193" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="194">
+        <v>5</v>
+      </c>
       <c r="H17" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="I17" s="196"/>
-      <c r="J17" s="194"/>
+      <c r="I17" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" s="194">
+        <v>11</v>
+      </c>
       <c r="K17" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="L17" s="196"/>
-      <c r="M17" s="194"/>
+      <c r="L17" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="M17" s="194">
+        <v>6</v>
+      </c>
       <c r="N17" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="O17" s="196"/>
-      <c r="P17" s="194"/>
+      <c r="O17" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" s="194">
+        <v>7</v>
+      </c>
       <c r="Q17" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="R17" s="196"/>
-      <c r="S17" s="194"/>
+      <c r="R17" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="S17" s="194">
+        <v>4</v>
+      </c>
       <c r="T17" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="U17" s="196"/>
-      <c r="V17" s="194"/>
+      <c r="U17" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="V17" s="194">
+        <v>5</v>
+      </c>
       <c r="W17" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="X17" s="196"/>
-      <c r="Y17" s="194"/>
+      <c r="X17" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y17" s="194">
+        <v>6</v>
+      </c>
       <c r="Z17" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="AA17" s="196"/>
-      <c r="AB17" s="194"/>
+      <c r="AA17" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB17" s="194">
+        <v>11</v>
+      </c>
       <c r="AC17" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="AD17" s="196"/>
-      <c r="AE17" s="194"/>
-      <c r="AF17" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="196"/>
-      <c r="AH17" s="194"/>
-      <c r="AI17" s="195" t="s">
-        <v>0</v>
+      <c r="AD17" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE17" s="194">
+        <v>5</v>
+      </c>
+      <c r="AF17" s="195">
+        <v>-5</v>
+      </c>
+      <c r="AG17" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH17" s="194">
+        <v>11</v>
+      </c>
+      <c r="AI17" s="195">
+        <v>-11</v>
       </c>
       <c r="AJ17" s="196"/>
       <c r="AK17" s="194"/>
       <c r="AL17" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="AM17" s="196"/>
-      <c r="AN17" s="194"/>
-      <c r="AO17" s="197" t="s">
-        <v>0</v>
+      <c r="AM17" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN17" s="194">
+        <v>5</v>
+      </c>
+      <c r="AO17" s="197">
+        <v>-5</v>
       </c>
       <c r="AT17" s="198" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU17" s="194" t="s">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="AU17" s="194">
+        <v>6</v>
       </c>
       <c r="AV17" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX17" s="4">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AY17" s="4">
-        <v>-0.1</v>
+        <v>34</v>
       </c>
       <c r="AZ17" s="4">
-        <v>-0.1</v>
+        <v>34</v>
       </c>
       <c r="BA17" s="4">
-        <v>-0.1</v>
+        <v>34</v>
       </c>
       <c r="BB17" s="4">
         <v>14</v>
@@ -8221,7 +8224,7 @@
         <v>1</v>
       </c>
       <c r="BY17" s="12" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8320,78 +8323,78 @@
         <v>15</v>
       </c>
       <c r="BC18" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BY18" s="12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="190" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C19" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="191" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="E19" s="192" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F19" s="193" t="s">
         <v>60</v>
       </c>
       <c r="G19" s="194">
-        <v>11</v>
-      </c>
-      <c r="H19" s="195">
-        <v>-11</v>
+        <v>14</v>
+      </c>
+      <c r="H19" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="I19" s="196" t="s">
         <v>60</v>
       </c>
       <c r="J19" s="194">
-        <v>9</v>
-      </c>
-      <c r="K19" s="195">
-        <v>-9</v>
+        <v>13</v>
+      </c>
+      <c r="K19" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="L19" s="196" t="s">
         <v>60</v>
       </c>
       <c r="M19" s="194">
-        <v>11</v>
-      </c>
-      <c r="N19" s="195">
-        <v>-11</v>
+        <v>14</v>
+      </c>
+      <c r="N19" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="O19" s="196" t="s">
         <v>60</v>
       </c>
       <c r="P19" s="194">
-        <v>13</v>
-      </c>
-      <c r="Q19" s="195">
-        <v>-13</v>
+        <v>14</v>
+      </c>
+      <c r="Q19" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="R19" s="196" t="s">
         <v>60</v>
       </c>
       <c r="S19" s="194">
-        <v>3</v>
-      </c>
-      <c r="T19" s="195">
-        <v>-3</v>
+        <v>15</v>
+      </c>
+      <c r="T19" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="U19" s="196" t="s">
         <v>60</v>
       </c>
       <c r="V19" s="194">
-        <v>11</v>
-      </c>
-      <c r="W19" s="195">
-        <v>-11</v>
+        <v>10</v>
+      </c>
+      <c r="W19" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="X19" s="196" t="s">
         <v>60</v>
@@ -8399,74 +8402,70 @@
       <c r="Y19" s="194">
         <v>7</v>
       </c>
-      <c r="Z19" s="195">
-        <v>-7</v>
+      <c r="Z19" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AA19" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AB19" s="194">
-        <v>12</v>
-      </c>
-      <c r="AC19" s="195">
-        <v>-12</v>
+        <v>14</v>
+      </c>
+      <c r="AC19" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AD19" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AE19" s="194">
-        <v>9</v>
-      </c>
-      <c r="AF19" s="195">
-        <v>-9</v>
+        <v>14</v>
+      </c>
+      <c r="AF19" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AG19" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AH19" s="194">
-        <v>13</v>
-      </c>
-      <c r="AI19" s="195">
-        <v>-13</v>
-      </c>
-      <c r="AJ19" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK19" s="194">
-        <v>13</v>
-      </c>
-      <c r="AL19" s="195">
-        <v>-13</v>
+        <v>16</v>
+      </c>
+      <c r="AI19" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="196"/>
+      <c r="AK19" s="194"/>
+      <c r="AL19" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AM19" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AN19" s="194">
-        <v>12</v>
-      </c>
-      <c r="AO19" s="197">
-        <v>-12</v>
+        <v>2</v>
+      </c>
+      <c r="AO19" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AT19" s="198" t="s">
         <v>60</v>
       </c>
       <c r="AU19" s="194">
-        <v>12</v>
-      </c>
-      <c r="AV19" s="197">
-        <v>-12</v>
+        <v>14</v>
+      </c>
+      <c r="AV19" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AX19" s="4">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AY19" s="4">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AZ19" s="4">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="BA19" s="4">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="BB19" s="4">
         <v>16</v>
@@ -8475,7 +8474,7 @@
         <v>1</v>
       </c>
       <c r="BY19" s="12" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8483,90 +8482,88 @@
       <c r="C20" s="103"/>
       <c r="D20" s="103"/>
       <c r="E20" s="199" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F20" s="104" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G20" s="105">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H20" s="122"/>
       <c r="I20" s="106" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J20" s="105">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K20" s="122"/>
       <c r="L20" s="106" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M20" s="105">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N20" s="122"/>
       <c r="O20" s="106" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P20" s="105">
         <v>42</v>
       </c>
       <c r="Q20" s="122"/>
       <c r="R20" s="106" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="S20" s="105">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="T20" s="122"/>
       <c r="U20" s="106" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="V20" s="105">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="W20" s="122"/>
       <c r="X20" s="106" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Y20" s="105">
         <v>38</v>
       </c>
       <c r="Z20" s="122"/>
       <c r="AA20" s="106" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AB20" s="105">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AC20" s="122"/>
       <c r="AD20" s="106" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AE20" s="105">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AF20" s="122"/>
       <c r="AG20" s="106" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AH20" s="105">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="AI20" s="122"/>
       <c r="AJ20" s="106" t="s">
-        <v>132</v>
-      </c>
-      <c r="AK20" s="105">
-        <v>42</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="AK20" s="105"/>
       <c r="AL20" s="122"/>
       <c r="AM20" s="106" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AN20" s="105">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AO20" s="123"/>
       <c r="AT20" s="107"/>
@@ -8583,7 +8580,7 @@
       <c r="BM20" s="13"/>
       <c r="BN20" s="13"/>
       <c r="BY20" s="12" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:77" s="13" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8592,99 +8589,99 @@
       <c r="C21" s="201"/>
       <c r="D21" s="201"/>
       <c r="E21" s="202" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F21" s="203"/>
       <c r="G21" s="204">
         <v>5</v>
       </c>
       <c r="H21" s="205">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I21" s="206"/>
       <c r="J21" s="204">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K21" s="205">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="L21" s="206"/>
       <c r="M21" s="204">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N21" s="205">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O21" s="206"/>
       <c r="P21" s="204">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q21" s="205">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="R21" s="206"/>
       <c r="S21" s="204">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="T21" s="205">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="U21" s="206"/>
       <c r="V21" s="204">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="W21" s="205">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="X21" s="206"/>
       <c r="Y21" s="204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z21" s="205">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AA21" s="206"/>
       <c r="AB21" s="204">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AC21" s="205">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="AD21" s="206"/>
       <c r="AE21" s="204">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AF21" s="205">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AG21" s="206"/>
       <c r="AH21" s="204">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AI21" s="205">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AJ21" s="206"/>
       <c r="AK21" s="204">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AL21" s="205">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="AM21" s="206"/>
       <c r="AN21" s="204">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO21" s="207">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="AP21" s="3"/>
       <c r="AT21" s="208"/>
       <c r="AU21" s="209">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV21" s="210">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="AW21" s="3"/>
       <c r="AX21" s="14"/>
@@ -8708,7 +8705,7 @@
       <c r="BV21" s="6"/>
       <c r="BW21" s="6"/>
       <c r="BY21" s="12" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:77" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8724,84 +8721,84 @@
         <v>10</v>
       </c>
       <c r="H22" s="129">
-        <v>81</v>
+        <v>82.4</v>
       </c>
       <c r="I22" s="130"/>
       <c r="J22" s="128">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K22" s="129">
-        <v>82.25</v>
+        <v>86.8</v>
       </c>
       <c r="L22" s="130"/>
       <c r="M22" s="128">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N22" s="129">
-        <v>86.25</v>
+        <v>85.6</v>
       </c>
       <c r="O22" s="130"/>
       <c r="P22" s="128">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q22" s="129">
-        <v>85.5</v>
+        <v>86.6</v>
       </c>
       <c r="R22" s="130"/>
       <c r="S22" s="128">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T22" s="129">
-        <v>86</v>
+        <v>85.4</v>
       </c>
       <c r="U22" s="130"/>
       <c r="V22" s="128">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W22" s="129">
-        <v>85.75</v>
+        <v>85.8</v>
       </c>
       <c r="X22" s="130"/>
       <c r="Y22" s="128">
         <v>1</v>
       </c>
       <c r="Z22" s="129">
-        <v>101</v>
+        <v>99.4</v>
       </c>
       <c r="AA22" s="130"/>
       <c r="AB22" s="128">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AC22" s="129">
-        <v>87.5</v>
+        <v>85.8</v>
       </c>
       <c r="AD22" s="130"/>
       <c r="AE22" s="128">
         <v>3</v>
       </c>
       <c r="AF22" s="129">
-        <v>97.25</v>
+        <v>93.4</v>
       </c>
       <c r="AG22" s="130"/>
       <c r="AH22" s="128">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI22" s="129">
-        <v>75</v>
+        <v>78.2</v>
       </c>
       <c r="AJ22" s="130"/>
       <c r="AK22" s="128">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL22" s="129">
-        <v>78</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="AM22" s="130"/>
       <c r="AN22" s="128">
         <v>2</v>
       </c>
       <c r="AO22" s="131">
-        <v>97.75</v>
+        <v>93.8</v>
       </c>
       <c r="AP22" s="3"/>
       <c r="AU22" s="14"/>
@@ -8826,7 +8823,7 @@
       <c r="BV22" s="6"/>
       <c r="BW22" s="6"/>
       <c r="BY22" s="12" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:77" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8840,62 +8837,62 @@
       <c r="F23" s="135"/>
       <c r="G23" s="136"/>
       <c r="H23" s="137">
-        <v>324</v>
+        <v>412</v>
       </c>
       <c r="I23" s="138"/>
       <c r="J23" s="136"/>
       <c r="K23" s="137">
-        <v>329</v>
+        <v>434</v>
       </c>
       <c r="L23" s="138"/>
       <c r="M23" s="136"/>
       <c r="N23" s="137">
-        <v>345</v>
+        <v>428</v>
       </c>
       <c r="O23" s="138"/>
       <c r="P23" s="136"/>
       <c r="Q23" s="137">
-        <v>342</v>
+        <v>433</v>
       </c>
       <c r="R23" s="138"/>
       <c r="S23" s="136"/>
       <c r="T23" s="137">
-        <v>344</v>
+        <v>427</v>
       </c>
       <c r="U23" s="138"/>
       <c r="V23" s="136"/>
       <c r="W23" s="137">
-        <v>343</v>
+        <v>429</v>
       </c>
       <c r="X23" s="138"/>
       <c r="Y23" s="136"/>
       <c r="Z23" s="137">
-        <v>404</v>
+        <v>497</v>
       </c>
       <c r="AA23" s="138"/>
       <c r="AB23" s="136"/>
       <c r="AC23" s="137">
-        <v>350</v>
+        <v>429</v>
       </c>
       <c r="AD23" s="138"/>
       <c r="AE23" s="136"/>
       <c r="AF23" s="137">
-        <v>389</v>
+        <v>467</v>
       </c>
       <c r="AG23" s="138"/>
       <c r="AH23" s="136"/>
       <c r="AI23" s="137">
-        <v>300</v>
+        <v>391</v>
       </c>
       <c r="AJ23" s="138"/>
       <c r="AK23" s="136"/>
       <c r="AL23" s="137">
-        <v>312</v>
+        <v>363</v>
       </c>
       <c r="AM23" s="138"/>
       <c r="AN23" s="136"/>
       <c r="AO23" s="139">
-        <v>391</v>
+        <v>469</v>
       </c>
       <c r="AP23" s="3"/>
       <c r="AU23" s="14"/>
@@ -8910,7 +8907,7 @@
       <c r="BV23" s="6"/>
       <c r="BW23" s="6"/>
       <c r="BY23" s="12" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:77" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8974,12 +8971,12 @@
       <c r="AJ24" s="138"/>
       <c r="AK24" s="136"/>
       <c r="AL24" s="137">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="138"/>
       <c r="AN24" s="136"/>
       <c r="AO24" s="139">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="AP24" s="3"/>
       <c r="AW24" s="3"/>
@@ -8993,7 +8990,7 @@
       <c r="BV24" s="6"/>
       <c r="BW24" s="6"/>
       <c r="BY24" s="12" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:77" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9006,87 +9003,87 @@
       </c>
       <c r="F25" s="135"/>
       <c r="G25" s="140">
-        <v>0.5</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="H25" s="137">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I25" s="138"/>
       <c r="J25" s="140">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K25" s="137">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L25" s="138"/>
       <c r="M25" s="140">
-        <v>0.5714285714285714</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="N25" s="137">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O25" s="138"/>
       <c r="P25" s="140">
-        <v>0.5714285714285714</v>
+        <v>0.6</v>
       </c>
       <c r="Q25" s="137">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R25" s="138"/>
       <c r="S25" s="140">
-        <v>0.42857142857142855</v>
+        <v>0.6</v>
       </c>
       <c r="T25" s="137">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="U25" s="138"/>
       <c r="V25" s="140">
-        <v>0.5714285714285714</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="W25" s="137">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="X25" s="138"/>
       <c r="Y25" s="140">
-        <v>0.6428571428571429</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="Z25" s="137">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AA25" s="138"/>
       <c r="AB25" s="140">
-        <v>0.5714285714285714</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="AC25" s="137">
         <v>8</v>
       </c>
       <c r="AD25" s="138"/>
       <c r="AE25" s="140">
-        <v>0.6428571428571429</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="AF25" s="137">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG25" s="138"/>
       <c r="AH25" s="140">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AI25" s="137">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AJ25" s="138"/>
       <c r="AK25" s="140">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AL25" s="137">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AM25" s="138"/>
       <c r="AN25" s="140">
-        <v>0.5714285714285714</v>
+        <v>0.4</v>
       </c>
       <c r="AO25" s="139">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AP25" s="3"/>
       <c r="AW25" s="3"/>
@@ -9100,7 +9097,7 @@
       <c r="BV25" s="6"/>
       <c r="BW25" s="6"/>
       <c r="BY25" s="12" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:77" s="13" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9113,87 +9110,87 @@
       </c>
       <c r="F26" s="144"/>
       <c r="G26" s="145">
-        <v>0.41558441558441561</v>
+        <v>0.43478260869565216</v>
       </c>
       <c r="H26" s="146">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I26" s="147"/>
       <c r="J26" s="145">
-        <v>0.55844155844155841</v>
+        <v>0.57608695652173914</v>
       </c>
       <c r="K26" s="146">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="L26" s="147"/>
       <c r="M26" s="145">
-        <v>0.46753246753246752</v>
+        <v>0.46739130434782611</v>
       </c>
       <c r="N26" s="146">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="O26" s="147"/>
       <c r="P26" s="145">
-        <v>0.61038961038961037</v>
+        <v>0.60869565217391308</v>
       </c>
       <c r="Q26" s="146">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="R26" s="147"/>
       <c r="S26" s="145">
-        <v>0.55844155844155841</v>
+        <v>0.56521739130434778</v>
       </c>
       <c r="T26" s="146">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="U26" s="147"/>
       <c r="V26" s="145">
-        <v>0.51948051948051943</v>
+        <v>0.54347826086956519</v>
       </c>
       <c r="W26" s="146">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="X26" s="147"/>
       <c r="Y26" s="145">
-        <v>0.64935064935064934</v>
+        <v>0.66304347826086951</v>
       </c>
       <c r="Z26" s="146">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="AA26" s="147"/>
       <c r="AB26" s="145">
-        <v>0.54545454545454541</v>
+        <v>0.54347826086956519</v>
       </c>
       <c r="AC26" s="146">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AD26" s="147"/>
       <c r="AE26" s="145">
-        <v>0.61038961038961037</v>
+        <v>0.59782608695652173</v>
       </c>
       <c r="AF26" s="146">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="AG26" s="147"/>
       <c r="AH26" s="145">
-        <v>0.41558441558441561</v>
+        <v>0.44565217391304346</v>
       </c>
       <c r="AI26" s="146">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="AJ26" s="147"/>
       <c r="AK26" s="145">
-        <v>0.45454545454545453</v>
+        <v>0.38043478260869568</v>
       </c>
       <c r="AL26" s="146">
         <v>35</v>
       </c>
       <c r="AM26" s="147"/>
       <c r="AN26" s="145">
-        <v>0.64935064935064934</v>
+        <v>0.60869565217391308</v>
       </c>
       <c r="AO26" s="148">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="AP26" s="3"/>
       <c r="AW26" s="3"/>
@@ -9217,7 +9214,7 @@
       <c r="BV26" s="6"/>
       <c r="BW26" s="6"/>
       <c r="BY26" s="12" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:77" s="7" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9241,7 +9238,7 @@
         <v>68</v>
       </c>
       <c r="P27" s="153">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="Q27" s="150"/>
       <c r="R27" s="150"/>
@@ -9254,7 +9251,7 @@
         <v>69</v>
       </c>
       <c r="Y27" s="154">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Z27" s="150"/>
       <c r="AA27" s="152"/>
@@ -9267,7 +9264,7 @@
         <v>70</v>
       </c>
       <c r="AH27" s="154">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI27" s="150"/>
       <c r="AJ27" s="152"/>
@@ -9276,7 +9273,7 @@
       <c r="AM27" s="150"/>
       <c r="AN27" s="150"/>
       <c r="AO27" s="155" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AP27" s="3"/>
       <c r="AW27" s="3"/>
@@ -9290,7 +9287,7 @@
       <c r="BV27" s="6"/>
       <c r="BW27" s="6"/>
       <c r="BY27" s="12" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:77" s="7" customFormat="1" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -9347,7 +9344,7 @@
       <c r="BV28" s="6"/>
       <c r="BW28" s="6"/>
       <c r="BY28" s="12" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:77" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -9356,7 +9353,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="17"/>
@@ -9408,7 +9405,7 @@
       <c r="BV29" s="6"/>
       <c r="BW29" s="6"/>
       <c r="BY29" s="12" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:77" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -9465,7 +9462,7 @@
       <c r="BV30" s="6"/>
       <c r="BW30" s="6"/>
       <c r="BY30" s="12" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:77" s="7" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9477,7 +9474,7 @@
         <v>71</v>
       </c>
       <c r="F31" s="23">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G31" s="18"/>
       <c r="H31" s="17"/>
@@ -9544,47 +9541,47 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="25">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H32" s="26"/>
       <c r="I32" s="26"/>
       <c r="J32" s="25">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K32" s="26"/>
       <c r="L32" s="26"/>
       <c r="M32" s="25">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P32" s="25">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="S32" s="25">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="V32" s="25">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Y32" s="25">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AB32" s="25">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AE32" s="25">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AH32" s="25">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AK32" s="25">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="AN32" s="25">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AU32" s="25">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="BY32" s="12"/>
     </row>
@@ -9616,47 +9613,47 @@
       <c r="F34" s="26"/>
       <c r="G34" s="25"/>
       <c r="H34" s="26">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I34" s="26"/>
       <c r="J34" s="26"/>
       <c r="K34" s="26">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="L34" s="26"/>
       <c r="M34" s="26"/>
       <c r="N34" s="26">
+        <v>83</v>
+      </c>
+      <c r="Q34" s="26">
+        <v>91</v>
+      </c>
+      <c r="T34" s="26">
+        <v>83</v>
+      </c>
+      <c r="W34" s="26">
         <v>86</v>
       </c>
-      <c r="Q34" s="26">
-        <v>82</v>
-      </c>
-      <c r="T34" s="26">
-        <v>70</v>
-      </c>
-      <c r="W34" s="26">
-        <v>80</v>
-      </c>
       <c r="Z34" s="26">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AC34" s="26">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="AF34" s="26">
+        <v>78</v>
+      </c>
+      <c r="AI34" s="26">
         <v>91</v>
       </c>
-      <c r="AI34" s="26">
-        <v>80</v>
-      </c>
       <c r="AL34" s="26">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="AO34" s="26">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="AV34" s="26">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="BY34" s="12"/>
     </row>
@@ -9666,44 +9663,44 @@
       <c r="F35" s="3"/>
       <c r="G35" s="27"/>
       <c r="H35" s="28">
-        <v>81</v>
+        <v>82.4</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="28">
-        <v>82.25</v>
+        <v>86.8</v>
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="28">
-        <v>86.25</v>
+        <v>85.6</v>
       </c>
       <c r="Q35" s="28">
-        <v>85.5</v>
+        <v>86.6</v>
       </c>
       <c r="T35" s="28">
-        <v>86</v>
+        <v>85.4</v>
       </c>
       <c r="W35" s="28">
-        <v>85.75</v>
+        <v>85.8</v>
       </c>
       <c r="Z35" s="28">
-        <v>101</v>
+        <v>99.4</v>
       </c>
       <c r="AC35" s="28">
-        <v>87.5</v>
+        <v>85.8</v>
       </c>
       <c r="AF35" s="28">
-        <v>97.25</v>
+        <v>93.4</v>
       </c>
       <c r="AI35" s="28">
-        <v>75</v>
+        <v>78.2</v>
       </c>
       <c r="AL35" s="28">
-        <v>78</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="AO35" s="28">
-        <v>97.75</v>
+        <v>93.8</v>
       </c>
       <c r="BY35" s="12"/>
     </row>
@@ -9713,44 +9710,44 @@
       <c r="F36" s="3"/>
       <c r="G36" s="27"/>
       <c r="H36" s="28">
-        <v>324</v>
+        <v>412</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="28">
-        <v>329</v>
+        <v>434</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="28">
-        <v>345</v>
+        <v>428</v>
       </c>
       <c r="Q36" s="28">
-        <v>342</v>
+        <v>433</v>
       </c>
       <c r="T36" s="28">
-        <v>344</v>
+        <v>427</v>
       </c>
       <c r="W36" s="28">
-        <v>343</v>
+        <v>429</v>
       </c>
       <c r="Z36" s="28">
-        <v>404</v>
+        <v>497</v>
       </c>
       <c r="AC36" s="28">
-        <v>350</v>
+        <v>429</v>
       </c>
       <c r="AF36" s="28">
-        <v>389</v>
+        <v>467</v>
       </c>
       <c r="AI36" s="28">
-        <v>300</v>
+        <v>391</v>
       </c>
       <c r="AL36" s="28">
-        <v>312</v>
+        <v>363</v>
       </c>
       <c r="AO36" s="28">
-        <v>391</v>
+        <v>469</v>
       </c>
       <c r="BY36" s="12"/>
     </row>
@@ -9794,10 +9791,10 @@
         <v>0</v>
       </c>
       <c r="AL37" s="28">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="AO37" s="28">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="BY37" s="12"/>
     </row>
@@ -9807,44 +9804,44 @@
       <c r="F38" s="3"/>
       <c r="G38" s="27"/>
       <c r="H38" s="28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="28">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q38" s="28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T38" s="28">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="W38" s="28">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Z38" s="28">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AC38" s="28">
         <v>8</v>
       </c>
       <c r="AF38" s="28">
+        <v>8</v>
+      </c>
+      <c r="AI38" s="28">
         <v>9</v>
       </c>
-      <c r="AI38" s="28">
-        <v>7</v>
-      </c>
       <c r="AL38" s="28">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AO38" s="28">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BY38" s="12"/>
     </row>
@@ -9854,44 +9851,44 @@
       <c r="F39" s="3"/>
       <c r="G39" s="27"/>
       <c r="H39" s="28">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="28">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="28">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="Q39" s="28">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="T39" s="28">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="W39" s="28">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="Z39" s="28">
+        <v>61</v>
+      </c>
+      <c r="AC39" s="28">
         <v>50</v>
       </c>
-      <c r="AC39" s="28">
-        <v>42</v>
-      </c>
       <c r="AF39" s="28">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="AI39" s="28">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="AL39" s="28">
         <v>35</v>
       </c>
       <c r="AO39" s="28">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="BY39" s="12"/>
     </row>
@@ -9905,24 +9902,24 @@
       <c r="H40" s="28"/>
       <c r="I40" s="3"/>
       <c r="J40" s="27">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K40" s="28"/>
       <c r="L40" s="3"/>
       <c r="M40" s="27">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N40" s="28"/>
       <c r="P40" s="27">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q40" s="28"/>
       <c r="S40" s="27">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T40" s="28"/>
       <c r="V40" s="27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W40" s="28"/>
       <c r="Y40" s="27">
@@ -9930,7 +9927,7 @@
       </c>
       <c r="Z40" s="28"/>
       <c r="AB40" s="27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AC40" s="28"/>
       <c r="AE40" s="27">
@@ -9938,11 +9935,11 @@
       </c>
       <c r="AF40" s="28"/>
       <c r="AH40" s="27">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI40" s="28"/>
       <c r="AK40" s="27">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL40" s="28"/>
       <c r="AN40" s="27">
@@ -9962,44 +9959,44 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="27">
-        <v>0.5</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="27">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="27">
-        <v>0.5714285714285714</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="P41" s="27">
-        <v>0.5714285714285714</v>
+        <v>0.6</v>
       </c>
       <c r="S41" s="27">
-        <v>0.42857142857142855</v>
+        <v>0.6</v>
       </c>
       <c r="V41" s="27">
-        <v>0.5714285714285714</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="Y41" s="27">
-        <v>0.6428571428571429</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="AB41" s="27">
-        <v>0.5714285714285714</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="AE41" s="27">
-        <v>0.6428571428571429</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="AH41" s="27">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AK41" s="27">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AN41" s="27">
-        <v>0.5714285714285714</v>
+        <v>0.4</v>
       </c>
       <c r="AR41" s="29">
         <v>1</v>
@@ -10014,44 +10011,44 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="27">
-        <v>0.41558441558441561</v>
+        <v>0.43478260869565216</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="27">
-        <v>0.55844155844155841</v>
+        <v>0.57608695652173914</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="27">
-        <v>0.46753246753246752</v>
+        <v>0.46739130434782611</v>
       </c>
       <c r="P42" s="27">
-        <v>0.61038961038961037</v>
+        <v>0.60869565217391308</v>
       </c>
       <c r="S42" s="27">
-        <v>0.55844155844155841</v>
+        <v>0.56521739130434778</v>
       </c>
       <c r="V42" s="27">
-        <v>0.51948051948051943</v>
+        <v>0.54347826086956519</v>
       </c>
       <c r="Y42" s="27">
-        <v>0.64935064935064934</v>
+        <v>0.66304347826086951</v>
       </c>
       <c r="AB42" s="27">
-        <v>0.54545454545454541</v>
+        <v>0.54347826086956519</v>
       </c>
       <c r="AE42" s="27">
-        <v>0.61038961038961037</v>
+        <v>0.59782608695652173</v>
       </c>
       <c r="AH42" s="27">
-        <v>0.41558441558441561</v>
+        <v>0.44565217391304346</v>
       </c>
       <c r="AK42" s="27">
-        <v>0.45454545454545453</v>
+        <v>0.38043478260869568</v>
       </c>
       <c r="AN42" s="27">
-        <v>0.64935064935064934</v>
+        <v>0.60869565217391308</v>
       </c>
       <c r="BY42" s="12"/>
     </row>
@@ -10089,7 +10086,7 @@
         <v>76</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="BY45" s="12"/>
     </row>
@@ -12201,7 +12198,7 @@
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
       <c r="U1" s="168" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
@@ -12246,52 +12243,52 @@
     </row>
     <row r="2" spans="2:99" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="307" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C2" s="308" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D2" s="309"/>
       <c r="E2" s="156" t="s">
         <v>91</v>
       </c>
       <c r="F2" s="115">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="G2" s="157"/>
       <c r="H2" s="156" t="s">
         <v>92</v>
       </c>
       <c r="I2" s="115">
-        <v>-15</v>
+        <v>13</v>
       </c>
       <c r="J2" s="157"/>
       <c r="K2" s="156" t="s">
         <v>93</v>
       </c>
       <c r="L2" s="115">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="M2" s="157"/>
       <c r="N2" s="156" t="s">
         <v>94</v>
       </c>
       <c r="O2" s="115">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="P2" s="157"/>
       <c r="Q2" s="156" t="s">
         <v>95</v>
       </c>
       <c r="R2" s="115">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="S2" s="157"/>
       <c r="T2" s="156" t="s">
         <v>96</v>
       </c>
       <c r="U2" s="115">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="V2" s="157"/>
       <c r="W2" s="156" t="s">
@@ -12305,35 +12302,35 @@
         <v>98</v>
       </c>
       <c r="AA2" s="115">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="AB2" s="157"/>
       <c r="AC2" s="156" t="s">
         <v>99</v>
       </c>
       <c r="AD2" s="115">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE2" s="157"/>
       <c r="AF2" s="156" t="s">
         <v>100</v>
       </c>
       <c r="AG2" s="115">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="AH2" s="157"/>
       <c r="AI2" s="156" t="s">
         <v>101</v>
       </c>
       <c r="AJ2" s="115">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="AK2" s="157"/>
       <c r="AL2" s="156" t="s">
         <v>102</v>
       </c>
       <c r="AM2" s="115">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AN2" s="158"/>
       <c r="AO2" s="211">
@@ -12343,7 +12340,7 @@
         <v>8</v>
       </c>
       <c r="AQ2" s="39">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR2" s="40" t="s">
         <v>9</v>
@@ -12475,7 +12472,7 @@
         <v>14</v>
       </c>
       <c r="AQ3" s="41">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR3" s="40" t="s">
         <v>15</v>
@@ -13571,116 +13568,116 @@
       <c r="C9" s="191">
         <v>15</v>
       </c>
-      <c r="D9" s="222" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="193" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="K9" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="L9" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="M9" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="N9" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="O9" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="P9" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="R9" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="S9" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="T9" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="U9" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="V9" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="W9" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="X9" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="224" t="s">
-        <v>0</v>
+      <c r="D9" s="222">
+        <v>15</v>
+      </c>
+      <c r="E9" s="193">
+        <v>5</v>
+      </c>
+      <c r="F9" s="223">
+        <v>8</v>
+      </c>
+      <c r="G9" s="224">
+        <v>88</v>
+      </c>
+      <c r="H9" s="196">
+        <v>1</v>
+      </c>
+      <c r="I9" s="223">
+        <v>10</v>
+      </c>
+      <c r="J9" s="224">
+        <v>105</v>
+      </c>
+      <c r="K9" s="196">
+        <v>7</v>
+      </c>
+      <c r="L9" s="223">
+        <v>7</v>
+      </c>
+      <c r="M9" s="224">
+        <v>83</v>
+      </c>
+      <c r="N9" s="196">
+        <v>3</v>
+      </c>
+      <c r="O9" s="223">
+        <v>9</v>
+      </c>
+      <c r="P9" s="224">
+        <v>91</v>
+      </c>
+      <c r="Q9" s="196">
+        <v>7</v>
+      </c>
+      <c r="R9" s="223">
+        <v>9</v>
+      </c>
+      <c r="S9" s="224">
+        <v>83</v>
+      </c>
+      <c r="T9" s="196">
+        <v>6</v>
+      </c>
+      <c r="U9" s="223">
+        <v>10</v>
+      </c>
+      <c r="V9" s="224">
+        <v>86</v>
+      </c>
+      <c r="W9" s="196">
+        <v>2</v>
+      </c>
+      <c r="X9" s="223">
+        <v>11</v>
+      </c>
+      <c r="Y9" s="224">
+        <v>93</v>
+      </c>
+      <c r="Z9" s="196">
+        <v>9</v>
+      </c>
+      <c r="AA9" s="223">
+        <v>8</v>
+      </c>
+      <c r="AB9" s="224">
+        <v>79</v>
+      </c>
+      <c r="AC9" s="196">
+        <v>10</v>
+      </c>
+      <c r="AD9" s="223">
+        <v>8</v>
+      </c>
+      <c r="AE9" s="224">
+        <v>78</v>
+      </c>
+      <c r="AF9" s="196">
+        <v>3</v>
+      </c>
+      <c r="AG9" s="223">
+        <v>9</v>
+      </c>
+      <c r="AH9" s="224">
+        <v>91</v>
       </c>
       <c r="AI9" s="196" t="s">
         <v>0</v>
       </c>
-      <c r="AJ9" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="225" t="s">
-        <v>0</v>
+      <c r="AJ9" s="223">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="224">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="196">
+        <v>11</v>
+      </c>
+      <c r="AM9" s="223">
+        <v>6</v>
+      </c>
+      <c r="AN9" s="225">
+        <v>47</v>
       </c>
       <c r="AO9" s="45"/>
       <c r="AP9" s="226" t="s">
@@ -13688,7 +13685,7 @@
       </c>
       <c r="AQ9" s="45"/>
       <c r="AR9" s="47" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AS9" s="4">
         <v>15</v>
@@ -13698,71 +13695,71 @@
         <v>0</v>
       </c>
       <c r="BL9" s="4"/>
-      <c r="BM9" s="4" t="s">
-        <v>0</v>
+      <c r="BM9" s="4">
+        <v>88</v>
       </c>
       <c r="BN9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="BO9" s="4"/>
-      <c r="BP9" s="4" t="s">
-        <v>0</v>
+      <c r="BP9" s="4">
+        <v>105</v>
       </c>
       <c r="BQ9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="BR9" s="4"/>
-      <c r="BS9" s="4" t="s">
-        <v>0</v>
+      <c r="BS9" s="4">
+        <v>83</v>
       </c>
       <c r="BT9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="BU9" s="4"/>
-      <c r="BV9" s="4" t="s">
-        <v>0</v>
+      <c r="BV9" s="4">
+        <v>91</v>
       </c>
       <c r="BW9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="BX9" s="4"/>
-      <c r="BY9" s="4" t="s">
-        <v>0</v>
+      <c r="BY9" s="4">
+        <v>83</v>
       </c>
       <c r="BZ9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CA9" s="4"/>
-      <c r="CB9" s="4" t="s">
-        <v>0</v>
+      <c r="CB9" s="4">
+        <v>86</v>
       </c>
       <c r="CC9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CD9" s="4"/>
-      <c r="CE9" s="4" t="s">
-        <v>0</v>
+      <c r="CE9" s="4">
+        <v>93</v>
       </c>
       <c r="CF9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CG9" s="4"/>
-      <c r="CH9" s="4" t="s">
-        <v>0</v>
+      <c r="CH9" s="4">
+        <v>79</v>
       </c>
       <c r="CI9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CJ9" s="4"/>
-      <c r="CK9" s="4" t="s">
-        <v>0</v>
+      <c r="CK9" s="4">
+        <v>78</v>
       </c>
       <c r="CL9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CM9" s="4"/>
-      <c r="CN9" s="4" t="s">
-        <v>0</v>
+      <c r="CN9" s="4">
+        <v>91</v>
       </c>
       <c r="CO9" s="4" t="s">
         <v>0</v>
@@ -13771,12 +13768,12 @@
       <c r="CQ9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="CR9" s="4" t="s">
-        <v>0</v>
+      <c r="CR9" s="4">
+        <v>1</v>
       </c>
       <c r="CS9" s="4"/>
-      <c r="CT9" s="4" t="s">
-        <v>0</v>
+      <c r="CT9" s="4">
+        <v>47</v>
       </c>
       <c r="CU9" s="4"/>
     </row>
@@ -13900,11 +13897,11 @@
       </c>
       <c r="AO10" s="45"/>
       <c r="AP10" s="226" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AQ10" s="45"/>
       <c r="AR10" s="47" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AS10" s="4">
         <v>15</v>
@@ -14118,7 +14115,7 @@
       <c r="AP11" s="46"/>
       <c r="AQ11" s="45"/>
       <c r="AR11" s="47" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AS11" s="4">
         <v>13</v>
@@ -14332,7 +14329,7 @@
       <c r="AP12" s="46"/>
       <c r="AQ12" s="45"/>
       <c r="AR12" s="47" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AS12" s="4">
         <v>13</v>
@@ -16126,115 +16123,115 @@
         <v>22</v>
       </c>
       <c r="D21" s="237">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="E21" s="238">
         <v>10</v>
       </c>
       <c r="F21" s="239">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G21" s="240">
-        <v>324</v>
+        <v>412</v>
       </c>
       <c r="H21" s="241">
+        <v>4</v>
+      </c>
+      <c r="I21" s="239">
+        <v>53</v>
+      </c>
+      <c r="J21" s="240">
+        <v>434</v>
+      </c>
+      <c r="K21" s="241">
+        <v>8</v>
+      </c>
+      <c r="L21" s="239">
+        <v>43</v>
+      </c>
+      <c r="M21" s="240">
+        <v>428</v>
+      </c>
+      <c r="N21" s="241">
+        <v>5</v>
+      </c>
+      <c r="O21" s="239">
+        <v>56</v>
+      </c>
+      <c r="P21" s="240">
+        <v>433</v>
+      </c>
+      <c r="Q21" s="241">
         <v>9</v>
       </c>
-      <c r="I21" s="239">
-        <v>43</v>
-      </c>
-      <c r="J21" s="240">
-        <v>329</v>
-      </c>
-      <c r="K21" s="241">
-        <v>5</v>
-      </c>
-      <c r="L21" s="239">
-        <v>36</v>
-      </c>
-      <c r="M21" s="240">
-        <v>345</v>
-      </c>
-      <c r="N21" s="241">
-        <v>8</v>
-      </c>
-      <c r="O21" s="239">
-        <v>47</v>
-      </c>
-      <c r="P21" s="240">
-        <v>342</v>
-      </c>
-      <c r="Q21" s="241">
+      <c r="R21" s="239">
+        <v>52</v>
+      </c>
+      <c r="S21" s="240">
+        <v>427</v>
+      </c>
+      <c r="T21" s="241">
         <v>6</v>
       </c>
-      <c r="R21" s="239">
-        <v>43</v>
-      </c>
-      <c r="S21" s="240">
-        <v>344</v>
-      </c>
-      <c r="T21" s="241">
-        <v>7</v>
-      </c>
       <c r="U21" s="239">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="V21" s="240">
-        <v>343</v>
+        <v>429</v>
       </c>
       <c r="W21" s="241">
         <v>1</v>
       </c>
       <c r="X21" s="239">
+        <v>61</v>
+      </c>
+      <c r="Y21" s="240">
+        <v>497</v>
+      </c>
+      <c r="Z21" s="241">
+        <v>6</v>
+      </c>
+      <c r="AA21" s="239">
         <v>50</v>
       </c>
-      <c r="Y21" s="240">
-        <v>404</v>
-      </c>
-      <c r="Z21" s="241">
-        <v>4</v>
-      </c>
-      <c r="AA21" s="239">
-        <v>42</v>
-      </c>
       <c r="AB21" s="240">
-        <v>350</v>
+        <v>429</v>
       </c>
       <c r="AC21" s="241">
         <v>3</v>
       </c>
       <c r="AD21" s="239">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="AE21" s="240">
-        <v>389</v>
+        <v>467</v>
       </c>
       <c r="AF21" s="241">
+        <v>11</v>
+      </c>
+      <c r="AG21" s="239">
+        <v>41</v>
+      </c>
+      <c r="AH21" s="240">
+        <v>391</v>
+      </c>
+      <c r="AI21" s="241">
         <v>12</v>
-      </c>
-      <c r="AG21" s="239">
-        <v>32</v>
-      </c>
-      <c r="AH21" s="240">
-        <v>300</v>
-      </c>
-      <c r="AI21" s="241">
-        <v>11</v>
       </c>
       <c r="AJ21" s="239">
         <v>35</v>
       </c>
       <c r="AK21" s="240">
-        <v>312</v>
+        <v>363</v>
       </c>
       <c r="AL21" s="241">
         <v>2</v>
       </c>
       <c r="AM21" s="239">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="AN21" s="242">
-        <v>391</v>
+        <v>469</v>
       </c>
       <c r="AO21" s="48"/>
       <c r="AP21" s="49"/>
@@ -16245,62 +16242,62 @@
       <c r="BK21" s="4"/>
       <c r="BL21" s="4"/>
       <c r="BM21" s="4">
-        <v>324</v>
+        <v>412</v>
       </c>
       <c r="BN21" s="4"/>
       <c r="BO21" s="4"/>
       <c r="BP21" s="4">
-        <v>329</v>
+        <v>434</v>
       </c>
       <c r="BQ21" s="4"/>
       <c r="BR21" s="4"/>
       <c r="BS21" s="4">
-        <v>345</v>
+        <v>428</v>
       </c>
       <c r="BT21" s="4"/>
       <c r="BU21" s="4"/>
       <c r="BV21" s="4">
-        <v>342</v>
+        <v>433</v>
       </c>
       <c r="BW21" s="4"/>
       <c r="BX21" s="4"/>
       <c r="BY21" s="4">
-        <v>344</v>
+        <v>427</v>
       </c>
       <c r="BZ21" s="4"/>
       <c r="CA21" s="4"/>
       <c r="CB21" s="4">
-        <v>343</v>
+        <v>429</v>
       </c>
       <c r="CC21" s="4"/>
       <c r="CD21" s="4"/>
       <c r="CE21" s="4">
-        <v>404</v>
+        <v>497</v>
       </c>
       <c r="CF21" s="4"/>
       <c r="CG21" s="4"/>
       <c r="CH21" s="4">
-        <v>350</v>
+        <v>429</v>
       </c>
       <c r="CI21" s="4"/>
       <c r="CJ21" s="4"/>
       <c r="CK21" s="4">
-        <v>389</v>
+        <v>467</v>
       </c>
       <c r="CL21" s="4"/>
       <c r="CM21" s="4"/>
       <c r="CN21" s="4">
-        <v>300</v>
+        <v>391</v>
       </c>
       <c r="CO21" s="4"/>
       <c r="CP21" s="4"/>
       <c r="CQ21" s="4">
-        <v>312</v>
+        <v>363</v>
       </c>
       <c r="CR21" s="4"/>
       <c r="CS21" s="4"/>
       <c r="CT21" s="4">
-        <v>391</v>
+        <v>469</v>
       </c>
       <c r="CU21" s="4"/>
     </row>
@@ -16311,112 +16308,112 @@
         <v>23</v>
       </c>
       <c r="E22" s="246">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="F22" s="247">
-        <v>6.4</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="G22" s="248">
-        <v>81</v>
+        <v>82.4</v>
       </c>
       <c r="H22" s="249">
-        <v>7.2</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="I22" s="247">
-        <v>8.6</v>
+        <v>8.8333333333333339</v>
       </c>
       <c r="J22" s="248">
-        <v>82.25</v>
+        <v>86.8</v>
       </c>
       <c r="K22" s="249">
-        <v>4.25</v>
+        <v>4.8</v>
       </c>
       <c r="L22" s="247">
-        <v>7.2</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="M22" s="248">
-        <v>86.25</v>
+        <v>85.6</v>
       </c>
       <c r="N22" s="249">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="O22" s="247">
-        <v>9.4</v>
+        <v>9.3333333333333339</v>
       </c>
       <c r="P22" s="248">
-        <v>85.5</v>
+        <v>86.6</v>
       </c>
       <c r="Q22" s="249">
-        <v>7.4</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="R22" s="247">
-        <v>8.6</v>
+        <v>8.6666666666666661</v>
       </c>
       <c r="S22" s="248">
-        <v>86</v>
+        <v>85.4</v>
       </c>
       <c r="T22" s="249">
-        <v>8</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="U22" s="247">
-        <v>8</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="V22" s="248">
-        <v>85.75</v>
+        <v>85.8</v>
       </c>
       <c r="W22" s="249">
-        <v>2.2000000000000002</v>
+        <v>2.1666666666666665</v>
       </c>
       <c r="X22" s="247">
-        <v>10</v>
+        <v>10.166666666666666</v>
       </c>
       <c r="Y22" s="248">
-        <v>101</v>
+        <v>99.4</v>
       </c>
       <c r="Z22" s="249">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AA22" s="247">
-        <v>8.4</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="AB22" s="248">
-        <v>87.5</v>
+        <v>85.8</v>
       </c>
       <c r="AC22" s="249">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD22" s="247">
-        <v>9.4</v>
+        <v>9.1666666666666661</v>
       </c>
       <c r="AE22" s="248">
-        <v>97.25</v>
+        <v>93.4</v>
       </c>
       <c r="AF22" s="249">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG22" s="247">
-        <v>6.4</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="AH22" s="248">
-        <v>75</v>
+        <v>78.2</v>
       </c>
       <c r="AI22" s="249">
         <v>8.1999999999999993</v>
       </c>
       <c r="AJ22" s="247">
-        <v>7</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="AK22" s="248">
-        <v>78</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="AL22" s="249">
-        <v>4.5999999999999996</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="AM22" s="247">
-        <v>10</v>
+        <v>9.3333333333333339</v>
       </c>
       <c r="AN22" s="250">
-        <v>97.75</v>
+        <v>93.8</v>
       </c>
       <c r="AO22" s="48"/>
       <c r="AP22" s="49"/>
@@ -16473,8 +16470,8 @@
       </c>
       <c r="F23" s="255"/>
       <c r="G23" s="256"/>
-      <c r="H23" s="257" t="s">
-        <v>0</v>
+      <c r="H23" s="257">
+        <v>1</v>
       </c>
       <c r="I23" s="255"/>
       <c r="J23" s="256"/>
@@ -16609,7 +16606,7 @@
       <c r="U24" s="108"/>
       <c r="V24" s="109"/>
       <c r="W24" s="75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X24" s="108"/>
       <c r="Y24" s="109"/>
@@ -16728,7 +16725,7 @@
       <c r="L25" s="108"/>
       <c r="M25" s="109"/>
       <c r="N25" s="75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O25" s="108"/>
       <c r="P25" s="109"/>
@@ -16757,8 +16754,8 @@
       </c>
       <c r="AD25" s="108"/>
       <c r="AE25" s="109"/>
-      <c r="AF25" s="75" t="s">
-        <v>0</v>
+      <c r="AF25" s="75">
+        <v>1</v>
       </c>
       <c r="AG25" s="108"/>
       <c r="AH25" s="109"/>
@@ -16901,8 +16898,8 @@
       </c>
       <c r="AJ26" s="108"/>
       <c r="AK26" s="109"/>
-      <c r="AL26" s="75" t="s">
-        <v>0</v>
+      <c r="AL26" s="75">
+        <v>1</v>
       </c>
       <c r="AM26" s="108"/>
       <c r="AN26" s="110"/>
@@ -17030,8 +17027,8 @@
       </c>
       <c r="AG27" s="266"/>
       <c r="AH27" s="267"/>
-      <c r="AI27" s="268" t="s">
-        <v>0</v>
+      <c r="AI27" s="268">
+        <v>1</v>
       </c>
       <c r="AJ27" s="266"/>
       <c r="AK27" s="267"/>
@@ -17174,7 +17171,7 @@
     </row>
     <row r="29" spans="2:99" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AT29" s="300" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AU29" s="310"/>
       <c r="AV29" s="310"/>
@@ -17193,63 +17190,63 @@
       <c r="BI29" s="311"/>
       <c r="BJ29" s="4"/>
       <c r="BK29" s="4"/>
-      <c r="BL29" s="4" t="s">
-        <v>0</v>
+      <c r="BL29" s="4">
+        <v>8</v>
       </c>
       <c r="BM29" s="4"/>
       <c r="BN29" s="4"/>
-      <c r="BO29" s="4" t="s">
-        <v>0</v>
+      <c r="BO29" s="4">
+        <v>10</v>
       </c>
       <c r="BP29" s="4"/>
       <c r="BQ29" s="4"/>
-      <c r="BR29" s="4" t="s">
-        <v>0</v>
+      <c r="BR29" s="4">
+        <v>7</v>
       </c>
       <c r="BS29" s="4"/>
       <c r="BT29" s="4"/>
-      <c r="BU29" s="4" t="s">
-        <v>0</v>
+      <c r="BU29" s="4">
+        <v>9</v>
       </c>
       <c r="BV29" s="4"/>
       <c r="BW29" s="4"/>
-      <c r="BX29" s="4" t="s">
-        <v>0</v>
+      <c r="BX29" s="4">
+        <v>9</v>
       </c>
       <c r="BY29" s="4"/>
       <c r="BZ29" s="4"/>
-      <c r="CA29" s="4" t="s">
-        <v>0</v>
+      <c r="CA29" s="4">
+        <v>10</v>
       </c>
       <c r="CB29" s="4"/>
       <c r="CC29" s="4"/>
-      <c r="CD29" s="4" t="s">
-        <v>0</v>
+      <c r="CD29" s="4">
+        <v>11</v>
       </c>
       <c r="CE29" s="4"/>
       <c r="CF29" s="4"/>
-      <c r="CG29" s="4" t="s">
-        <v>0</v>
+      <c r="CG29" s="4">
+        <v>8</v>
       </c>
       <c r="CH29" s="4"/>
       <c r="CI29" s="4"/>
-      <c r="CJ29" s="4" t="s">
-        <v>0</v>
+      <c r="CJ29" s="4">
+        <v>8</v>
       </c>
       <c r="CK29" s="4"/>
       <c r="CL29" s="4"/>
-      <c r="CM29" s="4" t="s">
-        <v>0</v>
+      <c r="CM29" s="4">
+        <v>9</v>
       </c>
       <c r="CN29" s="4"/>
       <c r="CO29" s="4"/>
-      <c r="CP29" s="4" t="s">
+      <c r="CP29" s="4">
         <v>0</v>
       </c>
       <c r="CQ29" s="4"/>
       <c r="CR29" s="4"/>
-      <c r="CS29" s="4" t="s">
-        <v>0</v>
+      <c r="CS29" s="4">
+        <v>6</v>
       </c>
       <c r="CT29" s="4"/>
       <c r="CU29" s="4"/>
@@ -17528,7 +17525,7 @@
         <v>62</v>
       </c>
       <c r="AV33" s="273">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="AW33" s="274">
         <v>2</v>
@@ -17540,7 +17537,7 @@
         <v>61</v>
       </c>
       <c r="AZ33" s="275">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BA33" s="277" t="s">
         <v>0</v>
@@ -17623,10 +17620,10 @@
         <v>102</v>
       </c>
       <c r="AU34" s="280">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV34" s="281">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="AW34" s="282">
         <v>1</v>
@@ -17644,7 +17641,7 @@
         <v>61</v>
       </c>
       <c r="BB34" s="286">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BC34" s="287"/>
       <c r="BD34" s="282"/>
@@ -17718,13 +17715,13 @@
     </row>
     <row r="35" spans="46:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AT35" s="271" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AU35" s="280">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AV35" s="281">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="AW35" s="282">
         <v>1</v>
@@ -17816,13 +17813,13 @@
     </row>
     <row r="36" spans="46:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AT36" s="271" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AU36" s="280">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AV36" s="281">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="AW36" s="282">
         <v>1</v>
@@ -17914,19 +17911,19 @@
     </row>
     <row r="37" spans="46:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AT37" s="271" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="AU37" s="280">
-        <v>-15</v>
+        <v>13</v>
       </c>
       <c r="AV37" s="281">
-        <v>-15</v>
-      </c>
-      <c r="AW37" s="282" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX37" s="283" t="s">
-        <v>0</v>
+        <v>-18</v>
+      </c>
+      <c r="AW37" s="282">
+        <v>1</v>
+      </c>
+      <c r="AX37" s="283">
+        <v>31</v>
       </c>
       <c r="AY37" s="284" t="s">
         <v>0</v>
@@ -18012,13 +18009,13 @@
     </row>
     <row r="38" spans="46:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AT38" s="271" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AU38" s="280">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="AV38" s="281">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="AW38" s="282" t="s">
         <v>0</v>
@@ -18113,10 +18110,10 @@
         <v>93</v>
       </c>
       <c r="AU39" s="280">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="AV39" s="281">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="AW39" s="282" t="s">
         <v>0</v>
@@ -18211,10 +18208,10 @@
         <v>94</v>
       </c>
       <c r="AU40" s="280">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="AV40" s="281">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="AW40" s="282" t="s">
         <v>0</v>
@@ -18309,10 +18306,10 @@
         <v>96</v>
       </c>
       <c r="AU41" s="280">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="AV41" s="281">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="AW41" s="282" t="s">
         <v>0</v>
@@ -18342,52 +18339,52 @@
       <c r="BJ41" s="4"/>
       <c r="BK41" s="4"/>
       <c r="BL41" s="4">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="BM41" s="4"/>
       <c r="BN41" s="4"/>
       <c r="BO41" s="4">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="BP41" s="4"/>
       <c r="BQ41" s="4"/>
       <c r="BR41" s="4">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="BS41" s="4"/>
       <c r="BT41" s="4"/>
       <c r="BU41" s="4">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="BV41" s="4"/>
       <c r="BW41" s="4"/>
       <c r="BX41" s="4">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="BY41" s="4"/>
       <c r="BZ41" s="4"/>
       <c r="CA41" s="4">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="CB41" s="4"/>
       <c r="CC41" s="4"/>
       <c r="CD41" s="4">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="CE41" s="4"/>
       <c r="CF41" s="4"/>
       <c r="CG41" s="4">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="CH41" s="4"/>
       <c r="CI41" s="4"/>
       <c r="CJ41" s="4">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="CK41" s="4"/>
       <c r="CL41" s="4"/>
       <c r="CM41" s="4">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="CN41" s="4"/>
       <c r="CO41" s="4"/>
@@ -18397,7 +18394,7 @@
       <c r="CQ41" s="4"/>
       <c r="CR41" s="4"/>
       <c r="CS41" s="4">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="CT41" s="4"/>
       <c r="CU41" s="4"/>
@@ -18407,10 +18404,10 @@
         <v>98</v>
       </c>
       <c r="AU42" s="280">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="AV42" s="281">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="AW42" s="282" t="s">
         <v>0</v>
@@ -18439,52 +18436,52 @@
       <c r="BI42" s="286"/>
       <c r="BJ42" s="50"/>
       <c r="BK42" s="50">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="BL42" s="50"/>
       <c r="BM42" s="50"/>
       <c r="BN42" s="50">
-        <v>7.2</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="BO42" s="50"/>
       <c r="BP42" s="50"/>
       <c r="BQ42" s="50">
-        <v>4.25</v>
+        <v>4.8</v>
       </c>
       <c r="BR42" s="50"/>
       <c r="BS42" s="50"/>
       <c r="BT42" s="50">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="BU42" s="50"/>
       <c r="BV42" s="50"/>
       <c r="BW42" s="50">
-        <v>7.4</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="BX42" s="50"/>
       <c r="BY42" s="50"/>
       <c r="BZ42" s="50">
-        <v>8</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="CA42" s="50"/>
       <c r="CB42" s="50"/>
       <c r="CC42" s="50">
-        <v>2.2000000000000002</v>
+        <v>2.1666666666666665</v>
       </c>
       <c r="CD42" s="50"/>
       <c r="CE42" s="50"/>
       <c r="CF42" s="50">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="CG42" s="50"/>
       <c r="CH42" s="50"/>
       <c r="CI42" s="50">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CJ42" s="50"/>
       <c r="CK42" s="50"/>
       <c r="CL42" s="50">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CM42" s="50"/>
       <c r="CN42" s="50"/>
@@ -18494,7 +18491,7 @@
       <c r="CP42" s="50"/>
       <c r="CQ42" s="50"/>
       <c r="CR42" s="50">
-        <v>4.5999999999999996</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="CS42" s="50"/>
       <c r="CT42" s="50"/>
@@ -18505,10 +18502,10 @@
         <v>100</v>
       </c>
       <c r="AU43" s="280">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="AV43" s="281">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="AW43" s="282" t="s">
         <v>0</v>
@@ -18541,10 +18538,10 @@
         <v>101</v>
       </c>
       <c r="AU44" s="289">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="AV44" s="290">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="AW44" s="291" t="s">
         <v>0</v>

--- a/regular_season_final.xlsx
+++ b/regular_season_final.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="176">
   <si>
     <t/>
   </si>
@@ -344,9 +344,6 @@
     <t>49ers</t>
   </si>
   <si>
-    <t>Panthers</t>
-  </si>
-  <si>
     <t>Ravens</t>
   </si>
   <si>
@@ -375,9 +372,6 @@
   </si>
   <si>
     <t>Steelers</t>
-  </si>
-  <si>
-    <t>Cowboys</t>
   </si>
   <si>
     <t>Redskins</t>
@@ -422,9 +416,6 @@
     <t>Games Completed</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t xml:space="preserve">Monday Night Total Points:  </t>
   </si>
   <si>
@@ -437,121 +428,130 @@
     <t>Packers</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Week 6 Scores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w6_p1_picks         = ["V","H","H","H","V","H","V","H","H","V","H","H","H","H","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w6_p2_picks         = ["V","H","H","V","H","H","H","H","H","H","H","H","H","H","H"];</t>
-  </si>
-  <si>
     <t>Jaguars</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w6_p3_picks         = ["V","H","H","H","V","H","V","V","H","V","H","H","H","H","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w6_p4_picks         = ["V","H","H","H","V","H","H","V","H","V","V","H","H","H","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w6_p5_picks         = ["V","H","V","V","V","H","H","H","H","V","H","H","H","H","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w6_p6_picks         = ["V","H","H","H","V","H","H","H","H","H","H","V","V","H","H"];</t>
   </si>
   <si>
     <t>Saints</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w6_p7_picks         = ["H","H","H","H","V","H","H","H","V","H","V","V","V","H","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w6_p8_picks         = ["V","H","H","H","V","H","H","H","V","H","H","H","V","H","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w6_p9_picks         = ["V","H","H","H","V","H","H","H","H","H","H","H","V","V","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w6_p10_picks        = ["V","H","V","H","H","H","V","V","H","H","H","H","H","V","H"];</t>
-  </si>
-  <si>
     <t>Chiefs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w6_p11_picks        = [];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w6_p12_picks        = ["V","H","H","V","V","H","H","V","H","V","H","H","H","V","H"];</t>
   </si>
   <si>
     <t>Seahawks</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w6_p1_weights       = ["9","16","4","8","12","15","7","6","13","3","2","10","11","5","14"];</t>
+    <t>7</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w6_p2_weights       = ["2","5","3","4","6","16","15","7","8","10","9","12","14","11","13"];</t>
+    <t>Week 7 Scores</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w6_p3_weights       = ["8","15","4","9","13","16","5","7","12","3","2","10","11","6","14"];</t>
+    <t xml:space="preserve">   var w7_p1_picks         = ["H","H","H","H","V","H","V","V","V","V","H","H","V","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w6_p4_weights       = ["6","15","4","9","13","16","5","8","12","3","2","10","11","7","14"];</t>
+    <t xml:space="preserve">   var w7_p2_picks         = ["H","V","H","H","H","H","H","V","V","V","H","H","V","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t xml:space="preserve">   var w7_p3_picks         = ["H","V","H","H","V","H","V","V","V","H","H","V","V","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w6_p5_weights       = ["13","16","11","7","12","9","6","3","14","10","8","2","5","4","15"];</t>
+    <t xml:space="preserve">   var w7_p4_picks         = ["H","V","H","H","H","H","V","V","H","H","H","V","V","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w6_p6_weights       = ["14","13","7","6","15","16","8","9","12","4","11","3","2","5","10"];</t>
+    <t xml:space="preserve">   var w7_p5_picks         = ["H","H","H","H","H","H","V","V","V","H","H","H","V","V","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w6_p7_weights       = ["3","15","9","11","16","2","10","14","4","8","12","5","13","6","7"];</t>
+    <t xml:space="preserve">   var w7_p6_picks         = ["V","H","H","V","V","H","V","V","V","H","H","V","V","V","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w6_p8_weights       = ["8","13","4","10","15","16","3","7","2","5","6","12","9","11","14"];</t>
+    <t xml:space="preserve">   var w7_p7_picks         = ["H","V","H","H","H","V","V","V","V","H","H","V","H","H","V"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w6_p9_weights       = ["10","13","4","3","15","16","11","2","12","7","9","6","8","5","14"];</t>
+    <t xml:space="preserve">   var w7_p8_picks         = ["H","V","H","H","V","H","V","H","V","H","H","H","V","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w6_p10_weights      = ["2","10","4","5","8","13","9","3","15","14","7","12","6","11","16"];</t>
+    <t>Vikings</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w6_p11_weights      = [];</t>
+    <t xml:space="preserve">   var w7_p9_picks         = ["H","V","H","V","V","H","H","V","V","H","H","V","H","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w6_p12_weights      = ["15","12","9","14","16","13","3","11","10","8","6","4","7","5","2"];</t>
+    <t xml:space="preserve">   var w7_p10_picks        = ["H","H","V","H","V","H","V","V","V","H","V","V","V","V","V"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w6_winners          = ["H","H","V","H","H","H","H","H","H","H","V","V","H","H","H"];</t>
+    <t xml:space="preserve">   var w7_p11_picks        = ["H","H","H","H","V","H","V","V","V","H","H","V","V","H","H"];</t>
   </si>
   <si>
-    <t>Vikings, Buccaneers</t>
+    <t>Buccaneers</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w6_mn_points        = ["45","49","47","42","37","56","38","41","43","50","","33"];</t>
+    <t xml:space="preserve">   var w7_p12_picks        = ["H","H","H","V","V","H","V","V","V","V","H","V","V","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w6_actual_mn_points = 0;</t>
+    <t xml:space="preserve">   var w7_p1_weights       = ["16","4","14","8","3","5","12","7","10","2","15","6","13","11","9"];</t>
   </si>
   <si>
-    <t>Week 6 Final</t>
+    <t xml:space="preserve">   var w7_p2_weights       = ["16","3","13","7","8","10","12","11","9","5","15","6","14","2","4"];</t>
   </si>
   <si>
-    <t>'Week 6'!$B$2</t>
+    <t xml:space="preserve">   var w7_p3_weights       = ["15","10","16","4","3","12","9","2","7","8","11","5","13","6","14"];</t>
   </si>
   <si>
-    <t>'Week 6'!$C$2</t>
+    <t xml:space="preserve">   var w7_p4_weights       = ["15","4","16","10","7","5","9","2","3","8","11","6","12","13","14"];</t>
   </si>
   <si>
-    <t>'Week 6'!$D$2</t>
+    <t xml:space="preserve">   var w7_p5_weights       = ["13","10","14","11","4","5","6","3","12","7","2","8","15","9","16"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w7_p6_weights       = ["5","6","13","12","7","11","9","10","14","3","16","2","15","4","8"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w7_p7_weights       = ["11","6","12","9","2","13","15","4","7","3","14","5","16","10","8"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w7_p8_weights       = ["15","11","16","3","2","14","10","4","8","6","13","5","7","9","12"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w7_p9_weights       = ["16","7","15","6","11","9","3","12","14","4","13","8","2","10","5"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w7_p10_weights      = ["13","5","3","12","16","15","14","11","8","9","4","2","6","7","10"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w7_p11_weights      = ["14","5","15","6","9","16","11","10","3","4","2","7","12","8","13"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w7_p12_weights      = ["16","6","15","9","8","12","13","7","4","11","14","3","10","2","5"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w7_winners          = ["H","V","H","H","V","H","H","H","H","V","V","V","V","Tie","H"];</t>
+  </si>
+  <si>
+    <t>Panthers, Cowboys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w7_mn_points        = ["37","45","40","42","37","54","38","37","42","28","44","21"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w7_actual_mn_points = 36;</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Over</t>
+  </si>
+  <si>
+    <t>Week 7 Final</t>
+  </si>
+  <si>
+    <t>'Week 7'!$B$2</t>
+  </si>
+  <si>
+    <t>'Week 7'!$C$2</t>
+  </si>
+  <si>
+    <t>'Week 7'!$D$2</t>
   </si>
 </sst>
 </file>
@@ -5191,52 +5191,52 @@
         <v>40</v>
       </c>
       <c r="C2" s="297" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D2" s="112" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E2" s="113"/>
       <c r="F2" s="114" t="s">
         <v>91</v>
       </c>
       <c r="G2" s="115">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="H2" s="116"/>
       <c r="I2" s="114" t="s">
         <v>92</v>
       </c>
       <c r="J2" s="115">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K2" s="116"/>
       <c r="L2" s="114" t="s">
         <v>93</v>
       </c>
       <c r="M2" s="115">
-        <v>-18</v>
+        <v>10</v>
       </c>
       <c r="N2" s="116"/>
       <c r="O2" s="114" t="s">
         <v>94</v>
       </c>
       <c r="P2" s="115">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="Q2" s="116"/>
       <c r="R2" s="114" t="s">
         <v>95</v>
       </c>
       <c r="S2" s="115">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="T2" s="116"/>
       <c r="U2" s="114" t="s">
         <v>96</v>
       </c>
       <c r="V2" s="115">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="W2" s="116"/>
       <c r="X2" s="114" t="s">
@@ -5250,35 +5250,35 @@
         <v>98</v>
       </c>
       <c r="AB2" s="115">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="AC2" s="116"/>
       <c r="AD2" s="114" t="s">
         <v>99</v>
       </c>
       <c r="AE2" s="115">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AF2" s="116"/>
       <c r="AG2" s="114" t="s">
         <v>100</v>
       </c>
       <c r="AH2" s="115">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="AI2" s="116"/>
       <c r="AJ2" s="114" t="s">
         <v>101</v>
       </c>
       <c r="AK2" s="115">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="AL2" s="116"/>
       <c r="AM2" s="114" t="s">
         <v>102</v>
       </c>
       <c r="AN2" s="115">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO2" s="117"/>
       <c r="AP2" s="3"/>
@@ -5297,7 +5297,7 @@
       <c r="AV2" s="305"/>
       <c r="AW2" s="3"/>
       <c r="BE2" s="300" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BF2" s="301"/>
       <c r="BG2" s="302"/>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="AP3" s="3"/>
       <c r="AR3" s="11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS3" s="9" t="s">
         <v>52</v>
@@ -5517,141 +5517,145 @@
     </row>
     <row r="4" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="180" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C4" s="181" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="181" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E4" s="182" t="s">
         <v>60</v>
       </c>
       <c r="F4" s="183" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="G4" s="184">
-        <v>9</v>
-      </c>
-      <c r="H4" s="185">
-        <v>-9</v>
+        <v>16</v>
+      </c>
+      <c r="H4" s="185" t="s">
+        <v>0</v>
       </c>
       <c r="I4" s="186" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="J4" s="184">
-        <v>2</v>
-      </c>
-      <c r="K4" s="185">
-        <v>-2</v>
+        <v>16</v>
+      </c>
+      <c r="K4" s="185" t="s">
+        <v>0</v>
       </c>
       <c r="L4" s="186" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="M4" s="184">
-        <v>8</v>
-      </c>
-      <c r="N4" s="185">
-        <v>-8</v>
+        <v>15</v>
+      </c>
+      <c r="N4" s="185" t="s">
+        <v>0</v>
       </c>
       <c r="O4" s="186" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="P4" s="184">
-        <v>6</v>
-      </c>
-      <c r="Q4" s="185">
-        <v>-6</v>
+        <v>15</v>
+      </c>
+      <c r="Q4" s="185" t="s">
+        <v>0</v>
       </c>
       <c r="R4" s="186" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="S4" s="184">
         <v>13</v>
       </c>
-      <c r="T4" s="185">
-        <v>-13</v>
+      <c r="T4" s="185" t="s">
+        <v>0</v>
       </c>
       <c r="U4" s="186" t="s">
         <v>88</v>
       </c>
       <c r="V4" s="184">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="W4" s="185">
-        <v>-14</v>
+        <v>-5</v>
       </c>
       <c r="X4" s="186" t="s">
         <v>60</v>
       </c>
       <c r="Y4" s="184">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="Z4" s="185" t="s">
         <v>0</v>
       </c>
       <c r="AA4" s="186" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AB4" s="184">
-        <v>8</v>
-      </c>
-      <c r="AC4" s="185">
-        <v>-8</v>
+        <v>15</v>
+      </c>
+      <c r="AC4" s="185" t="s">
+        <v>0</v>
       </c>
       <c r="AD4" s="186" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AE4" s="184">
-        <v>10</v>
-      </c>
-      <c r="AF4" s="185">
-        <v>-10</v>
+        <v>16</v>
+      </c>
+      <c r="AF4" s="185" t="s">
+        <v>0</v>
       </c>
       <c r="AG4" s="186" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AH4" s="184">
-        <v>2</v>
-      </c>
-      <c r="AI4" s="185">
-        <v>-2</v>
-      </c>
-      <c r="AJ4" s="186"/>
-      <c r="AK4" s="184"/>
+        <v>13</v>
+      </c>
+      <c r="AI4" s="185" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="186" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK4" s="184">
+        <v>14</v>
+      </c>
       <c r="AL4" s="185" t="s">
         <v>0</v>
       </c>
       <c r="AM4" s="186" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AN4" s="184">
+        <v>16</v>
+      </c>
+      <c r="AO4" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="188" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU4" s="184">
         <v>15</v>
       </c>
-      <c r="AO4" s="187">
-        <v>-15</v>
-      </c>
-      <c r="AT4" s="188" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU4" s="184">
-        <v>11</v>
-      </c>
-      <c r="AV4" s="187">
-        <v>-11</v>
+      <c r="AV4" s="187" t="s">
+        <v>0</v>
       </c>
       <c r="AX4" s="4">
-        <v>-84</v>
+        <v>155</v>
       </c>
       <c r="AY4" s="4">
-        <v>84</v>
+        <v>155</v>
       </c>
       <c r="AZ4" s="4">
-        <v>84</v>
+        <v>155</v>
       </c>
       <c r="BA4" s="4">
-        <v>84</v>
+        <v>155</v>
       </c>
       <c r="BB4" s="4">
         <v>1</v>
@@ -5663,10 +5667,10 @@
         <v>1</v>
       </c>
       <c r="BF4" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG4" s="61">
         <v>92</v>
-      </c>
-      <c r="BG4" s="61">
-        <v>105</v>
       </c>
       <c r="BH4" s="189"/>
       <c r="BI4" s="62">
@@ -5676,10 +5680,10 @@
         <v>97</v>
       </c>
       <c r="BK4" s="64">
-        <v>99.4</v>
+        <v>94.666666666666671</v>
       </c>
       <c r="BL4" s="65">
-        <v>497</v>
+        <v>568</v>
       </c>
       <c r="BM4" s="172"/>
       <c r="BN4" s="66">
@@ -5692,7 +5696,7 @@
         <v>62</v>
       </c>
       <c r="BQ4" s="69">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="BR4" s="70">
         <v>2</v>
@@ -5704,7 +5708,7 @@
         <v>61</v>
       </c>
       <c r="BU4" s="71">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BV4" s="72" t="s">
         <v>0</v>
@@ -5713,54 +5717,54 @@
         <v>0</v>
       </c>
       <c r="BY4" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="190" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C5" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="191" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="E5" s="192" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F5" s="193" t="s">
         <v>60</v>
       </c>
       <c r="G5" s="194">
-        <v>16</v>
-      </c>
-      <c r="H5" s="195" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="H5" s="195">
+        <v>-4</v>
       </c>
       <c r="I5" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="J5" s="194">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K5" s="195" t="s">
         <v>0</v>
       </c>
       <c r="L5" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="M5" s="194">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N5" s="195" t="s">
         <v>0</v>
       </c>
       <c r="O5" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="P5" s="194">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="Q5" s="195" t="s">
         <v>0</v>
@@ -5769,43 +5773,43 @@
         <v>60</v>
       </c>
       <c r="S5" s="194">
-        <v>16</v>
-      </c>
-      <c r="T5" s="195" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="T5" s="195">
+        <v>-10</v>
       </c>
       <c r="U5" s="196" t="s">
         <v>60</v>
       </c>
       <c r="V5" s="194">
-        <v>13</v>
-      </c>
-      <c r="W5" s="195" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="W5" s="195">
+        <v>-6</v>
       </c>
       <c r="X5" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="Y5" s="194">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="Z5" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AA5" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AB5" s="194">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AC5" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AD5" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AE5" s="194">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AF5" s="195" t="s">
         <v>0</v>
@@ -5814,47 +5818,51 @@
         <v>60</v>
       </c>
       <c r="AH5" s="194">
-        <v>10</v>
-      </c>
-      <c r="AI5" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="196"/>
-      <c r="AK5" s="194"/>
-      <c r="AL5" s="195" t="s">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="AI5" s="195">
+        <v>-5</v>
+      </c>
+      <c r="AJ5" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK5" s="194">
+        <v>5</v>
+      </c>
+      <c r="AL5" s="195">
+        <v>-5</v>
       </c>
       <c r="AM5" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AN5" s="194">
-        <v>12</v>
-      </c>
-      <c r="AO5" s="197" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="AO5" s="197">
+        <v>-6</v>
       </c>
       <c r="AR5" s="8"/>
       <c r="AS5" s="9"/>
       <c r="AT5" s="198" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AU5" s="194">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="AV5" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX5" s="4">
-        <v>143</v>
+        <v>-5</v>
       </c>
       <c r="AY5" s="4">
-        <v>143</v>
+        <v>5</v>
       </c>
       <c r="AZ5" s="4">
-        <v>143</v>
+        <v>5</v>
       </c>
       <c r="BA5" s="4">
-        <v>143</v>
+        <v>5</v>
       </c>
       <c r="BB5" s="4">
         <v>2</v>
@@ -5866,10 +5874,10 @@
         <v>2</v>
       </c>
       <c r="BF5" s="77" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="BG5" s="78">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BH5" s="189"/>
       <c r="BI5" s="79">
@@ -5879,10 +5887,10 @@
         <v>102</v>
       </c>
       <c r="BK5" s="81">
-        <v>93.8</v>
+        <v>91.5</v>
       </c>
       <c r="BL5" s="82">
-        <v>469</v>
+        <v>549</v>
       </c>
       <c r="BM5" s="172"/>
       <c r="BN5" s="79">
@@ -5892,10 +5900,10 @@
         <v>102</v>
       </c>
       <c r="BP5" s="83">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BQ5" s="84">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="BR5" s="85">
         <v>1</v>
@@ -5913,66 +5921,66 @@
         <v>61</v>
       </c>
       <c r="BW5" s="88">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BY5" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="190" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="C6" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="191" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E6" s="192" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F6" s="193" t="s">
         <v>60</v>
       </c>
       <c r="G6" s="194">
-        <v>4</v>
-      </c>
-      <c r="H6" s="195">
-        <v>-4</v>
+        <v>14</v>
+      </c>
+      <c r="H6" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="I6" s="196" t="s">
         <v>60</v>
       </c>
       <c r="J6" s="194">
-        <v>3</v>
-      </c>
-      <c r="K6" s="195">
-        <v>-3</v>
+        <v>13</v>
+      </c>
+      <c r="K6" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="L6" s="196" t="s">
         <v>60</v>
       </c>
       <c r="M6" s="194">
-        <v>4</v>
-      </c>
-      <c r="N6" s="195">
-        <v>-4</v>
+        <v>16</v>
+      </c>
+      <c r="N6" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="O6" s="196" t="s">
         <v>60</v>
       </c>
       <c r="P6" s="194">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="195">
-        <v>-4</v>
+        <v>16</v>
+      </c>
+      <c r="Q6" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="R6" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="S6" s="194">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="T6" s="195" t="s">
         <v>0</v>
@@ -5981,49 +5989,53 @@
         <v>60</v>
       </c>
       <c r="V6" s="194">
-        <v>7</v>
-      </c>
-      <c r="W6" s="195">
-        <v>-7</v>
+        <v>13</v>
+      </c>
+      <c r="W6" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="X6" s="196" t="s">
         <v>60</v>
       </c>
       <c r="Y6" s="194">
-        <v>9</v>
-      </c>
-      <c r="Z6" s="195">
-        <v>-9</v>
+        <v>12</v>
+      </c>
+      <c r="Z6" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AA6" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AB6" s="194">
-        <v>4</v>
-      </c>
-      <c r="AC6" s="195">
-        <v>-4</v>
+        <v>16</v>
+      </c>
+      <c r="AC6" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AD6" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AE6" s="194">
-        <v>4</v>
-      </c>
-      <c r="AF6" s="195">
-        <v>-4</v>
+        <v>15</v>
+      </c>
+      <c r="AF6" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AG6" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AH6" s="194">
-        <v>4</v>
-      </c>
-      <c r="AI6" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="196"/>
-      <c r="AK6" s="194"/>
+        <v>3</v>
+      </c>
+      <c r="AI6" s="195">
+        <v>-3</v>
+      </c>
+      <c r="AJ6" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK6" s="194">
+        <v>15</v>
+      </c>
       <c r="AL6" s="195" t="s">
         <v>0</v>
       </c>
@@ -6031,10 +6043,10 @@
         <v>60</v>
       </c>
       <c r="AN6" s="194">
-        <v>9</v>
-      </c>
-      <c r="AO6" s="197">
-        <v>-9</v>
+        <v>15</v>
+      </c>
+      <c r="AO6" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AR6" s="8"/>
       <c r="AS6" s="9"/>
@@ -6042,22 +6054,22 @@
         <v>60</v>
       </c>
       <c r="AU6" s="194">
-        <v>4</v>
-      </c>
-      <c r="AV6" s="197">
-        <v>-4</v>
+        <v>16</v>
+      </c>
+      <c r="AV6" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AX6" s="4">
-        <v>33</v>
+        <v>156</v>
       </c>
       <c r="AY6" s="4">
-        <v>33</v>
+        <v>156</v>
       </c>
       <c r="AZ6" s="4">
-        <v>33</v>
+        <v>156</v>
       </c>
       <c r="BA6" s="4">
-        <v>33</v>
+        <v>156</v>
       </c>
       <c r="BB6" s="4">
         <v>3</v>
@@ -6072,7 +6084,7 @@
         <v>94</v>
       </c>
       <c r="BG6" s="78">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="BH6" s="189"/>
       <c r="BI6" s="79">
@@ -6082,10 +6094,10 @@
         <v>99</v>
       </c>
       <c r="BK6" s="81">
-        <v>93.4</v>
+        <v>90.166666666666671</v>
       </c>
       <c r="BL6" s="82">
-        <v>467</v>
+        <v>541</v>
       </c>
       <c r="BM6" s="172"/>
       <c r="BN6" s="79">
@@ -6095,10 +6107,10 @@
         <v>92</v>
       </c>
       <c r="BP6" s="83">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BQ6" s="84">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="BR6" s="85">
         <v>1</v>
@@ -6124,13 +6136,13 @@
     </row>
     <row r="7" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="190" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C7" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="191" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E7" s="192" t="s">
         <v>60</v>
@@ -6145,19 +6157,19 @@
         <v>0</v>
       </c>
       <c r="I7" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="J7" s="194">
-        <v>4</v>
-      </c>
-      <c r="K7" s="195">
-        <v>-4</v>
+        <v>7</v>
+      </c>
+      <c r="K7" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="L7" s="196" t="s">
         <v>60</v>
       </c>
       <c r="M7" s="194">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N7" s="195" t="s">
         <v>0</v>
@@ -6166,34 +6178,34 @@
         <v>60</v>
       </c>
       <c r="P7" s="194">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q7" s="195" t="s">
         <v>0</v>
       </c>
       <c r="R7" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="S7" s="194">
+        <v>11</v>
+      </c>
+      <c r="T7" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="U7" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="S7" s="194">
-        <v>7</v>
-      </c>
-      <c r="T7" s="195">
-        <v>-7</v>
-      </c>
-      <c r="U7" s="196" t="s">
-        <v>60</v>
-      </c>
       <c r="V7" s="194">
-        <v>6</v>
-      </c>
-      <c r="W7" s="195" t="s">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="W7" s="195">
+        <v>-12</v>
       </c>
       <c r="X7" s="196" t="s">
         <v>60</v>
       </c>
       <c r="Y7" s="194">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z7" s="195" t="s">
         <v>0</v>
@@ -6202,31 +6214,35 @@
         <v>60</v>
       </c>
       <c r="AB7" s="194">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AC7" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AD7" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AE7" s="194">
-        <v>3</v>
-      </c>
-      <c r="AF7" s="195" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="AF7" s="195">
+        <v>-6</v>
       </c>
       <c r="AG7" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AH7" s="194">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AI7" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="AJ7" s="196"/>
-      <c r="AK7" s="194"/>
+      <c r="AJ7" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK7" s="194">
+        <v>6</v>
+      </c>
       <c r="AL7" s="195" t="s">
         <v>0</v>
       </c>
@@ -6234,31 +6250,31 @@
         <v>88</v>
       </c>
       <c r="AN7" s="194">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AO7" s="197">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="AT7" s="198" t="s">
         <v>60</v>
       </c>
       <c r="AU7" s="194">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV7" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX7" s="4">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="AY7" s="4">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="AZ7" s="4">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="BA7" s="4">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="BB7" s="4">
         <v>4</v>
@@ -6267,39 +6283,39 @@
         <v>1</v>
       </c>
       <c r="BE7" s="76">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BF7" s="77" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="BG7" s="78">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="BH7" s="189"/>
       <c r="BI7" s="79">
         <v>4</v>
       </c>
       <c r="BJ7" s="80" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="BK7" s="81">
-        <v>86.8</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="BL7" s="82">
-        <v>434</v>
+        <v>520</v>
       </c>
       <c r="BM7" s="172"/>
       <c r="BN7" s="79">
         <v>3</v>
       </c>
       <c r="BO7" s="80" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="BP7" s="83">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BQ7" s="84">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="BR7" s="85">
         <v>1</v>
@@ -6325,109 +6341,113 @@
     </row>
     <row r="8" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="190" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C8" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="191" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="E8" s="192" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F8" s="193" t="s">
         <v>88</v>
       </c>
       <c r="G8" s="194">
-        <v>12</v>
-      </c>
-      <c r="H8" s="195">
-        <v>-12</v>
+        <v>3</v>
+      </c>
+      <c r="H8" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="I8" s="196" t="s">
         <v>60</v>
       </c>
       <c r="J8" s="194">
-        <v>6</v>
-      </c>
-      <c r="K8" s="195" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="K8" s="195">
+        <v>-8</v>
       </c>
       <c r="L8" s="196" t="s">
         <v>88</v>
       </c>
       <c r="M8" s="194">
-        <v>13</v>
-      </c>
-      <c r="N8" s="195">
-        <v>-13</v>
+        <v>3</v>
+      </c>
+      <c r="N8" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="O8" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="P8" s="194">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="Q8" s="195">
-        <v>-13</v>
+        <v>-7</v>
       </c>
       <c r="R8" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="S8" s="194">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="T8" s="195">
-        <v>-12</v>
+        <v>-4</v>
       </c>
       <c r="U8" s="196" t="s">
         <v>88</v>
       </c>
       <c r="V8" s="194">
-        <v>15</v>
-      </c>
-      <c r="W8" s="195">
-        <v>-15</v>
+        <v>7</v>
+      </c>
+      <c r="W8" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="X8" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="Y8" s="194">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="Z8" s="195">
-        <v>-16</v>
+        <v>-2</v>
       </c>
       <c r="AA8" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AB8" s="194">
-        <v>15</v>
-      </c>
-      <c r="AC8" s="195">
-        <v>-15</v>
+        <v>2</v>
+      </c>
+      <c r="AC8" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AD8" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AE8" s="194">
-        <v>15</v>
-      </c>
-      <c r="AF8" s="195">
-        <v>-15</v>
+        <v>11</v>
+      </c>
+      <c r="AF8" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AG8" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AH8" s="194">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AI8" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="AJ8" s="196"/>
-      <c r="AK8" s="194"/>
+      <c r="AJ8" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK8" s="194">
+        <v>9</v>
+      </c>
       <c r="AL8" s="195" t="s">
         <v>0</v>
       </c>
@@ -6435,31 +6455,31 @@
         <v>88</v>
       </c>
       <c r="AN8" s="194">
-        <v>16</v>
-      </c>
-      <c r="AO8" s="197">
-        <v>-16</v>
+        <v>8</v>
+      </c>
+      <c r="AO8" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AT8" s="198" t="s">
         <v>88</v>
       </c>
       <c r="AU8" s="194">
-        <v>13</v>
-      </c>
-      <c r="AV8" s="197">
-        <v>-13</v>
+        <v>5</v>
+      </c>
+      <c r="AV8" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AX8" s="4">
-        <v>-113</v>
+        <v>-38</v>
       </c>
       <c r="AY8" s="4">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="AZ8" s="4">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="BA8" s="4">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="BB8" s="4">
         <v>5</v>
@@ -6468,39 +6488,39 @@
         <v>1</v>
       </c>
       <c r="BE8" s="76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BF8" s="77" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="BG8" s="78">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="BH8" s="189"/>
       <c r="BI8" s="79">
         <v>5</v>
       </c>
       <c r="BJ8" s="80" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="BK8" s="81">
-        <v>86.6</v>
+        <v>86.333333333333329</v>
       </c>
       <c r="BL8" s="82">
-        <v>433</v>
+        <v>518</v>
       </c>
       <c r="BM8" s="172"/>
       <c r="BN8" s="79">
         <v>3</v>
       </c>
       <c r="BO8" s="80" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="BP8" s="83">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BQ8" s="84">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="BR8" s="85">
         <v>1</v>
@@ -6526,13 +6546,13 @@
     </row>
     <row r="9" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="190" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="C9" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="191" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="E9" s="192" t="s">
         <v>60</v>
@@ -6541,7 +6561,7 @@
         <v>60</v>
       </c>
       <c r="G9" s="194">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H9" s="195" t="s">
         <v>0</v>
@@ -6550,7 +6570,7 @@
         <v>60</v>
       </c>
       <c r="J9" s="194">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K9" s="195" t="s">
         <v>0</v>
@@ -6559,7 +6579,7 @@
         <v>60</v>
       </c>
       <c r="M9" s="194">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N9" s="195" t="s">
         <v>0</v>
@@ -6568,7 +6588,7 @@
         <v>60</v>
       </c>
       <c r="P9" s="194">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="Q9" s="195" t="s">
         <v>0</v>
@@ -6577,7 +6597,7 @@
         <v>60</v>
       </c>
       <c r="S9" s="194">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T9" s="195" t="s">
         <v>0</v>
@@ -6586,25 +6606,25 @@
         <v>60</v>
       </c>
       <c r="V9" s="194">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="W9" s="195" t="s">
         <v>0</v>
       </c>
       <c r="X9" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="Y9" s="194">
-        <v>2</v>
-      </c>
-      <c r="Z9" s="195" t="s">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="Z9" s="195">
+        <v>-13</v>
       </c>
       <c r="AA9" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AB9" s="194">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AC9" s="195" t="s">
         <v>0</v>
@@ -6613,7 +6633,7 @@
         <v>60</v>
       </c>
       <c r="AE9" s="194">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AF9" s="195" t="s">
         <v>0</v>
@@ -6622,13 +6642,17 @@
         <v>60</v>
       </c>
       <c r="AH9" s="194">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI9" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="AJ9" s="196"/>
-      <c r="AK9" s="194"/>
+      <c r="AJ9" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK9" s="194">
+        <v>16</v>
+      </c>
       <c r="AL9" s="195" t="s">
         <v>0</v>
       </c>
@@ -6636,7 +6660,7 @@
         <v>60</v>
       </c>
       <c r="AN9" s="194">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO9" s="197" t="s">
         <v>0</v>
@@ -6645,22 +6669,22 @@
         <v>60</v>
       </c>
       <c r="AU9" s="194">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AV9" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX9" s="4">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="AY9" s="4">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="AZ9" s="4">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="BA9" s="4">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="BB9" s="4">
         <v>6</v>
@@ -6672,42 +6696,42 @@
         <v>6</v>
       </c>
       <c r="BF9" s="77" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="BG9" s="78">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="BH9" s="189"/>
       <c r="BI9" s="79">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BJ9" s="80" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="BK9" s="81">
-        <v>85.8</v>
+        <v>86.333333333333329</v>
       </c>
       <c r="BL9" s="82">
-        <v>429</v>
+        <v>518</v>
       </c>
       <c r="BM9" s="172"/>
       <c r="BN9" s="79">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BO9" s="80" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="BP9" s="83">
-        <v>-18</v>
+        <v>10</v>
       </c>
       <c r="BQ9" s="84">
-        <v>-18</v>
-      </c>
-      <c r="BR9" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS9" s="86" t="s">
-        <v>0</v>
+        <v>-21</v>
+      </c>
+      <c r="BR9" s="85">
+        <v>1</v>
+      </c>
+      <c r="BS9" s="86">
+        <v>31</v>
       </c>
       <c r="BT9" s="87" t="s">
         <v>0</v>
@@ -6727,13 +6751,13 @@
     </row>
     <row r="10" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="190" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C10" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="191" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="E10" s="192" t="s">
         <v>60</v>
@@ -6742,16 +6766,16 @@
         <v>88</v>
       </c>
       <c r="G10" s="194">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H10" s="195">
-        <v>-7</v>
+        <v>-12</v>
       </c>
       <c r="I10" s="196" t="s">
         <v>60</v>
       </c>
       <c r="J10" s="194">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K10" s="195" t="s">
         <v>0</v>
@@ -6760,61 +6784,61 @@
         <v>88</v>
       </c>
       <c r="M10" s="194">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N10" s="195">
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="O10" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="P10" s="194">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="195" t="s">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="Q10" s="195">
+        <v>-9</v>
       </c>
       <c r="R10" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="S10" s="194">
         <v>6</v>
       </c>
-      <c r="T10" s="195" t="s">
-        <v>0</v>
+      <c r="T10" s="195">
+        <v>-6</v>
       </c>
       <c r="U10" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="V10" s="194">
-        <v>8</v>
-      </c>
-      <c r="W10" s="195" t="s">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="W10" s="195">
+        <v>-9</v>
       </c>
       <c r="X10" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="Y10" s="194">
+        <v>15</v>
+      </c>
+      <c r="Z10" s="195">
+        <v>-15</v>
+      </c>
+      <c r="AA10" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB10" s="194">
         <v>10</v>
       </c>
-      <c r="Z10" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB10" s="194">
-        <v>3</v>
-      </c>
-      <c r="AC10" s="195" t="s">
-        <v>0</v>
+      <c r="AC10" s="195">
+        <v>-10</v>
       </c>
       <c r="AD10" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AE10" s="194">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AF10" s="195" t="s">
         <v>0</v>
@@ -6823,45 +6847,49 @@
         <v>88</v>
       </c>
       <c r="AH10" s="194">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AI10" s="195">
-        <v>-9</v>
-      </c>
-      <c r="AJ10" s="196"/>
-      <c r="AK10" s="194"/>
-      <c r="AL10" s="195" t="s">
-        <v>0</v>
+        <v>-14</v>
+      </c>
+      <c r="AJ10" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK10" s="194">
+        <v>11</v>
+      </c>
+      <c r="AL10" s="195">
+        <v>-11</v>
       </c>
       <c r="AM10" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AN10" s="194">
-        <v>3</v>
-      </c>
-      <c r="AO10" s="197" t="s">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="AO10" s="197">
+        <v>-13</v>
       </c>
       <c r="AT10" s="198" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AU10" s="194">
-        <v>8</v>
-      </c>
-      <c r="AV10" s="197" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="AV10" s="197">
+        <v>-10</v>
       </c>
       <c r="AX10" s="4">
-        <v>40</v>
+        <v>-93</v>
       </c>
       <c r="AY10" s="4">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="AZ10" s="4">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="BA10" s="4">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="BB10" s="4">
         <v>7</v>
@@ -6873,36 +6901,36 @@
         <v>7</v>
       </c>
       <c r="BF10" s="77" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="BG10" s="78">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="BH10" s="189"/>
       <c r="BI10" s="79">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BJ10" s="80" t="s">
         <v>98</v>
       </c>
       <c r="BK10" s="81">
-        <v>85.8</v>
+        <v>85.5</v>
       </c>
       <c r="BL10" s="82">
-        <v>429</v>
+        <v>513</v>
       </c>
       <c r="BM10" s="172"/>
       <c r="BN10" s="79">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BO10" s="80" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="BP10" s="83">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="BQ10" s="84">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="BR10" s="85" t="s">
         <v>0</v>
@@ -6923,146 +6951,150 @@
         <v>0</v>
       </c>
       <c r="BY10" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="190" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="191" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E11" s="192" t="s">
         <v>60</v>
       </c>
       <c r="F11" s="193" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="G11" s="194">
-        <v>6</v>
-      </c>
-      <c r="H11" s="195" t="s">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="H11" s="195">
+        <v>-7</v>
       </c>
       <c r="I11" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="J11" s="194">
-        <v>7</v>
-      </c>
-      <c r="K11" s="195" t="s">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="K11" s="195">
+        <v>-11</v>
       </c>
       <c r="L11" s="196" t="s">
         <v>88</v>
       </c>
       <c r="M11" s="194">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N11" s="195">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="O11" s="196" t="s">
         <v>88</v>
       </c>
       <c r="P11" s="194">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Q11" s="195">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="R11" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="S11" s="194">
         <v>3</v>
       </c>
-      <c r="T11" s="195" t="s">
-        <v>0</v>
+      <c r="T11" s="195">
+        <v>-3</v>
       </c>
       <c r="U11" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="V11" s="194">
-        <v>9</v>
-      </c>
-      <c r="W11" s="195" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="W11" s="195">
+        <v>-10</v>
       </c>
       <c r="X11" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="Y11" s="194">
-        <v>14</v>
-      </c>
-      <c r="Z11" s="195" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="Z11" s="195">
+        <v>-4</v>
       </c>
       <c r="AA11" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AB11" s="194">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AC11" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AD11" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AE11" s="194">
-        <v>2</v>
-      </c>
-      <c r="AF11" s="195" t="s">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="AF11" s="195">
+        <v>-12</v>
       </c>
       <c r="AG11" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AH11" s="194">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AI11" s="195">
-        <v>-3</v>
-      </c>
-      <c r="AJ11" s="196"/>
-      <c r="AK11" s="194"/>
-      <c r="AL11" s="195" t="s">
-        <v>0</v>
+        <v>-11</v>
+      </c>
+      <c r="AJ11" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK11" s="194">
+        <v>10</v>
+      </c>
+      <c r="AL11" s="195">
+        <v>-10</v>
       </c>
       <c r="AM11" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AN11" s="194">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AO11" s="197">
-        <v>-11</v>
+        <v>-7</v>
       </c>
       <c r="AT11" s="198" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AU11" s="194">
-        <v>2</v>
-      </c>
-      <c r="AV11" s="197" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="AV11" s="197">
+        <v>-8</v>
       </c>
       <c r="AX11" s="4">
-        <v>19</v>
+        <v>-75</v>
       </c>
       <c r="AY11" s="4">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="AZ11" s="4">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="BA11" s="4">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="BB11" s="4">
         <v>8</v>
@@ -7074,36 +7106,36 @@
         <v>7</v>
       </c>
       <c r="BF11" s="77" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="BG11" s="78">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="BH11" s="189"/>
       <c r="BI11" s="79">
         <v>8</v>
       </c>
       <c r="BJ11" s="80" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="BK11" s="81">
-        <v>85.6</v>
+        <v>83.5</v>
       </c>
       <c r="BL11" s="82">
-        <v>428</v>
+        <v>501</v>
       </c>
       <c r="BM11" s="172"/>
       <c r="BN11" s="79">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BO11" s="80" t="s">
         <v>94</v>
       </c>
       <c r="BP11" s="83">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="BQ11" s="84">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="BR11" s="85" t="s">
         <v>0</v>
@@ -7124,187 +7156,191 @@
         <v>0</v>
       </c>
       <c r="BY11" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="190" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="C12" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="191" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="E12" s="192" t="s">
         <v>60</v>
       </c>
       <c r="F12" s="193" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="G12" s="194">
-        <v>13</v>
-      </c>
-      <c r="H12" s="195" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="H12" s="195">
+        <v>-10</v>
       </c>
       <c r="I12" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="J12" s="194">
-        <v>8</v>
-      </c>
-      <c r="K12" s="195" t="s">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="K12" s="195">
+        <v>-9</v>
       </c>
       <c r="L12" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="M12" s="194">
-        <v>12</v>
-      </c>
-      <c r="N12" s="195" t="s">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="N12" s="195">
+        <v>-7</v>
       </c>
       <c r="O12" s="196" t="s">
         <v>60</v>
       </c>
       <c r="P12" s="194">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="R12" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="S12" s="194">
         <v>12</v>
       </c>
-      <c r="Q12" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="R12" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="S12" s="194">
+      <c r="T12" s="195">
+        <v>-12</v>
+      </c>
+      <c r="U12" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="V12" s="194">
         <v>14</v>
       </c>
-      <c r="T12" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="U12" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="V12" s="194">
-        <v>12</v>
-      </c>
-      <c r="W12" s="195" t="s">
-        <v>0</v>
+      <c r="W12" s="195">
+        <v>-14</v>
       </c>
       <c r="X12" s="196" t="s">
         <v>88</v>
       </c>
       <c r="Y12" s="194">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Z12" s="195">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="AA12" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AB12" s="194">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AC12" s="195">
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="AD12" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AE12" s="194">
-        <v>12</v>
-      </c>
-      <c r="AF12" s="195" t="s">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="AF12" s="195">
+        <v>-14</v>
       </c>
       <c r="AG12" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AH12" s="194">
-        <v>15</v>
-      </c>
-      <c r="AI12" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="196"/>
-      <c r="AK12" s="194"/>
-      <c r="AL12" s="195" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="AI12" s="195">
+        <v>-8</v>
+      </c>
+      <c r="AJ12" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK12" s="194">
+        <v>3</v>
+      </c>
+      <c r="AL12" s="195">
+        <v>-3</v>
       </c>
       <c r="AM12" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AN12" s="194">
-        <v>10</v>
-      </c>
-      <c r="AO12" s="197" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="AO12" s="197">
+        <v>-4</v>
       </c>
       <c r="AT12" s="198" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AU12" s="194">
-        <v>12</v>
-      </c>
-      <c r="AV12" s="197" t="s">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="AV12" s="197">
+        <v>-11</v>
       </c>
       <c r="AX12" s="4">
-        <v>102</v>
+        <v>-93</v>
       </c>
       <c r="AY12" s="4">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="AZ12" s="4">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="BA12" s="4">
-        <v>102</v>
+        <v>93.1</v>
       </c>
       <c r="BB12" s="4">
         <v>9</v>
       </c>
       <c r="BC12" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BE12" s="76">
         <v>9</v>
       </c>
       <c r="BF12" s="77" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="BG12" s="78">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="BH12" s="189"/>
       <c r="BI12" s="79">
         <v>9</v>
       </c>
       <c r="BJ12" s="80" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BK12" s="81">
-        <v>85.4</v>
+        <v>80.833333333333329</v>
       </c>
       <c r="BL12" s="82">
-        <v>427</v>
+        <v>485</v>
       </c>
       <c r="BM12" s="172"/>
       <c r="BN12" s="79">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BO12" s="80" t="s">
         <v>96</v>
       </c>
       <c r="BP12" s="83">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="BQ12" s="84">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="BR12" s="85" t="s">
         <v>0</v>
@@ -7330,141 +7366,145 @@
     </row>
     <row r="13" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="190" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="C13" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="191" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E13" s="192" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F13" s="193" t="s">
         <v>88</v>
       </c>
       <c r="G13" s="194">
-        <v>3</v>
-      </c>
-      <c r="H13" s="195">
-        <v>-3</v>
+        <v>2</v>
+      </c>
+      <c r="H13" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="I13" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" s="194">
+        <v>5</v>
+      </c>
+      <c r="K13" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="J13" s="194">
-        <v>10</v>
-      </c>
-      <c r="K13" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="196" t="s">
-        <v>88</v>
-      </c>
       <c r="M13" s="194">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N13" s="195">
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="O13" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="P13" s="194">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Q13" s="195">
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="R13" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="S13" s="194">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="T13" s="195">
-        <v>-10</v>
+        <v>-7</v>
       </c>
       <c r="U13" s="196" t="s">
         <v>60</v>
       </c>
       <c r="V13" s="194">
-        <v>4</v>
-      </c>
-      <c r="W13" s="195" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="W13" s="195">
+        <v>-3</v>
       </c>
       <c r="X13" s="196" t="s">
         <v>60</v>
       </c>
       <c r="Y13" s="194">
-        <v>8</v>
-      </c>
-      <c r="Z13" s="195" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="Z13" s="195">
+        <v>-3</v>
       </c>
       <c r="AA13" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AB13" s="194">
-        <v>5</v>
-      </c>
-      <c r="AC13" s="195" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="AC13" s="195">
+        <v>-6</v>
       </c>
       <c r="AD13" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AE13" s="194">
-        <v>7</v>
-      </c>
-      <c r="AF13" s="195" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="AF13" s="195">
+        <v>-4</v>
       </c>
       <c r="AG13" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AH13" s="194">
-        <v>14</v>
-      </c>
-      <c r="AI13" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="196"/>
-      <c r="AK13" s="194"/>
-      <c r="AL13" s="195" t="s">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="AI13" s="195">
+        <v>-9</v>
+      </c>
+      <c r="AJ13" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK13" s="194">
+        <v>4</v>
+      </c>
+      <c r="AL13" s="195">
+        <v>-4</v>
       </c>
       <c r="AM13" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AN13" s="194">
-        <v>8</v>
-      </c>
-      <c r="AO13" s="197">
-        <v>-8</v>
+        <v>11</v>
+      </c>
+      <c r="AO13" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AT13" s="198" t="s">
         <v>60</v>
       </c>
       <c r="AU13" s="194">
-        <v>3</v>
-      </c>
-      <c r="AV13" s="197" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="AV13" s="197">
+        <v>-4</v>
       </c>
       <c r="AX13" s="4">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AY13" s="4">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AZ13" s="4">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="BA13" s="4">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="BB13" s="4">
         <v>10</v>
@@ -7476,10 +7516,10 @@
         <v>10</v>
       </c>
       <c r="BF13" s="77" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BG13" s="78">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="BH13" s="189"/>
       <c r="BI13" s="79">
@@ -7489,23 +7529,23 @@
         <v>91</v>
       </c>
       <c r="BK13" s="81">
-        <v>82.4</v>
+        <v>80.333333333333329</v>
       </c>
       <c r="BL13" s="82">
-        <v>412</v>
+        <v>482</v>
       </c>
       <c r="BM13" s="172"/>
       <c r="BN13" s="79">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BO13" s="80" t="s">
         <v>98</v>
       </c>
       <c r="BP13" s="83">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="BQ13" s="84">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="BR13" s="85" t="s">
         <v>0</v>
@@ -7531,13 +7571,13 @@
     </row>
     <row r="14" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="190" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="C14" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="191" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E14" s="192" t="s">
         <v>88</v>
@@ -7546,126 +7586,130 @@
         <v>60</v>
       </c>
       <c r="G14" s="194">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H14" s="195">
-        <v>-2</v>
+        <v>-15</v>
       </c>
       <c r="I14" s="196" t="s">
         <v>60</v>
       </c>
       <c r="J14" s="194">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K14" s="195">
-        <v>-9</v>
+        <v>-15</v>
       </c>
       <c r="L14" s="196" t="s">
         <v>60</v>
       </c>
       <c r="M14" s="194">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="N14" s="195">
-        <v>-2</v>
+        <v>-11</v>
       </c>
       <c r="O14" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="P14" s="194">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="195" t="s">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="Q14" s="195">
+        <v>-11</v>
       </c>
       <c r="R14" s="196" t="s">
         <v>60</v>
       </c>
       <c r="S14" s="194">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="T14" s="195">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="U14" s="196" t="s">
         <v>60</v>
       </c>
       <c r="V14" s="194">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="W14" s="195">
-        <v>-11</v>
+        <v>-16</v>
       </c>
       <c r="X14" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="Y14" s="194">
-        <v>12</v>
-      </c>
-      <c r="Z14" s="195" t="s">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="Z14" s="195">
+        <v>-14</v>
       </c>
       <c r="AA14" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AB14" s="194">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AC14" s="195">
-        <v>-6</v>
+        <v>-13</v>
       </c>
       <c r="AD14" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AE14" s="194">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AF14" s="195">
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="AG14" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH14" s="194">
+        <v>4</v>
+      </c>
+      <c r="AI14" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="AH14" s="194">
-        <v>7</v>
-      </c>
-      <c r="AI14" s="195">
-        <v>-7</v>
-      </c>
-      <c r="AJ14" s="196"/>
-      <c r="AK14" s="194"/>
-      <c r="AL14" s="195" t="s">
-        <v>0</v>
+      <c r="AK14" s="194">
+        <v>2</v>
+      </c>
+      <c r="AL14" s="195">
+        <v>-2</v>
       </c>
       <c r="AM14" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AN14" s="194">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AO14" s="197">
-        <v>-6</v>
+        <v>-14</v>
       </c>
       <c r="AT14" s="198" t="s">
         <v>60</v>
       </c>
       <c r="AU14" s="194">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AV14" s="197">
-        <v>-9</v>
+        <v>-14</v>
       </c>
       <c r="AX14" s="4">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="AY14" s="4">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="AZ14" s="4">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="BA14" s="4">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="BB14" s="4">
         <v>11</v>
@@ -7677,10 +7721,10 @@
         <v>11</v>
       </c>
       <c r="BF14" s="77" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="BG14" s="78">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="BH14" s="189"/>
       <c r="BI14" s="79">
@@ -7690,23 +7734,23 @@
         <v>100</v>
       </c>
       <c r="BK14" s="81">
-        <v>78.2</v>
+        <v>76.5</v>
       </c>
       <c r="BL14" s="82">
-        <v>391</v>
+        <v>459</v>
       </c>
       <c r="BM14" s="172"/>
       <c r="BN14" s="79">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BO14" s="80" t="s">
         <v>100</v>
       </c>
       <c r="BP14" s="83">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="BQ14" s="84">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="BR14" s="85" t="s">
         <v>0</v>
@@ -7727,18 +7771,18 @@
         <v>0</v>
       </c>
       <c r="BY14" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:77" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="190" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="C15" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="191" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="E15" s="192" t="s">
         <v>88</v>
@@ -7747,52 +7791,52 @@
         <v>60</v>
       </c>
       <c r="G15" s="194">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H15" s="195">
-        <v>-10</v>
+        <v>-6</v>
       </c>
       <c r="I15" s="196" t="s">
         <v>60</v>
       </c>
       <c r="J15" s="194">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K15" s="195">
-        <v>-12</v>
+        <v>-6</v>
       </c>
       <c r="L15" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="M15" s="194">
-        <v>10</v>
-      </c>
-      <c r="N15" s="195">
-        <v>-10</v>
+        <v>5</v>
+      </c>
+      <c r="N15" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="O15" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="P15" s="194">
-        <v>10</v>
-      </c>
-      <c r="Q15" s="195">
-        <v>-10</v>
+        <v>6</v>
+      </c>
+      <c r="Q15" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="R15" s="196" t="s">
         <v>60</v>
       </c>
       <c r="S15" s="194">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T15" s="195">
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="U15" s="196" t="s">
         <v>88</v>
       </c>
       <c r="V15" s="194">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W15" s="195" t="s">
         <v>0</v>
@@ -7810,63 +7854,67 @@
         <v>60</v>
       </c>
       <c r="AB15" s="194">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AC15" s="195">
-        <v>-12</v>
+        <v>-5</v>
       </c>
       <c r="AD15" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AE15" s="194">
-        <v>6</v>
-      </c>
-      <c r="AF15" s="195">
-        <v>-6</v>
+        <v>8</v>
+      </c>
+      <c r="AF15" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AG15" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AH15" s="194">
-        <v>12</v>
-      </c>
-      <c r="AI15" s="195">
-        <v>-12</v>
-      </c>
-      <c r="AJ15" s="196"/>
-      <c r="AK15" s="194"/>
+        <v>2</v>
+      </c>
+      <c r="AI15" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK15" s="194">
+        <v>7</v>
+      </c>
       <c r="AL15" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AM15" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AN15" s="194">
-        <v>4</v>
-      </c>
-      <c r="AO15" s="197">
-        <v>-4</v>
+        <v>3</v>
+      </c>
+      <c r="AO15" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AT15" s="198" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AU15" s="194">
-        <v>10</v>
-      </c>
-      <c r="AV15" s="197">
-        <v>-10</v>
+        <v>3</v>
+      </c>
+      <c r="AV15" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AX15" s="4">
-        <v>70</v>
+        <v>-13</v>
       </c>
       <c r="AY15" s="4">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="AZ15" s="4">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="BA15" s="4">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="BB15" s="4">
         <v>12</v>
@@ -7878,10 +7926,10 @@
         <v>12</v>
       </c>
       <c r="BF15" s="90" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="BG15" s="91">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="BH15" s="189"/>
       <c r="BI15" s="92">
@@ -7891,23 +7939,23 @@
         <v>101</v>
       </c>
       <c r="BK15" s="94">
-        <v>72.599999999999994</v>
+        <v>75.833333333333329</v>
       </c>
       <c r="BL15" s="95">
-        <v>363</v>
+        <v>455</v>
       </c>
       <c r="BM15" s="172"/>
       <c r="BN15" s="92">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BO15" s="93" t="s">
         <v>101</v>
       </c>
       <c r="BP15" s="96">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="BQ15" s="97">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="BR15" s="98" t="s">
         <v>0</v>
@@ -7933,28 +7981,28 @@
     </row>
     <row r="16" spans="1:77" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B16" s="190" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C16" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="191" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="E16" s="192" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F16" s="193" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="G16" s="194">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H16" s="195" t="s">
         <v>0</v>
       </c>
       <c r="I16" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="J16" s="194">
         <v>14</v>
@@ -7963,28 +8011,28 @@
         <v>0</v>
       </c>
       <c r="L16" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="M16" s="194">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N16" s="195" t="s">
         <v>0</v>
       </c>
       <c r="O16" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="P16" s="194">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="195" t="s">
         <v>0</v>
       </c>
       <c r="R16" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="S16" s="194">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="T16" s="195" t="s">
         <v>0</v>
@@ -7993,40 +8041,40 @@
         <v>88</v>
       </c>
       <c r="V16" s="194">
-        <v>2</v>
-      </c>
-      <c r="W16" s="195">
-        <v>-2</v>
+        <v>15</v>
+      </c>
+      <c r="W16" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="X16" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="Y16" s="194">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Z16" s="195">
-        <v>-13</v>
+        <v>-16</v>
       </c>
       <c r="AA16" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AB16" s="194">
-        <v>9</v>
-      </c>
-      <c r="AC16" s="195">
-        <v>-9</v>
+        <v>7</v>
+      </c>
+      <c r="AC16" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AD16" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE16" s="194">
+        <v>2</v>
+      </c>
+      <c r="AF16" s="195">
+        <v>-2</v>
+      </c>
+      <c r="AG16" s="196" t="s">
         <v>88</v>
-      </c>
-      <c r="AE16" s="194">
-        <v>8</v>
-      </c>
-      <c r="AF16" s="195">
-        <v>-8</v>
-      </c>
-      <c r="AG16" s="196" t="s">
-        <v>60</v>
       </c>
       <c r="AH16" s="194">
         <v>6</v>
@@ -8034,81 +8082,85 @@
       <c r="AI16" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="AJ16" s="196"/>
-      <c r="AK16" s="194"/>
+      <c r="AJ16" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK16" s="194">
+        <v>12</v>
+      </c>
       <c r="AL16" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AM16" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AN16" s="194">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AO16" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AT16" s="198" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AU16" s="194">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AV16" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX16" s="4">
-        <v>33</v>
+        <v>-99</v>
       </c>
       <c r="AY16" s="4">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="AZ16" s="4">
-        <v>33.1</v>
+        <v>99</v>
       </c>
       <c r="BA16" s="4">
-        <v>33.1</v>
+        <v>99</v>
       </c>
       <c r="BB16" s="4">
         <v>13</v>
       </c>
       <c r="BC16" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BY16" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="190" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C17" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="191" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E17" s="192" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="F17" s="193" t="s">
         <v>60</v>
       </c>
       <c r="G17" s="194">
-        <v>5</v>
-      </c>
-      <c r="H17" s="195" t="s">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="H17" s="195">
+        <v>-11</v>
       </c>
       <c r="I17" s="196" t="s">
         <v>60</v>
       </c>
       <c r="J17" s="194">
-        <v>11</v>
-      </c>
-      <c r="K17" s="195" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="K17" s="195">
+        <v>-2</v>
       </c>
       <c r="L17" s="196" t="s">
         <v>60</v>
@@ -8116,106 +8168,110 @@
       <c r="M17" s="194">
         <v>6</v>
       </c>
-      <c r="N17" s="195" t="s">
-        <v>0</v>
+      <c r="N17" s="195">
+        <v>-6</v>
       </c>
       <c r="O17" s="196" t="s">
         <v>60</v>
       </c>
       <c r="P17" s="194">
-        <v>7</v>
-      </c>
-      <c r="Q17" s="195" t="s">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="Q17" s="195">
+        <v>-13</v>
       </c>
       <c r="R17" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="S17" s="194">
+        <v>9</v>
+      </c>
+      <c r="T17" s="195">
+        <v>-9</v>
+      </c>
+      <c r="U17" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="V17" s="194">
         <v>4</v>
       </c>
-      <c r="T17" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="U17" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="V17" s="194">
-        <v>5</v>
-      </c>
-      <c r="W17" s="195" t="s">
-        <v>0</v>
+      <c r="W17" s="195">
+        <v>-4</v>
       </c>
       <c r="X17" s="196" t="s">
         <v>60</v>
       </c>
       <c r="Y17" s="194">
-        <v>6</v>
-      </c>
-      <c r="Z17" s="195" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="Z17" s="195">
+        <v>-10</v>
       </c>
       <c r="AA17" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AB17" s="194">
-        <v>11</v>
-      </c>
-      <c r="AC17" s="195" t="s">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="AC17" s="195">
+        <v>-9</v>
       </c>
       <c r="AD17" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AE17" s="194">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AF17" s="195">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="AG17" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AH17" s="194">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AI17" s="195">
-        <v>-11</v>
-      </c>
-      <c r="AJ17" s="196"/>
-      <c r="AK17" s="194"/>
-      <c r="AL17" s="195" t="s">
-        <v>0</v>
+        <v>-7</v>
+      </c>
+      <c r="AJ17" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK17" s="194">
+        <v>8</v>
+      </c>
+      <c r="AL17" s="195">
+        <v>-8</v>
       </c>
       <c r="AM17" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AN17" s="194">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AO17" s="197">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="AT17" s="198" t="s">
         <v>60</v>
       </c>
       <c r="AU17" s="194">
-        <v>6</v>
-      </c>
-      <c r="AV17" s="197" t="s">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="AV17" s="197">
+        <v>-7</v>
       </c>
       <c r="AX17" s="4">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AY17" s="4">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AZ17" s="4">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="BA17" s="4">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="BB17" s="4">
         <v>14</v>
@@ -8224,7 +8280,7 @@
         <v>1</v>
       </c>
       <c r="BY17" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8326,18 +8382,18 @@
         <v>1</v>
       </c>
       <c r="BY18" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="190" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C19" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="191" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E19" s="192" t="s">
         <v>60</v>
@@ -8346,7 +8402,7 @@
         <v>60</v>
       </c>
       <c r="G19" s="194">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H19" s="195" t="s">
         <v>0</v>
@@ -8355,7 +8411,7 @@
         <v>60</v>
       </c>
       <c r="J19" s="194">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K19" s="195" t="s">
         <v>0</v>
@@ -8382,7 +8438,7 @@
         <v>60</v>
       </c>
       <c r="S19" s="194">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T19" s="195" t="s">
         <v>0</v>
@@ -8391,25 +8447,25 @@
         <v>60</v>
       </c>
       <c r="V19" s="194">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="W19" s="195" t="s">
         <v>0</v>
       </c>
       <c r="X19" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="Y19" s="194">
-        <v>7</v>
-      </c>
-      <c r="Z19" s="195" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="Z19" s="195">
+        <v>-8</v>
       </c>
       <c r="AA19" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AB19" s="194">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AC19" s="195" t="s">
         <v>0</v>
@@ -8418,22 +8474,26 @@
         <v>60</v>
       </c>
       <c r="AE19" s="194">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AF19" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AG19" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH19" s="194">
+        <v>10</v>
+      </c>
+      <c r="AI19" s="195">
+        <v>-10</v>
+      </c>
+      <c r="AJ19" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="AH19" s="194">
-        <v>16</v>
-      </c>
-      <c r="AI19" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="196"/>
-      <c r="AK19" s="194"/>
+      <c r="AK19" s="194">
+        <v>13</v>
+      </c>
       <c r="AL19" s="195" t="s">
         <v>0</v>
       </c>
@@ -8441,7 +8501,7 @@
         <v>60</v>
       </c>
       <c r="AN19" s="194">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AO19" s="197" t="s">
         <v>0</v>
@@ -8450,22 +8510,22 @@
         <v>60</v>
       </c>
       <c r="AU19" s="194">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AV19" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX19" s="4">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="AY19" s="4">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="AZ19" s="4">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="BA19" s="4">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="BB19" s="4">
         <v>16</v>
@@ -8474,7 +8534,7 @@
         <v>1</v>
       </c>
       <c r="BY19" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8482,88 +8542,90 @@
       <c r="C20" s="103"/>
       <c r="D20" s="103"/>
       <c r="E20" s="199" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F20" s="104" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G20" s="105">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H20" s="122"/>
       <c r="I20" s="106" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J20" s="105">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K20" s="122"/>
       <c r="L20" s="106" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M20" s="105">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="N20" s="122"/>
       <c r="O20" s="106" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P20" s="105">
         <v>42</v>
       </c>
       <c r="Q20" s="122"/>
       <c r="R20" s="106" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="S20" s="105">
         <v>37</v>
       </c>
       <c r="T20" s="122"/>
       <c r="U20" s="106" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="V20" s="105">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="W20" s="122"/>
       <c r="X20" s="106" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Y20" s="105">
         <v>38</v>
       </c>
       <c r="Z20" s="122"/>
       <c r="AA20" s="106" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AB20" s="105">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AC20" s="122"/>
       <c r="AD20" s="106" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AE20" s="105">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AF20" s="122"/>
       <c r="AG20" s="106" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AH20" s="105">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="AI20" s="122"/>
       <c r="AJ20" s="106" t="s">
-        <v>159</v>
-      </c>
-      <c r="AK20" s="105"/>
+        <v>128</v>
+      </c>
+      <c r="AK20" s="105">
+        <v>44</v>
+      </c>
       <c r="AL20" s="122"/>
       <c r="AM20" s="106" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AN20" s="105">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="AO20" s="123"/>
       <c r="AT20" s="107"/>
@@ -8580,7 +8642,7 @@
       <c r="BM20" s="13"/>
       <c r="BN20" s="13"/>
       <c r="BY20" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:77" s="13" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8589,99 +8651,99 @@
       <c r="C21" s="201"/>
       <c r="D21" s="201"/>
       <c r="E21" s="202" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F21" s="203"/>
       <c r="G21" s="204">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H21" s="205">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="I21" s="206"/>
       <c r="J21" s="204">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K21" s="205">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="L21" s="206"/>
       <c r="M21" s="204">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N21" s="205">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="O21" s="206"/>
       <c r="P21" s="204">
         <v>3</v>
       </c>
       <c r="Q21" s="205">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="R21" s="206"/>
       <c r="S21" s="204">
         <v>7</v>
       </c>
       <c r="T21" s="205">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="U21" s="206"/>
       <c r="V21" s="204">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="W21" s="205">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="X21" s="206"/>
       <c r="Y21" s="204">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="Z21" s="205">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="AA21" s="206"/>
       <c r="AB21" s="204">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AC21" s="205">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AD21" s="206"/>
       <c r="AE21" s="204">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AF21" s="205">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AG21" s="206"/>
       <c r="AH21" s="204">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AI21" s="205">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="AJ21" s="206"/>
       <c r="AK21" s="204">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AL21" s="205">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="AM21" s="206"/>
       <c r="AN21" s="204">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AO21" s="207">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="AP21" s="3"/>
       <c r="AT21" s="208"/>
       <c r="AU21" s="209">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV21" s="210">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AW21" s="3"/>
       <c r="AX21" s="14"/>
@@ -8705,7 +8767,7 @@
       <c r="BV21" s="6"/>
       <c r="BW21" s="6"/>
       <c r="BY21" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:77" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8721,84 +8783,84 @@
         <v>10</v>
       </c>
       <c r="H22" s="129">
-        <v>82.4</v>
+        <v>80.333333333333329</v>
       </c>
       <c r="I22" s="130"/>
       <c r="J22" s="128">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K22" s="129">
-        <v>86.8</v>
+        <v>86.333333333333329</v>
       </c>
       <c r="L22" s="130"/>
       <c r="M22" s="128">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N22" s="129">
-        <v>85.6</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="O22" s="130"/>
       <c r="P22" s="128">
         <v>5</v>
       </c>
       <c r="Q22" s="129">
-        <v>86.6</v>
+        <v>86.333333333333329</v>
       </c>
       <c r="R22" s="130"/>
       <c r="S22" s="128">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T22" s="129">
-        <v>85.4</v>
+        <v>83.5</v>
       </c>
       <c r="U22" s="130"/>
       <c r="V22" s="128">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="W22" s="129">
-        <v>85.8</v>
+        <v>80.833333333333329</v>
       </c>
       <c r="X22" s="130"/>
       <c r="Y22" s="128">
         <v>1</v>
       </c>
       <c r="Z22" s="129">
-        <v>99.4</v>
+        <v>94.666666666666671</v>
       </c>
       <c r="AA22" s="130"/>
       <c r="AB22" s="128">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC22" s="129">
-        <v>85.8</v>
+        <v>85.5</v>
       </c>
       <c r="AD22" s="130"/>
       <c r="AE22" s="128">
         <v>3</v>
       </c>
       <c r="AF22" s="129">
-        <v>93.4</v>
+        <v>90.166666666666671</v>
       </c>
       <c r="AG22" s="130"/>
       <c r="AH22" s="128">
         <v>11</v>
       </c>
       <c r="AI22" s="129">
-        <v>78.2</v>
+        <v>76.5</v>
       </c>
       <c r="AJ22" s="130"/>
       <c r="AK22" s="128">
         <v>12</v>
       </c>
       <c r="AL22" s="129">
-        <v>72.599999999999994</v>
+        <v>75.833333333333329</v>
       </c>
       <c r="AM22" s="130"/>
       <c r="AN22" s="128">
         <v>2</v>
       </c>
       <c r="AO22" s="131">
-        <v>93.8</v>
+        <v>91.5</v>
       </c>
       <c r="AP22" s="3"/>
       <c r="AU22" s="14"/>
@@ -8823,7 +8885,7 @@
       <c r="BV22" s="6"/>
       <c r="BW22" s="6"/>
       <c r="BY22" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:77" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8837,62 +8899,62 @@
       <c r="F23" s="135"/>
       <c r="G23" s="136"/>
       <c r="H23" s="137">
-        <v>412</v>
+        <v>482</v>
       </c>
       <c r="I23" s="138"/>
       <c r="J23" s="136"/>
       <c r="K23" s="137">
-        <v>434</v>
+        <v>518</v>
       </c>
       <c r="L23" s="138"/>
       <c r="M23" s="136"/>
       <c r="N23" s="137">
-        <v>428</v>
+        <v>520</v>
       </c>
       <c r="O23" s="138"/>
       <c r="P23" s="136"/>
       <c r="Q23" s="137">
-        <v>433</v>
+        <v>518</v>
       </c>
       <c r="R23" s="138"/>
       <c r="S23" s="136"/>
       <c r="T23" s="137">
-        <v>427</v>
+        <v>501</v>
       </c>
       <c r="U23" s="138"/>
       <c r="V23" s="136"/>
       <c r="W23" s="137">
-        <v>429</v>
+        <v>485</v>
       </c>
       <c r="X23" s="138"/>
       <c r="Y23" s="136"/>
       <c r="Z23" s="137">
-        <v>497</v>
+        <v>568</v>
       </c>
       <c r="AA23" s="138"/>
       <c r="AB23" s="136"/>
       <c r="AC23" s="137">
-        <v>429</v>
+        <v>513</v>
       </c>
       <c r="AD23" s="138"/>
       <c r="AE23" s="136"/>
       <c r="AF23" s="137">
-        <v>467</v>
+        <v>541</v>
       </c>
       <c r="AG23" s="138"/>
       <c r="AH23" s="136"/>
       <c r="AI23" s="137">
-        <v>391</v>
+        <v>459</v>
       </c>
       <c r="AJ23" s="138"/>
       <c r="AK23" s="136"/>
       <c r="AL23" s="137">
-        <v>363</v>
+        <v>455</v>
       </c>
       <c r="AM23" s="138"/>
       <c r="AN23" s="136"/>
       <c r="AO23" s="139">
-        <v>469</v>
+        <v>549</v>
       </c>
       <c r="AP23" s="3"/>
       <c r="AU23" s="14"/>
@@ -8907,7 +8969,7 @@
       <c r="BV23" s="6"/>
       <c r="BW23" s="6"/>
       <c r="BY23" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:77" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8951,7 +9013,7 @@
       <c r="X24" s="138"/>
       <c r="Y24" s="136"/>
       <c r="Z24" s="137">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="AA24" s="138"/>
       <c r="AB24" s="136"/>
@@ -8990,7 +9052,7 @@
       <c r="BV24" s="6"/>
       <c r="BW24" s="6"/>
       <c r="BY24" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:77" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9010,17 +9072,17 @@
       </c>
       <c r="I25" s="138"/>
       <c r="J25" s="140">
-        <v>0.66666666666666663</v>
+        <v>0.6</v>
       </c>
       <c r="K25" s="137">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L25" s="138"/>
       <c r="M25" s="140">
-        <v>0.46666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="N25" s="137">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O25" s="138"/>
       <c r="P25" s="140">
@@ -9031,31 +9093,31 @@
       </c>
       <c r="R25" s="138"/>
       <c r="S25" s="140">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="T25" s="137">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U25" s="138"/>
       <c r="V25" s="140">
-        <v>0.66666666666666663</v>
+        <v>0.4</v>
       </c>
       <c r="W25" s="137">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="X25" s="138"/>
       <c r="Y25" s="140">
-        <v>0.73333333333333328</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Z25" s="137">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AA25" s="138"/>
       <c r="AB25" s="140">
-        <v>0.53333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="AC25" s="137">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD25" s="138"/>
       <c r="AE25" s="140">
@@ -9066,24 +9128,24 @@
       </c>
       <c r="AG25" s="138"/>
       <c r="AH25" s="140">
-        <v>0.6</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="AI25" s="137">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AJ25" s="138"/>
       <c r="AK25" s="140">
-        <v>0</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="AL25" s="137">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AM25" s="138"/>
       <c r="AN25" s="140">
-        <v>0.4</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="AO25" s="139">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP25" s="3"/>
       <c r="AW25" s="3"/>
@@ -9097,7 +9159,7 @@
       <c r="BV25" s="6"/>
       <c r="BW25" s="6"/>
       <c r="BY25" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:77" s="13" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9110,87 +9172,87 @@
       </c>
       <c r="F26" s="144"/>
       <c r="G26" s="145">
-        <v>0.43478260869565216</v>
+        <v>0.44859813084112149</v>
       </c>
       <c r="H26" s="146">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="I26" s="147"/>
       <c r="J26" s="145">
-        <v>0.57608695652173914</v>
+        <v>0.57943925233644855</v>
       </c>
       <c r="K26" s="146">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="L26" s="147"/>
       <c r="M26" s="145">
-        <v>0.46739130434782611</v>
+        <v>0.48598130841121495</v>
       </c>
       <c r="N26" s="146">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="O26" s="147"/>
       <c r="P26" s="145">
-        <v>0.60869565217391308</v>
+        <v>0.60747663551401865</v>
       </c>
       <c r="Q26" s="146">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="R26" s="147"/>
       <c r="S26" s="145">
-        <v>0.56521739130434778</v>
+        <v>0.54205607476635509</v>
       </c>
       <c r="T26" s="146">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="U26" s="147"/>
       <c r="V26" s="145">
-        <v>0.54347826086956519</v>
+        <v>0.52336448598130836</v>
       </c>
       <c r="W26" s="146">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="X26" s="147"/>
       <c r="Y26" s="145">
-        <v>0.66304347826086951</v>
+        <v>0.61682242990654201</v>
       </c>
       <c r="Z26" s="146">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="AA26" s="147"/>
       <c r="AB26" s="145">
-        <v>0.54347826086956519</v>
+        <v>0.55140186915887845</v>
       </c>
       <c r="AC26" s="146">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="AD26" s="147"/>
       <c r="AE26" s="145">
-        <v>0.59782608695652173</v>
+        <v>0.58878504672897192</v>
       </c>
       <c r="AF26" s="146">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="AG26" s="147"/>
       <c r="AH26" s="145">
-        <v>0.44565217391304346</v>
+        <v>0.44859813084112149</v>
       </c>
       <c r="AI26" s="146">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AJ26" s="147"/>
       <c r="AK26" s="145">
-        <v>0.38043478260869568</v>
+        <v>0.40186915887850466</v>
       </c>
       <c r="AL26" s="146">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="AM26" s="147"/>
       <c r="AN26" s="145">
-        <v>0.60869565217391308</v>
+        <v>0.59813084112149528</v>
       </c>
       <c r="AO26" s="148">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="AP26" s="3"/>
       <c r="AW26" s="3"/>
@@ -9214,7 +9276,7 @@
       <c r="BV26" s="6"/>
       <c r="BW26" s="6"/>
       <c r="BY26" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:77" s="7" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9238,7 +9300,7 @@
         <v>68</v>
       </c>
       <c r="P27" s="153">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="Q27" s="150"/>
       <c r="R27" s="150"/>
@@ -9251,7 +9313,7 @@
         <v>69</v>
       </c>
       <c r="Y27" s="154">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Z27" s="150"/>
       <c r="AA27" s="152"/>
@@ -9264,7 +9326,7 @@
         <v>70</v>
       </c>
       <c r="AH27" s="154">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AI27" s="150"/>
       <c r="AJ27" s="152"/>
@@ -9273,7 +9335,7 @@
       <c r="AM27" s="150"/>
       <c r="AN27" s="150"/>
       <c r="AO27" s="155" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AP27" s="3"/>
       <c r="AW27" s="3"/>
@@ -9287,7 +9349,7 @@
       <c r="BV27" s="6"/>
       <c r="BW27" s="6"/>
       <c r="BY27" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:77" s="7" customFormat="1" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -9344,7 +9406,7 @@
       <c r="BV28" s="6"/>
       <c r="BW28" s="6"/>
       <c r="BY28" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:77" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -9353,7 +9415,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="17"/>
@@ -9405,7 +9467,7 @@
       <c r="BV29" s="6"/>
       <c r="BW29" s="6"/>
       <c r="BY29" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:77" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -9462,7 +9524,7 @@
       <c r="BV30" s="6"/>
       <c r="BW30" s="6"/>
       <c r="BY30" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:77" s="7" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9575,7 +9637,7 @@
         <v>135</v>
       </c>
       <c r="AK32" s="25">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="AN32" s="25">
         <v>135</v>
@@ -9613,47 +9675,47 @@
       <c r="F34" s="26"/>
       <c r="G34" s="25"/>
       <c r="H34" s="26">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="I34" s="26"/>
       <c r="J34" s="26"/>
       <c r="K34" s="26">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="L34" s="26"/>
       <c r="M34" s="26"/>
       <c r="N34" s="26">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="Q34" s="26">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="T34" s="26">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="W34" s="26">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="Z34" s="26">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="AC34" s="26">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AF34" s="26">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AI34" s="26">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="AL34" s="26">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="AO34" s="26">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="AV34" s="26">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="BY34" s="12"/>
     </row>
@@ -9663,44 +9725,44 @@
       <c r="F35" s="3"/>
       <c r="G35" s="27"/>
       <c r="H35" s="28">
-        <v>82.4</v>
+        <v>80.333333333333329</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="28">
-        <v>86.8</v>
+        <v>86.333333333333329</v>
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="28">
-        <v>85.6</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="Q35" s="28">
-        <v>86.6</v>
+        <v>86.333333333333329</v>
       </c>
       <c r="T35" s="28">
-        <v>85.4</v>
+        <v>83.5</v>
       </c>
       <c r="W35" s="28">
-        <v>85.8</v>
+        <v>80.833333333333329</v>
       </c>
       <c r="Z35" s="28">
-        <v>99.4</v>
+        <v>94.666666666666671</v>
       </c>
       <c r="AC35" s="28">
-        <v>85.8</v>
+        <v>85.5</v>
       </c>
       <c r="AF35" s="28">
-        <v>93.4</v>
+        <v>90.166666666666671</v>
       </c>
       <c r="AI35" s="28">
-        <v>78.2</v>
+        <v>76.5</v>
       </c>
       <c r="AL35" s="28">
-        <v>72.599999999999994</v>
+        <v>75.833333333333329</v>
       </c>
       <c r="AO35" s="28">
-        <v>93.8</v>
+        <v>91.5</v>
       </c>
       <c r="BY35" s="12"/>
     </row>
@@ -9710,44 +9772,44 @@
       <c r="F36" s="3"/>
       <c r="G36" s="27"/>
       <c r="H36" s="28">
-        <v>412</v>
+        <v>482</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="28">
-        <v>434</v>
+        <v>518</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="28">
-        <v>428</v>
+        <v>520</v>
       </c>
       <c r="Q36" s="28">
-        <v>433</v>
+        <v>518</v>
       </c>
       <c r="T36" s="28">
-        <v>427</v>
+        <v>501</v>
       </c>
       <c r="W36" s="28">
-        <v>429</v>
+        <v>485</v>
       </c>
       <c r="Z36" s="28">
-        <v>497</v>
+        <v>568</v>
       </c>
       <c r="AC36" s="28">
-        <v>429</v>
+        <v>513</v>
       </c>
       <c r="AF36" s="28">
-        <v>467</v>
+        <v>541</v>
       </c>
       <c r="AI36" s="28">
-        <v>391</v>
+        <v>459</v>
       </c>
       <c r="AL36" s="28">
-        <v>363</v>
+        <v>455</v>
       </c>
       <c r="AO36" s="28">
-        <v>469</v>
+        <v>549</v>
       </c>
       <c r="BY36" s="12"/>
     </row>
@@ -9779,7 +9841,7 @@
         <v>38</v>
       </c>
       <c r="Z37" s="28">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="AC37" s="28">
         <v>65</v>
@@ -9809,39 +9871,39 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="28">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q38" s="28">
         <v>9</v>
       </c>
       <c r="T38" s="28">
+        <v>6</v>
+      </c>
+      <c r="W38" s="28">
+        <v>6</v>
+      </c>
+      <c r="Z38" s="28">
+        <v>5</v>
+      </c>
+      <c r="AC38" s="28">
         <v>9</v>
-      </c>
-      <c r="W38" s="28">
-        <v>10</v>
-      </c>
-      <c r="Z38" s="28">
-        <v>11</v>
-      </c>
-      <c r="AC38" s="28">
-        <v>8</v>
       </c>
       <c r="AF38" s="28">
         <v>8</v>
       </c>
       <c r="AI38" s="28">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AL38" s="28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AO38" s="28">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BY38" s="12"/>
     </row>
@@ -9851,44 +9913,44 @@
       <c r="F39" s="3"/>
       <c r="G39" s="27"/>
       <c r="H39" s="28">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="28">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="28">
+        <v>52</v>
+      </c>
+      <c r="Q39" s="28">
+        <v>65</v>
+      </c>
+      <c r="T39" s="28">
+        <v>58</v>
+      </c>
+      <c r="W39" s="28">
+        <v>56</v>
+      </c>
+      <c r="Z39" s="28">
+        <v>66</v>
+      </c>
+      <c r="AC39" s="28">
+        <v>59</v>
+      </c>
+      <c r="AF39" s="28">
+        <v>63</v>
+      </c>
+      <c r="AI39" s="28">
+        <v>48</v>
+      </c>
+      <c r="AL39" s="28">
         <v>43</v>
       </c>
-      <c r="Q39" s="28">
-        <v>56</v>
-      </c>
-      <c r="T39" s="28">
-        <v>52</v>
-      </c>
-      <c r="W39" s="28">
-        <v>50</v>
-      </c>
-      <c r="Z39" s="28">
-        <v>61</v>
-      </c>
-      <c r="AC39" s="28">
-        <v>50</v>
-      </c>
-      <c r="AF39" s="28">
-        <v>55</v>
-      </c>
-      <c r="AI39" s="28">
-        <v>41</v>
-      </c>
-      <c r="AL39" s="28">
-        <v>35</v>
-      </c>
       <c r="AO39" s="28">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="BY39" s="12"/>
     </row>
@@ -9902,12 +9964,12 @@
       <c r="H40" s="28"/>
       <c r="I40" s="3"/>
       <c r="J40" s="27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K40" s="28"/>
       <c r="L40" s="3"/>
       <c r="M40" s="27">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N40" s="28"/>
       <c r="P40" s="27">
@@ -9915,11 +9977,11 @@
       </c>
       <c r="Q40" s="28"/>
       <c r="S40" s="27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T40" s="28"/>
       <c r="V40" s="27">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="W40" s="28"/>
       <c r="Y40" s="27">
@@ -9927,7 +9989,7 @@
       </c>
       <c r="Z40" s="28"/>
       <c r="AB40" s="27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC40" s="28"/>
       <c r="AE40" s="27">
@@ -9964,39 +10026,39 @@
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="27">
-        <v>0.66666666666666663</v>
+        <v>0.6</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="27">
-        <v>0.46666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="P41" s="27">
         <v>0.6</v>
       </c>
       <c r="S41" s="27">
+        <v>0.4</v>
+      </c>
+      <c r="V41" s="27">
+        <v>0.4</v>
+      </c>
+      <c r="Y41" s="27">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AB41" s="27">
         <v>0.6</v>
-      </c>
-      <c r="V41" s="27">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="Y41" s="27">
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="AB41" s="27">
-        <v>0.53333333333333333</v>
       </c>
       <c r="AE41" s="27">
         <v>0.53333333333333333</v>
       </c>
       <c r="AH41" s="27">
-        <v>0.6</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="AK41" s="27">
-        <v>0</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="AN41" s="27">
-        <v>0.4</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="AR41" s="29">
         <v>1</v>
@@ -10011,44 +10073,44 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="27">
-        <v>0.43478260869565216</v>
+        <v>0.44859813084112149</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="27">
-        <v>0.57608695652173914</v>
+        <v>0.57943925233644855</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="27">
-        <v>0.46739130434782611</v>
+        <v>0.48598130841121495</v>
       </c>
       <c r="P42" s="27">
-        <v>0.60869565217391308</v>
+        <v>0.60747663551401865</v>
       </c>
       <c r="S42" s="27">
-        <v>0.56521739130434778</v>
+        <v>0.54205607476635509</v>
       </c>
       <c r="V42" s="27">
-        <v>0.54347826086956519</v>
+        <v>0.52336448598130836</v>
       </c>
       <c r="Y42" s="27">
-        <v>0.66304347826086951</v>
+        <v>0.61682242990654201</v>
       </c>
       <c r="AB42" s="27">
-        <v>0.54347826086956519</v>
+        <v>0.55140186915887845</v>
       </c>
       <c r="AE42" s="27">
-        <v>0.59782608695652173</v>
+        <v>0.58878504672897192</v>
       </c>
       <c r="AH42" s="27">
-        <v>0.44565217391304346</v>
+        <v>0.44859813084112149</v>
       </c>
       <c r="AK42" s="27">
-        <v>0.38043478260869568</v>
+        <v>0.40186915887850466</v>
       </c>
       <c r="AN42" s="27">
-        <v>0.60869565217391308</v>
+        <v>0.59813084112149528</v>
       </c>
       <c r="BY42" s="12"/>
     </row>
@@ -10086,7 +10148,7 @@
         <v>76</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="BY45" s="12"/>
     </row>
@@ -10095,7 +10157,9 @@
       <c r="F46" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="G46" s="25"/>
+      <c r="G46" s="25">
+        <v>36</v>
+      </c>
       <c r="H46" s="26"/>
       <c r="I46" s="26"/>
       <c r="J46" s="26"/>
@@ -10109,8 +10173,8 @@
       <c r="F47" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G47" s="25" t="s">
-        <v>0</v>
+      <c r="G47" s="25">
+        <v>92</v>
       </c>
       <c r="H47" s="26"/>
       <c r="I47" s="26"/>
@@ -10125,8 +10189,8 @@
       <c r="F48" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="G48" s="25" t="s">
-        <v>0</v>
+      <c r="G48" s="25">
+        <v>2</v>
       </c>
       <c r="H48" s="26"/>
       <c r="I48" s="26"/>
@@ -10142,7 +10206,7 @@
         <v>80</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="H49" s="26"/>
       <c r="I49" s="26"/>
@@ -10221,7 +10285,7 @@
         <v>0</v>
       </c>
       <c r="AK52" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN52" s="25">
         <v>0</v>
@@ -10244,8 +10308,8 @@
       </c>
       <c r="K53" s="25"/>
       <c r="L53" s="25"/>
-      <c r="M53" s="25" t="s">
-        <v>0</v>
+      <c r="M53" s="25">
+        <v>4.25</v>
       </c>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
@@ -10284,8 +10348,8 @@
       </c>
       <c r="AI53" s="5"/>
       <c r="AJ53" s="5"/>
-      <c r="AK53" s="25" t="s">
-        <v>0</v>
+      <c r="AK53" s="25">
+        <v>8.25</v>
       </c>
       <c r="AL53" s="5"/>
       <c r="AM53" s="5"/>
@@ -10307,7 +10371,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="5" t="s">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="P54" s="5" t="s">
         <v>0</v>
@@ -10331,7 +10395,7 @@
         <v>0</v>
       </c>
       <c r="AK54" s="5" t="s">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="AN54" s="5" t="s">
         <v>0</v>
@@ -10350,8 +10414,8 @@
       <c r="J55" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="M55" s="5" t="s">
-        <v>0</v>
+      <c r="M55" s="5">
+        <v>1</v>
       </c>
       <c r="P55" s="5" t="s">
         <v>0</v>
@@ -10374,8 +10438,8 @@
       <c r="AH55" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="AK55" s="5" t="s">
-        <v>0</v>
+      <c r="AK55" s="5">
+        <v>2</v>
       </c>
       <c r="AN55" s="5" t="s">
         <v>0</v>
@@ -10395,7 +10459,7 @@
         <v>0</v>
       </c>
       <c r="M56" s="5" t="s">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="P56" s="5" t="s">
         <v>0</v>
@@ -10419,7 +10483,7 @@
         <v>0</v>
       </c>
       <c r="AK56" s="5" t="s">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AN56" s="5" t="s">
         <v>0</v>
@@ -12198,7 +12262,7 @@
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
       <c r="U1" s="168" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
@@ -12253,42 +12317,42 @@
         <v>91</v>
       </c>
       <c r="F2" s="115">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="G2" s="157"/>
       <c r="H2" s="156" t="s">
         <v>92</v>
       </c>
       <c r="I2" s="115">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J2" s="157"/>
       <c r="K2" s="156" t="s">
         <v>93</v>
       </c>
       <c r="L2" s="115">
-        <v>-18</v>
+        <v>10</v>
       </c>
       <c r="M2" s="157"/>
       <c r="N2" s="156" t="s">
         <v>94</v>
       </c>
       <c r="O2" s="115">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="P2" s="157"/>
       <c r="Q2" s="156" t="s">
         <v>95</v>
       </c>
       <c r="R2" s="115">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S2" s="157"/>
       <c r="T2" s="156" t="s">
         <v>96</v>
       </c>
       <c r="U2" s="115">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="V2" s="157"/>
       <c r="W2" s="156" t="s">
@@ -12302,35 +12366,35 @@
         <v>98</v>
       </c>
       <c r="AA2" s="115">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="AB2" s="157"/>
       <c r="AC2" s="156" t="s">
         <v>99</v>
       </c>
       <c r="AD2" s="115">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE2" s="157"/>
       <c r="AF2" s="156" t="s">
         <v>100</v>
       </c>
       <c r="AG2" s="115">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="AH2" s="157"/>
       <c r="AI2" s="156" t="s">
         <v>101</v>
       </c>
       <c r="AJ2" s="115">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="AK2" s="157"/>
       <c r="AL2" s="156" t="s">
         <v>102</v>
       </c>
       <c r="AM2" s="115">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN2" s="158"/>
       <c r="AO2" s="211">
@@ -12340,7 +12404,7 @@
         <v>8</v>
       </c>
       <c r="AQ2" s="39">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR2" s="40" t="s">
         <v>9</v>
@@ -12472,7 +12536,7 @@
         <v>14</v>
       </c>
       <c r="AQ3" s="41">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR3" s="40" t="s">
         <v>15</v>
@@ -13784,120 +13848,120 @@
       <c r="C10" s="191">
         <v>15</v>
       </c>
-      <c r="D10" s="222" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="193" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="K10" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="L10" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="M10" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="N10" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="O10" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="P10" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="R10" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="S10" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="T10" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="U10" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="V10" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="W10" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="X10" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="225" t="s">
-        <v>0</v>
+      <c r="D10" s="222">
+        <v>15</v>
+      </c>
+      <c r="E10" s="193">
+        <v>9</v>
+      </c>
+      <c r="F10" s="223">
+        <v>8</v>
+      </c>
+      <c r="G10" s="224">
+        <v>70</v>
+      </c>
+      <c r="H10" s="196">
+        <v>4</v>
+      </c>
+      <c r="I10" s="223">
+        <v>9</v>
+      </c>
+      <c r="J10" s="224">
+        <v>84</v>
+      </c>
+      <c r="K10" s="196">
+        <v>1</v>
+      </c>
+      <c r="L10" s="223">
+        <v>9</v>
+      </c>
+      <c r="M10" s="224">
+        <v>92</v>
+      </c>
+      <c r="N10" s="196">
+        <v>3</v>
+      </c>
+      <c r="O10" s="223">
+        <v>9</v>
+      </c>
+      <c r="P10" s="224">
+        <v>85</v>
+      </c>
+      <c r="Q10" s="196">
+        <v>7</v>
+      </c>
+      <c r="R10" s="223">
+        <v>6</v>
+      </c>
+      <c r="S10" s="224">
+        <v>74</v>
+      </c>
+      <c r="T10" s="196">
+        <v>11</v>
+      </c>
+      <c r="U10" s="223">
+        <v>6</v>
+      </c>
+      <c r="V10" s="224">
+        <v>56</v>
+      </c>
+      <c r="W10" s="196">
+        <v>12</v>
+      </c>
+      <c r="X10" s="223">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="224">
+        <v>43</v>
+      </c>
+      <c r="Z10" s="196">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="223">
+        <v>9</v>
+      </c>
+      <c r="AB10" s="224">
+        <v>84</v>
+      </c>
+      <c r="AC10" s="196">
+        <v>7</v>
+      </c>
+      <c r="AD10" s="223">
+        <v>8</v>
+      </c>
+      <c r="AE10" s="224">
+        <v>74</v>
+      </c>
+      <c r="AF10" s="196">
+        <v>10</v>
+      </c>
+      <c r="AG10" s="223">
+        <v>7</v>
+      </c>
+      <c r="AH10" s="224">
+        <v>68</v>
+      </c>
+      <c r="AI10" s="196">
+        <v>2</v>
+      </c>
+      <c r="AJ10" s="223">
+        <v>8</v>
+      </c>
+      <c r="AK10" s="224">
+        <v>92</v>
+      </c>
+      <c r="AL10" s="196">
+        <v>6</v>
+      </c>
+      <c r="AM10" s="223">
+        <v>8</v>
+      </c>
+      <c r="AN10" s="225">
+        <v>80</v>
       </c>
       <c r="AO10" s="45"/>
       <c r="AP10" s="226" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AQ10" s="45"/>
       <c r="AR10" s="47" t="s">
@@ -13911,85 +13975,85 @@
         <v>0</v>
       </c>
       <c r="BL10" s="4"/>
-      <c r="BM10" s="4" t="s">
-        <v>0</v>
+      <c r="BM10" s="4">
+        <v>70</v>
       </c>
       <c r="BN10" s="4" t="s">
         <v>0</v>
       </c>
       <c r="BO10" s="4"/>
-      <c r="BP10" s="4" t="s">
-        <v>0</v>
+      <c r="BP10" s="4">
+        <v>84</v>
       </c>
       <c r="BQ10" s="4" t="s">
         <v>0</v>
       </c>
       <c r="BR10" s="4"/>
-      <c r="BS10" s="4" t="s">
-        <v>0</v>
+      <c r="BS10" s="4">
+        <v>92</v>
       </c>
       <c r="BT10" s="4" t="s">
         <v>0</v>
       </c>
       <c r="BU10" s="4"/>
-      <c r="BV10" s="4" t="s">
-        <v>0</v>
+      <c r="BV10" s="4">
+        <v>85</v>
       </c>
       <c r="BW10" s="4" t="s">
         <v>0</v>
       </c>
       <c r="BX10" s="4"/>
-      <c r="BY10" s="4" t="s">
-        <v>0</v>
+      <c r="BY10" s="4">
+        <v>74</v>
       </c>
       <c r="BZ10" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CA10" s="4"/>
-      <c r="CB10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="CC10" s="4" t="s">
-        <v>0</v>
+      <c r="CB10" s="4">
+        <v>56</v>
+      </c>
+      <c r="CC10" s="4">
+        <v>1</v>
       </c>
       <c r="CD10" s="4"/>
-      <c r="CE10" s="4" t="s">
-        <v>0</v>
+      <c r="CE10" s="4">
+        <v>43</v>
       </c>
       <c r="CF10" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CG10" s="4"/>
-      <c r="CH10" s="4" t="s">
-        <v>0</v>
+      <c r="CH10" s="4">
+        <v>84</v>
       </c>
       <c r="CI10" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CJ10" s="4"/>
-      <c r="CK10" s="4" t="s">
-        <v>0</v>
+      <c r="CK10" s="4">
+        <v>74</v>
       </c>
       <c r="CL10" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CM10" s="4"/>
-      <c r="CN10" s="4" t="s">
-        <v>0</v>
+      <c r="CN10" s="4">
+        <v>68</v>
       </c>
       <c r="CO10" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CP10" s="4"/>
-      <c r="CQ10" s="4" t="s">
-        <v>0</v>
+      <c r="CQ10" s="4">
+        <v>92</v>
       </c>
       <c r="CR10" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CS10" s="4"/>
-      <c r="CT10" s="4" t="s">
-        <v>0</v>
+      <c r="CT10" s="4">
+        <v>80</v>
       </c>
       <c r="CU10" s="4"/>
     </row>
@@ -16123,115 +16187,115 @@
         <v>22</v>
       </c>
       <c r="D21" s="237">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E21" s="238">
         <v>10</v>
       </c>
       <c r="F21" s="239">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G21" s="240">
-        <v>412</v>
+        <v>482</v>
       </c>
       <c r="H21" s="241">
+        <v>5</v>
+      </c>
+      <c r="I21" s="239">
+        <v>62</v>
+      </c>
+      <c r="J21" s="240">
+        <v>518</v>
+      </c>
+      <c r="K21" s="241">
         <v>4</v>
       </c>
-      <c r="I21" s="239">
-        <v>53</v>
-      </c>
-      <c r="J21" s="240">
-        <v>434</v>
-      </c>
-      <c r="K21" s="241">
-        <v>8</v>
-      </c>
       <c r="L21" s="239">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="M21" s="240">
-        <v>428</v>
+        <v>520</v>
       </c>
       <c r="N21" s="241">
         <v>5</v>
       </c>
       <c r="O21" s="239">
+        <v>65</v>
+      </c>
+      <c r="P21" s="240">
+        <v>518</v>
+      </c>
+      <c r="Q21" s="241">
+        <v>8</v>
+      </c>
+      <c r="R21" s="239">
+        <v>58</v>
+      </c>
+      <c r="S21" s="240">
+        <v>501</v>
+      </c>
+      <c r="T21" s="241">
+        <v>9</v>
+      </c>
+      <c r="U21" s="239">
         <v>56</v>
       </c>
-      <c r="P21" s="240">
-        <v>433</v>
-      </c>
-      <c r="Q21" s="241">
-        <v>9</v>
-      </c>
-      <c r="R21" s="239">
-        <v>52</v>
-      </c>
-      <c r="S21" s="240">
-        <v>427</v>
-      </c>
-      <c r="T21" s="241">
-        <v>6</v>
-      </c>
-      <c r="U21" s="239">
-        <v>50</v>
-      </c>
       <c r="V21" s="240">
-        <v>429</v>
+        <v>485</v>
       </c>
       <c r="W21" s="241">
         <v>1</v>
       </c>
       <c r="X21" s="239">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="Y21" s="240">
-        <v>497</v>
+        <v>568</v>
       </c>
       <c r="Z21" s="241">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA21" s="239">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="AB21" s="240">
-        <v>429</v>
+        <v>513</v>
       </c>
       <c r="AC21" s="241">
         <v>3</v>
       </c>
       <c r="AD21" s="239">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="AE21" s="240">
-        <v>467</v>
+        <v>541</v>
       </c>
       <c r="AF21" s="241">
         <v>11</v>
       </c>
       <c r="AG21" s="239">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH21" s="240">
-        <v>391</v>
+        <v>459</v>
       </c>
       <c r="AI21" s="241">
         <v>12</v>
       </c>
       <c r="AJ21" s="239">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="AK21" s="240">
-        <v>363</v>
+        <v>455</v>
       </c>
       <c r="AL21" s="241">
         <v>2</v>
       </c>
       <c r="AM21" s="239">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="AN21" s="242">
-        <v>469</v>
+        <v>549</v>
       </c>
       <c r="AO21" s="48"/>
       <c r="AP21" s="49"/>
@@ -16242,62 +16306,62 @@
       <c r="BK21" s="4"/>
       <c r="BL21" s="4"/>
       <c r="BM21" s="4">
-        <v>412</v>
+        <v>482</v>
       </c>
       <c r="BN21" s="4"/>
       <c r="BO21" s="4"/>
       <c r="BP21" s="4">
-        <v>434</v>
+        <v>518</v>
       </c>
       <c r="BQ21" s="4"/>
       <c r="BR21" s="4"/>
       <c r="BS21" s="4">
-        <v>428</v>
+        <v>520</v>
       </c>
       <c r="BT21" s="4"/>
       <c r="BU21" s="4"/>
       <c r="BV21" s="4">
-        <v>433</v>
+        <v>518</v>
       </c>
       <c r="BW21" s="4"/>
       <c r="BX21" s="4"/>
       <c r="BY21" s="4">
-        <v>427</v>
+        <v>501</v>
       </c>
       <c r="BZ21" s="4"/>
       <c r="CA21" s="4"/>
       <c r="CB21" s="4">
-        <v>429</v>
+        <v>485</v>
       </c>
       <c r="CC21" s="4"/>
       <c r="CD21" s="4"/>
       <c r="CE21" s="4">
-        <v>497</v>
+        <v>568</v>
       </c>
       <c r="CF21" s="4"/>
       <c r="CG21" s="4"/>
       <c r="CH21" s="4">
-        <v>429</v>
+        <v>513</v>
       </c>
       <c r="CI21" s="4"/>
       <c r="CJ21" s="4"/>
       <c r="CK21" s="4">
-        <v>467</v>
+        <v>541</v>
       </c>
       <c r="CL21" s="4"/>
       <c r="CM21" s="4"/>
       <c r="CN21" s="4">
-        <v>391</v>
+        <v>459</v>
       </c>
       <c r="CO21" s="4"/>
       <c r="CP21" s="4"/>
       <c r="CQ21" s="4">
-        <v>363</v>
+        <v>455</v>
       </c>
       <c r="CR21" s="4"/>
       <c r="CS21" s="4"/>
       <c r="CT21" s="4">
-        <v>469</v>
+        <v>549</v>
       </c>
       <c r="CU21" s="4"/>
     </row>
@@ -16308,112 +16372,112 @@
         <v>23</v>
       </c>
       <c r="E22" s="246">
-        <v>6.4</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="F22" s="247">
-        <v>6.666666666666667</v>
+        <v>6.8571428571428568</v>
       </c>
       <c r="G22" s="248">
-        <v>82.4</v>
+        <v>80.333333333333329</v>
       </c>
       <c r="H22" s="249">
-        <v>6.166666666666667</v>
+        <v>5.8571428571428568</v>
       </c>
       <c r="I22" s="247">
-        <v>8.8333333333333339</v>
+        <v>8.8571428571428577</v>
       </c>
       <c r="J22" s="248">
-        <v>86.8</v>
+        <v>86.333333333333329</v>
       </c>
       <c r="K22" s="249">
-        <v>4.8</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="L22" s="247">
+        <v>7.4285714285714288</v>
+      </c>
+      <c r="M22" s="248">
+        <v>86.666666666666671</v>
+      </c>
+      <c r="N22" s="249">
+        <v>5.5714285714285712</v>
+      </c>
+      <c r="O22" s="247">
+        <v>9.2857142857142865</v>
+      </c>
+      <c r="P22" s="248">
+        <v>86.333333333333329</v>
+      </c>
+      <c r="Q22" s="249">
+        <v>7.2857142857142856</v>
+      </c>
+      <c r="R22" s="247">
+        <v>8.2857142857142865</v>
+      </c>
+      <c r="S22" s="248">
+        <v>83.5</v>
+      </c>
+      <c r="T22" s="249">
+        <v>8.1428571428571423</v>
+      </c>
+      <c r="U22" s="247">
+        <v>8</v>
+      </c>
+      <c r="V22" s="248">
+        <v>80.833333333333329</v>
+      </c>
+      <c r="W22" s="249">
+        <v>3.5714285714285716</v>
+      </c>
+      <c r="X22" s="247">
+        <v>9.4285714285714288</v>
+      </c>
+      <c r="Y22" s="248">
+        <v>94.666666666666671</v>
+      </c>
+      <c r="Z22" s="249">
+        <v>6.5714285714285712</v>
+      </c>
+      <c r="AA22" s="247">
+        <v>8.4285714285714288</v>
+      </c>
+      <c r="AB22" s="248">
+        <v>85.5</v>
+      </c>
+      <c r="AC22" s="249">
+        <v>5.2857142857142856</v>
+      </c>
+      <c r="AD22" s="247">
+        <v>9</v>
+      </c>
+      <c r="AE22" s="248">
+        <v>90.166666666666671</v>
+      </c>
+      <c r="AF22" s="249">
+        <v>7.5</v>
+      </c>
+      <c r="AG22" s="247">
+        <v>6.8571428571428568</v>
+      </c>
+      <c r="AH22" s="248">
+        <v>76.5</v>
+      </c>
+      <c r="AI22" s="249">
         <v>7.166666666666667</v>
       </c>
-      <c r="M22" s="248">
-        <v>85.6</v>
-      </c>
-      <c r="N22" s="249">
-        <v>6</v>
-      </c>
-      <c r="O22" s="247">
-        <v>9.3333333333333339</v>
-      </c>
-      <c r="P22" s="248">
-        <v>86.6</v>
-      </c>
-      <c r="Q22" s="249">
-        <v>7.333333333333333</v>
-      </c>
-      <c r="R22" s="247">
-        <v>8.6666666666666661</v>
-      </c>
-      <c r="S22" s="248">
-        <v>85.4</v>
-      </c>
-      <c r="T22" s="249">
-        <v>7.666666666666667</v>
-      </c>
-      <c r="U22" s="247">
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="V22" s="248">
-        <v>85.8</v>
-      </c>
-      <c r="W22" s="249">
-        <v>2.1666666666666665</v>
-      </c>
-      <c r="X22" s="247">
-        <v>10.166666666666666</v>
-      </c>
-      <c r="Y22" s="248">
-        <v>99.4</v>
-      </c>
-      <c r="Z22" s="249">
-        <v>7</v>
-      </c>
-      <c r="AA22" s="247">
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="AB22" s="248">
-        <v>85.8</v>
-      </c>
-      <c r="AC22" s="249">
-        <v>5</v>
-      </c>
-      <c r="AD22" s="247">
-        <v>9.1666666666666661</v>
-      </c>
-      <c r="AE22" s="248">
-        <v>93.4</v>
-      </c>
-      <c r="AF22" s="249">
-        <v>7</v>
-      </c>
-      <c r="AG22" s="247">
-        <v>6.833333333333333</v>
-      </c>
-      <c r="AH22" s="248">
-        <v>78.2</v>
-      </c>
-      <c r="AI22" s="249">
-        <v>8.1999999999999993</v>
-      </c>
       <c r="AJ22" s="247">
-        <v>5.833333333333333</v>
+        <v>6.1428571428571432</v>
       </c>
       <c r="AK22" s="248">
-        <v>72.599999999999994</v>
+        <v>75.833333333333329</v>
       </c>
       <c r="AL22" s="249">
-        <v>5.666666666666667</v>
+        <v>5.7142857142857144</v>
       </c>
       <c r="AM22" s="247">
-        <v>9.3333333333333339</v>
+        <v>9.1428571428571423</v>
       </c>
       <c r="AN22" s="250">
-        <v>93.8</v>
+        <v>91.5</v>
       </c>
       <c r="AO22" s="48"/>
       <c r="AP22" s="49"/>
@@ -16475,8 +16539,8 @@
       </c>
       <c r="I23" s="255"/>
       <c r="J23" s="256"/>
-      <c r="K23" s="257" t="s">
-        <v>0</v>
+      <c r="K23" s="257">
+        <v>1</v>
       </c>
       <c r="L23" s="255"/>
       <c r="M23" s="256"/>
@@ -16625,8 +16689,8 @@
       </c>
       <c r="AG24" s="108"/>
       <c r="AH24" s="109"/>
-      <c r="AI24" s="75" t="s">
-        <v>0</v>
+      <c r="AI24" s="75">
+        <v>1</v>
       </c>
       <c r="AJ24" s="108"/>
       <c r="AK24" s="109"/>
@@ -16725,7 +16789,7 @@
       <c r="L25" s="108"/>
       <c r="M25" s="109"/>
       <c r="N25" s="75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O25" s="108"/>
       <c r="P25" s="109"/>
@@ -16873,8 +16937,8 @@
       </c>
       <c r="U26" s="108"/>
       <c r="V26" s="109"/>
-      <c r="W26" s="75" t="s">
-        <v>0</v>
+      <c r="W26" s="75">
+        <v>1</v>
       </c>
       <c r="X26" s="108"/>
       <c r="Y26" s="109"/>
@@ -17171,7 +17235,7 @@
     </row>
     <row r="29" spans="2:99" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AT29" s="300" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AU29" s="310"/>
       <c r="AV29" s="310"/>
@@ -17278,63 +17342,63 @@
       <c r="BI30" s="320"/>
       <c r="BJ30" s="4"/>
       <c r="BK30" s="4"/>
-      <c r="BL30" s="4" t="s">
-        <v>0</v>
+      <c r="BL30" s="4">
+        <v>8</v>
       </c>
       <c r="BM30" s="4"/>
       <c r="BN30" s="4"/>
-      <c r="BO30" s="4" t="s">
-        <v>0</v>
+      <c r="BO30" s="4">
+        <v>9</v>
       </c>
       <c r="BP30" s="4"/>
       <c r="BQ30" s="4"/>
-      <c r="BR30" s="4" t="s">
-        <v>0</v>
+      <c r="BR30" s="4">
+        <v>9</v>
       </c>
       <c r="BS30" s="4"/>
       <c r="BT30" s="4"/>
-      <c r="BU30" s="4" t="s">
-        <v>0</v>
+      <c r="BU30" s="4">
+        <v>9</v>
       </c>
       <c r="BV30" s="4"/>
       <c r="BW30" s="4"/>
-      <c r="BX30" s="4" t="s">
-        <v>0</v>
+      <c r="BX30" s="4">
+        <v>6</v>
       </c>
       <c r="BY30" s="4"/>
       <c r="BZ30" s="4"/>
-      <c r="CA30" s="4" t="s">
-        <v>0</v>
+      <c r="CA30" s="4">
+        <v>6</v>
       </c>
       <c r="CB30" s="4"/>
       <c r="CC30" s="4"/>
-      <c r="CD30" s="4" t="s">
-        <v>0</v>
+      <c r="CD30" s="4">
+        <v>5</v>
       </c>
       <c r="CE30" s="4"/>
       <c r="CF30" s="4"/>
-      <c r="CG30" s="4" t="s">
-        <v>0</v>
+      <c r="CG30" s="4">
+        <v>9</v>
       </c>
       <c r="CH30" s="4"/>
       <c r="CI30" s="4"/>
-      <c r="CJ30" s="4" t="s">
-        <v>0</v>
+      <c r="CJ30" s="4">
+        <v>8</v>
       </c>
       <c r="CK30" s="4"/>
       <c r="CL30" s="4"/>
-      <c r="CM30" s="4" t="s">
-        <v>0</v>
+      <c r="CM30" s="4">
+        <v>7</v>
       </c>
       <c r="CN30" s="4"/>
       <c r="CO30" s="4"/>
-      <c r="CP30" s="4" t="s">
-        <v>0</v>
+      <c r="CP30" s="4">
+        <v>8</v>
       </c>
       <c r="CQ30" s="4"/>
       <c r="CR30" s="4"/>
-      <c r="CS30" s="4" t="s">
-        <v>0</v>
+      <c r="CS30" s="4">
+        <v>8</v>
       </c>
       <c r="CT30" s="4"/>
       <c r="CU30" s="4"/>
@@ -17525,7 +17589,7 @@
         <v>62</v>
       </c>
       <c r="AV33" s="273">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="AW33" s="274">
         <v>2</v>
@@ -17537,7 +17601,7 @@
         <v>61</v>
       </c>
       <c r="AZ33" s="275">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BA33" s="277" t="s">
         <v>0</v>
@@ -17620,10 +17684,10 @@
         <v>102</v>
       </c>
       <c r="AU34" s="280">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV34" s="281">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="AW34" s="282">
         <v>1</v>
@@ -17641,7 +17705,7 @@
         <v>61</v>
       </c>
       <c r="BB34" s="286">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BC34" s="287"/>
       <c r="BD34" s="282"/>
@@ -17718,10 +17782,10 @@
         <v>92</v>
       </c>
       <c r="AU35" s="280">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AV35" s="281">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="AW35" s="282">
         <v>1</v>
@@ -17813,13 +17877,13 @@
     </row>
     <row r="36" spans="46:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AT36" s="271" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AU36" s="280">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AV36" s="281">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="AW36" s="282">
         <v>1</v>
@@ -17911,13 +17975,13 @@
     </row>
     <row r="37" spans="46:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AT37" s="271" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AU37" s="280">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AV37" s="281">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="AW37" s="282">
         <v>1</v>
@@ -18009,19 +18073,19 @@
     </row>
     <row r="38" spans="46:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AT38" s="271" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="AU38" s="280">
-        <v>-18</v>
+        <v>10</v>
       </c>
       <c r="AV38" s="281">
-        <v>-18</v>
-      </c>
-      <c r="AW38" s="282" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX38" s="283" t="s">
-        <v>0</v>
+        <v>-21</v>
+      </c>
+      <c r="AW38" s="282">
+        <v>1</v>
+      </c>
+      <c r="AX38" s="283">
+        <v>31</v>
       </c>
       <c r="AY38" s="284" t="s">
         <v>0</v>
@@ -18107,13 +18171,13 @@
     </row>
     <row r="39" spans="46:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AT39" s="271" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AU39" s="280">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="AV39" s="281">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="AW39" s="282" t="s">
         <v>0</v>
@@ -18208,10 +18272,10 @@
         <v>94</v>
       </c>
       <c r="AU40" s="280">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="AV40" s="281">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="AW40" s="282" t="s">
         <v>0</v>
@@ -18306,10 +18370,10 @@
         <v>96</v>
       </c>
       <c r="AU41" s="280">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="AV41" s="281">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="AW41" s="282" t="s">
         <v>0</v>
@@ -18339,62 +18403,62 @@
       <c r="BJ41" s="4"/>
       <c r="BK41" s="4"/>
       <c r="BL41" s="4">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="BM41" s="4"/>
       <c r="BN41" s="4"/>
       <c r="BO41" s="4">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="BP41" s="4"/>
       <c r="BQ41" s="4"/>
       <c r="BR41" s="4">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="BS41" s="4"/>
       <c r="BT41" s="4"/>
       <c r="BU41" s="4">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="BV41" s="4"/>
       <c r="BW41" s="4"/>
       <c r="BX41" s="4">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="BY41" s="4"/>
       <c r="BZ41" s="4"/>
       <c r="CA41" s="4">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="CB41" s="4"/>
       <c r="CC41" s="4"/>
       <c r="CD41" s="4">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="CE41" s="4"/>
       <c r="CF41" s="4"/>
       <c r="CG41" s="4">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="CH41" s="4"/>
       <c r="CI41" s="4"/>
       <c r="CJ41" s="4">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="CK41" s="4"/>
       <c r="CL41" s="4"/>
       <c r="CM41" s="4">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="CN41" s="4"/>
       <c r="CO41" s="4"/>
       <c r="CP41" s="4">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="CQ41" s="4"/>
       <c r="CR41" s="4"/>
       <c r="CS41" s="4">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="CT41" s="4"/>
       <c r="CU41" s="4"/>
@@ -18404,10 +18468,10 @@
         <v>98</v>
       </c>
       <c r="AU42" s="280">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="AV42" s="281">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="AW42" s="282" t="s">
         <v>0</v>
@@ -18436,62 +18500,62 @@
       <c r="BI42" s="286"/>
       <c r="BJ42" s="50"/>
       <c r="BK42" s="50">
-        <v>6.4</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="BL42" s="50"/>
       <c r="BM42" s="50"/>
       <c r="BN42" s="50">
-        <v>6.166666666666667</v>
+        <v>5.8571428571428568</v>
       </c>
       <c r="BO42" s="50"/>
       <c r="BP42" s="50"/>
       <c r="BQ42" s="50">
-        <v>4.8</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="BR42" s="50"/>
       <c r="BS42" s="50"/>
       <c r="BT42" s="50">
-        <v>6</v>
+        <v>5.5714285714285712</v>
       </c>
       <c r="BU42" s="50"/>
       <c r="BV42" s="50"/>
       <c r="BW42" s="50">
-        <v>7.333333333333333</v>
+        <v>7.2857142857142856</v>
       </c>
       <c r="BX42" s="50"/>
       <c r="BY42" s="50"/>
       <c r="BZ42" s="50">
-        <v>7.666666666666667</v>
+        <v>8.1428571428571423</v>
       </c>
       <c r="CA42" s="50"/>
       <c r="CB42" s="50"/>
       <c r="CC42" s="50">
-        <v>2.1666666666666665</v>
+        <v>3.5714285714285716</v>
       </c>
       <c r="CD42" s="50"/>
       <c r="CE42" s="50"/>
       <c r="CF42" s="50">
-        <v>7</v>
+        <v>6.5714285714285712</v>
       </c>
       <c r="CG42" s="50"/>
       <c r="CH42" s="50"/>
       <c r="CI42" s="50">
-        <v>5</v>
+        <v>5.2857142857142856</v>
       </c>
       <c r="CJ42" s="50"/>
       <c r="CK42" s="50"/>
       <c r="CL42" s="50">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="CM42" s="50"/>
       <c r="CN42" s="50"/>
       <c r="CO42" s="50">
-        <v>8.1999999999999993</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="CP42" s="50"/>
       <c r="CQ42" s="50"/>
       <c r="CR42" s="50">
-        <v>5.666666666666667</v>
+        <v>5.7142857142857144</v>
       </c>
       <c r="CS42" s="50"/>
       <c r="CT42" s="50"/>
@@ -18502,10 +18566,10 @@
         <v>100</v>
       </c>
       <c r="AU43" s="280">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="AV43" s="281">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="AW43" s="282" t="s">
         <v>0</v>
@@ -18538,10 +18602,10 @@
         <v>101</v>
       </c>
       <c r="AU44" s="289">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="AV44" s="290">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="AW44" s="291" t="s">
         <v>0</v>

--- a/regular_season_final.xlsx
+++ b/regular_season_final.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="171">
   <si>
     <t/>
   </si>
@@ -341,12 +341,6 @@
     <t>Bills</t>
   </si>
   <si>
-    <t>49ers</t>
-  </si>
-  <si>
-    <t>Ravens</t>
-  </si>
-  <si>
     <t>Browns</t>
   </si>
   <si>
@@ -359,28 +353,16 @@
     <t>Texans</t>
   </si>
   <si>
-    <t>Dolphins</t>
-  </si>
-  <si>
     <t>Patriots</t>
   </si>
   <si>
-    <t>Giants</t>
-  </si>
-  <si>
     <t>Bengals</t>
-  </si>
-  <si>
-    <t>Steelers</t>
   </si>
   <si>
     <t>Redskins</t>
   </si>
   <si>
     <t>Cardinals</t>
-  </si>
-  <si>
-    <t>Rams</t>
   </si>
   <si>
     <t>Colts</t>
@@ -440,118 +422,121 @@
     <t>Seahawks</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Week 7 Scores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w7_p1_picks         = ["H","H","H","H","V","H","V","V","V","V","H","H","V","H","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w7_p2_picks         = ["H","V","H","H","H","H","H","V","V","V","H","H","V","H","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w7_p3_picks         = ["H","V","H","H","V","H","V","V","V","H","H","V","V","H","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w7_p4_picks         = ["H","V","H","H","H","H","V","V","H","H","H","V","V","H","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w7_p5_picks         = ["H","H","H","H","H","H","V","V","V","H","H","H","V","V","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w7_p6_picks         = ["V","H","H","V","V","H","V","V","V","H","H","V","V","V","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w7_p7_picks         = ["H","V","H","H","H","V","V","V","V","H","H","V","H","H","V"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w7_p8_picks         = ["H","V","H","H","V","H","V","H","V","H","H","H","V","H","H"];</t>
-  </si>
-  <si>
     <t>Vikings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w7_p9_picks         = ["H","V","H","V","V","H","H","V","V","H","H","V","H","H","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w7_p10_picks        = ["H","H","V","H","V","H","V","V","V","H","V","V","V","V","V"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w7_p11_picks        = ["H","H","H","H","V","H","V","V","V","H","H","V","V","H","H"];</t>
   </si>
   <si>
     <t>Buccaneers</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w7_p12_picks        = ["H","H","H","V","V","H","V","V","V","V","H","V","V","H","H"];</t>
+    <t>8</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w7_p1_weights       = ["16","4","14","8","3","5","12","7","10","2","15","6","13","11","9"];</t>
+    <t>Week 8 Scores</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w7_p2_weights       = ["16","3","13","7","8","10","12","11","9","5","15","6","14","2","4"];</t>
+    <t xml:space="preserve">   var w8_p1_picks         = ["H","H","H","V","V","H","V","V","H","H","H","H","V"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w7_p3_weights       = ["15","10","16","4","3","12","9","2","7","8","11","5","13","6","14"];</t>
+    <t xml:space="preserve">   var w8_p2_picks         = ["H","H","V","V","V","H","H","H","H","H","V","V","V"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w7_p4_weights       = ["15","4","16","10","7","5","9","2","3","8","11","6","12","13","14"];</t>
+    <t xml:space="preserve">   var w8_p3_picks         = ["H","H","H","V","V","V","V","V","V","H","H","H","V"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w7_p5_weights       = ["13","10","14","11","4","5","6","3","12","7","2","8","15","9","16"];</t>
+    <t xml:space="preserve">   var w8_p4_picks         = ["H","H","V","V","V","H","V","H","H","H","H","H","V"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w7_p6_weights       = ["5","6","13","12","7","11","9","10","14","3","16","2","15","4","8"];</t>
+    <t xml:space="preserve">   var w8_p5_picks         = ["H","H","V","V","V","V","V","H","V","H","V","H","V"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w7_p7_weights       = ["11","6","12","9","2","13","15","4","7","3","14","5","16","10","8"];</t>
+    <t xml:space="preserve">   var w8_p6_picks         = ["V","V","H","V","V","V","V","V","V","H","V","H","V"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w7_p8_weights       = ["15","11","16","3","2","14","10","4","8","6","13","5","7","9","12"];</t>
+    <t xml:space="preserve">   var w8_p7_picks         = ["H","H","H","H","V","V","V","H","V","H","H","H","V"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w7_p9_weights       = ["16","7","15","6","11","9","3","12","14","4","13","8","2","10","5"];</t>
+    <t xml:space="preserve">   var w8_p8_picks         = ["H","H","H","V","H","V","H","V","V","H","H","V","V"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w7_p10_weights      = ["13","5","3","12","16","15","14","11","8","9","4","2","6","7","10"];</t>
+    <t xml:space="preserve">   var w8_p9_picks         = ["H","H","H","H","V","H","V","H","V","H","H","H","V"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w7_p11_weights      = ["14","5","15","6","9","16","11","10","3","4","2","7","12","8","13"];</t>
+    <t xml:space="preserve">   var w8_p10_picks        = ["V","V","V","V","H","V","V","V","V","H","H","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w7_p12_weights      = ["16","6","15","9","8","12","13","7","4","11","14","3","10","2","5"];</t>
+    <t>Panthers</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w7_winners          = ["H","V","H","H","V","H","H","H","H","V","V","V","V","Tie","H"];</t>
+    <t xml:space="preserve">   var w8_p11_picks        = ["H","H","V","V","V","H","V","V","H","V","H","V","V"];</t>
   </si>
   <si>
-    <t>Panthers, Cowboys</t>
+    <t>Cowboys</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w7_mn_points        = ["37","45","40","42","37","54","38","37","42","28","44","21"];</t>
+    <t xml:space="preserve">   var w8_p12_picks        = ["H","H","V","V","V","V","V","V","V","H","V","H","V"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w7_actual_mn_points = 36;</t>
+    <t xml:space="preserve">   var w8_p1_weights       = ["11","14","9","16","13","5","8","6","4","10","7","12","15"];</t>
   </si>
   <si>
-    <t>Yes</t>
+    <t xml:space="preserve">   var w8_p2_weights       = ["4","7","14","15","13","10","11","5","6","9","8","12","16"];</t>
   </si>
   <si>
-    <t>Over</t>
+    <t xml:space="preserve">   var w8_p3_weights       = ["12","10","9","16","11","6","5","7","4","15","8","13","14"];</t>
   </si>
   <si>
-    <t>Week 7 Final</t>
+    <t xml:space="preserve">   var w8_p4_weights       = ["11","10","6","16","8","15","5","4","9","14","7","13","12"];</t>
   </si>
   <si>
-    <t>'Week 7'!$B$2</t>
+    <t xml:space="preserve">   var w8_p5_weights       = ["14","12","8","13","15","4","5","9","7","10","6","11","16"];</t>
   </si>
   <si>
-    <t>'Week 7'!$C$2</t>
+    <t xml:space="preserve">   var w8_p6_weights       = ["5","4","9","16","14","13","12","15","11","6","7","10","8"];</t>
   </si>
   <si>
-    <t>'Week 7'!$D$2</t>
+    <t xml:space="preserve">   var w8_p7_weights       = ["10","7","14","4","12","13","16","11","6","5","8","15","9"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w8_p8_weights       = ["11","12","9","15","4","5","8","10","6","14","7","13","16"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w8_p9_weights       = ["11","10","9","4","16","8","6","7","13","12","5","15","14"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w8_p10_weights      = ["13","6","14","7","11","10","9","8","15","12","4","16","5"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w8_p11_weights      = ["11","10","9","14","12","8","16","6","4","5","7","13","15"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w8_p12_weights      = ["10","12","11","16","5","6","14","9","7","15","8","4","13"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w8_winners          = ["H","Tie","H","V","V","H","V","H","V","H","H","H","H"];</t>
+  </si>
+  <si>
+    <t>Ravens, Rams, Dolphins, Giants, Steelers, 49ers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w8_mn_points        = ["37","42","41","42","40","52","38","44","37","52","38","38"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w8_actual_mn_points = 0;</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Week 8 Final</t>
+  </si>
+  <si>
+    <t>'Week 8'!$B$2</t>
+  </si>
+  <si>
+    <t>'Week 8'!$C$2</t>
+  </si>
+  <si>
+    <t>'Week 8'!$D$2</t>
   </si>
 </sst>
 </file>
@@ -5116,57 +5101,57 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="2.375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6.375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.75" style="4" customWidth="1"/>
-    <col min="7" max="7" width="5.5" style="5" customWidth="1"/>
-    <col min="8" max="8" width="5.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="3.75" style="4" customWidth="1"/>
-    <col min="10" max="11" width="5.5" style="4" customWidth="1"/>
-    <col min="12" max="12" width="3.75" style="4" customWidth="1"/>
-    <col min="13" max="14" width="5.5" style="4" customWidth="1"/>
-    <col min="15" max="15" width="3.75" style="4" customWidth="1"/>
-    <col min="16" max="17" width="5.5" style="4" customWidth="1"/>
-    <col min="18" max="18" width="3.75" style="4" customWidth="1"/>
-    <col min="19" max="20" width="5.5" style="4" customWidth="1"/>
-    <col min="21" max="21" width="3.75" style="4" customWidth="1"/>
-    <col min="22" max="23" width="5.5" style="4" customWidth="1"/>
-    <col min="24" max="24" width="3.75" style="4" customWidth="1"/>
-    <col min="25" max="26" width="5.5" style="4" customWidth="1"/>
-    <col min="27" max="27" width="3.75" style="4" customWidth="1"/>
-    <col min="28" max="29" width="5.5" style="4" customWidth="1"/>
-    <col min="30" max="30" width="3.75" style="4" customWidth="1"/>
-    <col min="31" max="32" width="5.5" style="4" customWidth="1"/>
-    <col min="33" max="33" width="3.75" style="4" customWidth="1"/>
-    <col min="34" max="35" width="5.5" style="4" customWidth="1"/>
-    <col min="36" max="36" width="3.75" style="4" customWidth="1"/>
-    <col min="37" max="38" width="5.5" style="4" customWidth="1"/>
-    <col min="39" max="39" width="3.75" style="4" customWidth="1"/>
-    <col min="40" max="41" width="5.5" style="4" customWidth="1"/>
-    <col min="42" max="42" width="3.25" style="3" customWidth="1"/>
-    <col min="43" max="43" width="5" style="4" customWidth="1"/>
-    <col min="44" max="44" width="3.25" style="4" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="37.25" style="4" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="3.75" style="4" customWidth="1"/>
-    <col min="47" max="48" width="5.5" style="4" customWidth="1"/>
-    <col min="49" max="49" width="5" style="3" customWidth="1"/>
-    <col min="50" max="55" width="8" style="4" hidden="1" customWidth="1"/>
-    <col min="56" max="57" width="5" style="4" customWidth="1"/>
-    <col min="58" max="59" width="7.625" style="4" customWidth="1"/>
-    <col min="60" max="60" width="3.25" style="4" customWidth="1"/>
-    <col min="61" max="61" width="5" style="4" customWidth="1"/>
-    <col min="62" max="64" width="7.625" style="4" customWidth="1"/>
-    <col min="65" max="65" width="3.25" style="4" customWidth="1"/>
-    <col min="66" max="66" width="5.875" style="4" customWidth="1"/>
-    <col min="67" max="68" width="8.5" style="6" customWidth="1"/>
-    <col min="69" max="69" width="5" style="6" customWidth="1"/>
-    <col min="70" max="75" width="5.875" style="6" customWidth="1"/>
-    <col min="76" max="76" width="9" style="4"/>
-    <col min="77" max="77" width="70.625" style="36" hidden="1" customWidth="1"/>
-    <col min="78" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="1.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="4.28515625" style="4" customWidth="1"/>
+    <col min="10" max="11" width="6.28515625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" style="4" customWidth="1"/>
+    <col min="13" max="14" width="6.28515625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="4.28515625" style="4" customWidth="1"/>
+    <col min="16" max="17" width="6.28515625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="4.28515625" style="4" customWidth="1"/>
+    <col min="19" max="20" width="6.28515625" style="4" customWidth="1"/>
+    <col min="21" max="21" width="4.28515625" style="4" customWidth="1"/>
+    <col min="22" max="23" width="6.28515625" style="4" customWidth="1"/>
+    <col min="24" max="24" width="4.28515625" style="4" customWidth="1"/>
+    <col min="25" max="26" width="6.28515625" style="4" customWidth="1"/>
+    <col min="27" max="27" width="4.28515625" style="4" customWidth="1"/>
+    <col min="28" max="29" width="6.28515625" style="4" customWidth="1"/>
+    <col min="30" max="30" width="4.28515625" style="4" customWidth="1"/>
+    <col min="31" max="32" width="6.28515625" style="4" customWidth="1"/>
+    <col min="33" max="33" width="4.28515625" style="4" customWidth="1"/>
+    <col min="34" max="35" width="6.28515625" style="4" customWidth="1"/>
+    <col min="36" max="36" width="4.28515625" style="4" customWidth="1"/>
+    <col min="37" max="38" width="6.28515625" style="4" customWidth="1"/>
+    <col min="39" max="39" width="4.28515625" style="4" customWidth="1"/>
+    <col min="40" max="41" width="6.28515625" style="4" customWidth="1"/>
+    <col min="42" max="42" width="3.7109375" style="3" customWidth="1"/>
+    <col min="43" max="43" width="5.7109375" style="4" customWidth="1"/>
+    <col min="44" max="44" width="3.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="42.5703125" style="4" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="4.28515625" style="4" customWidth="1"/>
+    <col min="47" max="48" width="6.28515625" style="4" customWidth="1"/>
+    <col min="49" max="49" width="5.7109375" style="3" customWidth="1"/>
+    <col min="50" max="55" width="9.140625" style="4" hidden="1" customWidth="1"/>
+    <col min="56" max="57" width="5.7109375" style="4" customWidth="1"/>
+    <col min="58" max="59" width="8.7109375" style="4" customWidth="1"/>
+    <col min="60" max="60" width="3.7109375" style="4" customWidth="1"/>
+    <col min="61" max="61" width="5.7109375" style="4" customWidth="1"/>
+    <col min="62" max="64" width="8.7109375" style="4" customWidth="1"/>
+    <col min="65" max="65" width="3.7109375" style="4" customWidth="1"/>
+    <col min="66" max="66" width="6.7109375" style="4" customWidth="1"/>
+    <col min="67" max="68" width="9.7109375" style="6" customWidth="1"/>
+    <col min="69" max="69" width="5.7109375" style="6" customWidth="1"/>
+    <col min="70" max="75" width="6.7109375" style="6" customWidth="1"/>
+    <col min="76" max="76" width="9.140625" style="4"/>
+    <col min="77" max="77" width="80.7109375" style="36" hidden="1" customWidth="1"/>
+    <col min="78" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:77" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5191,52 +5176,52 @@
         <v>40</v>
       </c>
       <c r="C2" s="297" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D2" s="112" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E2" s="113"/>
       <c r="F2" s="114" t="s">
         <v>91</v>
       </c>
       <c r="G2" s="115">
-        <v>-21</v>
+        <v>-24</v>
       </c>
       <c r="H2" s="116"/>
       <c r="I2" s="114" t="s">
         <v>92</v>
       </c>
       <c r="J2" s="115">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K2" s="116"/>
       <c r="L2" s="114" t="s">
         <v>93</v>
       </c>
       <c r="M2" s="115">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N2" s="116"/>
       <c r="O2" s="114" t="s">
         <v>94</v>
       </c>
       <c r="P2" s="115">
-        <v>-21</v>
+        <v>-24</v>
       </c>
       <c r="Q2" s="116"/>
       <c r="R2" s="114" t="s">
         <v>95</v>
       </c>
       <c r="S2" s="115">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="T2" s="116"/>
       <c r="U2" s="114" t="s">
         <v>96</v>
       </c>
       <c r="V2" s="115">
-        <v>-21</v>
+        <v>-24</v>
       </c>
       <c r="W2" s="116"/>
       <c r="X2" s="114" t="s">
@@ -5250,35 +5235,35 @@
         <v>98</v>
       </c>
       <c r="AB2" s="115">
-        <v>-21</v>
+        <v>-24</v>
       </c>
       <c r="AC2" s="116"/>
       <c r="AD2" s="114" t="s">
         <v>99</v>
       </c>
       <c r="AE2" s="115">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="AF2" s="116"/>
       <c r="AG2" s="114" t="s">
         <v>100</v>
       </c>
       <c r="AH2" s="115">
-        <v>-21</v>
+        <v>-24</v>
       </c>
       <c r="AI2" s="116"/>
       <c r="AJ2" s="114" t="s">
         <v>101</v>
       </c>
       <c r="AK2" s="115">
-        <v>-21</v>
+        <v>-24</v>
       </c>
       <c r="AL2" s="116"/>
       <c r="AM2" s="114" t="s">
         <v>102</v>
       </c>
       <c r="AN2" s="115">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="AO2" s="117"/>
       <c r="AP2" s="3"/>
@@ -5297,7 +5282,7 @@
       <c r="AV2" s="305"/>
       <c r="AW2" s="3"/>
       <c r="BE2" s="300" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="BF2" s="301"/>
       <c r="BG2" s="302"/>
@@ -5449,7 +5434,7 @@
       </c>
       <c r="AP3" s="3"/>
       <c r="AR3" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS3" s="9" t="s">
         <v>52</v>
@@ -5517,13 +5502,13 @@
     </row>
     <row r="4" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="180" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C4" s="181" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="181" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="E4" s="182" t="s">
         <v>60</v>
@@ -5532,7 +5517,7 @@
         <v>60</v>
       </c>
       <c r="G4" s="184">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H4" s="185" t="s">
         <v>0</v>
@@ -5541,7 +5526,7 @@
         <v>60</v>
       </c>
       <c r="J4" s="184">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="K4" s="185" t="s">
         <v>0</v>
@@ -5550,7 +5535,7 @@
         <v>60</v>
       </c>
       <c r="M4" s="184">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N4" s="185" t="s">
         <v>0</v>
@@ -5559,7 +5544,7 @@
         <v>60</v>
       </c>
       <c r="P4" s="184">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="185" t="s">
         <v>0</v>
@@ -5568,7 +5553,7 @@
         <v>60</v>
       </c>
       <c r="S4" s="184">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T4" s="185" t="s">
         <v>0</v>
@@ -5586,7 +5571,7 @@
         <v>60</v>
       </c>
       <c r="Y4" s="184">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z4" s="185" t="s">
         <v>0</v>
@@ -5595,7 +5580,7 @@
         <v>60</v>
       </c>
       <c r="AB4" s="184">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AC4" s="185" t="s">
         <v>0</v>
@@ -5604,25 +5589,25 @@
         <v>60</v>
       </c>
       <c r="AE4" s="184">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AF4" s="185" t="s">
         <v>0</v>
       </c>
       <c r="AG4" s="186" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AH4" s="184">
         <v>13</v>
       </c>
-      <c r="AI4" s="185" t="s">
-        <v>0</v>
+      <c r="AI4" s="185">
+        <v>-13</v>
       </c>
       <c r="AJ4" s="186" t="s">
         <v>60</v>
       </c>
       <c r="AK4" s="184">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AL4" s="185" t="s">
         <v>0</v>
@@ -5631,7 +5616,7 @@
         <v>60</v>
       </c>
       <c r="AN4" s="184">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AO4" s="187" t="s">
         <v>0</v>
@@ -5640,22 +5625,22 @@
         <v>60</v>
       </c>
       <c r="AU4" s="184">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AV4" s="187" t="s">
         <v>0</v>
       </c>
       <c r="AX4" s="4">
-        <v>155</v>
+        <v>87</v>
       </c>
       <c r="AY4" s="4">
-        <v>155</v>
+        <v>87</v>
       </c>
       <c r="AZ4" s="4">
-        <v>155</v>
+        <v>87</v>
       </c>
       <c r="BA4" s="4">
-        <v>155</v>
+        <v>87</v>
       </c>
       <c r="BB4" s="4">
         <v>1</v>
@@ -5667,10 +5652,10 @@
         <v>1</v>
       </c>
       <c r="BF4" s="60" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="BG4" s="61">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="BH4" s="189"/>
       <c r="BI4" s="62">
@@ -5680,10 +5665,10 @@
         <v>97</v>
       </c>
       <c r="BK4" s="64">
-        <v>94.666666666666671</v>
+        <v>95</v>
       </c>
       <c r="BL4" s="65">
-        <v>568</v>
+        <v>665</v>
       </c>
       <c r="BM4" s="172"/>
       <c r="BN4" s="66">
@@ -5696,7 +5681,7 @@
         <v>62</v>
       </c>
       <c r="BQ4" s="69">
-        <v>-21</v>
+        <v>-24</v>
       </c>
       <c r="BR4" s="70">
         <v>2</v>
@@ -5708,7 +5693,7 @@
         <v>61</v>
       </c>
       <c r="BU4" s="71">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="BV4" s="72" t="s">
         <v>0</v>
@@ -5717,152 +5702,152 @@
         <v>0</v>
       </c>
       <c r="BY4" s="12" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="190" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C5" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="191" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E5" s="192" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F5" s="193" t="s">
         <v>60</v>
       </c>
       <c r="G5" s="194">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H5" s="195">
-        <v>-4</v>
+        <v>-14</v>
       </c>
       <c r="I5" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="J5" s="194">
-        <v>3</v>
-      </c>
-      <c r="K5" s="195" t="s">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="K5" s="195">
+        <v>-7</v>
       </c>
       <c r="L5" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="M5" s="194">
         <v>10</v>
       </c>
-      <c r="N5" s="195" t="s">
-        <v>0</v>
+      <c r="N5" s="195">
+        <v>-10</v>
       </c>
       <c r="O5" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="P5" s="194">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="195" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="Q5" s="195">
+        <v>-10</v>
       </c>
       <c r="R5" s="196" t="s">
         <v>60</v>
       </c>
       <c r="S5" s="194">
+        <v>12</v>
+      </c>
+      <c r="T5" s="195">
+        <v>-12</v>
+      </c>
+      <c r="U5" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="V5" s="194">
+        <v>4</v>
+      </c>
+      <c r="W5" s="195">
+        <v>-4</v>
+      </c>
+      <c r="X5" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y5" s="194">
+        <v>7</v>
+      </c>
+      <c r="Z5" s="195">
+        <v>-7</v>
+      </c>
+      <c r="AA5" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB5" s="194">
+        <v>12</v>
+      </c>
+      <c r="AC5" s="195">
+        <v>-12</v>
+      </c>
+      <c r="AD5" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE5" s="194">
         <v>10</v>
       </c>
-      <c r="T5" s="195">
+      <c r="AF5" s="195">
         <v>-10</v>
       </c>
-      <c r="U5" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="V5" s="194">
+      <c r="AG5" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH5" s="194">
         <v>6</v>
       </c>
-      <c r="W5" s="195">
+      <c r="AI5" s="195">
         <v>-6</v>
-      </c>
-      <c r="X5" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y5" s="194">
-        <v>6</v>
-      </c>
-      <c r="Z5" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB5" s="194">
-        <v>11</v>
-      </c>
-      <c r="AC5" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE5" s="194">
-        <v>7</v>
-      </c>
-      <c r="AF5" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH5" s="194">
-        <v>5</v>
-      </c>
-      <c r="AI5" s="195">
-        <v>-5</v>
       </c>
       <c r="AJ5" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AK5" s="194">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AL5" s="195">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="AM5" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AN5" s="194">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AO5" s="197">
-        <v>-6</v>
+        <v>-12</v>
       </c>
       <c r="AR5" s="8"/>
       <c r="AS5" s="9"/>
       <c r="AT5" s="198" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AU5" s="194">
-        <v>2</v>
-      </c>
-      <c r="AV5" s="197" t="s">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="AV5" s="197">
+        <v>-12</v>
       </c>
       <c r="AX5" s="4">
-        <v>-5</v>
+        <v>94</v>
       </c>
       <c r="AY5" s="4">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="AZ5" s="4">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="BA5" s="4">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="BB5" s="4">
         <v>2</v>
@@ -5874,42 +5859,42 @@
         <v>2</v>
       </c>
       <c r="BF5" s="77" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="BG5" s="78">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="BH5" s="189"/>
       <c r="BI5" s="79">
         <v>2</v>
       </c>
       <c r="BJ5" s="80" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="BK5" s="81">
-        <v>91.5</v>
+        <v>91.857142857142861</v>
       </c>
       <c r="BL5" s="82">
-        <v>549</v>
+        <v>643</v>
       </c>
       <c r="BM5" s="172"/>
       <c r="BN5" s="79">
         <v>2</v>
       </c>
       <c r="BO5" s="80" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="BP5" s="83">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="BQ5" s="84">
-        <v>-21</v>
+        <v>-24</v>
       </c>
       <c r="BR5" s="85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BS5" s="86">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="BT5" s="87" t="s">
         <v>0</v>
@@ -5921,21 +5906,21 @@
         <v>61</v>
       </c>
       <c r="BW5" s="88">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BY5" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="190" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="C6" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="191" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E6" s="192" t="s">
         <v>60</v>
@@ -5944,52 +5929,52 @@
         <v>60</v>
       </c>
       <c r="G6" s="194">
+        <v>9</v>
+      </c>
+      <c r="H6" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" s="194">
         <v>14</v>
       </c>
-      <c r="H6" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="J6" s="194">
-        <v>13</v>
-      </c>
-      <c r="K6" s="195" t="s">
-        <v>0</v>
+      <c r="K6" s="195">
+        <v>-14</v>
       </c>
       <c r="L6" s="196" t="s">
         <v>60</v>
       </c>
       <c r="M6" s="194">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="N6" s="195" t="s">
         <v>0</v>
       </c>
       <c r="O6" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="P6" s="194">
-        <v>16</v>
-      </c>
-      <c r="Q6" s="195" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="Q6" s="195">
+        <v>-6</v>
       </c>
       <c r="R6" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="S6" s="194">
-        <v>14</v>
-      </c>
-      <c r="T6" s="195" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="T6" s="195">
+        <v>-8</v>
       </c>
       <c r="U6" s="196" t="s">
         <v>60</v>
       </c>
       <c r="V6" s="194">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="W6" s="195" t="s">
         <v>0</v>
@@ -5998,7 +5983,7 @@
         <v>60</v>
       </c>
       <c r="Y6" s="194">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Z6" s="195" t="s">
         <v>0</v>
@@ -6007,7 +5992,7 @@
         <v>60</v>
       </c>
       <c r="AB6" s="194">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AC6" s="195" t="s">
         <v>0</v>
@@ -6016,7 +6001,7 @@
         <v>60</v>
       </c>
       <c r="AE6" s="194">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AF6" s="195" t="s">
         <v>0</v>
@@ -6025,51 +6010,51 @@
         <v>88</v>
       </c>
       <c r="AH6" s="194">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="AI6" s="195">
-        <v>-3</v>
+        <v>-14</v>
       </c>
       <c r="AJ6" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AK6" s="194">
-        <v>15</v>
-      </c>
-      <c r="AL6" s="195" t="s">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="AL6" s="195">
+        <v>-9</v>
       </c>
       <c r="AM6" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AN6" s="194">
-        <v>15</v>
-      </c>
-      <c r="AO6" s="197" t="s">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="AO6" s="197">
+        <v>-11</v>
       </c>
       <c r="AR6" s="8"/>
       <c r="AS6" s="9"/>
       <c r="AT6" s="198" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AU6" s="194">
-        <v>16</v>
-      </c>
-      <c r="AV6" s="197" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="AV6" s="197">
+        <v>-4</v>
       </c>
       <c r="AX6" s="4">
-        <v>156</v>
+        <v>-3</v>
       </c>
       <c r="AY6" s="4">
-        <v>156</v>
+        <v>3</v>
       </c>
       <c r="AZ6" s="4">
-        <v>156</v>
+        <v>3</v>
       </c>
       <c r="BA6" s="4">
-        <v>156</v>
+        <v>3</v>
       </c>
       <c r="BB6" s="4">
         <v>3</v>
@@ -6081,23 +6066,23 @@
         <v>3</v>
       </c>
       <c r="BF6" s="77" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BG6" s="78">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="BH6" s="189"/>
       <c r="BI6" s="79">
         <v>3</v>
       </c>
       <c r="BJ6" s="80" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="BK6" s="81">
-        <v>90.166666666666671</v>
+        <v>88.571428571428569</v>
       </c>
       <c r="BL6" s="82">
-        <v>541</v>
+        <v>620</v>
       </c>
       <c r="BM6" s="172"/>
       <c r="BN6" s="79">
@@ -6107,10 +6092,10 @@
         <v>92</v>
       </c>
       <c r="BP6" s="83">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BQ6" s="84">
-        <v>-21</v>
+        <v>-24</v>
       </c>
       <c r="BR6" s="85">
         <v>1</v>
@@ -6131,63 +6116,63 @@
         <v>0</v>
       </c>
       <c r="BY6" s="12" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="190" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C7" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="191" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E7" s="192" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F7" s="193" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="G7" s="194">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H7" s="195" t="s">
         <v>0</v>
       </c>
       <c r="I7" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="J7" s="194">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="K7" s="195" t="s">
         <v>0</v>
       </c>
       <c r="L7" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="M7" s="194">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="N7" s="195" t="s">
         <v>0</v>
       </c>
       <c r="O7" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="P7" s="194">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="Q7" s="195" t="s">
         <v>0</v>
       </c>
       <c r="R7" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="S7" s="194">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="T7" s="195" t="s">
         <v>0</v>
@@ -6196,52 +6181,52 @@
         <v>88</v>
       </c>
       <c r="V7" s="194">
-        <v>12</v>
-      </c>
-      <c r="W7" s="195">
-        <v>-12</v>
+        <v>16</v>
+      </c>
+      <c r="W7" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="X7" s="196" t="s">
         <v>60</v>
       </c>
       <c r="Y7" s="194">
-        <v>9</v>
-      </c>
-      <c r="Z7" s="195" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="Z7" s="195">
+        <v>-4</v>
       </c>
       <c r="AA7" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB7" s="194">
+        <v>15</v>
+      </c>
+      <c r="AC7" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="AB7" s="194">
-        <v>3</v>
-      </c>
-      <c r="AC7" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="196" t="s">
+      <c r="AE7" s="194">
+        <v>4</v>
+      </c>
+      <c r="AF7" s="195">
+        <v>-4</v>
+      </c>
+      <c r="AG7" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="AE7" s="194">
-        <v>6</v>
-      </c>
-      <c r="AF7" s="195">
-        <v>-6</v>
-      </c>
-      <c r="AG7" s="196" t="s">
-        <v>60</v>
-      </c>
       <c r="AH7" s="194">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AI7" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AJ7" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AK7" s="194">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AL7" s="195" t="s">
         <v>0</v>
@@ -6250,31 +6235,31 @@
         <v>88</v>
       </c>
       <c r="AN7" s="194">
-        <v>9</v>
-      </c>
-      <c r="AO7" s="197">
-        <v>-9</v>
+        <v>16</v>
+      </c>
+      <c r="AO7" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AT7" s="198" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AU7" s="194">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AV7" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX7" s="4">
-        <v>43</v>
+        <v>-136</v>
       </c>
       <c r="AY7" s="4">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="AZ7" s="4">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="BA7" s="4">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="BB7" s="4">
         <v>4</v>
@@ -6283,13 +6268,13 @@
         <v>1</v>
       </c>
       <c r="BE7" s="76">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF7" s="77" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="BG7" s="78">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="BH7" s="189"/>
       <c r="BI7" s="79">
@@ -6299,10 +6284,10 @@
         <v>93</v>
       </c>
       <c r="BK7" s="81">
-        <v>86.666666666666671</v>
+        <v>87.571428571428569</v>
       </c>
       <c r="BL7" s="82">
-        <v>520</v>
+        <v>613</v>
       </c>
       <c r="BM7" s="172"/>
       <c r="BN7" s="79">
@@ -6312,10 +6297,10 @@
         <v>93</v>
       </c>
       <c r="BP7" s="83">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BQ7" s="84">
-        <v>-21</v>
+        <v>-24</v>
       </c>
       <c r="BR7" s="85">
         <v>1</v>
@@ -6336,18 +6321,18 @@
         <v>0</v>
       </c>
       <c r="BY7" s="12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="190" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="C8" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="191" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="E8" s="192" t="s">
         <v>88</v>
@@ -6356,97 +6341,97 @@
         <v>88</v>
       </c>
       <c r="G8" s="194">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H8" s="195" t="s">
         <v>0</v>
       </c>
       <c r="I8" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="J8" s="194">
-        <v>8</v>
-      </c>
-      <c r="K8" s="195">
-        <v>-8</v>
+        <v>13</v>
+      </c>
+      <c r="K8" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="L8" s="196" t="s">
         <v>88</v>
       </c>
       <c r="M8" s="194">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="N8" s="195" t="s">
         <v>0</v>
       </c>
       <c r="O8" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="P8" s="194">
-        <v>7</v>
-      </c>
-      <c r="Q8" s="195">
-        <v>-7</v>
+        <v>8</v>
+      </c>
+      <c r="Q8" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="R8" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="S8" s="194">
-        <v>4</v>
-      </c>
-      <c r="T8" s="195">
-        <v>-4</v>
+        <v>15</v>
+      </c>
+      <c r="T8" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="U8" s="196" t="s">
         <v>88</v>
       </c>
       <c r="V8" s="194">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="W8" s="195" t="s">
         <v>0</v>
       </c>
       <c r="X8" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y8" s="194">
+        <v>12</v>
+      </c>
+      <c r="Z8" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="Y8" s="194">
-        <v>2</v>
-      </c>
-      <c r="Z8" s="195">
-        <v>-2</v>
-      </c>
-      <c r="AA8" s="196" t="s">
-        <v>88</v>
-      </c>
       <c r="AB8" s="194">
-        <v>2</v>
-      </c>
-      <c r="AC8" s="195" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="AC8" s="195">
+        <v>-4</v>
       </c>
       <c r="AD8" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AE8" s="194">
+        <v>16</v>
+      </c>
+      <c r="AF8" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH8" s="194">
         <v>11</v>
       </c>
-      <c r="AF8" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH8" s="194">
-        <v>16</v>
-      </c>
-      <c r="AI8" s="195" t="s">
-        <v>0</v>
+      <c r="AI8" s="195">
+        <v>-11</v>
       </c>
       <c r="AJ8" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AK8" s="194">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AL8" s="195" t="s">
         <v>0</v>
@@ -6455,7 +6440,7 @@
         <v>88</v>
       </c>
       <c r="AN8" s="194">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AO8" s="197" t="s">
         <v>0</v>
@@ -6464,22 +6449,22 @@
         <v>88</v>
       </c>
       <c r="AU8" s="194">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AV8" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX8" s="4">
-        <v>-38</v>
+        <v>-104</v>
       </c>
       <c r="AY8" s="4">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="AZ8" s="4">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="BA8" s="4">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="BB8" s="4">
         <v>5</v>
@@ -6488,26 +6473,26 @@
         <v>1</v>
       </c>
       <c r="BE8" s="76">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BF8" s="77" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="BG8" s="78">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="BH8" s="189"/>
       <c r="BI8" s="79">
         <v>5</v>
       </c>
       <c r="BJ8" s="80" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="BK8" s="81">
-        <v>86.333333333333329</v>
+        <v>87.285714285714292</v>
       </c>
       <c r="BL8" s="82">
-        <v>518</v>
+        <v>611</v>
       </c>
       <c r="BM8" s="172"/>
       <c r="BN8" s="79">
@@ -6517,10 +6502,10 @@
         <v>95</v>
       </c>
       <c r="BP8" s="83">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BQ8" s="84">
-        <v>-21</v>
+        <v>-24</v>
       </c>
       <c r="BR8" s="85">
         <v>1</v>
@@ -6541,18 +6526,18 @@
         <v>0</v>
       </c>
       <c r="BY8" s="12" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="190" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="C9" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="191" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="E9" s="192" t="s">
         <v>60</v>
@@ -6576,40 +6561,40 @@
         <v>0</v>
       </c>
       <c r="L9" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="M9" s="194">
-        <v>12</v>
-      </c>
-      <c r="N9" s="195" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="N9" s="195">
+        <v>-6</v>
       </c>
       <c r="O9" s="196" t="s">
         <v>60</v>
       </c>
       <c r="P9" s="194">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="195" t="s">
         <v>0</v>
       </c>
       <c r="R9" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="S9" s="194">
-        <v>5</v>
-      </c>
-      <c r="T9" s="195" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="T9" s="195">
+        <v>-4</v>
       </c>
       <c r="U9" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="V9" s="194">
-        <v>11</v>
-      </c>
-      <c r="W9" s="195" t="s">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="W9" s="195">
+        <v>-13</v>
       </c>
       <c r="X9" s="196" t="s">
         <v>88</v>
@@ -6621,70 +6606,70 @@
         <v>-13</v>
       </c>
       <c r="AA9" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AB9" s="194">
-        <v>14</v>
-      </c>
-      <c r="AC9" s="195" t="s">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="AC9" s="195">
+        <v>-5</v>
       </c>
       <c r="AD9" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AE9" s="194">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF9" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AG9" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AH9" s="194">
-        <v>15</v>
-      </c>
-      <c r="AI9" s="195" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="AI9" s="195">
+        <v>-10</v>
       </c>
       <c r="AJ9" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AK9" s="194">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AL9" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AM9" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AN9" s="194">
-        <v>12</v>
-      </c>
-      <c r="AO9" s="197" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="AO9" s="197">
+        <v>-6</v>
       </c>
       <c r="AT9" s="198" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AU9" s="194">
-        <v>13</v>
-      </c>
-      <c r="AV9" s="197" t="s">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="AV9" s="197">
+        <v>-5</v>
       </c>
       <c r="AX9" s="4">
-        <v>101</v>
+        <v>-11</v>
       </c>
       <c r="AY9" s="4">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="AZ9" s="4">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="BA9" s="4">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="BB9" s="4">
         <v>6</v>
@@ -6696,36 +6681,36 @@
         <v>6</v>
       </c>
       <c r="BF9" s="77" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="BG9" s="78">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="BH9" s="189"/>
       <c r="BI9" s="79">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ9" s="80" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="BK9" s="81">
-        <v>86.333333333333329</v>
+        <v>84.285714285714292</v>
       </c>
       <c r="BL9" s="82">
-        <v>518</v>
+        <v>590</v>
       </c>
       <c r="BM9" s="172"/>
       <c r="BN9" s="79">
         <v>3</v>
       </c>
       <c r="BO9" s="80" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="BP9" s="83">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BQ9" s="84">
-        <v>-21</v>
+        <v>-24</v>
       </c>
       <c r="BR9" s="85">
         <v>1</v>
@@ -6746,99 +6731,99 @@
         <v>0</v>
       </c>
       <c r="BY9" s="12" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="190" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="C10" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="191" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E10" s="192" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F10" s="193" t="s">
         <v>88</v>
       </c>
       <c r="G10" s="194">
-        <v>12</v>
-      </c>
-      <c r="H10" s="195">
-        <v>-12</v>
+        <v>8</v>
+      </c>
+      <c r="H10" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="I10" s="196" t="s">
         <v>60</v>
       </c>
       <c r="J10" s="194">
-        <v>12</v>
-      </c>
-      <c r="K10" s="195" t="s">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="K10" s="195">
+        <v>-11</v>
       </c>
       <c r="L10" s="196" t="s">
         <v>88</v>
       </c>
       <c r="M10" s="194">
-        <v>9</v>
-      </c>
-      <c r="N10" s="195">
-        <v>-9</v>
+        <v>5</v>
+      </c>
+      <c r="N10" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="O10" s="196" t="s">
         <v>88</v>
       </c>
       <c r="P10" s="194">
-        <v>9</v>
-      </c>
-      <c r="Q10" s="195">
-        <v>-9</v>
+        <v>5</v>
+      </c>
+      <c r="Q10" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="R10" s="196" t="s">
         <v>88</v>
       </c>
       <c r="S10" s="194">
-        <v>6</v>
-      </c>
-      <c r="T10" s="195">
-        <v>-6</v>
+        <v>5</v>
+      </c>
+      <c r="T10" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="U10" s="196" t="s">
         <v>88</v>
       </c>
       <c r="V10" s="194">
-        <v>9</v>
-      </c>
-      <c r="W10" s="195">
-        <v>-9</v>
+        <v>12</v>
+      </c>
+      <c r="W10" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="X10" s="196" t="s">
         <v>88</v>
       </c>
       <c r="Y10" s="194">
-        <v>15</v>
-      </c>
-      <c r="Z10" s="195">
-        <v>-15</v>
+        <v>16</v>
+      </c>
+      <c r="Z10" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AA10" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB10" s="194">
+        <v>8</v>
+      </c>
+      <c r="AC10" s="195">
+        <v>-8</v>
+      </c>
+      <c r="AD10" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="AB10" s="194">
-        <v>10</v>
-      </c>
-      <c r="AC10" s="195">
-        <v>-10</v>
-      </c>
-      <c r="AD10" s="196" t="s">
-        <v>60</v>
-      </c>
       <c r="AE10" s="194">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AF10" s="195" t="s">
         <v>0</v>
@@ -6847,28 +6832,28 @@
         <v>88</v>
       </c>
       <c r="AH10" s="194">
-        <v>14</v>
-      </c>
-      <c r="AI10" s="195">
-        <v>-14</v>
+        <v>9</v>
+      </c>
+      <c r="AI10" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AJ10" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AK10" s="194">
-        <v>11</v>
-      </c>
-      <c r="AL10" s="195">
-        <v>-11</v>
+        <v>16</v>
+      </c>
+      <c r="AL10" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AM10" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AN10" s="194">
-        <v>13</v>
-      </c>
-      <c r="AO10" s="197">
-        <v>-13</v>
+        <v>14</v>
+      </c>
+      <c r="AO10" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AT10" s="198" t="s">
         <v>88</v>
@@ -6876,20 +6861,20 @@
       <c r="AU10" s="194">
         <v>10</v>
       </c>
-      <c r="AV10" s="197">
-        <v>-10</v>
+      <c r="AV10" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AX10" s="4">
-        <v>-93</v>
+        <v>-77</v>
       </c>
       <c r="AY10" s="4">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="AZ10" s="4">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="BA10" s="4">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="BB10" s="4">
         <v>7</v>
@@ -6901,23 +6886,23 @@
         <v>7</v>
       </c>
       <c r="BF10" s="77" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BG10" s="78">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="BH10" s="189"/>
       <c r="BI10" s="79">
         <v>7</v>
       </c>
       <c r="BJ10" s="80" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="BK10" s="81">
-        <v>85.5</v>
+        <v>83.571428571428569</v>
       </c>
       <c r="BL10" s="82">
-        <v>513</v>
+        <v>585</v>
       </c>
       <c r="BM10" s="172"/>
       <c r="BN10" s="79">
@@ -6927,10 +6912,10 @@
         <v>91</v>
       </c>
       <c r="BP10" s="83">
-        <v>-21</v>
+        <v>-24</v>
       </c>
       <c r="BQ10" s="84">
-        <v>-21</v>
+        <v>-24</v>
       </c>
       <c r="BR10" s="85" t="s">
         <v>0</v>
@@ -6951,18 +6936,18 @@
         <v>0</v>
       </c>
       <c r="BY10" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="190" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="C11" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="191" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="E11" s="192" t="s">
         <v>60</v>
@@ -6971,130 +6956,130 @@
         <v>88</v>
       </c>
       <c r="G11" s="194">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H11" s="195">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="I11" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="J11" s="194">
-        <v>11</v>
-      </c>
-      <c r="K11" s="195">
-        <v>-11</v>
+        <v>5</v>
+      </c>
+      <c r="K11" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="L11" s="196" t="s">
         <v>88</v>
       </c>
       <c r="M11" s="194">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N11" s="195">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="O11" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="P11" s="194">
-        <v>2</v>
-      </c>
-      <c r="Q11" s="195">
-        <v>-2</v>
+        <v>4</v>
+      </c>
+      <c r="Q11" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="R11" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="S11" s="194">
-        <v>3</v>
-      </c>
-      <c r="T11" s="195">
-        <v>-3</v>
+        <v>9</v>
+      </c>
+      <c r="T11" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="U11" s="196" t="s">
         <v>88</v>
       </c>
       <c r="V11" s="194">
+        <v>15</v>
+      </c>
+      <c r="W11" s="195">
+        <v>-15</v>
+      </c>
+      <c r="X11" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y11" s="194">
+        <v>11</v>
+      </c>
+      <c r="Z11" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB11" s="194">
         <v>10</v>
       </c>
-      <c r="W11" s="195">
+      <c r="AC11" s="195">
         <v>-10</v>
       </c>
-      <c r="X11" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y11" s="194">
-        <v>4</v>
-      </c>
-      <c r="Z11" s="195">
-        <v>-4</v>
-      </c>
-      <c r="AA11" s="196" t="s">
+      <c r="AD11" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="AB11" s="194">
-        <v>4</v>
-      </c>
-      <c r="AC11" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="196" t="s">
-        <v>88</v>
-      </c>
       <c r="AE11" s="194">
-        <v>12</v>
-      </c>
-      <c r="AF11" s="195">
-        <v>-12</v>
+        <v>7</v>
+      </c>
+      <c r="AF11" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AG11" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AH11" s="194">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AI11" s="195">
-        <v>-11</v>
+        <v>-8</v>
       </c>
       <c r="AJ11" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AK11" s="194">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AL11" s="195">
-        <v>-10</v>
+        <v>-6</v>
       </c>
       <c r="AM11" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AN11" s="194">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AO11" s="197">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="AT11" s="198" t="s">
         <v>88</v>
       </c>
       <c r="AU11" s="194">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV11" s="197">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="AX11" s="4">
-        <v>-75</v>
+        <v>-25</v>
       </c>
       <c r="AY11" s="4">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="AZ11" s="4">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="BA11" s="4">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="BB11" s="4">
         <v>8</v>
@@ -7103,26 +7088,26 @@
         <v>1</v>
       </c>
       <c r="BE11" s="76">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BF11" s="77" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="BG11" s="78">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="BH11" s="189"/>
       <c r="BI11" s="79">
         <v>8</v>
       </c>
       <c r="BJ11" s="80" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="BK11" s="81">
-        <v>83.5</v>
+        <v>82.571428571428569</v>
       </c>
       <c r="BL11" s="82">
-        <v>501</v>
+        <v>578</v>
       </c>
       <c r="BM11" s="172"/>
       <c r="BN11" s="79">
@@ -7132,10 +7117,10 @@
         <v>94</v>
       </c>
       <c r="BP11" s="83">
-        <v>-21</v>
+        <v>-24</v>
       </c>
       <c r="BQ11" s="84">
-        <v>-21</v>
+        <v>-24</v>
       </c>
       <c r="BR11" s="85" t="s">
         <v>0</v>
@@ -7156,178 +7141,178 @@
         <v>0</v>
       </c>
       <c r="BY11" s="12" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="190" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="C12" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="191" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E12" s="192" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="193" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="193" t="s">
-        <v>88</v>
-      </c>
       <c r="G12" s="194">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H12" s="195">
-        <v>-10</v>
+        <v>-4</v>
       </c>
       <c r="I12" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="J12" s="194">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K12" s="195">
-        <v>-9</v>
+        <v>-6</v>
       </c>
       <c r="L12" s="196" t="s">
         <v>88</v>
       </c>
       <c r="M12" s="194">
-        <v>7</v>
-      </c>
-      <c r="N12" s="195">
-        <v>-7</v>
+        <v>4</v>
+      </c>
+      <c r="N12" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="O12" s="196" t="s">
         <v>60</v>
       </c>
       <c r="P12" s="194">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="195" t="s">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="Q12" s="195">
+        <v>-9</v>
       </c>
       <c r="R12" s="196" t="s">
         <v>88</v>
       </c>
       <c r="S12" s="194">
-        <v>12</v>
-      </c>
-      <c r="T12" s="195">
-        <v>-12</v>
+        <v>7</v>
+      </c>
+      <c r="T12" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="U12" s="196" t="s">
         <v>88</v>
       </c>
       <c r="V12" s="194">
-        <v>14</v>
-      </c>
-      <c r="W12" s="195">
-        <v>-14</v>
+        <v>11</v>
+      </c>
+      <c r="W12" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="X12" s="196" t="s">
         <v>88</v>
       </c>
       <c r="Y12" s="194">
-        <v>7</v>
-      </c>
-      <c r="Z12" s="195">
-        <v>-7</v>
+        <v>6</v>
+      </c>
+      <c r="Z12" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AA12" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AB12" s="194">
-        <v>8</v>
-      </c>
-      <c r="AC12" s="195">
-        <v>-8</v>
+        <v>6</v>
+      </c>
+      <c r="AC12" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AD12" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AE12" s="194">
-        <v>14</v>
-      </c>
-      <c r="AF12" s="195">
-        <v>-14</v>
+        <v>13</v>
+      </c>
+      <c r="AF12" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AG12" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AH12" s="194">
-        <v>8</v>
-      </c>
-      <c r="AI12" s="195">
-        <v>-8</v>
+        <v>15</v>
+      </c>
+      <c r="AI12" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AJ12" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AK12" s="194">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL12" s="195">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="AM12" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AN12" s="194">
-        <v>4</v>
-      </c>
-      <c r="AO12" s="197">
-        <v>-4</v>
+        <v>7</v>
+      </c>
+      <c r="AO12" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AT12" s="198" t="s">
         <v>88</v>
       </c>
       <c r="AU12" s="194">
-        <v>11</v>
-      </c>
-      <c r="AV12" s="197">
-        <v>-11</v>
+        <v>8</v>
+      </c>
+      <c r="AV12" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AX12" s="4">
-        <v>-93</v>
+        <v>-46</v>
       </c>
       <c r="AY12" s="4">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="AZ12" s="4">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="BA12" s="4">
-        <v>93.1</v>
+        <v>46</v>
       </c>
       <c r="BB12" s="4">
         <v>9</v>
       </c>
       <c r="BC12" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BE12" s="76">
         <v>9</v>
       </c>
       <c r="BF12" s="77" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="BG12" s="78">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="BH12" s="189"/>
       <c r="BI12" s="79">
         <v>9</v>
       </c>
       <c r="BJ12" s="80" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="BK12" s="81">
-        <v>80.833333333333329</v>
+        <v>81.857142857142861</v>
       </c>
       <c r="BL12" s="82">
-        <v>485</v>
+        <v>573</v>
       </c>
       <c r="BM12" s="172"/>
       <c r="BN12" s="79">
@@ -7337,10 +7322,10 @@
         <v>96</v>
       </c>
       <c r="BP12" s="83">
-        <v>-21</v>
+        <v>-24</v>
       </c>
       <c r="BQ12" s="84">
-        <v>-21</v>
+        <v>-24</v>
       </c>
       <c r="BR12" s="85" t="s">
         <v>0</v>
@@ -7361,36 +7346,36 @@
         <v>0</v>
       </c>
       <c r="BY12" s="12" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="190" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C13" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="191" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E13" s="192" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F13" s="193" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="G13" s="194">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H13" s="195" t="s">
         <v>0</v>
       </c>
       <c r="I13" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="J13" s="194">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K13" s="195" t="s">
         <v>0</v>
@@ -7399,88 +7384,88 @@
         <v>60</v>
       </c>
       <c r="M13" s="194">
-        <v>8</v>
-      </c>
-      <c r="N13" s="195">
-        <v>-8</v>
+        <v>15</v>
+      </c>
+      <c r="N13" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="O13" s="196" t="s">
         <v>60</v>
       </c>
       <c r="P13" s="194">
-        <v>8</v>
-      </c>
-      <c r="Q13" s="195">
-        <v>-8</v>
+        <v>14</v>
+      </c>
+      <c r="Q13" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="R13" s="196" t="s">
         <v>60</v>
       </c>
       <c r="S13" s="194">
-        <v>7</v>
-      </c>
-      <c r="T13" s="195">
-        <v>-7</v>
+        <v>10</v>
+      </c>
+      <c r="T13" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="U13" s="196" t="s">
         <v>60</v>
       </c>
       <c r="V13" s="194">
-        <v>3</v>
-      </c>
-      <c r="W13" s="195">
-        <v>-3</v>
+        <v>6</v>
+      </c>
+      <c r="W13" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="X13" s="196" t="s">
         <v>60</v>
       </c>
       <c r="Y13" s="194">
-        <v>3</v>
-      </c>
-      <c r="Z13" s="195">
-        <v>-3</v>
+        <v>5</v>
+      </c>
+      <c r="Z13" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AA13" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AB13" s="194">
-        <v>6</v>
-      </c>
-      <c r="AC13" s="195">
-        <v>-6</v>
+        <v>14</v>
+      </c>
+      <c r="AC13" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AD13" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AE13" s="194">
-        <v>4</v>
-      </c>
-      <c r="AF13" s="195">
-        <v>-4</v>
+        <v>12</v>
+      </c>
+      <c r="AF13" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AG13" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AH13" s="194">
-        <v>9</v>
-      </c>
-      <c r="AI13" s="195">
-        <v>-9</v>
+        <v>12</v>
+      </c>
+      <c r="AI13" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AJ13" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK13" s="194">
+        <v>5</v>
+      </c>
+      <c r="AL13" s="195">
+        <v>-5</v>
+      </c>
+      <c r="AM13" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="AK13" s="194">
-        <v>4</v>
-      </c>
-      <c r="AL13" s="195">
-        <v>-4</v>
-      </c>
-      <c r="AM13" s="196" t="s">
-        <v>88</v>
-      </c>
       <c r="AN13" s="194">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AO13" s="197" t="s">
         <v>0</v>
@@ -7489,22 +7474,22 @@
         <v>60</v>
       </c>
       <c r="AU13" s="194">
-        <v>4</v>
-      </c>
-      <c r="AV13" s="197">
-        <v>-4</v>
+        <v>14</v>
+      </c>
+      <c r="AV13" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AX13" s="4">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="AY13" s="4">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="AZ13" s="4">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="BA13" s="4">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="BB13" s="4">
         <v>10</v>
@@ -7513,10 +7498,10 @@
         <v>1</v>
       </c>
       <c r="BE13" s="76">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BF13" s="77" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BG13" s="78">
         <v>68</v>
@@ -7526,13 +7511,13 @@
         <v>10</v>
       </c>
       <c r="BJ13" s="80" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="BK13" s="81">
-        <v>80.333333333333329</v>
+        <v>80.428571428571431</v>
       </c>
       <c r="BL13" s="82">
-        <v>482</v>
+        <v>563</v>
       </c>
       <c r="BM13" s="172"/>
       <c r="BN13" s="79">
@@ -7542,10 +7527,10 @@
         <v>98</v>
       </c>
       <c r="BP13" s="83">
-        <v>-21</v>
+        <v>-24</v>
       </c>
       <c r="BQ13" s="84">
-        <v>-21</v>
+        <v>-24</v>
       </c>
       <c r="BR13" s="85" t="s">
         <v>0</v>
@@ -7566,105 +7551,105 @@
         <v>0</v>
       </c>
       <c r="BY13" s="12" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="190" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C14" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="191" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="E14" s="192" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F14" s="193" t="s">
         <v>60</v>
       </c>
       <c r="G14" s="194">
-        <v>15</v>
-      </c>
-      <c r="H14" s="195">
-        <v>-15</v>
+        <v>7</v>
+      </c>
+      <c r="H14" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="I14" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="J14" s="194">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="K14" s="195">
-        <v>-15</v>
+        <v>-8</v>
       </c>
       <c r="L14" s="196" t="s">
         <v>60</v>
       </c>
       <c r="M14" s="194">
-        <v>11</v>
-      </c>
-      <c r="N14" s="195">
-        <v>-11</v>
+        <v>8</v>
+      </c>
+      <c r="N14" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="O14" s="196" t="s">
         <v>60</v>
       </c>
       <c r="P14" s="194">
-        <v>11</v>
-      </c>
-      <c r="Q14" s="195">
-        <v>-11</v>
+        <v>7</v>
+      </c>
+      <c r="Q14" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="R14" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="S14" s="194">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T14" s="195">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="U14" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="V14" s="194">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="W14" s="195">
-        <v>-16</v>
+        <v>-7</v>
       </c>
       <c r="X14" s="196" t="s">
         <v>60</v>
       </c>
       <c r="Y14" s="194">
-        <v>14</v>
-      </c>
-      <c r="Z14" s="195">
-        <v>-14</v>
+        <v>8</v>
+      </c>
+      <c r="Z14" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AA14" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AB14" s="194">
-        <v>13</v>
-      </c>
-      <c r="AC14" s="195">
-        <v>-13</v>
+        <v>7</v>
+      </c>
+      <c r="AC14" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AD14" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AE14" s="194">
-        <v>13</v>
-      </c>
-      <c r="AF14" s="195">
-        <v>-13</v>
+        <v>5</v>
+      </c>
+      <c r="AF14" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AG14" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AH14" s="194">
         <v>4</v>
@@ -7676,40 +7661,40 @@
         <v>60</v>
       </c>
       <c r="AK14" s="194">
-        <v>2</v>
-      </c>
-      <c r="AL14" s="195">
-        <v>-2</v>
+        <v>7</v>
+      </c>
+      <c r="AL14" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AM14" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AN14" s="194">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AO14" s="197">
-        <v>-14</v>
+        <v>-8</v>
       </c>
       <c r="AT14" s="198" t="s">
         <v>60</v>
       </c>
       <c r="AU14" s="194">
-        <v>14</v>
-      </c>
-      <c r="AV14" s="197">
-        <v>-14</v>
+        <v>6</v>
+      </c>
+      <c r="AV14" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AX14" s="4">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="AY14" s="4">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="AZ14" s="4">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="BA14" s="4">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="BB14" s="4">
         <v>11</v>
@@ -7721,10 +7706,10 @@
         <v>11</v>
       </c>
       <c r="BF14" s="77" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="BG14" s="78">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="BH14" s="189"/>
       <c r="BI14" s="79">
@@ -7734,10 +7719,10 @@
         <v>100</v>
       </c>
       <c r="BK14" s="81">
-        <v>76.5</v>
+        <v>75.285714285714292</v>
       </c>
       <c r="BL14" s="82">
-        <v>459</v>
+        <v>527</v>
       </c>
       <c r="BM14" s="172"/>
       <c r="BN14" s="79">
@@ -7747,10 +7732,10 @@
         <v>100</v>
       </c>
       <c r="BP14" s="83">
-        <v>-21</v>
+        <v>-24</v>
       </c>
       <c r="BQ14" s="84">
-        <v>-21</v>
+        <v>-24</v>
       </c>
       <c r="BR14" s="85" t="s">
         <v>0</v>
@@ -7771,54 +7756,54 @@
         <v>0</v>
       </c>
       <c r="BY14" s="12" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:77" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="190" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="C15" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="191" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="E15" s="192" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F15" s="193" t="s">
         <v>60</v>
       </c>
       <c r="G15" s="194">
-        <v>6</v>
-      </c>
-      <c r="H15" s="195">
-        <v>-6</v>
+        <v>12</v>
+      </c>
+      <c r="H15" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="I15" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" s="194">
+        <v>12</v>
+      </c>
+      <c r="K15" s="195">
+        <v>-12</v>
+      </c>
+      <c r="L15" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="J15" s="194">
-        <v>6</v>
-      </c>
-      <c r="K15" s="195">
-        <v>-6</v>
-      </c>
-      <c r="L15" s="196" t="s">
-        <v>88</v>
-      </c>
       <c r="M15" s="194">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N15" s="195" t="s">
         <v>0</v>
       </c>
       <c r="O15" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="P15" s="194">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="195" t="s">
         <v>0</v>
@@ -7827,52 +7812,52 @@
         <v>60</v>
       </c>
       <c r="S15" s="194">
-        <v>8</v>
-      </c>
-      <c r="T15" s="195">
-        <v>-8</v>
+        <v>11</v>
+      </c>
+      <c r="T15" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="U15" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="V15" s="194">
+        <v>10</v>
+      </c>
+      <c r="W15" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="X15" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y15" s="194">
+        <v>15</v>
+      </c>
+      <c r="Z15" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="V15" s="194">
-        <v>2</v>
-      </c>
-      <c r="W15" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="X15" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y15" s="194">
-        <v>5</v>
-      </c>
-      <c r="Z15" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="196" t="s">
+      <c r="AB15" s="194">
+        <v>13</v>
+      </c>
+      <c r="AC15" s="195">
+        <v>-13</v>
+      </c>
+      <c r="AD15" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="AB15" s="194">
-        <v>5</v>
-      </c>
-      <c r="AC15" s="195">
-        <v>-5</v>
-      </c>
-      <c r="AD15" s="196" t="s">
-        <v>88</v>
-      </c>
       <c r="AE15" s="194">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AF15" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AG15" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AH15" s="194">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="AI15" s="195" t="s">
         <v>0</v>
@@ -7881,40 +7866,40 @@
         <v>88</v>
       </c>
       <c r="AK15" s="194">
-        <v>7</v>
-      </c>
-      <c r="AL15" s="195" t="s">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="AL15" s="195">
+        <v>-13</v>
       </c>
       <c r="AM15" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AN15" s="194">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO15" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AT15" s="198" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AU15" s="194">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AV15" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX15" s="4">
-        <v>-13</v>
+        <v>71</v>
       </c>
       <c r="AY15" s="4">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="AZ15" s="4">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="BA15" s="4">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="BB15" s="4">
         <v>12</v>
@@ -7926,10 +7911,10 @@
         <v>12</v>
       </c>
       <c r="BF15" s="90" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="BG15" s="91">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="BH15" s="189"/>
       <c r="BI15" s="92">
@@ -7939,10 +7924,10 @@
         <v>101</v>
       </c>
       <c r="BK15" s="94">
-        <v>75.833333333333329</v>
+        <v>74.714285714285708</v>
       </c>
       <c r="BL15" s="95">
-        <v>455</v>
+        <v>523</v>
       </c>
       <c r="BM15" s="172"/>
       <c r="BN15" s="92">
@@ -7952,10 +7937,10 @@
         <v>101</v>
       </c>
       <c r="BP15" s="96">
-        <v>-21</v>
+        <v>-24</v>
       </c>
       <c r="BQ15" s="97">
-        <v>-21</v>
+        <v>-24</v>
       </c>
       <c r="BR15" s="98" t="s">
         <v>0</v>
@@ -7976,150 +7961,100 @@
         <v>0</v>
       </c>
       <c r="BY15" s="12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:77" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B16" s="190" t="s">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="C16" s="191" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D16" s="191" t="s">
-        <v>115</v>
-      </c>
-      <c r="E16" s="192" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" s="193" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="194">
-        <v>13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E16" s="192"/>
+      <c r="F16" s="193"/>
+      <c r="G16" s="194"/>
       <c r="H16" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="I16" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="J16" s="194">
-        <v>14</v>
-      </c>
+      <c r="I16" s="196"/>
+      <c r="J16" s="194"/>
       <c r="K16" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="L16" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="M16" s="194">
-        <v>13</v>
-      </c>
+      <c r="L16" s="196"/>
+      <c r="M16" s="194"/>
       <c r="N16" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="O16" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="P16" s="194">
-        <v>12</v>
-      </c>
+      <c r="O16" s="196"/>
+      <c r="P16" s="194"/>
       <c r="Q16" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="R16" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="S16" s="194">
-        <v>15</v>
-      </c>
+      <c r="R16" s="196"/>
+      <c r="S16" s="194"/>
       <c r="T16" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="U16" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="V16" s="194">
-        <v>15</v>
-      </c>
+      <c r="U16" s="196"/>
+      <c r="V16" s="194"/>
       <c r="W16" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="X16" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y16" s="194">
-        <v>16</v>
-      </c>
-      <c r="Z16" s="195">
-        <v>-16</v>
-      </c>
-      <c r="AA16" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB16" s="194">
-        <v>7</v>
-      </c>
+      <c r="X16" s="196"/>
+      <c r="Y16" s="194"/>
+      <c r="Z16" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="196"/>
+      <c r="AB16" s="194"/>
       <c r="AC16" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="AD16" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE16" s="194">
-        <v>2</v>
-      </c>
-      <c r="AF16" s="195">
-        <v>-2</v>
-      </c>
-      <c r="AG16" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH16" s="194">
-        <v>6</v>
-      </c>
+      <c r="AD16" s="196"/>
+      <c r="AE16" s="194"/>
+      <c r="AF16" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="196"/>
+      <c r="AH16" s="194"/>
       <c r="AI16" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="AJ16" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK16" s="194">
-        <v>12</v>
-      </c>
+      <c r="AJ16" s="196"/>
+      <c r="AK16" s="194"/>
       <c r="AL16" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="AM16" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="AN16" s="194">
-        <v>10</v>
-      </c>
+      <c r="AM16" s="196"/>
+      <c r="AN16" s="194"/>
       <c r="AO16" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AT16" s="198" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU16" s="194">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="AU16" s="194" t="s">
+        <v>0</v>
       </c>
       <c r="AV16" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX16" s="4">
-        <v>-99</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="4">
-        <v>99</v>
+        <v>-0.1</v>
       </c>
       <c r="AZ16" s="4">
-        <v>99</v>
+        <v>-0.1</v>
       </c>
       <c r="BA16" s="4">
-        <v>99</v>
+        <v>-0.1</v>
       </c>
       <c r="BB16" s="4">
         <v>13</v>
@@ -8128,159 +8063,109 @@
         <v>1</v>
       </c>
       <c r="BY16" s="12" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="190" t="s">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="C17" s="191" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D17" s="191" t="s">
-        <v>117</v>
-      </c>
-      <c r="E17" s="192" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="193" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="194">
-        <v>11</v>
-      </c>
-      <c r="H17" s="195">
-        <v>-11</v>
-      </c>
-      <c r="I17" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="J17" s="194">
-        <v>2</v>
-      </c>
-      <c r="K17" s="195">
-        <v>-2</v>
-      </c>
-      <c r="L17" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="M17" s="194">
-        <v>6</v>
-      </c>
-      <c r="N17" s="195">
-        <v>-6</v>
-      </c>
-      <c r="O17" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="P17" s="194">
-        <v>13</v>
-      </c>
-      <c r="Q17" s="195">
-        <v>-13</v>
-      </c>
-      <c r="R17" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="S17" s="194">
-        <v>9</v>
-      </c>
-      <c r="T17" s="195">
-        <v>-9</v>
-      </c>
-      <c r="U17" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="V17" s="194">
-        <v>4</v>
-      </c>
-      <c r="W17" s="195">
-        <v>-4</v>
-      </c>
-      <c r="X17" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y17" s="194">
-        <v>10</v>
-      </c>
-      <c r="Z17" s="195">
-        <v>-10</v>
-      </c>
-      <c r="AA17" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB17" s="194">
-        <v>9</v>
-      </c>
-      <c r="AC17" s="195">
-        <v>-9</v>
-      </c>
-      <c r="AD17" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE17" s="194">
-        <v>10</v>
-      </c>
-      <c r="AF17" s="195">
-        <v>-10</v>
-      </c>
-      <c r="AG17" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH17" s="194">
-        <v>7</v>
-      </c>
-      <c r="AI17" s="195">
-        <v>-7</v>
-      </c>
-      <c r="AJ17" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK17" s="194">
-        <v>8</v>
-      </c>
-      <c r="AL17" s="195">
-        <v>-8</v>
-      </c>
-      <c r="AM17" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN17" s="194">
-        <v>2</v>
-      </c>
-      <c r="AO17" s="197">
-        <v>-2</v>
+        <v>0</v>
+      </c>
+      <c r="E17" s="192"/>
+      <c r="F17" s="193"/>
+      <c r="G17" s="194"/>
+      <c r="H17" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="196"/>
+      <c r="J17" s="194"/>
+      <c r="K17" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="L17" s="196"/>
+      <c r="M17" s="194"/>
+      <c r="N17" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="O17" s="196"/>
+      <c r="P17" s="194"/>
+      <c r="Q17" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="R17" s="196"/>
+      <c r="S17" s="194"/>
+      <c r="T17" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="U17" s="196"/>
+      <c r="V17" s="194"/>
+      <c r="W17" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="X17" s="196"/>
+      <c r="Y17" s="194"/>
+      <c r="Z17" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="196"/>
+      <c r="AB17" s="194"/>
+      <c r="AC17" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="196"/>
+      <c r="AE17" s="194"/>
+      <c r="AF17" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="196"/>
+      <c r="AH17" s="194"/>
+      <c r="AI17" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="196"/>
+      <c r="AK17" s="194"/>
+      <c r="AL17" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="196"/>
+      <c r="AN17" s="194"/>
+      <c r="AO17" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AT17" s="198" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU17" s="194">
-        <v>7</v>
-      </c>
-      <c r="AV17" s="197">
-        <v>-7</v>
+        <v>0</v>
+      </c>
+      <c r="AU17" s="194" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AX17" s="4">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="4">
-        <v>51</v>
+        <v>-0.1</v>
       </c>
       <c r="AZ17" s="4">
-        <v>51</v>
+        <v>-0.1</v>
       </c>
       <c r="BA17" s="4">
-        <v>51</v>
+        <v>-0.1</v>
       </c>
       <c r="BB17" s="4">
         <v>14</v>
       </c>
       <c r="BC17" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BY17" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8379,153 +8264,153 @@
         <v>15</v>
       </c>
       <c r="BC18" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BY18" s="12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="190" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="C19" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="191" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E19" s="192" t="s">
         <v>60</v>
       </c>
       <c r="F19" s="193" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="G19" s="194">
-        <v>9</v>
-      </c>
-      <c r="H19" s="195" t="s">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="H19" s="195">
+        <v>-15</v>
       </c>
       <c r="I19" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="J19" s="194">
-        <v>4</v>
-      </c>
-      <c r="K19" s="195" t="s">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="K19" s="195">
+        <v>-16</v>
       </c>
       <c r="L19" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="M19" s="194">
         <v>14</v>
       </c>
-      <c r="N19" s="195" t="s">
-        <v>0</v>
+      <c r="N19" s="195">
+        <v>-14</v>
       </c>
       <c r="O19" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="P19" s="194">
-        <v>14</v>
-      </c>
-      <c r="Q19" s="195" t="s">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="Q19" s="195">
+        <v>-12</v>
       </c>
       <c r="R19" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="S19" s="194">
         <v>16</v>
       </c>
-      <c r="T19" s="195" t="s">
-        <v>0</v>
+      <c r="T19" s="195">
+        <v>-16</v>
       </c>
       <c r="U19" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="V19" s="194">
         <v>8</v>
       </c>
-      <c r="W19" s="195" t="s">
-        <v>0</v>
+      <c r="W19" s="195">
+        <v>-8</v>
       </c>
       <c r="X19" s="196" t="s">
         <v>88</v>
       </c>
       <c r="Y19" s="194">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z19" s="195">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="AA19" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB19" s="194">
+        <v>16</v>
+      </c>
+      <c r="AC19" s="195">
+        <v>-16</v>
+      </c>
+      <c r="AD19" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE19" s="194">
+        <v>14</v>
+      </c>
+      <c r="AF19" s="195">
+        <v>-14</v>
+      </c>
+      <c r="AG19" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="AB19" s="194">
-        <v>12</v>
-      </c>
-      <c r="AC19" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE19" s="194">
+      <c r="AH19" s="194">
         <v>5</v>
       </c>
-      <c r="AF19" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="196" t="s">
+      <c r="AI19" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="AH19" s="194">
-        <v>10</v>
-      </c>
-      <c r="AI19" s="195">
-        <v>-10</v>
-      </c>
-      <c r="AJ19" s="196" t="s">
-        <v>60</v>
-      </c>
       <c r="AK19" s="194">
+        <v>15</v>
+      </c>
+      <c r="AL19" s="195">
+        <v>-15</v>
+      </c>
+      <c r="AM19" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN19" s="194">
         <v>13</v>
       </c>
-      <c r="AL19" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM19" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN19" s="194">
-        <v>5</v>
-      </c>
-      <c r="AO19" s="197" t="s">
-        <v>0</v>
+      <c r="AO19" s="197">
+        <v>-13</v>
       </c>
       <c r="AT19" s="198" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AU19" s="194">
-        <v>9</v>
-      </c>
-      <c r="AV19" s="197" t="s">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="AV19" s="197">
+        <v>-16</v>
       </c>
       <c r="AX19" s="4">
-        <v>82</v>
+        <v>-143</v>
       </c>
       <c r="AY19" s="4">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="AZ19" s="4">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="BA19" s="4">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="BB19" s="4">
         <v>16</v>
@@ -8534,7 +8419,7 @@
         <v>1</v>
       </c>
       <c r="BY19" s="12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8542,90 +8427,90 @@
       <c r="C20" s="103"/>
       <c r="D20" s="103"/>
       <c r="E20" s="199" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F20" s="104" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G20" s="105">
         <v>37</v>
       </c>
       <c r="H20" s="122"/>
       <c r="I20" s="106" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J20" s="105">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K20" s="122"/>
       <c r="L20" s="106" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="M20" s="105">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N20" s="122"/>
       <c r="O20" s="106" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="P20" s="105">
         <v>42</v>
       </c>
       <c r="Q20" s="122"/>
       <c r="R20" s="106" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="S20" s="105">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T20" s="122"/>
       <c r="U20" s="106" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="V20" s="105">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="W20" s="122"/>
       <c r="X20" s="106" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="Y20" s="105">
         <v>38</v>
       </c>
       <c r="Z20" s="122"/>
       <c r="AA20" s="106" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AB20" s="105">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="AC20" s="122"/>
       <c r="AD20" s="106" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AE20" s="105">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AF20" s="122"/>
       <c r="AG20" s="106" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AH20" s="105">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="AI20" s="122"/>
       <c r="AJ20" s="106" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AK20" s="105">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AL20" s="122"/>
       <c r="AM20" s="106" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AN20" s="105">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="AO20" s="123"/>
       <c r="AT20" s="107"/>
@@ -8642,7 +8527,7 @@
       <c r="BM20" s="13"/>
       <c r="BN20" s="13"/>
       <c r="BY20" s="12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:77" s="13" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8651,91 +8536,91 @@
       <c r="C21" s="201"/>
       <c r="D21" s="201"/>
       <c r="E21" s="202" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F21" s="203"/>
       <c r="G21" s="204">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H21" s="205">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="I21" s="206"/>
       <c r="J21" s="204">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K21" s="205">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="L21" s="206"/>
       <c r="M21" s="204">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N21" s="205">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O21" s="206"/>
       <c r="P21" s="204">
         <v>3</v>
       </c>
       <c r="Q21" s="205">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="R21" s="206"/>
       <c r="S21" s="204">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T21" s="205">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="U21" s="206"/>
       <c r="V21" s="204">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="W21" s="205">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="X21" s="206"/>
       <c r="Y21" s="204">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="Z21" s="205">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="AA21" s="206"/>
       <c r="AB21" s="204">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AC21" s="205">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="AD21" s="206"/>
       <c r="AE21" s="204">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AF21" s="205">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="AG21" s="206"/>
       <c r="AH21" s="204">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI21" s="205">
         <v>68</v>
       </c>
       <c r="AJ21" s="206"/>
       <c r="AK21" s="204">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AL21" s="205">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="AM21" s="206"/>
       <c r="AN21" s="204">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO21" s="207">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="AP21" s="3"/>
       <c r="AT21" s="208"/>
@@ -8743,7 +8628,7 @@
         <v>6</v>
       </c>
       <c r="AV21" s="210">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AW21" s="3"/>
       <c r="AX21" s="14"/>
@@ -8767,7 +8652,7 @@
       <c r="BV21" s="6"/>
       <c r="BW21" s="6"/>
       <c r="BY21" s="12" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:77" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8780,87 +8665,87 @@
       </c>
       <c r="F22" s="127"/>
       <c r="G22" s="128">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H22" s="129">
-        <v>80.333333333333329</v>
+        <v>81.857142857142861</v>
       </c>
       <c r="I22" s="130"/>
       <c r="J22" s="128">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K22" s="129">
-        <v>86.333333333333329</v>
+        <v>84.285714285714292</v>
       </c>
       <c r="L22" s="130"/>
       <c r="M22" s="128">
         <v>4</v>
       </c>
       <c r="N22" s="129">
-        <v>86.666666666666671</v>
+        <v>87.571428571428569</v>
       </c>
       <c r="O22" s="130"/>
       <c r="P22" s="128">
         <v>5</v>
       </c>
       <c r="Q22" s="129">
-        <v>86.333333333333329</v>
+        <v>87.285714285714292</v>
       </c>
       <c r="R22" s="130"/>
       <c r="S22" s="128">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T22" s="129">
-        <v>83.5</v>
+        <v>83.571428571428569</v>
       </c>
       <c r="U22" s="130"/>
       <c r="V22" s="128">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W22" s="129">
-        <v>80.833333333333329</v>
+        <v>80.428571428571431</v>
       </c>
       <c r="X22" s="130"/>
       <c r="Y22" s="128">
         <v>1</v>
       </c>
       <c r="Z22" s="129">
-        <v>94.666666666666671</v>
+        <v>95</v>
       </c>
       <c r="AA22" s="130"/>
       <c r="AB22" s="128">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC22" s="129">
-        <v>85.5</v>
+        <v>82.571428571428569</v>
       </c>
       <c r="AD22" s="130"/>
       <c r="AE22" s="128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF22" s="129">
-        <v>90.166666666666671</v>
+        <v>91.857142857142861</v>
       </c>
       <c r="AG22" s="130"/>
       <c r="AH22" s="128">
         <v>11</v>
       </c>
       <c r="AI22" s="129">
-        <v>76.5</v>
+        <v>75.285714285714292</v>
       </c>
       <c r="AJ22" s="130"/>
       <c r="AK22" s="128">
         <v>12</v>
       </c>
       <c r="AL22" s="129">
-        <v>75.833333333333329</v>
+        <v>74.714285714285708</v>
       </c>
       <c r="AM22" s="130"/>
       <c r="AN22" s="128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO22" s="131">
-        <v>91.5</v>
+        <v>88.571428571428569</v>
       </c>
       <c r="AP22" s="3"/>
       <c r="AU22" s="14"/>
@@ -8885,7 +8770,7 @@
       <c r="BV22" s="6"/>
       <c r="BW22" s="6"/>
       <c r="BY22" s="12" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:77" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8899,62 +8784,62 @@
       <c r="F23" s="135"/>
       <c r="G23" s="136"/>
       <c r="H23" s="137">
-        <v>482</v>
+        <v>573</v>
       </c>
       <c r="I23" s="138"/>
       <c r="J23" s="136"/>
       <c r="K23" s="137">
-        <v>518</v>
+        <v>590</v>
       </c>
       <c r="L23" s="138"/>
       <c r="M23" s="136"/>
       <c r="N23" s="137">
-        <v>520</v>
+        <v>613</v>
       </c>
       <c r="O23" s="138"/>
       <c r="P23" s="136"/>
       <c r="Q23" s="137">
-        <v>518</v>
+        <v>611</v>
       </c>
       <c r="R23" s="138"/>
       <c r="S23" s="136"/>
       <c r="T23" s="137">
-        <v>501</v>
+        <v>585</v>
       </c>
       <c r="U23" s="138"/>
       <c r="V23" s="136"/>
       <c r="W23" s="137">
-        <v>485</v>
+        <v>563</v>
       </c>
       <c r="X23" s="138"/>
       <c r="Y23" s="136"/>
       <c r="Z23" s="137">
-        <v>568</v>
+        <v>665</v>
       </c>
       <c r="AA23" s="138"/>
       <c r="AB23" s="136"/>
       <c r="AC23" s="137">
-        <v>513</v>
+        <v>578</v>
       </c>
       <c r="AD23" s="138"/>
       <c r="AE23" s="136"/>
       <c r="AF23" s="137">
-        <v>541</v>
+        <v>643</v>
       </c>
       <c r="AG23" s="138"/>
       <c r="AH23" s="136"/>
       <c r="AI23" s="137">
-        <v>459</v>
+        <v>527</v>
       </c>
       <c r="AJ23" s="138"/>
       <c r="AK23" s="136"/>
       <c r="AL23" s="137">
-        <v>455</v>
+        <v>523</v>
       </c>
       <c r="AM23" s="138"/>
       <c r="AN23" s="136"/>
       <c r="AO23" s="139">
-        <v>549</v>
+        <v>620</v>
       </c>
       <c r="AP23" s="3"/>
       <c r="AU23" s="14"/>
@@ -8969,7 +8854,7 @@
       <c r="BV23" s="6"/>
       <c r="BW23" s="6"/>
       <c r="BY23" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:77" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8988,7 +8873,7 @@
       <c r="I24" s="138"/>
       <c r="J24" s="136"/>
       <c r="K24" s="137">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="L24" s="138"/>
       <c r="M24" s="136"/>
@@ -9018,7 +8903,7 @@
       <c r="AA24" s="138"/>
       <c r="AB24" s="136"/>
       <c r="AC24" s="137">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AD24" s="138"/>
       <c r="AE24" s="136"/>
@@ -9052,7 +8937,7 @@
       <c r="BV24" s="6"/>
       <c r="BW24" s="6"/>
       <c r="BY24" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:77" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9065,87 +8950,87 @@
       </c>
       <c r="F25" s="135"/>
       <c r="G25" s="140">
-        <v>0.53333333333333333</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="H25" s="137">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I25" s="138"/>
       <c r="J25" s="140">
-        <v>0.6</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="K25" s="137">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L25" s="138"/>
       <c r="M25" s="140">
-        <v>0.6</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="N25" s="137">
         <v>9</v>
       </c>
       <c r="O25" s="138"/>
       <c r="P25" s="140">
-        <v>0.6</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="Q25" s="137">
         <v>9</v>
       </c>
       <c r="R25" s="138"/>
       <c r="S25" s="140">
-        <v>0.4</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="T25" s="137">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U25" s="138"/>
       <c r="V25" s="140">
-        <v>0.4</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="W25" s="137">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X25" s="138"/>
       <c r="Y25" s="140">
-        <v>0.33333333333333331</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="Z25" s="137">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AA25" s="138"/>
       <c r="AB25" s="140">
-        <v>0.6</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="AC25" s="137">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AD25" s="138"/>
       <c r="AE25" s="140">
-        <v>0.53333333333333333</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="AF25" s="137">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AG25" s="138"/>
       <c r="AH25" s="140">
-        <v>0.46666666666666667</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="AI25" s="137">
         <v>7</v>
       </c>
       <c r="AJ25" s="138"/>
       <c r="AK25" s="140">
-        <v>0.53333333333333333</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="AL25" s="137">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AM25" s="138"/>
       <c r="AN25" s="140">
-        <v>0.53333333333333333</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="AO25" s="139">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP25" s="3"/>
       <c r="AW25" s="3"/>
@@ -9159,7 +9044,7 @@
       <c r="BV25" s="6"/>
       <c r="BW25" s="6"/>
       <c r="BY25" s="12" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:77" s="13" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9172,87 +9057,87 @@
       </c>
       <c r="F26" s="144"/>
       <c r="G26" s="145">
-        <v>0.44859813084112149</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="H26" s="146">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="I26" s="147"/>
       <c r="J26" s="145">
-        <v>0.57943925233644855</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="K26" s="146">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L26" s="147"/>
       <c r="M26" s="145">
-        <v>0.48598130841121495</v>
+        <v>0.5083333333333333</v>
       </c>
       <c r="N26" s="146">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="O26" s="147"/>
       <c r="P26" s="145">
-        <v>0.60747663551401865</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="Q26" s="146">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="R26" s="147"/>
       <c r="S26" s="145">
-        <v>0.54205607476635509</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="T26" s="146">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="U26" s="147"/>
       <c r="V26" s="145">
-        <v>0.52336448598130836</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="W26" s="146">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="X26" s="147"/>
       <c r="Y26" s="145">
-        <v>0.61682242990654201</v>
+        <v>0.625</v>
       </c>
       <c r="Z26" s="146">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="AA26" s="147"/>
       <c r="AB26" s="145">
-        <v>0.55140186915887845</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="AC26" s="146">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="AD26" s="147"/>
       <c r="AE26" s="145">
-        <v>0.58878504672897192</v>
+        <v>0.60833333333333328</v>
       </c>
       <c r="AF26" s="146">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="AG26" s="147"/>
       <c r="AH26" s="145">
-        <v>0.44859813084112149</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="AI26" s="146">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AJ26" s="147"/>
       <c r="AK26" s="145">
-        <v>0.40186915887850466</v>
+        <v>0.40833333333333333</v>
       </c>
       <c r="AL26" s="146">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="AM26" s="147"/>
       <c r="AN26" s="145">
-        <v>0.59813084112149528</v>
+        <v>0.59166666666666667</v>
       </c>
       <c r="AO26" s="148">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="AP26" s="3"/>
       <c r="AW26" s="3"/>
@@ -9276,7 +9161,7 @@
       <c r="BV26" s="6"/>
       <c r="BW26" s="6"/>
       <c r="BY26" s="12" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:77" s="7" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9300,7 +9185,7 @@
         <v>68</v>
       </c>
       <c r="P27" s="153">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="Q27" s="150"/>
       <c r="R27" s="150"/>
@@ -9313,7 +9198,7 @@
         <v>69</v>
       </c>
       <c r="Y27" s="154">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Z27" s="150"/>
       <c r="AA27" s="152"/>
@@ -9326,7 +9211,7 @@
         <v>70</v>
       </c>
       <c r="AH27" s="154">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AI27" s="150"/>
       <c r="AJ27" s="152"/>
@@ -9335,7 +9220,7 @@
       <c r="AM27" s="150"/>
       <c r="AN27" s="150"/>
       <c r="AO27" s="155" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AP27" s="3"/>
       <c r="AW27" s="3"/>
@@ -9349,7 +9234,7 @@
       <c r="BV27" s="6"/>
       <c r="BW27" s="6"/>
       <c r="BY27" s="12" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:77" s="7" customFormat="1" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -9406,7 +9291,7 @@
       <c r="BV28" s="6"/>
       <c r="BW28" s="6"/>
       <c r="BY28" s="12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:77" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -9415,7 +9300,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="17"/>
@@ -9467,7 +9352,7 @@
       <c r="BV29" s="6"/>
       <c r="BW29" s="6"/>
       <c r="BY29" s="12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:77" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -9524,7 +9409,7 @@
       <c r="BV30" s="6"/>
       <c r="BW30" s="6"/>
       <c r="BY30" s="12" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:77" s="7" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9536,7 +9421,7 @@
         <v>71</v>
       </c>
       <c r="F31" s="23">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G31" s="18"/>
       <c r="H31" s="17"/>
@@ -9603,47 +9488,47 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="25">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H32" s="26"/>
       <c r="I32" s="26"/>
       <c r="J32" s="25">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K32" s="26"/>
       <c r="L32" s="26"/>
       <c r="M32" s="25">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="P32" s="25">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="S32" s="25">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="V32" s="25">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="Y32" s="25">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="AB32" s="25">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="AE32" s="25">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="AH32" s="25">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="AK32" s="25">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="AN32" s="25">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="AU32" s="25">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="BY32" s="12"/>
     </row>
@@ -9675,47 +9560,47 @@
       <c r="F34" s="26"/>
       <c r="G34" s="25"/>
       <c r="H34" s="26">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="I34" s="26"/>
       <c r="J34" s="26"/>
       <c r="K34" s="26">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="L34" s="26"/>
       <c r="M34" s="26"/>
       <c r="N34" s="26">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q34" s="26">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="T34" s="26">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="W34" s="26">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="Z34" s="26">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="AC34" s="26">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="AF34" s="26">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="AI34" s="26">
         <v>68</v>
       </c>
       <c r="AL34" s="26">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="AO34" s="26">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="AV34" s="26">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="BY34" s="12"/>
     </row>
@@ -9725,44 +9610,44 @@
       <c r="F35" s="3"/>
       <c r="G35" s="27"/>
       <c r="H35" s="28">
-        <v>80.333333333333329</v>
+        <v>81.857142857142861</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="28">
-        <v>86.333333333333329</v>
+        <v>84.285714285714292</v>
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="28">
-        <v>86.666666666666671</v>
+        <v>87.571428571428569</v>
       </c>
       <c r="Q35" s="28">
-        <v>86.333333333333329</v>
+        <v>87.285714285714292</v>
       </c>
       <c r="T35" s="28">
-        <v>83.5</v>
+        <v>83.571428571428569</v>
       </c>
       <c r="W35" s="28">
-        <v>80.833333333333329</v>
+        <v>80.428571428571431</v>
       </c>
       <c r="Z35" s="28">
-        <v>94.666666666666671</v>
+        <v>95</v>
       </c>
       <c r="AC35" s="28">
-        <v>85.5</v>
+        <v>82.571428571428569</v>
       </c>
       <c r="AF35" s="28">
-        <v>90.166666666666671</v>
+        <v>91.857142857142861</v>
       </c>
       <c r="AI35" s="28">
-        <v>76.5</v>
+        <v>75.285714285714292</v>
       </c>
       <c r="AL35" s="28">
-        <v>75.833333333333329</v>
+        <v>74.714285714285708</v>
       </c>
       <c r="AO35" s="28">
-        <v>91.5</v>
+        <v>88.571428571428569</v>
       </c>
       <c r="BY35" s="12"/>
     </row>
@@ -9772,44 +9657,44 @@
       <c r="F36" s="3"/>
       <c r="G36" s="27"/>
       <c r="H36" s="28">
-        <v>482</v>
+        <v>573</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="28">
-        <v>518</v>
+        <v>590</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="28">
-        <v>520</v>
+        <v>613</v>
       </c>
       <c r="Q36" s="28">
-        <v>518</v>
+        <v>611</v>
       </c>
       <c r="T36" s="28">
-        <v>501</v>
+        <v>585</v>
       </c>
       <c r="W36" s="28">
-        <v>485</v>
+        <v>563</v>
       </c>
       <c r="Z36" s="28">
-        <v>568</v>
+        <v>665</v>
       </c>
       <c r="AC36" s="28">
-        <v>513</v>
+        <v>578</v>
       </c>
       <c r="AF36" s="28">
-        <v>541</v>
+        <v>643</v>
       </c>
       <c r="AI36" s="28">
-        <v>459</v>
+        <v>527</v>
       </c>
       <c r="AL36" s="28">
-        <v>455</v>
+        <v>523</v>
       </c>
       <c r="AO36" s="28">
-        <v>549</v>
+        <v>620</v>
       </c>
       <c r="BY36" s="12"/>
     </row>
@@ -9824,7 +9709,7 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="28">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
@@ -9844,7 +9729,7 @@
         <v>43</v>
       </c>
       <c r="AC37" s="28">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AF37" s="28">
         <v>63</v>
@@ -9866,12 +9751,12 @@
       <c r="F38" s="3"/>
       <c r="G38" s="27"/>
       <c r="H38" s="28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="28">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
@@ -9882,28 +9767,28 @@
         <v>9</v>
       </c>
       <c r="T38" s="28">
+        <v>8</v>
+      </c>
+      <c r="W38" s="28">
+        <v>7</v>
+      </c>
+      <c r="Z38" s="28">
+        <v>9</v>
+      </c>
+      <c r="AC38" s="28">
         <v>6</v>
       </c>
-      <c r="W38" s="28">
-        <v>6</v>
-      </c>
-      <c r="Z38" s="28">
-        <v>5</v>
-      </c>
-      <c r="AC38" s="28">
-        <v>9</v>
-      </c>
       <c r="AF38" s="28">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI38" s="28">
         <v>7</v>
       </c>
       <c r="AL38" s="28">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AO38" s="28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BY38" s="12"/>
     </row>
@@ -9913,44 +9798,44 @@
       <c r="F39" s="3"/>
       <c r="G39" s="27"/>
       <c r="H39" s="28">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="28">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="28">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="Q39" s="28">
+        <v>74</v>
+      </c>
+      <c r="T39" s="28">
+        <v>66</v>
+      </c>
+      <c r="W39" s="28">
+        <v>63</v>
+      </c>
+      <c r="Z39" s="28">
+        <v>75</v>
+      </c>
+      <c r="AC39" s="28">
         <v>65</v>
       </c>
-      <c r="T39" s="28">
-        <v>58</v>
-      </c>
-      <c r="W39" s="28">
-        <v>56</v>
-      </c>
-      <c r="Z39" s="28">
-        <v>66</v>
-      </c>
-      <c r="AC39" s="28">
-        <v>59</v>
-      </c>
       <c r="AF39" s="28">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="AI39" s="28">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AL39" s="28">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="AO39" s="28">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="BY39" s="12"/>
     </row>
@@ -9959,12 +9844,12 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="27">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H40" s="28"/>
       <c r="I40" s="3"/>
       <c r="J40" s="27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K40" s="28"/>
       <c r="L40" s="3"/>
@@ -9977,11 +9862,11 @@
       </c>
       <c r="Q40" s="28"/>
       <c r="S40" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T40" s="28"/>
       <c r="V40" s="27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W40" s="28"/>
       <c r="Y40" s="27">
@@ -9989,11 +9874,11 @@
       </c>
       <c r="Z40" s="28"/>
       <c r="AB40" s="27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC40" s="28"/>
       <c r="AE40" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF40" s="28"/>
       <c r="AH40" s="27">
@@ -10005,7 +9890,7 @@
       </c>
       <c r="AL40" s="28"/>
       <c r="AN40" s="27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO40" s="28"/>
       <c r="AR40" s="29">
@@ -10021,44 +9906,44 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="27">
-        <v>0.53333333333333333</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="27">
-        <v>0.6</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="27">
-        <v>0.6</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="P41" s="27">
-        <v>0.6</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="S41" s="27">
-        <v>0.4</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="V41" s="27">
-        <v>0.4</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="Y41" s="27">
-        <v>0.33333333333333331</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="AB41" s="27">
-        <v>0.6</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="AE41" s="27">
-        <v>0.53333333333333333</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="AH41" s="27">
-        <v>0.46666666666666667</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="AK41" s="27">
-        <v>0.53333333333333333</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="AN41" s="27">
-        <v>0.53333333333333333</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="AR41" s="29">
         <v>1</v>
@@ -10073,44 +9958,44 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="27">
-        <v>0.44859813084112149</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="27">
-        <v>0.57943925233644855</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="27">
-        <v>0.48598130841121495</v>
+        <v>0.5083333333333333</v>
       </c>
       <c r="P42" s="27">
-        <v>0.60747663551401865</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="S42" s="27">
-        <v>0.54205607476635509</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="V42" s="27">
-        <v>0.52336448598130836</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="Y42" s="27">
-        <v>0.61682242990654201</v>
+        <v>0.625</v>
       </c>
       <c r="AB42" s="27">
-        <v>0.55140186915887845</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="AE42" s="27">
-        <v>0.58878504672897192</v>
+        <v>0.60833333333333328</v>
       </c>
       <c r="AH42" s="27">
-        <v>0.44859813084112149</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="AK42" s="27">
-        <v>0.40186915887850466</v>
+        <v>0.40833333333333333</v>
       </c>
       <c r="AN42" s="27">
-        <v>0.59813084112149528</v>
+        <v>0.59166666666666667</v>
       </c>
       <c r="BY42" s="12"/>
     </row>
@@ -10148,7 +10033,7 @@
         <v>76</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="BY45" s="12"/>
     </row>
@@ -10157,9 +10042,7 @@
       <c r="F46" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="G46" s="25">
-        <v>36</v>
-      </c>
+      <c r="G46" s="25"/>
       <c r="H46" s="26"/>
       <c r="I46" s="26"/>
       <c r="J46" s="26"/>
@@ -10173,8 +10056,8 @@
       <c r="F47" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G47" s="25">
-        <v>92</v>
+      <c r="G47" s="25" t="s">
+        <v>0</v>
       </c>
       <c r="H47" s="26"/>
       <c r="I47" s="26"/>
@@ -10189,8 +10072,8 @@
       <c r="F48" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="G48" s="25">
-        <v>2</v>
+      <c r="G48" s="25" t="s">
+        <v>0</v>
       </c>
       <c r="H48" s="26"/>
       <c r="I48" s="26"/>
@@ -10206,7 +10089,7 @@
         <v>80</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="H49" s="26"/>
       <c r="I49" s="26"/>
@@ -10285,7 +10168,7 @@
         <v>0</v>
       </c>
       <c r="AK52" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN52" s="25">
         <v>0</v>
@@ -10308,8 +10191,8 @@
       </c>
       <c r="K53" s="25"/>
       <c r="L53" s="25"/>
-      <c r="M53" s="25">
-        <v>4.25</v>
+      <c r="M53" s="25" t="s">
+        <v>0</v>
       </c>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
@@ -10348,8 +10231,8 @@
       </c>
       <c r="AI53" s="5"/>
       <c r="AJ53" s="5"/>
-      <c r="AK53" s="25">
-        <v>8.25</v>
+      <c r="AK53" s="25" t="s">
+        <v>0</v>
       </c>
       <c r="AL53" s="5"/>
       <c r="AM53" s="5"/>
@@ -10371,7 +10254,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="5" t="s">
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="P54" s="5" t="s">
         <v>0</v>
@@ -10395,7 +10278,7 @@
         <v>0</v>
       </c>
       <c r="AK54" s="5" t="s">
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="AN54" s="5" t="s">
         <v>0</v>
@@ -10414,8 +10297,8 @@
       <c r="J55" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="M55" s="5">
-        <v>1</v>
+      <c r="M55" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="P55" s="5" t="s">
         <v>0</v>
@@ -10438,8 +10321,8 @@
       <c r="AH55" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="AK55" s="5">
-        <v>2</v>
+      <c r="AK55" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="AN55" s="5" t="s">
         <v>0</v>
@@ -10459,7 +10342,7 @@
         <v>0</v>
       </c>
       <c r="M56" s="5" t="s">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="P56" s="5" t="s">
         <v>0</v>
@@ -10483,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="AK56" s="5" t="s">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AN56" s="5" t="s">
         <v>0</v>
@@ -12185,60 +12068,60 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="5.375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.25" style="4" customWidth="1"/>
-    <col min="4" max="4" width="5.875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="5.125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="5.25" style="4" customWidth="1"/>
-    <col min="7" max="7" width="6.125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="5.25" style="4" customWidth="1"/>
-    <col min="10" max="10" width="6.125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="5.125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="5.25" style="4" customWidth="1"/>
-    <col min="13" max="13" width="6.125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="5.125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="5.25" style="4" customWidth="1"/>
-    <col min="16" max="16" width="6.125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="5.125" style="4" customWidth="1"/>
-    <col min="18" max="18" width="5.25" style="4" customWidth="1"/>
-    <col min="19" max="19" width="6.125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="5.125" style="4" customWidth="1"/>
-    <col min="21" max="21" width="5.25" style="4" customWidth="1"/>
-    <col min="22" max="22" width="6.125" style="4" customWidth="1"/>
-    <col min="23" max="23" width="5.125" style="4" customWidth="1"/>
-    <col min="24" max="24" width="5.25" style="4" customWidth="1"/>
-    <col min="25" max="25" width="6.125" style="4" customWidth="1"/>
-    <col min="26" max="26" width="5.125" style="4" customWidth="1"/>
-    <col min="27" max="27" width="5.25" style="4" customWidth="1"/>
-    <col min="28" max="28" width="6.125" style="4" customWidth="1"/>
-    <col min="29" max="29" width="5.125" style="4" customWidth="1"/>
-    <col min="30" max="30" width="5.25" style="4" customWidth="1"/>
-    <col min="31" max="31" width="6.125" style="4" customWidth="1"/>
-    <col min="32" max="32" width="5.125" style="4" customWidth="1"/>
-    <col min="33" max="33" width="5.25" style="4" customWidth="1"/>
-    <col min="34" max="34" width="6.125" style="4" customWidth="1"/>
-    <col min="35" max="35" width="5.125" style="4" customWidth="1"/>
-    <col min="36" max="36" width="5.25" style="4" customWidth="1"/>
-    <col min="37" max="37" width="6.125" style="4" customWidth="1"/>
-    <col min="38" max="38" width="5.125" style="4" customWidth="1"/>
-    <col min="39" max="39" width="5.25" style="4" customWidth="1"/>
-    <col min="40" max="40" width="6.125" style="4" customWidth="1"/>
-    <col min="41" max="41" width="7.625" style="37" customWidth="1"/>
-    <col min="42" max="42" width="7.625" style="38" customWidth="1"/>
-    <col min="43" max="43" width="7.625" style="37" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="44.375" style="38" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="4.125" style="4" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="7.625" style="6" customWidth="1"/>
-    <col min="47" max="48" width="9.375" style="6" customWidth="1"/>
-    <col min="49" max="54" width="5" style="6" customWidth="1"/>
-    <col min="55" max="55" width="9.375" style="6" customWidth="1"/>
-    <col min="56" max="61" width="5" style="6" customWidth="1"/>
-    <col min="62" max="62" width="4.125" style="3" customWidth="1"/>
-    <col min="63" max="98" width="4.125" style="3" hidden="1" customWidth="1"/>
-    <col min="99" max="99" width="4.125" style="3" customWidth="1"/>
-    <col min="100" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="1.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="6" style="4" customWidth="1"/>
+    <col min="7" max="7" width="7" style="4" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="6" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7" style="4" customWidth="1"/>
+    <col min="11" max="11" width="5.85546875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="6" style="4" customWidth="1"/>
+    <col min="13" max="13" width="7" style="4" customWidth="1"/>
+    <col min="14" max="14" width="5.85546875" style="4" customWidth="1"/>
+    <col min="15" max="15" width="6" style="4" customWidth="1"/>
+    <col min="16" max="16" width="7" style="4" customWidth="1"/>
+    <col min="17" max="17" width="5.85546875" style="4" customWidth="1"/>
+    <col min="18" max="18" width="6" style="4" customWidth="1"/>
+    <col min="19" max="19" width="7" style="4" customWidth="1"/>
+    <col min="20" max="20" width="5.85546875" style="4" customWidth="1"/>
+    <col min="21" max="21" width="6" style="4" customWidth="1"/>
+    <col min="22" max="22" width="7" style="4" customWidth="1"/>
+    <col min="23" max="23" width="5.85546875" style="4" customWidth="1"/>
+    <col min="24" max="24" width="6" style="4" customWidth="1"/>
+    <col min="25" max="25" width="7" style="4" customWidth="1"/>
+    <col min="26" max="26" width="5.85546875" style="4" customWidth="1"/>
+    <col min="27" max="27" width="6" style="4" customWidth="1"/>
+    <col min="28" max="28" width="7" style="4" customWidth="1"/>
+    <col min="29" max="29" width="5.85546875" style="4" customWidth="1"/>
+    <col min="30" max="30" width="6" style="4" customWidth="1"/>
+    <col min="31" max="31" width="7" style="4" customWidth="1"/>
+    <col min="32" max="32" width="5.85546875" style="4" customWidth="1"/>
+    <col min="33" max="33" width="6" style="4" customWidth="1"/>
+    <col min="34" max="34" width="7" style="4" customWidth="1"/>
+    <col min="35" max="35" width="5.85546875" style="4" customWidth="1"/>
+    <col min="36" max="36" width="6" style="4" customWidth="1"/>
+    <col min="37" max="37" width="7" style="4" customWidth="1"/>
+    <col min="38" max="38" width="5.85546875" style="4" customWidth="1"/>
+    <col min="39" max="39" width="6" style="4" customWidth="1"/>
+    <col min="40" max="40" width="7" style="4" customWidth="1"/>
+    <col min="41" max="41" width="8.7109375" style="37" customWidth="1"/>
+    <col min="42" max="42" width="8.7109375" style="38" customWidth="1"/>
+    <col min="43" max="43" width="8.7109375" style="37" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="50.7109375" style="38" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="4.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="8.7109375" style="6" customWidth="1"/>
+    <col min="47" max="48" width="10.7109375" style="6" customWidth="1"/>
+    <col min="49" max="54" width="5.7109375" style="6" customWidth="1"/>
+    <col min="55" max="55" width="10.7109375" style="6" customWidth="1"/>
+    <col min="56" max="61" width="5.7109375" style="6" customWidth="1"/>
+    <col min="62" max="62" width="4.7109375" style="3" customWidth="1"/>
+    <col min="63" max="98" width="4.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="99" max="99" width="4.7109375" style="3" customWidth="1"/>
+    <col min="100" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:99" s="166" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12262,7 +12145,7 @@
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
       <c r="U1" s="168" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
@@ -12307,52 +12190,52 @@
     </row>
     <row r="2" spans="2:99" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="307" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C2" s="308" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D2" s="309"/>
       <c r="E2" s="156" t="s">
         <v>91</v>
       </c>
       <c r="F2" s="115">
-        <v>-21</v>
+        <v>-24</v>
       </c>
       <c r="G2" s="157"/>
       <c r="H2" s="156" t="s">
         <v>92</v>
       </c>
       <c r="I2" s="115">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J2" s="157"/>
       <c r="K2" s="156" t="s">
         <v>93</v>
       </c>
       <c r="L2" s="115">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M2" s="157"/>
       <c r="N2" s="156" t="s">
         <v>94</v>
       </c>
       <c r="O2" s="115">
-        <v>-21</v>
+        <v>-24</v>
       </c>
       <c r="P2" s="157"/>
       <c r="Q2" s="156" t="s">
         <v>95</v>
       </c>
       <c r="R2" s="115">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S2" s="157"/>
       <c r="T2" s="156" t="s">
         <v>96</v>
       </c>
       <c r="U2" s="115">
-        <v>-21</v>
+        <v>-24</v>
       </c>
       <c r="V2" s="157"/>
       <c r="W2" s="156" t="s">
@@ -12366,35 +12249,35 @@
         <v>98</v>
       </c>
       <c r="AA2" s="115">
-        <v>-21</v>
+        <v>-24</v>
       </c>
       <c r="AB2" s="157"/>
       <c r="AC2" s="156" t="s">
         <v>99</v>
       </c>
       <c r="AD2" s="115">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="AE2" s="157"/>
       <c r="AF2" s="156" t="s">
         <v>100</v>
       </c>
       <c r="AG2" s="115">
-        <v>-21</v>
+        <v>-24</v>
       </c>
       <c r="AH2" s="157"/>
       <c r="AI2" s="156" t="s">
         <v>101</v>
       </c>
       <c r="AJ2" s="115">
-        <v>-21</v>
+        <v>-24</v>
       </c>
       <c r="AK2" s="157"/>
       <c r="AL2" s="156" t="s">
         <v>102</v>
       </c>
       <c r="AM2" s="115">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="AN2" s="158"/>
       <c r="AO2" s="211">
@@ -12404,7 +12287,7 @@
         <v>8</v>
       </c>
       <c r="AQ2" s="39">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR2" s="40" t="s">
         <v>9</v>
@@ -12536,7 +12419,7 @@
         <v>14</v>
       </c>
       <c r="AQ3" s="41">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR3" s="40" t="s">
         <v>15</v>
@@ -13749,7 +13632,7 @@
       </c>
       <c r="AQ9" s="45"/>
       <c r="AR9" s="47" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="AS9" s="4">
         <v>15</v>
@@ -13961,11 +13844,11 @@
       </c>
       <c r="AO10" s="45"/>
       <c r="AP10" s="226" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="AQ10" s="45"/>
       <c r="AR10" s="47" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AS10" s="4">
         <v>15</v>
@@ -14064,122 +13947,122 @@
       <c r="C11" s="191">
         <v>13</v>
       </c>
-      <c r="D11" s="222" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="193" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="K11" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="L11" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="M11" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="N11" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="O11" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="P11" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="R11" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="S11" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="T11" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="U11" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="V11" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="W11" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="X11" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="225" t="s">
-        <v>0</v>
+      <c r="D11" s="222">
+        <v>13</v>
+      </c>
+      <c r="E11" s="193">
+        <v>5</v>
+      </c>
+      <c r="F11" s="223">
+        <v>9</v>
+      </c>
+      <c r="G11" s="224">
+        <v>91</v>
+      </c>
+      <c r="H11" s="196">
+        <v>12</v>
+      </c>
+      <c r="I11" s="223">
+        <v>6</v>
+      </c>
+      <c r="J11" s="224">
+        <v>56</v>
+      </c>
+      <c r="K11" s="196">
+        <v>3</v>
+      </c>
+      <c r="L11" s="223">
+        <v>9</v>
+      </c>
+      <c r="M11" s="224">
+        <v>93</v>
+      </c>
+      <c r="N11" s="196">
+        <v>3</v>
+      </c>
+      <c r="O11" s="223">
+        <v>9</v>
+      </c>
+      <c r="P11" s="224">
+        <v>93</v>
+      </c>
+      <c r="Q11" s="196">
+        <v>6</v>
+      </c>
+      <c r="R11" s="223">
+        <v>8</v>
+      </c>
+      <c r="S11" s="224">
+        <v>84</v>
+      </c>
+      <c r="T11" s="196">
+        <v>7</v>
+      </c>
+      <c r="U11" s="223">
+        <v>7</v>
+      </c>
+      <c r="V11" s="224">
+        <v>78</v>
+      </c>
+      <c r="W11" s="196">
+        <v>2</v>
+      </c>
+      <c r="X11" s="223">
+        <v>9</v>
+      </c>
+      <c r="Y11" s="224">
+        <v>97</v>
+      </c>
+      <c r="Z11" s="196">
+        <v>11</v>
+      </c>
+      <c r="AA11" s="223">
+        <v>6</v>
+      </c>
+      <c r="AB11" s="224">
+        <v>62</v>
+      </c>
+      <c r="AC11" s="196">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="223">
+        <v>10</v>
+      </c>
+      <c r="AE11" s="224">
+        <v>102</v>
+      </c>
+      <c r="AF11" s="196">
+        <v>9</v>
+      </c>
+      <c r="AG11" s="223">
+        <v>7</v>
+      </c>
+      <c r="AH11" s="224">
+        <v>68</v>
+      </c>
+      <c r="AI11" s="196">
+        <v>9</v>
+      </c>
+      <c r="AJ11" s="223">
+        <v>6</v>
+      </c>
+      <c r="AK11" s="224">
+        <v>68</v>
+      </c>
+      <c r="AL11" s="196">
+        <v>8</v>
+      </c>
+      <c r="AM11" s="223">
+        <v>7</v>
+      </c>
+      <c r="AN11" s="225">
+        <v>71</v>
       </c>
       <c r="AO11" s="45"/>
       <c r="AP11" s="46"/>
       <c r="AQ11" s="45"/>
       <c r="AR11" s="47" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="AS11" s="4">
         <v>13</v>
@@ -14189,85 +14072,85 @@
         <v>0</v>
       </c>
       <c r="BL11" s="4"/>
-      <c r="BM11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN11" s="4" t="s">
-        <v>0</v>
+      <c r="BM11" s="4">
+        <v>91</v>
+      </c>
+      <c r="BN11" s="4">
+        <v>1</v>
       </c>
       <c r="BO11" s="4"/>
-      <c r="BP11" s="4" t="s">
-        <v>0</v>
+      <c r="BP11" s="4">
+        <v>56</v>
       </c>
       <c r="BQ11" s="4" t="s">
         <v>0</v>
       </c>
       <c r="BR11" s="4"/>
-      <c r="BS11" s="4" t="s">
-        <v>0</v>
+      <c r="BS11" s="4">
+        <v>93</v>
       </c>
       <c r="BT11" s="4" t="s">
         <v>0</v>
       </c>
       <c r="BU11" s="4"/>
-      <c r="BV11" s="4" t="s">
-        <v>0</v>
+      <c r="BV11" s="4">
+        <v>93</v>
       </c>
       <c r="BW11" s="4" t="s">
         <v>0</v>
       </c>
       <c r="BX11" s="4"/>
-      <c r="BY11" s="4" t="s">
-        <v>0</v>
+      <c r="BY11" s="4">
+        <v>84</v>
       </c>
       <c r="BZ11" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CA11" s="4"/>
-      <c r="CB11" s="4" t="s">
-        <v>0</v>
+      <c r="CB11" s="4">
+        <v>78</v>
       </c>
       <c r="CC11" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CD11" s="4"/>
-      <c r="CE11" s="4" t="s">
-        <v>0</v>
+      <c r="CE11" s="4">
+        <v>97</v>
       </c>
       <c r="CF11" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CG11" s="4"/>
-      <c r="CH11" s="4" t="s">
-        <v>0</v>
+      <c r="CH11" s="4">
+        <v>62</v>
       </c>
       <c r="CI11" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CJ11" s="4"/>
-      <c r="CK11" s="4" t="s">
-        <v>0</v>
+      <c r="CK11" s="4">
+        <v>102</v>
       </c>
       <c r="CL11" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CM11" s="4"/>
-      <c r="CN11" s="4" t="s">
-        <v>0</v>
+      <c r="CN11" s="4">
+        <v>68</v>
       </c>
       <c r="CO11" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CP11" s="4"/>
-      <c r="CQ11" s="4" t="s">
-        <v>0</v>
+      <c r="CQ11" s="4">
+        <v>68</v>
       </c>
       <c r="CR11" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CS11" s="4"/>
-      <c r="CT11" s="4" t="s">
-        <v>0</v>
+      <c r="CT11" s="4">
+        <v>71</v>
       </c>
       <c r="CU11" s="4"/>
     </row>
@@ -14393,7 +14276,7 @@
       <c r="AP12" s="46"/>
       <c r="AQ12" s="45"/>
       <c r="AR12" s="47" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="AS12" s="4">
         <v>13</v>
@@ -16187,115 +16070,115 @@
         <v>22</v>
       </c>
       <c r="D21" s="237">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="E21" s="238">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" s="239">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G21" s="240">
-        <v>482</v>
+        <v>573</v>
       </c>
       <c r="H21" s="241">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I21" s="239">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="J21" s="240">
-        <v>518</v>
+        <v>590</v>
       </c>
       <c r="K21" s="241">
         <v>4</v>
       </c>
       <c r="L21" s="239">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="M21" s="240">
-        <v>520</v>
+        <v>613</v>
       </c>
       <c r="N21" s="241">
         <v>5</v>
       </c>
       <c r="O21" s="239">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="P21" s="240">
-        <v>518</v>
+        <v>611</v>
       </c>
       <c r="Q21" s="241">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R21" s="239">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="S21" s="240">
-        <v>501</v>
+        <v>585</v>
       </c>
       <c r="T21" s="241">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U21" s="239">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="V21" s="240">
-        <v>485</v>
+        <v>563</v>
       </c>
       <c r="W21" s="241">
         <v>1</v>
       </c>
       <c r="X21" s="239">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="Y21" s="240">
-        <v>568</v>
+        <v>665</v>
       </c>
       <c r="Z21" s="241">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA21" s="239">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="AB21" s="240">
-        <v>513</v>
+        <v>578</v>
       </c>
       <c r="AC21" s="241">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD21" s="239">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="AE21" s="240">
-        <v>541</v>
+        <v>643</v>
       </c>
       <c r="AF21" s="241">
         <v>11</v>
       </c>
       <c r="AG21" s="239">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AH21" s="240">
-        <v>459</v>
+        <v>527</v>
       </c>
       <c r="AI21" s="241">
         <v>12</v>
       </c>
       <c r="AJ21" s="239">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="AK21" s="240">
-        <v>455</v>
+        <v>523</v>
       </c>
       <c r="AL21" s="241">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM21" s="239">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="AN21" s="242">
-        <v>549</v>
+        <v>620</v>
       </c>
       <c r="AO21" s="48"/>
       <c r="AP21" s="49"/>
@@ -16306,62 +16189,62 @@
       <c r="BK21" s="4"/>
       <c r="BL21" s="4"/>
       <c r="BM21" s="4">
-        <v>482</v>
+        <v>573</v>
       </c>
       <c r="BN21" s="4"/>
       <c r="BO21" s="4"/>
       <c r="BP21" s="4">
-        <v>518</v>
+        <v>590</v>
       </c>
       <c r="BQ21" s="4"/>
       <c r="BR21" s="4"/>
       <c r="BS21" s="4">
-        <v>520</v>
+        <v>613</v>
       </c>
       <c r="BT21" s="4"/>
       <c r="BU21" s="4"/>
       <c r="BV21" s="4">
-        <v>518</v>
+        <v>611</v>
       </c>
       <c r="BW21" s="4"/>
       <c r="BX21" s="4"/>
       <c r="BY21" s="4">
-        <v>501</v>
+        <v>585</v>
       </c>
       <c r="BZ21" s="4"/>
       <c r="CA21" s="4"/>
       <c r="CB21" s="4">
-        <v>485</v>
+        <v>563</v>
       </c>
       <c r="CC21" s="4"/>
       <c r="CD21" s="4"/>
       <c r="CE21" s="4">
-        <v>568</v>
+        <v>665</v>
       </c>
       <c r="CF21" s="4"/>
       <c r="CG21" s="4"/>
       <c r="CH21" s="4">
-        <v>513</v>
+        <v>578</v>
       </c>
       <c r="CI21" s="4"/>
       <c r="CJ21" s="4"/>
       <c r="CK21" s="4">
-        <v>541</v>
+        <v>643</v>
       </c>
       <c r="CL21" s="4"/>
       <c r="CM21" s="4"/>
       <c r="CN21" s="4">
-        <v>459</v>
+        <v>527</v>
       </c>
       <c r="CO21" s="4"/>
       <c r="CP21" s="4"/>
       <c r="CQ21" s="4">
-        <v>455</v>
+        <v>523</v>
       </c>
       <c r="CR21" s="4"/>
       <c r="CS21" s="4"/>
       <c r="CT21" s="4">
-        <v>549</v>
+        <v>620</v>
       </c>
       <c r="CU21" s="4"/>
     </row>
@@ -16372,112 +16255,112 @@
         <v>23</v>
       </c>
       <c r="E22" s="246">
-        <v>6.833333333333333</v>
+        <v>6.5714285714285712</v>
       </c>
       <c r="F22" s="247">
-        <v>6.8571428571428568</v>
+        <v>7.125</v>
       </c>
       <c r="G22" s="248">
-        <v>80.333333333333329</v>
+        <v>81.857142857142861</v>
       </c>
       <c r="H22" s="249">
-        <v>5.8571428571428568</v>
+        <v>6.625</v>
       </c>
       <c r="I22" s="247">
-        <v>8.8571428571428577</v>
+        <v>8.5</v>
       </c>
       <c r="J22" s="248">
-        <v>86.333333333333329</v>
+        <v>84.285714285714292</v>
       </c>
       <c r="K22" s="249">
-        <v>4.166666666666667</v>
+        <v>4</v>
       </c>
       <c r="L22" s="247">
+        <v>7.625</v>
+      </c>
+      <c r="M22" s="248">
+        <v>87.571428571428569</v>
+      </c>
+      <c r="N22" s="249">
+        <v>5.25</v>
+      </c>
+      <c r="O22" s="247">
+        <v>9.25</v>
+      </c>
+      <c r="P22" s="248">
+        <v>87.285714285714292</v>
+      </c>
+      <c r="Q22" s="249">
+        <v>7.125</v>
+      </c>
+      <c r="R22" s="247">
+        <v>8.25</v>
+      </c>
+      <c r="S22" s="248">
+        <v>83.571428571428569</v>
+      </c>
+      <c r="T22" s="249">
+        <v>8</v>
+      </c>
+      <c r="U22" s="247">
+        <v>7.875</v>
+      </c>
+      <c r="V22" s="248">
+        <v>80.428571428571431</v>
+      </c>
+      <c r="W22" s="249">
+        <v>3.375</v>
+      </c>
+      <c r="X22" s="247">
+        <v>9.375</v>
+      </c>
+      <c r="Y22" s="248">
+        <v>95</v>
+      </c>
+      <c r="Z22" s="249">
+        <v>7.125</v>
+      </c>
+      <c r="AA22" s="247">
+        <v>8.125</v>
+      </c>
+      <c r="AB22" s="248">
+        <v>82.571428571428569</v>
+      </c>
+      <c r="AC22" s="249">
+        <v>4.75</v>
+      </c>
+      <c r="AD22" s="247">
+        <v>9.125</v>
+      </c>
+      <c r="AE22" s="248">
+        <v>91.857142857142861</v>
+      </c>
+      <c r="AF22" s="249">
+        <v>7.7142857142857144</v>
+      </c>
+      <c r="AG22" s="247">
+        <v>6.875</v>
+      </c>
+      <c r="AH22" s="248">
+        <v>75.285714285714292</v>
+      </c>
+      <c r="AI22" s="249">
         <v>7.4285714285714288</v>
       </c>
-      <c r="M22" s="248">
-        <v>86.666666666666671</v>
-      </c>
-      <c r="N22" s="249">
-        <v>5.5714285714285712</v>
-      </c>
-      <c r="O22" s="247">
-        <v>9.2857142857142865</v>
-      </c>
-      <c r="P22" s="248">
-        <v>86.333333333333329</v>
-      </c>
-      <c r="Q22" s="249">
-        <v>7.2857142857142856</v>
-      </c>
-      <c r="R22" s="247">
-        <v>8.2857142857142865</v>
-      </c>
-      <c r="S22" s="248">
-        <v>83.5</v>
-      </c>
-      <c r="T22" s="249">
-        <v>8.1428571428571423</v>
-      </c>
-      <c r="U22" s="247">
-        <v>8</v>
-      </c>
-      <c r="V22" s="248">
-        <v>80.833333333333329</v>
-      </c>
-      <c r="W22" s="249">
-        <v>3.5714285714285716</v>
-      </c>
-      <c r="X22" s="247">
-        <v>9.4285714285714288</v>
-      </c>
-      <c r="Y22" s="248">
-        <v>94.666666666666671</v>
-      </c>
-      <c r="Z22" s="249">
-        <v>6.5714285714285712</v>
-      </c>
-      <c r="AA22" s="247">
-        <v>8.4285714285714288</v>
-      </c>
-      <c r="AB22" s="248">
-        <v>85.5</v>
-      </c>
-      <c r="AC22" s="249">
-        <v>5.2857142857142856</v>
-      </c>
-      <c r="AD22" s="247">
-        <v>9</v>
-      </c>
-      <c r="AE22" s="248">
-        <v>90.166666666666671</v>
-      </c>
-      <c r="AF22" s="249">
-        <v>7.5</v>
-      </c>
-      <c r="AG22" s="247">
-        <v>6.8571428571428568</v>
-      </c>
-      <c r="AH22" s="248">
-        <v>76.5</v>
-      </c>
-      <c r="AI22" s="249">
-        <v>7.166666666666667</v>
-      </c>
       <c r="AJ22" s="247">
-        <v>6.1428571428571432</v>
+        <v>6.125</v>
       </c>
       <c r="AK22" s="248">
-        <v>75.833333333333329</v>
+        <v>74.714285714285708</v>
       </c>
       <c r="AL22" s="249">
-        <v>5.7142857142857144</v>
+        <v>6</v>
       </c>
       <c r="AM22" s="247">
-        <v>9.1428571428571423</v>
+        <v>8.875</v>
       </c>
       <c r="AN22" s="250">
-        <v>91.5</v>
+        <v>88.571428571428569</v>
       </c>
       <c r="AO22" s="48"/>
       <c r="AP22" s="49"/>
@@ -16570,7 +16453,7 @@
       <c r="AA23" s="255"/>
       <c r="AB23" s="256"/>
       <c r="AC23" s="257">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD23" s="255"/>
       <c r="AE23" s="256"/>
@@ -16670,7 +16553,7 @@
       <c r="U24" s="108"/>
       <c r="V24" s="109"/>
       <c r="W24" s="75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X24" s="108"/>
       <c r="Y24" s="109"/>
@@ -16783,13 +16666,13 @@
       </c>
       <c r="I25" s="108"/>
       <c r="J25" s="109"/>
-      <c r="K25" s="75" t="s">
-        <v>0</v>
+      <c r="K25" s="75">
+        <v>1</v>
       </c>
       <c r="L25" s="108"/>
       <c r="M25" s="109"/>
       <c r="N25" s="75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O25" s="108"/>
       <c r="P25" s="109"/>
@@ -16912,8 +16795,8 @@
       </c>
       <c r="F26" s="108"/>
       <c r="G26" s="109"/>
-      <c r="H26" s="75" t="s">
-        <v>0</v>
+      <c r="H26" s="75">
+        <v>1</v>
       </c>
       <c r="I26" s="108"/>
       <c r="J26" s="109"/>
@@ -17235,7 +17118,7 @@
     </row>
     <row r="29" spans="2:99" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AT29" s="300" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AU29" s="310"/>
       <c r="AV29" s="310"/>
@@ -17440,63 +17323,63 @@
       <c r="BI31" s="325"/>
       <c r="BJ31" s="4"/>
       <c r="BK31" s="4"/>
-      <c r="BL31" s="4" t="s">
-        <v>0</v>
+      <c r="BL31" s="4">
+        <v>9</v>
       </c>
       <c r="BM31" s="4"/>
       <c r="BN31" s="4"/>
-      <c r="BO31" s="4" t="s">
-        <v>0</v>
+      <c r="BO31" s="4">
+        <v>6</v>
       </c>
       <c r="BP31" s="4"/>
       <c r="BQ31" s="4"/>
-      <c r="BR31" s="4" t="s">
-        <v>0</v>
+      <c r="BR31" s="4">
+        <v>9</v>
       </c>
       <c r="BS31" s="4"/>
       <c r="BT31" s="4"/>
-      <c r="BU31" s="4" t="s">
-        <v>0</v>
+      <c r="BU31" s="4">
+        <v>9</v>
       </c>
       <c r="BV31" s="4"/>
       <c r="BW31" s="4"/>
-      <c r="BX31" s="4" t="s">
-        <v>0</v>
+      <c r="BX31" s="4">
+        <v>8</v>
       </c>
       <c r="BY31" s="4"/>
       <c r="BZ31" s="4"/>
-      <c r="CA31" s="4" t="s">
-        <v>0</v>
+      <c r="CA31" s="4">
+        <v>7</v>
       </c>
       <c r="CB31" s="4"/>
       <c r="CC31" s="4"/>
-      <c r="CD31" s="4" t="s">
-        <v>0</v>
+      <c r="CD31" s="4">
+        <v>9</v>
       </c>
       <c r="CE31" s="4"/>
       <c r="CF31" s="4"/>
-      <c r="CG31" s="4" t="s">
-        <v>0</v>
+      <c r="CG31" s="4">
+        <v>6</v>
       </c>
       <c r="CH31" s="4"/>
       <c r="CI31" s="4"/>
-      <c r="CJ31" s="4" t="s">
-        <v>0</v>
+      <c r="CJ31" s="4">
+        <v>10</v>
       </c>
       <c r="CK31" s="4"/>
       <c r="CL31" s="4"/>
-      <c r="CM31" s="4" t="s">
-        <v>0</v>
+      <c r="CM31" s="4">
+        <v>7</v>
       </c>
       <c r="CN31" s="4"/>
       <c r="CO31" s="4"/>
-      <c r="CP31" s="4" t="s">
-        <v>0</v>
+      <c r="CP31" s="4">
+        <v>6</v>
       </c>
       <c r="CQ31" s="4"/>
       <c r="CR31" s="4"/>
-      <c r="CS31" s="4" t="s">
-        <v>0</v>
+      <c r="CS31" s="4">
+        <v>7</v>
       </c>
       <c r="CT31" s="4"/>
       <c r="CU31" s="4"/>
@@ -17589,7 +17472,7 @@
         <v>62</v>
       </c>
       <c r="AV33" s="273">
-        <v>-21</v>
+        <v>-24</v>
       </c>
       <c r="AW33" s="274">
         <v>2</v>
@@ -17601,7 +17484,7 @@
         <v>61</v>
       </c>
       <c r="AZ33" s="275">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="BA33" s="277" t="s">
         <v>0</v>
@@ -17681,19 +17564,19 @@
     </row>
     <row r="34" spans="46:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AT34" s="271" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AU34" s="280">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="AV34" s="281">
-        <v>-21</v>
+        <v>-24</v>
       </c>
       <c r="AW34" s="282">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX34" s="283">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="AY34" s="284" t="s">
         <v>0</v>
@@ -17705,7 +17588,7 @@
         <v>61</v>
       </c>
       <c r="BB34" s="286">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BC34" s="287"/>
       <c r="BD34" s="282"/>
@@ -17782,10 +17665,10 @@
         <v>92</v>
       </c>
       <c r="AU35" s="280">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AV35" s="281">
-        <v>-21</v>
+        <v>-24</v>
       </c>
       <c r="AW35" s="282">
         <v>1</v>
@@ -17880,10 +17763,10 @@
         <v>93</v>
       </c>
       <c r="AU36" s="280">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AV36" s="281">
-        <v>-21</v>
+        <v>-24</v>
       </c>
       <c r="AW36" s="282">
         <v>1</v>
@@ -17978,10 +17861,10 @@
         <v>95</v>
       </c>
       <c r="AU37" s="280">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AV37" s="281">
-        <v>-21</v>
+        <v>-24</v>
       </c>
       <c r="AW37" s="282">
         <v>1</v>
@@ -18073,13 +17956,13 @@
     </row>
     <row r="38" spans="46:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AT38" s="271" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AU38" s="280">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AV38" s="281">
-        <v>-21</v>
+        <v>-24</v>
       </c>
       <c r="AW38" s="282">
         <v>1</v>
@@ -18174,10 +18057,10 @@
         <v>91</v>
       </c>
       <c r="AU39" s="280">
-        <v>-21</v>
+        <v>-24</v>
       </c>
       <c r="AV39" s="281">
-        <v>-21</v>
+        <v>-24</v>
       </c>
       <c r="AW39" s="282" t="s">
         <v>0</v>
@@ -18272,10 +18155,10 @@
         <v>94</v>
       </c>
       <c r="AU40" s="280">
-        <v>-21</v>
+        <v>-24</v>
       </c>
       <c r="AV40" s="281">
-        <v>-21</v>
+        <v>-24</v>
       </c>
       <c r="AW40" s="282" t="s">
         <v>0</v>
@@ -18370,10 +18253,10 @@
         <v>96</v>
       </c>
       <c r="AU41" s="280">
-        <v>-21</v>
+        <v>-24</v>
       </c>
       <c r="AV41" s="281">
-        <v>-21</v>
+        <v>-24</v>
       </c>
       <c r="AW41" s="282" t="s">
         <v>0</v>
@@ -18403,62 +18286,62 @@
       <c r="BJ41" s="4"/>
       <c r="BK41" s="4"/>
       <c r="BL41" s="4">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="BM41" s="4"/>
       <c r="BN41" s="4"/>
       <c r="BO41" s="4">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="BP41" s="4"/>
       <c r="BQ41" s="4"/>
       <c r="BR41" s="4">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="BS41" s="4"/>
       <c r="BT41" s="4"/>
       <c r="BU41" s="4">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="BV41" s="4"/>
       <c r="BW41" s="4"/>
       <c r="BX41" s="4">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="BY41" s="4"/>
       <c r="BZ41" s="4"/>
       <c r="CA41" s="4">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="CB41" s="4"/>
       <c r="CC41" s="4"/>
       <c r="CD41" s="4">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="CE41" s="4"/>
       <c r="CF41" s="4"/>
       <c r="CG41" s="4">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="CH41" s="4"/>
       <c r="CI41" s="4"/>
       <c r="CJ41" s="4">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="CK41" s="4"/>
       <c r="CL41" s="4"/>
       <c r="CM41" s="4">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="CN41" s="4"/>
       <c r="CO41" s="4"/>
       <c r="CP41" s="4">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="CQ41" s="4"/>
       <c r="CR41" s="4"/>
       <c r="CS41" s="4">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="CT41" s="4"/>
       <c r="CU41" s="4"/>
@@ -18468,10 +18351,10 @@
         <v>98</v>
       </c>
       <c r="AU42" s="280">
-        <v>-21</v>
+        <v>-24</v>
       </c>
       <c r="AV42" s="281">
-        <v>-21</v>
+        <v>-24</v>
       </c>
       <c r="AW42" s="282" t="s">
         <v>0</v>
@@ -18500,62 +18383,62 @@
       <c r="BI42" s="286"/>
       <c r="BJ42" s="50"/>
       <c r="BK42" s="50">
-        <v>6.833333333333333</v>
+        <v>6.5714285714285712</v>
       </c>
       <c r="BL42" s="50"/>
       <c r="BM42" s="50"/>
       <c r="BN42" s="50">
-        <v>5.8571428571428568</v>
+        <v>6.625</v>
       </c>
       <c r="BO42" s="50"/>
       <c r="BP42" s="50"/>
       <c r="BQ42" s="50">
-        <v>4.166666666666667</v>
+        <v>4</v>
       </c>
       <c r="BR42" s="50"/>
       <c r="BS42" s="50"/>
       <c r="BT42" s="50">
-        <v>5.5714285714285712</v>
+        <v>5.25</v>
       </c>
       <c r="BU42" s="50"/>
       <c r="BV42" s="50"/>
       <c r="BW42" s="50">
-        <v>7.2857142857142856</v>
+        <v>7.125</v>
       </c>
       <c r="BX42" s="50"/>
       <c r="BY42" s="50"/>
       <c r="BZ42" s="50">
-        <v>8.1428571428571423</v>
+        <v>8</v>
       </c>
       <c r="CA42" s="50"/>
       <c r="CB42" s="50"/>
       <c r="CC42" s="50">
-        <v>3.5714285714285716</v>
+        <v>3.375</v>
       </c>
       <c r="CD42" s="50"/>
       <c r="CE42" s="50"/>
       <c r="CF42" s="50">
-        <v>6.5714285714285712</v>
+        <v>7.125</v>
       </c>
       <c r="CG42" s="50"/>
       <c r="CH42" s="50"/>
       <c r="CI42" s="50">
-        <v>5.2857142857142856</v>
+        <v>4.75</v>
       </c>
       <c r="CJ42" s="50"/>
       <c r="CK42" s="50"/>
       <c r="CL42" s="50">
-        <v>7.5</v>
+        <v>7.7142857142857144</v>
       </c>
       <c r="CM42" s="50"/>
       <c r="CN42" s="50"/>
       <c r="CO42" s="50">
-        <v>7.166666666666667</v>
+        <v>7.4285714285714288</v>
       </c>
       <c r="CP42" s="50"/>
       <c r="CQ42" s="50"/>
       <c r="CR42" s="50">
-        <v>5.7142857142857144</v>
+        <v>6</v>
       </c>
       <c r="CS42" s="50"/>
       <c r="CT42" s="50"/>
@@ -18566,10 +18449,10 @@
         <v>100</v>
       </c>
       <c r="AU43" s="280">
-        <v>-21</v>
+        <v>-24</v>
       </c>
       <c r="AV43" s="281">
-        <v>-21</v>
+        <v>-24</v>
       </c>
       <c r="AW43" s="282" t="s">
         <v>0</v>
@@ -18602,10 +18485,10 @@
         <v>101</v>
       </c>
       <c r="AU44" s="289">
-        <v>-21</v>
+        <v>-24</v>
       </c>
       <c r="AV44" s="290">
-        <v>-21</v>
+        <v>-24</v>
       </c>
       <c r="AW44" s="291" t="s">
         <v>0</v>

--- a/regular_season_final.xlsx
+++ b/regular_season_final.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="172">
   <si>
     <t/>
   </si>
@@ -350,21 +350,6 @@
     <t>Lions</t>
   </si>
   <si>
-    <t>Texans</t>
-  </si>
-  <si>
-    <t>Patriots</t>
-  </si>
-  <si>
-    <t>Bengals</t>
-  </si>
-  <si>
-    <t>Redskins</t>
-  </si>
-  <si>
-    <t>Cardinals</t>
-  </si>
-  <si>
     <t>Colts</t>
   </si>
   <si>
@@ -378,9 +363,6 @@
   </si>
   <si>
     <t>Chargers</t>
-  </si>
-  <si>
-    <t>Bears</t>
   </si>
   <si>
     <t>2016 Season Summary</t>
@@ -428,115 +410,136 @@
     <t>Buccaneers</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Week 8 Scores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w8_p1_picks         = ["H","H","H","V","V","H","V","V","H","H","H","H","V"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w8_p2_picks         = ["H","H","V","V","V","H","H","H","H","H","V","V","V"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w8_p3_picks         = ["H","H","H","V","V","V","V","V","V","H","H","H","V"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w8_p4_picks         = ["H","H","V","V","V","H","V","H","H","H","H","H","V"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w8_p5_picks         = ["H","H","V","V","V","V","V","H","V","H","V","H","V"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w8_p6_picks         = ["V","V","H","V","V","V","V","V","V","H","V","H","V"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w8_p7_picks         = ["H","H","H","H","V","V","V","H","V","H","H","H","V"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w8_p8_picks         = ["H","H","H","V","H","V","H","V","V","H","H","V","V"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w8_p9_picks         = ["H","H","H","H","V","H","V","H","V","H","H","H","V"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w8_p10_picks        = ["V","V","V","V","H","V","V","V","V","H","H","H","H"];</t>
-  </si>
-  <si>
     <t>Panthers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w8_p11_picks        = ["H","H","V","V","V","H","V","V","H","V","H","V","V"];</t>
   </si>
   <si>
     <t>Cowboys</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w8_p12_picks        = ["H","H","V","V","V","V","V","V","V","H","V","H","V"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w8_p1_weights       = ["11","14","9","16","13","5","8","6","4","10","7","12","15"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w8_p2_weights       = ["4","7","14","15","13","10","11","5","6","9","8","12","16"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w8_p3_weights       = ["12","10","9","16","11","6","5","7","4","15","8","13","14"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w8_p4_weights       = ["11","10","6","16","8","15","5","4","9","14","7","13","12"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w8_p5_weights       = ["14","12","8","13","15","4","5","9","7","10","6","11","16"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w8_p6_weights       = ["5","4","9","16","14","13","12","15","11","6","7","10","8"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w8_p7_weights       = ["10","7","14","4","12","13","16","11","6","5","8","15","9"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w8_p8_weights       = ["11","12","9","15","4","5","8","10","6","14","7","13","16"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w8_p9_weights       = ["11","10","9","4","16","8","6","7","13","12","5","15","14"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w8_p10_weights      = ["13","6","14","7","11","10","9","8","15","12","4","16","5"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w8_p11_weights      = ["11","10","9","14","12","8","16","6","4","5","7","13","15"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w8_p12_weights      = ["10","12","11","16","5","6","14","9","7","15","8","4","13"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w8_winners          = ["H","Tie","H","V","V","H","V","H","V","H","H","H","H"];</t>
-  </si>
-  <si>
-    <t>Ravens, Rams, Dolphins, Giants, Steelers, 49ers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w8_mn_points        = ["37","42","41","42","40","52","38","44","37","52","38","38"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w8_actual_mn_points = 0;</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Week 8 Final</t>
+    <t>9</t>
   </si>
   <si>
-    <t>'Week 8'!$B$2</t>
+    <t>Week 9 Scores</t>
   </si>
   <si>
-    <t>'Week 8'!$C$2</t>
+    <t xml:space="preserve">   var w9_p1_picks         = ["V","H","V","H","H","H","H","V","V","H","H","V","H"];</t>
   </si>
   <si>
-    <t>'Week 8'!$D$2</t>
+    <t>Steelers</t>
+  </si>
+  <si>
+    <t>Ravens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w9_p2_picks         = ["V","V","V","H","V","H","H","V","V","H","H","H","H"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w9_p3_picks         = ["V","V","V","H","V","H","V","V","V","H","H","H","H"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w9_p4_picks         = ["H","H","V","H","H","H","H","V","V","H","H","V","H"];</t>
+  </si>
+  <si>
+    <t>Dolphins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w9_p5_picks         = ["V","H","V","H","H","H","V","V","V","H","H","H","H"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w9_p6_picks         = [];</t>
+  </si>
+  <si>
+    <t>Giants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w9_p7_picks         = ["V","V","V","H","H","H","V","H","V","H","H","V","V"];</t>
+  </si>
+  <si>
+    <t>Rams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w9_p8_picks         = ["H","V","V","H","H","H","V","H","V","H","V","H","V"];</t>
+  </si>
+  <si>
+    <t>49ers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w9_p9_picks         = ["V","V","V","H","H","V","H","V","V","H","H","H","H"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w9_p10_picks        = ["V","H","H","V","V","H","H","V","V","H","H","H","H"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w9_p11_picks        = ["V","H","V","H","H","H","V","H","V","H","H","V","H"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w9_p12_picks        = ["V","V","V","H","H","H","V","V","V","H","H","H","H"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w9_p1_weights       = ["9","5","15","16","10","12","4","7","8","14","11","6","13"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w9_p2_weights       = ["4","7","16","8","5","6","15","9","14","13","12","11","10"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w9_p3_weights       = ["9","5","15","16","10","12","6","7","8","14","11","4","13"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w9_p4_weights       = ["4","5","16","13","10","11","6","7","8","15","12","9","14"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w9_p5_weights       = ["15","6","16","10","14","13","9","7","12","8","11","4","5"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w9_p6_weights       = [];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w9_p7_weights       = ["15","16","14","13","7","9","8","4","10","12","11","6","5"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w9_p8_weights       = ["12","9","15","16","11","13","10","7","8","14","5","6","4"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w9_p9_weights       = ["13","5","16","15","9","6","7","12","14","11","4","8","10"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w9_p10_weights      = ["13","7","15","5","14","11","4","9","8","10","12","16","6"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w9_p11_weights      = ["9","5","15","16","10","12","14","7","13","6","11","4","8"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w9_p12_weights      = ["16","5","15","14","7","11","6","8","9","13","10","4","12"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w9_winners          = ["V","H","V","H","H","V","H","V","V","V","H","H","H"];</t>
+  </si>
+  <si>
+    <t>Cardinals, Bears, Bengals, Texans, Patriots, Redskins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w9_mn_points        = ["42","47","44","44","31","","38","42","46","2","44","38"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w9_actual_mn_points = 0;</t>
+  </si>
+  <si>
+    <t>Week 9 Final</t>
+  </si>
+  <si>
+    <t>'Week 9'!$B$2</t>
+  </si>
+  <si>
+    <t>'Week 9'!$C$2</t>
+  </si>
+  <si>
+    <t>'Week 9'!$D$2</t>
   </si>
 </sst>
 </file>
@@ -5176,94 +5179,94 @@
         <v>40</v>
       </c>
       <c r="C2" s="297" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D2" s="112" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E2" s="113"/>
       <c r="F2" s="114" t="s">
         <v>91</v>
       </c>
       <c r="G2" s="115">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="H2" s="116"/>
       <c r="I2" s="114" t="s">
         <v>92</v>
       </c>
       <c r="J2" s="115">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K2" s="116"/>
       <c r="L2" s="114" t="s">
         <v>93</v>
       </c>
       <c r="M2" s="115">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N2" s="116"/>
       <c r="O2" s="114" t="s">
         <v>94</v>
       </c>
       <c r="P2" s="115">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="Q2" s="116"/>
       <c r="R2" s="114" t="s">
         <v>95</v>
       </c>
       <c r="S2" s="115">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T2" s="116"/>
       <c r="U2" s="114" t="s">
         <v>96</v>
       </c>
       <c r="V2" s="115">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="W2" s="116"/>
       <c r="X2" s="114" t="s">
         <v>97</v>
       </c>
       <c r="Y2" s="115">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="Z2" s="116"/>
       <c r="AA2" s="114" t="s">
         <v>98</v>
       </c>
       <c r="AB2" s="115">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="AC2" s="116"/>
       <c r="AD2" s="114" t="s">
         <v>99</v>
       </c>
       <c r="AE2" s="115">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="AF2" s="116"/>
       <c r="AG2" s="114" t="s">
         <v>100</v>
       </c>
       <c r="AH2" s="115">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="AI2" s="116"/>
       <c r="AJ2" s="114" t="s">
         <v>101</v>
       </c>
       <c r="AK2" s="115">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="AL2" s="116"/>
       <c r="AM2" s="114" t="s">
         <v>102</v>
       </c>
       <c r="AN2" s="115">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AO2" s="117"/>
       <c r="AP2" s="3"/>
@@ -5282,7 +5285,7 @@
       <c r="AV2" s="305"/>
       <c r="AW2" s="3"/>
       <c r="BE2" s="300" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="BF2" s="301"/>
       <c r="BG2" s="302"/>
@@ -5434,7 +5437,7 @@
       </c>
       <c r="AP3" s="3"/>
       <c r="AR3" s="11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS3" s="9" t="s">
         <v>52</v>
@@ -5502,28 +5505,28 @@
     </row>
     <row r="4" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="180" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C4" s="181" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="181" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="E4" s="182" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F4" s="183" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="G4" s="184">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H4" s="185" t="s">
         <v>0</v>
       </c>
       <c r="I4" s="186" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="J4" s="184">
         <v>4</v>
@@ -5532,10 +5535,10 @@
         <v>0</v>
       </c>
       <c r="L4" s="186" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="M4" s="184">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N4" s="185" t="s">
         <v>0</v>
@@ -5544,34 +5547,30 @@
         <v>60</v>
       </c>
       <c r="P4" s="184">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="185" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="Q4" s="185">
+        <v>-4</v>
       </c>
       <c r="R4" s="186" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="S4" s="184">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T4" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="U4" s="186" t="s">
+      <c r="U4" s="186"/>
+      <c r="V4" s="184"/>
+      <c r="W4" s="185" t="s">
+        <v>0</v>
+      </c>
+      <c r="X4" s="186" t="s">
         <v>88</v>
       </c>
-      <c r="V4" s="184">
-        <v>5</v>
-      </c>
-      <c r="W4" s="185">
-        <v>-5</v>
-      </c>
-      <c r="X4" s="186" t="s">
-        <v>60</v>
-      </c>
       <c r="Y4" s="184">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Z4" s="185" t="s">
         <v>0</v>
@@ -5580,16 +5579,16 @@
         <v>60</v>
       </c>
       <c r="AB4" s="184">
-        <v>11</v>
-      </c>
-      <c r="AC4" s="185" t="s">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="AC4" s="185">
+        <v>-12</v>
       </c>
       <c r="AD4" s="186" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AE4" s="184">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF4" s="185" t="s">
         <v>0</v>
@@ -5600,38 +5599,38 @@
       <c r="AH4" s="184">
         <v>13</v>
       </c>
-      <c r="AI4" s="185">
-        <v>-13</v>
+      <c r="AI4" s="185" t="s">
+        <v>0</v>
       </c>
       <c r="AJ4" s="186" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AK4" s="184">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AL4" s="185" t="s">
         <v>0</v>
       </c>
       <c r="AM4" s="186" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AN4" s="184">
+        <v>16</v>
+      </c>
+      <c r="AO4" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="188" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU4" s="184">
         <v>10</v>
       </c>
-      <c r="AO4" s="187" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="188" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU4" s="184">
-        <v>11</v>
-      </c>
       <c r="AV4" s="187" t="s">
         <v>0</v>
       </c>
       <c r="AX4" s="4">
-        <v>87</v>
+        <v>-87</v>
       </c>
       <c r="AY4" s="4">
         <v>87</v>
@@ -5655,45 +5654,45 @@
         <v>99</v>
       </c>
       <c r="BG4" s="61">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="BH4" s="189"/>
       <c r="BI4" s="62">
         <v>1</v>
       </c>
       <c r="BJ4" s="63" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="BK4" s="64">
-        <v>95</v>
+        <v>94.625</v>
       </c>
       <c r="BL4" s="65">
-        <v>665</v>
+        <v>757</v>
       </c>
       <c r="BM4" s="172"/>
       <c r="BN4" s="66">
         <v>1</v>
       </c>
       <c r="BO4" s="67" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="BP4" s="68">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="BQ4" s="69">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="BR4" s="70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BS4" s="71">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="BT4" s="72" t="s">
         <v>61</v>
       </c>
       <c r="BU4" s="71">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="BV4" s="72" t="s">
         <v>0</v>
@@ -5702,33 +5701,33 @@
         <v>0</v>
       </c>
       <c r="BY4" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="190" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="C5" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="191" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="E5" s="192" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="F5" s="193" t="s">
         <v>60</v>
       </c>
       <c r="G5" s="194">
-        <v>14</v>
-      </c>
-      <c r="H5" s="195">
-        <v>-14</v>
+        <v>5</v>
+      </c>
+      <c r="H5" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="I5" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="J5" s="194">
         <v>7</v>
@@ -5737,117 +5736,113 @@
         <v>-7</v>
       </c>
       <c r="L5" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="M5" s="194">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N5" s="195">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="O5" s="196" t="s">
         <v>60</v>
       </c>
       <c r="P5" s="194">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="195">
-        <v>-10</v>
+        <v>5</v>
+      </c>
+      <c r="Q5" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="R5" s="196" t="s">
         <v>60</v>
       </c>
       <c r="S5" s="194">
-        <v>12</v>
-      </c>
-      <c r="T5" s="195">
-        <v>-12</v>
-      </c>
-      <c r="U5" s="196" t="s">
+        <v>6</v>
+      </c>
+      <c r="T5" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="U5" s="196"/>
+      <c r="V5" s="194"/>
+      <c r="W5" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="X5" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="V5" s="194">
-        <v>4</v>
-      </c>
-      <c r="W5" s="195">
-        <v>-4</v>
-      </c>
-      <c r="X5" s="196" t="s">
+      <c r="Y5" s="194">
+        <v>16</v>
+      </c>
+      <c r="Z5" s="195">
+        <v>-16</v>
+      </c>
+      <c r="AA5" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB5" s="194">
+        <v>9</v>
+      </c>
+      <c r="AC5" s="195">
+        <v>-9</v>
+      </c>
+      <c r="AD5" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE5" s="194">
+        <v>5</v>
+      </c>
+      <c r="AF5" s="195">
+        <v>-5</v>
+      </c>
+      <c r="AG5" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="Y5" s="194">
+      <c r="AH5" s="194">
         <v>7</v>
       </c>
-      <c r="Z5" s="195">
-        <v>-7</v>
-      </c>
-      <c r="AA5" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB5" s="194">
-        <v>12</v>
-      </c>
-      <c r="AC5" s="195">
-        <v>-12</v>
-      </c>
-      <c r="AD5" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE5" s="194">
-        <v>10</v>
-      </c>
-      <c r="AF5" s="195">
-        <v>-10</v>
-      </c>
-      <c r="AG5" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH5" s="194">
-        <v>6</v>
-      </c>
-      <c r="AI5" s="195">
-        <v>-6</v>
+      <c r="AI5" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AJ5" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AK5" s="194">
-        <v>10</v>
-      </c>
-      <c r="AL5" s="195">
-        <v>-10</v>
+        <v>5</v>
+      </c>
+      <c r="AL5" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AM5" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AN5" s="194">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AO5" s="197">
-        <v>-12</v>
+        <v>-5</v>
       </c>
       <c r="AR5" s="8"/>
       <c r="AS5" s="9"/>
       <c r="AT5" s="198" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AU5" s="194">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AV5" s="197">
-        <v>-12</v>
+        <v>-5</v>
       </c>
       <c r="AX5" s="4">
-        <v>94</v>
+        <v>-19</v>
       </c>
       <c r="AY5" s="4">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="AZ5" s="4">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="BA5" s="4">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="BB5" s="4">
         <v>2</v>
@@ -5859,36 +5854,36 @@
         <v>2</v>
       </c>
       <c r="BF5" s="77" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="BG5" s="78">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="BH5" s="189"/>
       <c r="BI5" s="79">
         <v>2</v>
       </c>
       <c r="BJ5" s="80" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BK5" s="81">
-        <v>91.857142857142861</v>
+        <v>91.875</v>
       </c>
       <c r="BL5" s="82">
-        <v>643</v>
+        <v>735</v>
       </c>
       <c r="BM5" s="172"/>
       <c r="BN5" s="79">
         <v>2</v>
       </c>
       <c r="BO5" s="80" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BP5" s="83">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="BQ5" s="84">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="BR5" s="85">
         <v>2</v>
@@ -5906,30 +5901,30 @@
         <v>61</v>
       </c>
       <c r="BW5" s="88">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BY5" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="190" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C6" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="191" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E6" s="192" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F6" s="193" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="G6" s="194">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H6" s="195" t="s">
         <v>0</v>
@@ -5938,16 +5933,16 @@
         <v>88</v>
       </c>
       <c r="J6" s="194">
-        <v>14</v>
-      </c>
-      <c r="K6" s="195">
-        <v>-14</v>
+        <v>16</v>
+      </c>
+      <c r="K6" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="L6" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="M6" s="194">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N6" s="195" t="s">
         <v>0</v>
@@ -5956,31 +5951,27 @@
         <v>88</v>
       </c>
       <c r="P6" s="194">
-        <v>6</v>
-      </c>
-      <c r="Q6" s="195">
-        <v>-6</v>
+        <v>16</v>
+      </c>
+      <c r="Q6" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="R6" s="196" t="s">
         <v>88</v>
       </c>
       <c r="S6" s="194">
-        <v>8</v>
-      </c>
-      <c r="T6" s="195">
-        <v>-8</v>
-      </c>
-      <c r="U6" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="V6" s="194">
-        <v>9</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="T6" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="U6" s="196"/>
+      <c r="V6" s="194"/>
       <c r="W6" s="195" t="s">
         <v>0</v>
       </c>
       <c r="X6" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="Y6" s="194">
         <v>14</v>
@@ -5989,49 +5980,49 @@
         <v>0</v>
       </c>
       <c r="AA6" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB6" s="194">
+        <v>15</v>
+      </c>
+      <c r="AC6" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE6" s="194">
+        <v>16</v>
+      </c>
+      <c r="AF6" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="AB6" s="194">
-        <v>9</v>
-      </c>
-      <c r="AC6" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE6" s="194">
-        <v>9</v>
-      </c>
-      <c r="AF6" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="196" t="s">
-        <v>88</v>
-      </c>
       <c r="AH6" s="194">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI6" s="195">
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="AJ6" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AK6" s="194">
-        <v>9</v>
-      </c>
-      <c r="AL6" s="195">
-        <v>-9</v>
+        <v>15</v>
+      </c>
+      <c r="AL6" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AM6" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AN6" s="194">
-        <v>11</v>
-      </c>
-      <c r="AO6" s="197">
-        <v>-11</v>
+        <v>15</v>
+      </c>
+      <c r="AO6" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AR6" s="8"/>
       <c r="AS6" s="9"/>
@@ -6039,22 +6030,22 @@
         <v>88</v>
       </c>
       <c r="AU6" s="194">
-        <v>4</v>
-      </c>
-      <c r="AV6" s="197">
-        <v>-4</v>
+        <v>16</v>
+      </c>
+      <c r="AV6" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AX6" s="4">
-        <v>-3</v>
+        <v>-138</v>
       </c>
       <c r="AY6" s="4">
-        <v>3</v>
+        <v>138</v>
       </c>
       <c r="AZ6" s="4">
-        <v>3</v>
+        <v>138</v>
       </c>
       <c r="BA6" s="4">
-        <v>3</v>
+        <v>138</v>
       </c>
       <c r="BB6" s="4">
         <v>3</v>
@@ -6066,10 +6057,10 @@
         <v>3</v>
       </c>
       <c r="BF6" s="77" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BG6" s="78">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="BH6" s="189"/>
       <c r="BI6" s="79">
@@ -6079,10 +6070,10 @@
         <v>102</v>
       </c>
       <c r="BK6" s="81">
-        <v>88.571428571428569</v>
+        <v>89.375</v>
       </c>
       <c r="BL6" s="82">
-        <v>620</v>
+        <v>715</v>
       </c>
       <c r="BM6" s="172"/>
       <c r="BN6" s="79">
@@ -6092,10 +6083,10 @@
         <v>92</v>
       </c>
       <c r="BP6" s="83">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BQ6" s="84">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="BR6" s="85">
         <v>1</v>
@@ -6116,24 +6107,24 @@
         <v>0</v>
       </c>
       <c r="BY6" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="190" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="C7" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="191" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="E7" s="192" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F7" s="193" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="G7" s="194">
         <v>16</v>
@@ -6142,16 +6133,16 @@
         <v>0</v>
       </c>
       <c r="I7" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="J7" s="194">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="K7" s="195" t="s">
         <v>0</v>
       </c>
       <c r="L7" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="M7" s="194">
         <v>16</v>
@@ -6160,29 +6151,25 @@
         <v>0</v>
       </c>
       <c r="O7" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="P7" s="194">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q7" s="195" t="s">
         <v>0</v>
       </c>
       <c r="R7" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="S7" s="194">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="T7" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="U7" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="V7" s="194">
-        <v>16</v>
-      </c>
+      <c r="U7" s="196"/>
+      <c r="V7" s="194"/>
       <c r="W7" s="195" t="s">
         <v>0</v>
       </c>
@@ -6190,16 +6177,16 @@
         <v>60</v>
       </c>
       <c r="Y7" s="194">
-        <v>4</v>
-      </c>
-      <c r="Z7" s="195">
-        <v>-4</v>
+        <v>13</v>
+      </c>
+      <c r="Z7" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AA7" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AB7" s="194">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AC7" s="195" t="s">
         <v>0</v>
@@ -6208,40 +6195,40 @@
         <v>60</v>
       </c>
       <c r="AE7" s="194">
-        <v>4</v>
-      </c>
-      <c r="AF7" s="195">
-        <v>-4</v>
+        <v>15</v>
+      </c>
+      <c r="AF7" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AG7" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AH7" s="194">
-        <v>7</v>
-      </c>
-      <c r="AI7" s="195" t="s">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="AI7" s="195">
+        <v>-5</v>
       </c>
       <c r="AJ7" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AK7" s="194">
+        <v>16</v>
+      </c>
+      <c r="AL7" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN7" s="194">
         <v>14</v>
       </c>
-      <c r="AL7" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="AN7" s="194">
-        <v>16</v>
-      </c>
       <c r="AO7" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AT7" s="198" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AU7" s="194">
         <v>15</v>
@@ -6250,16 +6237,16 @@
         <v>0</v>
       </c>
       <c r="AX7" s="4">
-        <v>-136</v>
+        <v>132</v>
       </c>
       <c r="AY7" s="4">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AZ7" s="4">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="BA7" s="4">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="BB7" s="4">
         <v>4</v>
@@ -6268,26 +6255,26 @@
         <v>1</v>
       </c>
       <c r="BE7" s="76">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BF7" s="77" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="BG7" s="78">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="BH7" s="189"/>
       <c r="BI7" s="79">
         <v>4</v>
       </c>
       <c r="BJ7" s="80" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="BK7" s="81">
-        <v>87.571428571428569</v>
+        <v>87.75</v>
       </c>
       <c r="BL7" s="82">
-        <v>613</v>
+        <v>702</v>
       </c>
       <c r="BM7" s="172"/>
       <c r="BN7" s="79">
@@ -6297,10 +6284,10 @@
         <v>93</v>
       </c>
       <c r="BP7" s="83">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BQ7" s="84">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="BR7" s="85">
         <v>1</v>
@@ -6321,7 +6308,7 @@
         <v>0</v>
       </c>
       <c r="BY7" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6332,16 +6319,16 @@
         <v>6</v>
       </c>
       <c r="D8" s="191" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="E8" s="192" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F8" s="193" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="G8" s="194">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H8" s="195" t="s">
         <v>0</v>
@@ -6350,52 +6337,48 @@
         <v>88</v>
       </c>
       <c r="J8" s="194">
-        <v>13</v>
-      </c>
-      <c r="K8" s="195" t="s">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="K8" s="195">
+        <v>-5</v>
       </c>
       <c r="L8" s="196" t="s">
         <v>88</v>
       </c>
       <c r="M8" s="194">
-        <v>11</v>
-      </c>
-      <c r="N8" s="195" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="N8" s="195">
+        <v>-10</v>
       </c>
       <c r="O8" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="P8" s="194">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q8" s="195" t="s">
         <v>0</v>
       </c>
       <c r="R8" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="S8" s="194">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T8" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="U8" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="V8" s="194">
-        <v>14</v>
-      </c>
+      <c r="U8" s="196"/>
+      <c r="V8" s="194"/>
       <c r="W8" s="195" t="s">
         <v>0</v>
       </c>
       <c r="X8" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="Y8" s="194">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="Z8" s="195" t="s">
         <v>0</v>
@@ -6404,67 +6387,67 @@
         <v>60</v>
       </c>
       <c r="AB8" s="194">
-        <v>4</v>
-      </c>
-      <c r="AC8" s="195">
-        <v>-4</v>
+        <v>11</v>
+      </c>
+      <c r="AC8" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AD8" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE8" s="194">
+        <v>9</v>
+      </c>
+      <c r="AF8" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="AE8" s="194">
-        <v>16</v>
-      </c>
-      <c r="AF8" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="196" t="s">
+      <c r="AH8" s="194">
+        <v>14</v>
+      </c>
+      <c r="AI8" s="195">
+        <v>-14</v>
+      </c>
+      <c r="AJ8" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="AH8" s="194">
-        <v>11</v>
-      </c>
-      <c r="AI8" s="195">
-        <v>-11</v>
-      </c>
-      <c r="AJ8" s="196" t="s">
-        <v>88</v>
-      </c>
       <c r="AK8" s="194">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AL8" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AM8" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AN8" s="194">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AO8" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AT8" s="198" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AU8" s="194">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AV8" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX8" s="4">
-        <v>-104</v>
+        <v>49</v>
       </c>
       <c r="AY8" s="4">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="AZ8" s="4">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="BA8" s="4">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="BB8" s="4">
         <v>5</v>
@@ -6476,23 +6459,23 @@
         <v>5</v>
       </c>
       <c r="BF8" s="77" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="BG8" s="78">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="BH8" s="189"/>
       <c r="BI8" s="79">
         <v>5</v>
       </c>
       <c r="BJ8" s="80" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BK8" s="81">
-        <v>87.285714285714292</v>
+        <v>87</v>
       </c>
       <c r="BL8" s="82">
-        <v>611</v>
+        <v>696</v>
       </c>
       <c r="BM8" s="172"/>
       <c r="BN8" s="79">
@@ -6502,10 +6485,10 @@
         <v>95</v>
       </c>
       <c r="BP8" s="83">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BQ8" s="84">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="BR8" s="85">
         <v>1</v>
@@ -6537,139 +6520,135 @@
         <v>6</v>
       </c>
       <c r="D9" s="191" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="E9" s="192" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F9" s="193" t="s">
         <v>60</v>
       </c>
       <c r="G9" s="194">
-        <v>5</v>
-      </c>
-      <c r="H9" s="195" t="s">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="H9" s="195">
+        <v>-12</v>
       </c>
       <c r="I9" s="196" t="s">
         <v>60</v>
       </c>
       <c r="J9" s="194">
-        <v>10</v>
-      </c>
-      <c r="K9" s="195" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="K9" s="195">
+        <v>-6</v>
       </c>
       <c r="L9" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="M9" s="194">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N9" s="195">
-        <v>-6</v>
+        <v>-12</v>
       </c>
       <c r="O9" s="196" t="s">
         <v>60</v>
       </c>
       <c r="P9" s="194">
-        <v>15</v>
-      </c>
-      <c r="Q9" s="195" t="s">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="Q9" s="195">
+        <v>-11</v>
       </c>
       <c r="R9" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="S9" s="194">
+        <v>13</v>
+      </c>
+      <c r="T9" s="195">
+        <v>-13</v>
+      </c>
+      <c r="U9" s="196"/>
+      <c r="V9" s="194"/>
+      <c r="W9" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="X9" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y9" s="194">
+        <v>9</v>
+      </c>
+      <c r="Z9" s="195">
+        <v>-9</v>
+      </c>
+      <c r="AA9" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB9" s="194">
+        <v>13</v>
+      </c>
+      <c r="AC9" s="195">
+        <v>-13</v>
+      </c>
+      <c r="AD9" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="S9" s="194">
-        <v>4</v>
-      </c>
-      <c r="T9" s="195">
-        <v>-4</v>
-      </c>
-      <c r="U9" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="V9" s="194">
-        <v>13</v>
-      </c>
-      <c r="W9" s="195">
-        <v>-13</v>
-      </c>
-      <c r="X9" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y9" s="194">
-        <v>13</v>
-      </c>
-      <c r="Z9" s="195">
-        <v>-13</v>
-      </c>
-      <c r="AA9" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB9" s="194">
-        <v>5</v>
-      </c>
-      <c r="AC9" s="195">
-        <v>-5</v>
-      </c>
-      <c r="AD9" s="196" t="s">
+      <c r="AE9" s="194">
+        <v>6</v>
+      </c>
+      <c r="AF9" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="AE9" s="194">
-        <v>8</v>
-      </c>
-      <c r="AF9" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="196" t="s">
-        <v>88</v>
-      </c>
       <c r="AH9" s="194">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI9" s="195">
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="AJ9" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AK9" s="194">
-        <v>8</v>
-      </c>
-      <c r="AL9" s="195" t="s">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="AL9" s="195">
+        <v>-12</v>
       </c>
       <c r="AM9" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AN9" s="194">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AO9" s="197">
-        <v>-6</v>
+        <v>-11</v>
       </c>
       <c r="AT9" s="198" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AU9" s="194">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AV9" s="197">
-        <v>-5</v>
+        <v>-12</v>
       </c>
       <c r="AX9" s="4">
-        <v>-11</v>
+        <v>104</v>
       </c>
       <c r="AY9" s="4">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="AZ9" s="4">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="BA9" s="4">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="BB9" s="4">
         <v>6</v>
@@ -6681,10 +6660,10 @@
         <v>6</v>
       </c>
       <c r="BF9" s="77" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BG9" s="78">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="BH9" s="189"/>
       <c r="BI9" s="79">
@@ -6694,10 +6673,10 @@
         <v>92</v>
       </c>
       <c r="BK9" s="81">
-        <v>84.285714285714292</v>
+        <v>86.125</v>
       </c>
       <c r="BL9" s="82">
-        <v>590</v>
+        <v>689</v>
       </c>
       <c r="BM9" s="172"/>
       <c r="BN9" s="79">
@@ -6707,10 +6686,10 @@
         <v>102</v>
       </c>
       <c r="BP9" s="83">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BQ9" s="84">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="BR9" s="85">
         <v>1</v>
@@ -6736,22 +6715,22 @@
     </row>
     <row r="10" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="190" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C10" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="191" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="E10" s="192" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F10" s="193" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="G10" s="194">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H10" s="195" t="s">
         <v>0</v>
@@ -6760,25 +6739,25 @@
         <v>60</v>
       </c>
       <c r="J10" s="194">
-        <v>11</v>
-      </c>
-      <c r="K10" s="195">
-        <v>-11</v>
+        <v>15</v>
+      </c>
+      <c r="K10" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="L10" s="196" t="s">
         <v>88</v>
       </c>
       <c r="M10" s="194">
-        <v>5</v>
-      </c>
-      <c r="N10" s="195" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="N10" s="195">
+        <v>-6</v>
       </c>
       <c r="O10" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="P10" s="194">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q10" s="195" t="s">
         <v>0</v>
@@ -6787,17 +6766,13 @@
         <v>88</v>
       </c>
       <c r="S10" s="194">
-        <v>5</v>
-      </c>
-      <c r="T10" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="U10" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="V10" s="194">
-        <v>12</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="T10" s="195">
+        <v>-9</v>
+      </c>
+      <c r="U10" s="196"/>
+      <c r="V10" s="194"/>
       <c r="W10" s="195" t="s">
         <v>0</v>
       </c>
@@ -6805,34 +6780,34 @@
         <v>88</v>
       </c>
       <c r="Y10" s="194">
-        <v>16</v>
-      </c>
-      <c r="Z10" s="195" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="Z10" s="195">
+        <v>-8</v>
       </c>
       <c r="AA10" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB10" s="194">
+        <v>10</v>
+      </c>
+      <c r="AC10" s="195">
+        <v>-10</v>
+      </c>
+      <c r="AD10" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="AB10" s="194">
-        <v>8</v>
-      </c>
-      <c r="AC10" s="195">
-        <v>-8</v>
-      </c>
-      <c r="AD10" s="196" t="s">
-        <v>88</v>
-      </c>
       <c r="AE10" s="194">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF10" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AG10" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AH10" s="194">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AI10" s="195" t="s">
         <v>0</v>
@@ -6841,40 +6816,40 @@
         <v>88</v>
       </c>
       <c r="AK10" s="194">
-        <v>16</v>
-      </c>
-      <c r="AL10" s="195" t="s">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="AL10" s="195">
+        <v>-14</v>
       </c>
       <c r="AM10" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AN10" s="194">
-        <v>14</v>
-      </c>
-      <c r="AO10" s="197" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="AO10" s="197">
+        <v>-6</v>
       </c>
       <c r="AT10" s="198" t="s">
         <v>88</v>
       </c>
       <c r="AU10" s="194">
-        <v>10</v>
-      </c>
-      <c r="AV10" s="197" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="AV10" s="197">
+        <v>-4</v>
       </c>
       <c r="AX10" s="4">
-        <v>-77</v>
+        <v>-17</v>
       </c>
       <c r="AY10" s="4">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="AZ10" s="4">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="BA10" s="4">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="BB10" s="4">
         <v>7</v>
@@ -6886,10 +6861,10 @@
         <v>7</v>
       </c>
       <c r="BF10" s="77" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="BG10" s="78">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="BH10" s="189"/>
       <c r="BI10" s="79">
@@ -6899,10 +6874,10 @@
         <v>95</v>
       </c>
       <c r="BK10" s="81">
-        <v>83.571428571428569</v>
+        <v>85.625</v>
       </c>
       <c r="BL10" s="82">
-        <v>585</v>
+        <v>685</v>
       </c>
       <c r="BM10" s="172"/>
       <c r="BN10" s="79">
@@ -6912,10 +6887,10 @@
         <v>91</v>
       </c>
       <c r="BP10" s="83">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="BQ10" s="84">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="BR10" s="85" t="s">
         <v>0</v>
@@ -6936,36 +6911,36 @@
         <v>0</v>
       </c>
       <c r="BY10" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="190" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C11" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="191" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="E11" s="192" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F11" s="193" t="s">
         <v>88</v>
       </c>
       <c r="G11" s="194">
-        <v>6</v>
-      </c>
-      <c r="H11" s="195">
-        <v>-6</v>
+        <v>7</v>
+      </c>
+      <c r="H11" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="I11" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="J11" s="194">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K11" s="195" t="s">
         <v>0</v>
@@ -6976,59 +6951,55 @@
       <c r="M11" s="194">
         <v>7</v>
       </c>
-      <c r="N11" s="195">
-        <v>-7</v>
+      <c r="N11" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="O11" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="P11" s="194">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q11" s="195" t="s">
         <v>0</v>
       </c>
       <c r="R11" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="S11" s="194">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T11" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="U11" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="V11" s="194">
-        <v>15</v>
-      </c>
-      <c r="W11" s="195">
-        <v>-15</v>
+      <c r="U11" s="196"/>
+      <c r="V11" s="194"/>
+      <c r="W11" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="X11" s="196" t="s">
         <v>60</v>
       </c>
       <c r="Y11" s="194">
-        <v>11</v>
-      </c>
-      <c r="Z11" s="195" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="Z11" s="195">
+        <v>-4</v>
       </c>
       <c r="AA11" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB11" s="194">
+        <v>7</v>
+      </c>
+      <c r="AC11" s="195">
+        <v>-7</v>
+      </c>
+      <c r="AD11" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="AB11" s="194">
-        <v>10</v>
-      </c>
-      <c r="AC11" s="195">
-        <v>-10</v>
-      </c>
-      <c r="AD11" s="196" t="s">
-        <v>60</v>
-      </c>
       <c r="AE11" s="194">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AF11" s="195" t="s">
         <v>0</v>
@@ -7037,28 +7008,28 @@
         <v>88</v>
       </c>
       <c r="AH11" s="194">
-        <v>8</v>
-      </c>
-      <c r="AI11" s="195">
-        <v>-8</v>
+        <v>9</v>
+      </c>
+      <c r="AI11" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AJ11" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AK11" s="194">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL11" s="195">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="AM11" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AN11" s="194">
-        <v>9</v>
-      </c>
-      <c r="AO11" s="197">
-        <v>-9</v>
+        <v>8</v>
+      </c>
+      <c r="AO11" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AT11" s="198" t="s">
         <v>88</v>
@@ -7066,20 +7037,20 @@
       <c r="AU11" s="194">
         <v>7</v>
       </c>
-      <c r="AV11" s="197">
-        <v>-7</v>
+      <c r="AV11" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AX11" s="4">
-        <v>-25</v>
+        <v>-48</v>
       </c>
       <c r="AY11" s="4">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="AZ11" s="4">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="BA11" s="4">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="BB11" s="4">
         <v>8</v>
@@ -7091,23 +7062,23 @@
         <v>8</v>
       </c>
       <c r="BF11" s="77" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="BG11" s="78">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="BH11" s="189"/>
       <c r="BI11" s="79">
         <v>8</v>
       </c>
       <c r="BJ11" s="80" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="BK11" s="81">
-        <v>82.571428571428569</v>
+        <v>83.875</v>
       </c>
       <c r="BL11" s="82">
-        <v>578</v>
+        <v>671</v>
       </c>
       <c r="BM11" s="172"/>
       <c r="BN11" s="79">
@@ -7117,10 +7088,10 @@
         <v>94</v>
       </c>
       <c r="BP11" s="83">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="BQ11" s="84">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="BR11" s="85" t="s">
         <v>0</v>
@@ -7141,73 +7112,69 @@
         <v>0</v>
       </c>
       <c r="BY11" s="12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="190" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C12" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="191" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="E12" s="192" t="s">
         <v>88</v>
       </c>
       <c r="F12" s="193" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="G12" s="194">
-        <v>4</v>
-      </c>
-      <c r="H12" s="195">
-        <v>-4</v>
+        <v>8</v>
+      </c>
+      <c r="H12" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="I12" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="J12" s="194">
-        <v>6</v>
-      </c>
-      <c r="K12" s="195">
-        <v>-6</v>
+        <v>14</v>
+      </c>
+      <c r="K12" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="L12" s="196" t="s">
         <v>88</v>
       </c>
       <c r="M12" s="194">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N12" s="195" t="s">
         <v>0</v>
       </c>
       <c r="O12" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="P12" s="194">
-        <v>9</v>
-      </c>
-      <c r="Q12" s="195">
-        <v>-9</v>
+        <v>8</v>
+      </c>
+      <c r="Q12" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="R12" s="196" t="s">
         <v>88</v>
       </c>
       <c r="S12" s="194">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="T12" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="U12" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="V12" s="194">
-        <v>11</v>
-      </c>
+      <c r="U12" s="196"/>
+      <c r="V12" s="194"/>
       <c r="W12" s="195" t="s">
         <v>0</v>
       </c>
@@ -7215,7 +7182,7 @@
         <v>88</v>
       </c>
       <c r="Y12" s="194">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Z12" s="195" t="s">
         <v>0</v>
@@ -7224,7 +7191,7 @@
         <v>88</v>
       </c>
       <c r="AB12" s="194">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AC12" s="195" t="s">
         <v>0</v>
@@ -7233,7 +7200,7 @@
         <v>88</v>
       </c>
       <c r="AE12" s="194">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF12" s="195" t="s">
         <v>0</v>
@@ -7242,25 +7209,25 @@
         <v>88</v>
       </c>
       <c r="AH12" s="194">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AI12" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AJ12" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AK12" s="194">
-        <v>4</v>
-      </c>
-      <c r="AL12" s="195">
-        <v>-4</v>
+        <v>13</v>
+      </c>
+      <c r="AL12" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AM12" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AN12" s="194">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AO12" s="197" t="s">
         <v>0</v>
@@ -7269,22 +7236,22 @@
         <v>88</v>
       </c>
       <c r="AU12" s="194">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AV12" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX12" s="4">
-        <v>-46</v>
+        <v>-112</v>
       </c>
       <c r="AY12" s="4">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="AZ12" s="4">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="BA12" s="4">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="BB12" s="4">
         <v>9</v>
@@ -7299,20 +7266,20 @@
         <v>100</v>
       </c>
       <c r="BG12" s="78">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="BH12" s="189"/>
       <c r="BI12" s="79">
         <v>9</v>
       </c>
       <c r="BJ12" s="80" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="BK12" s="81">
-        <v>81.857142857142861</v>
+        <v>80</v>
       </c>
       <c r="BL12" s="82">
-        <v>573</v>
+        <v>640</v>
       </c>
       <c r="BM12" s="172"/>
       <c r="BN12" s="79">
@@ -7322,10 +7289,10 @@
         <v>96</v>
       </c>
       <c r="BP12" s="83">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="BQ12" s="84">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="BR12" s="85" t="s">
         <v>0</v>
@@ -7346,73 +7313,69 @@
         <v>0</v>
       </c>
       <c r="BY12" s="12" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="190" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C13" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="191" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E13" s="192" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F13" s="193" t="s">
         <v>60</v>
       </c>
       <c r="G13" s="194">
-        <v>10</v>
-      </c>
-      <c r="H13" s="195" t="s">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="H13" s="195">
+        <v>-14</v>
       </c>
       <c r="I13" s="196" t="s">
         <v>60</v>
       </c>
       <c r="J13" s="194">
-        <v>9</v>
-      </c>
-      <c r="K13" s="195" t="s">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="K13" s="195">
+        <v>-13</v>
       </c>
       <c r="L13" s="196" t="s">
         <v>60</v>
       </c>
       <c r="M13" s="194">
-        <v>15</v>
-      </c>
-      <c r="N13" s="195" t="s">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="N13" s="195">
+        <v>-14</v>
       </c>
       <c r="O13" s="196" t="s">
         <v>60</v>
       </c>
       <c r="P13" s="194">
-        <v>14</v>
-      </c>
-      <c r="Q13" s="195" t="s">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="Q13" s="195">
+        <v>-15</v>
       </c>
       <c r="R13" s="196" t="s">
         <v>60</v>
       </c>
       <c r="S13" s="194">
-        <v>10</v>
-      </c>
-      <c r="T13" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="U13" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="V13" s="194">
-        <v>6</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="T13" s="195">
+        <v>-8</v>
+      </c>
+      <c r="U13" s="196"/>
+      <c r="V13" s="194"/>
       <c r="W13" s="195" t="s">
         <v>0</v>
       </c>
@@ -7420,10 +7383,10 @@
         <v>60</v>
       </c>
       <c r="Y13" s="194">
-        <v>5</v>
-      </c>
-      <c r="Z13" s="195" t="s">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="Z13" s="195">
+        <v>-12</v>
       </c>
       <c r="AA13" s="196" t="s">
         <v>60</v>
@@ -7431,44 +7394,44 @@
       <c r="AB13" s="194">
         <v>14</v>
       </c>
-      <c r="AC13" s="195" t="s">
-        <v>0</v>
+      <c r="AC13" s="195">
+        <v>-14</v>
       </c>
       <c r="AD13" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AE13" s="194">
-        <v>12</v>
-      </c>
-      <c r="AF13" s="195" t="s">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="AF13" s="195">
+        <v>-11</v>
       </c>
       <c r="AG13" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AH13" s="194">
-        <v>12</v>
-      </c>
-      <c r="AI13" s="195" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="AI13" s="195">
+        <v>-10</v>
       </c>
       <c r="AJ13" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AK13" s="194">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL13" s="195">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="AM13" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AN13" s="194">
-        <v>15</v>
-      </c>
-      <c r="AO13" s="197" t="s">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="AO13" s="197">
+        <v>-13</v>
       </c>
       <c r="AT13" s="198" t="s">
         <v>60</v>
@@ -7476,20 +7439,20 @@
       <c r="AU13" s="194">
         <v>14</v>
       </c>
-      <c r="AV13" s="197" t="s">
-        <v>0</v>
+      <c r="AV13" s="197">
+        <v>-14</v>
       </c>
       <c r="AX13" s="4">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="AY13" s="4">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="AZ13" s="4">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="BA13" s="4">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="BB13" s="4">
         <v>10</v>
@@ -7498,26 +7461,26 @@
         <v>1</v>
       </c>
       <c r="BE13" s="76">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BF13" s="77" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="BG13" s="78">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="BH13" s="189"/>
       <c r="BI13" s="79">
         <v>10</v>
       </c>
       <c r="BJ13" s="80" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="BK13" s="81">
-        <v>80.428571428571431</v>
+        <v>76.25</v>
       </c>
       <c r="BL13" s="82">
-        <v>563</v>
+        <v>610</v>
       </c>
       <c r="BM13" s="172"/>
       <c r="BN13" s="79">
@@ -7527,10 +7490,10 @@
         <v>98</v>
       </c>
       <c r="BP13" s="83">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="BQ13" s="84">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="BR13" s="85" t="s">
         <v>0</v>
@@ -7551,18 +7514,18 @@
         <v>0</v>
       </c>
       <c r="BY13" s="12" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="190" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C14" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="191" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="E14" s="192" t="s">
         <v>60</v>
@@ -7571,25 +7534,25 @@
         <v>60</v>
       </c>
       <c r="G14" s="194">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H14" s="195" t="s">
         <v>0</v>
       </c>
       <c r="I14" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="J14" s="194">
-        <v>8</v>
-      </c>
-      <c r="K14" s="195">
-        <v>-8</v>
+        <v>12</v>
+      </c>
+      <c r="K14" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="L14" s="196" t="s">
         <v>60</v>
       </c>
       <c r="M14" s="194">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N14" s="195" t="s">
         <v>0</v>
@@ -7598,52 +7561,48 @@
         <v>60</v>
       </c>
       <c r="P14" s="194">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Q14" s="195" t="s">
         <v>0</v>
       </c>
       <c r="R14" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="S14" s="194">
-        <v>6</v>
-      </c>
-      <c r="T14" s="195">
-        <v>-6</v>
-      </c>
-      <c r="U14" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="V14" s="194">
-        <v>7</v>
-      </c>
-      <c r="W14" s="195">
-        <v>-7</v>
+        <v>11</v>
+      </c>
+      <c r="T14" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="U14" s="196"/>
+      <c r="V14" s="194"/>
+      <c r="W14" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="X14" s="196" t="s">
         <v>60</v>
       </c>
       <c r="Y14" s="194">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Z14" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AA14" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AB14" s="194">
-        <v>7</v>
-      </c>
-      <c r="AC14" s="195" t="s">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="AC14" s="195">
+        <v>-5</v>
       </c>
       <c r="AD14" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AE14" s="194">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF14" s="195" t="s">
         <v>0</v>
@@ -7652,7 +7611,7 @@
         <v>60</v>
       </c>
       <c r="AH14" s="194">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AI14" s="195" t="s">
         <v>0</v>
@@ -7661,40 +7620,40 @@
         <v>60</v>
       </c>
       <c r="AK14" s="194">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AL14" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AM14" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AN14" s="194">
-        <v>8</v>
-      </c>
-      <c r="AO14" s="197">
-        <v>-8</v>
+        <v>10</v>
+      </c>
+      <c r="AO14" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AT14" s="198" t="s">
         <v>60</v>
       </c>
       <c r="AU14" s="194">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AV14" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX14" s="4">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="AY14" s="4">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="AZ14" s="4">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="BA14" s="4">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="BB14" s="4">
         <v>11</v>
@@ -7709,7 +7668,7 @@
         <v>98</v>
       </c>
       <c r="BG14" s="78">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="BH14" s="189"/>
       <c r="BI14" s="79">
@@ -7719,10 +7678,10 @@
         <v>100</v>
       </c>
       <c r="BK14" s="81">
-        <v>75.285714285714292</v>
+        <v>75.25</v>
       </c>
       <c r="BL14" s="82">
-        <v>527</v>
+        <v>602</v>
       </c>
       <c r="BM14" s="172"/>
       <c r="BN14" s="79">
@@ -7732,10 +7691,10 @@
         <v>100</v>
       </c>
       <c r="BP14" s="83">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="BQ14" s="84">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="BR14" s="85" t="s">
         <v>0</v>
@@ -7756,99 +7715,95 @@
         <v>0</v>
       </c>
       <c r="BY14" s="12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:77" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="190" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C15" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="191" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="E15" s="192" t="s">
         <v>60</v>
       </c>
       <c r="F15" s="193" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="194">
+        <v>6</v>
+      </c>
+      <c r="H15" s="195">
+        <v>-6</v>
+      </c>
+      <c r="I15" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="194">
-        <v>12</v>
-      </c>
-      <c r="H15" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="I15" s="196" t="s">
-        <v>88</v>
-      </c>
       <c r="J15" s="194">
-        <v>12</v>
-      </c>
-      <c r="K15" s="195">
-        <v>-12</v>
+        <v>11</v>
+      </c>
+      <c r="K15" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="L15" s="196" t="s">
         <v>60</v>
       </c>
       <c r="M15" s="194">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="N15" s="195" t="s">
         <v>0</v>
       </c>
       <c r="O15" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="P15" s="194">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="195" t="s">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="Q15" s="195">
+        <v>-9</v>
       </c>
       <c r="R15" s="196" t="s">
         <v>60</v>
       </c>
       <c r="S15" s="194">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="T15" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="U15" s="196" t="s">
+      <c r="U15" s="196"/>
+      <c r="V15" s="194"/>
+      <c r="W15" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="X15" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y15" s="194">
+        <v>6</v>
+      </c>
+      <c r="Z15" s="195">
+        <v>-6</v>
+      </c>
+      <c r="AA15" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="V15" s="194">
-        <v>10</v>
-      </c>
-      <c r="W15" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="X15" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y15" s="194">
-        <v>15</v>
-      </c>
-      <c r="Z15" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="196" t="s">
-        <v>88</v>
-      </c>
       <c r="AB15" s="194">
-        <v>13</v>
-      </c>
-      <c r="AC15" s="195">
-        <v>-13</v>
+        <v>6</v>
+      </c>
+      <c r="AC15" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AD15" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AE15" s="194">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AF15" s="195" t="s">
         <v>0</v>
@@ -7866,10 +7821,10 @@
         <v>88</v>
       </c>
       <c r="AK15" s="194">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AL15" s="195">
-        <v>-13</v>
+        <v>-4</v>
       </c>
       <c r="AM15" s="196" t="s">
         <v>60</v>
@@ -7884,22 +7839,22 @@
         <v>60</v>
       </c>
       <c r="AU15" s="194">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AV15" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX15" s="4">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="AY15" s="4">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="AZ15" s="4">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="BA15" s="4">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="BB15" s="4">
         <v>12</v>
@@ -7911,23 +7866,23 @@
         <v>12</v>
       </c>
       <c r="BF15" s="90" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="BG15" s="91">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="BH15" s="189"/>
       <c r="BI15" s="92">
         <v>12</v>
       </c>
       <c r="BJ15" s="93" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="BK15" s="94">
-        <v>74.714285714285708</v>
+        <v>75.125</v>
       </c>
       <c r="BL15" s="95">
-        <v>523</v>
+        <v>601</v>
       </c>
       <c r="BM15" s="172"/>
       <c r="BN15" s="92">
@@ -7937,10 +7892,10 @@
         <v>101</v>
       </c>
       <c r="BP15" s="96">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="BQ15" s="97">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="BR15" s="98" t="s">
         <v>0</v>
@@ -7961,7 +7916,7 @@
         <v>0</v>
       </c>
       <c r="BY15" s="12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:77" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -8063,7 +8018,7 @@
         <v>1</v>
       </c>
       <c r="BY16" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8165,7 +8120,7 @@
         <v>2</v>
       </c>
       <c r="BY17" s="12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8267,150 +8222,146 @@
         <v>3</v>
       </c>
       <c r="BY18" s="12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="190" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="C19" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="191" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E19" s="192" t="s">
         <v>60</v>
       </c>
       <c r="F19" s="193" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="G19" s="194">
-        <v>15</v>
-      </c>
-      <c r="H19" s="195">
-        <v>-15</v>
+        <v>13</v>
+      </c>
+      <c r="H19" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="I19" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="J19" s="194">
-        <v>16</v>
-      </c>
-      <c r="K19" s="195">
-        <v>-16</v>
+        <v>10</v>
+      </c>
+      <c r="K19" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="L19" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="M19" s="194">
+        <v>13</v>
+      </c>
+      <c r="N19" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="O19" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" s="194">
         <v>14</v>
       </c>
-      <c r="N19" s="195">
-        <v>-14</v>
-      </c>
-      <c r="O19" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="P19" s="194">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="195">
-        <v>-12</v>
+      <c r="Q19" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="R19" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="S19" s="194">
-        <v>16</v>
-      </c>
-      <c r="T19" s="195">
-        <v>-16</v>
-      </c>
-      <c r="U19" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="V19" s="194">
-        <v>8</v>
-      </c>
-      <c r="W19" s="195">
-        <v>-8</v>
+        <v>5</v>
+      </c>
+      <c r="T19" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="U19" s="196"/>
+      <c r="V19" s="194"/>
+      <c r="W19" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="X19" s="196" t="s">
         <v>88</v>
       </c>
       <c r="Y19" s="194">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Z19" s="195">
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="AA19" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AB19" s="194">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AC19" s="195">
-        <v>-16</v>
+        <v>-4</v>
       </c>
       <c r="AD19" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AE19" s="194">
-        <v>14</v>
-      </c>
-      <c r="AF19" s="195">
-        <v>-14</v>
+        <v>10</v>
+      </c>
+      <c r="AF19" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AG19" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AH19" s="194">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI19" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AJ19" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AK19" s="194">
-        <v>15</v>
-      </c>
-      <c r="AL19" s="195">
-        <v>-15</v>
+        <v>8</v>
+      </c>
+      <c r="AL19" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AM19" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AN19" s="194">
-        <v>13</v>
-      </c>
-      <c r="AO19" s="197">
-        <v>-13</v>
+        <v>12</v>
+      </c>
+      <c r="AO19" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AT19" s="198" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AU19" s="194">
-        <v>16</v>
-      </c>
-      <c r="AV19" s="197">
-        <v>-16</v>
+        <v>9</v>
+      </c>
+      <c r="AV19" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AX19" s="4">
-        <v>-143</v>
+        <v>82</v>
       </c>
       <c r="AY19" s="4">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="AZ19" s="4">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="BA19" s="4">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="BB19" s="4">
         <v>16</v>
@@ -8419,7 +8370,7 @@
         <v>1</v>
       </c>
       <c r="BY19" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8427,87 +8378,85 @@
       <c r="C20" s="103"/>
       <c r="D20" s="103"/>
       <c r="E20" s="199" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F20" s="104" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G20" s="105">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H20" s="122"/>
       <c r="I20" s="106" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="J20" s="105">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K20" s="122"/>
       <c r="L20" s="106" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="M20" s="105">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N20" s="122"/>
       <c r="O20" s="106" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="P20" s="105">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q20" s="122"/>
       <c r="R20" s="106" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="S20" s="105">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="T20" s="122"/>
       <c r="U20" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="V20" s="105">
-        <v>52</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="V20" s="105"/>
       <c r="W20" s="122"/>
       <c r="X20" s="106" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="Y20" s="105">
         <v>38</v>
       </c>
       <c r="Z20" s="122"/>
       <c r="AA20" s="106" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="AB20" s="105">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AC20" s="122"/>
       <c r="AD20" s="106" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="AE20" s="105">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AF20" s="122"/>
       <c r="AG20" s="106" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="AH20" s="105">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="AI20" s="122"/>
       <c r="AJ20" s="106" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="AK20" s="105">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AL20" s="122"/>
       <c r="AM20" s="106" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="AN20" s="105">
         <v>38</v>
@@ -8527,7 +8476,7 @@
       <c r="BM20" s="13"/>
       <c r="BN20" s="13"/>
       <c r="BY20" s="12" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:77" s="13" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8536,99 +8485,99 @@
       <c r="C21" s="201"/>
       <c r="D21" s="201"/>
       <c r="E21" s="202" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F21" s="203"/>
       <c r="G21" s="204">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H21" s="205">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="I21" s="206"/>
       <c r="J21" s="204">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K21" s="205">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="L21" s="206"/>
       <c r="M21" s="204">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N21" s="205">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="O21" s="206"/>
       <c r="P21" s="204">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q21" s="205">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R21" s="206"/>
       <c r="S21" s="204">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T21" s="205">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="U21" s="206"/>
       <c r="V21" s="204">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="W21" s="205">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="X21" s="206"/>
       <c r="Y21" s="204">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="Z21" s="205">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="AA21" s="206"/>
       <c r="AB21" s="204">
         <v>11</v>
       </c>
       <c r="AC21" s="205">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AD21" s="206"/>
       <c r="AE21" s="204">
         <v>1</v>
       </c>
       <c r="AF21" s="205">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="AG21" s="206"/>
       <c r="AH21" s="204">
         <v>9</v>
       </c>
       <c r="AI21" s="205">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="AJ21" s="206"/>
       <c r="AK21" s="204">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AL21" s="205">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="AM21" s="206"/>
       <c r="AN21" s="204">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AO21" s="207">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="AP21" s="3"/>
       <c r="AT21" s="208"/>
       <c r="AU21" s="209">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV21" s="210">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="AW21" s="3"/>
       <c r="AX21" s="14"/>
@@ -8652,7 +8601,7 @@
       <c r="BV21" s="6"/>
       <c r="BW21" s="6"/>
       <c r="BY21" s="12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:77" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8665,87 +8614,87 @@
       </c>
       <c r="F22" s="127"/>
       <c r="G22" s="128">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H22" s="129">
-        <v>81.857142857142861</v>
+        <v>83.875</v>
       </c>
       <c r="I22" s="130"/>
       <c r="J22" s="128">
         <v>6</v>
       </c>
       <c r="K22" s="129">
-        <v>84.285714285714292</v>
+        <v>86.125</v>
       </c>
       <c r="L22" s="130"/>
       <c r="M22" s="128">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N22" s="129">
-        <v>87.571428571428569</v>
+        <v>87</v>
       </c>
       <c r="O22" s="130"/>
       <c r="P22" s="128">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q22" s="129">
-        <v>87.285714285714292</v>
+        <v>87.75</v>
       </c>
       <c r="R22" s="130"/>
       <c r="S22" s="128">
         <v>7</v>
       </c>
       <c r="T22" s="129">
-        <v>83.571428571428569</v>
+        <v>85.625</v>
       </c>
       <c r="U22" s="130"/>
       <c r="V22" s="128">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="W22" s="129">
-        <v>80.428571428571431</v>
+        <v>75.125</v>
       </c>
       <c r="X22" s="130"/>
       <c r="Y22" s="128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z22" s="129">
-        <v>95</v>
+        <v>91.875</v>
       </c>
       <c r="AA22" s="130"/>
       <c r="AB22" s="128">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC22" s="129">
-        <v>82.571428571428569</v>
+        <v>80</v>
       </c>
       <c r="AD22" s="130"/>
       <c r="AE22" s="128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF22" s="129">
-        <v>91.857142857142861</v>
+        <v>94.625</v>
       </c>
       <c r="AG22" s="130"/>
       <c r="AH22" s="128">
         <v>11</v>
       </c>
       <c r="AI22" s="129">
-        <v>75.285714285714292</v>
+        <v>75.25</v>
       </c>
       <c r="AJ22" s="130"/>
       <c r="AK22" s="128">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AL22" s="129">
-        <v>74.714285714285708</v>
+        <v>76.25</v>
       </c>
       <c r="AM22" s="130"/>
       <c r="AN22" s="128">
         <v>3</v>
       </c>
       <c r="AO22" s="131">
-        <v>88.571428571428569</v>
+        <v>89.375</v>
       </c>
       <c r="AP22" s="3"/>
       <c r="AU22" s="14"/>
@@ -8770,7 +8719,7 @@
       <c r="BV22" s="6"/>
       <c r="BW22" s="6"/>
       <c r="BY22" s="12" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:77" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8784,62 +8733,62 @@
       <c r="F23" s="135"/>
       <c r="G23" s="136"/>
       <c r="H23" s="137">
-        <v>573</v>
+        <v>671</v>
       </c>
       <c r="I23" s="138"/>
       <c r="J23" s="136"/>
       <c r="K23" s="137">
-        <v>590</v>
+        <v>689</v>
       </c>
       <c r="L23" s="138"/>
       <c r="M23" s="136"/>
       <c r="N23" s="137">
-        <v>613</v>
+        <v>696</v>
       </c>
       <c r="O23" s="138"/>
       <c r="P23" s="136"/>
       <c r="Q23" s="137">
-        <v>611</v>
+        <v>702</v>
       </c>
       <c r="R23" s="138"/>
       <c r="S23" s="136"/>
       <c r="T23" s="137">
-        <v>585</v>
+        <v>685</v>
       </c>
       <c r="U23" s="138"/>
       <c r="V23" s="136"/>
       <c r="W23" s="137">
-        <v>563</v>
+        <v>601</v>
       </c>
       <c r="X23" s="138"/>
       <c r="Y23" s="136"/>
       <c r="Z23" s="137">
-        <v>665</v>
+        <v>735</v>
       </c>
       <c r="AA23" s="138"/>
       <c r="AB23" s="136"/>
       <c r="AC23" s="137">
-        <v>578</v>
+        <v>640</v>
       </c>
       <c r="AD23" s="138"/>
       <c r="AE23" s="136"/>
       <c r="AF23" s="137">
-        <v>643</v>
+        <v>757</v>
       </c>
       <c r="AG23" s="138"/>
       <c r="AH23" s="136"/>
       <c r="AI23" s="137">
-        <v>527</v>
+        <v>602</v>
       </c>
       <c r="AJ23" s="138"/>
       <c r="AK23" s="136"/>
       <c r="AL23" s="137">
-        <v>523</v>
+        <v>610</v>
       </c>
       <c r="AM23" s="138"/>
       <c r="AN23" s="136"/>
       <c r="AO23" s="139">
-        <v>620</v>
+        <v>715</v>
       </c>
       <c r="AP23" s="3"/>
       <c r="AU23" s="14"/>
@@ -8854,7 +8803,7 @@
       <c r="BV23" s="6"/>
       <c r="BW23" s="6"/>
       <c r="BY23" s="12" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:77" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8893,7 +8842,7 @@
       <c r="U24" s="138"/>
       <c r="V24" s="136"/>
       <c r="W24" s="137">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="X24" s="138"/>
       <c r="Y24" s="136"/>
@@ -8903,7 +8852,7 @@
       <c r="AA24" s="138"/>
       <c r="AB24" s="136"/>
       <c r="AC24" s="137">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AD24" s="138"/>
       <c r="AE24" s="136"/>
@@ -8937,7 +8886,7 @@
       <c r="BV24" s="6"/>
       <c r="BW24" s="6"/>
       <c r="BY24" s="12" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:77" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8950,24 +8899,24 @@
       </c>
       <c r="F25" s="135"/>
       <c r="G25" s="140">
-        <v>0.69230769230769229</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="H25" s="137">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I25" s="138"/>
       <c r="J25" s="140">
-        <v>0.46153846153846156</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="K25" s="137">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L25" s="138"/>
       <c r="M25" s="140">
-        <v>0.69230769230769229</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="N25" s="137">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O25" s="138"/>
       <c r="P25" s="140">
@@ -8978,59 +8927,59 @@
       </c>
       <c r="R25" s="138"/>
       <c r="S25" s="140">
-        <v>0.61538461538461542</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="T25" s="137">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U25" s="138"/>
       <c r="V25" s="140">
-        <v>0.53846153846153844</v>
+        <v>0</v>
       </c>
       <c r="W25" s="137">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X25" s="138"/>
       <c r="Y25" s="140">
-        <v>0.69230769230769229</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="Z25" s="137">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AA25" s="138"/>
       <c r="AB25" s="140">
-        <v>0.46153846153846156</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="AC25" s="137">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD25" s="138"/>
       <c r="AE25" s="140">
-        <v>0.76923076923076927</v>
+        <v>0.84615384615384615</v>
       </c>
       <c r="AF25" s="137">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG25" s="138"/>
       <c r="AH25" s="140">
-        <v>0.53846153846153844</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="AI25" s="137">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ25" s="138"/>
       <c r="AK25" s="140">
-        <v>0.46153846153846156</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="AL25" s="137">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AM25" s="138"/>
       <c r="AN25" s="140">
-        <v>0.53846153846153844</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="AO25" s="139">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AP25" s="3"/>
       <c r="AW25" s="3"/>
@@ -9044,7 +8993,7 @@
       <c r="BV25" s="6"/>
       <c r="BW25" s="6"/>
       <c r="BY25" s="12" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:77" s="13" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9057,87 +9006,87 @@
       </c>
       <c r="F26" s="144"/>
       <c r="G26" s="145">
-        <v>0.47499999999999998</v>
+        <v>0.50375939849624063</v>
       </c>
       <c r="H26" s="146">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="I26" s="147"/>
       <c r="J26" s="145">
-        <v>0.56666666666666665</v>
+        <v>0.57894736842105265</v>
       </c>
       <c r="K26" s="146">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="L26" s="147"/>
       <c r="M26" s="145">
-        <v>0.5083333333333333</v>
+        <v>0.51879699248120303</v>
       </c>
       <c r="N26" s="146">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="O26" s="147"/>
       <c r="P26" s="145">
-        <v>0.6166666666666667</v>
+        <v>0.62406015037593987</v>
       </c>
       <c r="Q26" s="146">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="R26" s="147"/>
       <c r="S26" s="145">
-        <v>0.55000000000000004</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="T26" s="146">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="U26" s="147"/>
       <c r="V26" s="145">
-        <v>0.52500000000000002</v>
+        <v>0.47368421052631576</v>
       </c>
       <c r="W26" s="146">
         <v>63</v>
       </c>
       <c r="X26" s="147"/>
       <c r="Y26" s="145">
-        <v>0.625</v>
+        <v>0.60902255639097747</v>
       </c>
       <c r="Z26" s="146">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AA26" s="147"/>
       <c r="AB26" s="145">
-        <v>0.54166666666666663</v>
+        <v>0.52631578947368418</v>
       </c>
       <c r="AC26" s="146">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AD26" s="147"/>
       <c r="AE26" s="145">
-        <v>0.60833333333333328</v>
+        <v>0.63157894736842102</v>
       </c>
       <c r="AF26" s="146">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="AG26" s="147"/>
       <c r="AH26" s="145">
-        <v>0.45833333333333331</v>
+        <v>0.47368421052631576</v>
       </c>
       <c r="AI26" s="146">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="AJ26" s="147"/>
       <c r="AK26" s="145">
-        <v>0.40833333333333333</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="AL26" s="146">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="AM26" s="147"/>
       <c r="AN26" s="145">
-        <v>0.59166666666666667</v>
+        <v>0.60150375939849621</v>
       </c>
       <c r="AO26" s="148">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AP26" s="3"/>
       <c r="AW26" s="3"/>
@@ -9161,7 +9110,7 @@
       <c r="BV26" s="6"/>
       <c r="BW26" s="6"/>
       <c r="BY26" s="12" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:77" s="7" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9185,7 +9134,7 @@
         <v>68</v>
       </c>
       <c r="P27" s="153">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="Q27" s="150"/>
       <c r="R27" s="150"/>
@@ -9198,7 +9147,7 @@
         <v>69</v>
       </c>
       <c r="Y27" s="154">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Z27" s="150"/>
       <c r="AA27" s="152"/>
@@ -9211,7 +9160,7 @@
         <v>70</v>
       </c>
       <c r="AH27" s="154">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI27" s="150"/>
       <c r="AJ27" s="152"/>
@@ -9220,7 +9169,7 @@
       <c r="AM27" s="150"/>
       <c r="AN27" s="150"/>
       <c r="AO27" s="155" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="AP27" s="3"/>
       <c r="AW27" s="3"/>
@@ -9234,7 +9183,7 @@
       <c r="BV27" s="6"/>
       <c r="BW27" s="6"/>
       <c r="BY27" s="12" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:77" s="7" customFormat="1" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -9291,7 +9240,7 @@
       <c r="BV28" s="6"/>
       <c r="BW28" s="6"/>
       <c r="BY28" s="12" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:77" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -9300,7 +9249,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="17"/>
@@ -9352,7 +9301,7 @@
       <c r="BV29" s="6"/>
       <c r="BW29" s="6"/>
       <c r="BY29" s="12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:77" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -9409,7 +9358,7 @@
       <c r="BV30" s="6"/>
       <c r="BW30" s="6"/>
       <c r="BY30" s="12" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:77" s="7" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9507,7 +9456,7 @@
         <v>130</v>
       </c>
       <c r="V32" s="25">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="25">
         <v>130</v>
@@ -9560,47 +9509,47 @@
       <c r="F34" s="26"/>
       <c r="G34" s="25"/>
       <c r="H34" s="26">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="I34" s="26"/>
       <c r="J34" s="26"/>
       <c r="K34" s="26">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="L34" s="26"/>
       <c r="M34" s="26"/>
       <c r="N34" s="26">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="Q34" s="26">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T34" s="26">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="W34" s="26">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="Z34" s="26">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="AC34" s="26">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AF34" s="26">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="AI34" s="26">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="AL34" s="26">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="AO34" s="26">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="AV34" s="26">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="BY34" s="12"/>
     </row>
@@ -9610,44 +9559,44 @@
       <c r="F35" s="3"/>
       <c r="G35" s="27"/>
       <c r="H35" s="28">
-        <v>81.857142857142861</v>
+        <v>83.875</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="28">
-        <v>84.285714285714292</v>
+        <v>86.125</v>
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="28">
-        <v>87.571428571428569</v>
+        <v>87</v>
       </c>
       <c r="Q35" s="28">
-        <v>87.285714285714292</v>
+        <v>87.75</v>
       </c>
       <c r="T35" s="28">
-        <v>83.571428571428569</v>
+        <v>85.625</v>
       </c>
       <c r="W35" s="28">
-        <v>80.428571428571431</v>
+        <v>75.125</v>
       </c>
       <c r="Z35" s="28">
-        <v>95</v>
+        <v>91.875</v>
       </c>
       <c r="AC35" s="28">
-        <v>82.571428571428569</v>
+        <v>80</v>
       </c>
       <c r="AF35" s="28">
-        <v>91.857142857142861</v>
+        <v>94.625</v>
       </c>
       <c r="AI35" s="28">
-        <v>75.285714285714292</v>
+        <v>75.25</v>
       </c>
       <c r="AL35" s="28">
-        <v>74.714285714285708</v>
+        <v>76.25</v>
       </c>
       <c r="AO35" s="28">
-        <v>88.571428571428569</v>
+        <v>89.375</v>
       </c>
       <c r="BY35" s="12"/>
     </row>
@@ -9657,44 +9606,44 @@
       <c r="F36" s="3"/>
       <c r="G36" s="27"/>
       <c r="H36" s="28">
-        <v>573</v>
+        <v>671</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="28">
-        <v>590</v>
+        <v>689</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="28">
-        <v>613</v>
+        <v>696</v>
       </c>
       <c r="Q36" s="28">
-        <v>611</v>
+        <v>702</v>
       </c>
       <c r="T36" s="28">
-        <v>585</v>
+        <v>685</v>
       </c>
       <c r="W36" s="28">
-        <v>563</v>
+        <v>601</v>
       </c>
       <c r="Z36" s="28">
-        <v>665</v>
+        <v>735</v>
       </c>
       <c r="AC36" s="28">
-        <v>578</v>
+        <v>640</v>
       </c>
       <c r="AF36" s="28">
-        <v>643</v>
+        <v>757</v>
       </c>
       <c r="AI36" s="28">
-        <v>527</v>
+        <v>602</v>
       </c>
       <c r="AL36" s="28">
-        <v>523</v>
+        <v>610</v>
       </c>
       <c r="AO36" s="28">
-        <v>620</v>
+        <v>715</v>
       </c>
       <c r="BY36" s="12"/>
     </row>
@@ -9723,13 +9672,13 @@
         <v>52</v>
       </c>
       <c r="W37" s="28">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="Z37" s="28">
         <v>43</v>
       </c>
       <c r="AC37" s="28">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AF37" s="28">
         <v>63</v>
@@ -9751,44 +9700,44 @@
       <c r="F38" s="3"/>
       <c r="G38" s="27"/>
       <c r="H38" s="28">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="28">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q38" s="28">
         <v>9</v>
       </c>
       <c r="T38" s="28">
+        <v>10</v>
+      </c>
+      <c r="W38" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="28">
+        <v>6</v>
+      </c>
+      <c r="AC38" s="28">
+        <v>5</v>
+      </c>
+      <c r="AF38" s="28">
+        <v>11</v>
+      </c>
+      <c r="AI38" s="28">
         <v>8</v>
       </c>
-      <c r="W38" s="28">
-        <v>7</v>
-      </c>
-      <c r="Z38" s="28">
+      <c r="AL38" s="28">
+        <v>8</v>
+      </c>
+      <c r="AO38" s="28">
         <v>9</v>
-      </c>
-      <c r="AC38" s="28">
-        <v>6</v>
-      </c>
-      <c r="AF38" s="28">
-        <v>10</v>
-      </c>
-      <c r="AI38" s="28">
-        <v>7</v>
-      </c>
-      <c r="AL38" s="28">
-        <v>6</v>
-      </c>
-      <c r="AO38" s="28">
-        <v>7</v>
       </c>
       <c r="BY38" s="12"/>
     </row>
@@ -9798,44 +9747,44 @@
       <c r="F39" s="3"/>
       <c r="G39" s="27"/>
       <c r="H39" s="28">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="28">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="28">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="Q39" s="28">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="T39" s="28">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="W39" s="28">
         <v>63</v>
       </c>
       <c r="Z39" s="28">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AC39" s="28">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF39" s="28">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="AI39" s="28">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="AL39" s="28">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="AO39" s="28">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="BY39" s="12"/>
     </row>
@@ -9844,7 +9793,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H40" s="28"/>
       <c r="I40" s="3"/>
@@ -9854,11 +9803,11 @@
       <c r="K40" s="28"/>
       <c r="L40" s="3"/>
       <c r="M40" s="27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N40" s="28"/>
       <c r="P40" s="27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q40" s="28"/>
       <c r="S40" s="27">
@@ -9866,19 +9815,19 @@
       </c>
       <c r="T40" s="28"/>
       <c r="V40" s="27">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="W40" s="28"/>
       <c r="Y40" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z40" s="28"/>
       <c r="AB40" s="27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC40" s="28"/>
       <c r="AE40" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF40" s="28"/>
       <c r="AH40" s="27">
@@ -9886,7 +9835,7 @@
       </c>
       <c r="AI40" s="28"/>
       <c r="AK40" s="27">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AL40" s="28"/>
       <c r="AN40" s="27">
@@ -9906,44 +9855,44 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="27">
-        <v>0.69230769230769229</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="27">
-        <v>0.46153846153846156</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="27">
-        <v>0.69230769230769229</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="P41" s="27">
         <v>0.69230769230769229</v>
       </c>
       <c r="S41" s="27">
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="V41" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="27">
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="AB41" s="27">
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="AE41" s="27">
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="AH41" s="27">
         <v>0.61538461538461542</v>
       </c>
-      <c r="V41" s="27">
-        <v>0.53846153846153844</v>
-      </c>
-      <c r="Y41" s="27">
+      <c r="AK41" s="27">
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="AN41" s="27">
         <v>0.69230769230769229</v>
-      </c>
-      <c r="AB41" s="27">
-        <v>0.46153846153846156</v>
-      </c>
-      <c r="AE41" s="27">
-        <v>0.76923076923076927</v>
-      </c>
-      <c r="AH41" s="27">
-        <v>0.53846153846153844</v>
-      </c>
-      <c r="AK41" s="27">
-        <v>0.46153846153846156</v>
-      </c>
-      <c r="AN41" s="27">
-        <v>0.53846153846153844</v>
       </c>
       <c r="AR41" s="29">
         <v>1</v>
@@ -9958,44 +9907,44 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="27">
-        <v>0.47499999999999998</v>
+        <v>0.50375939849624063</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="27">
-        <v>0.56666666666666665</v>
+        <v>0.57894736842105265</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="27">
-        <v>0.5083333333333333</v>
+        <v>0.51879699248120303</v>
       </c>
       <c r="P42" s="27">
-        <v>0.6166666666666667</v>
+        <v>0.62406015037593987</v>
       </c>
       <c r="S42" s="27">
-        <v>0.55000000000000004</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="V42" s="27">
-        <v>0.52500000000000002</v>
+        <v>0.47368421052631576</v>
       </c>
       <c r="Y42" s="27">
-        <v>0.625</v>
+        <v>0.60902255639097747</v>
       </c>
       <c r="AB42" s="27">
-        <v>0.54166666666666663</v>
+        <v>0.52631578947368418</v>
       </c>
       <c r="AE42" s="27">
-        <v>0.60833333333333328</v>
+        <v>0.63157894736842102</v>
       </c>
       <c r="AH42" s="27">
-        <v>0.45833333333333331</v>
+        <v>0.47368421052631576</v>
       </c>
       <c r="AK42" s="27">
-        <v>0.40833333333333333</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="AN42" s="27">
-        <v>0.59166666666666667</v>
+        <v>0.60150375939849621</v>
       </c>
       <c r="BY42" s="12"/>
     </row>
@@ -10033,7 +9982,7 @@
         <v>76</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="BY45" s="12"/>
     </row>
@@ -12145,7 +12094,7 @@
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
       <c r="U1" s="168" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
@@ -12190,94 +12139,94 @@
     </row>
     <row r="2" spans="2:99" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="307" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C2" s="308" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D2" s="309"/>
       <c r="E2" s="156" t="s">
         <v>91</v>
       </c>
       <c r="F2" s="115">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="G2" s="157"/>
       <c r="H2" s="156" t="s">
         <v>92</v>
       </c>
       <c r="I2" s="115">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J2" s="157"/>
       <c r="K2" s="156" t="s">
         <v>93</v>
       </c>
       <c r="L2" s="115">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M2" s="157"/>
       <c r="N2" s="156" t="s">
         <v>94</v>
       </c>
       <c r="O2" s="115">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="P2" s="157"/>
       <c r="Q2" s="156" t="s">
         <v>95</v>
       </c>
       <c r="R2" s="115">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S2" s="157"/>
       <c r="T2" s="156" t="s">
         <v>96</v>
       </c>
       <c r="U2" s="115">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="V2" s="157"/>
       <c r="W2" s="156" t="s">
         <v>97</v>
       </c>
       <c r="X2" s="115">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="Y2" s="157"/>
       <c r="Z2" s="156" t="s">
         <v>98</v>
       </c>
       <c r="AA2" s="115">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="AB2" s="157"/>
       <c r="AC2" s="156" t="s">
         <v>99</v>
       </c>
       <c r="AD2" s="115">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="AE2" s="157"/>
       <c r="AF2" s="156" t="s">
         <v>100</v>
       </c>
       <c r="AG2" s="115">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="AH2" s="157"/>
       <c r="AI2" s="156" t="s">
         <v>101</v>
       </c>
       <c r="AJ2" s="115">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="AK2" s="157"/>
       <c r="AL2" s="156" t="s">
         <v>102</v>
       </c>
       <c r="AM2" s="115">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AN2" s="158"/>
       <c r="AO2" s="211">
@@ -12287,7 +12236,7 @@
         <v>8</v>
       </c>
       <c r="AQ2" s="39">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR2" s="40" t="s">
         <v>9</v>
@@ -12419,7 +12368,7 @@
         <v>14</v>
       </c>
       <c r="AQ3" s="41">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR3" s="40" t="s">
         <v>15</v>
@@ -13632,7 +13581,7 @@
       </c>
       <c r="AQ9" s="45"/>
       <c r="AR9" s="47" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AS9" s="4">
         <v>15</v>
@@ -13844,11 +13793,11 @@
       </c>
       <c r="AO10" s="45"/>
       <c r="AP10" s="226" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="AQ10" s="45"/>
       <c r="AR10" s="47" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AS10" s="4">
         <v>15</v>
@@ -14062,7 +14011,7 @@
       <c r="AP11" s="46"/>
       <c r="AQ11" s="45"/>
       <c r="AR11" s="47" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AS11" s="4">
         <v>13</v>
@@ -14161,122 +14110,122 @@
       <c r="C12" s="191">
         <v>13</v>
       </c>
-      <c r="D12" s="222" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="193" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="K12" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="L12" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="M12" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="N12" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="O12" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="P12" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="R12" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="S12" s="224" t="s">
-        <v>0</v>
+      <c r="D12" s="222">
+        <v>13</v>
+      </c>
+      <c r="E12" s="193">
+        <v>4</v>
+      </c>
+      <c r="F12" s="223">
+        <v>10</v>
+      </c>
+      <c r="G12" s="224">
+        <v>98</v>
+      </c>
+      <c r="H12" s="196">
+        <v>3</v>
+      </c>
+      <c r="I12" s="223">
+        <v>9</v>
+      </c>
+      <c r="J12" s="224">
+        <v>99</v>
+      </c>
+      <c r="K12" s="196">
+        <v>8</v>
+      </c>
+      <c r="L12" s="223">
+        <v>8</v>
+      </c>
+      <c r="M12" s="224">
+        <v>83</v>
+      </c>
+      <c r="N12" s="196">
+        <v>6</v>
+      </c>
+      <c r="O12" s="223">
+        <v>9</v>
+      </c>
+      <c r="P12" s="224">
+        <v>91</v>
+      </c>
+      <c r="Q12" s="196">
+        <v>2</v>
+      </c>
+      <c r="R12" s="223">
+        <v>10</v>
+      </c>
+      <c r="S12" s="224">
+        <v>100</v>
       </c>
       <c r="T12" s="196" t="s">
         <v>0</v>
       </c>
-      <c r="U12" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="V12" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="W12" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="X12" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="225" t="s">
-        <v>0</v>
+      <c r="U12" s="223">
+        <v>0</v>
+      </c>
+      <c r="V12" s="224">
+        <v>0</v>
+      </c>
+      <c r="W12" s="196">
+        <v>10</v>
+      </c>
+      <c r="X12" s="223">
+        <v>6</v>
+      </c>
+      <c r="Y12" s="224">
+        <v>70</v>
+      </c>
+      <c r="Z12" s="196">
+        <v>11</v>
+      </c>
+      <c r="AA12" s="223">
+        <v>5</v>
+      </c>
+      <c r="AB12" s="224">
+        <v>56</v>
+      </c>
+      <c r="AC12" s="196">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="223">
+        <v>11</v>
+      </c>
+      <c r="AE12" s="224">
+        <v>114</v>
+      </c>
+      <c r="AF12" s="196">
+        <v>9</v>
+      </c>
+      <c r="AG12" s="223">
+        <v>8</v>
+      </c>
+      <c r="AH12" s="224">
+        <v>75</v>
+      </c>
+      <c r="AI12" s="196">
+        <v>7</v>
+      </c>
+      <c r="AJ12" s="223">
+        <v>8</v>
+      </c>
+      <c r="AK12" s="224">
+        <v>87</v>
+      </c>
+      <c r="AL12" s="196">
+        <v>5</v>
+      </c>
+      <c r="AM12" s="223">
+        <v>9</v>
+      </c>
+      <c r="AN12" s="225">
+        <v>95</v>
       </c>
       <c r="AO12" s="45"/>
       <c r="AP12" s="46"/>
       <c r="AQ12" s="45"/>
       <c r="AR12" s="47" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AS12" s="4">
         <v>13</v>
@@ -14286,36 +14235,36 @@
         <v>0</v>
       </c>
       <c r="BL12" s="4"/>
-      <c r="BM12" s="4" t="s">
-        <v>0</v>
+      <c r="BM12" s="4">
+        <v>98</v>
       </c>
       <c r="BN12" s="4" t="s">
         <v>0</v>
       </c>
       <c r="BO12" s="4"/>
-      <c r="BP12" s="4" t="s">
-        <v>0</v>
+      <c r="BP12" s="4">
+        <v>99</v>
       </c>
       <c r="BQ12" s="4" t="s">
         <v>0</v>
       </c>
       <c r="BR12" s="4"/>
-      <c r="BS12" s="4" t="s">
-        <v>0</v>
+      <c r="BS12" s="4">
+        <v>83</v>
       </c>
       <c r="BT12" s="4" t="s">
         <v>0</v>
       </c>
       <c r="BU12" s="4"/>
-      <c r="BV12" s="4" t="s">
-        <v>0</v>
+      <c r="BV12" s="4">
+        <v>91</v>
       </c>
       <c r="BW12" s="4" t="s">
         <v>0</v>
       </c>
       <c r="BX12" s="4"/>
-      <c r="BY12" s="4" t="s">
-        <v>0</v>
+      <c r="BY12" s="4">
+        <v>100</v>
       </c>
       <c r="BZ12" s="4" t="s">
         <v>0</v>
@@ -14328,43 +14277,43 @@
         <v>0</v>
       </c>
       <c r="CD12" s="4"/>
-      <c r="CE12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="CF12" s="4" t="s">
-        <v>0</v>
+      <c r="CE12" s="4">
+        <v>70</v>
+      </c>
+      <c r="CF12" s="4">
+        <v>1</v>
       </c>
       <c r="CG12" s="4"/>
-      <c r="CH12" s="4" t="s">
-        <v>0</v>
+      <c r="CH12" s="4">
+        <v>56</v>
       </c>
       <c r="CI12" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CJ12" s="4"/>
-      <c r="CK12" s="4" t="s">
-        <v>0</v>
+      <c r="CK12" s="4">
+        <v>114</v>
       </c>
       <c r="CL12" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CM12" s="4"/>
-      <c r="CN12" s="4" t="s">
-        <v>0</v>
+      <c r="CN12" s="4">
+        <v>75</v>
       </c>
       <c r="CO12" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CP12" s="4"/>
-      <c r="CQ12" s="4" t="s">
-        <v>0</v>
+      <c r="CQ12" s="4">
+        <v>87</v>
       </c>
       <c r="CR12" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CS12" s="4"/>
-      <c r="CT12" s="4" t="s">
-        <v>0</v>
+      <c r="CT12" s="4">
+        <v>95</v>
       </c>
       <c r="CU12" s="4"/>
     </row>
@@ -16070,115 +16019,115 @@
         <v>22</v>
       </c>
       <c r="D21" s="237">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="E21" s="238">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F21" s="239">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="G21" s="240">
-        <v>573</v>
+        <v>671</v>
       </c>
       <c r="H21" s="241">
         <v>6</v>
       </c>
       <c r="I21" s="239">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="J21" s="240">
-        <v>590</v>
+        <v>689</v>
       </c>
       <c r="K21" s="241">
+        <v>5</v>
+      </c>
+      <c r="L21" s="239">
+        <v>69</v>
+      </c>
+      <c r="M21" s="240">
+        <v>696</v>
+      </c>
+      <c r="N21" s="241">
         <v>4</v>
       </c>
-      <c r="L21" s="239">
-        <v>61</v>
-      </c>
-      <c r="M21" s="240">
-        <v>613</v>
-      </c>
-      <c r="N21" s="241">
-        <v>5</v>
-      </c>
       <c r="O21" s="239">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="P21" s="240">
-        <v>611</v>
+        <v>702</v>
       </c>
       <c r="Q21" s="241">
         <v>7</v>
       </c>
       <c r="R21" s="239">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="S21" s="240">
-        <v>585</v>
+        <v>685</v>
       </c>
       <c r="T21" s="241">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="U21" s="239">
         <v>63</v>
       </c>
       <c r="V21" s="240">
-        <v>563</v>
+        <v>601</v>
       </c>
       <c r="W21" s="241">
+        <v>2</v>
+      </c>
+      <c r="X21" s="239">
+        <v>81</v>
+      </c>
+      <c r="Y21" s="240">
+        <v>735</v>
+      </c>
+      <c r="Z21" s="241">
+        <v>9</v>
+      </c>
+      <c r="AA21" s="239">
+        <v>70</v>
+      </c>
+      <c r="AB21" s="240">
+        <v>640</v>
+      </c>
+      <c r="AC21" s="241">
         <v>1</v>
       </c>
-      <c r="X21" s="239">
-        <v>75</v>
-      </c>
-      <c r="Y21" s="240">
-        <v>665</v>
-      </c>
-      <c r="Z21" s="241">
-        <v>8</v>
-      </c>
-      <c r="AA21" s="239">
-        <v>65</v>
-      </c>
-      <c r="AB21" s="240">
-        <v>578</v>
-      </c>
-      <c r="AC21" s="241">
-        <v>2</v>
-      </c>
       <c r="AD21" s="239">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="AE21" s="240">
-        <v>643</v>
+        <v>757</v>
       </c>
       <c r="AF21" s="241">
         <v>11</v>
       </c>
       <c r="AG21" s="239">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="AH21" s="240">
-        <v>527</v>
+        <v>602</v>
       </c>
       <c r="AI21" s="241">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AJ21" s="239">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="AK21" s="240">
-        <v>523</v>
+        <v>610</v>
       </c>
       <c r="AL21" s="241">
         <v>3</v>
       </c>
       <c r="AM21" s="239">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AN21" s="242">
-        <v>620</v>
+        <v>715</v>
       </c>
       <c r="AO21" s="48"/>
       <c r="AP21" s="49"/>
@@ -16189,62 +16138,62 @@
       <c r="BK21" s="4"/>
       <c r="BL21" s="4"/>
       <c r="BM21" s="4">
-        <v>573</v>
+        <v>671</v>
       </c>
       <c r="BN21" s="4"/>
       <c r="BO21" s="4"/>
       <c r="BP21" s="4">
-        <v>590</v>
+        <v>689</v>
       </c>
       <c r="BQ21" s="4"/>
       <c r="BR21" s="4"/>
       <c r="BS21" s="4">
-        <v>613</v>
+        <v>696</v>
       </c>
       <c r="BT21" s="4"/>
       <c r="BU21" s="4"/>
       <c r="BV21" s="4">
-        <v>611</v>
+        <v>702</v>
       </c>
       <c r="BW21" s="4"/>
       <c r="BX21" s="4"/>
       <c r="BY21" s="4">
-        <v>585</v>
+        <v>685</v>
       </c>
       <c r="BZ21" s="4"/>
       <c r="CA21" s="4"/>
       <c r="CB21" s="4">
-        <v>563</v>
+        <v>601</v>
       </c>
       <c r="CC21" s="4"/>
       <c r="CD21" s="4"/>
       <c r="CE21" s="4">
-        <v>665</v>
+        <v>735</v>
       </c>
       <c r="CF21" s="4"/>
       <c r="CG21" s="4"/>
       <c r="CH21" s="4">
-        <v>578</v>
+        <v>640</v>
       </c>
       <c r="CI21" s="4"/>
       <c r="CJ21" s="4"/>
       <c r="CK21" s="4">
-        <v>643</v>
+        <v>757</v>
       </c>
       <c r="CL21" s="4"/>
       <c r="CM21" s="4"/>
       <c r="CN21" s="4">
-        <v>527</v>
+        <v>602</v>
       </c>
       <c r="CO21" s="4"/>
       <c r="CP21" s="4"/>
       <c r="CQ21" s="4">
-        <v>523</v>
+        <v>610</v>
       </c>
       <c r="CR21" s="4"/>
       <c r="CS21" s="4"/>
       <c r="CT21" s="4">
-        <v>620</v>
+        <v>715</v>
       </c>
       <c r="CU21" s="4"/>
     </row>
@@ -16255,112 +16204,112 @@
         <v>23</v>
       </c>
       <c r="E22" s="246">
-        <v>6.5714285714285712</v>
+        <v>6.25</v>
       </c>
       <c r="F22" s="247">
-        <v>7.125</v>
+        <v>7.4444444444444446</v>
       </c>
       <c r="G22" s="248">
-        <v>81.857142857142861</v>
+        <v>83.875</v>
       </c>
       <c r="H22" s="249">
-        <v>6.625</v>
+        <v>6.2222222222222223</v>
       </c>
       <c r="I22" s="247">
-        <v>8.5</v>
+        <v>8.5555555555555554</v>
       </c>
       <c r="J22" s="248">
-        <v>84.285714285714292</v>
+        <v>86.125</v>
       </c>
       <c r="K22" s="249">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="L22" s="247">
-        <v>7.625</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="M22" s="248">
-        <v>87.571428571428569</v>
+        <v>87</v>
       </c>
       <c r="N22" s="249">
-        <v>5.25</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="O22" s="247">
-        <v>9.25</v>
+        <v>9.2222222222222214</v>
       </c>
       <c r="P22" s="248">
-        <v>87.285714285714292</v>
+        <v>87.75</v>
       </c>
       <c r="Q22" s="249">
-        <v>7.125</v>
+        <v>6.5555555555555554</v>
       </c>
       <c r="R22" s="247">
-        <v>8.25</v>
+        <v>8.4444444444444446</v>
       </c>
       <c r="S22" s="248">
-        <v>83.571428571428569</v>
+        <v>85.625</v>
       </c>
       <c r="T22" s="249">
         <v>8</v>
       </c>
       <c r="U22" s="247">
+        <v>7</v>
+      </c>
+      <c r="V22" s="248">
+        <v>75.125</v>
+      </c>
+      <c r="W22" s="249">
+        <v>4.1111111111111107</v>
+      </c>
+      <c r="X22" s="247">
+        <v>9</v>
+      </c>
+      <c r="Y22" s="248">
+        <v>91.875</v>
+      </c>
+      <c r="Z22" s="249">
+        <v>7.5555555555555554</v>
+      </c>
+      <c r="AA22" s="247">
+        <v>7.7777777777777777</v>
+      </c>
+      <c r="AB22" s="248">
+        <v>80</v>
+      </c>
+      <c r="AC22" s="249">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="AD22" s="247">
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="AE22" s="248">
+        <v>94.625</v>
+      </c>
+      <c r="AF22" s="249">
         <v>7.875</v>
       </c>
-      <c r="V22" s="248">
-        <v>80.428571428571431</v>
-      </c>
-      <c r="W22" s="249">
-        <v>3.375</v>
-      </c>
-      <c r="X22" s="247">
-        <v>9.375</v>
-      </c>
-      <c r="Y22" s="248">
-        <v>95</v>
-      </c>
-      <c r="Z22" s="249">
-        <v>7.125</v>
-      </c>
-      <c r="AA22" s="247">
-        <v>8.125</v>
-      </c>
-      <c r="AB22" s="248">
-        <v>82.571428571428569</v>
-      </c>
-      <c r="AC22" s="249">
-        <v>4.75</v>
-      </c>
-      <c r="AD22" s="247">
-        <v>9.125</v>
-      </c>
-      <c r="AE22" s="248">
-        <v>91.857142857142861</v>
-      </c>
-      <c r="AF22" s="249">
-        <v>7.7142857142857144</v>
-      </c>
       <c r="AG22" s="247">
-        <v>6.875</v>
+        <v>7</v>
       </c>
       <c r="AH22" s="248">
-        <v>75.285714285714292</v>
+        <v>75.25</v>
       </c>
       <c r="AI22" s="249">
-        <v>7.4285714285714288</v>
+        <v>7.375</v>
       </c>
       <c r="AJ22" s="247">
-        <v>6.125</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="AK22" s="248">
-        <v>74.714285714285708</v>
+        <v>76.25</v>
       </c>
       <c r="AL22" s="249">
-        <v>6</v>
+        <v>5.8888888888888893</v>
       </c>
       <c r="AM22" s="247">
-        <v>8.875</v>
+        <v>8.8888888888888893</v>
       </c>
       <c r="AN22" s="250">
-        <v>88.571428571428569</v>
+        <v>89.375</v>
       </c>
       <c r="AO22" s="48"/>
       <c r="AP22" s="49"/>
@@ -16453,7 +16402,7 @@
       <c r="AA23" s="255"/>
       <c r="AB23" s="256"/>
       <c r="AC23" s="257">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD23" s="255"/>
       <c r="AE23" s="256"/>
@@ -16542,8 +16491,8 @@
       </c>
       <c r="O24" s="108"/>
       <c r="P24" s="109"/>
-      <c r="Q24" s="75" t="s">
-        <v>0</v>
+      <c r="Q24" s="75">
+        <v>1</v>
       </c>
       <c r="R24" s="108"/>
       <c r="S24" s="109"/>
@@ -16661,8 +16610,8 @@
       </c>
       <c r="F25" s="108"/>
       <c r="G25" s="109"/>
-      <c r="H25" s="75" t="s">
-        <v>0</v>
+      <c r="H25" s="75">
+        <v>1</v>
       </c>
       <c r="I25" s="108"/>
       <c r="J25" s="109"/>
@@ -16825,8 +16774,8 @@
       </c>
       <c r="X26" s="108"/>
       <c r="Y26" s="109"/>
-      <c r="Z26" s="75" t="s">
-        <v>0</v>
+      <c r="Z26" s="75">
+        <v>1</v>
       </c>
       <c r="AA26" s="108"/>
       <c r="AB26" s="109"/>
@@ -16949,8 +16898,8 @@
       </c>
       <c r="R27" s="266"/>
       <c r="S27" s="267"/>
-      <c r="T27" s="268" t="s">
-        <v>0</v>
+      <c r="T27" s="268">
+        <v>1</v>
       </c>
       <c r="U27" s="266"/>
       <c r="V27" s="267"/>
@@ -17118,7 +17067,7 @@
     </row>
     <row r="29" spans="2:99" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AT29" s="300" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="AU29" s="310"/>
       <c r="AV29" s="310"/>
@@ -17403,88 +17352,88 @@
       <c r="BI32" s="326"/>
       <c r="BJ32" s="4"/>
       <c r="BK32" s="4"/>
-      <c r="BL32" s="4" t="s">
-        <v>0</v>
+      <c r="BL32" s="4">
+        <v>10</v>
       </c>
       <c r="BM32" s="4"/>
       <c r="BN32" s="4"/>
-      <c r="BO32" s="4" t="s">
-        <v>0</v>
+      <c r="BO32" s="4">
+        <v>9</v>
       </c>
       <c r="BP32" s="4"/>
       <c r="BQ32" s="4"/>
-      <c r="BR32" s="4" t="s">
-        <v>0</v>
+      <c r="BR32" s="4">
+        <v>8</v>
       </c>
       <c r="BS32" s="4"/>
       <c r="BT32" s="4"/>
-      <c r="BU32" s="4" t="s">
-        <v>0</v>
+      <c r="BU32" s="4">
+        <v>9</v>
       </c>
       <c r="BV32" s="4"/>
       <c r="BW32" s="4"/>
-      <c r="BX32" s="4" t="s">
-        <v>0</v>
+      <c r="BX32" s="4">
+        <v>10</v>
       </c>
       <c r="BY32" s="4"/>
       <c r="BZ32" s="4"/>
-      <c r="CA32" s="4" t="s">
+      <c r="CA32" s="4">
         <v>0</v>
       </c>
       <c r="CB32" s="4"/>
       <c r="CC32" s="4"/>
-      <c r="CD32" s="4" t="s">
-        <v>0</v>
+      <c r="CD32" s="4">
+        <v>6</v>
       </c>
       <c r="CE32" s="4"/>
       <c r="CF32" s="4"/>
-      <c r="CG32" s="4" t="s">
-        <v>0</v>
+      <c r="CG32" s="4">
+        <v>5</v>
       </c>
       <c r="CH32" s="4"/>
       <c r="CI32" s="4"/>
-      <c r="CJ32" s="4" t="s">
-        <v>0</v>
+      <c r="CJ32" s="4">
+        <v>11</v>
       </c>
       <c r="CK32" s="4"/>
       <c r="CL32" s="4"/>
-      <c r="CM32" s="4" t="s">
-        <v>0</v>
+      <c r="CM32" s="4">
+        <v>8</v>
       </c>
       <c r="CN32" s="4"/>
       <c r="CO32" s="4"/>
-      <c r="CP32" s="4" t="s">
-        <v>0</v>
+      <c r="CP32" s="4">
+        <v>8</v>
       </c>
       <c r="CQ32" s="4"/>
       <c r="CR32" s="4"/>
-      <c r="CS32" s="4" t="s">
-        <v>0</v>
+      <c r="CS32" s="4">
+        <v>9</v>
       </c>
       <c r="CT32" s="4"/>
       <c r="CU32" s="4"/>
     </row>
     <row r="33" spans="46:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AT33" s="270" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AU33" s="272">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="AV33" s="273">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="AW33" s="274">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX33" s="275">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="AY33" s="276" t="s">
         <v>61</v>
       </c>
       <c r="AZ33" s="275">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="BA33" s="277" t="s">
         <v>0</v>
@@ -17564,13 +17513,13 @@
     </row>
     <row r="34" spans="46:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AT34" s="271" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AU34" s="280">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AV34" s="281">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="AW34" s="282">
         <v>2</v>
@@ -17588,7 +17537,7 @@
         <v>61</v>
       </c>
       <c r="BB34" s="286">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BC34" s="287"/>
       <c r="BD34" s="282"/>
@@ -17665,10 +17614,10 @@
         <v>92</v>
       </c>
       <c r="AU35" s="280">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV35" s="281">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="AW35" s="282">
         <v>1</v>
@@ -17763,10 +17712,10 @@
         <v>93</v>
       </c>
       <c r="AU36" s="280">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV36" s="281">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="AW36" s="282">
         <v>1</v>
@@ -17861,10 +17810,10 @@
         <v>95</v>
       </c>
       <c r="AU37" s="280">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV37" s="281">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="AW37" s="282">
         <v>1</v>
@@ -17959,10 +17908,10 @@
         <v>102</v>
       </c>
       <c r="AU38" s="280">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV38" s="281">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="AW38" s="282">
         <v>1</v>
@@ -18057,10 +18006,10 @@
         <v>91</v>
       </c>
       <c r="AU39" s="280">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="AV39" s="281">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="AW39" s="282" t="s">
         <v>0</v>
@@ -18155,10 +18104,10 @@
         <v>94</v>
       </c>
       <c r="AU40" s="280">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="AV40" s="281">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="AW40" s="282" t="s">
         <v>0</v>
@@ -18253,10 +18202,10 @@
         <v>96</v>
       </c>
       <c r="AU41" s="280">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="AV41" s="281">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="AW41" s="282" t="s">
         <v>0</v>
@@ -18286,27 +18235,27 @@
       <c r="BJ41" s="4"/>
       <c r="BK41" s="4"/>
       <c r="BL41" s="4">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="BM41" s="4"/>
       <c r="BN41" s="4"/>
       <c r="BO41" s="4">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="BP41" s="4"/>
       <c r="BQ41" s="4"/>
       <c r="BR41" s="4">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="BS41" s="4"/>
       <c r="BT41" s="4"/>
       <c r="BU41" s="4">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="BV41" s="4"/>
       <c r="BW41" s="4"/>
       <c r="BX41" s="4">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="BY41" s="4"/>
       <c r="BZ41" s="4"/>
@@ -18316,32 +18265,32 @@
       <c r="CB41" s="4"/>
       <c r="CC41" s="4"/>
       <c r="CD41" s="4">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="CE41" s="4"/>
       <c r="CF41" s="4"/>
       <c r="CG41" s="4">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="CH41" s="4"/>
       <c r="CI41" s="4"/>
       <c r="CJ41" s="4">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="CK41" s="4"/>
       <c r="CL41" s="4"/>
       <c r="CM41" s="4">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="CN41" s="4"/>
       <c r="CO41" s="4"/>
       <c r="CP41" s="4">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="CQ41" s="4"/>
       <c r="CR41" s="4"/>
       <c r="CS41" s="4">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="CT41" s="4"/>
       <c r="CU41" s="4"/>
@@ -18351,10 +18300,10 @@
         <v>98</v>
       </c>
       <c r="AU42" s="280">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="AV42" s="281">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="AW42" s="282" t="s">
         <v>0</v>
@@ -18383,27 +18332,27 @@
       <c r="BI42" s="286"/>
       <c r="BJ42" s="50"/>
       <c r="BK42" s="50">
-        <v>6.5714285714285712</v>
+        <v>6.25</v>
       </c>
       <c r="BL42" s="50"/>
       <c r="BM42" s="50"/>
       <c r="BN42" s="50">
-        <v>6.625</v>
+        <v>6.2222222222222223</v>
       </c>
       <c r="BO42" s="50"/>
       <c r="BP42" s="50"/>
       <c r="BQ42" s="50">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="BR42" s="50"/>
       <c r="BS42" s="50"/>
       <c r="BT42" s="50">
-        <v>5.25</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="BU42" s="50"/>
       <c r="BV42" s="50"/>
       <c r="BW42" s="50">
-        <v>7.125</v>
+        <v>6.5555555555555554</v>
       </c>
       <c r="BX42" s="50"/>
       <c r="BY42" s="50"/>
@@ -18413,32 +18362,32 @@
       <c r="CA42" s="50"/>
       <c r="CB42" s="50"/>
       <c r="CC42" s="50">
-        <v>3.375</v>
+        <v>4.1111111111111107</v>
       </c>
       <c r="CD42" s="50"/>
       <c r="CE42" s="50"/>
       <c r="CF42" s="50">
-        <v>7.125</v>
+        <v>7.5555555555555554</v>
       </c>
       <c r="CG42" s="50"/>
       <c r="CH42" s="50"/>
       <c r="CI42" s="50">
-        <v>4.75</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="CJ42" s="50"/>
       <c r="CK42" s="50"/>
       <c r="CL42" s="50">
-        <v>7.7142857142857144</v>
+        <v>7.875</v>
       </c>
       <c r="CM42" s="50"/>
       <c r="CN42" s="50"/>
       <c r="CO42" s="50">
-        <v>7.4285714285714288</v>
+        <v>7.375</v>
       </c>
       <c r="CP42" s="50"/>
       <c r="CQ42" s="50"/>
       <c r="CR42" s="50">
-        <v>6</v>
+        <v>5.8888888888888893</v>
       </c>
       <c r="CS42" s="50"/>
       <c r="CT42" s="50"/>
@@ -18449,10 +18398,10 @@
         <v>100</v>
       </c>
       <c r="AU43" s="280">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="AV43" s="281">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="AW43" s="282" t="s">
         <v>0</v>
@@ -18485,10 +18434,10 @@
         <v>101</v>
       </c>
       <c r="AU44" s="289">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="AV44" s="290">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="AW44" s="291" t="s">
         <v>0</v>

--- a/regular_season_final.xlsx
+++ b/regular_season_final.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="173">
   <si>
     <t/>
   </si>
@@ -338,28 +338,16 @@
     <t>Jets</t>
   </si>
   <si>
-    <t>Bills</t>
-  </si>
-  <si>
     <t>Browns</t>
   </si>
   <si>
     <t>Titans</t>
   </si>
   <si>
-    <t>Lions</t>
-  </si>
-  <si>
-    <t>Colts</t>
-  </si>
-  <si>
     <t>Broncos</t>
   </si>
   <si>
     <t>Falcons</t>
-  </si>
-  <si>
-    <t>Raiders</t>
   </si>
   <si>
     <t>Chargers</t>
@@ -419,127 +407,142 @@
     <t>No</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Week 9 Scores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w9_p1_picks         = ["V","H","V","H","H","H","H","V","V","H","H","V","H"];</t>
-  </si>
-  <si>
     <t>Steelers</t>
   </si>
   <si>
     <t>Ravens</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w9_p2_picks         = ["V","V","V","H","V","H","H","V","V","H","H","H","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w9_p3_picks         = ["V","V","V","H","V","H","V","V","V","H","H","H","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w9_p4_picks         = ["H","H","V","H","H","H","H","V","V","H","H","V","H"];</t>
-  </si>
-  <si>
     <t>Dolphins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w9_p5_picks         = ["V","H","V","H","H","H","V","V","V","H","H","H","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w9_p6_picks         = [];</t>
   </si>
   <si>
     <t>Giants</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w9_p7_picks         = ["V","V","V","H","H","H","V","H","V","H","H","V","V"];</t>
-  </si>
-  <si>
     <t>Rams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w9_p8_picks         = ["H","V","V","H","H","H","V","H","V","H","V","H","V"];</t>
   </si>
   <si>
     <t>49ers</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w9_p9_picks         = ["V","V","V","H","H","V","H","V","V","H","H","H","H"];</t>
+    <t>10</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w9_p10_picks        = ["V","H","H","V","V","H","H","V","V","H","H","H","H"];</t>
+    <t>Week 10 Scores</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w9_p11_picks        = ["V","H","V","H","H","H","V","H","V","H","H","V","H"];</t>
+    <t xml:space="preserve">   var w10_p1_picks         = ["H","H","V","H","H","V","V","V","H","H","H","V","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w9_p12_picks        = ["V","V","V","H","H","H","V","V","V","H","H","H","H"];</t>
+    <t xml:space="preserve">   var w10_p2_picks         = ["H","H","V","H","H","H","H","V","H","H","H","H","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w9_p1_weights       = ["9","5","15","16","10","12","4","7","8","14","11","6","13"];</t>
+    <t>Texans</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w9_p2_weights       = ["4","7","16","8","5","6","15","9","14","13","12","11","10"];</t>
+    <t xml:space="preserve">   var w10_p3_picks         = ["H","H","V","H","H","H","H","V","H","H","H","V","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w9_p3_weights       = ["9","5","15","16","10","12","6","7","8","14","11","4","13"];</t>
+    <t xml:space="preserve">   var w10_p4_picks         = ["H","H","V","H","H","V","V","V","H","H","H","H","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w9_p4_weights       = ["4","5","16","13","10","11","6","7","8","15","12","9","14"];</t>
+    <t xml:space="preserve">   var w10_p5_picks         = ["H","H","V","H","H","V","V","V","H","H","H","V","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t xml:space="preserve">   var w10_p6_picks         = ["H","H","V","V","H","V","V","H","H","H","H","V","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w9_p5_weights       = ["15","6","16","10","14","13","9","7","12","8","11","4","5"];</t>
+    <t>Bears</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w9_p6_weights       = [];</t>
+    <t xml:space="preserve">   var w10_p7_picks         = ["V","V","H","H","V","V","V","V","H","H","H","H","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w9_p7_weights       = ["15","16","14","13","7","9","8","4","10","12","11","6","5"];</t>
+    <t xml:space="preserve">   var w10_p8_picks         = ["H","V","V","H","H","V","H","V","V","H","H","H","H","V"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w9_p8_weights       = ["12","9","15","16","11","13","10","7","8","14","5","6","4"];</t>
+    <t>Redskins</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w9_p9_weights       = ["13","5","16","15","9","6","7","12","14","11","4","8","10"];</t>
+    <t xml:space="preserve">   var w10_p9_picks         = ["H","H","V","H","H","V","H","V","H","H","H","V","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w9_p10_weights      = ["13","7","15","5","14","11","4","9","8","10","12","16","6"];</t>
+    <t xml:space="preserve">   var w10_p10_picks        = ["H","V","H","V","V","H","V","H","H","V","V","V","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w9_p11_weights      = ["9","5","15","16","10","12","14","7","13","6","11","4","8"];</t>
+    <t>Cardinals</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w9_p12_weights      = ["16","5","15","14","7","11","6","8","9","13","10","4","12"];</t>
+    <t xml:space="preserve">   var w10_p11_picks        = ["H","V","H","H","V","H","H","V","H","H","H","H","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w9_winners          = ["V","H","V","H","H","V","H","V","V","V","H","H","H"];</t>
+    <t xml:space="preserve">   var w10_p12_picks        = ["H","H","V","H","H","V","H","V","H","H","H","V","H","V"];</t>
   </si>
   <si>
-    <t>Cardinals, Bears, Bengals, Texans, Patriots, Redskins</t>
+    <t>Patriots</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w9_mn_points        = ["42","47","44","44","31","","38","42","46","2","44","38"];</t>
+    <t xml:space="preserve">   var w10_p1_weights       = ["16","11","7","8","6","5","4","9","13","12","15","3","14","10"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w9_actual_mn_points = 0;</t>
+    <t xml:space="preserve">   var w10_p2_weights       = ["16","3","4","15","14","13","12","8","6","11","10","7","9","5"];</t>
   </si>
   <si>
-    <t>Week 9 Final</t>
+    <t xml:space="preserve">   var w10_p3_weights       = ["15","12","5","10","6","4","3","7","11","13","16","9","14","8"];</t>
   </si>
   <si>
-    <t>'Week 9'!$B$2</t>
+    <t>Bengals</t>
   </si>
   <si>
-    <t>'Week 9'!$C$2</t>
+    <t xml:space="preserve">   var w10_p4_weights       = ["16","12","5","10","6","4","3","8","11","13","15","7","14","9"];</t>
   </si>
   <si>
-    <t>'Week 9'!$D$2</t>
+    <t xml:space="preserve">   var w10_p5_weights       = ["16","10","11","3","4","9","12","8","13","7","15","14","6","5"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w10_p6_weights       = ["9","6","10","5","4","15","3","8","13","12","7","11","16","14"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w10_p7_weights       = ["5","11","4","15","13","8","9","12","7","14","10","16","6","3"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w10_p8_weights       = ["15","12","9","10","7","6","5","8","11","13","16","4","14","3"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w10_p9_weights       = ["16","3","10","9","4","12","11","8","7","5","15","6","14","13"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w10_p10_weights      = ["6","15","5","11","14","8","10","9","12","13","7","3","4","16"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w10_p11_weights      = ["15","16","5","7","6","4","3","8","11","13","12","10","14","9"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w10_p12_weights      = ["16","3","14","4","9","8","12","13","6","11","15","5","10","7"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w10_winners          = ["H","V","V","V","V","H","H","H","H","V","H","V","V","H"];</t>
+  </si>
+  <si>
+    <t>Bills, Lions, Colts, Raiders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w10_mn_points        = ["46","51","47","42","37","56","38","41","49","70","48","38"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w10_actual_mn_points = 0;</t>
+  </si>
+  <si>
+    <t>Week 10 Final</t>
+  </si>
+  <si>
+    <t>'Week 10'!$B$2</t>
+  </si>
+  <si>
+    <t>'Week 10'!$C$2</t>
+  </si>
+  <si>
+    <t>'Week 10'!$D$2</t>
   </si>
 </sst>
 </file>
@@ -5179,66 +5182,66 @@
         <v>40</v>
       </c>
       <c r="C2" s="297" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D2" s="112" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E2" s="113"/>
       <c r="F2" s="114" t="s">
         <v>91</v>
       </c>
       <c r="G2" s="115">
-        <v>-27</v>
+        <v>-30</v>
       </c>
       <c r="H2" s="116"/>
       <c r="I2" s="114" t="s">
         <v>92</v>
       </c>
       <c r="J2" s="115">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K2" s="116"/>
       <c r="L2" s="114" t="s">
         <v>93</v>
       </c>
       <c r="M2" s="115">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N2" s="116"/>
       <c r="O2" s="114" t="s">
         <v>94</v>
       </c>
       <c r="P2" s="115">
-        <v>-27</v>
+        <v>-30</v>
       </c>
       <c r="Q2" s="116"/>
       <c r="R2" s="114" t="s">
         <v>95</v>
       </c>
       <c r="S2" s="115">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T2" s="116"/>
       <c r="U2" s="114" t="s">
         <v>96</v>
       </c>
       <c r="V2" s="115">
-        <v>-27</v>
+        <v>-30</v>
       </c>
       <c r="W2" s="116"/>
       <c r="X2" s="114" t="s">
         <v>97</v>
       </c>
       <c r="Y2" s="115">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="Z2" s="116"/>
       <c r="AA2" s="114" t="s">
         <v>98</v>
       </c>
       <c r="AB2" s="115">
-        <v>-27</v>
+        <v>-30</v>
       </c>
       <c r="AC2" s="116"/>
       <c r="AD2" s="114" t="s">
@@ -5252,21 +5255,21 @@
         <v>100</v>
       </c>
       <c r="AH2" s="115">
-        <v>-27</v>
+        <v>1</v>
       </c>
       <c r="AI2" s="116"/>
       <c r="AJ2" s="114" t="s">
         <v>101</v>
       </c>
       <c r="AK2" s="115">
-        <v>-27</v>
+        <v>-30</v>
       </c>
       <c r="AL2" s="116"/>
       <c r="AM2" s="114" t="s">
         <v>102</v>
       </c>
       <c r="AN2" s="115">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="AO2" s="117"/>
       <c r="AP2" s="3"/>
@@ -5285,7 +5288,7 @@
       <c r="AV2" s="305"/>
       <c r="AW2" s="3"/>
       <c r="BE2" s="300" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="BF2" s="301"/>
       <c r="BG2" s="302"/>
@@ -5437,7 +5440,7 @@
       </c>
       <c r="AP3" s="3"/>
       <c r="AR3" s="11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS3" s="9" t="s">
         <v>52</v>
@@ -5505,40 +5508,40 @@
     </row>
     <row r="4" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="180" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C4" s="181" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="181" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E4" s="182" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F4" s="183" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="G4" s="184">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H4" s="185" t="s">
         <v>0</v>
       </c>
       <c r="I4" s="186" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="J4" s="184">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="K4" s="185" t="s">
         <v>0</v>
       </c>
       <c r="L4" s="186" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="M4" s="184">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N4" s="185" t="s">
         <v>0</v>
@@ -5547,22 +5550,26 @@
         <v>60</v>
       </c>
       <c r="P4" s="184">
-        <v>4</v>
-      </c>
-      <c r="Q4" s="185">
-        <v>-4</v>
+        <v>16</v>
+      </c>
+      <c r="Q4" s="185" t="s">
+        <v>0</v>
       </c>
       <c r="R4" s="186" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="S4" s="184">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T4" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="U4" s="186"/>
-      <c r="V4" s="184"/>
+      <c r="U4" s="186" t="s">
+        <v>60</v>
+      </c>
+      <c r="V4" s="184">
+        <v>9</v>
+      </c>
       <c r="W4" s="185" t="s">
         <v>0</v>
       </c>
@@ -5570,49 +5577,49 @@
         <v>88</v>
       </c>
       <c r="Y4" s="184">
-        <v>15</v>
-      </c>
-      <c r="Z4" s="185" t="s">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="Z4" s="185">
+        <v>-5</v>
       </c>
       <c r="AA4" s="186" t="s">
         <v>60</v>
       </c>
       <c r="AB4" s="184">
-        <v>12</v>
-      </c>
-      <c r="AC4" s="185">
-        <v>-12</v>
+        <v>15</v>
+      </c>
+      <c r="AC4" s="185" t="s">
+        <v>0</v>
       </c>
       <c r="AD4" s="186" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AE4" s="184">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AF4" s="185" t="s">
         <v>0</v>
       </c>
       <c r="AG4" s="186" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AH4" s="184">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AI4" s="185" t="s">
         <v>0</v>
       </c>
       <c r="AJ4" s="186" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AK4" s="184">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AL4" s="185" t="s">
         <v>0</v>
       </c>
       <c r="AM4" s="186" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AN4" s="184">
         <v>16</v>
@@ -5621,25 +5628,25 @@
         <v>0</v>
       </c>
       <c r="AT4" s="188" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AU4" s="184">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AV4" s="187" t="s">
         <v>0</v>
       </c>
       <c r="AX4" s="4">
-        <v>-87</v>
+        <v>151</v>
       </c>
       <c r="AY4" s="4">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="AZ4" s="4">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="BA4" s="4">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="BB4" s="4">
         <v>1</v>
@@ -5651,10 +5658,10 @@
         <v>1</v>
       </c>
       <c r="BF4" s="60" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BG4" s="61">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="BH4" s="189"/>
       <c r="BI4" s="62">
@@ -5664,10 +5671,10 @@
         <v>99</v>
       </c>
       <c r="BK4" s="64">
-        <v>94.625</v>
+        <v>92.777777777777771</v>
       </c>
       <c r="BL4" s="65">
-        <v>757</v>
+        <v>835</v>
       </c>
       <c r="BM4" s="172"/>
       <c r="BN4" s="66">
@@ -5680,7 +5687,7 @@
         <v>93</v>
       </c>
       <c r="BQ4" s="69">
-        <v>-27</v>
+        <v>-30</v>
       </c>
       <c r="BR4" s="70">
         <v>3</v>
@@ -5692,7 +5699,7 @@
         <v>61</v>
       </c>
       <c r="BU4" s="71">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="BV4" s="72" t="s">
         <v>0</v>
@@ -5701,148 +5708,152 @@
         <v>0</v>
       </c>
       <c r="BY4" s="12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="190" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C5" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="191" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="E5" s="192" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F5" s="193" t="s">
         <v>60</v>
       </c>
       <c r="G5" s="194">
-        <v>5</v>
-      </c>
-      <c r="H5" s="195" t="s">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="H5" s="195">
+        <v>-11</v>
       </c>
       <c r="I5" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="J5" s="194">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K5" s="195">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="L5" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="M5" s="194">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N5" s="195">
-        <v>-5</v>
+        <v>-12</v>
       </c>
       <c r="O5" s="196" t="s">
         <v>60</v>
       </c>
       <c r="P5" s="194">
-        <v>5</v>
-      </c>
-      <c r="Q5" s="195" t="s">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="Q5" s="195">
+        <v>-12</v>
       </c>
       <c r="R5" s="196" t="s">
         <v>60</v>
       </c>
       <c r="S5" s="194">
+        <v>10</v>
+      </c>
+      <c r="T5" s="195">
+        <v>-10</v>
+      </c>
+      <c r="U5" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="V5" s="194">
         <v>6</v>
       </c>
-      <c r="T5" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="U5" s="196"/>
-      <c r="V5" s="194"/>
-      <c r="W5" s="195" t="s">
-        <v>0</v>
+      <c r="W5" s="195">
+        <v>-6</v>
       </c>
       <c r="X5" s="196" t="s">
         <v>88</v>
       </c>
       <c r="Y5" s="194">
-        <v>16</v>
-      </c>
-      <c r="Z5" s="195">
-        <v>-16</v>
+        <v>11</v>
+      </c>
+      <c r="Z5" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AA5" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AB5" s="194">
-        <v>9</v>
-      </c>
-      <c r="AC5" s="195">
-        <v>-9</v>
+        <v>12</v>
+      </c>
+      <c r="AC5" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AD5" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE5" s="194">
+        <v>3</v>
+      </c>
+      <c r="AF5" s="195">
+        <v>-3</v>
+      </c>
+      <c r="AG5" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="AE5" s="194">
-        <v>5</v>
-      </c>
-      <c r="AF5" s="195">
-        <v>-5</v>
-      </c>
-      <c r="AG5" s="196" t="s">
+      <c r="AH5" s="194">
+        <v>15</v>
+      </c>
+      <c r="AI5" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK5" s="194">
+        <v>16</v>
+      </c>
+      <c r="AL5" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="AH5" s="194">
-        <v>7</v>
-      </c>
-      <c r="AI5" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK5" s="194">
-        <v>5</v>
-      </c>
-      <c r="AL5" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="196" t="s">
-        <v>88</v>
-      </c>
       <c r="AN5" s="194">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AO5" s="197">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="AR5" s="8"/>
       <c r="AS5" s="9"/>
       <c r="AT5" s="198" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AU5" s="194">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV5" s="197">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="AX5" s="4">
-        <v>-19</v>
+        <v>6</v>
       </c>
       <c r="AY5" s="4">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="AZ5" s="4">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="BA5" s="4">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="BB5" s="4">
         <v>2</v>
@@ -5854,23 +5865,23 @@
         <v>2</v>
       </c>
       <c r="BF5" s="77" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="BG5" s="78">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="BH5" s="189"/>
       <c r="BI5" s="79">
         <v>2</v>
       </c>
       <c r="BJ5" s="80" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="BK5" s="81">
-        <v>91.875</v>
+        <v>87</v>
       </c>
       <c r="BL5" s="82">
-        <v>735</v>
+        <v>783</v>
       </c>
       <c r="BM5" s="172"/>
       <c r="BN5" s="79">
@@ -5880,10 +5891,10 @@
         <v>97</v>
       </c>
       <c r="BP5" s="83">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="BQ5" s="84">
-        <v>-27</v>
+        <v>-30</v>
       </c>
       <c r="BR5" s="85">
         <v>2</v>
@@ -5898,10 +5909,10 @@
         <v>0</v>
       </c>
       <c r="BV5" s="87" t="s">
-        <v>61</v>
-      </c>
-      <c r="BW5" s="88">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="BW5" s="88" t="s">
+        <v>0</v>
       </c>
       <c r="BY5" s="12" t="s">
         <v>136</v>
@@ -5909,13 +5920,13 @@
     </row>
     <row r="6" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="190" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C6" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="191" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="E6" s="192" t="s">
         <v>88</v>
@@ -5924,7 +5935,7 @@
         <v>88</v>
       </c>
       <c r="G6" s="194">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H6" s="195" t="s">
         <v>0</v>
@@ -5933,7 +5944,7 @@
         <v>88</v>
       </c>
       <c r="J6" s="194">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="K6" s="195" t="s">
         <v>0</v>
@@ -5942,7 +5953,7 @@
         <v>88</v>
       </c>
       <c r="M6" s="194">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N6" s="195" t="s">
         <v>0</v>
@@ -5951,7 +5962,7 @@
         <v>88</v>
       </c>
       <c r="P6" s="194">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="Q6" s="195" t="s">
         <v>0</v>
@@ -5960,30 +5971,34 @@
         <v>88</v>
       </c>
       <c r="S6" s="194">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="T6" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="U6" s="196"/>
-      <c r="V6" s="194"/>
+      <c r="U6" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="V6" s="194">
+        <v>10</v>
+      </c>
       <c r="W6" s="195" t="s">
         <v>0</v>
       </c>
       <c r="X6" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="Y6" s="194">
-        <v>14</v>
-      </c>
-      <c r="Z6" s="195" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="Z6" s="195">
+        <v>-4</v>
       </c>
       <c r="AA6" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AB6" s="194">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AC6" s="195" t="s">
         <v>0</v>
@@ -5992,7 +6007,7 @@
         <v>88</v>
       </c>
       <c r="AE6" s="194">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AF6" s="195" t="s">
         <v>0</v>
@@ -6001,25 +6016,25 @@
         <v>60</v>
       </c>
       <c r="AH6" s="194">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AI6" s="195">
-        <v>-15</v>
+        <v>-5</v>
       </c>
       <c r="AJ6" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AK6" s="194">
-        <v>15</v>
-      </c>
-      <c r="AL6" s="195" t="s">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="AL6" s="195">
+        <v>-5</v>
       </c>
       <c r="AM6" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AN6" s="194">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO6" s="197" t="s">
         <v>0</v>
@@ -6030,22 +6045,22 @@
         <v>88</v>
       </c>
       <c r="AU6" s="194">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AV6" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX6" s="4">
-        <v>-138</v>
+        <v>-61</v>
       </c>
       <c r="AY6" s="4">
-        <v>138</v>
+        <v>61</v>
       </c>
       <c r="AZ6" s="4">
-        <v>138</v>
+        <v>61</v>
       </c>
       <c r="BA6" s="4">
-        <v>138</v>
+        <v>61</v>
       </c>
       <c r="BB6" s="4">
         <v>3</v>
@@ -6057,36 +6072,36 @@
         <v>3</v>
       </c>
       <c r="BF6" s="77" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="BG6" s="78">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="BH6" s="189"/>
       <c r="BI6" s="79">
         <v>3</v>
       </c>
       <c r="BJ6" s="80" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="BK6" s="81">
-        <v>89.375</v>
+        <v>86.555555555555557</v>
       </c>
       <c r="BL6" s="82">
-        <v>715</v>
+        <v>779</v>
       </c>
       <c r="BM6" s="172"/>
       <c r="BN6" s="79">
         <v>3</v>
       </c>
       <c r="BO6" s="80" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="BP6" s="83">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="BQ6" s="84">
-        <v>-27</v>
+        <v>-30</v>
       </c>
       <c r="BR6" s="85">
         <v>1</v>
@@ -6101,75 +6116,79 @@
         <v>0</v>
       </c>
       <c r="BV6" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW6" s="88" t="s">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="BW6" s="88">
+        <v>20</v>
       </c>
       <c r="BY6" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="190" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C7" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="191" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E7" s="192" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F7" s="193" t="s">
         <v>60</v>
       </c>
       <c r="G7" s="194">
-        <v>16</v>
-      </c>
-      <c r="H7" s="195" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="H7" s="195">
+        <v>-8</v>
       </c>
       <c r="I7" s="196" t="s">
         <v>60</v>
       </c>
       <c r="J7" s="194">
-        <v>8</v>
-      </c>
-      <c r="K7" s="195" t="s">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="K7" s="195">
+        <v>-15</v>
       </c>
       <c r="L7" s="196" t="s">
         <v>60</v>
       </c>
       <c r="M7" s="194">
-        <v>16</v>
-      </c>
-      <c r="N7" s="195" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="N7" s="195">
+        <v>-10</v>
       </c>
       <c r="O7" s="196" t="s">
         <v>60</v>
       </c>
       <c r="P7" s="194">
-        <v>13</v>
-      </c>
-      <c r="Q7" s="195" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="Q7" s="195">
+        <v>-10</v>
       </c>
       <c r="R7" s="196" t="s">
         <v>60</v>
       </c>
       <c r="S7" s="194">
-        <v>10</v>
-      </c>
-      <c r="T7" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="U7" s="196"/>
-      <c r="V7" s="194"/>
+        <v>3</v>
+      </c>
+      <c r="T7" s="195">
+        <v>-3</v>
+      </c>
+      <c r="U7" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="V7" s="194">
+        <v>5</v>
+      </c>
       <c r="W7" s="195" t="s">
         <v>0</v>
       </c>
@@ -6177,76 +6196,76 @@
         <v>60</v>
       </c>
       <c r="Y7" s="194">
-        <v>13</v>
-      </c>
-      <c r="Z7" s="195" t="s">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="Z7" s="195">
+        <v>-15</v>
       </c>
       <c r="AA7" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AB7" s="194">
-        <v>16</v>
-      </c>
-      <c r="AC7" s="195" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="AC7" s="195">
+        <v>-10</v>
       </c>
       <c r="AD7" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AE7" s="194">
-        <v>15</v>
-      </c>
-      <c r="AF7" s="195" t="s">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="AF7" s="195">
+        <v>-9</v>
       </c>
       <c r="AG7" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AH7" s="194">
-        <v>5</v>
-      </c>
-      <c r="AI7" s="195">
-        <v>-5</v>
+        <v>11</v>
+      </c>
+      <c r="AI7" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AJ7" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AK7" s="194">
-        <v>16</v>
-      </c>
-      <c r="AL7" s="195" t="s">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="AL7" s="195">
+        <v>-7</v>
       </c>
       <c r="AM7" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AN7" s="194">
-        <v>14</v>
-      </c>
-      <c r="AO7" s="197" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="AO7" s="197">
+        <v>-4</v>
       </c>
       <c r="AT7" s="198" t="s">
         <v>60</v>
       </c>
       <c r="AU7" s="194">
-        <v>15</v>
-      </c>
-      <c r="AV7" s="197" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="AV7" s="197">
+        <v>-10</v>
       </c>
       <c r="AX7" s="4">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="AY7" s="4">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="AZ7" s="4">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="BA7" s="4">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="BB7" s="4">
         <v>4</v>
@@ -6258,10 +6277,10 @@
         <v>4</v>
       </c>
       <c r="BF7" s="77" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="BG7" s="78">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="BH7" s="189"/>
       <c r="BI7" s="79">
@@ -6271,23 +6290,23 @@
         <v>94</v>
       </c>
       <c r="BK7" s="81">
-        <v>87.75</v>
+        <v>86</v>
       </c>
       <c r="BL7" s="82">
-        <v>702</v>
+        <v>774</v>
       </c>
       <c r="BM7" s="172"/>
       <c r="BN7" s="79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BO7" s="80" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BP7" s="83">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BQ7" s="84">
-        <v>-27</v>
+        <v>-30</v>
       </c>
       <c r="BR7" s="85">
         <v>1</v>
@@ -6308,77 +6327,81 @@
         <v>0</v>
       </c>
       <c r="BY7" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="190" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="C8" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="191" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="E8" s="192" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F8" s="193" t="s">
         <v>60</v>
       </c>
       <c r="G8" s="194">
-        <v>10</v>
-      </c>
-      <c r="H8" s="195" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="H8" s="195">
+        <v>-6</v>
       </c>
       <c r="I8" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="J8" s="194">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K8" s="195">
-        <v>-5</v>
+        <v>-14</v>
       </c>
       <c r="L8" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="M8" s="194">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N8" s="195">
-        <v>-10</v>
+        <v>-6</v>
       </c>
       <c r="O8" s="196" t="s">
         <v>60</v>
       </c>
       <c r="P8" s="194">
-        <v>10</v>
-      </c>
-      <c r="Q8" s="195" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="Q8" s="195">
+        <v>-6</v>
       </c>
       <c r="R8" s="196" t="s">
         <v>60</v>
       </c>
       <c r="S8" s="194">
-        <v>14</v>
-      </c>
-      <c r="T8" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="U8" s="196"/>
-      <c r="V8" s="194"/>
-      <c r="W8" s="195" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="T8" s="195">
+        <v>-4</v>
+      </c>
+      <c r="U8" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="V8" s="194">
+        <v>4</v>
+      </c>
+      <c r="W8" s="195">
+        <v>-4</v>
       </c>
       <c r="X8" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="Y8" s="194">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="Z8" s="195" t="s">
         <v>0</v>
@@ -6387,19 +6410,19 @@
         <v>60</v>
       </c>
       <c r="AB8" s="194">
-        <v>11</v>
-      </c>
-      <c r="AC8" s="195" t="s">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="AC8" s="195">
+        <v>-7</v>
       </c>
       <c r="AD8" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AE8" s="194">
-        <v>9</v>
-      </c>
-      <c r="AF8" s="195" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="AF8" s="195">
+        <v>-4</v>
       </c>
       <c r="AG8" s="196" t="s">
         <v>88</v>
@@ -6407,14 +6430,14 @@
       <c r="AH8" s="194">
         <v>14</v>
       </c>
-      <c r="AI8" s="195">
-        <v>-14</v>
+      <c r="AI8" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AJ8" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AK8" s="194">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AL8" s="195" t="s">
         <v>0</v>
@@ -6423,31 +6446,31 @@
         <v>60</v>
       </c>
       <c r="AN8" s="194">
-        <v>7</v>
-      </c>
-      <c r="AO8" s="197" t="s">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="AO8" s="197">
+        <v>-9</v>
       </c>
       <c r="AT8" s="198" t="s">
         <v>60</v>
       </c>
       <c r="AU8" s="194">
-        <v>8</v>
-      </c>
-      <c r="AV8" s="197" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="AV8" s="197">
+        <v>-6</v>
       </c>
       <c r="AX8" s="4">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="AY8" s="4">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="AZ8" s="4">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="BA8" s="4">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="BB8" s="4">
         <v>5</v>
@@ -6459,10 +6482,10 @@
         <v>5</v>
       </c>
       <c r="BF8" s="77" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="BG8" s="78">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="BH8" s="189"/>
       <c r="BI8" s="79">
@@ -6472,23 +6495,23 @@
         <v>93</v>
       </c>
       <c r="BK8" s="81">
-        <v>87</v>
+        <v>85.222222222222229</v>
       </c>
       <c r="BL8" s="82">
-        <v>696</v>
+        <v>767</v>
       </c>
       <c r="BM8" s="172"/>
       <c r="BN8" s="79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BO8" s="80" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="BP8" s="83">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BQ8" s="84">
-        <v>-27</v>
+        <v>-30</v>
       </c>
       <c r="BR8" s="85">
         <v>1</v>
@@ -6520,135 +6543,139 @@
         <v>6</v>
       </c>
       <c r="D9" s="191" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E9" s="192" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="193" t="s">
         <v>88</v>
       </c>
-      <c r="F9" s="193" t="s">
-        <v>60</v>
-      </c>
       <c r="G9" s="194">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H9" s="195">
-        <v>-12</v>
+        <v>-5</v>
       </c>
       <c r="I9" s="196" t="s">
         <v>60</v>
       </c>
       <c r="J9" s="194">
-        <v>6</v>
-      </c>
-      <c r="K9" s="195">
-        <v>-6</v>
+        <v>13</v>
+      </c>
+      <c r="K9" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="L9" s="196" t="s">
         <v>60</v>
       </c>
       <c r="M9" s="194">
-        <v>12</v>
-      </c>
-      <c r="N9" s="195">
-        <v>-12</v>
+        <v>4</v>
+      </c>
+      <c r="N9" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="O9" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="P9" s="194">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="Q9" s="195">
-        <v>-11</v>
+        <v>-4</v>
       </c>
       <c r="R9" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="S9" s="194">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="T9" s="195">
-        <v>-13</v>
-      </c>
-      <c r="U9" s="196"/>
-      <c r="V9" s="194"/>
-      <c r="W9" s="195" t="s">
-        <v>0</v>
+        <v>-9</v>
+      </c>
+      <c r="U9" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="V9" s="194">
+        <v>15</v>
+      </c>
+      <c r="W9" s="195">
+        <v>-15</v>
       </c>
       <c r="X9" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="Y9" s="194">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z9" s="195">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="AA9" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AB9" s="194">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AC9" s="195">
-        <v>-13</v>
+        <v>-6</v>
       </c>
       <c r="AD9" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AE9" s="194">
-        <v>6</v>
-      </c>
-      <c r="AF9" s="195" t="s">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="AF9" s="195">
+        <v>-12</v>
       </c>
       <c r="AG9" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AH9" s="194">
-        <v>11</v>
-      </c>
-      <c r="AI9" s="195">
-        <v>-11</v>
+        <v>8</v>
+      </c>
+      <c r="AI9" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AJ9" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AK9" s="194">
-        <v>12</v>
-      </c>
-      <c r="AL9" s="195">
-        <v>-12</v>
+        <v>4</v>
+      </c>
+      <c r="AL9" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AM9" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AN9" s="194">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AO9" s="197">
-        <v>-11</v>
+        <v>-8</v>
       </c>
       <c r="AT9" s="198" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AU9" s="194">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AV9" s="197">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="AX9" s="4">
-        <v>104</v>
+        <v>-38</v>
       </c>
       <c r="AY9" s="4">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="AZ9" s="4">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="BA9" s="4">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="BB9" s="4">
         <v>6</v>
@@ -6660,36 +6687,36 @@
         <v>6</v>
       </c>
       <c r="BF9" s="77" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BG9" s="78">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="BH9" s="189"/>
       <c r="BI9" s="79">
         <v>6</v>
       </c>
       <c r="BJ9" s="80" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="BK9" s="81">
-        <v>86.125</v>
+        <v>84.333333333333329</v>
       </c>
       <c r="BL9" s="82">
-        <v>689</v>
+        <v>759</v>
       </c>
       <c r="BM9" s="172"/>
       <c r="BN9" s="79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BO9" s="80" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="BP9" s="83">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BQ9" s="84">
-        <v>-27</v>
+        <v>-30</v>
       </c>
       <c r="BR9" s="85">
         <v>1</v>
@@ -6715,141 +6742,145 @@
     </row>
     <row r="10" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="190" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="C10" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="191" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="E10" s="192" t="s">
         <v>60</v>
       </c>
       <c r="F10" s="193" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="G10" s="194">
         <v>4</v>
       </c>
-      <c r="H10" s="195" t="s">
-        <v>0</v>
+      <c r="H10" s="195">
+        <v>-4</v>
       </c>
       <c r="I10" s="196" t="s">
         <v>60</v>
       </c>
       <c r="J10" s="194">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K10" s="195" t="s">
         <v>0</v>
       </c>
       <c r="L10" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" s="194">
+        <v>3</v>
+      </c>
+      <c r="N10" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="O10" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="M10" s="194">
-        <v>6</v>
-      </c>
-      <c r="N10" s="195">
-        <v>-6</v>
-      </c>
-      <c r="O10" s="196" t="s">
-        <v>60</v>
-      </c>
       <c r="P10" s="194">
-        <v>6</v>
-      </c>
-      <c r="Q10" s="195" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="Q10" s="195">
+        <v>-3</v>
       </c>
       <c r="R10" s="196" t="s">
         <v>88</v>
       </c>
       <c r="S10" s="194">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T10" s="195">
-        <v>-9</v>
-      </c>
-      <c r="U10" s="196"/>
-      <c r="V10" s="194"/>
-      <c r="W10" s="195" t="s">
-        <v>0</v>
+        <v>-12</v>
+      </c>
+      <c r="U10" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="V10" s="194">
+        <v>3</v>
+      </c>
+      <c r="W10" s="195">
+        <v>-3</v>
       </c>
       <c r="X10" s="196" t="s">
         <v>88</v>
       </c>
       <c r="Y10" s="194">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z10" s="195">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="AA10" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AB10" s="194">
-        <v>10</v>
-      </c>
-      <c r="AC10" s="195">
-        <v>-10</v>
+        <v>5</v>
+      </c>
+      <c r="AC10" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AD10" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AE10" s="194">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AF10" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AG10" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH10" s="194">
+        <v>10</v>
+      </c>
+      <c r="AI10" s="195">
+        <v>-10</v>
+      </c>
+      <c r="AJ10" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="AH10" s="194">
-        <v>4</v>
-      </c>
-      <c r="AI10" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="196" t="s">
-        <v>88</v>
-      </c>
       <c r="AK10" s="194">
-        <v>14</v>
-      </c>
-      <c r="AL10" s="195">
-        <v>-14</v>
+        <v>3</v>
+      </c>
+      <c r="AL10" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AM10" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AN10" s="194">
-        <v>6</v>
-      </c>
-      <c r="AO10" s="197">
-        <v>-6</v>
+        <v>12</v>
+      </c>
+      <c r="AO10" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AT10" s="198" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AU10" s="194">
-        <v>4</v>
-      </c>
-      <c r="AV10" s="197">
-        <v>-4</v>
+        <v>3</v>
+      </c>
+      <c r="AV10" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AX10" s="4">
-        <v>-17</v>
+        <v>5</v>
       </c>
       <c r="AY10" s="4">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="AZ10" s="4">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="BA10" s="4">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="BB10" s="4">
         <v>7</v>
@@ -6861,42 +6892,42 @@
         <v>7</v>
       </c>
       <c r="BF10" s="77" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="BG10" s="78">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="BH10" s="189"/>
       <c r="BI10" s="79">
         <v>7</v>
       </c>
       <c r="BJ10" s="80" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="BK10" s="81">
-        <v>85.625</v>
+        <v>83.888888888888886</v>
       </c>
       <c r="BL10" s="82">
-        <v>685</v>
+        <v>755</v>
       </c>
       <c r="BM10" s="172"/>
       <c r="BN10" s="79">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BO10" s="80" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="BP10" s="83">
-        <v>-27</v>
+        <v>1</v>
       </c>
       <c r="BQ10" s="84">
-        <v>-27</v>
-      </c>
-      <c r="BR10" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS10" s="86" t="s">
-        <v>0</v>
+        <v>-30</v>
+      </c>
+      <c r="BR10" s="85">
+        <v>1</v>
+      </c>
+      <c r="BS10" s="86">
+        <v>31</v>
       </c>
       <c r="BT10" s="87" t="s">
         <v>0</v>
@@ -6916,34 +6947,34 @@
     </row>
     <row r="11" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="190" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C11" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="191" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="E11" s="192" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F11" s="193" t="s">
         <v>88</v>
       </c>
       <c r="G11" s="194">
-        <v>7</v>
-      </c>
-      <c r="H11" s="195" t="s">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="H11" s="195">
+        <v>-9</v>
       </c>
       <c r="I11" s="196" t="s">
         <v>88</v>
       </c>
       <c r="J11" s="194">
-        <v>9</v>
-      </c>
-      <c r="K11" s="195" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="K11" s="195">
+        <v>-8</v>
       </c>
       <c r="L11" s="196" t="s">
         <v>88</v>
@@ -6951,61 +6982,65 @@
       <c r="M11" s="194">
         <v>7</v>
       </c>
-      <c r="N11" s="195" t="s">
-        <v>0</v>
+      <c r="N11" s="195">
+        <v>-7</v>
       </c>
       <c r="O11" s="196" t="s">
         <v>88</v>
       </c>
       <c r="P11" s="194">
-        <v>7</v>
-      </c>
-      <c r="Q11" s="195" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="Q11" s="195">
+        <v>-8</v>
       </c>
       <c r="R11" s="196" t="s">
         <v>88</v>
       </c>
       <c r="S11" s="194">
-        <v>7</v>
-      </c>
-      <c r="T11" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="U11" s="196"/>
-      <c r="V11" s="194"/>
+        <v>8</v>
+      </c>
+      <c r="T11" s="195">
+        <v>-8</v>
+      </c>
+      <c r="U11" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="V11" s="194">
+        <v>8</v>
+      </c>
       <c r="W11" s="195" t="s">
         <v>0</v>
       </c>
       <c r="X11" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="Y11" s="194">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="Z11" s="195">
-        <v>-4</v>
+        <v>-12</v>
       </c>
       <c r="AA11" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AB11" s="194">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC11" s="195">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="AD11" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AE11" s="194">
-        <v>12</v>
-      </c>
-      <c r="AF11" s="195" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="AF11" s="195">
+        <v>-8</v>
       </c>
       <c r="AG11" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AH11" s="194">
         <v>9</v>
@@ -7014,43 +7049,43 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AK11" s="194">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL11" s="195">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="AM11" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AN11" s="194">
-        <v>8</v>
-      </c>
-      <c r="AO11" s="197" t="s">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="AO11" s="197">
+        <v>-13</v>
       </c>
       <c r="AT11" s="198" t="s">
         <v>88</v>
       </c>
       <c r="AU11" s="194">
-        <v>7</v>
-      </c>
-      <c r="AV11" s="197" t="s">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="AV11" s="197">
+        <v>-9</v>
       </c>
       <c r="AX11" s="4">
-        <v>-48</v>
+        <v>-72</v>
       </c>
       <c r="AY11" s="4">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="AZ11" s="4">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="BA11" s="4">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="BB11" s="4">
         <v>8</v>
@@ -7062,10 +7097,10 @@
         <v>8</v>
       </c>
       <c r="BF11" s="77" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BG11" s="78">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="BH11" s="189"/>
       <c r="BI11" s="79">
@@ -7075,23 +7110,23 @@
         <v>91</v>
       </c>
       <c r="BK11" s="81">
-        <v>83.875</v>
+        <v>81.666666666666671</v>
       </c>
       <c r="BL11" s="82">
-        <v>671</v>
+        <v>735</v>
       </c>
       <c r="BM11" s="172"/>
       <c r="BN11" s="79">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BO11" s="80" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="BP11" s="83">
-        <v>-27</v>
+        <v>-30</v>
       </c>
       <c r="BQ11" s="84">
-        <v>-27</v>
+        <v>-30</v>
       </c>
       <c r="BR11" s="85" t="s">
         <v>0</v>
@@ -7112,77 +7147,81 @@
         <v>0</v>
       </c>
       <c r="BY11" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="190" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C12" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="191" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E12" s="192" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F12" s="193" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="G12" s="194">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H12" s="195" t="s">
         <v>0</v>
       </c>
       <c r="I12" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="J12" s="194">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="K12" s="195" t="s">
         <v>0</v>
       </c>
       <c r="L12" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="M12" s="194">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N12" s="195" t="s">
         <v>0</v>
       </c>
       <c r="O12" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="P12" s="194">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="195" t="s">
         <v>0</v>
       </c>
       <c r="R12" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="S12" s="194">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T12" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="U12" s="196"/>
-      <c r="V12" s="194"/>
+      <c r="U12" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="V12" s="194">
+        <v>13</v>
+      </c>
       <c r="W12" s="195" t="s">
         <v>0</v>
       </c>
       <c r="X12" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="Y12" s="194">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Z12" s="195" t="s">
         <v>0</v>
@@ -7191,67 +7230,67 @@
         <v>88</v>
       </c>
       <c r="AB12" s="194">
-        <v>8</v>
-      </c>
-      <c r="AC12" s="195" t="s">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="AC12" s="195">
+        <v>-11</v>
       </c>
       <c r="AD12" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AE12" s="194">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AF12" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AG12" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AH12" s="194">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AI12" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AJ12" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AK12" s="194">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL12" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AM12" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AN12" s="194">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AO12" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AT12" s="198" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AU12" s="194">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV12" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX12" s="4">
-        <v>-112</v>
+        <v>99</v>
       </c>
       <c r="AY12" s="4">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="AZ12" s="4">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="BA12" s="4">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="BB12" s="4">
         <v>9</v>
@@ -7263,36 +7302,36 @@
         <v>9</v>
       </c>
       <c r="BF12" s="77" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BG12" s="78">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="BH12" s="189"/>
       <c r="BI12" s="79">
         <v>9</v>
       </c>
       <c r="BJ12" s="80" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="BK12" s="81">
-        <v>80</v>
+        <v>78.777777777777771</v>
       </c>
       <c r="BL12" s="82">
-        <v>640</v>
+        <v>709</v>
       </c>
       <c r="BM12" s="172"/>
       <c r="BN12" s="79">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BO12" s="80" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="BP12" s="83">
-        <v>-27</v>
+        <v>-30</v>
       </c>
       <c r="BQ12" s="84">
-        <v>-27</v>
+        <v>-30</v>
       </c>
       <c r="BR12" s="85" t="s">
         <v>0</v>
@@ -7313,18 +7352,18 @@
         <v>0</v>
       </c>
       <c r="BY12" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="190" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="C13" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="191" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="E13" s="192" t="s">
         <v>88</v>
@@ -7333,126 +7372,130 @@
         <v>60</v>
       </c>
       <c r="G13" s="194">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H13" s="195">
-        <v>-14</v>
+        <v>-12</v>
       </c>
       <c r="I13" s="196" t="s">
         <v>60</v>
       </c>
       <c r="J13" s="194">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K13" s="195">
-        <v>-13</v>
+        <v>-11</v>
       </c>
       <c r="L13" s="196" t="s">
         <v>60</v>
       </c>
       <c r="M13" s="194">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N13" s="195">
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="O13" s="196" t="s">
         <v>60</v>
       </c>
       <c r="P13" s="194">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q13" s="195">
-        <v>-15</v>
+        <v>-13</v>
       </c>
       <c r="R13" s="196" t="s">
         <v>60</v>
       </c>
       <c r="S13" s="194">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T13" s="195">
-        <v>-8</v>
-      </c>
-      <c r="U13" s="196"/>
-      <c r="V13" s="194"/>
-      <c r="W13" s="195" t="s">
-        <v>0</v>
+        <v>-7</v>
+      </c>
+      <c r="U13" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="V13" s="194">
+        <v>12</v>
+      </c>
+      <c r="W13" s="195">
+        <v>-12</v>
       </c>
       <c r="X13" s="196" t="s">
         <v>60</v>
       </c>
       <c r="Y13" s="194">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Z13" s="195">
-        <v>-12</v>
+        <v>-14</v>
       </c>
       <c r="AA13" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AB13" s="194">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC13" s="195">
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="AD13" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AE13" s="194">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AF13" s="195">
-        <v>-11</v>
+        <v>-5</v>
       </c>
       <c r="AG13" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AH13" s="194">
-        <v>10</v>
-      </c>
-      <c r="AI13" s="195">
-        <v>-10</v>
+        <v>13</v>
+      </c>
+      <c r="AI13" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AJ13" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AK13" s="194">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AL13" s="195">
-        <v>-6</v>
+        <v>-13</v>
       </c>
       <c r="AM13" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AN13" s="194">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AO13" s="197">
-        <v>-13</v>
+        <v>-11</v>
       </c>
       <c r="AT13" s="198" t="s">
         <v>60</v>
       </c>
       <c r="AU13" s="194">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV13" s="197">
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="AX13" s="4">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="AY13" s="4">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="AZ13" s="4">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="BA13" s="4">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="BB13" s="4">
         <v>10</v>
@@ -7464,36 +7507,36 @@
         <v>10</v>
       </c>
       <c r="BF13" s="77" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="BG13" s="78">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="BH13" s="189"/>
       <c r="BI13" s="79">
         <v>10</v>
       </c>
       <c r="BJ13" s="80" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="BK13" s="81">
-        <v>76.25</v>
+        <v>77.444444444444443</v>
       </c>
       <c r="BL13" s="82">
-        <v>610</v>
+        <v>697</v>
       </c>
       <c r="BM13" s="172"/>
       <c r="BN13" s="79">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BO13" s="80" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="BP13" s="83">
-        <v>-27</v>
+        <v>-30</v>
       </c>
       <c r="BQ13" s="84">
-        <v>-27</v>
+        <v>-30</v>
       </c>
       <c r="BR13" s="85" t="s">
         <v>0</v>
@@ -7514,18 +7557,18 @@
         <v>0</v>
       </c>
       <c r="BY13" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="190" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="C14" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="191" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="E14" s="192" t="s">
         <v>60</v>
@@ -7534,7 +7577,7 @@
         <v>60</v>
       </c>
       <c r="G14" s="194">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H14" s="195" t="s">
         <v>0</v>
@@ -7543,7 +7586,7 @@
         <v>60</v>
       </c>
       <c r="J14" s="194">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K14" s="195" t="s">
         <v>0</v>
@@ -7552,7 +7595,7 @@
         <v>60</v>
       </c>
       <c r="M14" s="194">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="N14" s="195" t="s">
         <v>0</v>
@@ -7561,7 +7604,7 @@
         <v>60</v>
       </c>
       <c r="P14" s="194">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q14" s="195" t="s">
         <v>0</v>
@@ -7570,13 +7613,17 @@
         <v>60</v>
       </c>
       <c r="S14" s="194">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="T14" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="U14" s="196"/>
-      <c r="V14" s="194"/>
+      <c r="U14" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="V14" s="194">
+        <v>7</v>
+      </c>
       <c r="W14" s="195" t="s">
         <v>0</v>
       </c>
@@ -7584,43 +7631,43 @@
         <v>60</v>
       </c>
       <c r="Y14" s="194">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z14" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AA14" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AB14" s="194">
-        <v>5</v>
-      </c>
-      <c r="AC14" s="195">
-        <v>-5</v>
+        <v>16</v>
+      </c>
+      <c r="AC14" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AD14" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AE14" s="194">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AF14" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AG14" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AH14" s="194">
-        <v>12</v>
-      </c>
-      <c r="AI14" s="195" t="s">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="AI14" s="195">
+        <v>-7</v>
       </c>
       <c r="AJ14" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AK14" s="194">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL14" s="195" t="s">
         <v>0</v>
@@ -7629,7 +7676,7 @@
         <v>60</v>
       </c>
       <c r="AN14" s="194">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AO14" s="197" t="s">
         <v>0</v>
@@ -7638,22 +7685,22 @@
         <v>60</v>
       </c>
       <c r="AU14" s="194">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AV14" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX14" s="4">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AY14" s="4">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AZ14" s="4">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="BA14" s="4">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="BB14" s="4">
         <v>11</v>
@@ -7665,7 +7712,7 @@
         <v>11</v>
       </c>
       <c r="BF14" s="77" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="BG14" s="78">
         <v>56</v>
@@ -7675,26 +7722,26 @@
         <v>11</v>
       </c>
       <c r="BJ14" s="80" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BK14" s="81">
-        <v>75.25</v>
+        <v>76.222222222222229</v>
       </c>
       <c r="BL14" s="82">
-        <v>602</v>
+        <v>686</v>
       </c>
       <c r="BM14" s="172"/>
       <c r="BN14" s="79">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BO14" s="80" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="BP14" s="83">
-        <v>-27</v>
+        <v>-30</v>
       </c>
       <c r="BQ14" s="84">
-        <v>-27</v>
+        <v>-30</v>
       </c>
       <c r="BR14" s="85" t="s">
         <v>0</v>
@@ -7720,141 +7767,145 @@
     </row>
     <row r="15" spans="1:77" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="190" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="C15" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="191" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E15" s="192" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F15" s="193" t="s">
         <v>88</v>
       </c>
       <c r="G15" s="194">
-        <v>6</v>
-      </c>
-      <c r="H15" s="195">
-        <v>-6</v>
+        <v>3</v>
+      </c>
+      <c r="H15" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="I15" s="196" t="s">
         <v>60</v>
       </c>
       <c r="J15" s="194">
+        <v>7</v>
+      </c>
+      <c r="K15" s="195">
+        <v>-7</v>
+      </c>
+      <c r="L15" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="M15" s="194">
+        <v>9</v>
+      </c>
+      <c r="N15" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" s="194">
+        <v>7</v>
+      </c>
+      <c r="Q15" s="195">
+        <v>-7</v>
+      </c>
+      <c r="R15" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="S15" s="194">
+        <v>14</v>
+      </c>
+      <c r="T15" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="U15" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="V15" s="194">
         <v>11</v>
       </c>
-      <c r="K15" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="L15" s="196" t="s">
+      <c r="W15" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="X15" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="M15" s="194">
-        <v>4</v>
-      </c>
-      <c r="N15" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="O15" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="P15" s="194">
-        <v>9</v>
-      </c>
-      <c r="Q15" s="195">
-        <v>-9</v>
-      </c>
-      <c r="R15" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="S15" s="194">
-        <v>4</v>
-      </c>
-      <c r="T15" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="U15" s="196"/>
-      <c r="V15" s="194"/>
-      <c r="W15" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="X15" s="196" t="s">
-        <v>88</v>
-      </c>
       <c r="Y15" s="194">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="Z15" s="195">
-        <v>-6</v>
+        <v>-16</v>
       </c>
       <c r="AA15" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AB15" s="194">
+        <v>4</v>
+      </c>
+      <c r="AC15" s="195">
+        <v>-4</v>
+      </c>
+      <c r="AD15" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE15" s="194">
         <v>6</v>
       </c>
-      <c r="AC15" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="196" t="s">
+      <c r="AF15" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH15" s="194">
+        <v>3</v>
+      </c>
+      <c r="AI15" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="AE15" s="194">
-        <v>8</v>
-      </c>
-      <c r="AF15" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH15" s="194">
-        <v>16</v>
-      </c>
-      <c r="AI15" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="196" t="s">
+      <c r="AK15" s="194">
+        <v>10</v>
+      </c>
+      <c r="AL15" s="195">
+        <v>-10</v>
+      </c>
+      <c r="AM15" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="AK15" s="194">
-        <v>4</v>
-      </c>
-      <c r="AL15" s="195">
-        <v>-4</v>
-      </c>
-      <c r="AM15" s="196" t="s">
-        <v>60</v>
-      </c>
       <c r="AN15" s="194">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO15" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AT15" s="198" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AU15" s="194">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV15" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX15" s="4">
-        <v>28</v>
+        <v>-7</v>
       </c>
       <c r="AY15" s="4">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="AZ15" s="4">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="BA15" s="4">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="BB15" s="4">
         <v>12</v>
@@ -7866,10 +7917,10 @@
         <v>12</v>
       </c>
       <c r="BF15" s="90" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="BG15" s="91">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="BH15" s="189"/>
       <c r="BI15" s="92">
@@ -7879,23 +7930,23 @@
         <v>96</v>
       </c>
       <c r="BK15" s="94">
-        <v>75.125</v>
+        <v>75.333333333333329</v>
       </c>
       <c r="BL15" s="95">
-        <v>601</v>
+        <v>678</v>
       </c>
       <c r="BM15" s="172"/>
       <c r="BN15" s="92">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BO15" s="93" t="s">
         <v>101</v>
       </c>
       <c r="BP15" s="96">
-        <v>-27</v>
+        <v>-30</v>
       </c>
       <c r="BQ15" s="97">
-        <v>-27</v>
+        <v>-30</v>
       </c>
       <c r="BR15" s="98" t="s">
         <v>0</v>
@@ -7921,95 +7972,145 @@
     </row>
     <row r="16" spans="1:77" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B16" s="190" t="s">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="C16" s="191" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D16" s="191" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="192"/>
-      <c r="F16" s="193"/>
-      <c r="G16" s="194"/>
-      <c r="H16" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="196"/>
-      <c r="J16" s="194"/>
-      <c r="K16" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="L16" s="196"/>
-      <c r="M16" s="194"/>
-      <c r="N16" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="O16" s="196"/>
-      <c r="P16" s="194"/>
-      <c r="Q16" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="R16" s="196"/>
-      <c r="S16" s="194"/>
-      <c r="T16" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="U16" s="196"/>
-      <c r="V16" s="194"/>
-      <c r="W16" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="X16" s="196"/>
-      <c r="Y16" s="194"/>
-      <c r="Z16" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="196"/>
-      <c r="AB16" s="194"/>
-      <c r="AC16" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="196"/>
-      <c r="AE16" s="194"/>
-      <c r="AF16" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="196"/>
-      <c r="AH16" s="194"/>
-      <c r="AI16" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="196"/>
-      <c r="AK16" s="194"/>
-      <c r="AL16" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="196"/>
-      <c r="AN16" s="194"/>
-      <c r="AO16" s="197" t="s">
-        <v>0</v>
+        <v>151</v>
+      </c>
+      <c r="E16" s="192" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="193" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="194">
+        <v>14</v>
+      </c>
+      <c r="H16" s="195">
+        <v>-14</v>
+      </c>
+      <c r="I16" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" s="194">
+        <v>9</v>
+      </c>
+      <c r="K16" s="195">
+        <v>-9</v>
+      </c>
+      <c r="L16" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="M16" s="194">
+        <v>14</v>
+      </c>
+      <c r="N16" s="195">
+        <v>-14</v>
+      </c>
+      <c r="O16" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" s="194">
+        <v>14</v>
+      </c>
+      <c r="Q16" s="195">
+        <v>-14</v>
+      </c>
+      <c r="R16" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="S16" s="194">
+        <v>6</v>
+      </c>
+      <c r="T16" s="195">
+        <v>-6</v>
+      </c>
+      <c r="U16" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="V16" s="194">
+        <v>16</v>
+      </c>
+      <c r="W16" s="195">
+        <v>-16</v>
+      </c>
+      <c r="X16" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y16" s="194">
+        <v>6</v>
+      </c>
+      <c r="Z16" s="195">
+        <v>-6</v>
+      </c>
+      <c r="AA16" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB16" s="194">
+        <v>14</v>
+      </c>
+      <c r="AC16" s="195">
+        <v>-14</v>
+      </c>
+      <c r="AD16" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE16" s="194">
+        <v>14</v>
+      </c>
+      <c r="AF16" s="195">
+        <v>-14</v>
+      </c>
+      <c r="AG16" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH16" s="194">
+        <v>4</v>
+      </c>
+      <c r="AI16" s="195">
+        <v>-4</v>
+      </c>
+      <c r="AJ16" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK16" s="194">
+        <v>14</v>
+      </c>
+      <c r="AL16" s="195">
+        <v>-14</v>
+      </c>
+      <c r="AM16" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN16" s="194">
+        <v>10</v>
+      </c>
+      <c r="AO16" s="197">
+        <v>-10</v>
       </c>
       <c r="AT16" s="198" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU16" s="194" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV16" s="197" t="s">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="AU16" s="194">
+        <v>14</v>
+      </c>
+      <c r="AV16" s="197">
+        <v>-14</v>
       </c>
       <c r="AX16" s="4">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="AY16" s="4">
-        <v>-0.1</v>
+        <v>135</v>
       </c>
       <c r="AZ16" s="4">
-        <v>-0.1</v>
+        <v>135</v>
       </c>
       <c r="BA16" s="4">
-        <v>-0.1</v>
+        <v>135</v>
       </c>
       <c r="BB16" s="4">
         <v>13</v>
@@ -8018,7 +8119,7 @@
         <v>1</v>
       </c>
       <c r="BY16" s="12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8117,10 +8218,10 @@
         <v>14</v>
       </c>
       <c r="BC17" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BY17" s="12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8219,21 +8320,21 @@
         <v>15</v>
       </c>
       <c r="BC18" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BY18" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="190" t="s">
-        <v>104</v>
+        <v>155</v>
       </c>
       <c r="C19" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="191" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E19" s="192" t="s">
         <v>60</v>
@@ -8242,7 +8343,7 @@
         <v>60</v>
       </c>
       <c r="G19" s="194">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H19" s="195" t="s">
         <v>0</v>
@@ -8251,7 +8352,7 @@
         <v>60</v>
       </c>
       <c r="J19" s="194">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K19" s="195" t="s">
         <v>0</v>
@@ -8260,7 +8361,7 @@
         <v>60</v>
       </c>
       <c r="M19" s="194">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="N19" s="195" t="s">
         <v>0</v>
@@ -8269,7 +8370,7 @@
         <v>60</v>
       </c>
       <c r="P19" s="194">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Q19" s="195" t="s">
         <v>0</v>
@@ -8283,34 +8384,38 @@
       <c r="T19" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="U19" s="196"/>
-      <c r="V19" s="194"/>
+      <c r="U19" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="V19" s="194">
+        <v>14</v>
+      </c>
       <c r="W19" s="195" t="s">
         <v>0</v>
       </c>
       <c r="X19" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="Y19" s="194">
-        <v>5</v>
-      </c>
-      <c r="Z19" s="195">
-        <v>-5</v>
+        <v>3</v>
+      </c>
+      <c r="Z19" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AA19" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AB19" s="194">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC19" s="195">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="AD19" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AE19" s="194">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AF19" s="195" t="s">
         <v>0</v>
@@ -8319,7 +8424,7 @@
         <v>60</v>
       </c>
       <c r="AH19" s="194">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AI19" s="195" t="s">
         <v>0</v>
@@ -8328,25 +8433,25 @@
         <v>60</v>
       </c>
       <c r="AK19" s="194">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL19" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AM19" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AN19" s="194">
-        <v>12</v>
-      </c>
-      <c r="AO19" s="197" t="s">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="AO19" s="197">
+        <v>-7</v>
       </c>
       <c r="AT19" s="198" t="s">
         <v>60</v>
       </c>
       <c r="AU19" s="194">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV19" s="197" t="s">
         <v>0</v>
@@ -8370,7 +8475,7 @@
         <v>1</v>
       </c>
       <c r="BY19" s="12" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8378,85 +8483,87 @@
       <c r="C20" s="103"/>
       <c r="D20" s="103"/>
       <c r="E20" s="199" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F20" s="104" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G20" s="105">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H20" s="122"/>
       <c r="I20" s="106" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J20" s="105">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K20" s="122"/>
       <c r="L20" s="106" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M20" s="105">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N20" s="122"/>
       <c r="O20" s="106" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P20" s="105">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q20" s="122"/>
       <c r="R20" s="106" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="S20" s="105">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="T20" s="122"/>
       <c r="U20" s="106" t="s">
-        <v>155</v>
-      </c>
-      <c r="V20" s="105"/>
+        <v>112</v>
+      </c>
+      <c r="V20" s="105">
+        <v>56</v>
+      </c>
       <c r="W20" s="122"/>
       <c r="X20" s="106" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="Y20" s="105">
         <v>38</v>
       </c>
       <c r="Z20" s="122"/>
       <c r="AA20" s="106" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="AB20" s="105">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC20" s="122"/>
       <c r="AD20" s="106" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="AE20" s="105">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AF20" s="122"/>
       <c r="AG20" s="106" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="AH20" s="105">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="AI20" s="122"/>
       <c r="AJ20" s="106" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="AK20" s="105">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AL20" s="122"/>
       <c r="AM20" s="106" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="AN20" s="105">
         <v>38</v>
@@ -8476,7 +8583,7 @@
       <c r="BM20" s="13"/>
       <c r="BN20" s="13"/>
       <c r="BY20" s="12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:77" s="13" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8485,99 +8592,99 @@
       <c r="C21" s="201"/>
       <c r="D21" s="201"/>
       <c r="E21" s="202" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F21" s="203"/>
       <c r="G21" s="204">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H21" s="205">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="I21" s="206"/>
       <c r="J21" s="204">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K21" s="205">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="L21" s="206"/>
       <c r="M21" s="204">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N21" s="205">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="O21" s="206"/>
       <c r="P21" s="204">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Q21" s="205">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="R21" s="206"/>
       <c r="S21" s="204">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T21" s="205">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="U21" s="206"/>
       <c r="V21" s="204">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="W21" s="205">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="X21" s="206"/>
       <c r="Y21" s="204">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z21" s="205">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="AA21" s="206"/>
       <c r="AB21" s="204">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC21" s="205">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD21" s="206"/>
       <c r="AE21" s="204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF21" s="205">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AG21" s="206"/>
       <c r="AH21" s="204">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AI21" s="205">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="AJ21" s="206"/>
       <c r="AK21" s="204">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AL21" s="205">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="AM21" s="206"/>
       <c r="AN21" s="204">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AO21" s="207">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="AP21" s="3"/>
       <c r="AT21" s="208"/>
       <c r="AU21" s="209">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV21" s="210">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AW21" s="3"/>
       <c r="AX21" s="14"/>
@@ -8601,7 +8708,7 @@
       <c r="BV21" s="6"/>
       <c r="BW21" s="6"/>
       <c r="BY21" s="12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:77" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8617,84 +8724,84 @@
         <v>8</v>
       </c>
       <c r="H22" s="129">
-        <v>83.875</v>
+        <v>81.666666666666671</v>
       </c>
       <c r="I22" s="130"/>
       <c r="J22" s="128">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K22" s="129">
-        <v>86.125</v>
+        <v>83.888888888888886</v>
       </c>
       <c r="L22" s="130"/>
       <c r="M22" s="128">
         <v>5</v>
       </c>
       <c r="N22" s="129">
-        <v>87</v>
+        <v>85.222222222222229</v>
       </c>
       <c r="O22" s="130"/>
       <c r="P22" s="128">
         <v>4</v>
       </c>
       <c r="Q22" s="129">
-        <v>87.75</v>
+        <v>86</v>
       </c>
       <c r="R22" s="130"/>
       <c r="S22" s="128">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T22" s="129">
-        <v>85.625</v>
+        <v>84.333333333333329</v>
       </c>
       <c r="U22" s="130"/>
       <c r="V22" s="128">
         <v>12</v>
       </c>
       <c r="W22" s="129">
-        <v>75.125</v>
+        <v>75.333333333333329</v>
       </c>
       <c r="X22" s="130"/>
       <c r="Y22" s="128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z22" s="129">
-        <v>91.875</v>
+        <v>86.555555555555557</v>
       </c>
       <c r="AA22" s="130"/>
       <c r="AB22" s="128">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC22" s="129">
-        <v>80</v>
+        <v>77.444444444444443</v>
       </c>
       <c r="AD22" s="130"/>
       <c r="AE22" s="128">
         <v>1</v>
       </c>
       <c r="AF22" s="129">
-        <v>94.625</v>
+        <v>92.777777777777771</v>
       </c>
       <c r="AG22" s="130"/>
       <c r="AH22" s="128">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI22" s="129">
-        <v>75.25</v>
+        <v>78.777777777777771</v>
       </c>
       <c r="AJ22" s="130"/>
       <c r="AK22" s="128">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL22" s="129">
-        <v>76.25</v>
+        <v>76.222222222222229</v>
       </c>
       <c r="AM22" s="130"/>
       <c r="AN22" s="128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO22" s="131">
-        <v>89.375</v>
+        <v>87</v>
       </c>
       <c r="AP22" s="3"/>
       <c r="AU22" s="14"/>
@@ -8719,7 +8826,7 @@
       <c r="BV22" s="6"/>
       <c r="BW22" s="6"/>
       <c r="BY22" s="12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:77" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8733,62 +8840,62 @@
       <c r="F23" s="135"/>
       <c r="G23" s="136"/>
       <c r="H23" s="137">
-        <v>671</v>
+        <v>735</v>
       </c>
       <c r="I23" s="138"/>
       <c r="J23" s="136"/>
       <c r="K23" s="137">
-        <v>689</v>
+        <v>755</v>
       </c>
       <c r="L23" s="138"/>
       <c r="M23" s="136"/>
       <c r="N23" s="137">
-        <v>696</v>
+        <v>767</v>
       </c>
       <c r="O23" s="138"/>
       <c r="P23" s="136"/>
       <c r="Q23" s="137">
-        <v>702</v>
+        <v>774</v>
       </c>
       <c r="R23" s="138"/>
       <c r="S23" s="136"/>
       <c r="T23" s="137">
-        <v>685</v>
+        <v>759</v>
       </c>
       <c r="U23" s="138"/>
       <c r="V23" s="136"/>
       <c r="W23" s="137">
-        <v>601</v>
+        <v>678</v>
       </c>
       <c r="X23" s="138"/>
       <c r="Y23" s="136"/>
       <c r="Z23" s="137">
-        <v>735</v>
+        <v>779</v>
       </c>
       <c r="AA23" s="138"/>
       <c r="AB23" s="136"/>
       <c r="AC23" s="137">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="AD23" s="138"/>
       <c r="AE23" s="136"/>
       <c r="AF23" s="137">
-        <v>757</v>
+        <v>835</v>
       </c>
       <c r="AG23" s="138"/>
       <c r="AH23" s="136"/>
       <c r="AI23" s="137">
-        <v>602</v>
+        <v>709</v>
       </c>
       <c r="AJ23" s="138"/>
       <c r="AK23" s="136"/>
       <c r="AL23" s="137">
-        <v>610</v>
+        <v>686</v>
       </c>
       <c r="AM23" s="138"/>
       <c r="AN23" s="136"/>
       <c r="AO23" s="139">
-        <v>715</v>
+        <v>783</v>
       </c>
       <c r="AP23" s="3"/>
       <c r="AU23" s="14"/>
@@ -8803,7 +8910,7 @@
       <c r="BV23" s="6"/>
       <c r="BW23" s="6"/>
       <c r="BY23" s="12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:77" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8832,7 +8939,7 @@
       <c r="O24" s="138"/>
       <c r="P24" s="136"/>
       <c r="Q24" s="137">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="R24" s="138"/>
       <c r="S24" s="136"/>
@@ -8886,7 +8993,7 @@
       <c r="BV24" s="6"/>
       <c r="BW24" s="6"/>
       <c r="BY24" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:77" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8899,87 +9006,87 @@
       </c>
       <c r="F25" s="135"/>
       <c r="G25" s="140">
-        <v>0.76923076923076927</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="H25" s="137">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I25" s="138"/>
       <c r="J25" s="140">
-        <v>0.69230769230769229</v>
+        <v>0.5</v>
       </c>
       <c r="K25" s="137">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L25" s="138"/>
       <c r="M25" s="140">
-        <v>0.61538461538461542</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="N25" s="137">
         <v>8</v>
       </c>
       <c r="O25" s="138"/>
       <c r="P25" s="140">
-        <v>0.69230769230769229</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="Q25" s="137">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R25" s="138"/>
       <c r="S25" s="140">
-        <v>0.76923076923076927</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="T25" s="137">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U25" s="138"/>
       <c r="V25" s="140">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="W25" s="137">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X25" s="138"/>
       <c r="Y25" s="140">
-        <v>0.46153846153846156</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="Z25" s="137">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA25" s="138"/>
       <c r="AB25" s="140">
-        <v>0.38461538461538464</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="AC25" s="137">
         <v>5</v>
       </c>
       <c r="AD25" s="138"/>
       <c r="AE25" s="140">
-        <v>0.84615384615384615</v>
+        <v>0.5</v>
       </c>
       <c r="AF25" s="137">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AG25" s="138"/>
       <c r="AH25" s="140">
-        <v>0.61538461538461542</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AI25" s="137">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AJ25" s="138"/>
       <c r="AK25" s="140">
-        <v>0.61538461538461542</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AL25" s="137">
         <v>8</v>
       </c>
       <c r="AM25" s="138"/>
       <c r="AN25" s="140">
-        <v>0.69230769230769229</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="AO25" s="139">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AP25" s="3"/>
       <c r="AW25" s="3"/>
@@ -8993,7 +9100,7 @@
       <c r="BV25" s="6"/>
       <c r="BW25" s="6"/>
       <c r="BY25" s="12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:77" s="13" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9006,87 +9113,87 @@
       </c>
       <c r="F26" s="144"/>
       <c r="G26" s="145">
-        <v>0.50375939849624063</v>
+        <v>0.49659863945578231</v>
       </c>
       <c r="H26" s="146">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I26" s="147"/>
       <c r="J26" s="145">
-        <v>0.57894736842105265</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K26" s="146">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="L26" s="147"/>
       <c r="M26" s="145">
-        <v>0.51879699248120303</v>
+        <v>0.52380952380952384</v>
       </c>
       <c r="N26" s="146">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="O26" s="147"/>
       <c r="P26" s="145">
-        <v>0.62406015037593987</v>
+        <v>0.59863945578231292</v>
       </c>
       <c r="Q26" s="146">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="R26" s="147"/>
       <c r="S26" s="145">
-        <v>0.5714285714285714</v>
+        <v>0.55782312925170063</v>
       </c>
       <c r="T26" s="146">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="U26" s="147"/>
       <c r="V26" s="145">
-        <v>0.47368421052631576</v>
+        <v>0.48299319727891155</v>
       </c>
       <c r="W26" s="146">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="X26" s="147"/>
       <c r="Y26" s="145">
-        <v>0.60902255639097747</v>
+        <v>0.58503401360544216</v>
       </c>
       <c r="Z26" s="146">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AA26" s="147"/>
       <c r="AB26" s="145">
-        <v>0.52631578947368418</v>
+        <v>0.51020408163265307</v>
       </c>
       <c r="AC26" s="146">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AD26" s="147"/>
       <c r="AE26" s="145">
-        <v>0.63157894736842102</v>
+        <v>0.61904761904761907</v>
       </c>
       <c r="AF26" s="146">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="AG26" s="147"/>
       <c r="AH26" s="145">
-        <v>0.47368421052631576</v>
+        <v>0.49659863945578231</v>
       </c>
       <c r="AI26" s="146">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="AJ26" s="147"/>
       <c r="AK26" s="145">
-        <v>0.42857142857142855</v>
+        <v>0.44217687074829931</v>
       </c>
       <c r="AL26" s="146">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="AM26" s="147"/>
       <c r="AN26" s="145">
-        <v>0.60150375939849621</v>
+        <v>0.58503401360544216</v>
       </c>
       <c r="AO26" s="148">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AP26" s="3"/>
       <c r="AW26" s="3"/>
@@ -9110,7 +9217,7 @@
       <c r="BV26" s="6"/>
       <c r="BW26" s="6"/>
       <c r="BY26" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:77" s="7" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9134,7 +9241,7 @@
         <v>68</v>
       </c>
       <c r="P27" s="153">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="Q27" s="150"/>
       <c r="R27" s="150"/>
@@ -9147,7 +9254,7 @@
         <v>69</v>
       </c>
       <c r="Y27" s="154">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Z27" s="150"/>
       <c r="AA27" s="152"/>
@@ -9160,7 +9267,7 @@
         <v>70</v>
       </c>
       <c r="AH27" s="154">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AI27" s="150"/>
       <c r="AJ27" s="152"/>
@@ -9169,7 +9276,7 @@
       <c r="AM27" s="150"/>
       <c r="AN27" s="150"/>
       <c r="AO27" s="155" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="AP27" s="3"/>
       <c r="AW27" s="3"/>
@@ -9183,7 +9290,7 @@
       <c r="BV27" s="6"/>
       <c r="BW27" s="6"/>
       <c r="BY27" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:77" s="7" customFormat="1" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -9240,7 +9347,7 @@
       <c r="BV28" s="6"/>
       <c r="BW28" s="6"/>
       <c r="BY28" s="12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:77" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -9249,7 +9356,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="17"/>
@@ -9301,7 +9408,7 @@
       <c r="BV29" s="6"/>
       <c r="BW29" s="6"/>
       <c r="BY29" s="12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:77" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -9358,7 +9465,7 @@
       <c r="BV30" s="6"/>
       <c r="BW30" s="6"/>
       <c r="BY30" s="12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:77" s="7" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9370,7 +9477,7 @@
         <v>71</v>
       </c>
       <c r="F31" s="23">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G31" s="18"/>
       <c r="H31" s="17"/>
@@ -9437,47 +9544,47 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="25">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H32" s="26"/>
       <c r="I32" s="26"/>
       <c r="J32" s="25">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K32" s="26"/>
       <c r="L32" s="26"/>
       <c r="M32" s="25">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="P32" s="25">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="S32" s="25">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="V32" s="25">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="Y32" s="25">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AB32" s="25">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AE32" s="25">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AH32" s="25">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AK32" s="25">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AN32" s="25">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AU32" s="25">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="BY32" s="12"/>
     </row>
@@ -9509,47 +9616,47 @@
       <c r="F34" s="26"/>
       <c r="G34" s="25"/>
       <c r="H34" s="26">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="I34" s="26"/>
       <c r="J34" s="26"/>
       <c r="K34" s="26">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="L34" s="26"/>
       <c r="M34" s="26"/>
       <c r="N34" s="26">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="Q34" s="26">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="T34" s="26">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="W34" s="26">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="Z34" s="26">
+        <v>44</v>
+      </c>
+      <c r="AC34" s="26">
+        <v>57</v>
+      </c>
+      <c r="AF34" s="26">
+        <v>78</v>
+      </c>
+      <c r="AI34" s="26">
+        <v>107</v>
+      </c>
+      <c r="AL34" s="26">
+        <v>76</v>
+      </c>
+      <c r="AO34" s="26">
+        <v>68</v>
+      </c>
+      <c r="AV34" s="26">
         <v>70</v>
-      </c>
-      <c r="AC34" s="26">
-        <v>56</v>
-      </c>
-      <c r="AF34" s="26">
-        <v>114</v>
-      </c>
-      <c r="AI34" s="26">
-        <v>75</v>
-      </c>
-      <c r="AL34" s="26">
-        <v>87</v>
-      </c>
-      <c r="AO34" s="26">
-        <v>95</v>
-      </c>
-      <c r="AV34" s="26">
-        <v>95</v>
       </c>
       <c r="BY34" s="12"/>
     </row>
@@ -9559,44 +9666,44 @@
       <c r="F35" s="3"/>
       <c r="G35" s="27"/>
       <c r="H35" s="28">
-        <v>83.875</v>
+        <v>81.666666666666671</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="28">
-        <v>86.125</v>
+        <v>83.888888888888886</v>
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="28">
+        <v>85.222222222222229</v>
+      </c>
+      <c r="Q35" s="28">
+        <v>86</v>
+      </c>
+      <c r="T35" s="28">
+        <v>84.333333333333329</v>
+      </c>
+      <c r="W35" s="28">
+        <v>75.333333333333329</v>
+      </c>
+      <c r="Z35" s="28">
+        <v>86.555555555555557</v>
+      </c>
+      <c r="AC35" s="28">
+        <v>77.444444444444443</v>
+      </c>
+      <c r="AF35" s="28">
+        <v>92.777777777777771</v>
+      </c>
+      <c r="AI35" s="28">
+        <v>78.777777777777771</v>
+      </c>
+      <c r="AL35" s="28">
+        <v>76.222222222222229</v>
+      </c>
+      <c r="AO35" s="28">
         <v>87</v>
-      </c>
-      <c r="Q35" s="28">
-        <v>87.75</v>
-      </c>
-      <c r="T35" s="28">
-        <v>85.625</v>
-      </c>
-      <c r="W35" s="28">
-        <v>75.125</v>
-      </c>
-      <c r="Z35" s="28">
-        <v>91.875</v>
-      </c>
-      <c r="AC35" s="28">
-        <v>80</v>
-      </c>
-      <c r="AF35" s="28">
-        <v>94.625</v>
-      </c>
-      <c r="AI35" s="28">
-        <v>75.25</v>
-      </c>
-      <c r="AL35" s="28">
-        <v>76.25</v>
-      </c>
-      <c r="AO35" s="28">
-        <v>89.375</v>
       </c>
       <c r="BY35" s="12"/>
     </row>
@@ -9606,44 +9713,44 @@
       <c r="F36" s="3"/>
       <c r="G36" s="27"/>
       <c r="H36" s="28">
-        <v>671</v>
+        <v>735</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="28">
-        <v>689</v>
+        <v>755</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="28">
-        <v>696</v>
+        <v>767</v>
       </c>
       <c r="Q36" s="28">
-        <v>702</v>
+        <v>774</v>
       </c>
       <c r="T36" s="28">
-        <v>685</v>
+        <v>759</v>
       </c>
       <c r="W36" s="28">
-        <v>601</v>
+        <v>678</v>
       </c>
       <c r="Z36" s="28">
-        <v>735</v>
+        <v>779</v>
       </c>
       <c r="AC36" s="28">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="AF36" s="28">
-        <v>757</v>
+        <v>835</v>
       </c>
       <c r="AI36" s="28">
-        <v>602</v>
+        <v>709</v>
       </c>
       <c r="AL36" s="28">
-        <v>610</v>
+        <v>686</v>
       </c>
       <c r="AO36" s="28">
-        <v>715</v>
+        <v>783</v>
       </c>
       <c r="BY36" s="12"/>
     </row>
@@ -9666,7 +9773,7 @@
         <v>0</v>
       </c>
       <c r="Q37" s="28">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="T37" s="28">
         <v>52</v>
@@ -9700,12 +9807,12 @@
       <c r="F38" s="3"/>
       <c r="G38" s="27"/>
       <c r="H38" s="28">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="28">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
@@ -9713,31 +9820,31 @@
         <v>8</v>
       </c>
       <c r="Q38" s="28">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T38" s="28">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="W38" s="28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z38" s="28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC38" s="28">
         <v>5</v>
       </c>
       <c r="AF38" s="28">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AI38" s="28">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AL38" s="28">
         <v>8</v>
       </c>
       <c r="AO38" s="28">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BY38" s="12"/>
     </row>
@@ -9747,44 +9854,44 @@
       <c r="F39" s="3"/>
       <c r="G39" s="27"/>
       <c r="H39" s="28">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="28">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="28">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="Q39" s="28">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="T39" s="28">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="W39" s="28">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="Z39" s="28">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AC39" s="28">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF39" s="28">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="AI39" s="28">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="AL39" s="28">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="AO39" s="28">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="BY39" s="12"/>
     </row>
@@ -9798,7 +9905,7 @@
       <c r="H40" s="28"/>
       <c r="I40" s="3"/>
       <c r="J40" s="27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K40" s="28"/>
       <c r="L40" s="3"/>
@@ -9811,7 +9918,7 @@
       </c>
       <c r="Q40" s="28"/>
       <c r="S40" s="27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T40" s="28"/>
       <c r="V40" s="27">
@@ -9819,11 +9926,11 @@
       </c>
       <c r="W40" s="28"/>
       <c r="Y40" s="27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z40" s="28"/>
       <c r="AB40" s="27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC40" s="28"/>
       <c r="AE40" s="27">
@@ -9831,15 +9938,15 @@
       </c>
       <c r="AF40" s="28"/>
       <c r="AH40" s="27">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI40" s="28"/>
       <c r="AK40" s="27">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL40" s="28"/>
       <c r="AN40" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO40" s="28"/>
       <c r="AR40" s="29">
@@ -9855,44 +9962,44 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="27">
-        <v>0.76923076923076927</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="27">
-        <v>0.69230769230769229</v>
+        <v>0.5</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="27">
-        <v>0.61538461538461542</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="P41" s="27">
-        <v>0.69230769230769229</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="S41" s="27">
-        <v>0.76923076923076927</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="V41" s="27">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="Y41" s="27">
-        <v>0.46153846153846156</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="AB41" s="27">
-        <v>0.38461538461538464</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="AE41" s="27">
-        <v>0.84615384615384615</v>
+        <v>0.5</v>
       </c>
       <c r="AH41" s="27">
-        <v>0.61538461538461542</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AK41" s="27">
-        <v>0.61538461538461542</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AN41" s="27">
-        <v>0.69230769230769229</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="AR41" s="29">
         <v>1</v>
@@ -9907,44 +10014,44 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="27">
-        <v>0.50375939849624063</v>
+        <v>0.49659863945578231</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="27">
-        <v>0.57894736842105265</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="27">
-        <v>0.51879699248120303</v>
+        <v>0.52380952380952384</v>
       </c>
       <c r="P42" s="27">
-        <v>0.62406015037593987</v>
+        <v>0.59863945578231292</v>
       </c>
       <c r="S42" s="27">
-        <v>0.5714285714285714</v>
+        <v>0.55782312925170063</v>
       </c>
       <c r="V42" s="27">
-        <v>0.47368421052631576</v>
+        <v>0.48299319727891155</v>
       </c>
       <c r="Y42" s="27">
-        <v>0.60902255639097747</v>
+        <v>0.58503401360544216</v>
       </c>
       <c r="AB42" s="27">
-        <v>0.52631578947368418</v>
+        <v>0.51020408163265307</v>
       </c>
       <c r="AE42" s="27">
-        <v>0.63157894736842102</v>
+        <v>0.61904761904761907</v>
       </c>
       <c r="AH42" s="27">
-        <v>0.47368421052631576</v>
+        <v>0.49659863945578231</v>
       </c>
       <c r="AK42" s="27">
-        <v>0.42857142857142855</v>
+        <v>0.44217687074829931</v>
       </c>
       <c r="AN42" s="27">
-        <v>0.60150375939849621</v>
+        <v>0.58503401360544216</v>
       </c>
       <c r="BY42" s="12"/>
     </row>
@@ -9982,7 +10089,7 @@
         <v>76</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="BY45" s="12"/>
     </row>
@@ -12094,7 +12201,7 @@
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
       <c r="U1" s="168" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
@@ -12139,66 +12246,66 @@
     </row>
     <row r="2" spans="2:99" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="307" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C2" s="308" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D2" s="309"/>
       <c r="E2" s="156" t="s">
         <v>91</v>
       </c>
       <c r="F2" s="115">
-        <v>-27</v>
+        <v>-30</v>
       </c>
       <c r="G2" s="157"/>
       <c r="H2" s="156" t="s">
         <v>92</v>
       </c>
       <c r="I2" s="115">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J2" s="157"/>
       <c r="K2" s="156" t="s">
         <v>93</v>
       </c>
       <c r="L2" s="115">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M2" s="157"/>
       <c r="N2" s="156" t="s">
         <v>94</v>
       </c>
       <c r="O2" s="115">
-        <v>-27</v>
+        <v>-30</v>
       </c>
       <c r="P2" s="157"/>
       <c r="Q2" s="156" t="s">
         <v>95</v>
       </c>
       <c r="R2" s="115">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S2" s="157"/>
       <c r="T2" s="156" t="s">
         <v>96</v>
       </c>
       <c r="U2" s="115">
-        <v>-27</v>
+        <v>-30</v>
       </c>
       <c r="V2" s="157"/>
       <c r="W2" s="156" t="s">
         <v>97</v>
       </c>
       <c r="X2" s="115">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="Y2" s="157"/>
       <c r="Z2" s="156" t="s">
         <v>98</v>
       </c>
       <c r="AA2" s="115">
-        <v>-27</v>
+        <v>-30</v>
       </c>
       <c r="AB2" s="157"/>
       <c r="AC2" s="156" t="s">
@@ -12212,21 +12319,21 @@
         <v>100</v>
       </c>
       <c r="AG2" s="115">
-        <v>-27</v>
+        <v>1</v>
       </c>
       <c r="AH2" s="157"/>
       <c r="AI2" s="156" t="s">
         <v>101</v>
       </c>
       <c r="AJ2" s="115">
-        <v>-27</v>
+        <v>-30</v>
       </c>
       <c r="AK2" s="157"/>
       <c r="AL2" s="156" t="s">
         <v>102</v>
       </c>
       <c r="AM2" s="115">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="AN2" s="158"/>
       <c r="AO2" s="211">
@@ -12236,7 +12343,7 @@
         <v>8</v>
       </c>
       <c r="AQ2" s="39">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR2" s="40" t="s">
         <v>9</v>
@@ -12368,7 +12475,7 @@
         <v>14</v>
       </c>
       <c r="AQ3" s="41">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR3" s="40" t="s">
         <v>15</v>
@@ -13581,7 +13688,7 @@
       </c>
       <c r="AQ9" s="45"/>
       <c r="AR9" s="47" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AS9" s="4">
         <v>15</v>
@@ -13793,11 +13900,11 @@
       </c>
       <c r="AO10" s="45"/>
       <c r="AP10" s="226" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="AQ10" s="45"/>
       <c r="AR10" s="47" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AS10" s="4">
         <v>15</v>
@@ -14011,7 +14118,7 @@
       <c r="AP11" s="46"/>
       <c r="AQ11" s="45"/>
       <c r="AR11" s="47" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AS11" s="4">
         <v>13</v>
@@ -14225,7 +14332,7 @@
       <c r="AP12" s="46"/>
       <c r="AQ12" s="45"/>
       <c r="AR12" s="47" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AS12" s="4">
         <v>13</v>
@@ -14324,116 +14431,116 @@
       <c r="C13" s="191">
         <v>14</v>
       </c>
-      <c r="D13" s="222" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="193" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="M13" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="N13" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="O13" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="P13" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="R13" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="S13" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="T13" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="U13" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="V13" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="W13" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="X13" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN13" s="225" t="s">
-        <v>0</v>
+      <c r="D13" s="222">
+        <v>14</v>
+      </c>
+      <c r="E13" s="193">
+        <v>9</v>
+      </c>
+      <c r="F13" s="223">
+        <v>6</v>
+      </c>
+      <c r="G13" s="224">
+        <v>64</v>
+      </c>
+      <c r="H13" s="196">
+        <v>8</v>
+      </c>
+      <c r="I13" s="223">
+        <v>7</v>
+      </c>
+      <c r="J13" s="224">
+        <v>66</v>
+      </c>
+      <c r="K13" s="196">
+        <v>6</v>
+      </c>
+      <c r="L13" s="223">
+        <v>8</v>
+      </c>
+      <c r="M13" s="224">
+        <v>71</v>
+      </c>
+      <c r="N13" s="196">
+        <v>11</v>
+      </c>
+      <c r="O13" s="223">
+        <v>5</v>
+      </c>
+      <c r="P13" s="224">
+        <v>56</v>
+      </c>
+      <c r="Q13" s="196">
+        <v>5</v>
+      </c>
+      <c r="R13" s="223">
+        <v>6</v>
+      </c>
+      <c r="S13" s="224">
+        <v>74</v>
+      </c>
+      <c r="T13" s="196">
+        <v>3</v>
+      </c>
+      <c r="U13" s="223">
+        <v>8</v>
+      </c>
+      <c r="V13" s="224">
+        <v>77</v>
+      </c>
+      <c r="W13" s="196">
+        <v>12</v>
+      </c>
+      <c r="X13" s="223">
+        <v>5</v>
+      </c>
+      <c r="Y13" s="224">
+        <v>44</v>
+      </c>
+      <c r="Z13" s="196">
+        <v>10</v>
+      </c>
+      <c r="AA13" s="223">
+        <v>5</v>
+      </c>
+      <c r="AB13" s="224">
+        <v>57</v>
+      </c>
+      <c r="AC13" s="196">
+        <v>2</v>
+      </c>
+      <c r="AD13" s="223">
+        <v>7</v>
+      </c>
+      <c r="AE13" s="224">
+        <v>78</v>
+      </c>
+      <c r="AF13" s="196">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="223">
+        <v>10</v>
+      </c>
+      <c r="AH13" s="224">
+        <v>107</v>
+      </c>
+      <c r="AI13" s="196">
+        <v>4</v>
+      </c>
+      <c r="AJ13" s="223">
+        <v>8</v>
+      </c>
+      <c r="AK13" s="224">
+        <v>76</v>
+      </c>
+      <c r="AL13" s="196">
+        <v>7</v>
+      </c>
+      <c r="AM13" s="223">
+        <v>6</v>
+      </c>
+      <c r="AN13" s="225">
+        <v>68</v>
       </c>
       <c r="AO13" s="45"/>
       <c r="AP13" s="46"/>
@@ -14447,85 +14554,85 @@
         <v>0</v>
       </c>
       <c r="BL13" s="4"/>
-      <c r="BM13" s="4" t="s">
-        <v>0</v>
+      <c r="BM13" s="4">
+        <v>64</v>
       </c>
       <c r="BN13" s="4" t="s">
         <v>0</v>
       </c>
       <c r="BO13" s="4"/>
-      <c r="BP13" s="4" t="s">
-        <v>0</v>
+      <c r="BP13" s="4">
+        <v>66</v>
       </c>
       <c r="BQ13" s="4" t="s">
         <v>0</v>
       </c>
       <c r="BR13" s="4"/>
-      <c r="BS13" s="4" t="s">
-        <v>0</v>
+      <c r="BS13" s="4">
+        <v>71</v>
       </c>
       <c r="BT13" s="4" t="s">
         <v>0</v>
       </c>
       <c r="BU13" s="4"/>
-      <c r="BV13" s="4" t="s">
-        <v>0</v>
+      <c r="BV13" s="4">
+        <v>56</v>
       </c>
       <c r="BW13" s="4" t="s">
         <v>0</v>
       </c>
       <c r="BX13" s="4"/>
-      <c r="BY13" s="4" t="s">
-        <v>0</v>
+      <c r="BY13" s="4">
+        <v>74</v>
       </c>
       <c r="BZ13" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CA13" s="4"/>
-      <c r="CB13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="CC13" s="4" t="s">
-        <v>0</v>
+      <c r="CB13" s="4">
+        <v>77</v>
+      </c>
+      <c r="CC13" s="4">
+        <v>1</v>
       </c>
       <c r="CD13" s="4"/>
-      <c r="CE13" s="4" t="s">
-        <v>0</v>
+      <c r="CE13" s="4">
+        <v>44</v>
       </c>
       <c r="CF13" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CG13" s="4"/>
-      <c r="CH13" s="4" t="s">
-        <v>0</v>
+      <c r="CH13" s="4">
+        <v>57</v>
       </c>
       <c r="CI13" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CJ13" s="4"/>
-      <c r="CK13" s="4" t="s">
-        <v>0</v>
+      <c r="CK13" s="4">
+        <v>78</v>
       </c>
       <c r="CL13" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CM13" s="4"/>
-      <c r="CN13" s="4" t="s">
-        <v>0</v>
+      <c r="CN13" s="4">
+        <v>107</v>
       </c>
       <c r="CO13" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CP13" s="4"/>
-      <c r="CQ13" s="4" t="s">
-        <v>0</v>
+      <c r="CQ13" s="4">
+        <v>76</v>
       </c>
       <c r="CR13" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CS13" s="4"/>
-      <c r="CT13" s="4" t="s">
-        <v>0</v>
+      <c r="CT13" s="4">
+        <v>68</v>
       </c>
       <c r="CU13" s="4"/>
     </row>
@@ -16019,115 +16126,115 @@
         <v>22</v>
       </c>
       <c r="D21" s="237">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="E21" s="238">
         <v>8</v>
       </c>
       <c r="F21" s="239">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G21" s="240">
-        <v>671</v>
+        <v>735</v>
       </c>
       <c r="H21" s="241">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I21" s="239">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J21" s="240">
-        <v>689</v>
+        <v>755</v>
       </c>
       <c r="K21" s="241">
         <v>5</v>
       </c>
       <c r="L21" s="239">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="M21" s="240">
-        <v>696</v>
+        <v>767</v>
       </c>
       <c r="N21" s="241">
         <v>4</v>
       </c>
       <c r="O21" s="239">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="P21" s="240">
-        <v>702</v>
+        <v>774</v>
       </c>
       <c r="Q21" s="241">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R21" s="239">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="S21" s="240">
-        <v>685</v>
+        <v>759</v>
       </c>
       <c r="T21" s="241">
         <v>12</v>
       </c>
       <c r="U21" s="239">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="V21" s="240">
-        <v>601</v>
+        <v>678</v>
       </c>
       <c r="W21" s="241">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X21" s="239">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="Y21" s="240">
-        <v>735</v>
+        <v>779</v>
       </c>
       <c r="Z21" s="241">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA21" s="239">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB21" s="240">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="AC21" s="241">
         <v>1</v>
       </c>
       <c r="AD21" s="239">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="AE21" s="240">
-        <v>757</v>
+        <v>835</v>
       </c>
       <c r="AF21" s="241">
+        <v>9</v>
+      </c>
+      <c r="AG21" s="239">
+        <v>73</v>
+      </c>
+      <c r="AH21" s="240">
+        <v>709</v>
+      </c>
+      <c r="AI21" s="241">
         <v>11</v>
       </c>
-      <c r="AG21" s="239">
-        <v>63</v>
-      </c>
-      <c r="AH21" s="240">
-        <v>602</v>
-      </c>
-      <c r="AI21" s="241">
-        <v>10</v>
-      </c>
       <c r="AJ21" s="239">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="AK21" s="240">
-        <v>610</v>
+        <v>686</v>
       </c>
       <c r="AL21" s="241">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM21" s="239">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AN21" s="242">
-        <v>715</v>
+        <v>783</v>
       </c>
       <c r="AO21" s="48"/>
       <c r="AP21" s="49"/>
@@ -16138,62 +16245,62 @@
       <c r="BK21" s="4"/>
       <c r="BL21" s="4"/>
       <c r="BM21" s="4">
-        <v>671</v>
+        <v>735</v>
       </c>
       <c r="BN21" s="4"/>
       <c r="BO21" s="4"/>
       <c r="BP21" s="4">
-        <v>689</v>
+        <v>755</v>
       </c>
       <c r="BQ21" s="4"/>
       <c r="BR21" s="4"/>
       <c r="BS21" s="4">
-        <v>696</v>
+        <v>767</v>
       </c>
       <c r="BT21" s="4"/>
       <c r="BU21" s="4"/>
       <c r="BV21" s="4">
-        <v>702</v>
+        <v>774</v>
       </c>
       <c r="BW21" s="4"/>
       <c r="BX21" s="4"/>
       <c r="BY21" s="4">
-        <v>685</v>
+        <v>759</v>
       </c>
       <c r="BZ21" s="4"/>
       <c r="CA21" s="4"/>
       <c r="CB21" s="4">
-        <v>601</v>
+        <v>678</v>
       </c>
       <c r="CC21" s="4"/>
       <c r="CD21" s="4"/>
       <c r="CE21" s="4">
-        <v>735</v>
+        <v>779</v>
       </c>
       <c r="CF21" s="4"/>
       <c r="CG21" s="4"/>
       <c r="CH21" s="4">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="CI21" s="4"/>
       <c r="CJ21" s="4"/>
       <c r="CK21" s="4">
-        <v>757</v>
+        <v>835</v>
       </c>
       <c r="CL21" s="4"/>
       <c r="CM21" s="4"/>
       <c r="CN21" s="4">
-        <v>602</v>
+        <v>709</v>
       </c>
       <c r="CO21" s="4"/>
       <c r="CP21" s="4"/>
       <c r="CQ21" s="4">
-        <v>610</v>
+        <v>686</v>
       </c>
       <c r="CR21" s="4"/>
       <c r="CS21" s="4"/>
       <c r="CT21" s="4">
-        <v>715</v>
+        <v>783</v>
       </c>
       <c r="CU21" s="4"/>
     </row>
@@ -16204,112 +16311,112 @@
         <v>23</v>
       </c>
       <c r="E22" s="246">
-        <v>6.25</v>
+        <v>6.5555555555555554</v>
       </c>
       <c r="F22" s="247">
+        <v>7.3</v>
+      </c>
+      <c r="G22" s="248">
+        <v>81.666666666666671</v>
+      </c>
+      <c r="H22" s="249">
+        <v>6.4</v>
+      </c>
+      <c r="I22" s="247">
+        <v>8.4</v>
+      </c>
+      <c r="J22" s="248">
+        <v>83.888888888888886</v>
+      </c>
+      <c r="K22" s="249">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="L22" s="247">
+        <v>7.7</v>
+      </c>
+      <c r="M22" s="248">
+        <v>85.222222222222229</v>
+      </c>
+      <c r="N22" s="249">
+        <v>5.9</v>
+      </c>
+      <c r="O22" s="247">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="P22" s="248">
+        <v>86</v>
+      </c>
+      <c r="Q22" s="249">
+        <v>6.4</v>
+      </c>
+      <c r="R22" s="247">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="S22" s="248">
+        <v>84.333333333333329</v>
+      </c>
+      <c r="T22" s="249">
         <v>7.4444444444444446</v>
       </c>
-      <c r="G22" s="248">
-        <v>83.875</v>
-      </c>
-      <c r="H22" s="249">
-        <v>6.2222222222222223</v>
-      </c>
-      <c r="I22" s="247">
-        <v>8.5555555555555554</v>
-      </c>
-      <c r="J22" s="248">
-        <v>86.125</v>
-      </c>
-      <c r="K22" s="249">
-        <v>4.5</v>
-      </c>
-      <c r="L22" s="247">
-        <v>7.666666666666667</v>
-      </c>
-      <c r="M22" s="248">
+      <c r="U22" s="247">
+        <v>7.1</v>
+      </c>
+      <c r="V22" s="248">
+        <v>75.333333333333329</v>
+      </c>
+      <c r="W22" s="249">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="X22" s="247">
+        <v>8.6</v>
+      </c>
+      <c r="Y22" s="248">
+        <v>86.555555555555557</v>
+      </c>
+      <c r="Z22" s="249">
+        <v>7.8</v>
+      </c>
+      <c r="AA22" s="247">
+        <v>7.5</v>
+      </c>
+      <c r="AB22" s="248">
+        <v>77.444444444444443</v>
+      </c>
+      <c r="AC22" s="249">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AD22" s="247">
+        <v>9.1</v>
+      </c>
+      <c r="AE22" s="248">
+        <v>92.777777777777771</v>
+      </c>
+      <c r="AF22" s="249">
+        <v>7.1111111111111107</v>
+      </c>
+      <c r="AG22" s="247">
+        <v>7.3</v>
+      </c>
+      <c r="AH22" s="248">
+        <v>78.777777777777771</v>
+      </c>
+      <c r="AI22" s="249">
+        <v>7</v>
+      </c>
+      <c r="AJ22" s="247">
+        <v>6.5</v>
+      </c>
+      <c r="AK22" s="248">
+        <v>76.222222222222229</v>
+      </c>
+      <c r="AL22" s="249">
+        <v>6</v>
+      </c>
+      <c r="AM22" s="247">
+        <v>8.6</v>
+      </c>
+      <c r="AN22" s="250">
         <v>87</v>
-      </c>
-      <c r="N22" s="249">
-        <v>5.333333333333333</v>
-      </c>
-      <c r="O22" s="247">
-        <v>9.2222222222222214</v>
-      </c>
-      <c r="P22" s="248">
-        <v>87.75</v>
-      </c>
-      <c r="Q22" s="249">
-        <v>6.5555555555555554</v>
-      </c>
-      <c r="R22" s="247">
-        <v>8.4444444444444446</v>
-      </c>
-      <c r="S22" s="248">
-        <v>85.625</v>
-      </c>
-      <c r="T22" s="249">
-        <v>8</v>
-      </c>
-      <c r="U22" s="247">
-        <v>7</v>
-      </c>
-      <c r="V22" s="248">
-        <v>75.125</v>
-      </c>
-      <c r="W22" s="249">
-        <v>4.1111111111111107</v>
-      </c>
-      <c r="X22" s="247">
-        <v>9</v>
-      </c>
-      <c r="Y22" s="248">
-        <v>91.875</v>
-      </c>
-      <c r="Z22" s="249">
-        <v>7.5555555555555554</v>
-      </c>
-      <c r="AA22" s="247">
-        <v>7.7777777777777777</v>
-      </c>
-      <c r="AB22" s="248">
-        <v>80</v>
-      </c>
-      <c r="AC22" s="249">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="AD22" s="247">
-        <v>9.3333333333333339</v>
-      </c>
-      <c r="AE22" s="248">
-        <v>94.625</v>
-      </c>
-      <c r="AF22" s="249">
-        <v>7.875</v>
-      </c>
-      <c r="AG22" s="247">
-        <v>7</v>
-      </c>
-      <c r="AH22" s="248">
-        <v>75.25</v>
-      </c>
-      <c r="AI22" s="249">
-        <v>7.375</v>
-      </c>
-      <c r="AJ22" s="247">
-        <v>6.333333333333333</v>
-      </c>
-      <c r="AK22" s="248">
-        <v>76.25</v>
-      </c>
-      <c r="AL22" s="249">
-        <v>5.8888888888888893</v>
-      </c>
-      <c r="AM22" s="247">
-        <v>8.8888888888888893</v>
-      </c>
-      <c r="AN22" s="250">
-        <v>89.375</v>
       </c>
       <c r="AO22" s="48"/>
       <c r="AP22" s="49"/>
@@ -16406,8 +16513,8 @@
       </c>
       <c r="AD23" s="255"/>
       <c r="AE23" s="256"/>
-      <c r="AF23" s="257" t="s">
-        <v>0</v>
+      <c r="AF23" s="257">
+        <v>1</v>
       </c>
       <c r="AG23" s="255"/>
       <c r="AH23" s="256"/>
@@ -16512,7 +16619,7 @@
       <c r="AA24" s="108"/>
       <c r="AB24" s="109"/>
       <c r="AC24" s="75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD24" s="108"/>
       <c r="AE24" s="109"/>
@@ -16631,7 +16738,7 @@
       <c r="R25" s="108"/>
       <c r="S25" s="109"/>
       <c r="T25" s="75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U25" s="108"/>
       <c r="V25" s="109"/>
@@ -16770,7 +16877,7 @@
       <c r="U26" s="108"/>
       <c r="V26" s="109"/>
       <c r="W26" s="75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X26" s="108"/>
       <c r="Y26" s="109"/>
@@ -17067,7 +17174,7 @@
     </row>
     <row r="29" spans="2:99" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AT29" s="300" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="AU29" s="310"/>
       <c r="AV29" s="310"/>
@@ -17421,7 +17528,7 @@
         <v>93</v>
       </c>
       <c r="AV33" s="273">
-        <v>-27</v>
+        <v>-30</v>
       </c>
       <c r="AW33" s="274">
         <v>3</v>
@@ -17433,7 +17540,7 @@
         <v>61</v>
       </c>
       <c r="AZ33" s="275">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="BA33" s="277" t="s">
         <v>0</v>
@@ -17450,63 +17557,63 @@
       <c r="BI33" s="278"/>
       <c r="BJ33" s="4"/>
       <c r="BK33" s="4"/>
-      <c r="BL33" s="4" t="s">
-        <v>0</v>
+      <c r="BL33" s="4">
+        <v>6</v>
       </c>
       <c r="BM33" s="4"/>
       <c r="BN33" s="4"/>
-      <c r="BO33" s="4" t="s">
-        <v>0</v>
+      <c r="BO33" s="4">
+        <v>7</v>
       </c>
       <c r="BP33" s="4"/>
       <c r="BQ33" s="4"/>
-      <c r="BR33" s="4" t="s">
-        <v>0</v>
+      <c r="BR33" s="4">
+        <v>8</v>
       </c>
       <c r="BS33" s="4"/>
       <c r="BT33" s="4"/>
-      <c r="BU33" s="4" t="s">
-        <v>0</v>
+      <c r="BU33" s="4">
+        <v>5</v>
       </c>
       <c r="BV33" s="4"/>
       <c r="BW33" s="4"/>
-      <c r="BX33" s="4" t="s">
-        <v>0</v>
+      <c r="BX33" s="4">
+        <v>6</v>
       </c>
       <c r="BY33" s="4"/>
       <c r="BZ33" s="4"/>
-      <c r="CA33" s="4" t="s">
-        <v>0</v>
+      <c r="CA33" s="4">
+        <v>8</v>
       </c>
       <c r="CB33" s="4"/>
       <c r="CC33" s="4"/>
-      <c r="CD33" s="4" t="s">
-        <v>0</v>
+      <c r="CD33" s="4">
+        <v>5</v>
       </c>
       <c r="CE33" s="4"/>
       <c r="CF33" s="4"/>
-      <c r="CG33" s="4" t="s">
-        <v>0</v>
+      <c r="CG33" s="4">
+        <v>5</v>
       </c>
       <c r="CH33" s="4"/>
       <c r="CI33" s="4"/>
-      <c r="CJ33" s="4" t="s">
-        <v>0</v>
+      <c r="CJ33" s="4">
+        <v>7</v>
       </c>
       <c r="CK33" s="4"/>
       <c r="CL33" s="4"/>
-      <c r="CM33" s="4" t="s">
-        <v>0</v>
+      <c r="CM33" s="4">
+        <v>10</v>
       </c>
       <c r="CN33" s="4"/>
       <c r="CO33" s="4"/>
-      <c r="CP33" s="4" t="s">
-        <v>0</v>
+      <c r="CP33" s="4">
+        <v>8</v>
       </c>
       <c r="CQ33" s="4"/>
       <c r="CR33" s="4"/>
-      <c r="CS33" s="4" t="s">
-        <v>0</v>
+      <c r="CS33" s="4">
+        <v>6</v>
       </c>
       <c r="CT33" s="4"/>
       <c r="CU33" s="4"/>
@@ -17516,10 +17623,10 @@
         <v>97</v>
       </c>
       <c r="AU34" s="280">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="AV34" s="281">
-        <v>-27</v>
+        <v>-30</v>
       </c>
       <c r="AW34" s="282">
         <v>2</v>
@@ -17534,10 +17641,10 @@
         <v>0</v>
       </c>
       <c r="BA34" s="285" t="s">
-        <v>61</v>
-      </c>
-      <c r="BB34" s="286">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="BB34" s="286" t="s">
+        <v>0</v>
       </c>
       <c r="BC34" s="287"/>
       <c r="BD34" s="282"/>
@@ -17611,13 +17718,13 @@
     </row>
     <row r="35" spans="46:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AT35" s="271" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="AU35" s="280">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="AV35" s="281">
-        <v>-27</v>
+        <v>-30</v>
       </c>
       <c r="AW35" s="282">
         <v>1</v>
@@ -17632,10 +17739,10 @@
         <v>0</v>
       </c>
       <c r="BA35" s="285" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB35" s="286" t="s">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="BB35" s="286">
+        <v>20</v>
       </c>
       <c r="BC35" s="287"/>
       <c r="BD35" s="282"/>
@@ -17709,13 +17816,13 @@
     </row>
     <row r="36" spans="46:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AT36" s="271" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AU36" s="280">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AV36" s="281">
-        <v>-27</v>
+        <v>-30</v>
       </c>
       <c r="AW36" s="282">
         <v>1</v>
@@ -17807,13 +17914,13 @@
     </row>
     <row r="37" spans="46:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AT37" s="271" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AU37" s="280">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AV37" s="281">
-        <v>-27</v>
+        <v>-30</v>
       </c>
       <c r="AW37" s="282">
         <v>1</v>
@@ -17905,13 +18012,13 @@
     </row>
     <row r="38" spans="46:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AT38" s="271" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="AU38" s="280">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AV38" s="281">
-        <v>-27</v>
+        <v>-30</v>
       </c>
       <c r="AW38" s="282">
         <v>1</v>
@@ -18003,19 +18110,19 @@
     </row>
     <row r="39" spans="46:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AT39" s="271" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AU39" s="280">
-        <v>-27</v>
+        <v>1</v>
       </c>
       <c r="AV39" s="281">
-        <v>-27</v>
-      </c>
-      <c r="AW39" s="282" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX39" s="283" t="s">
-        <v>0</v>
+        <v>-30</v>
+      </c>
+      <c r="AW39" s="282">
+        <v>1</v>
+      </c>
+      <c r="AX39" s="283">
+        <v>31</v>
       </c>
       <c r="AY39" s="284" t="s">
         <v>0</v>
@@ -18101,13 +18208,13 @@
     </row>
     <row r="40" spans="46:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AT40" s="271" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AU40" s="280">
-        <v>-27</v>
+        <v>-30</v>
       </c>
       <c r="AV40" s="281">
-        <v>-27</v>
+        <v>-30</v>
       </c>
       <c r="AW40" s="282" t="s">
         <v>0</v>
@@ -18199,13 +18306,13 @@
     </row>
     <row r="41" spans="46:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AT41" s="271" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AU41" s="280">
-        <v>-27</v>
+        <v>-30</v>
       </c>
       <c r="AV41" s="281">
-        <v>-27</v>
+        <v>-30</v>
       </c>
       <c r="AW41" s="282" t="s">
         <v>0</v>
@@ -18235,75 +18342,75 @@
       <c r="BJ41" s="4"/>
       <c r="BK41" s="4"/>
       <c r="BL41" s="4">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="BM41" s="4"/>
       <c r="BN41" s="4"/>
       <c r="BO41" s="4">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="BP41" s="4"/>
       <c r="BQ41" s="4"/>
       <c r="BR41" s="4">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="BS41" s="4"/>
       <c r="BT41" s="4"/>
       <c r="BU41" s="4">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="BV41" s="4"/>
       <c r="BW41" s="4"/>
       <c r="BX41" s="4">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="BY41" s="4"/>
       <c r="BZ41" s="4"/>
       <c r="CA41" s="4">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="CB41" s="4"/>
       <c r="CC41" s="4"/>
       <c r="CD41" s="4">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="CE41" s="4"/>
       <c r="CF41" s="4"/>
       <c r="CG41" s="4">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="CH41" s="4"/>
       <c r="CI41" s="4"/>
       <c r="CJ41" s="4">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="CK41" s="4"/>
       <c r="CL41" s="4"/>
       <c r="CM41" s="4">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="CN41" s="4"/>
       <c r="CO41" s="4"/>
       <c r="CP41" s="4">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="CQ41" s="4"/>
       <c r="CR41" s="4"/>
       <c r="CS41" s="4">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="CT41" s="4"/>
       <c r="CU41" s="4"/>
     </row>
     <row r="42" spans="46:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AT42" s="271" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AU42" s="280">
-        <v>-27</v>
+        <v>-30</v>
       </c>
       <c r="AV42" s="281">
-        <v>-27</v>
+        <v>-30</v>
       </c>
       <c r="AW42" s="282" t="s">
         <v>0</v>
@@ -18332,62 +18439,62 @@
       <c r="BI42" s="286"/>
       <c r="BJ42" s="50"/>
       <c r="BK42" s="50">
-        <v>6.25</v>
+        <v>6.5555555555555554</v>
       </c>
       <c r="BL42" s="50"/>
       <c r="BM42" s="50"/>
       <c r="BN42" s="50">
-        <v>6.2222222222222223</v>
+        <v>6.4</v>
       </c>
       <c r="BO42" s="50"/>
       <c r="BP42" s="50"/>
       <c r="BQ42" s="50">
-        <v>4.5</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="BR42" s="50"/>
       <c r="BS42" s="50"/>
       <c r="BT42" s="50">
-        <v>5.333333333333333</v>
+        <v>5.9</v>
       </c>
       <c r="BU42" s="50"/>
       <c r="BV42" s="50"/>
       <c r="BW42" s="50">
-        <v>6.5555555555555554</v>
+        <v>6.4</v>
       </c>
       <c r="BX42" s="50"/>
       <c r="BY42" s="50"/>
       <c r="BZ42" s="50">
-        <v>8</v>
+        <v>7.4444444444444446</v>
       </c>
       <c r="CA42" s="50"/>
       <c r="CB42" s="50"/>
       <c r="CC42" s="50">
-        <v>4.1111111111111107</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="CD42" s="50"/>
       <c r="CE42" s="50"/>
       <c r="CF42" s="50">
-        <v>7.5555555555555554</v>
+        <v>7.8</v>
       </c>
       <c r="CG42" s="50"/>
       <c r="CH42" s="50"/>
       <c r="CI42" s="50">
-        <v>4.333333333333333</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="CJ42" s="50"/>
       <c r="CK42" s="50"/>
       <c r="CL42" s="50">
-        <v>7.875</v>
+        <v>7.1111111111111107</v>
       </c>
       <c r="CM42" s="50"/>
       <c r="CN42" s="50"/>
       <c r="CO42" s="50">
-        <v>7.375</v>
+        <v>7</v>
       </c>
       <c r="CP42" s="50"/>
       <c r="CQ42" s="50"/>
       <c r="CR42" s="50">
-        <v>5.8888888888888893</v>
+        <v>6</v>
       </c>
       <c r="CS42" s="50"/>
       <c r="CT42" s="50"/>
@@ -18395,13 +18502,13 @@
     </row>
     <row r="43" spans="46:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AT43" s="271" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AU43" s="280">
-        <v>-27</v>
+        <v>-30</v>
       </c>
       <c r="AV43" s="281">
-        <v>-27</v>
+        <v>-30</v>
       </c>
       <c r="AW43" s="282" t="s">
         <v>0</v>
@@ -18434,10 +18541,10 @@
         <v>101</v>
       </c>
       <c r="AU44" s="289">
-        <v>-27</v>
+        <v>-30</v>
       </c>
       <c r="AV44" s="290">
-        <v>-27</v>
+        <v>-30</v>
       </c>
       <c r="AW44" s="291" t="s">
         <v>0</v>

--- a/regular_season_final.xlsx
+++ b/regular_season_final.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="174">
   <si>
     <t/>
   </si>
@@ -335,22 +335,10 @@
     <t>RR</t>
   </si>
   <si>
-    <t>Jets</t>
-  </si>
-  <si>
     <t>Browns</t>
   </si>
   <si>
     <t>Titans</t>
-  </si>
-  <si>
-    <t>Broncos</t>
-  </si>
-  <si>
-    <t>Falcons</t>
-  </si>
-  <si>
-    <t>Chargers</t>
   </si>
   <si>
     <t>2016 Season Summary</t>
@@ -425,124 +413,139 @@
     <t>49ers</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Week 10 Scores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w10_p1_picks         = ["H","H","V","H","H","V","V","V","H","H","H","V","H","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w10_p2_picks         = ["H","H","V","H","H","H","H","V","H","H","H","H","H","H"];</t>
-  </si>
-  <si>
     <t>Texans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w10_p3_picks         = ["H","H","V","H","H","H","H","V","H","H","H","V","H","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w10_p4_picks         = ["H","H","V","H","H","V","V","V","H","H","H","H","H","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w10_p5_picks         = ["H","H","V","H","H","V","V","V","H","H","H","V","H","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w10_p6_picks         = ["H","H","V","V","H","V","V","H","H","H","H","V","H","H"];</t>
   </si>
   <si>
     <t>Bears</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w10_p7_picks         = ["V","V","H","H","V","V","V","V","H","H","H","H","H","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w10_p8_picks         = ["H","V","V","H","H","V","H","V","V","H","H","H","H","V"];</t>
-  </si>
-  <si>
     <t>Redskins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w10_p9_picks         = ["H","H","V","H","H","V","H","V","H","H","H","V","H","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w10_p10_picks        = ["H","V","H","V","V","H","V","H","H","V","V","V","H","H"];</t>
   </si>
   <si>
     <t>Cardinals</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w10_p11_picks        = ["H","V","H","H","V","H","H","V","H","H","H","H","H","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w10_p12_picks        = ["H","H","V","H","H","V","H","V","H","H","H","V","H","V"];</t>
-  </si>
-  <si>
     <t>Patriots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w10_p1_weights       = ["16","11","7","8","6","5","4","9","13","12","15","3","14","10"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w10_p2_weights       = ["16","3","4","15","14","13","12","8","6","11","10","7","9","5"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w10_p3_weights       = ["15","12","5","10","6","4","3","7","11","13","16","9","14","8"];</t>
   </si>
   <si>
     <t>Bengals</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w10_p4_weights       = ["16","12","5","10","6","4","3","8","11","13","15","7","14","9"];</t>
+    <t>11</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w10_p5_weights       = ["16","10","11","3","4","9","12","8","13","7","15","14","6","5"];</t>
+    <t>Week 11 Scores</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w10_p6_weights       = ["9","6","10","5","4","15","3","8","13","12","7","11","16","14"];</t>
+    <t xml:space="preserve">   var w11_p1_picks         = ["H","V","V","H","H","H","H","V","H","V","V","H","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w10_p7_weights       = ["5","11","4","15","13","8","9","12","7","14","10","16","6","3"];</t>
+    <t>Bills</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w10_p8_weights       = ["15","12","9","10","7","6","5","8","11","13","16","4","14","3"];</t>
+    <t xml:space="preserve">   var w11_p2_picks         = ["H","H","V","H","H","H","H","V","H","H","V","H","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w10_p9_weights       = ["16","3","10","9","4","12","11","8","7","5","15","6","14","13"];</t>
+    <t xml:space="preserve">   var w11_p3_picks         = ["H","H","V","H","H","H","H","H","H","V","V","H","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w10_p10_weights      = ["6","15","5","11","14","8","10","9","12","13","7","3","4","16"];</t>
+    <t xml:space="preserve">   var w11_p4_picks         = ["V","H","V","H","H","H","H","H","H","H","V","H","V","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w10_p11_weights      = ["15","16","5","7","6","4","3","8","11","13","12","10","14","9"];</t>
+    <t>Lions</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w10_p12_weights      = ["16","3","14","4","9","8","12","13","6","11","15","5","10","7"];</t>
+    <t xml:space="preserve">   var w11_p5_picks         = ["H","V","V","H","H","V","H","H","H","V","V","H","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w10_winners          = ["H","V","V","V","V","H","H","H","H","V","H","V","V","H"];</t>
+    <t>Colts</t>
   </si>
   <si>
-    <t>Bills, Lions, Colts, Raiders</t>
+    <t xml:space="preserve">   var w11_p6_picks         = ["V","V","V","H","H","V","H","H","H","V","V","H","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w10_mn_points        = ["46","51","47","42","37","56","38","41","49","70","48","38"];</t>
+    <t xml:space="preserve">   var w11_p7_picks         = ["V","V","V","H","H","V","H","H","H","H","V","V","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w10_actual_mn_points = 0;</t>
+    <t xml:space="preserve">   var w11_p8_picks         = ["V","H","H","H","H","H","H","H","H","V","V","H","H","H"];</t>
   </si>
   <si>
-    <t>Week 10 Final</t>
+    <t xml:space="preserve">   var w11_p9_picks         = ["H","H","V","H","H","H","H","H","H","V","V","H","H","H"];</t>
   </si>
   <si>
-    <t>'Week 10'!$B$2</t>
+    <t xml:space="preserve">   var w11_p10_picks        = [];</t>
   </si>
   <si>
-    <t>'Week 10'!$C$2</t>
+    <t xml:space="preserve">   var w11_p11_picks        = ["H","H","V","H","H","H","H","H","H","H","V","V","H","H"];</t>
   </si>
   <si>
-    <t>'Week 10'!$D$2</t>
+    <t xml:space="preserve">   var w11_p12_picks        = ["H","H","V","H","H","H","H","V","H","H","V","H","V","H"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w11_p1_weights       = ["8","6","15","13","11","7","14","5","12","4","16","10","3","9"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w11_p2_weights       = ["3","4","5","6","7","8","16","11","15","10","14","13","12","9"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w11_p3_weights       = ["8","6","15","12","11","7","14","3","13","4","16","10","5","9"];</t>
+  </si>
+  <si>
+    <t>Raiders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w11_p4_weights       = ["4","6","15","13","11","9","12","8","10","3","16","14","5","7"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w11_p5_weights       = ["5","6","16","14","11","7","12","8","13","4","15","9","3","10"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w11_p6_weights       = ["3","6","14","13","9","7","8","4","11","5","16","15","12","10"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w11_p7_weights       = ["6","8","16","12","9","10","11","5","14","4","15","7","13","3"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w11_p8_weights       = ["4","7","3","14","12","9","15","5","13","6","16","11","8","10"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w11_p9_weights       = ["7","3","15","14","9","4","10","6","13","8","16","11","5","12"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w11_p10_weights      = [];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w11_p11_weights      = ["8","6","14","3","11","12","16","10","13","4","15","7","9","5"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w11_p12_weights      = ["5","10","15","12","13","9","8","4","14","3","16","7","6","11"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w11_winners          = ["H","V","V","H","H","H","V","H","H","V","V","H","H","H"];</t>
+  </si>
+  <si>
+    <t>Falcons, Broncos, Jets, Chargers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w11_mn_points        = ["48","49","46","42","48","56","38","43","48","","46","45"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w11_actual_mn_points = 0;</t>
+  </si>
+  <si>
+    <t>Week 11 Final</t>
+  </si>
+  <si>
+    <t>'Week 11'!$B$2</t>
+  </si>
+  <si>
+    <t>'Week 11'!$C$2</t>
+  </si>
+  <si>
+    <t>'Week 11'!$D$2</t>
   </si>
 </sst>
 </file>
@@ -5182,94 +5185,94 @@
         <v>40</v>
       </c>
       <c r="C2" s="297" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D2" s="112" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E2" s="113"/>
       <c r="F2" s="114" t="s">
         <v>91</v>
       </c>
       <c r="G2" s="115">
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="H2" s="116"/>
       <c r="I2" s="114" t="s">
         <v>92</v>
       </c>
       <c r="J2" s="115">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="K2" s="116"/>
       <c r="L2" s="114" t="s">
         <v>93</v>
       </c>
       <c r="M2" s="115">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="N2" s="116"/>
       <c r="O2" s="114" t="s">
         <v>94</v>
       </c>
       <c r="P2" s="115">
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="Q2" s="116"/>
       <c r="R2" s="114" t="s">
         <v>95</v>
       </c>
       <c r="S2" s="115">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="T2" s="116"/>
       <c r="U2" s="114" t="s">
         <v>96</v>
       </c>
       <c r="V2" s="115">
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="W2" s="116"/>
       <c r="X2" s="114" t="s">
         <v>97</v>
       </c>
       <c r="Y2" s="115">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Z2" s="116"/>
       <c r="AA2" s="114" t="s">
         <v>98</v>
       </c>
       <c r="AB2" s="115">
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="AC2" s="116"/>
       <c r="AD2" s="114" t="s">
         <v>99</v>
       </c>
       <c r="AE2" s="115">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="AF2" s="116"/>
       <c r="AG2" s="114" t="s">
         <v>100</v>
       </c>
       <c r="AH2" s="115">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AI2" s="116"/>
       <c r="AJ2" s="114" t="s">
         <v>101</v>
       </c>
       <c r="AK2" s="115">
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="AL2" s="116"/>
       <c r="AM2" s="114" t="s">
         <v>102</v>
       </c>
       <c r="AN2" s="115">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO2" s="117"/>
       <c r="AP2" s="3"/>
@@ -5288,7 +5291,7 @@
       <c r="AV2" s="305"/>
       <c r="AW2" s="3"/>
       <c r="BE2" s="300" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="BF2" s="301"/>
       <c r="BG2" s="302"/>
@@ -5440,7 +5443,7 @@
       </c>
       <c r="AP3" s="3"/>
       <c r="AR3" s="11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS3" s="9" t="s">
         <v>52</v>
@@ -5508,13 +5511,13 @@
     </row>
     <row r="4" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="180" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C4" s="181" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="181" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E4" s="182" t="s">
         <v>60</v>
@@ -5523,7 +5526,7 @@
         <v>60</v>
       </c>
       <c r="G4" s="184">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H4" s="185" t="s">
         <v>0</v>
@@ -5532,7 +5535,7 @@
         <v>60</v>
       </c>
       <c r="J4" s="184">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="K4" s="185" t="s">
         <v>0</v>
@@ -5541,71 +5544,67 @@
         <v>60</v>
       </c>
       <c r="M4" s="184">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N4" s="185" t="s">
         <v>0</v>
       </c>
       <c r="O4" s="186" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="P4" s="184">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="185" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="Q4" s="185">
+        <v>-4</v>
       </c>
       <c r="R4" s="186" t="s">
         <v>60</v>
       </c>
       <c r="S4" s="184">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="T4" s="185" t="s">
         <v>0</v>
       </c>
       <c r="U4" s="186" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="V4" s="184">
-        <v>9</v>
-      </c>
-      <c r="W4" s="185" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="W4" s="185">
+        <v>-3</v>
       </c>
       <c r="X4" s="186" t="s">
         <v>88</v>
       </c>
       <c r="Y4" s="184">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z4" s="185">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="AA4" s="186" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AB4" s="184">
-        <v>15</v>
-      </c>
-      <c r="AC4" s="185" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="AC4" s="185">
+        <v>-4</v>
       </c>
       <c r="AD4" s="186" t="s">
         <v>60</v>
       </c>
       <c r="AE4" s="184">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AF4" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="AG4" s="186" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH4" s="184">
-        <v>6</v>
-      </c>
+      <c r="AG4" s="186"/>
+      <c r="AH4" s="184"/>
       <c r="AI4" s="185" t="s">
         <v>0</v>
       </c>
@@ -5613,7 +5612,7 @@
         <v>60</v>
       </c>
       <c r="AK4" s="184">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AL4" s="185" t="s">
         <v>0</v>
@@ -5622,7 +5621,7 @@
         <v>60</v>
       </c>
       <c r="AN4" s="184">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="AO4" s="187" t="s">
         <v>0</v>
@@ -5631,22 +5630,22 @@
         <v>60</v>
       </c>
       <c r="AU4" s="184">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="AV4" s="187" t="s">
         <v>0</v>
       </c>
       <c r="AX4" s="4">
-        <v>151</v>
+        <v>27</v>
       </c>
       <c r="AY4" s="4">
-        <v>151</v>
+        <v>27</v>
       </c>
       <c r="AZ4" s="4">
-        <v>151</v>
+        <v>27</v>
       </c>
       <c r="BA4" s="4">
-        <v>151</v>
+        <v>27</v>
       </c>
       <c r="BB4" s="4">
         <v>1</v>
@@ -5658,10 +5657,10 @@
         <v>1</v>
       </c>
       <c r="BF4" s="60" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BG4" s="61">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="BH4" s="189"/>
       <c r="BI4" s="62">
@@ -5671,10 +5670,10 @@
         <v>99</v>
       </c>
       <c r="BK4" s="64">
-        <v>92.777777777777771</v>
+        <v>95.5</v>
       </c>
       <c r="BL4" s="65">
-        <v>835</v>
+        <v>955</v>
       </c>
       <c r="BM4" s="172"/>
       <c r="BN4" s="66">
@@ -5684,22 +5683,22 @@
         <v>99</v>
       </c>
       <c r="BP4" s="68">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="BQ4" s="69">
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="BR4" s="70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BS4" s="71">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="BT4" s="72" t="s">
         <v>61</v>
       </c>
       <c r="BU4" s="71">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="BV4" s="72" t="s">
         <v>0</v>
@@ -5708,93 +5707,93 @@
         <v>0</v>
       </c>
       <c r="BY4" s="12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="190" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="C5" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="191" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E5" s="192" t="s">
         <v>88</v>
       </c>
       <c r="F5" s="193" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="G5" s="194">
-        <v>11</v>
-      </c>
-      <c r="H5" s="195">
-        <v>-11</v>
+        <v>6</v>
+      </c>
+      <c r="H5" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="I5" s="196" t="s">
         <v>60</v>
       </c>
       <c r="J5" s="194">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K5" s="195">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="L5" s="196" t="s">
         <v>60</v>
       </c>
       <c r="M5" s="194">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N5" s="195">
-        <v>-12</v>
+        <v>-6</v>
       </c>
       <c r="O5" s="196" t="s">
         <v>60</v>
       </c>
       <c r="P5" s="194">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Q5" s="195">
-        <v>-12</v>
+        <v>-6</v>
       </c>
       <c r="R5" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="S5" s="194">
-        <v>10</v>
-      </c>
-      <c r="T5" s="195">
-        <v>-10</v>
+        <v>6</v>
+      </c>
+      <c r="T5" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="U5" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="V5" s="194">
         <v>6</v>
       </c>
-      <c r="W5" s="195">
-        <v>-6</v>
+      <c r="W5" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="X5" s="196" t="s">
         <v>88</v>
       </c>
       <c r="Y5" s="194">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Z5" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AA5" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AB5" s="194">
-        <v>12</v>
-      </c>
-      <c r="AC5" s="195" t="s">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="AC5" s="195">
+        <v>-7</v>
       </c>
       <c r="AD5" s="196" t="s">
         <v>60</v>
@@ -5805,32 +5804,28 @@
       <c r="AF5" s="195">
         <v>-3</v>
       </c>
-      <c r="AG5" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH5" s="194">
-        <v>15</v>
-      </c>
+      <c r="AG5" s="196"/>
+      <c r="AH5" s="194"/>
       <c r="AI5" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AJ5" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AK5" s="194">
-        <v>16</v>
-      </c>
-      <c r="AL5" s="195" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="AL5" s="195">
+        <v>-6</v>
       </c>
       <c r="AM5" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AN5" s="194">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AO5" s="197">
-        <v>-3</v>
+        <v>-10</v>
       </c>
       <c r="AR5" s="8"/>
       <c r="AS5" s="9"/>
@@ -5844,16 +5839,16 @@
         <v>-4</v>
       </c>
       <c r="AX5" s="4">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AY5" s="4">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AZ5" s="4">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="BA5" s="4">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="BB5" s="4">
         <v>2</v>
@@ -5865,10 +5860,10 @@
         <v>2</v>
       </c>
       <c r="BF5" s="77" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="BG5" s="78">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="BH5" s="189"/>
       <c r="BI5" s="79">
@@ -5878,10 +5873,10 @@
         <v>102</v>
       </c>
       <c r="BK5" s="81">
-        <v>87</v>
+        <v>88.5</v>
       </c>
       <c r="BL5" s="82">
-        <v>783</v>
+        <v>885</v>
       </c>
       <c r="BM5" s="172"/>
       <c r="BN5" s="79">
@@ -5891,10 +5886,10 @@
         <v>97</v>
       </c>
       <c r="BP5" s="83">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="BQ5" s="84">
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="BR5" s="85">
         <v>2</v>
@@ -5915,18 +5910,18 @@
         <v>0</v>
       </c>
       <c r="BY5" s="12" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="190" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C6" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="191" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="E6" s="192" t="s">
         <v>88</v>
@@ -5935,7 +5930,7 @@
         <v>88</v>
       </c>
       <c r="G6" s="194">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H6" s="195" t="s">
         <v>0</v>
@@ -5944,7 +5939,7 @@
         <v>88</v>
       </c>
       <c r="J6" s="194">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K6" s="195" t="s">
         <v>0</v>
@@ -5953,7 +5948,7 @@
         <v>88</v>
       </c>
       <c r="M6" s="194">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N6" s="195" t="s">
         <v>0</v>
@@ -5962,7 +5957,7 @@
         <v>88</v>
       </c>
       <c r="P6" s="194">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="195" t="s">
         <v>0</v>
@@ -5971,7 +5966,7 @@
         <v>88</v>
       </c>
       <c r="S6" s="194">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="T6" s="195" t="s">
         <v>0</v>
@@ -5980,61 +5975,57 @@
         <v>88</v>
       </c>
       <c r="V6" s="194">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="W6" s="195" t="s">
         <v>0</v>
       </c>
       <c r="X6" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y6" s="194">
+        <v>16</v>
+      </c>
+      <c r="Z6" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="Y6" s="194">
-        <v>4</v>
-      </c>
-      <c r="Z6" s="195">
-        <v>-4</v>
-      </c>
-      <c r="AA6" s="196" t="s">
-        <v>88</v>
-      </c>
       <c r="AB6" s="194">
-        <v>9</v>
-      </c>
-      <c r="AC6" s="195" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="AC6" s="195">
+        <v>-3</v>
       </c>
       <c r="AD6" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AE6" s="194">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AF6" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="AG6" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH6" s="194">
-        <v>5</v>
-      </c>
-      <c r="AI6" s="195">
-        <v>-5</v>
+      <c r="AG6" s="196"/>
+      <c r="AH6" s="194"/>
+      <c r="AI6" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AJ6" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AK6" s="194">
-        <v>5</v>
-      </c>
-      <c r="AL6" s="195">
-        <v>-5</v>
+        <v>14</v>
+      </c>
+      <c r="AL6" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AM6" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AN6" s="194">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO6" s="197" t="s">
         <v>0</v>
@@ -6045,22 +6036,22 @@
         <v>88</v>
       </c>
       <c r="AU6" s="194">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AV6" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX6" s="4">
-        <v>-61</v>
+        <v>-137</v>
       </c>
       <c r="AY6" s="4">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="AZ6" s="4">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="BA6" s="4">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="BB6" s="4">
         <v>3</v>
@@ -6072,23 +6063,23 @@
         <v>3</v>
       </c>
       <c r="BF6" s="77" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="BG6" s="78">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="BH6" s="189"/>
       <c r="BI6" s="79">
         <v>3</v>
       </c>
       <c r="BJ6" s="80" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="BK6" s="81">
-        <v>86.555555555555557</v>
+        <v>88</v>
       </c>
       <c r="BL6" s="82">
-        <v>779</v>
+        <v>880</v>
       </c>
       <c r="BM6" s="172"/>
       <c r="BN6" s="79">
@@ -6098,10 +6089,10 @@
         <v>102</v>
       </c>
       <c r="BP6" s="83">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BQ6" s="84">
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="BR6" s="85">
         <v>1</v>
@@ -6119,75 +6110,75 @@
         <v>61</v>
       </c>
       <c r="BW6" s="88">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BY6" s="12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="190" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="C7" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="191" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E7" s="192" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F7" s="193" t="s">
         <v>60</v>
       </c>
       <c r="G7" s="194">
-        <v>8</v>
-      </c>
-      <c r="H7" s="195">
-        <v>-8</v>
+        <v>13</v>
+      </c>
+      <c r="H7" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="I7" s="196" t="s">
         <v>60</v>
       </c>
       <c r="J7" s="194">
-        <v>15</v>
-      </c>
-      <c r="K7" s="195">
-        <v>-15</v>
+        <v>6</v>
+      </c>
+      <c r="K7" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="L7" s="196" t="s">
         <v>60</v>
       </c>
       <c r="M7" s="194">
-        <v>10</v>
-      </c>
-      <c r="N7" s="195">
-        <v>-10</v>
+        <v>12</v>
+      </c>
+      <c r="N7" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="O7" s="196" t="s">
         <v>60</v>
       </c>
       <c r="P7" s="194">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="195">
-        <v>-10</v>
+        <v>13</v>
+      </c>
+      <c r="Q7" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="R7" s="196" t="s">
         <v>60</v>
       </c>
       <c r="S7" s="194">
-        <v>3</v>
-      </c>
-      <c r="T7" s="195">
-        <v>-3</v>
+        <v>14</v>
+      </c>
+      <c r="T7" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="U7" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="V7" s="194">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="W7" s="195" t="s">
         <v>0</v>
@@ -6196,35 +6187,31 @@
         <v>60</v>
       </c>
       <c r="Y7" s="194">
-        <v>15</v>
-      </c>
-      <c r="Z7" s="195">
-        <v>-15</v>
+        <v>12</v>
+      </c>
+      <c r="Z7" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AA7" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AB7" s="194">
-        <v>10</v>
-      </c>
-      <c r="AC7" s="195">
-        <v>-10</v>
+        <v>14</v>
+      </c>
+      <c r="AC7" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AD7" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AE7" s="194">
-        <v>9</v>
-      </c>
-      <c r="AF7" s="195">
-        <v>-9</v>
-      </c>
-      <c r="AG7" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH7" s="194">
-        <v>11</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="AF7" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="196"/>
+      <c r="AH7" s="194"/>
       <c r="AI7" s="195" t="s">
         <v>0</v>
       </c>
@@ -6232,40 +6219,40 @@
         <v>60</v>
       </c>
       <c r="AK7" s="194">
-        <v>7</v>
-      </c>
-      <c r="AL7" s="195">
-        <v>-7</v>
+        <v>3</v>
+      </c>
+      <c r="AL7" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AM7" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AN7" s="194">
-        <v>4</v>
-      </c>
-      <c r="AO7" s="197">
-        <v>-4</v>
+        <v>12</v>
+      </c>
+      <c r="AO7" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AT7" s="198" t="s">
         <v>60</v>
       </c>
       <c r="AU7" s="194">
-        <v>10</v>
-      </c>
-      <c r="AV7" s="197">
-        <v>-10</v>
+        <v>12</v>
+      </c>
+      <c r="AV7" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AX7" s="4">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="AY7" s="4">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="AZ7" s="4">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="BA7" s="4">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="BB7" s="4">
         <v>4</v>
@@ -6274,13 +6261,13 @@
         <v>1</v>
       </c>
       <c r="BE7" s="76">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF7" s="77" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="BG7" s="78">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="BH7" s="189"/>
       <c r="BI7" s="79">
@@ -6290,10 +6277,10 @@
         <v>94</v>
       </c>
       <c r="BK7" s="81">
-        <v>86</v>
+        <v>87.7</v>
       </c>
       <c r="BL7" s="82">
-        <v>774</v>
+        <v>877</v>
       </c>
       <c r="BM7" s="172"/>
       <c r="BN7" s="79">
@@ -6303,10 +6290,10 @@
         <v>92</v>
       </c>
       <c r="BP7" s="83">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="BQ7" s="84">
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="BR7" s="85">
         <v>1</v>
@@ -6327,81 +6314,81 @@
         <v>0</v>
       </c>
       <c r="BY7" s="12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="190" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C8" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="191" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="E8" s="192" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F8" s="193" t="s">
         <v>60</v>
       </c>
       <c r="G8" s="194">
-        <v>6</v>
-      </c>
-      <c r="H8" s="195">
-        <v>-6</v>
+        <v>11</v>
+      </c>
+      <c r="H8" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="I8" s="196" t="s">
         <v>60</v>
       </c>
       <c r="J8" s="194">
-        <v>14</v>
-      </c>
-      <c r="K8" s="195">
-        <v>-14</v>
+        <v>7</v>
+      </c>
+      <c r="K8" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="L8" s="196" t="s">
         <v>60</v>
       </c>
       <c r="M8" s="194">
-        <v>6</v>
-      </c>
-      <c r="N8" s="195">
-        <v>-6</v>
+        <v>11</v>
+      </c>
+      <c r="N8" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="O8" s="196" t="s">
         <v>60</v>
       </c>
       <c r="P8" s="194">
-        <v>6</v>
-      </c>
-      <c r="Q8" s="195">
-        <v>-6</v>
+        <v>11</v>
+      </c>
+      <c r="Q8" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="R8" s="196" t="s">
         <v>60</v>
       </c>
       <c r="S8" s="194">
-        <v>4</v>
-      </c>
-      <c r="T8" s="195">
-        <v>-4</v>
+        <v>11</v>
+      </c>
+      <c r="T8" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="U8" s="196" t="s">
         <v>60</v>
       </c>
       <c r="V8" s="194">
-        <v>4</v>
-      </c>
-      <c r="W8" s="195">
-        <v>-4</v>
+        <v>9</v>
+      </c>
+      <c r="W8" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="X8" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="Y8" s="194">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Z8" s="195" t="s">
         <v>0</v>
@@ -6410,34 +6397,30 @@
         <v>60</v>
       </c>
       <c r="AB8" s="194">
-        <v>7</v>
-      </c>
-      <c r="AC8" s="195">
-        <v>-7</v>
+        <v>12</v>
+      </c>
+      <c r="AC8" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AD8" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AE8" s="194">
-        <v>4</v>
-      </c>
-      <c r="AF8" s="195">
-        <v>-4</v>
-      </c>
-      <c r="AG8" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH8" s="194">
-        <v>14</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="AF8" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="196"/>
+      <c r="AH8" s="194"/>
       <c r="AI8" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AJ8" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AK8" s="194">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AL8" s="195" t="s">
         <v>0</v>
@@ -6446,31 +6429,31 @@
         <v>60</v>
       </c>
       <c r="AN8" s="194">
-        <v>9</v>
-      </c>
-      <c r="AO8" s="197">
-        <v>-9</v>
+        <v>13</v>
+      </c>
+      <c r="AO8" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AT8" s="198" t="s">
         <v>60</v>
       </c>
       <c r="AU8" s="194">
-        <v>6</v>
-      </c>
-      <c r="AV8" s="197">
-        <v>-6</v>
+        <v>11</v>
+      </c>
+      <c r="AV8" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AX8" s="4">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="AY8" s="4">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="AZ8" s="4">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="BA8" s="4">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="BB8" s="4">
         <v>5</v>
@@ -6482,23 +6465,23 @@
         <v>5</v>
       </c>
       <c r="BF8" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="BG8" s="78">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="BH8" s="189"/>
       <c r="BI8" s="79">
         <v>5</v>
       </c>
       <c r="BJ8" s="80" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="BK8" s="81">
-        <v>85.222222222222229</v>
+        <v>87.4</v>
       </c>
       <c r="BL8" s="82">
-        <v>767</v>
+        <v>874</v>
       </c>
       <c r="BM8" s="172"/>
       <c r="BN8" s="79">
@@ -6508,10 +6491,10 @@
         <v>93</v>
       </c>
       <c r="BP8" s="83">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="BQ8" s="84">
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="BR8" s="85">
         <v>1</v>
@@ -6532,36 +6515,36 @@
         <v>0</v>
       </c>
       <c r="BY8" s="12" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="190" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C9" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="191" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="E9" s="192" t="s">
         <v>60</v>
       </c>
       <c r="F9" s="193" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="G9" s="194">
-        <v>5</v>
-      </c>
-      <c r="H9" s="195">
-        <v>-5</v>
+        <v>7</v>
+      </c>
+      <c r="H9" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="I9" s="196" t="s">
         <v>60</v>
       </c>
       <c r="J9" s="194">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K9" s="195" t="s">
         <v>0</v>
@@ -6570,71 +6553,67 @@
         <v>60</v>
       </c>
       <c r="M9" s="194">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N9" s="195" t="s">
         <v>0</v>
       </c>
       <c r="O9" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="P9" s="194">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="195">
-        <v>-4</v>
+        <v>9</v>
+      </c>
+      <c r="Q9" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="R9" s="196" t="s">
         <v>88</v>
       </c>
       <c r="S9" s="194">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T9" s="195">
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="U9" s="196" t="s">
         <v>88</v>
       </c>
       <c r="V9" s="194">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="W9" s="195">
-        <v>-15</v>
+        <v>-7</v>
       </c>
       <c r="X9" s="196" t="s">
         <v>88</v>
       </c>
       <c r="Y9" s="194">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Z9" s="195">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="AA9" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AB9" s="194">
-        <v>6</v>
-      </c>
-      <c r="AC9" s="195">
-        <v>-6</v>
+        <v>9</v>
+      </c>
+      <c r="AC9" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AD9" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AE9" s="194">
-        <v>12</v>
-      </c>
-      <c r="AF9" s="195">
-        <v>-12</v>
-      </c>
-      <c r="AG9" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH9" s="194">
-        <v>8</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="AF9" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="196"/>
+      <c r="AH9" s="194"/>
       <c r="AI9" s="195" t="s">
         <v>0</v>
       </c>
@@ -6642,40 +6621,40 @@
         <v>60</v>
       </c>
       <c r="AK9" s="194">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AL9" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AM9" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AN9" s="194">
-        <v>8</v>
-      </c>
-      <c r="AO9" s="197">
-        <v>-8</v>
+        <v>9</v>
+      </c>
+      <c r="AO9" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AT9" s="198" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AU9" s="194">
         <v>7</v>
       </c>
-      <c r="AV9" s="197">
-        <v>-7</v>
+      <c r="AV9" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AX9" s="4">
-        <v>-38</v>
+        <v>41</v>
       </c>
       <c r="AY9" s="4">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AZ9" s="4">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="BA9" s="4">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="BB9" s="4">
         <v>6</v>
@@ -6687,10 +6666,10 @@
         <v>6</v>
       </c>
       <c r="BF9" s="77" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="BG9" s="78">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="BH9" s="189"/>
       <c r="BI9" s="79">
@@ -6700,10 +6679,10 @@
         <v>95</v>
       </c>
       <c r="BK9" s="81">
-        <v>84.333333333333329</v>
+        <v>87.3</v>
       </c>
       <c r="BL9" s="82">
-        <v>759</v>
+        <v>873</v>
       </c>
       <c r="BM9" s="172"/>
       <c r="BN9" s="79">
@@ -6713,10 +6692,10 @@
         <v>95</v>
       </c>
       <c r="BP9" s="83">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="BQ9" s="84">
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="BR9" s="85">
         <v>1</v>
@@ -6737,60 +6716,60 @@
         <v>0</v>
       </c>
       <c r="BY9" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="190" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="C10" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="191" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E10" s="192" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="193" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="193" t="s">
-        <v>88</v>
-      </c>
       <c r="G10" s="194">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H10" s="195">
-        <v>-4</v>
+        <v>-14</v>
       </c>
       <c r="I10" s="196" t="s">
         <v>60</v>
       </c>
       <c r="J10" s="194">
-        <v>12</v>
-      </c>
-      <c r="K10" s="195" t="s">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="K10" s="195">
+        <v>-16</v>
       </c>
       <c r="L10" s="196" t="s">
         <v>60</v>
       </c>
       <c r="M10" s="194">
-        <v>3</v>
-      </c>
-      <c r="N10" s="195" t="s">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="N10" s="195">
+        <v>-14</v>
       </c>
       <c r="O10" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="P10" s="194">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="195">
-        <v>-3</v>
+        <v>-12</v>
       </c>
       <c r="R10" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="S10" s="194">
         <v>12</v>
@@ -6799,88 +6778,84 @@
         <v>-12</v>
       </c>
       <c r="U10" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="V10" s="194">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="W10" s="195">
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="X10" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="Y10" s="194">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z10" s="195">
-        <v>-9</v>
+        <v>-11</v>
       </c>
       <c r="AA10" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AB10" s="194">
-        <v>5</v>
-      </c>
-      <c r="AC10" s="195" t="s">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="AC10" s="195">
+        <v>-15</v>
       </c>
       <c r="AD10" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AE10" s="194">
-        <v>11</v>
-      </c>
-      <c r="AF10" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH10" s="194">
         <v>10</v>
       </c>
-      <c r="AI10" s="195">
+      <c r="AF10" s="195">
         <v>-10</v>
+      </c>
+      <c r="AG10" s="196"/>
+      <c r="AH10" s="194"/>
+      <c r="AI10" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AJ10" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AK10" s="194">
-        <v>3</v>
-      </c>
-      <c r="AL10" s="195" t="s">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="AL10" s="195">
+        <v>-16</v>
       </c>
       <c r="AM10" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AN10" s="194">
-        <v>12</v>
-      </c>
-      <c r="AO10" s="197" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="AO10" s="197">
+        <v>-8</v>
       </c>
       <c r="AT10" s="198" t="s">
         <v>60</v>
       </c>
       <c r="AU10" s="194">
-        <v>3</v>
-      </c>
-      <c r="AV10" s="197" t="s">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="AV10" s="197">
+        <v>-13</v>
       </c>
       <c r="AX10" s="4">
-        <v>5</v>
+        <v>136</v>
       </c>
       <c r="AY10" s="4">
-        <v>5</v>
+        <v>136</v>
       </c>
       <c r="AZ10" s="4">
-        <v>5</v>
+        <v>136</v>
       </c>
       <c r="BA10" s="4">
-        <v>5</v>
+        <v>136</v>
       </c>
       <c r="BB10" s="4">
         <v>7</v>
@@ -6892,23 +6867,23 @@
         <v>7</v>
       </c>
       <c r="BF10" s="77" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="BG10" s="78">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="BH10" s="189"/>
       <c r="BI10" s="79">
         <v>7</v>
       </c>
       <c r="BJ10" s="80" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BK10" s="81">
-        <v>83.888888888888886</v>
+        <v>84.9</v>
       </c>
       <c r="BL10" s="82">
-        <v>755</v>
+        <v>849</v>
       </c>
       <c r="BM10" s="172"/>
       <c r="BN10" s="79">
@@ -6918,10 +6893,10 @@
         <v>100</v>
       </c>
       <c r="BP10" s="83">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="BQ10" s="84">
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="BR10" s="85">
         <v>1</v>
@@ -6942,18 +6917,18 @@
         <v>0</v>
       </c>
       <c r="BY10" s="12" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="190" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="C11" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="191" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="E11" s="192" t="s">
         <v>60</v>
@@ -6962,130 +6937,126 @@
         <v>88</v>
       </c>
       <c r="G11" s="194">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H11" s="195">
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="I11" s="196" t="s">
         <v>88</v>
       </c>
       <c r="J11" s="194">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K11" s="195">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="L11" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="M11" s="194">
-        <v>7</v>
-      </c>
-      <c r="N11" s="195">
-        <v>-7</v>
+        <v>3</v>
+      </c>
+      <c r="N11" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="O11" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="P11" s="194">
         <v>8</v>
       </c>
-      <c r="Q11" s="195">
-        <v>-8</v>
+      <c r="Q11" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="R11" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="S11" s="194">
         <v>8</v>
       </c>
-      <c r="T11" s="195">
-        <v>-8</v>
+      <c r="T11" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="U11" s="196" t="s">
         <v>60</v>
       </c>
       <c r="V11" s="194">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="W11" s="195" t="s">
         <v>0</v>
       </c>
       <c r="X11" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="Y11" s="194">
-        <v>12</v>
-      </c>
-      <c r="Z11" s="195">
-        <v>-12</v>
+        <v>5</v>
+      </c>
+      <c r="Z11" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AA11" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AB11" s="194">
-        <v>8</v>
-      </c>
-      <c r="AC11" s="195">
-        <v>-8</v>
+        <v>5</v>
+      </c>
+      <c r="AC11" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AD11" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AE11" s="194">
-        <v>8</v>
-      </c>
-      <c r="AF11" s="195">
-        <v>-8</v>
-      </c>
-      <c r="AG11" s="196" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF11" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="196"/>
+      <c r="AH11" s="194"/>
+      <c r="AI11" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="AH11" s="194">
-        <v>9</v>
-      </c>
-      <c r="AI11" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="196" t="s">
-        <v>88</v>
-      </c>
       <c r="AK11" s="194">
-        <v>8</v>
-      </c>
-      <c r="AL11" s="195">
-        <v>-8</v>
+        <v>10</v>
+      </c>
+      <c r="AL11" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AM11" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AN11" s="194">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AO11" s="197">
-        <v>-13</v>
+        <v>-4</v>
       </c>
       <c r="AT11" s="198" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AU11" s="194">
-        <v>9</v>
-      </c>
-      <c r="AV11" s="197">
-        <v>-9</v>
+        <v>6</v>
+      </c>
+      <c r="AV11" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AX11" s="4">
-        <v>-72</v>
+        <v>29</v>
       </c>
       <c r="AY11" s="4">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="AZ11" s="4">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="BA11" s="4">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="BB11" s="4">
         <v>8</v>
@@ -7097,23 +7068,23 @@
         <v>8</v>
       </c>
       <c r="BF11" s="77" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="BG11" s="78">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="BH11" s="189"/>
       <c r="BI11" s="79">
         <v>8</v>
       </c>
       <c r="BJ11" s="80" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="BK11" s="81">
-        <v>81.666666666666671</v>
+        <v>84.7</v>
       </c>
       <c r="BL11" s="82">
-        <v>735</v>
+        <v>847</v>
       </c>
       <c r="BM11" s="172"/>
       <c r="BN11" s="79">
@@ -7123,10 +7094,10 @@
         <v>91</v>
       </c>
       <c r="BP11" s="83">
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="BQ11" s="84">
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="BR11" s="85" t="s">
         <v>0</v>
@@ -7147,18 +7118,18 @@
         <v>0</v>
       </c>
       <c r="BY11" s="12" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="190" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C12" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="191" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="E12" s="192" t="s">
         <v>60</v>
@@ -7167,7 +7138,7 @@
         <v>60</v>
       </c>
       <c r="G12" s="194">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12" s="195" t="s">
         <v>0</v>
@@ -7176,7 +7147,7 @@
         <v>60</v>
       </c>
       <c r="J12" s="194">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="K12" s="195" t="s">
         <v>0</v>
@@ -7185,7 +7156,7 @@
         <v>60</v>
       </c>
       <c r="M12" s="194">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N12" s="195" t="s">
         <v>0</v>
@@ -7194,7 +7165,7 @@
         <v>60</v>
       </c>
       <c r="P12" s="194">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q12" s="195" t="s">
         <v>0</v>
@@ -7212,7 +7183,7 @@
         <v>60</v>
       </c>
       <c r="V12" s="194">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="W12" s="195" t="s">
         <v>0</v>
@@ -7221,35 +7192,31 @@
         <v>60</v>
       </c>
       <c r="Y12" s="194">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="Z12" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AA12" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AB12" s="194">
-        <v>11</v>
-      </c>
-      <c r="AC12" s="195">
-        <v>-11</v>
+        <v>13</v>
+      </c>
+      <c r="AC12" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AD12" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AE12" s="194">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AF12" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="AG12" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH12" s="194">
-        <v>12</v>
-      </c>
+      <c r="AG12" s="196"/>
+      <c r="AH12" s="194"/>
       <c r="AI12" s="195" t="s">
         <v>0</v>
       </c>
@@ -7257,7 +7224,7 @@
         <v>60</v>
       </c>
       <c r="AK12" s="194">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL12" s="195" t="s">
         <v>0</v>
@@ -7266,7 +7233,7 @@
         <v>60</v>
       </c>
       <c r="AN12" s="194">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AO12" s="197" t="s">
         <v>0</v>
@@ -7275,22 +7242,22 @@
         <v>60</v>
       </c>
       <c r="AU12" s="194">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AV12" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX12" s="4">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="AY12" s="4">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="AZ12" s="4">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="BA12" s="4">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="BB12" s="4">
         <v>9</v>
@@ -7302,23 +7269,23 @@
         <v>9</v>
       </c>
       <c r="BF12" s="77" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="BG12" s="78">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="BH12" s="189"/>
       <c r="BI12" s="79">
         <v>9</v>
       </c>
       <c r="BJ12" s="80" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="BK12" s="81">
-        <v>78.777777777777771</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="BL12" s="82">
-        <v>709</v>
+        <v>801</v>
       </c>
       <c r="BM12" s="172"/>
       <c r="BN12" s="79">
@@ -7328,10 +7295,10 @@
         <v>94</v>
       </c>
       <c r="BP12" s="83">
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="BQ12" s="84">
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="BR12" s="85" t="s">
         <v>0</v>
@@ -7352,109 +7319,105 @@
         <v>0</v>
       </c>
       <c r="BY12" s="12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="190" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C13" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="191" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="E13" s="192" t="s">
         <v>88</v>
       </c>
       <c r="F13" s="193" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="G13" s="194">
-        <v>12</v>
-      </c>
-      <c r="H13" s="195">
-        <v>-12</v>
+        <v>4</v>
+      </c>
+      <c r="H13" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="I13" s="196" t="s">
         <v>60</v>
       </c>
       <c r="J13" s="194">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K13" s="195">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="L13" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="M13" s="194">
-        <v>13</v>
-      </c>
-      <c r="N13" s="195">
-        <v>-13</v>
+        <v>4</v>
+      </c>
+      <c r="N13" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="O13" s="196" t="s">
         <v>60</v>
       </c>
       <c r="P13" s="194">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="Q13" s="195">
-        <v>-13</v>
+        <v>-3</v>
       </c>
       <c r="R13" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="S13" s="194">
-        <v>7</v>
-      </c>
-      <c r="T13" s="195">
-        <v>-7</v>
+        <v>4</v>
+      </c>
+      <c r="T13" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="U13" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="V13" s="194">
-        <v>12</v>
-      </c>
-      <c r="W13" s="195">
-        <v>-12</v>
+        <v>5</v>
+      </c>
+      <c r="W13" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="X13" s="196" t="s">
         <v>60</v>
       </c>
       <c r="Y13" s="194">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="Z13" s="195">
-        <v>-14</v>
+        <v>-4</v>
       </c>
       <c r="AA13" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AB13" s="194">
-        <v>13</v>
-      </c>
-      <c r="AC13" s="195">
-        <v>-13</v>
+        <v>6</v>
+      </c>
+      <c r="AC13" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AD13" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AE13" s="194">
-        <v>5</v>
-      </c>
-      <c r="AF13" s="195">
-        <v>-5</v>
-      </c>
-      <c r="AG13" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH13" s="194">
-        <v>13</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="AF13" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="196"/>
+      <c r="AH13" s="194"/>
       <c r="AI13" s="195" t="s">
         <v>0</v>
       </c>
@@ -7462,40 +7425,40 @@
         <v>60</v>
       </c>
       <c r="AK13" s="194">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AL13" s="195">
-        <v>-13</v>
+        <v>-4</v>
       </c>
       <c r="AM13" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AN13" s="194">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AO13" s="197">
-        <v>-11</v>
+        <v>-3</v>
       </c>
       <c r="AT13" s="198" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AU13" s="194">
-        <v>13</v>
-      </c>
-      <c r="AV13" s="197">
-        <v>-13</v>
+        <v>3</v>
+      </c>
+      <c r="AV13" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AX13" s="4">
-        <v>111</v>
+        <v>-7</v>
       </c>
       <c r="AY13" s="4">
-        <v>111</v>
+        <v>7</v>
       </c>
       <c r="AZ13" s="4">
-        <v>111</v>
+        <v>7</v>
       </c>
       <c r="BA13" s="4">
-        <v>111</v>
+        <v>7</v>
       </c>
       <c r="BB13" s="4">
         <v>10</v>
@@ -7507,23 +7470,23 @@
         <v>10</v>
       </c>
       <c r="BF13" s="77" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BG13" s="78">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="BH13" s="189"/>
       <c r="BI13" s="79">
         <v>10</v>
       </c>
       <c r="BJ13" s="80" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="BK13" s="81">
-        <v>77.444444444444443</v>
+        <v>79.3</v>
       </c>
       <c r="BL13" s="82">
-        <v>697</v>
+        <v>793</v>
       </c>
       <c r="BM13" s="172"/>
       <c r="BN13" s="79">
@@ -7533,10 +7496,10 @@
         <v>96</v>
       </c>
       <c r="BP13" s="83">
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="BQ13" s="84">
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="BR13" s="85" t="s">
         <v>0</v>
@@ -7557,42 +7520,42 @@
         <v>0</v>
       </c>
       <c r="BY13" s="12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="190" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C14" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="191" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="E14" s="192" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F14" s="193" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="G14" s="194">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H14" s="195" t="s">
         <v>0</v>
       </c>
       <c r="I14" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="J14" s="194">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K14" s="195" t="s">
         <v>0</v>
       </c>
       <c r="L14" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="M14" s="194">
         <v>16</v>
@@ -7601,16 +7564,16 @@
         <v>0</v>
       </c>
       <c r="O14" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="P14" s="194">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q14" s="195" t="s">
         <v>0</v>
       </c>
       <c r="R14" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="S14" s="194">
         <v>15</v>
@@ -7619,25 +7582,25 @@
         <v>0</v>
       </c>
       <c r="U14" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="V14" s="194">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="W14" s="195" t="s">
         <v>0</v>
       </c>
       <c r="X14" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="Y14" s="194">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Z14" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AA14" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AB14" s="194">
         <v>16</v>
@@ -7646,61 +7609,57 @@
         <v>0</v>
       </c>
       <c r="AD14" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AE14" s="194">
+        <v>16</v>
+      </c>
+      <c r="AF14" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="196"/>
+      <c r="AH14" s="194"/>
+      <c r="AI14" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK14" s="194">
         <v>15</v>
       </c>
-      <c r="AF14" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="196" t="s">
+      <c r="AL14" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="AH14" s="194">
-        <v>7</v>
-      </c>
-      <c r="AI14" s="195">
-        <v>-7</v>
-      </c>
-      <c r="AJ14" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK14" s="194">
-        <v>12</v>
-      </c>
-      <c r="AL14" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM14" s="196" t="s">
-        <v>60</v>
-      </c>
       <c r="AN14" s="194">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO14" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AT14" s="198" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AU14" s="194">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV14" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX14" s="4">
-        <v>139</v>
+        <v>-171</v>
       </c>
       <c r="AY14" s="4">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="AZ14" s="4">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="BA14" s="4">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="BB14" s="4">
         <v>11</v>
@@ -7712,10 +7671,10 @@
         <v>11</v>
       </c>
       <c r="BF14" s="77" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="BG14" s="78">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="BH14" s="189"/>
       <c r="BI14" s="79">
@@ -7725,10 +7684,10 @@
         <v>101</v>
       </c>
       <c r="BK14" s="81">
-        <v>76.222222222222229</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="BL14" s="82">
-        <v>686</v>
+        <v>786</v>
       </c>
       <c r="BM14" s="172"/>
       <c r="BN14" s="79">
@@ -7738,10 +7697,10 @@
         <v>98</v>
       </c>
       <c r="BP14" s="83">
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="BQ14" s="84">
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="BR14" s="85" t="s">
         <v>0</v>
@@ -7762,27 +7721,27 @@
         <v>0</v>
       </c>
       <c r="BY14" s="12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:77" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="190" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C15" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="191" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="E15" s="192" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F15" s="193" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="G15" s="194">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H15" s="195" t="s">
         <v>0</v>
@@ -7791,16 +7750,16 @@
         <v>60</v>
       </c>
       <c r="J15" s="194">
-        <v>7</v>
-      </c>
-      <c r="K15" s="195">
-        <v>-7</v>
+        <v>13</v>
+      </c>
+      <c r="K15" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="L15" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="M15" s="194">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N15" s="195" t="s">
         <v>0</v>
@@ -7809,103 +7768,99 @@
         <v>60</v>
       </c>
       <c r="P15" s="194">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="R15" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="S15" s="194">
+        <v>9</v>
+      </c>
+      <c r="T15" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="U15" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="V15" s="194">
+        <v>15</v>
+      </c>
+      <c r="W15" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="X15" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y15" s="194">
         <v>7</v>
       </c>
-      <c r="Q15" s="195">
+      <c r="Z15" s="195">
         <v>-7</v>
-      </c>
-      <c r="R15" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="S15" s="194">
-        <v>14</v>
-      </c>
-      <c r="T15" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="U15" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="V15" s="194">
-        <v>11</v>
-      </c>
-      <c r="W15" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="X15" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y15" s="194">
-        <v>16</v>
-      </c>
-      <c r="Z15" s="195">
-        <v>-16</v>
       </c>
       <c r="AA15" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AB15" s="194">
-        <v>4</v>
-      </c>
-      <c r="AC15" s="195">
-        <v>-4</v>
+        <v>11</v>
+      </c>
+      <c r="AC15" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AD15" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE15" s="194">
+        <v>11</v>
+      </c>
+      <c r="AF15" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="196"/>
+      <c r="AH15" s="194"/>
+      <c r="AI15" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="AE15" s="194">
-        <v>6</v>
-      </c>
-      <c r="AF15" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH15" s="194">
-        <v>3</v>
-      </c>
-      <c r="AI15" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="196" t="s">
+      <c r="AK15" s="194">
+        <v>7</v>
+      </c>
+      <c r="AL15" s="195">
+        <v>-7</v>
+      </c>
+      <c r="AM15" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="AK15" s="194">
-        <v>10</v>
-      </c>
-      <c r="AL15" s="195">
-        <v>-10</v>
-      </c>
-      <c r="AM15" s="196" t="s">
-        <v>88</v>
-      </c>
       <c r="AN15" s="194">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AO15" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AT15" s="198" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AU15" s="194">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AV15" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX15" s="4">
-        <v>-7</v>
+        <v>86</v>
       </c>
       <c r="AY15" s="4">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="AZ15" s="4">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="BA15" s="4">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="BB15" s="4">
         <v>12</v>
@@ -7917,23 +7872,23 @@
         <v>12</v>
       </c>
       <c r="BF15" s="90" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="BG15" s="91">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="BH15" s="189"/>
       <c r="BI15" s="92">
         <v>12</v>
       </c>
       <c r="BJ15" s="93" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="BK15" s="94">
-        <v>75.333333333333329</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="BL15" s="95">
-        <v>678</v>
+        <v>709</v>
       </c>
       <c r="BM15" s="172"/>
       <c r="BN15" s="92">
@@ -7943,10 +7898,10 @@
         <v>101</v>
       </c>
       <c r="BP15" s="96">
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="BQ15" s="97">
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="BR15" s="98" t="s">
         <v>0</v>
@@ -7967,150 +7922,146 @@
         <v>0</v>
       </c>
       <c r="BY15" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:77" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B16" s="190" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C16" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="191" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="E16" s="192" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F16" s="193" t="s">
         <v>60</v>
       </c>
       <c r="G16" s="194">
-        <v>14</v>
-      </c>
-      <c r="H16" s="195">
-        <v>-14</v>
+        <v>3</v>
+      </c>
+      <c r="H16" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="I16" s="196" t="s">
         <v>60</v>
       </c>
       <c r="J16" s="194">
-        <v>9</v>
-      </c>
-      <c r="K16" s="195">
-        <v>-9</v>
+        <v>12</v>
+      </c>
+      <c r="K16" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="L16" s="196" t="s">
         <v>60</v>
       </c>
       <c r="M16" s="194">
-        <v>14</v>
-      </c>
-      <c r="N16" s="195">
-        <v>-14</v>
+        <v>5</v>
+      </c>
+      <c r="N16" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="O16" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="P16" s="194">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="Q16" s="195">
-        <v>-14</v>
+        <v>-5</v>
       </c>
       <c r="R16" s="196" t="s">
         <v>60</v>
       </c>
       <c r="S16" s="194">
-        <v>6</v>
-      </c>
-      <c r="T16" s="195">
-        <v>-6</v>
+        <v>3</v>
+      </c>
+      <c r="T16" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="U16" s="196" t="s">
         <v>60</v>
       </c>
       <c r="V16" s="194">
-        <v>16</v>
-      </c>
-      <c r="W16" s="195">
-        <v>-16</v>
+        <v>12</v>
+      </c>
+      <c r="W16" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="X16" s="196" t="s">
         <v>60</v>
       </c>
       <c r="Y16" s="194">
-        <v>6</v>
-      </c>
-      <c r="Z16" s="195">
-        <v>-6</v>
+        <v>13</v>
+      </c>
+      <c r="Z16" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AA16" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AB16" s="194">
-        <v>14</v>
-      </c>
-      <c r="AC16" s="195">
-        <v>-14</v>
+        <v>8</v>
+      </c>
+      <c r="AC16" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AD16" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AE16" s="194">
-        <v>14</v>
-      </c>
-      <c r="AF16" s="195">
-        <v>-14</v>
-      </c>
-      <c r="AG16" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH16" s="194">
-        <v>4</v>
-      </c>
-      <c r="AI16" s="195">
-        <v>-4</v>
+        <v>5</v>
+      </c>
+      <c r="AF16" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="196"/>
+      <c r="AH16" s="194"/>
+      <c r="AI16" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AJ16" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AK16" s="194">
-        <v>14</v>
-      </c>
-      <c r="AL16" s="195">
-        <v>-14</v>
+        <v>9</v>
+      </c>
+      <c r="AL16" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AM16" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AN16" s="194">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AO16" s="197">
-        <v>-10</v>
+        <v>-6</v>
       </c>
       <c r="AT16" s="198" t="s">
         <v>60</v>
       </c>
       <c r="AU16" s="194">
-        <v>14</v>
-      </c>
-      <c r="AV16" s="197">
-        <v>-14</v>
+        <v>8</v>
+      </c>
+      <c r="AV16" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AX16" s="4">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="AY16" s="4">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="AZ16" s="4">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="BA16" s="4">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="BB16" s="4">
         <v>13</v>
@@ -8328,13 +8279,13 @@
     </row>
     <row r="19" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="190" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="C19" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="191" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="E19" s="192" t="s">
         <v>60</v>
@@ -8343,7 +8294,7 @@
         <v>60</v>
       </c>
       <c r="G19" s="194">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H19" s="195" t="s">
         <v>0</v>
@@ -8352,7 +8303,7 @@
         <v>60</v>
       </c>
       <c r="J19" s="194">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K19" s="195" t="s">
         <v>0</v>
@@ -8361,7 +8312,7 @@
         <v>60</v>
       </c>
       <c r="M19" s="194">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N19" s="195" t="s">
         <v>0</v>
@@ -8370,7 +8321,7 @@
         <v>60</v>
       </c>
       <c r="P19" s="194">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q19" s="195" t="s">
         <v>0</v>
@@ -8379,7 +8330,7 @@
         <v>60</v>
       </c>
       <c r="S19" s="194">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T19" s="195" t="s">
         <v>0</v>
@@ -8388,7 +8339,7 @@
         <v>60</v>
       </c>
       <c r="V19" s="194">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="W19" s="195" t="s">
         <v>0</v>
@@ -8403,29 +8354,25 @@
         <v>0</v>
       </c>
       <c r="AA19" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AB19" s="194">
-        <v>3</v>
-      </c>
-      <c r="AC19" s="195">
-        <v>-3</v>
+        <v>10</v>
+      </c>
+      <c r="AC19" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AD19" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AE19" s="194">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF19" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="AG19" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH19" s="194">
-        <v>16</v>
-      </c>
+      <c r="AG19" s="196"/>
+      <c r="AH19" s="194"/>
       <c r="AI19" s="195" t="s">
         <v>0</v>
       </c>
@@ -8433,40 +8380,40 @@
         <v>60</v>
       </c>
       <c r="AK19" s="194">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AL19" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AM19" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AN19" s="194">
-        <v>7</v>
-      </c>
-      <c r="AO19" s="197">
-        <v>-7</v>
+        <v>11</v>
+      </c>
+      <c r="AO19" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AT19" s="198" t="s">
         <v>60</v>
       </c>
       <c r="AU19" s="194">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV19" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX19" s="4">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AY19" s="4">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AZ19" s="4">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="BA19" s="4">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="BB19" s="4">
         <v>16</v>
@@ -8483,90 +8430,88 @@
       <c r="C20" s="103"/>
       <c r="D20" s="103"/>
       <c r="E20" s="199" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F20" s="104" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G20" s="105">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H20" s="122"/>
       <c r="I20" s="106" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J20" s="105">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K20" s="122"/>
       <c r="L20" s="106" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M20" s="105">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N20" s="122"/>
       <c r="O20" s="106" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="P20" s="105">
         <v>42</v>
       </c>
       <c r="Q20" s="122"/>
       <c r="R20" s="106" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="S20" s="105">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="T20" s="122"/>
       <c r="U20" s="106" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="V20" s="105">
         <v>56</v>
       </c>
       <c r="W20" s="122"/>
       <c r="X20" s="106" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Y20" s="105">
         <v>38</v>
       </c>
       <c r="Z20" s="122"/>
       <c r="AA20" s="106" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AB20" s="105">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AC20" s="122"/>
       <c r="AD20" s="106" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AE20" s="105">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AF20" s="122"/>
       <c r="AG20" s="106" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH20" s="105">
-        <v>70</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="AH20" s="105"/>
       <c r="AI20" s="122"/>
       <c r="AJ20" s="106" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AK20" s="105">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AL20" s="122"/>
       <c r="AM20" s="106" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AN20" s="105">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AO20" s="123"/>
       <c r="AT20" s="107"/>
@@ -8583,7 +8528,7 @@
       <c r="BM20" s="13"/>
       <c r="BN20" s="13"/>
       <c r="BY20" s="12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:77" s="13" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8592,99 +8537,99 @@
       <c r="C21" s="201"/>
       <c r="D21" s="201"/>
       <c r="E21" s="202" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F21" s="203"/>
       <c r="G21" s="204">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H21" s="205">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="I21" s="206"/>
       <c r="J21" s="204">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K21" s="205">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="L21" s="206"/>
       <c r="M21" s="204">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N21" s="205">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="O21" s="206"/>
       <c r="P21" s="204">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Q21" s="205">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="R21" s="206"/>
       <c r="S21" s="204">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T21" s="205">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="U21" s="206"/>
       <c r="V21" s="204">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W21" s="205">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="X21" s="206"/>
       <c r="Y21" s="204">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Z21" s="205">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="AA21" s="206"/>
       <c r="AB21" s="204">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AC21" s="205">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="AD21" s="206"/>
       <c r="AE21" s="204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF21" s="205">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="AG21" s="206"/>
       <c r="AH21" s="204">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AI21" s="205">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="206"/>
       <c r="AK21" s="204">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AL21" s="205">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AM21" s="206"/>
       <c r="AN21" s="204">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO21" s="207">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="AP21" s="3"/>
       <c r="AT21" s="208"/>
       <c r="AU21" s="209">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AV21" s="210">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="AW21" s="3"/>
       <c r="AX21" s="14"/>
@@ -8708,7 +8653,7 @@
       <c r="BV21" s="6"/>
       <c r="BW21" s="6"/>
       <c r="BY21" s="12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:77" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8721,87 +8666,87 @@
       </c>
       <c r="F22" s="127"/>
       <c r="G22" s="128">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H22" s="129">
-        <v>81.666666666666671</v>
+        <v>84.9</v>
       </c>
       <c r="I22" s="130"/>
       <c r="J22" s="128">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K22" s="129">
-        <v>83.888888888888886</v>
+        <v>84.7</v>
       </c>
       <c r="L22" s="130"/>
       <c r="M22" s="128">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N22" s="129">
-        <v>85.222222222222229</v>
+        <v>88</v>
       </c>
       <c r="O22" s="130"/>
       <c r="P22" s="128">
         <v>4</v>
       </c>
       <c r="Q22" s="129">
-        <v>86</v>
+        <v>87.7</v>
       </c>
       <c r="R22" s="130"/>
       <c r="S22" s="128">
         <v>6</v>
       </c>
       <c r="T22" s="129">
-        <v>84.333333333333329</v>
+        <v>87.3</v>
       </c>
       <c r="U22" s="130"/>
       <c r="V22" s="128">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="W22" s="129">
-        <v>75.333333333333329</v>
+        <v>79.3</v>
       </c>
       <c r="X22" s="130"/>
       <c r="Y22" s="128">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z22" s="129">
-        <v>86.555555555555557</v>
+        <v>87.4</v>
       </c>
       <c r="AA22" s="130"/>
       <c r="AB22" s="128">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC22" s="129">
-        <v>77.444444444444443</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="AD22" s="130"/>
       <c r="AE22" s="128">
         <v>1</v>
       </c>
       <c r="AF22" s="129">
-        <v>92.777777777777771</v>
+        <v>95.5</v>
       </c>
       <c r="AG22" s="130"/>
       <c r="AH22" s="128">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AI22" s="129">
-        <v>78.777777777777771</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="AJ22" s="130"/>
       <c r="AK22" s="128">
         <v>11</v>
       </c>
       <c r="AL22" s="129">
-        <v>76.222222222222229</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="AM22" s="130"/>
       <c r="AN22" s="128">
         <v>2</v>
       </c>
       <c r="AO22" s="131">
-        <v>87</v>
+        <v>88.5</v>
       </c>
       <c r="AP22" s="3"/>
       <c r="AU22" s="14"/>
@@ -8826,7 +8771,7 @@
       <c r="BV22" s="6"/>
       <c r="BW22" s="6"/>
       <c r="BY22" s="12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:77" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8840,47 +8785,47 @@
       <c r="F23" s="135"/>
       <c r="G23" s="136"/>
       <c r="H23" s="137">
-        <v>735</v>
+        <v>849</v>
       </c>
       <c r="I23" s="138"/>
       <c r="J23" s="136"/>
       <c r="K23" s="137">
-        <v>755</v>
+        <v>847</v>
       </c>
       <c r="L23" s="138"/>
       <c r="M23" s="136"/>
       <c r="N23" s="137">
-        <v>767</v>
+        <v>880</v>
       </c>
       <c r="O23" s="138"/>
       <c r="P23" s="136"/>
       <c r="Q23" s="137">
-        <v>774</v>
+        <v>877</v>
       </c>
       <c r="R23" s="138"/>
       <c r="S23" s="136"/>
       <c r="T23" s="137">
-        <v>759</v>
+        <v>873</v>
       </c>
       <c r="U23" s="138"/>
       <c r="V23" s="136"/>
       <c r="W23" s="137">
-        <v>678</v>
+        <v>793</v>
       </c>
       <c r="X23" s="138"/>
       <c r="Y23" s="136"/>
       <c r="Z23" s="137">
-        <v>779</v>
+        <v>874</v>
       </c>
       <c r="AA23" s="138"/>
       <c r="AB23" s="136"/>
       <c r="AC23" s="137">
-        <v>697</v>
+        <v>801</v>
       </c>
       <c r="AD23" s="138"/>
       <c r="AE23" s="136"/>
       <c r="AF23" s="137">
-        <v>835</v>
+        <v>955</v>
       </c>
       <c r="AG23" s="138"/>
       <c r="AH23" s="136"/>
@@ -8890,12 +8835,12 @@
       <c r="AJ23" s="138"/>
       <c r="AK23" s="136"/>
       <c r="AL23" s="137">
-        <v>686</v>
+        <v>786</v>
       </c>
       <c r="AM23" s="138"/>
       <c r="AN23" s="136"/>
       <c r="AO23" s="139">
-        <v>783</v>
+        <v>885</v>
       </c>
       <c r="AP23" s="3"/>
       <c r="AU23" s="14"/>
@@ -8910,7 +8855,7 @@
       <c r="BV23" s="6"/>
       <c r="BW23" s="6"/>
       <c r="BY23" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:77" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8993,7 +8938,7 @@
       <c r="BV24" s="6"/>
       <c r="BW24" s="6"/>
       <c r="BY24" s="12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:77" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9006,87 +8951,87 @@
       </c>
       <c r="F25" s="135"/>
       <c r="G25" s="140">
-        <v>0.42857142857142855</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H25" s="137">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I25" s="138"/>
       <c r="J25" s="140">
-        <v>0.5</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K25" s="137">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L25" s="138"/>
       <c r="M25" s="140">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N25" s="137">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="O25" s="138"/>
       <c r="P25" s="140">
-        <v>0.35714285714285715</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="Q25" s="137">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R25" s="138"/>
       <c r="S25" s="140">
-        <v>0.42857142857142855</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="T25" s="137">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="U25" s="138"/>
       <c r="V25" s="140">
-        <v>0.5714285714285714</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="W25" s="137">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="X25" s="138"/>
       <c r="Y25" s="140">
-        <v>0.35714285714285715</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="Z25" s="137">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AA25" s="138"/>
       <c r="AB25" s="140">
-        <v>0.35714285714285715</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AC25" s="137">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AD25" s="138"/>
       <c r="AE25" s="140">
-        <v>0.5</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AF25" s="137">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AG25" s="138"/>
       <c r="AH25" s="140">
-        <v>0.7142857142857143</v>
+        <v>0</v>
       </c>
       <c r="AI25" s="137">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="138"/>
       <c r="AK25" s="140">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AL25" s="137">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AM25" s="138"/>
       <c r="AN25" s="140">
-        <v>0.42857142857142855</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="AO25" s="139">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AP25" s="3"/>
       <c r="AW25" s="3"/>
@@ -9100,7 +9045,7 @@
       <c r="BV25" s="6"/>
       <c r="BW25" s="6"/>
       <c r="BY25" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:77" s="13" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9113,87 +9058,87 @@
       </c>
       <c r="F26" s="144"/>
       <c r="G26" s="145">
-        <v>0.49659863945578231</v>
+        <v>0.52795031055900621</v>
       </c>
       <c r="H26" s="146">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="I26" s="147"/>
       <c r="J26" s="145">
-        <v>0.5714285714285714</v>
+        <v>0.58385093167701863</v>
       </c>
       <c r="K26" s="146">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="L26" s="147"/>
       <c r="M26" s="145">
-        <v>0.52380952380952384</v>
+        <v>0.55279503105590067</v>
       </c>
       <c r="N26" s="146">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="O26" s="147"/>
       <c r="P26" s="145">
-        <v>0.59863945578231292</v>
+        <v>0.60248447204968947</v>
       </c>
       <c r="Q26" s="146">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="R26" s="147"/>
       <c r="S26" s="145">
-        <v>0.55782312925170063</v>
+        <v>0.58385093167701863</v>
       </c>
       <c r="T26" s="146">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="U26" s="147"/>
       <c r="V26" s="145">
-        <v>0.48299319727891155</v>
+        <v>0.50931677018633537</v>
       </c>
       <c r="W26" s="146">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="X26" s="147"/>
       <c r="Y26" s="145">
-        <v>0.58503401360544216</v>
+        <v>0.59006211180124224</v>
       </c>
       <c r="Z26" s="146">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="AA26" s="147"/>
       <c r="AB26" s="145">
-        <v>0.51020408163265307</v>
+        <v>0.52795031055900621</v>
       </c>
       <c r="AC26" s="146">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AD26" s="147"/>
       <c r="AE26" s="145">
-        <v>0.61904761904761907</v>
+        <v>0.63975155279503104</v>
       </c>
       <c r="AF26" s="146">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="AG26" s="147"/>
       <c r="AH26" s="145">
-        <v>0.49659863945578231</v>
+        <v>0.453416149068323</v>
       </c>
       <c r="AI26" s="146">
         <v>73</v>
       </c>
       <c r="AJ26" s="147"/>
       <c r="AK26" s="145">
-        <v>0.44217687074829931</v>
+        <v>0.46583850931677018</v>
       </c>
       <c r="AL26" s="146">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AM26" s="147"/>
       <c r="AN26" s="145">
-        <v>0.58503401360544216</v>
+        <v>0.59006211180124224</v>
       </c>
       <c r="AO26" s="148">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="AP26" s="3"/>
       <c r="AW26" s="3"/>
@@ -9217,7 +9162,7 @@
       <c r="BV26" s="6"/>
       <c r="BW26" s="6"/>
       <c r="BY26" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:77" s="7" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9241,7 +9186,7 @@
         <v>68</v>
       </c>
       <c r="P27" s="153">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="Q27" s="150"/>
       <c r="R27" s="150"/>
@@ -9254,7 +9199,7 @@
         <v>69</v>
       </c>
       <c r="Y27" s="154">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Z27" s="150"/>
       <c r="AA27" s="152"/>
@@ -9267,7 +9212,7 @@
         <v>70</v>
       </c>
       <c r="AH27" s="154">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AI27" s="150"/>
       <c r="AJ27" s="152"/>
@@ -9276,7 +9221,7 @@
       <c r="AM27" s="150"/>
       <c r="AN27" s="150"/>
       <c r="AO27" s="155" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="AP27" s="3"/>
       <c r="AW27" s="3"/>
@@ -9290,7 +9235,7 @@
       <c r="BV27" s="6"/>
       <c r="BW27" s="6"/>
       <c r="BY27" s="12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:77" s="7" customFormat="1" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -9347,7 +9292,7 @@
       <c r="BV28" s="6"/>
       <c r="BW28" s="6"/>
       <c r="BY28" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:77" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -9356,7 +9301,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="17"/>
@@ -9408,7 +9353,7 @@
       <c r="BV29" s="6"/>
       <c r="BW29" s="6"/>
       <c r="BY29" s="12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:77" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -9465,7 +9410,7 @@
       <c r="BV30" s="6"/>
       <c r="BW30" s="6"/>
       <c r="BY30" s="12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:77" s="7" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9575,7 +9520,7 @@
         <v>133</v>
       </c>
       <c r="AH32" s="25">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="AK32" s="25">
         <v>133</v>
@@ -9616,47 +9561,47 @@
       <c r="F34" s="26"/>
       <c r="G34" s="25"/>
       <c r="H34" s="26">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="I34" s="26"/>
       <c r="J34" s="26"/>
       <c r="K34" s="26">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="L34" s="26"/>
       <c r="M34" s="26"/>
       <c r="N34" s="26">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="Q34" s="26">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="T34" s="26">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="W34" s="26">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="Z34" s="26">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="AC34" s="26">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="AF34" s="26">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="AI34" s="26">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="AL34" s="26">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AO34" s="26">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="AV34" s="26">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="BY34" s="12"/>
     </row>
@@ -9666,44 +9611,44 @@
       <c r="F35" s="3"/>
       <c r="G35" s="27"/>
       <c r="H35" s="28">
-        <v>81.666666666666671</v>
+        <v>84.9</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="28">
-        <v>83.888888888888886</v>
+        <v>84.7</v>
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="28">
-        <v>85.222222222222229</v>
+        <v>88</v>
       </c>
       <c r="Q35" s="28">
-        <v>86</v>
+        <v>87.7</v>
       </c>
       <c r="T35" s="28">
-        <v>84.333333333333329</v>
+        <v>87.3</v>
       </c>
       <c r="W35" s="28">
-        <v>75.333333333333329</v>
+        <v>79.3</v>
       </c>
       <c r="Z35" s="28">
-        <v>86.555555555555557</v>
+        <v>87.4</v>
       </c>
       <c r="AC35" s="28">
-        <v>77.444444444444443</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="AF35" s="28">
-        <v>92.777777777777771</v>
+        <v>95.5</v>
       </c>
       <c r="AI35" s="28">
-        <v>78.777777777777771</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="AL35" s="28">
-        <v>76.222222222222229</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="AO35" s="28">
-        <v>87</v>
+        <v>88.5</v>
       </c>
       <c r="BY35" s="12"/>
     </row>
@@ -9713,44 +9658,44 @@
       <c r="F36" s="3"/>
       <c r="G36" s="27"/>
       <c r="H36" s="28">
-        <v>735</v>
+        <v>849</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="28">
-        <v>755</v>
+        <v>847</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="28">
-        <v>767</v>
+        <v>880</v>
       </c>
       <c r="Q36" s="28">
-        <v>774</v>
+        <v>877</v>
       </c>
       <c r="T36" s="28">
-        <v>759</v>
+        <v>873</v>
       </c>
       <c r="W36" s="28">
-        <v>678</v>
+        <v>793</v>
       </c>
       <c r="Z36" s="28">
-        <v>779</v>
+        <v>874</v>
       </c>
       <c r="AC36" s="28">
-        <v>697</v>
+        <v>801</v>
       </c>
       <c r="AF36" s="28">
-        <v>835</v>
+        <v>955</v>
       </c>
       <c r="AI36" s="28">
         <v>709</v>
       </c>
       <c r="AL36" s="28">
-        <v>686</v>
+        <v>786</v>
       </c>
       <c r="AO36" s="28">
-        <v>783</v>
+        <v>885</v>
       </c>
       <c r="BY36" s="12"/>
     </row>
@@ -9807,44 +9752,44 @@
       <c r="F38" s="3"/>
       <c r="G38" s="27"/>
       <c r="H38" s="28">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="28">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="28">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Q38" s="28">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T38" s="28">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="W38" s="28">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Z38" s="28">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AC38" s="28">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AF38" s="28">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AI38" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="28">
         <v>10</v>
       </c>
-      <c r="AL38" s="28">
-        <v>8</v>
-      </c>
       <c r="AO38" s="28">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BY38" s="12"/>
     </row>
@@ -9854,44 +9799,44 @@
       <c r="F39" s="3"/>
       <c r="G39" s="27"/>
       <c r="H39" s="28">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="28">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="28">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="Q39" s="28">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="T39" s="28">
+        <v>94</v>
+      </c>
+      <c r="W39" s="28">
         <v>82</v>
       </c>
-      <c r="W39" s="28">
-        <v>71</v>
-      </c>
       <c r="Z39" s="28">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="AC39" s="28">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AF39" s="28">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="AI39" s="28">
         <v>73</v>
       </c>
       <c r="AL39" s="28">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AO39" s="28">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="BY39" s="12"/>
     </row>
@@ -9900,17 +9845,17 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H40" s="28"/>
       <c r="I40" s="3"/>
       <c r="J40" s="27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K40" s="28"/>
       <c r="L40" s="3"/>
       <c r="M40" s="27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N40" s="28"/>
       <c r="P40" s="27">
@@ -9922,15 +9867,15 @@
       </c>
       <c r="T40" s="28"/>
       <c r="V40" s="27">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="W40" s="28"/>
       <c r="Y40" s="27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z40" s="28"/>
       <c r="AB40" s="27">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC40" s="28"/>
       <c r="AE40" s="27">
@@ -9938,7 +9883,7 @@
       </c>
       <c r="AF40" s="28"/>
       <c r="AH40" s="27">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AI40" s="28"/>
       <c r="AK40" s="27">
@@ -9962,44 +9907,44 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="27">
-        <v>0.42857142857142855</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="27">
-        <v>0.5</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="27">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="P41" s="27">
-        <v>0.35714285714285715</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="S41" s="27">
-        <v>0.42857142857142855</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="V41" s="27">
-        <v>0.5714285714285714</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="Y41" s="27">
-        <v>0.35714285714285715</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="AB41" s="27">
-        <v>0.35714285714285715</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AE41" s="27">
-        <v>0.5</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AH41" s="27">
+        <v>0</v>
+      </c>
+      <c r="AK41" s="27">
         <v>0.7142857142857143</v>
       </c>
-      <c r="AK41" s="27">
-        <v>0.5714285714285714</v>
-      </c>
       <c r="AN41" s="27">
-        <v>0.42857142857142855</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="AR41" s="29">
         <v>1</v>
@@ -10014,44 +9959,44 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="27">
-        <v>0.49659863945578231</v>
+        <v>0.52795031055900621</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="27">
-        <v>0.5714285714285714</v>
+        <v>0.58385093167701863</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="27">
-        <v>0.52380952380952384</v>
+        <v>0.55279503105590067</v>
       </c>
       <c r="P42" s="27">
-        <v>0.59863945578231292</v>
+        <v>0.60248447204968947</v>
       </c>
       <c r="S42" s="27">
-        <v>0.55782312925170063</v>
+        <v>0.58385093167701863</v>
       </c>
       <c r="V42" s="27">
-        <v>0.48299319727891155</v>
+        <v>0.50931677018633537</v>
       </c>
       <c r="Y42" s="27">
-        <v>0.58503401360544216</v>
+        <v>0.59006211180124224</v>
       </c>
       <c r="AB42" s="27">
-        <v>0.51020408163265307</v>
+        <v>0.52795031055900621</v>
       </c>
       <c r="AE42" s="27">
-        <v>0.61904761904761907</v>
+        <v>0.63975155279503104</v>
       </c>
       <c r="AH42" s="27">
-        <v>0.49659863945578231</v>
+        <v>0.453416149068323</v>
       </c>
       <c r="AK42" s="27">
-        <v>0.44217687074829931</v>
+        <v>0.46583850931677018</v>
       </c>
       <c r="AN42" s="27">
-        <v>0.58503401360544216</v>
+        <v>0.59006211180124224</v>
       </c>
       <c r="BY42" s="12"/>
     </row>
@@ -10089,7 +10034,7 @@
         <v>76</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="BY45" s="12"/>
     </row>
@@ -12201,7 +12146,7 @@
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
       <c r="U1" s="168" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
@@ -12246,94 +12191,94 @@
     </row>
     <row r="2" spans="2:99" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="307" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C2" s="308" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D2" s="309"/>
       <c r="E2" s="156" t="s">
         <v>91</v>
       </c>
       <c r="F2" s="115">
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="G2" s="157"/>
       <c r="H2" s="156" t="s">
         <v>92</v>
       </c>
       <c r="I2" s="115">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="J2" s="157"/>
       <c r="K2" s="156" t="s">
         <v>93</v>
       </c>
       <c r="L2" s="115">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="M2" s="157"/>
       <c r="N2" s="156" t="s">
         <v>94</v>
       </c>
       <c r="O2" s="115">
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="P2" s="157"/>
       <c r="Q2" s="156" t="s">
         <v>95</v>
       </c>
       <c r="R2" s="115">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="S2" s="157"/>
       <c r="T2" s="156" t="s">
         <v>96</v>
       </c>
       <c r="U2" s="115">
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="V2" s="157"/>
       <c r="W2" s="156" t="s">
         <v>97</v>
       </c>
       <c r="X2" s="115">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Y2" s="157"/>
       <c r="Z2" s="156" t="s">
         <v>98</v>
       </c>
       <c r="AA2" s="115">
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="AB2" s="157"/>
       <c r="AC2" s="156" t="s">
         <v>99</v>
       </c>
       <c r="AD2" s="115">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="AE2" s="157"/>
       <c r="AF2" s="156" t="s">
         <v>100</v>
       </c>
       <c r="AG2" s="115">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AH2" s="157"/>
       <c r="AI2" s="156" t="s">
         <v>101</v>
       </c>
       <c r="AJ2" s="115">
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="AK2" s="157"/>
       <c r="AL2" s="156" t="s">
         <v>102</v>
       </c>
       <c r="AM2" s="115">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN2" s="158"/>
       <c r="AO2" s="211">
@@ -12343,7 +12288,7 @@
         <v>8</v>
       </c>
       <c r="AQ2" s="39">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR2" s="40" t="s">
         <v>9</v>
@@ -12475,7 +12420,7 @@
         <v>14</v>
       </c>
       <c r="AQ3" s="41">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR3" s="40" t="s">
         <v>15</v>
@@ -13688,7 +13633,7 @@
       </c>
       <c r="AQ9" s="45"/>
       <c r="AR9" s="47" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AS9" s="4">
         <v>15</v>
@@ -13900,11 +13845,11 @@
       </c>
       <c r="AO10" s="45"/>
       <c r="AP10" s="226" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AQ10" s="45"/>
       <c r="AR10" s="47" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AS10" s="4">
         <v>15</v>
@@ -14118,7 +14063,7 @@
       <c r="AP11" s="46"/>
       <c r="AQ11" s="45"/>
       <c r="AR11" s="47" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AS11" s="4">
         <v>13</v>
@@ -14332,7 +14277,7 @@
       <c r="AP12" s="46"/>
       <c r="AQ12" s="45"/>
       <c r="AR12" s="47" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AS12" s="4">
         <v>13</v>
@@ -14643,116 +14588,116 @@
       <c r="C14" s="191">
         <v>14</v>
       </c>
-      <c r="D14" s="222" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="193" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="J14" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="K14" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="L14" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="M14" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="N14" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="O14" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="P14" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="R14" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="S14" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="T14" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="U14" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="V14" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="W14" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="X14" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="224" t="s">
-        <v>0</v>
+      <c r="D14" s="222">
+        <v>14</v>
+      </c>
+      <c r="E14" s="193">
+        <v>3</v>
+      </c>
+      <c r="F14" s="223">
+        <v>12</v>
+      </c>
+      <c r="G14" s="224">
+        <v>114</v>
+      </c>
+      <c r="H14" s="196">
+        <v>11</v>
+      </c>
+      <c r="I14" s="223">
+        <v>10</v>
+      </c>
+      <c r="J14" s="224">
+        <v>92</v>
+      </c>
+      <c r="K14" s="196">
+        <v>5</v>
+      </c>
+      <c r="L14" s="223">
+        <v>12</v>
+      </c>
+      <c r="M14" s="224">
+        <v>113</v>
+      </c>
+      <c r="N14" s="196">
+        <v>7</v>
+      </c>
+      <c r="O14" s="223">
+        <v>9</v>
+      </c>
+      <c r="P14" s="224">
+        <v>103</v>
+      </c>
+      <c r="Q14" s="196">
+        <v>3</v>
+      </c>
+      <c r="R14" s="223">
+        <v>12</v>
+      </c>
+      <c r="S14" s="224">
+        <v>114</v>
+      </c>
+      <c r="T14" s="196">
+        <v>2</v>
+      </c>
+      <c r="U14" s="223">
+        <v>11</v>
+      </c>
+      <c r="V14" s="224">
+        <v>115</v>
+      </c>
+      <c r="W14" s="196">
+        <v>10</v>
+      </c>
+      <c r="X14" s="223">
+        <v>9</v>
+      </c>
+      <c r="Y14" s="224">
+        <v>95</v>
+      </c>
+      <c r="Z14" s="196">
+        <v>6</v>
+      </c>
+      <c r="AA14" s="223">
+        <v>10</v>
+      </c>
+      <c r="AB14" s="224">
+        <v>104</v>
+      </c>
+      <c r="AC14" s="196">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="223">
+        <v>12</v>
+      </c>
+      <c r="AE14" s="224">
+        <v>120</v>
       </c>
       <c r="AF14" s="196" t="s">
         <v>0</v>
       </c>
-      <c r="AG14" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM14" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN14" s="225" t="s">
-        <v>0</v>
+      <c r="AG14" s="223">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="224">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="196">
+        <v>9</v>
+      </c>
+      <c r="AJ14" s="223">
+        <v>10</v>
+      </c>
+      <c r="AK14" s="224">
+        <v>100</v>
+      </c>
+      <c r="AL14" s="196">
+        <v>8</v>
+      </c>
+      <c r="AM14" s="223">
+        <v>9</v>
+      </c>
+      <c r="AN14" s="225">
+        <v>102</v>
       </c>
       <c r="AO14" s="45"/>
       <c r="AP14" s="46"/>
@@ -14766,64 +14711,64 @@
         <v>0</v>
       </c>
       <c r="BL14" s="4"/>
-      <c r="BM14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN14" s="4" t="s">
-        <v>0</v>
+      <c r="BM14" s="4">
+        <v>114</v>
+      </c>
+      <c r="BN14" s="4">
+        <v>1</v>
       </c>
       <c r="BO14" s="4"/>
-      <c r="BP14" s="4" t="s">
-        <v>0</v>
+      <c r="BP14" s="4">
+        <v>92</v>
       </c>
       <c r="BQ14" s="4" t="s">
         <v>0</v>
       </c>
       <c r="BR14" s="4"/>
-      <c r="BS14" s="4" t="s">
-        <v>0</v>
+      <c r="BS14" s="4">
+        <v>113</v>
       </c>
       <c r="BT14" s="4" t="s">
         <v>0</v>
       </c>
       <c r="BU14" s="4"/>
-      <c r="BV14" s="4" t="s">
-        <v>0</v>
+      <c r="BV14" s="4">
+        <v>103</v>
       </c>
       <c r="BW14" s="4" t="s">
         <v>0</v>
       </c>
       <c r="BX14" s="4"/>
-      <c r="BY14" s="4" t="s">
-        <v>0</v>
+      <c r="BY14" s="4">
+        <v>114</v>
       </c>
       <c r="BZ14" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CA14" s="4"/>
-      <c r="CB14" s="4" t="s">
-        <v>0</v>
+      <c r="CB14" s="4">
+        <v>115</v>
       </c>
       <c r="CC14" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CD14" s="4"/>
-      <c r="CE14" s="4" t="s">
-        <v>0</v>
+      <c r="CE14" s="4">
+        <v>95</v>
       </c>
       <c r="CF14" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CG14" s="4"/>
-      <c r="CH14" s="4" t="s">
-        <v>0</v>
+      <c r="CH14" s="4">
+        <v>104</v>
       </c>
       <c r="CI14" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CJ14" s="4"/>
-      <c r="CK14" s="4" t="s">
-        <v>0</v>
+      <c r="CK14" s="4">
+        <v>120</v>
       </c>
       <c r="CL14" s="4" t="s">
         <v>0</v>
@@ -14836,15 +14781,15 @@
         <v>0</v>
       </c>
       <c r="CP14" s="4"/>
-      <c r="CQ14" s="4" t="s">
-        <v>0</v>
+      <c r="CQ14" s="4">
+        <v>100</v>
       </c>
       <c r="CR14" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CS14" s="4"/>
-      <c r="CT14" s="4" t="s">
-        <v>0</v>
+      <c r="CT14" s="4">
+        <v>102</v>
       </c>
       <c r="CU14" s="4"/>
     </row>
@@ -16126,91 +16071,91 @@
         <v>22</v>
       </c>
       <c r="D21" s="237">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="E21" s="238">
+        <v>7</v>
+      </c>
+      <c r="F21" s="239">
+        <v>85</v>
+      </c>
+      <c r="G21" s="240">
+        <v>849</v>
+      </c>
+      <c r="H21" s="241">
         <v>8</v>
       </c>
-      <c r="F21" s="239">
-        <v>73</v>
-      </c>
-      <c r="G21" s="240">
-        <v>735</v>
-      </c>
-      <c r="H21" s="241">
-        <v>7</v>
-      </c>
       <c r="I21" s="239">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="J21" s="240">
-        <v>755</v>
+        <v>847</v>
       </c>
       <c r="K21" s="241">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L21" s="239">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="M21" s="240">
-        <v>767</v>
+        <v>880</v>
       </c>
       <c r="N21" s="241">
         <v>4</v>
       </c>
       <c r="O21" s="239">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="P21" s="240">
-        <v>774</v>
+        <v>877</v>
       </c>
       <c r="Q21" s="241">
         <v>6</v>
       </c>
       <c r="R21" s="239">
+        <v>94</v>
+      </c>
+      <c r="S21" s="240">
+        <v>873</v>
+      </c>
+      <c r="T21" s="241">
+        <v>10</v>
+      </c>
+      <c r="U21" s="239">
         <v>82</v>
       </c>
-      <c r="S21" s="240">
-        <v>759</v>
-      </c>
-      <c r="T21" s="241">
-        <v>12</v>
-      </c>
-      <c r="U21" s="239">
-        <v>71</v>
-      </c>
       <c r="V21" s="240">
-        <v>678</v>
+        <v>793</v>
       </c>
       <c r="W21" s="241">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X21" s="239">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="Y21" s="240">
-        <v>779</v>
+        <v>874</v>
       </c>
       <c r="Z21" s="241">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA21" s="239">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AB21" s="240">
-        <v>697</v>
+        <v>801</v>
       </c>
       <c r="AC21" s="241">
         <v>1</v>
       </c>
       <c r="AD21" s="239">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="AE21" s="240">
-        <v>835</v>
+        <v>955</v>
       </c>
       <c r="AF21" s="241">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AG21" s="239">
         <v>73</v>
@@ -16222,19 +16167,19 @@
         <v>11</v>
       </c>
       <c r="AJ21" s="239">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AK21" s="240">
-        <v>686</v>
+        <v>786</v>
       </c>
       <c r="AL21" s="241">
         <v>2</v>
       </c>
       <c r="AM21" s="239">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="AN21" s="242">
-        <v>783</v>
+        <v>885</v>
       </c>
       <c r="AO21" s="48"/>
       <c r="AP21" s="49"/>
@@ -16245,47 +16190,47 @@
       <c r="BK21" s="4"/>
       <c r="BL21" s="4"/>
       <c r="BM21" s="4">
-        <v>735</v>
+        <v>849</v>
       </c>
       <c r="BN21" s="4"/>
       <c r="BO21" s="4"/>
       <c r="BP21" s="4">
-        <v>755</v>
+        <v>847</v>
       </c>
       <c r="BQ21" s="4"/>
       <c r="BR21" s="4"/>
       <c r="BS21" s="4">
-        <v>767</v>
+        <v>880</v>
       </c>
       <c r="BT21" s="4"/>
       <c r="BU21" s="4"/>
       <c r="BV21" s="4">
-        <v>774</v>
+        <v>877</v>
       </c>
       <c r="BW21" s="4"/>
       <c r="BX21" s="4"/>
       <c r="BY21" s="4">
-        <v>759</v>
+        <v>873</v>
       </c>
       <c r="BZ21" s="4"/>
       <c r="CA21" s="4"/>
       <c r="CB21" s="4">
-        <v>678</v>
+        <v>793</v>
       </c>
       <c r="CC21" s="4"/>
       <c r="CD21" s="4"/>
       <c r="CE21" s="4">
-        <v>779</v>
+        <v>874</v>
       </c>
       <c r="CF21" s="4"/>
       <c r="CG21" s="4"/>
       <c r="CH21" s="4">
-        <v>697</v>
+        <v>801</v>
       </c>
       <c r="CI21" s="4"/>
       <c r="CJ21" s="4"/>
       <c r="CK21" s="4">
-        <v>835</v>
+        <v>955</v>
       </c>
       <c r="CL21" s="4"/>
       <c r="CM21" s="4"/>
@@ -16295,12 +16240,12 @@
       <c r="CO21" s="4"/>
       <c r="CP21" s="4"/>
       <c r="CQ21" s="4">
-        <v>686</v>
+        <v>786</v>
       </c>
       <c r="CR21" s="4"/>
       <c r="CS21" s="4"/>
       <c r="CT21" s="4">
-        <v>783</v>
+        <v>885</v>
       </c>
       <c r="CU21" s="4"/>
     </row>
@@ -16311,112 +16256,112 @@
         <v>23</v>
       </c>
       <c r="E22" s="246">
-        <v>6.5555555555555554</v>
+        <v>6.2</v>
       </c>
       <c r="F22" s="247">
-        <v>7.3</v>
+        <v>7.7272727272727275</v>
       </c>
       <c r="G22" s="248">
-        <v>81.666666666666671</v>
+        <v>84.9</v>
       </c>
       <c r="H22" s="249">
-        <v>6.4</v>
+        <v>6.8181818181818183</v>
       </c>
       <c r="I22" s="247">
-        <v>8.4</v>
+        <v>8.545454545454545</v>
       </c>
       <c r="J22" s="248">
-        <v>83.888888888888886</v>
+        <v>84.7</v>
       </c>
       <c r="K22" s="249">
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
       <c r="L22" s="247">
-        <v>7.7</v>
+        <v>8.0909090909090917</v>
       </c>
       <c r="M22" s="248">
-        <v>85.222222222222229</v>
+        <v>88</v>
       </c>
       <c r="N22" s="249">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O22" s="247">
-        <v>8.8000000000000007</v>
+        <v>8.8181818181818183</v>
       </c>
       <c r="P22" s="248">
-        <v>86</v>
+        <v>87.7</v>
       </c>
       <c r="Q22" s="249">
-        <v>6.4</v>
+        <v>6.0909090909090908</v>
       </c>
       <c r="R22" s="247">
-        <v>8.1999999999999993</v>
+        <v>8.545454545454545</v>
       </c>
       <c r="S22" s="248">
-        <v>84.333333333333329</v>
+        <v>87.3</v>
       </c>
       <c r="T22" s="249">
-        <v>7.4444444444444446</v>
+        <v>6.9</v>
       </c>
       <c r="U22" s="247">
-        <v>7.1</v>
+        <v>7.4545454545454541</v>
       </c>
       <c r="V22" s="248">
-        <v>75.333333333333329</v>
+        <v>79.3</v>
       </c>
       <c r="W22" s="249">
-        <v>4.9000000000000004</v>
+        <v>5.3636363636363633</v>
       </c>
       <c r="X22" s="247">
-        <v>8.6</v>
+        <v>8.6363636363636367</v>
       </c>
       <c r="Y22" s="248">
-        <v>86.555555555555557</v>
+        <v>87.4</v>
       </c>
       <c r="Z22" s="249">
-        <v>7.8</v>
+        <v>7.6363636363636367</v>
       </c>
       <c r="AA22" s="247">
-        <v>7.5</v>
+        <v>7.7272727272727275</v>
       </c>
       <c r="AB22" s="248">
-        <v>77.444444444444443</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="AC22" s="249">
-        <v>4.0999999999999996</v>
+        <v>3.8181818181818183</v>
       </c>
       <c r="AD22" s="247">
-        <v>9.1</v>
+        <v>9.3636363636363633</v>
       </c>
       <c r="AE22" s="248">
-        <v>92.777777777777771</v>
+        <v>95.5</v>
       </c>
       <c r="AF22" s="249">
         <v>7.1111111111111107</v>
       </c>
       <c r="AG22" s="247">
-        <v>7.3</v>
+        <v>6.6363636363636367</v>
       </c>
       <c r="AH22" s="248">
-        <v>78.777777777777771</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="AI22" s="249">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AJ22" s="247">
-        <v>6.5</v>
+        <v>6.8181818181818183</v>
       </c>
       <c r="AK22" s="248">
-        <v>76.222222222222229</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="AL22" s="249">
-        <v>6</v>
+        <v>6.1818181818181817</v>
       </c>
       <c r="AM22" s="247">
-        <v>8.6</v>
+        <v>8.6363636363636367</v>
       </c>
       <c r="AN22" s="250">
-        <v>87</v>
+        <v>88.5</v>
       </c>
       <c r="AO22" s="48"/>
       <c r="AP22" s="49"/>
@@ -16509,7 +16454,7 @@
       <c r="AA23" s="255"/>
       <c r="AB23" s="256"/>
       <c r="AC23" s="257">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD23" s="255"/>
       <c r="AE23" s="256"/>
@@ -16603,8 +16548,8 @@
       </c>
       <c r="R24" s="108"/>
       <c r="S24" s="109"/>
-      <c r="T24" s="75" t="s">
-        <v>0</v>
+      <c r="T24" s="75">
+        <v>1</v>
       </c>
       <c r="U24" s="108"/>
       <c r="V24" s="109"/>
@@ -16712,8 +16657,8 @@
       <c r="D25" s="261" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="74" t="s">
-        <v>0</v>
+      <c r="E25" s="74">
+        <v>1</v>
       </c>
       <c r="F25" s="108"/>
       <c r="G25" s="109"/>
@@ -16733,7 +16678,7 @@
       <c r="O25" s="108"/>
       <c r="P25" s="109"/>
       <c r="Q25" s="75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R25" s="108"/>
       <c r="S25" s="109"/>
@@ -16852,7 +16797,7 @@
       <c r="F26" s="108"/>
       <c r="G26" s="109"/>
       <c r="H26" s="75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" s="108"/>
       <c r="J26" s="109"/>
@@ -17026,7 +16971,7 @@
       <c r="AD27" s="266"/>
       <c r="AE27" s="267"/>
       <c r="AF27" s="268">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG27" s="266"/>
       <c r="AH27" s="267"/>
@@ -17174,7 +17119,7 @@
     </row>
     <row r="29" spans="2:99" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AT29" s="300" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AU29" s="310"/>
       <c r="AV29" s="310"/>
@@ -17525,22 +17470,22 @@
         <v>99</v>
       </c>
       <c r="AU33" s="272">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="AV33" s="273">
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="AW33" s="274">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX33" s="275">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="AY33" s="276" t="s">
         <v>61</v>
       </c>
       <c r="AZ33" s="275">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="BA33" s="277" t="s">
         <v>0</v>
@@ -17623,10 +17568,10 @@
         <v>97</v>
       </c>
       <c r="AU34" s="280">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AV34" s="281">
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="AW34" s="282">
         <v>2</v>
@@ -17655,63 +17600,63 @@
       <c r="BI34" s="286"/>
       <c r="BJ34" s="4"/>
       <c r="BK34" s="4"/>
-      <c r="BL34" s="4" t="s">
-        <v>0</v>
+      <c r="BL34" s="4">
+        <v>12</v>
       </c>
       <c r="BM34" s="4"/>
       <c r="BN34" s="4"/>
-      <c r="BO34" s="4" t="s">
-        <v>0</v>
+      <c r="BO34" s="4">
+        <v>10</v>
       </c>
       <c r="BP34" s="4"/>
       <c r="BQ34" s="4"/>
-      <c r="BR34" s="4" t="s">
-        <v>0</v>
+      <c r="BR34" s="4">
+        <v>12</v>
       </c>
       <c r="BS34" s="4"/>
       <c r="BT34" s="4"/>
-      <c r="BU34" s="4" t="s">
-        <v>0</v>
+      <c r="BU34" s="4">
+        <v>9</v>
       </c>
       <c r="BV34" s="4"/>
       <c r="BW34" s="4"/>
-      <c r="BX34" s="4" t="s">
-        <v>0</v>
+      <c r="BX34" s="4">
+        <v>12</v>
       </c>
       <c r="BY34" s="4"/>
       <c r="BZ34" s="4"/>
-      <c r="CA34" s="4" t="s">
-        <v>0</v>
+      <c r="CA34" s="4">
+        <v>11</v>
       </c>
       <c r="CB34" s="4"/>
       <c r="CC34" s="4"/>
-      <c r="CD34" s="4" t="s">
-        <v>0</v>
+      <c r="CD34" s="4">
+        <v>9</v>
       </c>
       <c r="CE34" s="4"/>
       <c r="CF34" s="4"/>
-      <c r="CG34" s="4" t="s">
-        <v>0</v>
+      <c r="CG34" s="4">
+        <v>10</v>
       </c>
       <c r="CH34" s="4"/>
       <c r="CI34" s="4"/>
-      <c r="CJ34" s="4" t="s">
-        <v>0</v>
+      <c r="CJ34" s="4">
+        <v>12</v>
       </c>
       <c r="CK34" s="4"/>
       <c r="CL34" s="4"/>
-      <c r="CM34" s="4" t="s">
+      <c r="CM34" s="4">
         <v>0</v>
       </c>
       <c r="CN34" s="4"/>
       <c r="CO34" s="4"/>
-      <c r="CP34" s="4" t="s">
-        <v>0</v>
+      <c r="CP34" s="4">
+        <v>10</v>
       </c>
       <c r="CQ34" s="4"/>
       <c r="CR34" s="4"/>
-      <c r="CS34" s="4" t="s">
-        <v>0</v>
+      <c r="CS34" s="4">
+        <v>9</v>
       </c>
       <c r="CT34" s="4"/>
       <c r="CU34" s="4"/>
@@ -17721,10 +17666,10 @@
         <v>102</v>
       </c>
       <c r="AU35" s="280">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV35" s="281">
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="AW35" s="282">
         <v>1</v>
@@ -17742,7 +17687,7 @@
         <v>61</v>
       </c>
       <c r="BB35" s="286">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BC35" s="287"/>
       <c r="BD35" s="282"/>
@@ -17819,10 +17764,10 @@
         <v>92</v>
       </c>
       <c r="AU36" s="280">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AV36" s="281">
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="AW36" s="282">
         <v>1</v>
@@ -17917,10 +17862,10 @@
         <v>93</v>
       </c>
       <c r="AU37" s="280">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AV37" s="281">
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="AW37" s="282">
         <v>1</v>
@@ -18015,10 +17960,10 @@
         <v>95</v>
       </c>
       <c r="AU38" s="280">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AV38" s="281">
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="AW38" s="282">
         <v>1</v>
@@ -18113,10 +18058,10 @@
         <v>100</v>
       </c>
       <c r="AU39" s="280">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AV39" s="281">
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="AW39" s="282">
         <v>1</v>
@@ -18211,10 +18156,10 @@
         <v>91</v>
       </c>
       <c r="AU40" s="280">
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="AV40" s="281">
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="AW40" s="282" t="s">
         <v>0</v>
@@ -18309,10 +18254,10 @@
         <v>94</v>
       </c>
       <c r="AU41" s="280">
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="AV41" s="281">
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="AW41" s="282" t="s">
         <v>0</v>
@@ -18342,47 +18287,47 @@
       <c r="BJ41" s="4"/>
       <c r="BK41" s="4"/>
       <c r="BL41" s="4">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="BM41" s="4"/>
       <c r="BN41" s="4"/>
       <c r="BO41" s="4">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="BP41" s="4"/>
       <c r="BQ41" s="4"/>
       <c r="BR41" s="4">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="BS41" s="4"/>
       <c r="BT41" s="4"/>
       <c r="BU41" s="4">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="BV41" s="4"/>
       <c r="BW41" s="4"/>
       <c r="BX41" s="4">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="BY41" s="4"/>
       <c r="BZ41" s="4"/>
       <c r="CA41" s="4">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="CB41" s="4"/>
       <c r="CC41" s="4"/>
       <c r="CD41" s="4">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="CE41" s="4"/>
       <c r="CF41" s="4"/>
       <c r="CG41" s="4">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="CH41" s="4"/>
       <c r="CI41" s="4"/>
       <c r="CJ41" s="4">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="CK41" s="4"/>
       <c r="CL41" s="4"/>
@@ -18392,12 +18337,12 @@
       <c r="CN41" s="4"/>
       <c r="CO41" s="4"/>
       <c r="CP41" s="4">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="CQ41" s="4"/>
       <c r="CR41" s="4"/>
       <c r="CS41" s="4">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="CT41" s="4"/>
       <c r="CU41" s="4"/>
@@ -18407,10 +18352,10 @@
         <v>96</v>
       </c>
       <c r="AU42" s="280">
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="AV42" s="281">
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="AW42" s="282" t="s">
         <v>0</v>
@@ -18439,47 +18384,47 @@
       <c r="BI42" s="286"/>
       <c r="BJ42" s="50"/>
       <c r="BK42" s="50">
-        <v>6.5555555555555554</v>
+        <v>6.2</v>
       </c>
       <c r="BL42" s="50"/>
       <c r="BM42" s="50"/>
       <c r="BN42" s="50">
-        <v>6.4</v>
+        <v>6.8181818181818183</v>
       </c>
       <c r="BO42" s="50"/>
       <c r="BP42" s="50"/>
       <c r="BQ42" s="50">
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
       <c r="BR42" s="50"/>
       <c r="BS42" s="50"/>
       <c r="BT42" s="50">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="BU42" s="50"/>
       <c r="BV42" s="50"/>
       <c r="BW42" s="50">
-        <v>6.4</v>
+        <v>6.0909090909090908</v>
       </c>
       <c r="BX42" s="50"/>
       <c r="BY42" s="50"/>
       <c r="BZ42" s="50">
-        <v>7.4444444444444446</v>
+        <v>6.9</v>
       </c>
       <c r="CA42" s="50"/>
       <c r="CB42" s="50"/>
       <c r="CC42" s="50">
-        <v>4.9000000000000004</v>
+        <v>5.3636363636363633</v>
       </c>
       <c r="CD42" s="50"/>
       <c r="CE42" s="50"/>
       <c r="CF42" s="50">
-        <v>7.8</v>
+        <v>7.6363636363636367</v>
       </c>
       <c r="CG42" s="50"/>
       <c r="CH42" s="50"/>
       <c r="CI42" s="50">
-        <v>4.0999999999999996</v>
+        <v>3.8181818181818183</v>
       </c>
       <c r="CJ42" s="50"/>
       <c r="CK42" s="50"/>
@@ -18489,12 +18434,12 @@
       <c r="CM42" s="50"/>
       <c r="CN42" s="50"/>
       <c r="CO42" s="50">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="CP42" s="50"/>
       <c r="CQ42" s="50"/>
       <c r="CR42" s="50">
-        <v>6</v>
+        <v>6.1818181818181817</v>
       </c>
       <c r="CS42" s="50"/>
       <c r="CT42" s="50"/>
@@ -18505,10 +18450,10 @@
         <v>98</v>
       </c>
       <c r="AU43" s="280">
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="AV43" s="281">
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="AW43" s="282" t="s">
         <v>0</v>
@@ -18541,10 +18486,10 @@
         <v>101</v>
       </c>
       <c r="AU44" s="289">
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="AV44" s="290">
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="AW44" s="291" t="s">
         <v>0</v>

--- a/regular_season_final.xlsx
+++ b/regular_season_final.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="177">
   <si>
     <t/>
   </si>
@@ -431,121 +431,130 @@
     <t>Bengals</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Week 11 Scores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w11_p1_picks         = ["H","V","V","H","H","H","H","V","H","V","V","H","H","H"];</t>
-  </si>
-  <si>
     <t>Bills</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w11_p2_picks         = ["H","H","V","H","H","H","H","V","H","H","V","H","H","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w11_p3_picks         = ["H","H","V","H","H","H","H","H","H","V","V","H","H","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w11_p4_picks         = ["V","H","V","H","H","H","H","H","H","H","V","H","V","H"];</t>
   </si>
   <si>
     <t>Lions</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w11_p5_picks         = ["H","V","V","H","H","V","H","H","H","V","V","H","H","H"];</t>
-  </si>
-  <si>
     <t>Colts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w11_p6_picks         = ["V","V","V","H","H","V","H","H","H","V","V","H","H","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w11_p7_picks         = ["V","V","V","H","H","V","H","H","H","H","V","V","H","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w11_p8_picks         = ["V","H","H","H","H","H","H","H","H","V","V","H","H","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w11_p9_picks         = ["H","H","V","H","H","H","H","H","H","V","V","H","H","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w11_p10_picks        = [];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w11_p11_picks        = ["H","H","V","H","H","H","H","H","H","H","V","V","H","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w11_p12_picks        = ["H","H","V","H","H","H","H","V","H","H","V","H","V","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w11_p1_weights       = ["8","6","15","13","11","7","14","5","12","4","16","10","3","9"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w11_p2_weights       = ["3","4","5","6","7","8","16","11","15","10","14","13","12","9"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w11_p3_weights       = ["8","6","15","12","11","7","14","3","13","4","16","10","5","9"];</t>
   </si>
   <si>
     <t>Raiders</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w11_p4_weights       = ["4","6","15","13","11","9","12","8","10","3","16","14","5","7"];</t>
+    <t>12</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Week 12 Scores</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w11_p5_weights       = ["5","6","16","14","11","7","12","8","13","4","15","9","3","10"];</t>
+    <t xml:space="preserve">   var w12_p1_picks         = ["H","H","V","H","H","H","V","V","V","H","H","V","H","H","V","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w11_p6_weights       = ["3","6","14","13","9","7","8","4","11","5","16","15","12","10"];</t>
+    <t xml:space="preserve">   var w12_p2_picks         = ["V","H","H","H","H","H","V","V","H","H","H","H","V","H","V","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w11_p7_weights       = ["6","8","16","12","9","10","11","5","14","4","15","7","13","3"];</t>
+    <t xml:space="preserve">   var w12_p3_picks         = ["H","H","V","H","H","H","V","V","V","H","H","V","H","H","V","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w11_p8_weights       = ["4","7","3","14","12","9","15","5","13","6","16","11","8","10"];</t>
+    <t>Falcons</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w11_p9_weights       = ["7","3","15","14","9","4","10","6","13","8","16","11","5","12"];</t>
+    <t xml:space="preserve">   var w12_p4_picks         = ["V","H","V","H","H","H","V","V","H","H","H","V","H","H","V","V"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w11_p10_weights      = [];</t>
+    <t xml:space="preserve">   var w12_p5_picks         = ["H","H","V","H","H","H","V","V","V","H","H","V","H","H","V","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w11_p11_weights      = ["8","6","14","3","11","12","16","10","13","4","15","7","9","5"];</t>
+    <t xml:space="preserve">   var w12_p6_picks         = ["H","V","V","H","H","H","V","V","V","H","H","V","H","H","V","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w11_p12_weights      = ["5","10","15","12","13","9","8","4","14","3","16","7","6","11"];</t>
+    <t xml:space="preserve">   var w12_p7_picks         = ["H","H","V","H","V","H","V","V","H","H","V","V","V","V","V","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w11_winners          = ["H","V","V","H","H","H","V","H","H","V","V","H","H","H"];</t>
+    <t xml:space="preserve">   var w12_p8_picks         = ["H","H","V","H","H","H","V","V","H","H","H","H","V","H","V","H"];</t>
   </si>
   <si>
-    <t>Falcons, Broncos, Jets, Chargers</t>
+    <t>Chargers</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w11_mn_points        = ["48","49","46","42","48","56","38","43","48","","46","45"];</t>
+    <t xml:space="preserve">   var w12_p9_picks         = ["H","H","V","H","H","H","V","V","H","H","H","V","H","H","V","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w11_actual_mn_points = 0;</t>
+    <t xml:space="preserve">   var w12_p10_picks        = ["H","V","H","V","V","V","H","V","V","V","H","H","H","V","H","H"];</t>
   </si>
   <si>
-    <t>Week 11 Final</t>
+    <t xml:space="preserve">   var w12_p11_picks        = ["H","H","V","H","H","H","V","V","V","H","H","V","V","V","V","H"];</t>
   </si>
   <si>
-    <t>'Week 11'!$B$2</t>
+    <t xml:space="preserve">   var w12_p12_picks        = ["V","H","V","H","H","H","V","V","H","H","H","V","H","H","V","H"];</t>
   </si>
   <si>
-    <t>'Week 11'!$C$2</t>
+    <t>Broncos</t>
   </si>
   <si>
-    <t>'Week 11'!$D$2</t>
+    <t xml:space="preserve">   var w12_p1_weights       = ["6","9","15","7","8","14","10","12","1","13","4","11","3","5","16","2"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w12_p2_weights       = ["1","2","3","4","5","6","7","8","9","13","14","12","11","10","15","16"];</t>
+  </si>
+  <si>
+    <t>Jets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w12_p3_weights       = ["2","12","16","6","7","14","8","10","1","13","11","9","4","3","15","5"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w12_p4_weights       = ["2","12","11","6","7","14","8","10","1","13","16","9","4","3","15","5"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w12_p5_weights       = ["4","9","7","3","12","14","11","15","1","13","10","6","8","5","16","2"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w12_p6_weights       = ["6","1","14","7","9","10","2","13","8","11","5","15","4","3","16","12"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w12_p7_weights       = ["9","8","16","12","2","11","14","13","1","7","6","10","5","4","15","3"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w12_p8_weights       = ["5","12","16","8","7","13","6","14","1","11","9","10","2","3","15","4"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w12_p9_weights       = ["2","1","7","6","5","13","12","15","9","14","11","10","3","8","16","4"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w12_p10_weights      = ["15","7","5","8","10","2","16","6","1","9","4","13","11","12","14","3"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w12_p11_weights      = ["2","12","4","6","8","14","7","10","1","13","11","9","16","3","15","5"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w12_p12_weights      = ["8","6","5","7","4","13","12","14","10","11","3","15","2","9","16","1"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w12_winners          = ["H","H","V","H","H","H","V","V","V","H","H","H","V","H","V","V"];</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w12_mn_points        = ["46","46","47","42","47","52","38","49","49","47","42","58"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w12_actual_mn_points = 0;</t>
+  </si>
+  <si>
+    <t>Week 12 Final</t>
+  </si>
+  <si>
+    <t>'Week 12'!$B$2</t>
+  </si>
+  <si>
+    <t>'Week 12'!$C$2</t>
+  </si>
+  <si>
+    <t>'Week 12'!$D$2</t>
   </si>
 </sst>
 </file>
@@ -5185,7 +5194,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="297" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D2" s="112" t="s">
         <v>107</v>
@@ -5195,56 +5204,56 @@
         <v>91</v>
       </c>
       <c r="G2" s="115">
-        <v>-33</v>
+        <v>-36</v>
       </c>
       <c r="H2" s="116"/>
       <c r="I2" s="114" t="s">
         <v>92</v>
       </c>
       <c r="J2" s="115">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="K2" s="116"/>
       <c r="L2" s="114" t="s">
         <v>93</v>
       </c>
       <c r="M2" s="115">
-        <v>-2</v>
+        <v>19</v>
       </c>
       <c r="N2" s="116"/>
       <c r="O2" s="114" t="s">
         <v>94</v>
       </c>
       <c r="P2" s="115">
-        <v>-33</v>
+        <v>-36</v>
       </c>
       <c r="Q2" s="116"/>
       <c r="R2" s="114" t="s">
         <v>95</v>
       </c>
       <c r="S2" s="115">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="T2" s="116"/>
       <c r="U2" s="114" t="s">
         <v>96</v>
       </c>
       <c r="V2" s="115">
-        <v>-33</v>
+        <v>-36</v>
       </c>
       <c r="W2" s="116"/>
       <c r="X2" s="114" t="s">
         <v>97</v>
       </c>
       <c r="Y2" s="115">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z2" s="116"/>
       <c r="AA2" s="114" t="s">
         <v>98</v>
       </c>
       <c r="AB2" s="115">
-        <v>-33</v>
+        <v>-5</v>
       </c>
       <c r="AC2" s="116"/>
       <c r="AD2" s="114" t="s">
@@ -5258,21 +5267,21 @@
         <v>100</v>
       </c>
       <c r="AH2" s="115">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="AI2" s="116"/>
       <c r="AJ2" s="114" t="s">
         <v>101</v>
       </c>
       <c r="AK2" s="115">
-        <v>-33</v>
+        <v>-36</v>
       </c>
       <c r="AL2" s="116"/>
       <c r="AM2" s="114" t="s">
         <v>102</v>
       </c>
       <c r="AN2" s="115">
-        <v>20</v>
+        <v>-5</v>
       </c>
       <c r="AO2" s="117"/>
       <c r="AP2" s="3"/>
@@ -5291,7 +5300,7 @@
       <c r="AV2" s="305"/>
       <c r="AW2" s="3"/>
       <c r="BE2" s="300" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="BF2" s="301"/>
       <c r="BG2" s="302"/>
@@ -5443,7 +5452,7 @@
       </c>
       <c r="AP3" s="3"/>
       <c r="AR3" s="11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS3" s="9" t="s">
         <v>52</v>
@@ -5511,13 +5520,13 @@
     </row>
     <row r="4" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="180" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C4" s="181" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="181" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="E4" s="182" t="s">
         <v>60</v>
@@ -5526,25 +5535,25 @@
         <v>60</v>
       </c>
       <c r="G4" s="184">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H4" s="185" t="s">
         <v>0</v>
       </c>
       <c r="I4" s="186" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="J4" s="184">
-        <v>3</v>
-      </c>
-      <c r="K4" s="185" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K4" s="185">
+        <v>-1</v>
       </c>
       <c r="L4" s="186" t="s">
         <v>60</v>
       </c>
       <c r="M4" s="184">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N4" s="185" t="s">
         <v>0</v>
@@ -5553,58 +5562,62 @@
         <v>88</v>
       </c>
       <c r="P4" s="184">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q4" s="185">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="R4" s="186" t="s">
         <v>60</v>
       </c>
       <c r="S4" s="184">
+        <v>4</v>
+      </c>
+      <c r="T4" s="185" t="s">
+        <v>0</v>
+      </c>
+      <c r="U4" s="186" t="s">
+        <v>60</v>
+      </c>
+      <c r="V4" s="184">
+        <v>6</v>
+      </c>
+      <c r="W4" s="185" t="s">
+        <v>0</v>
+      </c>
+      <c r="X4" s="186" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y4" s="184">
+        <v>9</v>
+      </c>
+      <c r="Z4" s="185" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="186" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB4" s="184">
         <v>5</v>
       </c>
-      <c r="T4" s="185" t="s">
-        <v>0</v>
-      </c>
-      <c r="U4" s="186" t="s">
-        <v>88</v>
-      </c>
-      <c r="V4" s="184">
-        <v>3</v>
-      </c>
-      <c r="W4" s="185">
-        <v>-3</v>
-      </c>
-      <c r="X4" s="186" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y4" s="184">
-        <v>6</v>
-      </c>
-      <c r="Z4" s="185">
-        <v>-6</v>
-      </c>
-      <c r="AA4" s="186" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB4" s="184">
-        <v>4</v>
-      </c>
-      <c r="AC4" s="185">
-        <v>-4</v>
+      <c r="AC4" s="185" t="s">
+        <v>0</v>
       </c>
       <c r="AD4" s="186" t="s">
         <v>60</v>
       </c>
       <c r="AE4" s="184">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AF4" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="AG4" s="186"/>
-      <c r="AH4" s="184"/>
+      <c r="AG4" s="186" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH4" s="184">
+        <v>15</v>
+      </c>
       <c r="AI4" s="185" t="s">
         <v>0</v>
       </c>
@@ -5612,40 +5625,40 @@
         <v>60</v>
       </c>
       <c r="AK4" s="184">
+        <v>2</v>
+      </c>
+      <c r="AL4" s="185" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="186" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN4" s="184">
         <v>8</v>
       </c>
-      <c r="AL4" s="185" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="186" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN4" s="184">
-        <v>5</v>
-      </c>
-      <c r="AO4" s="187" t="s">
-        <v>0</v>
+      <c r="AO4" s="187">
+        <v>-8</v>
       </c>
       <c r="AT4" s="188" t="s">
         <v>60</v>
       </c>
       <c r="AU4" s="184">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV4" s="187" t="s">
         <v>0</v>
       </c>
       <c r="AX4" s="4">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="AY4" s="4">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="AZ4" s="4">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="BA4" s="4">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="BB4" s="4">
         <v>1</v>
@@ -5657,10 +5670,10 @@
         <v>1</v>
       </c>
       <c r="BF4" s="60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BG4" s="61">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="BH4" s="189"/>
       <c r="BI4" s="62">
@@ -5670,10 +5683,10 @@
         <v>99</v>
       </c>
       <c r="BK4" s="64">
-        <v>95.5</v>
+        <v>96.818181818181813</v>
       </c>
       <c r="BL4" s="65">
-        <v>955</v>
+        <v>1065</v>
       </c>
       <c r="BM4" s="172"/>
       <c r="BN4" s="66">
@@ -5686,7 +5699,7 @@
         <v>124</v>
       </c>
       <c r="BQ4" s="69">
-        <v>-33</v>
+        <v>-36</v>
       </c>
       <c r="BR4" s="70">
         <v>4</v>
@@ -5698,7 +5711,7 @@
         <v>61</v>
       </c>
       <c r="BU4" s="71">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="BV4" s="72" t="s">
         <v>0</v>
@@ -5707,27 +5720,27 @@
         <v>0</v>
       </c>
       <c r="BY4" s="12" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="190" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C5" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="191" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E5" s="192" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F5" s="193" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="G5" s="194">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H5" s="195" t="s">
         <v>0</v>
@@ -5736,34 +5749,34 @@
         <v>60</v>
       </c>
       <c r="J5" s="194">
-        <v>4</v>
-      </c>
-      <c r="K5" s="195">
-        <v>-4</v>
+        <v>2</v>
+      </c>
+      <c r="K5" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="L5" s="196" t="s">
         <v>60</v>
       </c>
       <c r="M5" s="194">
-        <v>6</v>
-      </c>
-      <c r="N5" s="195">
-        <v>-6</v>
+        <v>12</v>
+      </c>
+      <c r="N5" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="O5" s="196" t="s">
         <v>60</v>
       </c>
       <c r="P5" s="194">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="195">
-        <v>-6</v>
+        <v>12</v>
+      </c>
+      <c r="Q5" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="R5" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="S5" s="194">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T5" s="195" t="s">
         <v>0</v>
@@ -5772,13 +5785,13 @@
         <v>88</v>
       </c>
       <c r="V5" s="194">
-        <v>6</v>
-      </c>
-      <c r="W5" s="195" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="W5" s="195">
+        <v>-1</v>
       </c>
       <c r="X5" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="Y5" s="194">
         <v>8</v>
@@ -5790,42 +5803,46 @@
         <v>60</v>
       </c>
       <c r="AB5" s="194">
-        <v>7</v>
-      </c>
-      <c r="AC5" s="195">
-        <v>-7</v>
+        <v>12</v>
+      </c>
+      <c r="AC5" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AD5" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AE5" s="194">
-        <v>3</v>
-      </c>
-      <c r="AF5" s="195">
-        <v>-3</v>
-      </c>
-      <c r="AG5" s="196"/>
-      <c r="AH5" s="194"/>
-      <c r="AI5" s="195" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AF5" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH5" s="194">
+        <v>7</v>
+      </c>
+      <c r="AI5" s="195">
+        <v>-7</v>
       </c>
       <c r="AJ5" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AK5" s="194">
-        <v>6</v>
-      </c>
-      <c r="AL5" s="195">
-        <v>-6</v>
+        <v>12</v>
+      </c>
+      <c r="AL5" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AM5" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AN5" s="194">
-        <v>10</v>
-      </c>
-      <c r="AO5" s="197">
-        <v>-10</v>
+        <v>6</v>
+      </c>
+      <c r="AO5" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AR5" s="8"/>
       <c r="AS5" s="9"/>
@@ -5833,22 +5850,22 @@
         <v>60</v>
       </c>
       <c r="AU5" s="194">
-        <v>4</v>
-      </c>
-      <c r="AV5" s="197">
-        <v>-4</v>
+        <v>9</v>
+      </c>
+      <c r="AV5" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AX5" s="4">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="AY5" s="4">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="AZ5" s="4">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="BA5" s="4">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="BB5" s="4">
         <v>2</v>
@@ -5860,23 +5877,23 @@
         <v>2</v>
       </c>
       <c r="BF5" s="77" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="BG5" s="78">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="BH5" s="189"/>
       <c r="BI5" s="79">
         <v>2</v>
       </c>
       <c r="BJ5" s="80" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="BK5" s="81">
-        <v>88.5</v>
+        <v>90.727272727272734</v>
       </c>
       <c r="BL5" s="82">
-        <v>885</v>
+        <v>998</v>
       </c>
       <c r="BM5" s="172"/>
       <c r="BN5" s="79">
@@ -5886,10 +5903,10 @@
         <v>97</v>
       </c>
       <c r="BP5" s="83">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BQ5" s="84">
-        <v>-33</v>
+        <v>-36</v>
       </c>
       <c r="BR5" s="85">
         <v>2</v>
@@ -5910,7 +5927,7 @@
         <v>0</v>
       </c>
       <c r="BY5" s="12" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5921,7 +5938,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="191" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="E6" s="192" t="s">
         <v>88</v>
@@ -5936,19 +5953,19 @@
         <v>0</v>
       </c>
       <c r="I6" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="J6" s="194">
-        <v>5</v>
-      </c>
-      <c r="K6" s="195" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="K6" s="195">
+        <v>-3</v>
       </c>
       <c r="L6" s="196" t="s">
         <v>88</v>
       </c>
       <c r="M6" s="194">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N6" s="195" t="s">
         <v>0</v>
@@ -5957,7 +5974,7 @@
         <v>88</v>
       </c>
       <c r="P6" s="194">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="195" t="s">
         <v>0</v>
@@ -5966,7 +5983,7 @@
         <v>88</v>
       </c>
       <c r="S6" s="194">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="T6" s="195" t="s">
         <v>0</v>
@@ -5990,33 +6007,37 @@
         <v>0</v>
       </c>
       <c r="AA6" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AB6" s="194">
-        <v>3</v>
-      </c>
-      <c r="AC6" s="195">
-        <v>-3</v>
+        <v>16</v>
+      </c>
+      <c r="AC6" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AD6" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AE6" s="194">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AF6" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="AG6" s="196"/>
-      <c r="AH6" s="194"/>
-      <c r="AI6" s="195" t="s">
-        <v>0</v>
+      <c r="AG6" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH6" s="194">
+        <v>5</v>
+      </c>
+      <c r="AI6" s="195">
+        <v>-5</v>
       </c>
       <c r="AJ6" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AK6" s="194">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AL6" s="195" t="s">
         <v>0</v>
@@ -6025,7 +6046,7 @@
         <v>88</v>
       </c>
       <c r="AN6" s="194">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AO6" s="197" t="s">
         <v>0</v>
@@ -6036,22 +6057,22 @@
         <v>88</v>
       </c>
       <c r="AU6" s="194">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AV6" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX6" s="4">
-        <v>-137</v>
+        <v>-103</v>
       </c>
       <c r="AY6" s="4">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="AZ6" s="4">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="BA6" s="4">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="BB6" s="4">
         <v>3</v>
@@ -6060,39 +6081,39 @@
         <v>1</v>
       </c>
       <c r="BE6" s="76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF6" s="77" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="BG6" s="78">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="BH6" s="189"/>
       <c r="BI6" s="79">
         <v>3</v>
       </c>
       <c r="BJ6" s="80" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="BK6" s="81">
-        <v>88</v>
+        <v>90.63636363636364</v>
       </c>
       <c r="BL6" s="82">
-        <v>880</v>
+        <v>997</v>
       </c>
       <c r="BM6" s="172"/>
       <c r="BN6" s="79">
         <v>3</v>
       </c>
       <c r="BO6" s="80" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="BP6" s="83">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BQ6" s="84">
-        <v>-33</v>
+        <v>-36</v>
       </c>
       <c r="BR6" s="85">
         <v>1</v>
@@ -6110,21 +6131,21 @@
         <v>61</v>
       </c>
       <c r="BW6" s="88">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BY6" s="12" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="190" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C7" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="191" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="E7" s="192" t="s">
         <v>60</v>
@@ -6133,7 +6154,7 @@
         <v>60</v>
       </c>
       <c r="G7" s="194">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H7" s="195" t="s">
         <v>0</v>
@@ -6142,7 +6163,7 @@
         <v>60</v>
       </c>
       <c r="J7" s="194">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K7" s="195" t="s">
         <v>0</v>
@@ -6151,7 +6172,7 @@
         <v>60</v>
       </c>
       <c r="M7" s="194">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N7" s="195" t="s">
         <v>0</v>
@@ -6160,7 +6181,7 @@
         <v>60</v>
       </c>
       <c r="P7" s="194">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="Q7" s="195" t="s">
         <v>0</v>
@@ -6169,7 +6190,7 @@
         <v>60</v>
       </c>
       <c r="S7" s="194">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="T7" s="195" t="s">
         <v>0</v>
@@ -6178,7 +6199,7 @@
         <v>60</v>
       </c>
       <c r="V7" s="194">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="W7" s="195" t="s">
         <v>0</v>
@@ -6196,7 +6217,7 @@
         <v>60</v>
       </c>
       <c r="AB7" s="194">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AC7" s="195" t="s">
         <v>0</v>
@@ -6205,21 +6226,25 @@
         <v>60</v>
       </c>
       <c r="AE7" s="194">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AF7" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="AG7" s="196"/>
-      <c r="AH7" s="194"/>
-      <c r="AI7" s="195" t="s">
-        <v>0</v>
+      <c r="AG7" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH7" s="194">
+        <v>8</v>
+      </c>
+      <c r="AI7" s="195">
+        <v>-8</v>
       </c>
       <c r="AJ7" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AK7" s="194">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AL7" s="195" t="s">
         <v>0</v>
@@ -6228,7 +6253,7 @@
         <v>60</v>
       </c>
       <c r="AN7" s="194">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AO7" s="197" t="s">
         <v>0</v>
@@ -6237,22 +6262,22 @@
         <v>60</v>
       </c>
       <c r="AU7" s="194">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AV7" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX7" s="4">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="AY7" s="4">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="AZ7" s="4">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="BA7" s="4">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="BB7" s="4">
         <v>4</v>
@@ -6261,26 +6286,26 @@
         <v>1</v>
       </c>
       <c r="BE7" s="76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF7" s="77" t="s">
         <v>95</v>
       </c>
       <c r="BG7" s="78">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="BH7" s="189"/>
       <c r="BI7" s="79">
         <v>4</v>
       </c>
       <c r="BJ7" s="80" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="BK7" s="81">
-        <v>87.7</v>
+        <v>90.272727272727266</v>
       </c>
       <c r="BL7" s="82">
-        <v>877</v>
+        <v>993</v>
       </c>
       <c r="BM7" s="172"/>
       <c r="BN7" s="79">
@@ -6290,10 +6315,10 @@
         <v>92</v>
       </c>
       <c r="BP7" s="83">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="BQ7" s="84">
-        <v>-33</v>
+        <v>-36</v>
       </c>
       <c r="BR7" s="85">
         <v>1</v>
@@ -6314,18 +6339,18 @@
         <v>0</v>
       </c>
       <c r="BY7" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="190" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C8" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="191" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="E8" s="192" t="s">
         <v>60</v>
@@ -6334,7 +6359,7 @@
         <v>60</v>
       </c>
       <c r="G8" s="194">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H8" s="195" t="s">
         <v>0</v>
@@ -6343,7 +6368,7 @@
         <v>60</v>
       </c>
       <c r="J8" s="194">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K8" s="195" t="s">
         <v>0</v>
@@ -6352,7 +6377,7 @@
         <v>60</v>
       </c>
       <c r="M8" s="194">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N8" s="195" t="s">
         <v>0</v>
@@ -6361,7 +6386,7 @@
         <v>60</v>
       </c>
       <c r="P8" s="194">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Q8" s="195" t="s">
         <v>0</v>
@@ -6370,7 +6395,7 @@
         <v>60</v>
       </c>
       <c r="S8" s="194">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T8" s="195" t="s">
         <v>0</v>
@@ -6385,19 +6410,19 @@
         <v>0</v>
       </c>
       <c r="X8" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="Y8" s="194">
-        <v>9</v>
-      </c>
-      <c r="Z8" s="195" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="Z8" s="195">
+        <v>-2</v>
       </c>
       <c r="AA8" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AB8" s="194">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AC8" s="195" t="s">
         <v>0</v>
@@ -6406,21 +6431,25 @@
         <v>60</v>
       </c>
       <c r="AE8" s="194">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AF8" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="AG8" s="196"/>
-      <c r="AH8" s="194"/>
-      <c r="AI8" s="195" t="s">
-        <v>0</v>
+      <c r="AG8" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH8" s="194">
+        <v>10</v>
+      </c>
+      <c r="AI8" s="195">
+        <v>-10</v>
       </c>
       <c r="AJ8" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AK8" s="194">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AL8" s="195" t="s">
         <v>0</v>
@@ -6429,7 +6458,7 @@
         <v>60</v>
       </c>
       <c r="AN8" s="194">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AO8" s="197" t="s">
         <v>0</v>
@@ -6438,22 +6467,22 @@
         <v>60</v>
       </c>
       <c r="AU8" s="194">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AV8" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX8" s="4">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="AY8" s="4">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="AZ8" s="4">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="BA8" s="4">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="BB8" s="4">
         <v>5</v>
@@ -6465,36 +6494,36 @@
         <v>5</v>
       </c>
       <c r="BF8" s="77" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="BG8" s="78">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="BH8" s="189"/>
       <c r="BI8" s="79">
         <v>5</v>
       </c>
       <c r="BJ8" s="80" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="BK8" s="81">
-        <v>87.4</v>
+        <v>89.545454545454547</v>
       </c>
       <c r="BL8" s="82">
-        <v>874</v>
+        <v>985</v>
       </c>
       <c r="BM8" s="172"/>
       <c r="BN8" s="79">
         <v>4</v>
       </c>
       <c r="BO8" s="80" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="BP8" s="83">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="BQ8" s="84">
-        <v>-33</v>
+        <v>-36</v>
       </c>
       <c r="BR8" s="85">
         <v>1</v>
@@ -6515,18 +6544,18 @@
         <v>0</v>
       </c>
       <c r="BY8" s="12" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="190" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C9" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="191" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E9" s="192" t="s">
         <v>60</v>
@@ -6535,7 +6564,7 @@
         <v>60</v>
       </c>
       <c r="G9" s="194">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H9" s="195" t="s">
         <v>0</v>
@@ -6544,7 +6573,7 @@
         <v>60</v>
       </c>
       <c r="J9" s="194">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K9" s="195" t="s">
         <v>0</v>
@@ -6553,7 +6582,7 @@
         <v>60</v>
       </c>
       <c r="M9" s="194">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N9" s="195" t="s">
         <v>0</v>
@@ -6562,43 +6591,43 @@
         <v>60</v>
       </c>
       <c r="P9" s="194">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Q9" s="195" t="s">
         <v>0</v>
       </c>
       <c r="R9" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="S9" s="194">
-        <v>7</v>
-      </c>
-      <c r="T9" s="195">
-        <v>-7</v>
+        <v>14</v>
+      </c>
+      <c r="T9" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="U9" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="V9" s="194">
-        <v>7</v>
-      </c>
-      <c r="W9" s="195">
-        <v>-7</v>
+        <v>10</v>
+      </c>
+      <c r="W9" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="X9" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="Y9" s="194">
-        <v>10</v>
-      </c>
-      <c r="Z9" s="195">
-        <v>-10</v>
+        <v>11</v>
+      </c>
+      <c r="Z9" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AA9" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AB9" s="194">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AC9" s="195" t="s">
         <v>0</v>
@@ -6607,21 +6636,25 @@
         <v>60</v>
       </c>
       <c r="AE9" s="194">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AF9" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="AG9" s="196"/>
-      <c r="AH9" s="194"/>
-      <c r="AI9" s="195" t="s">
-        <v>0</v>
+      <c r="AG9" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH9" s="194">
+        <v>2</v>
+      </c>
+      <c r="AI9" s="195">
+        <v>-2</v>
       </c>
       <c r="AJ9" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AK9" s="194">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AL9" s="195" t="s">
         <v>0</v>
@@ -6630,7 +6663,7 @@
         <v>60</v>
       </c>
       <c r="AN9" s="194">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AO9" s="197" t="s">
         <v>0</v>
@@ -6639,22 +6672,22 @@
         <v>60</v>
       </c>
       <c r="AU9" s="194">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AV9" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX9" s="4">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="AY9" s="4">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="AZ9" s="4">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="BA9" s="4">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="BB9" s="4">
         <v>6</v>
@@ -6666,36 +6699,36 @@
         <v>6</v>
       </c>
       <c r="BF9" s="77" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="BG9" s="78">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="BH9" s="189"/>
       <c r="BI9" s="79">
         <v>6</v>
       </c>
       <c r="BJ9" s="80" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="BK9" s="81">
-        <v>87.3</v>
+        <v>89.454545454545453</v>
       </c>
       <c r="BL9" s="82">
-        <v>873</v>
+        <v>984</v>
       </c>
       <c r="BM9" s="172"/>
       <c r="BN9" s="79">
         <v>4</v>
       </c>
       <c r="BO9" s="80" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="BP9" s="83">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="BQ9" s="84">
-        <v>-33</v>
+        <v>-36</v>
       </c>
       <c r="BR9" s="85">
         <v>1</v>
@@ -6716,146 +6749,150 @@
         <v>0</v>
       </c>
       <c r="BY9" s="12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="190" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C10" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="191" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="E10" s="192" t="s">
         <v>88</v>
       </c>
       <c r="F10" s="193" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="194">
+        <v>10</v>
+      </c>
+      <c r="H10" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="194">
+        <v>7</v>
+      </c>
+      <c r="K10" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="M10" s="194">
+        <v>8</v>
+      </c>
+      <c r="N10" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="O10" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="P10" s="194">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="R10" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="S10" s="194">
+        <v>11</v>
+      </c>
+      <c r="T10" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="U10" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="V10" s="194">
+        <v>2</v>
+      </c>
+      <c r="W10" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="X10" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y10" s="194">
+        <v>14</v>
+      </c>
+      <c r="Z10" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB10" s="194">
+        <v>6</v>
+      </c>
+      <c r="AC10" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE10" s="194">
+        <v>12</v>
+      </c>
+      <c r="AF10" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="194">
-        <v>14</v>
-      </c>
-      <c r="H10" s="195">
-        <v>-14</v>
-      </c>
-      <c r="I10" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" s="194">
+      <c r="AH10" s="194">
         <v>16</v>
       </c>
-      <c r="K10" s="195">
+      <c r="AI10" s="195">
         <v>-16</v>
       </c>
-      <c r="L10" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="M10" s="194">
-        <v>14</v>
-      </c>
-      <c r="N10" s="195">
-        <v>-14</v>
-      </c>
-      <c r="O10" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="P10" s="194">
+      <c r="AJ10" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK10" s="194">
+        <v>7</v>
+      </c>
+      <c r="AL10" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN10" s="194">
         <v>12</v>
       </c>
-      <c r="Q10" s="195">
-        <v>-12</v>
-      </c>
-      <c r="R10" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="S10" s="194">
-        <v>12</v>
-      </c>
-      <c r="T10" s="195">
-        <v>-12</v>
-      </c>
-      <c r="U10" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="V10" s="194">
-        <v>8</v>
-      </c>
-      <c r="W10" s="195">
-        <v>-8</v>
-      </c>
-      <c r="X10" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y10" s="194">
-        <v>11</v>
-      </c>
-      <c r="Z10" s="195">
-        <v>-11</v>
-      </c>
-      <c r="AA10" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB10" s="194">
-        <v>15</v>
-      </c>
-      <c r="AC10" s="195">
-        <v>-15</v>
-      </c>
-      <c r="AD10" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE10" s="194">
+      <c r="AO10" s="197" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="198" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU10" s="194">
         <v>10</v>
       </c>
-      <c r="AF10" s="195">
-        <v>-10</v>
-      </c>
-      <c r="AG10" s="196"/>
-      <c r="AH10" s="194"/>
-      <c r="AI10" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK10" s="194">
-        <v>16</v>
-      </c>
-      <c r="AL10" s="195">
-        <v>-16</v>
-      </c>
-      <c r="AM10" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN10" s="194">
-        <v>8</v>
-      </c>
-      <c r="AO10" s="197">
-        <v>-8</v>
-      </c>
-      <c r="AT10" s="198" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU10" s="194">
-        <v>13</v>
-      </c>
-      <c r="AV10" s="197">
-        <v>-13</v>
+      <c r="AV10" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AX10" s="4">
-        <v>136</v>
+        <v>-81</v>
       </c>
       <c r="AY10" s="4">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="AZ10" s="4">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="BA10" s="4">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="BB10" s="4">
         <v>7</v>
@@ -6867,10 +6904,10 @@
         <v>7</v>
       </c>
       <c r="BF10" s="77" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="BG10" s="78">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="BH10" s="189"/>
       <c r="BI10" s="79">
@@ -6880,10 +6917,10 @@
         <v>91</v>
       </c>
       <c r="BK10" s="81">
-        <v>84.9</v>
+        <v>88.090909090909093</v>
       </c>
       <c r="BL10" s="82">
-        <v>849</v>
+        <v>969</v>
       </c>
       <c r="BM10" s="172"/>
       <c r="BN10" s="79">
@@ -6893,10 +6930,10 @@
         <v>100</v>
       </c>
       <c r="BP10" s="83">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="BQ10" s="84">
-        <v>-33</v>
+        <v>-36</v>
       </c>
       <c r="BR10" s="85">
         <v>1</v>
@@ -6917,110 +6954,114 @@
         <v>0</v>
       </c>
       <c r="BY10" s="12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="190" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C11" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="191" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="E11" s="192" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F11" s="193" t="s">
         <v>88</v>
       </c>
       <c r="G11" s="194">
-        <v>5</v>
-      </c>
-      <c r="H11" s="195">
-        <v>-5</v>
+        <v>12</v>
+      </c>
+      <c r="H11" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="I11" s="196" t="s">
         <v>88</v>
       </c>
       <c r="J11" s="194">
-        <v>11</v>
-      </c>
-      <c r="K11" s="195">
-        <v>-11</v>
+        <v>8</v>
+      </c>
+      <c r="K11" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="L11" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="M11" s="194">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N11" s="195" t="s">
         <v>0</v>
       </c>
       <c r="O11" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="P11" s="194">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q11" s="195" t="s">
         <v>0</v>
       </c>
       <c r="R11" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="S11" s="194">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="T11" s="195" t="s">
         <v>0</v>
       </c>
       <c r="U11" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="V11" s="194">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="W11" s="195" t="s">
         <v>0</v>
       </c>
       <c r="X11" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="Y11" s="194">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="Z11" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AA11" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AB11" s="194">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AC11" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AD11" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AE11" s="194">
+        <v>15</v>
+      </c>
+      <c r="AF11" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH11" s="194">
         <v>6</v>
       </c>
-      <c r="AF11" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="196"/>
-      <c r="AH11" s="194"/>
       <c r="AI11" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AJ11" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AK11" s="194">
         <v>10</v>
@@ -7032,31 +7073,31 @@
         <v>88</v>
       </c>
       <c r="AN11" s="194">
-        <v>4</v>
-      </c>
-      <c r="AO11" s="197">
-        <v>-4</v>
+        <v>14</v>
+      </c>
+      <c r="AO11" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AT11" s="198" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AU11" s="194">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AV11" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX11" s="4">
-        <v>29</v>
+        <v>-140</v>
       </c>
       <c r="AY11" s="4">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="AZ11" s="4">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="BA11" s="4">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="BB11" s="4">
         <v>8</v>
@@ -7065,13 +7106,13 @@
         <v>1</v>
       </c>
       <c r="BE11" s="76">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BF11" s="77" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="BG11" s="78">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="BH11" s="189"/>
       <c r="BI11" s="79">
@@ -7081,29 +7122,29 @@
         <v>92</v>
       </c>
       <c r="BK11" s="81">
-        <v>84.7</v>
+        <v>86.727272727272734</v>
       </c>
       <c r="BL11" s="82">
-        <v>847</v>
+        <v>954</v>
       </c>
       <c r="BM11" s="172"/>
       <c r="BN11" s="79">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BO11" s="80" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="BP11" s="83">
-        <v>-33</v>
+        <v>-5</v>
       </c>
       <c r="BQ11" s="84">
-        <v>-33</v>
-      </c>
-      <c r="BR11" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS11" s="86" t="s">
-        <v>0</v>
+        <v>-36</v>
+      </c>
+      <c r="BR11" s="85">
+        <v>1</v>
+      </c>
+      <c r="BS11" s="86">
+        <v>31</v>
       </c>
       <c r="BT11" s="87" t="s">
         <v>0</v>
@@ -7118,27 +7159,27 @@
         <v>0</v>
       </c>
       <c r="BY11" s="12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="190" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C12" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="191" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E12" s="192" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F12" s="193" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="G12" s="194">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H12" s="195" t="s">
         <v>0</v>
@@ -7147,16 +7188,16 @@
         <v>60</v>
       </c>
       <c r="J12" s="194">
-        <v>15</v>
-      </c>
-      <c r="K12" s="195" t="s">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="K12" s="195">
+        <v>-9</v>
       </c>
       <c r="L12" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="M12" s="194">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="N12" s="195" t="s">
         <v>0</v>
@@ -7165,25 +7206,25 @@
         <v>60</v>
       </c>
       <c r="P12" s="194">
-        <v>10</v>
-      </c>
-      <c r="Q12" s="195" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Q12" s="195">
+        <v>-1</v>
       </c>
       <c r="R12" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="S12" s="194">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="T12" s="195" t="s">
         <v>0</v>
       </c>
       <c r="U12" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="V12" s="194">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="W12" s="195" t="s">
         <v>0</v>
@@ -7192,39 +7233,43 @@
         <v>60</v>
       </c>
       <c r="Y12" s="194">
-        <v>14</v>
-      </c>
-      <c r="Z12" s="195" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Z12" s="195">
+        <v>-1</v>
       </c>
       <c r="AA12" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AB12" s="194">
-        <v>13</v>
-      </c>
-      <c r="AC12" s="195" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AC12" s="195">
+        <v>-1</v>
       </c>
       <c r="AD12" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AE12" s="194">
-        <v>13</v>
-      </c>
-      <c r="AF12" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="196"/>
-      <c r="AH12" s="194"/>
+        <v>9</v>
+      </c>
+      <c r="AF12" s="195">
+        <v>-9</v>
+      </c>
+      <c r="AG12" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH12" s="194">
+        <v>1</v>
+      </c>
       <c r="AI12" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AJ12" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AK12" s="194">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AL12" s="195" t="s">
         <v>0</v>
@@ -7233,31 +7278,31 @@
         <v>60</v>
       </c>
       <c r="AN12" s="194">
-        <v>14</v>
-      </c>
-      <c r="AO12" s="197" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="AO12" s="197">
+        <v>-10</v>
       </c>
       <c r="AT12" s="198" t="s">
         <v>60</v>
       </c>
       <c r="AU12" s="194">
-        <v>15</v>
-      </c>
-      <c r="AV12" s="197" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="AV12" s="197">
+        <v>-2</v>
       </c>
       <c r="AX12" s="4">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="AY12" s="4">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="AZ12" s="4">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="BA12" s="4">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="BB12" s="4">
         <v>9</v>
@@ -7269,10 +7314,10 @@
         <v>9</v>
       </c>
       <c r="BF12" s="77" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="BG12" s="78">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="BH12" s="189"/>
       <c r="BI12" s="79">
@@ -7282,23 +7327,23 @@
         <v>98</v>
       </c>
       <c r="BK12" s="81">
-        <v>80.099999999999994</v>
+        <v>84.727272727272734</v>
       </c>
       <c r="BL12" s="82">
-        <v>801</v>
+        <v>932</v>
       </c>
       <c r="BM12" s="172"/>
       <c r="BN12" s="79">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BO12" s="80" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="BP12" s="83">
-        <v>-33</v>
+        <v>-36</v>
       </c>
       <c r="BQ12" s="84">
-        <v>-33</v>
+        <v>-36</v>
       </c>
       <c r="BR12" s="85" t="s">
         <v>0</v>
@@ -7319,27 +7364,27 @@
         <v>0</v>
       </c>
       <c r="BY12" s="12" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="190" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C13" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="191" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E13" s="192" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F13" s="193" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="G13" s="194">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H13" s="195" t="s">
         <v>0</v>
@@ -7348,16 +7393,16 @@
         <v>60</v>
       </c>
       <c r="J13" s="194">
-        <v>10</v>
-      </c>
-      <c r="K13" s="195">
-        <v>-10</v>
+        <v>13</v>
+      </c>
+      <c r="K13" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="L13" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="M13" s="194">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="N13" s="195" t="s">
         <v>0</v>
@@ -7366,25 +7411,25 @@
         <v>60</v>
       </c>
       <c r="P13" s="194">
-        <v>3</v>
-      </c>
-      <c r="Q13" s="195">
-        <v>-3</v>
+        <v>13</v>
+      </c>
+      <c r="Q13" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="R13" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="S13" s="194">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="T13" s="195" t="s">
         <v>0</v>
       </c>
       <c r="U13" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="V13" s="194">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="W13" s="195" t="s">
         <v>0</v>
@@ -7393,72 +7438,76 @@
         <v>60</v>
       </c>
       <c r="Y13" s="194">
-        <v>4</v>
-      </c>
-      <c r="Z13" s="195">
-        <v>-4</v>
+        <v>7</v>
+      </c>
+      <c r="Z13" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AA13" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB13" s="194">
+        <v>11</v>
+      </c>
+      <c r="AC13" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE13" s="194">
+        <v>14</v>
+      </c>
+      <c r="AF13" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="AB13" s="194">
-        <v>6</v>
-      </c>
-      <c r="AC13" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE13" s="194">
-        <v>8</v>
-      </c>
-      <c r="AF13" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="196"/>
-      <c r="AH13" s="194"/>
-      <c r="AI13" s="195" t="s">
-        <v>0</v>
+      <c r="AH13" s="194">
+        <v>9</v>
+      </c>
+      <c r="AI13" s="195">
+        <v>-9</v>
       </c>
       <c r="AJ13" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AK13" s="194">
-        <v>4</v>
-      </c>
-      <c r="AL13" s="195">
-        <v>-4</v>
+        <v>13</v>
+      </c>
+      <c r="AL13" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AM13" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AN13" s="194">
-        <v>3</v>
-      </c>
-      <c r="AO13" s="197">
-        <v>-3</v>
+        <v>11</v>
+      </c>
+      <c r="AO13" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AT13" s="198" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AU13" s="194">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AV13" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX13" s="4">
-        <v>-7</v>
+        <v>123</v>
       </c>
       <c r="AY13" s="4">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="AZ13" s="4">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="BA13" s="4">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="BB13" s="4">
         <v>10</v>
@@ -7470,36 +7519,36 @@
         <v>10</v>
       </c>
       <c r="BF13" s="77" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BG13" s="78">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="BH13" s="189"/>
       <c r="BI13" s="79">
         <v>10</v>
       </c>
       <c r="BJ13" s="80" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="BK13" s="81">
-        <v>79.3</v>
+        <v>82.272727272727266</v>
       </c>
       <c r="BL13" s="82">
-        <v>793</v>
+        <v>905</v>
       </c>
       <c r="BM13" s="172"/>
       <c r="BN13" s="79">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BO13" s="80" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="BP13" s="83">
-        <v>-33</v>
+        <v>-36</v>
       </c>
       <c r="BQ13" s="84">
-        <v>-33</v>
+        <v>-36</v>
       </c>
       <c r="BR13" s="85" t="s">
         <v>0</v>
@@ -7520,33 +7569,33 @@
         <v>0</v>
       </c>
       <c r="BY13" s="12" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="190" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C14" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="191" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E14" s="192" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F14" s="193" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="G14" s="194">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H14" s="195" t="s">
         <v>0</v>
       </c>
       <c r="I14" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="J14" s="194">
         <v>14</v>
@@ -7555,16 +7604,16 @@
         <v>0</v>
       </c>
       <c r="L14" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="M14" s="194">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="N14" s="195" t="s">
         <v>0</v>
       </c>
       <c r="O14" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="P14" s="194">
         <v>16</v>
@@ -7573,19 +7622,19 @@
         <v>0</v>
       </c>
       <c r="R14" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="S14" s="194">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T14" s="195" t="s">
         <v>0</v>
       </c>
       <c r="U14" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="V14" s="194">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="W14" s="195" t="s">
         <v>0</v>
@@ -7594,72 +7643,76 @@
         <v>88</v>
       </c>
       <c r="Y14" s="194">
-        <v>15</v>
-      </c>
-      <c r="Z14" s="195" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="Z14" s="195">
+        <v>-6</v>
       </c>
       <c r="AA14" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AB14" s="194">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AC14" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AD14" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AE14" s="194">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AF14" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="AG14" s="196"/>
-      <c r="AH14" s="194"/>
+      <c r="AG14" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH14" s="194">
+        <v>4</v>
+      </c>
       <c r="AI14" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AJ14" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AK14" s="194">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AL14" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AM14" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AN14" s="194">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="AO14" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AT14" s="198" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AU14" s="194">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AV14" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX14" s="4">
-        <v>-171</v>
+        <v>92</v>
       </c>
       <c r="AY14" s="4">
-        <v>171</v>
+        <v>92</v>
       </c>
       <c r="AZ14" s="4">
-        <v>171</v>
+        <v>92</v>
       </c>
       <c r="BA14" s="4">
-        <v>171</v>
+        <v>92</v>
       </c>
       <c r="BB14" s="4">
         <v>11</v>
@@ -7671,36 +7724,36 @@
         <v>11</v>
       </c>
       <c r="BF14" s="77" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="BG14" s="78">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="BH14" s="189"/>
       <c r="BI14" s="79">
         <v>11</v>
       </c>
       <c r="BJ14" s="80" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="BK14" s="81">
-        <v>78.599999999999994</v>
+        <v>81.545454545454547</v>
       </c>
       <c r="BL14" s="82">
-        <v>786</v>
+        <v>897</v>
       </c>
       <c r="BM14" s="172"/>
       <c r="BN14" s="79">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BO14" s="80" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="BP14" s="83">
-        <v>-33</v>
+        <v>-36</v>
       </c>
       <c r="BQ14" s="84">
-        <v>-33</v>
+        <v>-36</v>
       </c>
       <c r="BR14" s="85" t="s">
         <v>0</v>
@@ -7721,105 +7774,109 @@
         <v>0</v>
       </c>
       <c r="BY14" s="12" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:77" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="190" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C15" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="191" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E15" s="192" t="s">
         <v>60</v>
       </c>
       <c r="F15" s="193" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="G15" s="194">
-        <v>10</v>
-      </c>
-      <c r="H15" s="195" t="s">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="H15" s="195">
+        <v>-11</v>
       </c>
       <c r="I15" s="196" t="s">
         <v>60</v>
       </c>
       <c r="J15" s="194">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K15" s="195" t="s">
         <v>0</v>
       </c>
       <c r="L15" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="M15" s="194">
-        <v>10</v>
-      </c>
-      <c r="N15" s="195" t="s">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="N15" s="195">
+        <v>-9</v>
       </c>
       <c r="O15" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="P15" s="194">
-        <v>14</v>
-      </c>
-      <c r="Q15" s="195" t="s">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="Q15" s="195">
+        <v>-9</v>
       </c>
       <c r="R15" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="S15" s="194">
-        <v>9</v>
-      </c>
-      <c r="T15" s="195" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="T15" s="195">
+        <v>-6</v>
       </c>
       <c r="U15" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="V15" s="194">
         <v>15</v>
       </c>
-      <c r="W15" s="195" t="s">
-        <v>0</v>
+      <c r="W15" s="195">
+        <v>-15</v>
       </c>
       <c r="X15" s="196" t="s">
         <v>88</v>
       </c>
       <c r="Y15" s="194">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Z15" s="195">
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="AA15" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AB15" s="194">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC15" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AD15" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE15" s="194">
+        <v>10</v>
+      </c>
+      <c r="AF15" s="195">
+        <v>-10</v>
+      </c>
+      <c r="AG15" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="AE15" s="194">
-        <v>11</v>
-      </c>
-      <c r="AF15" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="196"/>
-      <c r="AH15" s="194"/>
+      <c r="AH15" s="194">
+        <v>13</v>
+      </c>
       <c r="AI15" s="195" t="s">
         <v>0</v>
       </c>
@@ -7827,40 +7884,40 @@
         <v>88</v>
       </c>
       <c r="AK15" s="194">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AL15" s="195">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="AM15" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AN15" s="194">
-        <v>7</v>
-      </c>
-      <c r="AO15" s="197" t="s">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="AO15" s="197">
+        <v>-15</v>
       </c>
       <c r="AT15" s="198" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AU15" s="194">
-        <v>9</v>
-      </c>
-      <c r="AV15" s="197" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="AV15" s="197">
+        <v>-6</v>
       </c>
       <c r="AX15" s="4">
-        <v>86</v>
+        <v>-59</v>
       </c>
       <c r="AY15" s="4">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="AZ15" s="4">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="BA15" s="4">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="BB15" s="4">
         <v>12</v>
@@ -7875,7 +7932,7 @@
         <v>100</v>
       </c>
       <c r="BG15" s="91">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="BH15" s="189"/>
       <c r="BI15" s="92">
@@ -7885,23 +7942,23 @@
         <v>100</v>
       </c>
       <c r="BK15" s="94">
-        <v>70.900000000000006</v>
+        <v>68</v>
       </c>
       <c r="BL15" s="95">
-        <v>709</v>
+        <v>748</v>
       </c>
       <c r="BM15" s="172"/>
       <c r="BN15" s="92">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BO15" s="93" t="s">
         <v>101</v>
       </c>
       <c r="BP15" s="96">
-        <v>-33</v>
+        <v>-36</v>
       </c>
       <c r="BQ15" s="97">
-        <v>-33</v>
+        <v>-36</v>
       </c>
       <c r="BR15" s="98" t="s">
         <v>0</v>
@@ -7922,21 +7979,21 @@
         <v>0</v>
       </c>
       <c r="BY15" s="12" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:77" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B16" s="190" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C16" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="191" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="E16" s="192" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F16" s="193" t="s">
         <v>60</v>
@@ -7944,14 +8001,14 @@
       <c r="G16" s="194">
         <v>3</v>
       </c>
-      <c r="H16" s="195" t="s">
-        <v>0</v>
+      <c r="H16" s="195">
+        <v>-3</v>
       </c>
       <c r="I16" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="J16" s="194">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K16" s="195" t="s">
         <v>0</v>
@@ -7960,52 +8017,52 @@
         <v>60</v>
       </c>
       <c r="M16" s="194">
-        <v>5</v>
-      </c>
-      <c r="N16" s="195" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="N16" s="195">
+        <v>-4</v>
       </c>
       <c r="O16" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="P16" s="194">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q16" s="195">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="R16" s="196" t="s">
         <v>60</v>
       </c>
       <c r="S16" s="194">
-        <v>3</v>
-      </c>
-      <c r="T16" s="195" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="T16" s="195">
+        <v>-8</v>
       </c>
       <c r="U16" s="196" t="s">
         <v>60</v>
       </c>
       <c r="V16" s="194">
-        <v>12</v>
-      </c>
-      <c r="W16" s="195" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="W16" s="195">
+        <v>-4</v>
       </c>
       <c r="X16" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="Y16" s="194">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="Z16" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AA16" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AB16" s="194">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AC16" s="195" t="s">
         <v>0</v>
@@ -8014,54 +8071,58 @@
         <v>60</v>
       </c>
       <c r="AE16" s="194">
-        <v>5</v>
-      </c>
-      <c r="AF16" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="196"/>
-      <c r="AH16" s="194"/>
-      <c r="AI16" s="195" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="AF16" s="195">
+        <v>-3</v>
+      </c>
+      <c r="AG16" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH16" s="194">
+        <v>11</v>
+      </c>
+      <c r="AI16" s="195">
+        <v>-11</v>
       </c>
       <c r="AJ16" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK16" s="194">
+        <v>16</v>
+      </c>
+      <c r="AL16" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="AK16" s="194">
-        <v>9</v>
-      </c>
-      <c r="AL16" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="196" t="s">
-        <v>88</v>
-      </c>
       <c r="AN16" s="194">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AO16" s="197">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="AT16" s="198" t="s">
         <v>60</v>
       </c>
       <c r="AU16" s="194">
-        <v>8</v>
-      </c>
-      <c r="AV16" s="197" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AV16" s="197">
+        <v>-1</v>
       </c>
       <c r="AX16" s="4">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="AY16" s="4">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="AZ16" s="4">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="BA16" s="4">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="BB16" s="4">
         <v>13</v>
@@ -8070,100 +8131,150 @@
         <v>1</v>
       </c>
       <c r="BY16" s="12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="190" t="s">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C17" s="191" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D17" s="191" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="192"/>
-      <c r="F17" s="193"/>
-      <c r="G17" s="194"/>
+        <v>138</v>
+      </c>
+      <c r="E17" s="192" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="193" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="194">
+        <v>5</v>
+      </c>
       <c r="H17" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="I17" s="196"/>
-      <c r="J17" s="194"/>
+      <c r="I17" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" s="194">
+        <v>10</v>
+      </c>
       <c r="K17" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="L17" s="196"/>
-      <c r="M17" s="194"/>
+      <c r="L17" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="M17" s="194">
+        <v>3</v>
+      </c>
       <c r="N17" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="O17" s="196"/>
-      <c r="P17" s="194"/>
+      <c r="O17" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" s="194">
+        <v>3</v>
+      </c>
       <c r="Q17" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="R17" s="196"/>
-      <c r="S17" s="194"/>
+      <c r="R17" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="S17" s="194">
+        <v>5</v>
+      </c>
       <c r="T17" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="U17" s="196"/>
-      <c r="V17" s="194"/>
+      <c r="U17" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="V17" s="194">
+        <v>3</v>
+      </c>
       <c r="W17" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="X17" s="196"/>
-      <c r="Y17" s="194"/>
-      <c r="Z17" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="196"/>
-      <c r="AB17" s="194"/>
+      <c r="X17" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y17" s="194">
+        <v>4</v>
+      </c>
+      <c r="Z17" s="195">
+        <v>-4</v>
+      </c>
+      <c r="AA17" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB17" s="194">
+        <v>3</v>
+      </c>
       <c r="AC17" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="AD17" s="196"/>
-      <c r="AE17" s="194"/>
+      <c r="AD17" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE17" s="194">
+        <v>8</v>
+      </c>
       <c r="AF17" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="AG17" s="196"/>
-      <c r="AH17" s="194"/>
-      <c r="AI17" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="196"/>
-      <c r="AK17" s="194"/>
-      <c r="AL17" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM17" s="196"/>
-      <c r="AN17" s="194"/>
+      <c r="AG17" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH17" s="194">
+        <v>12</v>
+      </c>
+      <c r="AI17" s="195">
+        <v>-12</v>
+      </c>
+      <c r="AJ17" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK17" s="194">
+        <v>3</v>
+      </c>
+      <c r="AL17" s="195">
+        <v>-3</v>
+      </c>
+      <c r="AM17" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN17" s="194">
+        <v>9</v>
+      </c>
       <c r="AO17" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AT17" s="198" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU17" s="194" t="s">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="AU17" s="194">
+        <v>3</v>
       </c>
       <c r="AV17" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX17" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AY17" s="4">
-        <v>-0.1</v>
+        <v>30</v>
       </c>
       <c r="AZ17" s="4">
-        <v>-0.1</v>
+        <v>30</v>
       </c>
       <c r="BA17" s="4">
-        <v>-0.1</v>
+        <v>30</v>
       </c>
       <c r="BB17" s="4">
         <v>14</v>
@@ -8172,156 +8283,206 @@
         <v>1</v>
       </c>
       <c r="BY17" s="12" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="190" t="s">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="C18" s="191" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D18" s="191" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="192"/>
-      <c r="F18" s="193"/>
-      <c r="G18" s="194"/>
+        <v>158</v>
+      </c>
+      <c r="E18" s="192" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="193" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="194">
+        <v>16</v>
+      </c>
       <c r="H18" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="I18" s="196"/>
-      <c r="J18" s="194"/>
+      <c r="I18" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="J18" s="194">
+        <v>15</v>
+      </c>
       <c r="K18" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="196"/>
-      <c r="M18" s="194"/>
+      <c r="L18" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="M18" s="194">
+        <v>15</v>
+      </c>
       <c r="N18" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="O18" s="196"/>
-      <c r="P18" s="194"/>
+      <c r="O18" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="P18" s="194">
+        <v>15</v>
+      </c>
       <c r="Q18" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="R18" s="196"/>
-      <c r="S18" s="194"/>
+      <c r="R18" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="S18" s="194">
+        <v>16</v>
+      </c>
       <c r="T18" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="U18" s="196"/>
-      <c r="V18" s="194"/>
+      <c r="U18" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="V18" s="194">
+        <v>16</v>
+      </c>
       <c r="W18" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="X18" s="196"/>
-      <c r="Y18" s="194"/>
+      <c r="X18" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y18" s="194">
+        <v>15</v>
+      </c>
       <c r="Z18" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="AA18" s="196"/>
-      <c r="AB18" s="194"/>
+      <c r="AA18" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB18" s="194">
+        <v>15</v>
+      </c>
       <c r="AC18" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="AD18" s="196"/>
-      <c r="AE18" s="194"/>
+      <c r="AD18" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE18" s="194">
+        <v>16</v>
+      </c>
       <c r="AF18" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="AG18" s="196"/>
-      <c r="AH18" s="194"/>
-      <c r="AI18" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="196"/>
-      <c r="AK18" s="194"/>
+      <c r="AG18" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH18" s="194">
+        <v>14</v>
+      </c>
+      <c r="AI18" s="195">
+        <v>-14</v>
+      </c>
+      <c r="AJ18" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK18" s="194">
+        <v>15</v>
+      </c>
       <c r="AL18" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="AM18" s="196"/>
-      <c r="AN18" s="194"/>
+      <c r="AM18" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN18" s="194">
+        <v>16</v>
+      </c>
       <c r="AO18" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AT18" s="198" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU18" s="194" t="s">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="AU18" s="194">
+        <v>16</v>
       </c>
       <c r="AV18" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX18" s="4">
-        <v>0</v>
+        <v>-156</v>
       </c>
       <c r="AY18" s="4">
-        <v>-0.1</v>
+        <v>156</v>
       </c>
       <c r="AZ18" s="4">
-        <v>-0.1</v>
+        <v>156</v>
       </c>
       <c r="BA18" s="4">
-        <v>-0.1</v>
+        <v>156</v>
       </c>
       <c r="BB18" s="4">
         <v>15</v>
       </c>
       <c r="BC18" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BY18" s="12" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="190" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C19" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="191" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="E19" s="192" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F19" s="193" t="s">
         <v>60</v>
       </c>
       <c r="G19" s="194">
-        <v>9</v>
-      </c>
-      <c r="H19" s="195" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="H19" s="195">
+        <v>-2</v>
       </c>
       <c r="I19" s="196" t="s">
         <v>60</v>
       </c>
       <c r="J19" s="194">
-        <v>9</v>
-      </c>
-      <c r="K19" s="195" t="s">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="K19" s="195">
+        <v>-16</v>
       </c>
       <c r="L19" s="196" t="s">
         <v>60</v>
       </c>
       <c r="M19" s="194">
-        <v>9</v>
-      </c>
-      <c r="N19" s="195" t="s">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="N19" s="195">
+        <v>-5</v>
       </c>
       <c r="O19" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="P19" s="194">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q19" s="195" t="s">
         <v>0</v>
@@ -8330,19 +8491,19 @@
         <v>60</v>
       </c>
       <c r="S19" s="194">
-        <v>10</v>
-      </c>
-      <c r="T19" s="195" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="T19" s="195">
+        <v>-2</v>
       </c>
       <c r="U19" s="196" t="s">
         <v>60</v>
       </c>
       <c r="V19" s="194">
-        <v>10</v>
-      </c>
-      <c r="W19" s="195" t="s">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="W19" s="195">
+        <v>-12</v>
       </c>
       <c r="X19" s="196" t="s">
         <v>60</v>
@@ -8350,31 +8511,35 @@
       <c r="Y19" s="194">
         <v>3</v>
       </c>
-      <c r="Z19" s="195" t="s">
-        <v>0</v>
+      <c r="Z19" s="195">
+        <v>-3</v>
       </c>
       <c r="AA19" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AB19" s="194">
-        <v>10</v>
-      </c>
-      <c r="AC19" s="195" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="AC19" s="195">
+        <v>-4</v>
       </c>
       <c r="AD19" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AE19" s="194">
-        <v>12</v>
-      </c>
-      <c r="AF19" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="196"/>
-      <c r="AH19" s="194"/>
-      <c r="AI19" s="195" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="AF19" s="195">
+        <v>-4</v>
+      </c>
+      <c r="AG19" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH19" s="194">
+        <v>3</v>
+      </c>
+      <c r="AI19" s="195">
+        <v>-3</v>
       </c>
       <c r="AJ19" s="196" t="s">
         <v>60</v>
@@ -8382,38 +8547,38 @@
       <c r="AK19" s="194">
         <v>5</v>
       </c>
-      <c r="AL19" s="195" t="s">
-        <v>0</v>
+      <c r="AL19" s="195">
+        <v>-5</v>
       </c>
       <c r="AM19" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AN19" s="194">
-        <v>11</v>
-      </c>
-      <c r="AO19" s="197" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AO19" s="197">
+        <v>-1</v>
       </c>
       <c r="AT19" s="198" t="s">
         <v>60</v>
       </c>
       <c r="AU19" s="194">
-        <v>10</v>
-      </c>
-      <c r="AV19" s="197" t="s">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="AV19" s="197">
+        <v>-5</v>
       </c>
       <c r="AX19" s="4">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="AY19" s="4">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="AZ19" s="4">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="BA19" s="4">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="BB19" s="4">
         <v>16</v>
@@ -8422,7 +8587,7 @@
         <v>1</v>
       </c>
       <c r="BY19" s="12" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8436,21 +8601,21 @@
         <v>108</v>
       </c>
       <c r="G20" s="105">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H20" s="122"/>
       <c r="I20" s="106" t="s">
         <v>108</v>
       </c>
       <c r="J20" s="105">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K20" s="122"/>
       <c r="L20" s="106" t="s">
         <v>108</v>
       </c>
       <c r="M20" s="105">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N20" s="122"/>
       <c r="O20" s="106" t="s">
@@ -8464,14 +8629,14 @@
         <v>108</v>
       </c>
       <c r="S20" s="105">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T20" s="122"/>
       <c r="U20" s="106" t="s">
         <v>108</v>
       </c>
       <c r="V20" s="105">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="W20" s="122"/>
       <c r="X20" s="106" t="s">
@@ -8485,33 +8650,35 @@
         <v>108</v>
       </c>
       <c r="AB20" s="105">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="AC20" s="122"/>
       <c r="AD20" s="106" t="s">
         <v>108</v>
       </c>
       <c r="AE20" s="105">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF20" s="122"/>
       <c r="AG20" s="106" t="s">
-        <v>157</v>
-      </c>
-      <c r="AH20" s="105"/>
+        <v>108</v>
+      </c>
+      <c r="AH20" s="105">
+        <v>47</v>
+      </c>
       <c r="AI20" s="122"/>
       <c r="AJ20" s="106" t="s">
         <v>108</v>
       </c>
       <c r="AK20" s="105">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AL20" s="122"/>
       <c r="AM20" s="106" t="s">
         <v>108</v>
       </c>
       <c r="AN20" s="105">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="AO20" s="123"/>
       <c r="AT20" s="107"/>
@@ -8528,7 +8695,7 @@
       <c r="BM20" s="13"/>
       <c r="BN20" s="13"/>
       <c r="BY20" s="12" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:77" s="13" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8541,87 +8708,87 @@
       </c>
       <c r="F21" s="203"/>
       <c r="G21" s="204">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H21" s="205">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="I21" s="206"/>
       <c r="J21" s="204">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K21" s="205">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="L21" s="206"/>
       <c r="M21" s="204">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N21" s="205">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="O21" s="206"/>
       <c r="P21" s="204">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q21" s="205">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="R21" s="206"/>
       <c r="S21" s="204">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T21" s="205">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="U21" s="206"/>
       <c r="V21" s="204">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="W21" s="205">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="X21" s="206"/>
       <c r="Y21" s="204">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Z21" s="205">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AA21" s="206"/>
       <c r="AB21" s="204">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AC21" s="205">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="AD21" s="206"/>
       <c r="AE21" s="204">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AF21" s="205">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AG21" s="206"/>
       <c r="AH21" s="204">
         <v>12</v>
       </c>
       <c r="AI21" s="205">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="AJ21" s="206"/>
       <c r="AK21" s="204">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AL21" s="205">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="AM21" s="206"/>
       <c r="AN21" s="204">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AO21" s="207">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AP21" s="3"/>
       <c r="AT21" s="208"/>
@@ -8629,7 +8796,7 @@
         <v>2</v>
       </c>
       <c r="AV21" s="210">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="AW21" s="3"/>
       <c r="AX21" s="14"/>
@@ -8653,7 +8820,7 @@
       <c r="BV21" s="6"/>
       <c r="BW21" s="6"/>
       <c r="BY21" s="12" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:77" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8669,84 +8836,84 @@
         <v>7</v>
       </c>
       <c r="H22" s="129">
-        <v>84.9</v>
+        <v>88.090909090909093</v>
       </c>
       <c r="I22" s="130"/>
       <c r="J22" s="128">
         <v>8</v>
       </c>
       <c r="K22" s="129">
-        <v>84.7</v>
+        <v>86.727272727272734</v>
       </c>
       <c r="L22" s="130"/>
       <c r="M22" s="128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N22" s="129">
-        <v>88</v>
+        <v>90.727272727272734</v>
       </c>
       <c r="O22" s="130"/>
       <c r="P22" s="128">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q22" s="129">
-        <v>87.7</v>
+        <v>90.63636363636364</v>
       </c>
       <c r="R22" s="130"/>
       <c r="S22" s="128">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T22" s="129">
-        <v>87.3</v>
+        <v>90.272727272727266</v>
       </c>
       <c r="U22" s="130"/>
       <c r="V22" s="128">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W22" s="129">
-        <v>79.3</v>
+        <v>81.545454545454547</v>
       </c>
       <c r="X22" s="130"/>
       <c r="Y22" s="128">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z22" s="129">
-        <v>87.4</v>
+        <v>89.454545454545453</v>
       </c>
       <c r="AA22" s="130"/>
       <c r="AB22" s="128">
         <v>9</v>
       </c>
       <c r="AC22" s="129">
-        <v>80.099999999999994</v>
+        <v>84.727272727272734</v>
       </c>
       <c r="AD22" s="130"/>
       <c r="AE22" s="128">
         <v>1</v>
       </c>
       <c r="AF22" s="129">
-        <v>95.5</v>
+        <v>96.818181818181813</v>
       </c>
       <c r="AG22" s="130"/>
       <c r="AH22" s="128">
         <v>12</v>
       </c>
       <c r="AI22" s="129">
-        <v>70.900000000000006</v>
+        <v>68</v>
       </c>
       <c r="AJ22" s="130"/>
       <c r="AK22" s="128">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL22" s="129">
-        <v>78.599999999999994</v>
+        <v>82.272727272727266</v>
       </c>
       <c r="AM22" s="130"/>
       <c r="AN22" s="128">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AO22" s="131">
-        <v>88.5</v>
+        <v>89.545454545454547</v>
       </c>
       <c r="AP22" s="3"/>
       <c r="AU22" s="14"/>
@@ -8771,7 +8938,7 @@
       <c r="BV22" s="6"/>
       <c r="BW22" s="6"/>
       <c r="BY22" s="12" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:77" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8785,62 +8952,62 @@
       <c r="F23" s="135"/>
       <c r="G23" s="136"/>
       <c r="H23" s="137">
-        <v>849</v>
+        <v>969</v>
       </c>
       <c r="I23" s="138"/>
       <c r="J23" s="136"/>
       <c r="K23" s="137">
-        <v>847</v>
+        <v>954</v>
       </c>
       <c r="L23" s="138"/>
       <c r="M23" s="136"/>
       <c r="N23" s="137">
-        <v>880</v>
+        <v>998</v>
       </c>
       <c r="O23" s="138"/>
       <c r="P23" s="136"/>
       <c r="Q23" s="137">
-        <v>877</v>
+        <v>997</v>
       </c>
       <c r="R23" s="138"/>
       <c r="S23" s="136"/>
       <c r="T23" s="137">
-        <v>873</v>
+        <v>993</v>
       </c>
       <c r="U23" s="138"/>
       <c r="V23" s="136"/>
       <c r="W23" s="137">
-        <v>793</v>
+        <v>897</v>
       </c>
       <c r="X23" s="138"/>
       <c r="Y23" s="136"/>
       <c r="Z23" s="137">
-        <v>874</v>
+        <v>984</v>
       </c>
       <c r="AA23" s="138"/>
       <c r="AB23" s="136"/>
       <c r="AC23" s="137">
-        <v>801</v>
+        <v>932</v>
       </c>
       <c r="AD23" s="138"/>
       <c r="AE23" s="136"/>
       <c r="AF23" s="137">
-        <v>955</v>
+        <v>1065</v>
       </c>
       <c r="AG23" s="138"/>
       <c r="AH23" s="136"/>
       <c r="AI23" s="137">
-        <v>709</v>
+        <v>748</v>
       </c>
       <c r="AJ23" s="138"/>
       <c r="AK23" s="136"/>
       <c r="AL23" s="137">
-        <v>786</v>
+        <v>905</v>
       </c>
       <c r="AM23" s="138"/>
       <c r="AN23" s="136"/>
       <c r="AO23" s="139">
-        <v>885</v>
+        <v>985</v>
       </c>
       <c r="AP23" s="3"/>
       <c r="AU23" s="14"/>
@@ -8855,7 +9022,7 @@
       <c r="BV23" s="6"/>
       <c r="BW23" s="6"/>
       <c r="BY23" s="12" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:77" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8938,7 +9105,7 @@
       <c r="BV24" s="6"/>
       <c r="BW24" s="6"/>
       <c r="BY24" s="12" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:77" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8951,87 +9118,87 @@
       </c>
       <c r="F25" s="135"/>
       <c r="G25" s="140">
-        <v>0.8571428571428571</v>
+        <v>0.8125</v>
       </c>
       <c r="H25" s="137">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I25" s="138"/>
       <c r="J25" s="140">
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="K25" s="137">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L25" s="138"/>
       <c r="M25" s="140">
-        <v>0.8571428571428571</v>
+        <v>0.8125</v>
       </c>
       <c r="N25" s="137">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O25" s="138"/>
       <c r="P25" s="140">
-        <v>0.6428571428571429</v>
+        <v>0.75</v>
       </c>
       <c r="Q25" s="137">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="R25" s="138"/>
       <c r="S25" s="140">
-        <v>0.8571428571428571</v>
+        <v>0.8125</v>
       </c>
       <c r="T25" s="137">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U25" s="138"/>
       <c r="V25" s="140">
-        <v>0.7857142857142857</v>
+        <v>0.75</v>
       </c>
       <c r="W25" s="137">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X25" s="138"/>
       <c r="Y25" s="140">
-        <v>0.6428571428571429</v>
+        <v>0.625</v>
       </c>
       <c r="Z25" s="137">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA25" s="138"/>
       <c r="AB25" s="140">
-        <v>0.7142857142857143</v>
+        <v>0.875</v>
       </c>
       <c r="AC25" s="137">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AD25" s="138"/>
       <c r="AE25" s="140">
-        <v>0.8571428571428571</v>
+        <v>0.75</v>
       </c>
       <c r="AF25" s="137">
         <v>12</v>
       </c>
       <c r="AG25" s="138"/>
       <c r="AH25" s="140">
-        <v>0</v>
+        <v>0.3125</v>
       </c>
       <c r="AI25" s="137">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ25" s="138"/>
       <c r="AK25" s="140">
-        <v>0.7142857142857143</v>
+        <v>0.8125</v>
       </c>
       <c r="AL25" s="137">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AM25" s="138"/>
       <c r="AN25" s="140">
-        <v>0.6428571428571429</v>
+        <v>0.6875</v>
       </c>
       <c r="AO25" s="139">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AP25" s="3"/>
       <c r="AW25" s="3"/>
@@ -9045,7 +9212,7 @@
       <c r="BV25" s="6"/>
       <c r="BW25" s="6"/>
       <c r="BY25" s="12" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:77" s="13" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9058,87 +9225,87 @@
       </c>
       <c r="F26" s="144"/>
       <c r="G26" s="145">
-        <v>0.52795031055900621</v>
+        <v>0.5536723163841808</v>
       </c>
       <c r="H26" s="146">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="I26" s="147"/>
       <c r="J26" s="145">
-        <v>0.58385093167701863</v>
+        <v>0.59887005649717517</v>
       </c>
       <c r="K26" s="146">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="L26" s="147"/>
       <c r="M26" s="145">
-        <v>0.55279503105590067</v>
+        <v>0.57627118644067798</v>
       </c>
       <c r="N26" s="146">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="O26" s="147"/>
       <c r="P26" s="145">
-        <v>0.60248447204968947</v>
+        <v>0.61581920903954801</v>
       </c>
       <c r="Q26" s="146">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="R26" s="147"/>
       <c r="S26" s="145">
-        <v>0.58385093167701863</v>
+        <v>0.60451977401129942</v>
       </c>
       <c r="T26" s="146">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="U26" s="147"/>
       <c r="V26" s="145">
-        <v>0.50931677018633537</v>
+        <v>0.53107344632768361</v>
       </c>
       <c r="W26" s="146">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="X26" s="147"/>
       <c r="Y26" s="145">
-        <v>0.59006211180124224</v>
+        <v>0.59322033898305082</v>
       </c>
       <c r="Z26" s="146">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="AA26" s="147"/>
       <c r="AB26" s="145">
-        <v>0.52795031055900621</v>
+        <v>0.55932203389830504</v>
       </c>
       <c r="AC26" s="146">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="AD26" s="147"/>
       <c r="AE26" s="145">
-        <v>0.63975155279503104</v>
+        <v>0.64971751412429379</v>
       </c>
       <c r="AF26" s="146">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="AG26" s="147"/>
       <c r="AH26" s="145">
-        <v>0.453416149068323</v>
+        <v>0.44067796610169491</v>
       </c>
       <c r="AI26" s="146">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AJ26" s="147"/>
       <c r="AK26" s="145">
-        <v>0.46583850931677018</v>
+        <v>0.49717514124293788</v>
       </c>
       <c r="AL26" s="146">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="AM26" s="147"/>
       <c r="AN26" s="145">
-        <v>0.59006211180124224</v>
+        <v>0.59887005649717517</v>
       </c>
       <c r="AO26" s="148">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AP26" s="3"/>
       <c r="AW26" s="3"/>
@@ -9162,7 +9329,7 @@
       <c r="BV26" s="6"/>
       <c r="BW26" s="6"/>
       <c r="BY26" s="12" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:77" s="7" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9186,7 +9353,7 @@
         <v>68</v>
       </c>
       <c r="P27" s="153">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="Q27" s="150"/>
       <c r="R27" s="150"/>
@@ -9199,7 +9366,7 @@
         <v>69</v>
       </c>
       <c r="Y27" s="154">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z27" s="150"/>
       <c r="AA27" s="152"/>
@@ -9212,7 +9379,7 @@
         <v>70</v>
       </c>
       <c r="AH27" s="154">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI27" s="150"/>
       <c r="AJ27" s="152"/>
@@ -9235,7 +9402,7 @@
       <c r="BV27" s="6"/>
       <c r="BW27" s="6"/>
       <c r="BY27" s="12" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:77" s="7" customFormat="1" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -9292,7 +9459,7 @@
       <c r="BV28" s="6"/>
       <c r="BW28" s="6"/>
       <c r="BY28" s="12" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:77" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -9301,7 +9468,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="17"/>
@@ -9353,7 +9520,7 @@
       <c r="BV29" s="6"/>
       <c r="BW29" s="6"/>
       <c r="BY29" s="12" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:77" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -9410,7 +9577,7 @@
       <c r="BV30" s="6"/>
       <c r="BW30" s="6"/>
       <c r="BY30" s="12" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:77" s="7" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9422,7 +9589,7 @@
         <v>71</v>
       </c>
       <c r="F31" s="23">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G31" s="18"/>
       <c r="H31" s="17"/>
@@ -9489,47 +9656,47 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="25">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H32" s="26"/>
       <c r="I32" s="26"/>
       <c r="J32" s="25">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K32" s="26"/>
       <c r="L32" s="26"/>
       <c r="M32" s="25">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="P32" s="25">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="S32" s="25">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="V32" s="25">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Y32" s="25">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AB32" s="25">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AE32" s="25">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AH32" s="25">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="AK32" s="25">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AN32" s="25">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AU32" s="25">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="BY32" s="12"/>
     </row>
@@ -9561,47 +9728,47 @@
       <c r="F34" s="26"/>
       <c r="G34" s="25"/>
       <c r="H34" s="26">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="I34" s="26"/>
       <c r="J34" s="26"/>
       <c r="K34" s="26">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="L34" s="26"/>
       <c r="M34" s="26"/>
       <c r="N34" s="26">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="Q34" s="26">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="T34" s="26">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="W34" s="26">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="Z34" s="26">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AC34" s="26">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="AF34" s="26">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AI34" s="26">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="AL34" s="26">
+        <v>119</v>
+      </c>
+      <c r="AO34" s="26">
         <v>100</v>
       </c>
-      <c r="AO34" s="26">
-        <v>102</v>
-      </c>
       <c r="AV34" s="26">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="BY34" s="12"/>
     </row>
@@ -9611,44 +9778,44 @@
       <c r="F35" s="3"/>
       <c r="G35" s="27"/>
       <c r="H35" s="28">
-        <v>84.9</v>
+        <v>88.090909090909093</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="28">
-        <v>84.7</v>
+        <v>86.727272727272734</v>
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="28">
-        <v>88</v>
+        <v>90.727272727272734</v>
       </c>
       <c r="Q35" s="28">
-        <v>87.7</v>
+        <v>90.63636363636364</v>
       </c>
       <c r="T35" s="28">
-        <v>87.3</v>
+        <v>90.272727272727266</v>
       </c>
       <c r="W35" s="28">
-        <v>79.3</v>
+        <v>81.545454545454547</v>
       </c>
       <c r="Z35" s="28">
-        <v>87.4</v>
+        <v>89.454545454545453</v>
       </c>
       <c r="AC35" s="28">
-        <v>80.099999999999994</v>
+        <v>84.727272727272734</v>
       </c>
       <c r="AF35" s="28">
-        <v>95.5</v>
+        <v>96.818181818181813</v>
       </c>
       <c r="AI35" s="28">
-        <v>70.900000000000006</v>
+        <v>68</v>
       </c>
       <c r="AL35" s="28">
-        <v>78.599999999999994</v>
+        <v>82.272727272727266</v>
       </c>
       <c r="AO35" s="28">
-        <v>88.5</v>
+        <v>89.545454545454547</v>
       </c>
       <c r="BY35" s="12"/>
     </row>
@@ -9658,44 +9825,44 @@
       <c r="F36" s="3"/>
       <c r="G36" s="27"/>
       <c r="H36" s="28">
-        <v>849</v>
+        <v>969</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="28">
-        <v>847</v>
+        <v>954</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="28">
-        <v>880</v>
+        <v>998</v>
       </c>
       <c r="Q36" s="28">
-        <v>877</v>
+        <v>997</v>
       </c>
       <c r="T36" s="28">
-        <v>873</v>
+        <v>993</v>
       </c>
       <c r="W36" s="28">
-        <v>793</v>
+        <v>897</v>
       </c>
       <c r="Z36" s="28">
-        <v>874</v>
+        <v>984</v>
       </c>
       <c r="AC36" s="28">
-        <v>801</v>
+        <v>932</v>
       </c>
       <c r="AF36" s="28">
-        <v>955</v>
+        <v>1065</v>
       </c>
       <c r="AI36" s="28">
-        <v>709</v>
+        <v>748</v>
       </c>
       <c r="AL36" s="28">
-        <v>786</v>
+        <v>905</v>
       </c>
       <c r="AO36" s="28">
-        <v>885</v>
+        <v>985</v>
       </c>
       <c r="BY36" s="12"/>
     </row>
@@ -9752,44 +9919,44 @@
       <c r="F38" s="3"/>
       <c r="G38" s="27"/>
       <c r="H38" s="28">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="28">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="28">
+        <v>13</v>
+      </c>
+      <c r="Q38" s="28">
         <v>12</v>
       </c>
-      <c r="Q38" s="28">
-        <v>9</v>
-      </c>
       <c r="T38" s="28">
+        <v>13</v>
+      </c>
+      <c r="W38" s="28">
         <v>12</v>
       </c>
-      <c r="W38" s="28">
-        <v>11</v>
-      </c>
       <c r="Z38" s="28">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC38" s="28">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AF38" s="28">
         <v>12</v>
       </c>
       <c r="AI38" s="28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL38" s="28">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AO38" s="28">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BY38" s="12"/>
     </row>
@@ -9799,44 +9966,44 @@
       <c r="F39" s="3"/>
       <c r="G39" s="27"/>
       <c r="H39" s="28">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="28">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="28">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="Q39" s="28">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="T39" s="28">
+        <v>107</v>
+      </c>
+      <c r="W39" s="28">
         <v>94</v>
       </c>
-      <c r="W39" s="28">
-        <v>82</v>
-      </c>
       <c r="Z39" s="28">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="AC39" s="28">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="AF39" s="28">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="AI39" s="28">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AL39" s="28">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="AO39" s="28">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BY39" s="12"/>
     </row>
@@ -9855,23 +10022,23 @@
       <c r="K40" s="28"/>
       <c r="L40" s="3"/>
       <c r="M40" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N40" s="28"/>
       <c r="P40" s="27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q40" s="28"/>
       <c r="S40" s="27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T40" s="28"/>
       <c r="V40" s="27">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W40" s="28"/>
       <c r="Y40" s="27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z40" s="28"/>
       <c r="AB40" s="27">
@@ -9887,11 +10054,11 @@
       </c>
       <c r="AI40" s="28"/>
       <c r="AK40" s="27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL40" s="28"/>
       <c r="AN40" s="27">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AO40" s="28"/>
       <c r="AR40" s="29">
@@ -9907,44 +10074,44 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="27">
-        <v>0.8571428571428571</v>
+        <v>0.8125</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="27">
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="27">
-        <v>0.8571428571428571</v>
+        <v>0.8125</v>
       </c>
       <c r="P41" s="27">
-        <v>0.6428571428571429</v>
+        <v>0.75</v>
       </c>
       <c r="S41" s="27">
-        <v>0.8571428571428571</v>
+        <v>0.8125</v>
       </c>
       <c r="V41" s="27">
-        <v>0.7857142857142857</v>
+        <v>0.75</v>
       </c>
       <c r="Y41" s="27">
-        <v>0.6428571428571429</v>
+        <v>0.625</v>
       </c>
       <c r="AB41" s="27">
-        <v>0.7142857142857143</v>
+        <v>0.875</v>
       </c>
       <c r="AE41" s="27">
-        <v>0.8571428571428571</v>
+        <v>0.75</v>
       </c>
       <c r="AH41" s="27">
-        <v>0</v>
+        <v>0.3125</v>
       </c>
       <c r="AK41" s="27">
-        <v>0.7142857142857143</v>
+        <v>0.8125</v>
       </c>
       <c r="AN41" s="27">
-        <v>0.6428571428571429</v>
+        <v>0.6875</v>
       </c>
       <c r="AR41" s="29">
         <v>1</v>
@@ -9959,44 +10126,44 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="27">
-        <v>0.52795031055900621</v>
+        <v>0.5536723163841808</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="27">
-        <v>0.58385093167701863</v>
+        <v>0.59887005649717517</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="27">
-        <v>0.55279503105590067</v>
+        <v>0.57627118644067798</v>
       </c>
       <c r="P42" s="27">
-        <v>0.60248447204968947</v>
+        <v>0.61581920903954801</v>
       </c>
       <c r="S42" s="27">
-        <v>0.58385093167701863</v>
+        <v>0.60451977401129942</v>
       </c>
       <c r="V42" s="27">
-        <v>0.50931677018633537</v>
+        <v>0.53107344632768361</v>
       </c>
       <c r="Y42" s="27">
-        <v>0.59006211180124224</v>
+        <v>0.59322033898305082</v>
       </c>
       <c r="AB42" s="27">
-        <v>0.52795031055900621</v>
+        <v>0.55932203389830504</v>
       </c>
       <c r="AE42" s="27">
-        <v>0.63975155279503104</v>
+        <v>0.64971751412429379</v>
       </c>
       <c r="AH42" s="27">
-        <v>0.453416149068323</v>
+        <v>0.44067796610169491</v>
       </c>
       <c r="AK42" s="27">
-        <v>0.46583850931677018</v>
+        <v>0.49717514124293788</v>
       </c>
       <c r="AN42" s="27">
-        <v>0.59006211180124224</v>
+        <v>0.59887005649717517</v>
       </c>
       <c r="BY42" s="12"/>
     </row>
@@ -12191,66 +12358,66 @@
     </row>
     <row r="2" spans="2:99" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="307" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C2" s="308" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D2" s="309"/>
       <c r="E2" s="156" t="s">
         <v>91</v>
       </c>
       <c r="F2" s="115">
-        <v>-33</v>
+        <v>-36</v>
       </c>
       <c r="G2" s="157"/>
       <c r="H2" s="156" t="s">
         <v>92</v>
       </c>
       <c r="I2" s="115">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="J2" s="157"/>
       <c r="K2" s="156" t="s">
         <v>93</v>
       </c>
       <c r="L2" s="115">
-        <v>-2</v>
+        <v>19</v>
       </c>
       <c r="M2" s="157"/>
       <c r="N2" s="156" t="s">
         <v>94</v>
       </c>
       <c r="O2" s="115">
-        <v>-33</v>
+        <v>-36</v>
       </c>
       <c r="P2" s="157"/>
       <c r="Q2" s="156" t="s">
         <v>95</v>
       </c>
       <c r="R2" s="115">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="S2" s="157"/>
       <c r="T2" s="156" t="s">
         <v>96</v>
       </c>
       <c r="U2" s="115">
-        <v>-33</v>
+        <v>-36</v>
       </c>
       <c r="V2" s="157"/>
       <c r="W2" s="156" t="s">
         <v>97</v>
       </c>
       <c r="X2" s="115">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y2" s="157"/>
       <c r="Z2" s="156" t="s">
         <v>98</v>
       </c>
       <c r="AA2" s="115">
-        <v>-33</v>
+        <v>-5</v>
       </c>
       <c r="AB2" s="157"/>
       <c r="AC2" s="156" t="s">
@@ -12264,21 +12431,21 @@
         <v>100</v>
       </c>
       <c r="AG2" s="115">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="AH2" s="157"/>
       <c r="AI2" s="156" t="s">
         <v>101</v>
       </c>
       <c r="AJ2" s="115">
-        <v>-33</v>
+        <v>-36</v>
       </c>
       <c r="AK2" s="157"/>
       <c r="AL2" s="156" t="s">
         <v>102</v>
       </c>
       <c r="AM2" s="115">
-        <v>20</v>
+        <v>-5</v>
       </c>
       <c r="AN2" s="158"/>
       <c r="AO2" s="211">
@@ -12288,7 +12455,7 @@
         <v>8</v>
       </c>
       <c r="AQ2" s="39">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR2" s="40" t="s">
         <v>9</v>
@@ -12420,7 +12587,7 @@
         <v>14</v>
       </c>
       <c r="AQ3" s="41">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR3" s="40" t="s">
         <v>15</v>
@@ -13633,7 +13800,7 @@
       </c>
       <c r="AQ9" s="45"/>
       <c r="AR9" s="47" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AS9" s="4">
         <v>15</v>
@@ -13849,7 +14016,7 @@
       </c>
       <c r="AQ10" s="45"/>
       <c r="AR10" s="47" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AS10" s="4">
         <v>15</v>
@@ -14063,7 +14230,7 @@
       <c r="AP11" s="46"/>
       <c r="AQ11" s="45"/>
       <c r="AR11" s="47" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AS11" s="4">
         <v>13</v>
@@ -14277,7 +14444,7 @@
       <c r="AP12" s="46"/>
       <c r="AQ12" s="45"/>
       <c r="AR12" s="47" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AS12" s="4">
         <v>13</v>
@@ -14800,116 +14967,116 @@
       <c r="C15" s="191">
         <v>16</v>
       </c>
-      <c r="D15" s="222" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="193" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="I15" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="J15" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="K15" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="L15" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="M15" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="N15" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="O15" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="P15" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="R15" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="S15" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="T15" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="U15" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="V15" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="W15" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="X15" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM15" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN15" s="225" t="s">
-        <v>0</v>
+      <c r="D15" s="222">
+        <v>16</v>
+      </c>
+      <c r="E15" s="193">
+        <v>2</v>
+      </c>
+      <c r="F15" s="223">
+        <v>13</v>
+      </c>
+      <c r="G15" s="224">
+        <v>120</v>
+      </c>
+      <c r="H15" s="196">
+        <v>9</v>
+      </c>
+      <c r="I15" s="223">
+        <v>12</v>
+      </c>
+      <c r="J15" s="224">
+        <v>107</v>
+      </c>
+      <c r="K15" s="196">
+        <v>6</v>
+      </c>
+      <c r="L15" s="223">
+        <v>13</v>
+      </c>
+      <c r="M15" s="224">
+        <v>118</v>
+      </c>
+      <c r="N15" s="196">
+        <v>2</v>
+      </c>
+      <c r="O15" s="223">
+        <v>12</v>
+      </c>
+      <c r="P15" s="224">
+        <v>120</v>
+      </c>
+      <c r="Q15" s="196">
+        <v>2</v>
+      </c>
+      <c r="R15" s="223">
+        <v>13</v>
+      </c>
+      <c r="S15" s="224">
+        <v>120</v>
+      </c>
+      <c r="T15" s="196">
+        <v>10</v>
+      </c>
+      <c r="U15" s="223">
+        <v>12</v>
+      </c>
+      <c r="V15" s="224">
+        <v>104</v>
+      </c>
+      <c r="W15" s="196">
+        <v>7</v>
+      </c>
+      <c r="X15" s="223">
+        <v>10</v>
+      </c>
+      <c r="Y15" s="224">
+        <v>110</v>
+      </c>
+      <c r="Z15" s="196">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="223">
+        <v>14</v>
+      </c>
+      <c r="AB15" s="224">
+        <v>131</v>
+      </c>
+      <c r="AC15" s="196">
+        <v>7</v>
+      </c>
+      <c r="AD15" s="223">
+        <v>12</v>
+      </c>
+      <c r="AE15" s="224">
+        <v>110</v>
+      </c>
+      <c r="AF15" s="196">
+        <v>12</v>
+      </c>
+      <c r="AG15" s="223">
+        <v>5</v>
+      </c>
+      <c r="AH15" s="224">
+        <v>39</v>
+      </c>
+      <c r="AI15" s="196">
+        <v>5</v>
+      </c>
+      <c r="AJ15" s="223">
+        <v>13</v>
+      </c>
+      <c r="AK15" s="224">
+        <v>119</v>
+      </c>
+      <c r="AL15" s="196">
+        <v>11</v>
+      </c>
+      <c r="AM15" s="223">
+        <v>11</v>
+      </c>
+      <c r="AN15" s="225">
+        <v>100</v>
       </c>
       <c r="AO15" s="45"/>
       <c r="AP15" s="46"/>
@@ -14923,85 +15090,85 @@
         <v>0</v>
       </c>
       <c r="BL15" s="4"/>
-      <c r="BM15" s="4" t="s">
-        <v>0</v>
+      <c r="BM15" s="4">
+        <v>120</v>
       </c>
       <c r="BN15" s="4" t="s">
         <v>0</v>
       </c>
       <c r="BO15" s="4"/>
-      <c r="BP15" s="4" t="s">
-        <v>0</v>
+      <c r="BP15" s="4">
+        <v>107</v>
       </c>
       <c r="BQ15" s="4" t="s">
         <v>0</v>
       </c>
       <c r="BR15" s="4"/>
-      <c r="BS15" s="4" t="s">
-        <v>0</v>
+      <c r="BS15" s="4">
+        <v>118</v>
       </c>
       <c r="BT15" s="4" t="s">
         <v>0</v>
       </c>
       <c r="BU15" s="4"/>
-      <c r="BV15" s="4" t="s">
-        <v>0</v>
+      <c r="BV15" s="4">
+        <v>120</v>
       </c>
       <c r="BW15" s="4" t="s">
         <v>0</v>
       </c>
       <c r="BX15" s="4"/>
-      <c r="BY15" s="4" t="s">
-        <v>0</v>
+      <c r="BY15" s="4">
+        <v>120</v>
       </c>
       <c r="BZ15" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CA15" s="4"/>
-      <c r="CB15" s="4" t="s">
-        <v>0</v>
+      <c r="CB15" s="4">
+        <v>104</v>
       </c>
       <c r="CC15" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CD15" s="4"/>
-      <c r="CE15" s="4" t="s">
-        <v>0</v>
+      <c r="CE15" s="4">
+        <v>110</v>
       </c>
       <c r="CF15" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CG15" s="4"/>
-      <c r="CH15" s="4" t="s">
-        <v>0</v>
+      <c r="CH15" s="4">
+        <v>131</v>
       </c>
       <c r="CI15" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CJ15" s="4"/>
-      <c r="CK15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="CL15" s="4" t="s">
-        <v>0</v>
+      <c r="CK15" s="4">
+        <v>110</v>
+      </c>
+      <c r="CL15" s="4">
+        <v>1</v>
       </c>
       <c r="CM15" s="4"/>
-      <c r="CN15" s="4" t="s">
-        <v>0</v>
+      <c r="CN15" s="4">
+        <v>39</v>
       </c>
       <c r="CO15" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CP15" s="4"/>
-      <c r="CQ15" s="4" t="s">
-        <v>0</v>
+      <c r="CQ15" s="4">
+        <v>119</v>
       </c>
       <c r="CR15" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CS15" s="4"/>
-      <c r="CT15" s="4" t="s">
-        <v>0</v>
+      <c r="CT15" s="4">
+        <v>100</v>
       </c>
       <c r="CU15" s="4"/>
     </row>
@@ -16071,115 +16238,115 @@
         <v>22</v>
       </c>
       <c r="D21" s="237">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="E21" s="238">
         <v>7</v>
       </c>
       <c r="F21" s="239">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="G21" s="240">
-        <v>849</v>
+        <v>969</v>
       </c>
       <c r="H21" s="241">
         <v>8</v>
       </c>
       <c r="I21" s="239">
+        <v>106</v>
+      </c>
+      <c r="J21" s="240">
+        <v>954</v>
+      </c>
+      <c r="K21" s="241">
+        <v>2</v>
+      </c>
+      <c r="L21" s="239">
+        <v>102</v>
+      </c>
+      <c r="M21" s="240">
+        <v>998</v>
+      </c>
+      <c r="N21" s="241">
+        <v>3</v>
+      </c>
+      <c r="O21" s="239">
+        <v>109</v>
+      </c>
+      <c r="P21" s="240">
+        <v>997</v>
+      </c>
+      <c r="Q21" s="241">
+        <v>4</v>
+      </c>
+      <c r="R21" s="239">
+        <v>107</v>
+      </c>
+      <c r="S21" s="240">
+        <v>993</v>
+      </c>
+      <c r="T21" s="241">
+        <v>11</v>
+      </c>
+      <c r="U21" s="239">
         <v>94</v>
       </c>
-      <c r="J21" s="240">
-        <v>847</v>
-      </c>
-      <c r="K21" s="241">
-        <v>3</v>
-      </c>
-      <c r="L21" s="239">
-        <v>89</v>
-      </c>
-      <c r="M21" s="240">
-        <v>880</v>
-      </c>
-      <c r="N21" s="241">
-        <v>4</v>
-      </c>
-      <c r="O21" s="239">
-        <v>97</v>
-      </c>
-      <c r="P21" s="240">
-        <v>877</v>
-      </c>
-      <c r="Q21" s="241">
+      <c r="V21" s="240">
+        <v>897</v>
+      </c>
+      <c r="W21" s="241">
         <v>6</v>
       </c>
-      <c r="R21" s="239">
-        <v>94</v>
-      </c>
-      <c r="S21" s="240">
-        <v>873</v>
-      </c>
-      <c r="T21" s="241">
-        <v>10</v>
-      </c>
-      <c r="U21" s="239">
-        <v>82</v>
-      </c>
-      <c r="V21" s="240">
-        <v>793</v>
-      </c>
-      <c r="W21" s="241">
-        <v>5</v>
-      </c>
       <c r="X21" s="239">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="Y21" s="240">
-        <v>874</v>
+        <v>984</v>
       </c>
       <c r="Z21" s="241">
         <v>9</v>
       </c>
       <c r="AA21" s="239">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="AB21" s="240">
-        <v>801</v>
+        <v>932</v>
       </c>
       <c r="AC21" s="241">
         <v>1</v>
       </c>
       <c r="AD21" s="239">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="AE21" s="240">
-        <v>955</v>
+        <v>1065</v>
       </c>
       <c r="AF21" s="241">
         <v>12</v>
       </c>
       <c r="AG21" s="239">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AH21" s="240">
-        <v>709</v>
+        <v>748</v>
       </c>
       <c r="AI21" s="241">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ21" s="239">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="AK21" s="240">
-        <v>786</v>
+        <v>905</v>
       </c>
       <c r="AL21" s="241">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AM21" s="239">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AN21" s="242">
-        <v>885</v>
+        <v>985</v>
       </c>
       <c r="AO21" s="48"/>
       <c r="AP21" s="49"/>
@@ -16190,62 +16357,62 @@
       <c r="BK21" s="4"/>
       <c r="BL21" s="4"/>
       <c r="BM21" s="4">
-        <v>849</v>
+        <v>969</v>
       </c>
       <c r="BN21" s="4"/>
       <c r="BO21" s="4"/>
       <c r="BP21" s="4">
-        <v>847</v>
+        <v>954</v>
       </c>
       <c r="BQ21" s="4"/>
       <c r="BR21" s="4"/>
       <c r="BS21" s="4">
-        <v>880</v>
+        <v>998</v>
       </c>
       <c r="BT21" s="4"/>
       <c r="BU21" s="4"/>
       <c r="BV21" s="4">
-        <v>877</v>
+        <v>997</v>
       </c>
       <c r="BW21" s="4"/>
       <c r="BX21" s="4"/>
       <c r="BY21" s="4">
-        <v>873</v>
+        <v>993</v>
       </c>
       <c r="BZ21" s="4"/>
       <c r="CA21" s="4"/>
       <c r="CB21" s="4">
-        <v>793</v>
+        <v>897</v>
       </c>
       <c r="CC21" s="4"/>
       <c r="CD21" s="4"/>
       <c r="CE21" s="4">
-        <v>874</v>
+        <v>984</v>
       </c>
       <c r="CF21" s="4"/>
       <c r="CG21" s="4"/>
       <c r="CH21" s="4">
-        <v>801</v>
+        <v>932</v>
       </c>
       <c r="CI21" s="4"/>
       <c r="CJ21" s="4"/>
       <c r="CK21" s="4">
-        <v>955</v>
+        <v>1065</v>
       </c>
       <c r="CL21" s="4"/>
       <c r="CM21" s="4"/>
       <c r="CN21" s="4">
-        <v>709</v>
+        <v>748</v>
       </c>
       <c r="CO21" s="4"/>
       <c r="CP21" s="4"/>
       <c r="CQ21" s="4">
-        <v>786</v>
+        <v>905</v>
       </c>
       <c r="CR21" s="4"/>
       <c r="CS21" s="4"/>
       <c r="CT21" s="4">
-        <v>885</v>
+        <v>985</v>
       </c>
       <c r="CU21" s="4"/>
     </row>
@@ -16256,112 +16423,112 @@
         <v>23</v>
       </c>
       <c r="E22" s="246">
-        <v>6.2</v>
+        <v>5.8181818181818183</v>
       </c>
       <c r="F22" s="247">
-        <v>7.7272727272727275</v>
+        <v>8.1666666666666661</v>
       </c>
       <c r="G22" s="248">
-        <v>84.9</v>
+        <v>88.090909090909093</v>
       </c>
       <c r="H22" s="249">
-        <v>6.8181818181818183</v>
+        <v>7</v>
       </c>
       <c r="I22" s="247">
-        <v>8.545454545454545</v>
+        <v>8.8333333333333339</v>
       </c>
       <c r="J22" s="248">
-        <v>84.7</v>
+        <v>86.727272727272734</v>
       </c>
       <c r="K22" s="249">
-        <v>4.7</v>
+        <v>4.8181818181818183</v>
       </c>
       <c r="L22" s="247">
-        <v>8.0909090909090917</v>
+        <v>8.5</v>
       </c>
       <c r="M22" s="248">
-        <v>88</v>
+        <v>90.727272727272734</v>
       </c>
       <c r="N22" s="249">
-        <v>6</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="O22" s="247">
-        <v>8.8181818181818183</v>
+        <v>9.0833333333333339</v>
       </c>
       <c r="P22" s="248">
-        <v>87.7</v>
+        <v>90.63636363636364</v>
       </c>
       <c r="Q22" s="249">
-        <v>6.0909090909090908</v>
+        <v>5.75</v>
       </c>
       <c r="R22" s="247">
-        <v>8.545454545454545</v>
+        <v>8.9166666666666661</v>
       </c>
       <c r="S22" s="248">
-        <v>87.3</v>
+        <v>90.272727272727266</v>
       </c>
       <c r="T22" s="249">
-        <v>6.9</v>
+        <v>7.1818181818181817</v>
       </c>
       <c r="U22" s="247">
-        <v>7.4545454545454541</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="V22" s="248">
-        <v>79.3</v>
+        <v>81.545454545454547</v>
       </c>
       <c r="W22" s="249">
-        <v>5.3636363636363633</v>
+        <v>5.5</v>
       </c>
       <c r="X22" s="247">
-        <v>8.6363636363636367</v>
+        <v>8.75</v>
       </c>
       <c r="Y22" s="248">
-        <v>87.4</v>
+        <v>89.454545454545453</v>
       </c>
       <c r="Z22" s="249">
-        <v>7.6363636363636367</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="AA22" s="247">
-        <v>7.7272727272727275</v>
+        <v>8.25</v>
       </c>
       <c r="AB22" s="248">
-        <v>80.099999999999994</v>
+        <v>84.727272727272734</v>
       </c>
       <c r="AC22" s="249">
-        <v>3.8181818181818183</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="AD22" s="247">
-        <v>9.3636363636363633</v>
+        <v>9.5833333333333339</v>
       </c>
       <c r="AE22" s="248">
-        <v>95.5</v>
+        <v>96.818181818181813</v>
       </c>
       <c r="AF22" s="249">
-        <v>7.1111111111111107</v>
+        <v>7.6</v>
       </c>
       <c r="AG22" s="247">
-        <v>6.6363636363636367</v>
+        <v>6.5</v>
       </c>
       <c r="AH22" s="248">
-        <v>70.900000000000006</v>
+        <v>68</v>
       </c>
       <c r="AI22" s="249">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AJ22" s="247">
-        <v>6.8181818181818183</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="AK22" s="248">
-        <v>78.599999999999994</v>
+        <v>82.272727272727266</v>
       </c>
       <c r="AL22" s="249">
-        <v>6.1818181818181817</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="AM22" s="247">
-        <v>8.6363636363636367</v>
+        <v>8.8333333333333339</v>
       </c>
       <c r="AN22" s="250">
-        <v>88.5</v>
+        <v>89.545454545454547</v>
       </c>
       <c r="AO22" s="48"/>
       <c r="AP22" s="49"/>
@@ -16448,8 +16615,8 @@
       </c>
       <c r="X23" s="255"/>
       <c r="Y23" s="256"/>
-      <c r="Z23" s="257" t="s">
-        <v>0</v>
+      <c r="Z23" s="257">
+        <v>1</v>
       </c>
       <c r="AA23" s="255"/>
       <c r="AB23" s="256"/>
@@ -16523,8 +16690,8 @@
       <c r="D24" s="261" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="74" t="s">
-        <v>0</v>
+      <c r="E24" s="74">
+        <v>1</v>
       </c>
       <c r="F24" s="108"/>
       <c r="G24" s="109"/>
@@ -16538,13 +16705,13 @@
       </c>
       <c r="L24" s="108"/>
       <c r="M24" s="109"/>
-      <c r="N24" s="75" t="s">
-        <v>0</v>
+      <c r="N24" s="75">
+        <v>1</v>
       </c>
       <c r="O24" s="108"/>
       <c r="P24" s="109"/>
       <c r="Q24" s="75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R24" s="108"/>
       <c r="S24" s="109"/>
@@ -16836,8 +17003,8 @@
       </c>
       <c r="AD26" s="108"/>
       <c r="AE26" s="109"/>
-      <c r="AF26" s="75" t="s">
-        <v>0</v>
+      <c r="AF26" s="75">
+        <v>1</v>
       </c>
       <c r="AG26" s="108"/>
       <c r="AH26" s="109"/>
@@ -17473,7 +17640,7 @@
         <v>124</v>
       </c>
       <c r="AV33" s="273">
-        <v>-33</v>
+        <v>-36</v>
       </c>
       <c r="AW33" s="274">
         <v>4</v>
@@ -17485,7 +17652,7 @@
         <v>61</v>
       </c>
       <c r="AZ33" s="275">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="BA33" s="277" t="s">
         <v>0</v>
@@ -17568,10 +17735,10 @@
         <v>97</v>
       </c>
       <c r="AU34" s="280">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AV34" s="281">
-        <v>-33</v>
+        <v>-36</v>
       </c>
       <c r="AW34" s="282">
         <v>2</v>
@@ -17663,13 +17830,13 @@
     </row>
     <row r="35" spans="46:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AT35" s="271" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="AU35" s="280">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV35" s="281">
-        <v>-33</v>
+        <v>-36</v>
       </c>
       <c r="AW35" s="282">
         <v>1</v>
@@ -17687,7 +17854,7 @@
         <v>61</v>
       </c>
       <c r="BB35" s="286">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BC35" s="287"/>
       <c r="BD35" s="282"/>
@@ -17698,63 +17865,63 @@
       <c r="BI35" s="286"/>
       <c r="BJ35" s="4"/>
       <c r="BK35" s="4"/>
-      <c r="BL35" s="4" t="s">
-        <v>0</v>
+      <c r="BL35" s="4">
+        <v>13</v>
       </c>
       <c r="BM35" s="4"/>
       <c r="BN35" s="4"/>
-      <c r="BO35" s="4" t="s">
-        <v>0</v>
+      <c r="BO35" s="4">
+        <v>12</v>
       </c>
       <c r="BP35" s="4"/>
       <c r="BQ35" s="4"/>
-      <c r="BR35" s="4" t="s">
-        <v>0</v>
+      <c r="BR35" s="4">
+        <v>13</v>
       </c>
       <c r="BS35" s="4"/>
       <c r="BT35" s="4"/>
-      <c r="BU35" s="4" t="s">
-        <v>0</v>
+      <c r="BU35" s="4">
+        <v>12</v>
       </c>
       <c r="BV35" s="4"/>
       <c r="BW35" s="4"/>
-      <c r="BX35" s="4" t="s">
-        <v>0</v>
+      <c r="BX35" s="4">
+        <v>13</v>
       </c>
       <c r="BY35" s="4"/>
       <c r="BZ35" s="4"/>
-      <c r="CA35" s="4" t="s">
-        <v>0</v>
+      <c r="CA35" s="4">
+        <v>12</v>
       </c>
       <c r="CB35" s="4"/>
       <c r="CC35" s="4"/>
-      <c r="CD35" s="4" t="s">
-        <v>0</v>
+      <c r="CD35" s="4">
+        <v>10</v>
       </c>
       <c r="CE35" s="4"/>
       <c r="CF35" s="4"/>
-      <c r="CG35" s="4" t="s">
-        <v>0</v>
+      <c r="CG35" s="4">
+        <v>14</v>
       </c>
       <c r="CH35" s="4"/>
       <c r="CI35" s="4"/>
-      <c r="CJ35" s="4" t="s">
-        <v>0</v>
+      <c r="CJ35" s="4">
+        <v>12</v>
       </c>
       <c r="CK35" s="4"/>
       <c r="CL35" s="4"/>
-      <c r="CM35" s="4" t="s">
-        <v>0</v>
+      <c r="CM35" s="4">
+        <v>5</v>
       </c>
       <c r="CN35" s="4"/>
       <c r="CO35" s="4"/>
-      <c r="CP35" s="4" t="s">
-        <v>0</v>
+      <c r="CP35" s="4">
+        <v>13</v>
       </c>
       <c r="CQ35" s="4"/>
       <c r="CR35" s="4"/>
-      <c r="CS35" s="4" t="s">
-        <v>0</v>
+      <c r="CS35" s="4">
+        <v>11</v>
       </c>
       <c r="CT35" s="4"/>
       <c r="CU35" s="4"/>
@@ -17764,10 +17931,10 @@
         <v>92</v>
       </c>
       <c r="AU36" s="280">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="AV36" s="281">
-        <v>-33</v>
+        <v>-36</v>
       </c>
       <c r="AW36" s="282">
         <v>1</v>
@@ -17859,13 +18026,13 @@
     </row>
     <row r="37" spans="46:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AT37" s="271" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AU37" s="280">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="AV37" s="281">
-        <v>-33</v>
+        <v>-36</v>
       </c>
       <c r="AW37" s="282">
         <v>1</v>
@@ -17957,13 +18124,13 @@
     </row>
     <row r="38" spans="46:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AT38" s="271" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AU38" s="280">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="AV38" s="281">
-        <v>-33</v>
+        <v>-36</v>
       </c>
       <c r="AW38" s="282">
         <v>1</v>
@@ -18058,10 +18225,10 @@
         <v>100</v>
       </c>
       <c r="AU39" s="280">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="AV39" s="281">
-        <v>-33</v>
+        <v>-36</v>
       </c>
       <c r="AW39" s="282">
         <v>1</v>
@@ -18153,19 +18320,19 @@
     </row>
     <row r="40" spans="46:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AT40" s="271" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="AU40" s="280">
-        <v>-33</v>
+        <v>-5</v>
       </c>
       <c r="AV40" s="281">
-        <v>-33</v>
-      </c>
-      <c r="AW40" s="282" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX40" s="283" t="s">
-        <v>0</v>
+        <v>-36</v>
+      </c>
+      <c r="AW40" s="282">
+        <v>1</v>
+      </c>
+      <c r="AX40" s="283">
+        <v>31</v>
       </c>
       <c r="AY40" s="284" t="s">
         <v>0</v>
@@ -18251,13 +18418,13 @@
     </row>
     <row r="41" spans="46:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AT41" s="271" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AU41" s="280">
-        <v>-33</v>
+        <v>-36</v>
       </c>
       <c r="AV41" s="281">
-        <v>-33</v>
+        <v>-36</v>
       </c>
       <c r="AW41" s="282" t="s">
         <v>0</v>
@@ -18287,75 +18454,75 @@
       <c r="BJ41" s="4"/>
       <c r="BK41" s="4"/>
       <c r="BL41" s="4">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="BM41" s="4"/>
       <c r="BN41" s="4"/>
       <c r="BO41" s="4">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="BP41" s="4"/>
       <c r="BQ41" s="4"/>
       <c r="BR41" s="4">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="BS41" s="4"/>
       <c r="BT41" s="4"/>
       <c r="BU41" s="4">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="BV41" s="4"/>
       <c r="BW41" s="4"/>
       <c r="BX41" s="4">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="BY41" s="4"/>
       <c r="BZ41" s="4"/>
       <c r="CA41" s="4">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="CB41" s="4"/>
       <c r="CC41" s="4"/>
       <c r="CD41" s="4">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="CE41" s="4"/>
       <c r="CF41" s="4"/>
       <c r="CG41" s="4">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="CH41" s="4"/>
       <c r="CI41" s="4"/>
       <c r="CJ41" s="4">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="CK41" s="4"/>
       <c r="CL41" s="4"/>
       <c r="CM41" s="4">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="CN41" s="4"/>
       <c r="CO41" s="4"/>
       <c r="CP41" s="4">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="CQ41" s="4"/>
       <c r="CR41" s="4"/>
       <c r="CS41" s="4">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="CT41" s="4"/>
       <c r="CU41" s="4"/>
     </row>
     <row r="42" spans="46:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AT42" s="271" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AU42" s="280">
-        <v>-33</v>
+        <v>-36</v>
       </c>
       <c r="AV42" s="281">
-        <v>-33</v>
+        <v>-36</v>
       </c>
       <c r="AW42" s="282" t="s">
         <v>0</v>
@@ -18384,62 +18551,62 @@
       <c r="BI42" s="286"/>
       <c r="BJ42" s="50"/>
       <c r="BK42" s="50">
-        <v>6.2</v>
+        <v>5.8181818181818183</v>
       </c>
       <c r="BL42" s="50"/>
       <c r="BM42" s="50"/>
       <c r="BN42" s="50">
-        <v>6.8181818181818183</v>
+        <v>7</v>
       </c>
       <c r="BO42" s="50"/>
       <c r="BP42" s="50"/>
       <c r="BQ42" s="50">
-        <v>4.7</v>
+        <v>4.8181818181818183</v>
       </c>
       <c r="BR42" s="50"/>
       <c r="BS42" s="50"/>
       <c r="BT42" s="50">
-        <v>6</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="BU42" s="50"/>
       <c r="BV42" s="50"/>
       <c r="BW42" s="50">
-        <v>6.0909090909090908</v>
+        <v>5.75</v>
       </c>
       <c r="BX42" s="50"/>
       <c r="BY42" s="50"/>
       <c r="BZ42" s="50">
-        <v>6.9</v>
+        <v>7.1818181818181817</v>
       </c>
       <c r="CA42" s="50"/>
       <c r="CB42" s="50"/>
       <c r="CC42" s="50">
-        <v>5.3636363636363633</v>
+        <v>5.5</v>
       </c>
       <c r="CD42" s="50"/>
       <c r="CE42" s="50"/>
       <c r="CF42" s="50">
-        <v>7.6363636363636367</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="CG42" s="50"/>
       <c r="CH42" s="50"/>
       <c r="CI42" s="50">
-        <v>3.8181818181818183</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="CJ42" s="50"/>
       <c r="CK42" s="50"/>
       <c r="CL42" s="50">
-        <v>7.1111111111111107</v>
+        <v>7.6</v>
       </c>
       <c r="CM42" s="50"/>
       <c r="CN42" s="50"/>
       <c r="CO42" s="50">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="CP42" s="50"/>
       <c r="CQ42" s="50"/>
       <c r="CR42" s="50">
-        <v>6.1818181818181817</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="CS42" s="50"/>
       <c r="CT42" s="50"/>
@@ -18447,13 +18614,13 @@
     </row>
     <row r="43" spans="46:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AT43" s="271" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AU43" s="280">
-        <v>-33</v>
+        <v>-36</v>
       </c>
       <c r="AV43" s="281">
-        <v>-33</v>
+        <v>-36</v>
       </c>
       <c r="AW43" s="282" t="s">
         <v>0</v>
@@ -18486,10 +18653,10 @@
         <v>101</v>
       </c>
       <c r="AU44" s="289">
-        <v>-33</v>
+        <v>-36</v>
       </c>
       <c r="AV44" s="290">
-        <v>-33</v>
+        <v>-36</v>
       </c>
       <c r="AW44" s="291" t="s">
         <v>0</v>

--- a/regular_season_final.xlsx
+++ b/regular_season_final.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="175">
   <si>
     <t/>
   </si>
@@ -335,12 +335,6 @@
     <t>RR</t>
   </si>
   <si>
-    <t>Browns</t>
-  </si>
-  <si>
-    <t>Titans</t>
-  </si>
-  <si>
     <t>2016 Season Summary</t>
   </si>
   <si>
@@ -443,118 +437,118 @@
     <t>Raiders</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Week 12 Scores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w12_p1_picks         = ["H","H","V","H","H","H","V","V","V","H","H","V","H","H","V","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w12_p2_picks         = ["V","H","H","H","H","H","V","V","H","H","H","H","V","H","V","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w12_p3_picks         = ["H","H","V","H","H","H","V","V","V","H","H","V","H","H","V","H"];</t>
-  </si>
-  <si>
     <t>Falcons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w12_p4_picks         = ["V","H","V","H","H","H","V","V","H","H","H","V","H","H","V","V"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w12_p5_picks         = ["H","H","V","H","H","H","V","V","V","H","H","V","H","H","V","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w12_p6_picks         = ["H","V","V","H","H","H","V","V","V","H","H","V","H","H","V","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w12_p7_picks         = ["H","H","V","H","V","H","V","V","H","H","V","V","V","V","V","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w12_p8_picks         = ["H","H","V","H","H","H","V","V","H","H","H","H","V","H","V","H"];</t>
   </si>
   <si>
     <t>Chargers</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w12_p9_picks         = ["H","H","V","H","H","H","V","V","H","H","H","V","H","H","V","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w12_p10_picks        = ["H","V","H","V","V","V","H","V","V","V","H","H","H","V","H","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w12_p11_picks        = ["H","H","V","H","H","H","V","V","V","H","H","V","V","V","V","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w12_p12_picks        = ["V","H","V","H","H","H","V","V","H","H","H","V","H","H","V","H"];</t>
-  </si>
-  <si>
     <t>Broncos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w12_p1_weights       = ["6","9","15","7","8","14","10","12","1","13","4","11","3","5","16","2"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w12_p2_weights       = ["1","2","3","4","5","6","7","8","9","13","14","12","11","10","15","16"];</t>
   </si>
   <si>
     <t>Jets</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w12_p3_weights       = ["2","12","16","6","7","14","8","10","1","13","11","9","4","3","15","5"];</t>
+    <t>13</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w12_p4_weights       = ["2","12","11","6","7","14","8","10","1","13","16","9","4","3","15","5"];</t>
+    <t>Week 13 Scores</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w12_p5_weights       = ["4","9","7","3","12","14","11","15","1","13","10","6","8","5","16","2"];</t>
+    <t xml:space="preserve">   var w13_p1_picks         = ["V","H","H","H","V","H","V","H","H","H","H","H","H","H","V"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w12_p6_weights       = ["6","1","14","7","9","10","2","13","8","11","5","15","4","3","16","12"];</t>
+    <t xml:space="preserve">   var w13_p2_picks         = ["V","H","H","H","V","H","V","H","H","H","V","V","V","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w12_p7_weights       = ["9","8","16","12","2","11","14","13","1","7","6","10","5","4","15","3"];</t>
+    <t xml:space="preserve">   var w13_p3_picks         = ["V","H","H","H","V","H","V","H","H","H","H","H","H","H","V"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w12_p8_weights       = ["5","12","16","8","7","13","6","14","1","11","9","10","2","3","15","4"];</t>
+    <t xml:space="preserve">   var w13_p4_picks         = ["V","H","H","H","V","H","V","H","H","H","H","H","H","H","V"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w12_p9_weights       = ["2","1","7","6","5","13","12","15","9","14","11","10","3","8","16","4"];</t>
+    <t xml:space="preserve">   var w13_p5_picks         = ["V","H","H","V","H","H","V","H","H","H","V","H","H","H","V"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w12_p10_weights      = ["15","7","5","8","10","2","16","6","1","9","4","13","11","12","14","3"];</t>
+    <t xml:space="preserve">   var w13_p6_picks         = ["V","H","V","V","H","H","V","H","V","H","V","H","H","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w12_p11_weights      = ["2","12","4","6","8","14","7","10","1","13","11","9","16","3","15","5"];</t>
+    <t xml:space="preserve">   var w13_p7_picks         = ["V","H","V","H","H","H","V","H","V","H","V","H","H","H","V"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w12_p12_weights      = ["8","6","5","7","4","13","12","14","10","11","3","15","2","9","16","1"];</t>
+    <t xml:space="preserve">   var w13_p8_picks         = ["V","H","V","H","H","H","V","H","H","H","H","H","V","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w12_winners          = ["H","H","V","H","H","H","V","V","V","H","H","H","V","H","V","V"];</t>
+    <t xml:space="preserve">   var w13_p9_picks         = ["V","H","V","H","V","H","V","H","H","H","V","H","H","H","V"];</t>
   </si>
   <si>
-    <t>None</t>
+    <t xml:space="preserve">   var w13_p10_picks        = ["V","H","V","V","V","H","V","V","H","V","V","H","V","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w12_mn_points        = ["46","46","47","42","47","52","38","49","49","47","42","58"];</t>
+    <t xml:space="preserve">   var w13_p11_picks        = ["V","V","H","H","H","H","V","H","H","H","H","H","V","H","V"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w12_actual_mn_points = 0;</t>
+    <t xml:space="preserve">   var w13_p12_picks        = ["V","H","V","H","V","H","V","H","H","H","H","H","H","H","H"];</t>
   </si>
   <si>
-    <t>Week 12 Final</t>
+    <t xml:space="preserve">   var w13_p1_weights       = ["10","7","8","4","3","16","11","14","12","6","5","13","9","15","2"];</t>
   </si>
   <si>
-    <t>'Week 12'!$B$2</t>
+    <t xml:space="preserve">   var w13_p2_weights       = ["16","15","14","2","3","8","10","13","12","11","9","7","6","5","4"];</t>
   </si>
   <si>
-    <t>'Week 12'!$C$2</t>
+    <t xml:space="preserve">   var w13_p3_weights       = ["7","9","8","5","3","14","11","16","12","6","4","13","10","15","2"];</t>
   </si>
   <si>
-    <t>'Week 12'!$D$2</t>
+    <t xml:space="preserve">   var w13_p4_weights       = ["7","5","3","9","8","11","12","16","14","6","4","13","10","15","2"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w13_p5_weights       = ["10","14","3","11","4","2","15","16","13","5","7","6","12","8","9"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w13_p6_weights       = ["15","7","4","5","3","9","10","16","8","13","12","11","6","14","2"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w13_p7_weights       = ["13","4","3","2","8","12","14","15","6","7","5","16","11","9","10"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w13_p8_weights       = ["10","7","2","8","4","14","9","16","11","13","6","12","3","15","5"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w13_p9_weights       = ["15","7","4","2","13","14","12","16","5","11","6","8","3","9","10"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w13_p10_weights      = ["5","7","8","16","13","9","10","14","2","4","12","11","6","3","15"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w13_p11_weights      = ["7","16","9","4","3","14","11","15","10","6","5","12","8","13","2"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w13_p12_weights      = ["11","3","4","8","7","14","16","15","10","13","2","9","5","6","12"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w13_winners          = ["V","V","H","H","H","H","V","H","V","H","H","H","V","H","V"];</t>
+  </si>
+  <si>
+    <t>Browns, Titans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w13_mn_points        = ["48","43","49","42","44","38","38","47","44","54","54","28"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w13_actual_mn_points = 0;</t>
+  </si>
+  <si>
+    <t>Week 13 Final</t>
+  </si>
+  <si>
+    <t>'Week 13'!$B$2</t>
+  </si>
+  <si>
+    <t>'Week 13'!$C$2</t>
+  </si>
+  <si>
+    <t>'Week 13'!$D$2</t>
   </si>
 </sst>
 </file>
@@ -3251,7 +3245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="329">
+  <cellXfs count="330">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4106,9 +4100,6 @@
     <xf numFmtId="165" fontId="2" fillId="3" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="172" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="173" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4228,6 +4219,12 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="162" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="169" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="172" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5193,67 +5190,67 @@
       <c r="B2" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="297" t="s">
-        <v>139</v>
+      <c r="C2" s="296" t="s">
+        <v>141</v>
       </c>
       <c r="D2" s="112" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E2" s="113"/>
       <c r="F2" s="114" t="s">
         <v>91</v>
       </c>
       <c r="G2" s="115">
-        <v>-36</v>
+        <v>-39</v>
       </c>
       <c r="H2" s="116"/>
       <c r="I2" s="114" t="s">
         <v>92</v>
       </c>
       <c r="J2" s="115">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="K2" s="116"/>
       <c r="L2" s="114" t="s">
         <v>93</v>
       </c>
       <c r="M2" s="115">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N2" s="116"/>
       <c r="O2" s="114" t="s">
         <v>94</v>
       </c>
       <c r="P2" s="115">
-        <v>-36</v>
+        <v>-39</v>
       </c>
       <c r="Q2" s="116"/>
       <c r="R2" s="114" t="s">
         <v>95</v>
       </c>
       <c r="S2" s="115">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="T2" s="116"/>
       <c r="U2" s="114" t="s">
         <v>96</v>
       </c>
       <c r="V2" s="115">
-        <v>-36</v>
+        <v>-39</v>
       </c>
       <c r="W2" s="116"/>
       <c r="X2" s="114" t="s">
         <v>97</v>
       </c>
       <c r="Y2" s="115">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z2" s="116"/>
       <c r="AA2" s="114" t="s">
         <v>98</v>
       </c>
       <c r="AB2" s="115">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="AC2" s="116"/>
       <c r="AD2" s="114" t="s">
@@ -5267,21 +5264,21 @@
         <v>100</v>
       </c>
       <c r="AH2" s="115">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="AI2" s="116"/>
       <c r="AJ2" s="114" t="s">
         <v>101</v>
       </c>
       <c r="AK2" s="115">
-        <v>-36</v>
+        <v>-8</v>
       </c>
       <c r="AL2" s="116"/>
       <c r="AM2" s="114" t="s">
         <v>102</v>
       </c>
       <c r="AN2" s="115">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="AO2" s="117"/>
       <c r="AP2" s="3"/>
@@ -5291,41 +5288,41 @@
       <c r="AS2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AT2" s="303" t="s">
+      <c r="AT2" s="302" t="s">
         <v>42</v>
       </c>
-      <c r="AU2" s="304" t="s">
+      <c r="AU2" s="303" t="s">
         <v>42</v>
       </c>
-      <c r="AV2" s="305"/>
+      <c r="AV2" s="304"/>
       <c r="AW2" s="3"/>
-      <c r="BE2" s="300" t="s">
-        <v>140</v>
-      </c>
-      <c r="BF2" s="301"/>
-      <c r="BG2" s="302"/>
+      <c r="BE2" s="299" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF2" s="300"/>
+      <c r="BG2" s="301"/>
       <c r="BH2" s="171"/>
-      <c r="BI2" s="300" t="s">
+      <c r="BI2" s="299" t="s">
         <v>43</v>
       </c>
-      <c r="BJ2" s="301"/>
-      <c r="BK2" s="301"/>
-      <c r="BL2" s="302"/>
+      <c r="BJ2" s="300"/>
+      <c r="BK2" s="300"/>
+      <c r="BL2" s="301"/>
       <c r="BM2" s="172"/>
-      <c r="BN2" s="300" t="s">
+      <c r="BN2" s="299" t="s">
         <v>44</v>
       </c>
-      <c r="BO2" s="301"/>
-      <c r="BP2" s="302"/>
-      <c r="BQ2" s="300" t="s">
+      <c r="BO2" s="300"/>
+      <c r="BP2" s="301"/>
+      <c r="BQ2" s="299" t="s">
         <v>45</v>
       </c>
-      <c r="BR2" s="301"/>
-      <c r="BS2" s="301"/>
-      <c r="BT2" s="301"/>
-      <c r="BU2" s="301"/>
-      <c r="BV2" s="301"/>
-      <c r="BW2" s="302"/>
+      <c r="BR2" s="300"/>
+      <c r="BS2" s="300"/>
+      <c r="BT2" s="300"/>
+      <c r="BU2" s="300"/>
+      <c r="BV2" s="300"/>
+      <c r="BW2" s="301"/>
       <c r="BY2" s="10" t="s">
         <v>1</v>
       </c>
@@ -5452,7 +5449,7 @@
       </c>
       <c r="AP3" s="3"/>
       <c r="AR3" s="11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS3" s="9" t="s">
         <v>52</v>
@@ -5502,40 +5499,40 @@
       <c r="BQ3" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="BR3" s="298" t="s">
+      <c r="BR3" s="297" t="s">
         <v>57</v>
       </c>
-      <c r="BS3" s="306"/>
-      <c r="BT3" s="298" t="s">
+      <c r="BS3" s="305"/>
+      <c r="BT3" s="297" t="s">
         <v>58</v>
       </c>
-      <c r="BU3" s="306"/>
-      <c r="BV3" s="298" t="s">
+      <c r="BU3" s="305"/>
+      <c r="BV3" s="297" t="s">
         <v>59</v>
       </c>
-      <c r="BW3" s="299"/>
+      <c r="BW3" s="298"/>
       <c r="BY3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="180" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C4" s="181" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="181" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="E4" s="182" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F4" s="183" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="G4" s="184">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H4" s="185" t="s">
         <v>0</v>
@@ -5544,16 +5541,16 @@
         <v>88</v>
       </c>
       <c r="J4" s="184">
-        <v>1</v>
-      </c>
-      <c r="K4" s="185">
-        <v>-1</v>
+        <v>16</v>
+      </c>
+      <c r="K4" s="185" t="s">
+        <v>0</v>
       </c>
       <c r="L4" s="186" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="M4" s="184">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N4" s="185" t="s">
         <v>0</v>
@@ -5562,70 +5559,70 @@
         <v>88</v>
       </c>
       <c r="P4" s="184">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="185">
-        <v>-2</v>
+        <v>7</v>
+      </c>
+      <c r="Q4" s="185" t="s">
+        <v>0</v>
       </c>
       <c r="R4" s="186" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="S4" s="184">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="T4" s="185" t="s">
         <v>0</v>
       </c>
       <c r="U4" s="186" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="V4" s="184">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="W4" s="185" t="s">
         <v>0</v>
       </c>
       <c r="X4" s="186" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="Y4" s="184">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Z4" s="185" t="s">
         <v>0</v>
       </c>
       <c r="AA4" s="186" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AB4" s="184">
+        <v>10</v>
+      </c>
+      <c r="AC4" s="185" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="186" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE4" s="184">
+        <v>15</v>
+      </c>
+      <c r="AF4" s="185" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="186" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH4" s="184">
         <v>5</v>
       </c>
-      <c r="AC4" s="185" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="186" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE4" s="184">
-        <v>2</v>
-      </c>
-      <c r="AF4" s="185" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="186" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH4" s="184">
-        <v>15</v>
-      </c>
       <c r="AI4" s="185" t="s">
         <v>0</v>
       </c>
       <c r="AJ4" s="186" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AK4" s="184">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AL4" s="185" t="s">
         <v>0</v>
@@ -5634,31 +5631,31 @@
         <v>88</v>
       </c>
       <c r="AN4" s="184">
-        <v>8</v>
-      </c>
-      <c r="AO4" s="187">
-        <v>-8</v>
+        <v>11</v>
+      </c>
+      <c r="AO4" s="187" t="s">
+        <v>0</v>
       </c>
       <c r="AT4" s="188" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AU4" s="184">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AV4" s="187" t="s">
         <v>0</v>
       </c>
       <c r="AX4" s="4">
-        <v>40</v>
+        <v>-126</v>
       </c>
       <c r="AY4" s="4">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="AZ4" s="4">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="BA4" s="4">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="BB4" s="4">
         <v>1</v>
@@ -5670,10 +5667,10 @@
         <v>1</v>
       </c>
       <c r="BF4" s="60" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="BG4" s="61">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="BH4" s="189"/>
       <c r="BI4" s="62">
@@ -5683,10 +5680,10 @@
         <v>99</v>
       </c>
       <c r="BK4" s="64">
-        <v>96.818181818181813</v>
+        <v>96.833333333333329</v>
       </c>
       <c r="BL4" s="65">
-        <v>1065</v>
+        <v>1162</v>
       </c>
       <c r="BM4" s="172"/>
       <c r="BN4" s="66">
@@ -5699,7 +5696,7 @@
         <v>124</v>
       </c>
       <c r="BQ4" s="69">
-        <v>-36</v>
+        <v>-39</v>
       </c>
       <c r="BR4" s="70">
         <v>4</v>
@@ -5711,7 +5708,7 @@
         <v>61</v>
       </c>
       <c r="BU4" s="71">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="BV4" s="72" t="s">
         <v>0</v>
@@ -5720,105 +5717,105 @@
         <v>0</v>
       </c>
       <c r="BY4" s="12" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="190" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C5" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="191" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="E5" s="192" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F5" s="193" t="s">
         <v>60</v>
       </c>
       <c r="G5" s="194">
-        <v>9</v>
-      </c>
-      <c r="H5" s="195" t="s">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="H5" s="195">
+        <v>-7</v>
       </c>
       <c r="I5" s="196" t="s">
         <v>60</v>
       </c>
       <c r="J5" s="194">
-        <v>2</v>
-      </c>
-      <c r="K5" s="195" t="s">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="K5" s="195">
+        <v>-15</v>
       </c>
       <c r="L5" s="196" t="s">
         <v>60</v>
       </c>
       <c r="M5" s="194">
-        <v>12</v>
-      </c>
-      <c r="N5" s="195" t="s">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="N5" s="195">
+        <v>-9</v>
       </c>
       <c r="O5" s="196" t="s">
         <v>60</v>
       </c>
       <c r="P5" s="194">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="195" t="s">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="Q5" s="195">
+        <v>-5</v>
       </c>
       <c r="R5" s="196" t="s">
         <v>60</v>
       </c>
       <c r="S5" s="194">
-        <v>9</v>
-      </c>
-      <c r="T5" s="195" t="s">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="T5" s="195">
+        <v>-14</v>
       </c>
       <c r="U5" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="V5" s="194">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="W5" s="195">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="X5" s="196" t="s">
         <v>60</v>
       </c>
       <c r="Y5" s="194">
-        <v>8</v>
-      </c>
-      <c r="Z5" s="195" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="Z5" s="195">
+        <v>-4</v>
       </c>
       <c r="AA5" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AB5" s="194">
-        <v>12</v>
-      </c>
-      <c r="AC5" s="195" t="s">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="AC5" s="195">
+        <v>-7</v>
       </c>
       <c r="AD5" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AE5" s="194">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="195" t="s">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="AF5" s="195">
+        <v>-7</v>
       </c>
       <c r="AG5" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AH5" s="194">
         <v>7</v>
@@ -5827,10 +5824,10 @@
         <v>-7</v>
       </c>
       <c r="AJ5" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AK5" s="194">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AL5" s="195" t="s">
         <v>0</v>
@@ -5839,10 +5836,10 @@
         <v>60</v>
       </c>
       <c r="AN5" s="194">
-        <v>6</v>
-      </c>
-      <c r="AO5" s="197" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="AO5" s="197">
+        <v>-3</v>
       </c>
       <c r="AR5" s="8"/>
       <c r="AS5" s="9"/>
@@ -5850,22 +5847,22 @@
         <v>60</v>
       </c>
       <c r="AU5" s="194">
-        <v>9</v>
-      </c>
-      <c r="AV5" s="197" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="AV5" s="197">
+        <v>-8</v>
       </c>
       <c r="AX5" s="4">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AY5" s="4">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AZ5" s="4">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="BA5" s="4">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="BB5" s="4">
         <v>2</v>
@@ -5877,10 +5874,10 @@
         <v>2</v>
       </c>
       <c r="BF5" s="77" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="BG5" s="78">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="BH5" s="189"/>
       <c r="BI5" s="79">
@@ -5890,10 +5887,10 @@
         <v>93</v>
       </c>
       <c r="BK5" s="81">
-        <v>90.727272727272734</v>
+        <v>91.583333333333329</v>
       </c>
       <c r="BL5" s="82">
-        <v>998</v>
+        <v>1099</v>
       </c>
       <c r="BM5" s="172"/>
       <c r="BN5" s="79">
@@ -5903,10 +5900,10 @@
         <v>97</v>
       </c>
       <c r="BP5" s="83">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BQ5" s="84">
-        <v>-36</v>
+        <v>-39</v>
       </c>
       <c r="BR5" s="85">
         <v>2</v>
@@ -5927,7 +5924,7 @@
         <v>0</v>
       </c>
       <c r="BY5" s="12" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5938,16 +5935,16 @@
         <v>6</v>
       </c>
       <c r="D6" s="191" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E6" s="192" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F6" s="193" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="G6" s="194">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H6" s="195" t="s">
         <v>0</v>
@@ -5956,34 +5953,34 @@
         <v>60</v>
       </c>
       <c r="J6" s="194">
+        <v>14</v>
+      </c>
+      <c r="K6" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" s="194">
+        <v>8</v>
+      </c>
+      <c r="N6" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" s="194">
         <v>3</v>
       </c>
-      <c r="K6" s="195">
-        <v>-3</v>
-      </c>
-      <c r="L6" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="M6" s="194">
-        <v>16</v>
-      </c>
-      <c r="N6" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="O6" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="P6" s="194">
-        <v>11</v>
-      </c>
       <c r="Q6" s="195" t="s">
         <v>0</v>
       </c>
       <c r="R6" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="S6" s="194">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="T6" s="195" t="s">
         <v>0</v>
@@ -5992,52 +5989,52 @@
         <v>88</v>
       </c>
       <c r="V6" s="194">
-        <v>14</v>
-      </c>
-      <c r="W6" s="195" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="W6" s="195">
+        <v>-4</v>
       </c>
       <c r="X6" s="196" t="s">
         <v>88</v>
       </c>
       <c r="Y6" s="194">
-        <v>16</v>
-      </c>
-      <c r="Z6" s="195" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="Z6" s="195">
+        <v>-3</v>
       </c>
       <c r="AA6" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AB6" s="194">
-        <v>16</v>
-      </c>
-      <c r="AC6" s="195" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="AC6" s="195">
+        <v>-2</v>
       </c>
       <c r="AD6" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AE6" s="194">
-        <v>7</v>
-      </c>
-      <c r="AF6" s="195" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="AF6" s="195">
+        <v>-4</v>
       </c>
       <c r="AG6" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH6" s="194">
+        <v>8</v>
+      </c>
+      <c r="AI6" s="195">
+        <v>-8</v>
+      </c>
+      <c r="AJ6" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="AH6" s="194">
-        <v>5</v>
-      </c>
-      <c r="AI6" s="195">
-        <v>-5</v>
-      </c>
-      <c r="AJ6" s="196" t="s">
-        <v>88</v>
-      </c>
       <c r="AK6" s="194">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AL6" s="195" t="s">
         <v>0</v>
@@ -6046,33 +6043,33 @@
         <v>88</v>
       </c>
       <c r="AN6" s="194">
-        <v>5</v>
-      </c>
-      <c r="AO6" s="197" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="AO6" s="197">
+        <v>-4</v>
       </c>
       <c r="AR6" s="8"/>
       <c r="AS6" s="9"/>
       <c r="AT6" s="198" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AU6" s="194">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AV6" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX6" s="4">
-        <v>-103</v>
+        <v>20</v>
       </c>
       <c r="AY6" s="4">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="AZ6" s="4">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="BA6" s="4">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="BB6" s="4">
         <v>3</v>
@@ -6081,26 +6078,26 @@
         <v>1</v>
       </c>
       <c r="BE6" s="76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BF6" s="77" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="BG6" s="78">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BH6" s="189"/>
       <c r="BI6" s="79">
         <v>3</v>
       </c>
       <c r="BJ6" s="80" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="BK6" s="81">
-        <v>90.63636363636364</v>
+        <v>91.333333333333329</v>
       </c>
       <c r="BL6" s="82">
-        <v>997</v>
+        <v>1096</v>
       </c>
       <c r="BM6" s="172"/>
       <c r="BN6" s="79">
@@ -6110,10 +6107,10 @@
         <v>93</v>
       </c>
       <c r="BP6" s="83">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BQ6" s="84">
-        <v>-36</v>
+        <v>-39</v>
       </c>
       <c r="BR6" s="85">
         <v>1</v>
@@ -6131,21 +6128,21 @@
         <v>61</v>
       </c>
       <c r="BW6" s="88">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BY6" s="12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="190" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C7" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="191" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="E7" s="192" t="s">
         <v>60</v>
@@ -6154,7 +6151,7 @@
         <v>60</v>
       </c>
       <c r="G7" s="194">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H7" s="195" t="s">
         <v>0</v>
@@ -6163,7 +6160,7 @@
         <v>60</v>
       </c>
       <c r="J7" s="194">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K7" s="195" t="s">
         <v>0</v>
@@ -6172,7 +6169,7 @@
         <v>60</v>
       </c>
       <c r="M7" s="194">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N7" s="195" t="s">
         <v>0</v>
@@ -6181,34 +6178,34 @@
         <v>60</v>
       </c>
       <c r="P7" s="194">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q7" s="195" t="s">
         <v>0</v>
       </c>
       <c r="R7" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="S7" s="194">
-        <v>3</v>
-      </c>
-      <c r="T7" s="195" t="s">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="T7" s="195">
+        <v>-11</v>
       </c>
       <c r="U7" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="V7" s="194">
-        <v>7</v>
-      </c>
-      <c r="W7" s="195" t="s">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="W7" s="195">
+        <v>-5</v>
       </c>
       <c r="X7" s="196" t="s">
         <v>60</v>
       </c>
       <c r="Y7" s="194">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="Z7" s="195" t="s">
         <v>0</v>
@@ -6226,7 +6223,7 @@
         <v>60</v>
       </c>
       <c r="AE7" s="194">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AF7" s="195" t="s">
         <v>0</v>
@@ -6235,16 +6232,16 @@
         <v>88</v>
       </c>
       <c r="AH7" s="194">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AI7" s="195">
-        <v>-8</v>
+        <v>-16</v>
       </c>
       <c r="AJ7" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AK7" s="194">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AL7" s="195" t="s">
         <v>0</v>
@@ -6253,7 +6250,7 @@
         <v>60</v>
       </c>
       <c r="AN7" s="194">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO7" s="197" t="s">
         <v>0</v>
@@ -6262,22 +6259,22 @@
         <v>60</v>
       </c>
       <c r="AU7" s="194">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AV7" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX7" s="4">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="AY7" s="4">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="AZ7" s="4">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="BA7" s="4">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="BB7" s="4">
         <v>4</v>
@@ -6286,26 +6283,26 @@
         <v>1</v>
       </c>
       <c r="BE7" s="76">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BF7" s="77" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="BG7" s="78">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="BH7" s="189"/>
       <c r="BI7" s="79">
         <v>4</v>
       </c>
       <c r="BJ7" s="80" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BK7" s="81">
-        <v>90.272727272727266</v>
+        <v>91.25</v>
       </c>
       <c r="BL7" s="82">
-        <v>993</v>
+        <v>1095</v>
       </c>
       <c r="BM7" s="172"/>
       <c r="BN7" s="79">
@@ -6315,10 +6312,10 @@
         <v>92</v>
       </c>
       <c r="BP7" s="83">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="BQ7" s="84">
-        <v>-36</v>
+        <v>-39</v>
       </c>
       <c r="BR7" s="85">
         <v>1</v>
@@ -6339,63 +6336,63 @@
         <v>0</v>
       </c>
       <c r="BY7" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="190" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="C8" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="191" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E8" s="192" t="s">
         <v>60</v>
       </c>
       <c r="F8" s="193" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="G8" s="194">
+        <v>3</v>
+      </c>
+      <c r="H8" s="195">
+        <v>-3</v>
+      </c>
+      <c r="I8" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" s="194">
+        <v>3</v>
+      </c>
+      <c r="K8" s="195">
+        <v>-3</v>
+      </c>
+      <c r="L8" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" s="194">
+        <v>3</v>
+      </c>
+      <c r="N8" s="195">
+        <v>-3</v>
+      </c>
+      <c r="O8" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="P8" s="194">
         <v>8</v>
       </c>
-      <c r="H8" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" s="194">
-        <v>5</v>
-      </c>
-      <c r="K8" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="L8" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="M8" s="194">
-        <v>7</v>
-      </c>
-      <c r="N8" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="O8" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="P8" s="194">
-        <v>7</v>
-      </c>
-      <c r="Q8" s="195" t="s">
-        <v>0</v>
+      <c r="Q8" s="195">
+        <v>-8</v>
       </c>
       <c r="R8" s="196" t="s">
         <v>60</v>
       </c>
       <c r="S8" s="194">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="T8" s="195" t="s">
         <v>0</v>
@@ -6404,85 +6401,85 @@
         <v>60</v>
       </c>
       <c r="V8" s="194">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="W8" s="195" t="s">
         <v>0</v>
       </c>
       <c r="X8" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="Y8" s="194">
-        <v>2</v>
-      </c>
-      <c r="Z8" s="195">
-        <v>-2</v>
+        <v>8</v>
+      </c>
+      <c r="Z8" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AA8" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AB8" s="194">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AC8" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AD8" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AE8" s="194">
-        <v>5</v>
-      </c>
-      <c r="AF8" s="195" t="s">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="AF8" s="195">
+        <v>-13</v>
       </c>
       <c r="AG8" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AH8" s="194">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AI8" s="195">
-        <v>-10</v>
+        <v>-13</v>
       </c>
       <c r="AJ8" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AK8" s="194">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AL8" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AM8" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AN8" s="194">
-        <v>4</v>
-      </c>
-      <c r="AO8" s="197" t="s">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="AO8" s="197">
+        <v>-7</v>
       </c>
       <c r="AT8" s="198" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AU8" s="194">
-        <v>7</v>
-      </c>
-      <c r="AV8" s="197" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="AV8" s="197">
+        <v>-6</v>
       </c>
       <c r="AX8" s="4">
-        <v>60</v>
+        <v>-28</v>
       </c>
       <c r="AY8" s="4">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="AZ8" s="4">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="BA8" s="4">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="BB8" s="4">
         <v>5</v>
@@ -6494,10 +6491,10 @@
         <v>5</v>
       </c>
       <c r="BF8" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG8" s="78">
         <v>101</v>
-      </c>
-      <c r="BG8" s="78">
-        <v>119</v>
       </c>
       <c r="BH8" s="189"/>
       <c r="BI8" s="79">
@@ -6507,10 +6504,10 @@
         <v>102</v>
       </c>
       <c r="BK8" s="81">
-        <v>89.545454545454547</v>
+        <v>89.916666666666671</v>
       </c>
       <c r="BL8" s="82">
-        <v>985</v>
+        <v>1079</v>
       </c>
       <c r="BM8" s="172"/>
       <c r="BN8" s="79">
@@ -6520,10 +6517,10 @@
         <v>95</v>
       </c>
       <c r="BP8" s="83">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="BQ8" s="84">
-        <v>-36</v>
+        <v>-39</v>
       </c>
       <c r="BR8" s="85">
         <v>1</v>
@@ -6544,18 +6541,18 @@
         <v>0</v>
       </c>
       <c r="BY8" s="12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="190" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="C9" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="191" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="E9" s="192" t="s">
         <v>60</v>
@@ -6564,7 +6561,7 @@
         <v>60</v>
       </c>
       <c r="G9" s="194">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H9" s="195" t="s">
         <v>0</v>
@@ -6573,7 +6570,7 @@
         <v>60</v>
       </c>
       <c r="J9" s="194">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K9" s="195" t="s">
         <v>0</v>
@@ -6591,7 +6588,7 @@
         <v>60</v>
       </c>
       <c r="P9" s="194">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q9" s="195" t="s">
         <v>0</v>
@@ -6600,7 +6597,7 @@
         <v>60</v>
       </c>
       <c r="S9" s="194">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="T9" s="195" t="s">
         <v>0</v>
@@ -6609,7 +6606,7 @@
         <v>60</v>
       </c>
       <c r="V9" s="194">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W9" s="195" t="s">
         <v>0</v>
@@ -6618,7 +6615,7 @@
         <v>60</v>
       </c>
       <c r="Y9" s="194">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z9" s="195" t="s">
         <v>0</v>
@@ -6627,7 +6624,7 @@
         <v>60</v>
       </c>
       <c r="AB9" s="194">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC9" s="195" t="s">
         <v>0</v>
@@ -6636,19 +6633,19 @@
         <v>60</v>
       </c>
       <c r="AE9" s="194">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF9" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AG9" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AH9" s="194">
-        <v>2</v>
-      </c>
-      <c r="AI9" s="195">
-        <v>-2</v>
+        <v>9</v>
+      </c>
+      <c r="AI9" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AJ9" s="196" t="s">
         <v>60</v>
@@ -6663,7 +6660,7 @@
         <v>60</v>
       </c>
       <c r="AN9" s="194">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO9" s="197" t="s">
         <v>0</v>
@@ -6678,16 +6675,16 @@
         <v>0</v>
       </c>
       <c r="AX9" s="4">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AY9" s="4">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AZ9" s="4">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="BA9" s="4">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="BB9" s="4">
         <v>6</v>
@@ -6699,23 +6696,23 @@
         <v>6</v>
       </c>
       <c r="BF9" s="77" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="BG9" s="78">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="BH9" s="189"/>
       <c r="BI9" s="79">
         <v>6</v>
       </c>
       <c r="BJ9" s="80" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="BK9" s="81">
-        <v>89.454545454545453</v>
+        <v>89.416666666666671</v>
       </c>
       <c r="BL9" s="82">
-        <v>984</v>
+        <v>1073</v>
       </c>
       <c r="BM9" s="172"/>
       <c r="BN9" s="79">
@@ -6725,10 +6722,10 @@
         <v>98</v>
       </c>
       <c r="BP9" s="83">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="BQ9" s="84">
-        <v>-36</v>
+        <v>-39</v>
       </c>
       <c r="BR9" s="85">
         <v>1</v>
@@ -6749,18 +6746,18 @@
         <v>0</v>
       </c>
       <c r="BY9" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="190" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="C10" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="191" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="E10" s="192" t="s">
         <v>88</v>
@@ -6769,7 +6766,7 @@
         <v>88</v>
       </c>
       <c r="G10" s="194">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H10" s="195" t="s">
         <v>0</v>
@@ -6778,7 +6775,7 @@
         <v>88</v>
       </c>
       <c r="J10" s="194">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K10" s="195" t="s">
         <v>0</v>
@@ -6787,7 +6784,7 @@
         <v>88</v>
       </c>
       <c r="M10" s="194">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N10" s="195" t="s">
         <v>0</v>
@@ -6796,7 +6793,7 @@
         <v>88</v>
       </c>
       <c r="P10" s="194">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="195" t="s">
         <v>0</v>
@@ -6805,7 +6802,7 @@
         <v>88</v>
       </c>
       <c r="S10" s="194">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="T10" s="195" t="s">
         <v>0</v>
@@ -6814,7 +6811,7 @@
         <v>88</v>
       </c>
       <c r="V10" s="194">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="W10" s="195" t="s">
         <v>0</v>
@@ -6832,7 +6829,7 @@
         <v>88</v>
       </c>
       <c r="AB10" s="194">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AC10" s="195" t="s">
         <v>0</v>
@@ -6847,19 +6844,19 @@
         <v>0</v>
       </c>
       <c r="AG10" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AH10" s="194">
-        <v>16</v>
-      </c>
-      <c r="AI10" s="195">
-        <v>-16</v>
+        <v>10</v>
+      </c>
+      <c r="AI10" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AJ10" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AK10" s="194">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AL10" s="195" t="s">
         <v>0</v>
@@ -6868,7 +6865,7 @@
         <v>88</v>
       </c>
       <c r="AN10" s="194">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AO10" s="197" t="s">
         <v>0</v>
@@ -6877,22 +6874,22 @@
         <v>88</v>
       </c>
       <c r="AU10" s="194">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AV10" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX10" s="4">
-        <v>-81</v>
+        <v>-141</v>
       </c>
       <c r="AY10" s="4">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="AZ10" s="4">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="BA10" s="4">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="BB10" s="4">
         <v>7</v>
@@ -6904,23 +6901,23 @@
         <v>7</v>
       </c>
       <c r="BF10" s="77" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="BG10" s="78">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="BH10" s="189"/>
       <c r="BI10" s="79">
         <v>7</v>
       </c>
       <c r="BJ10" s="80" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="BK10" s="81">
-        <v>88.090909090909093</v>
+        <v>89.25</v>
       </c>
       <c r="BL10" s="82">
-        <v>969</v>
+        <v>1071</v>
       </c>
       <c r="BM10" s="172"/>
       <c r="BN10" s="79">
@@ -6930,10 +6927,10 @@
         <v>100</v>
       </c>
       <c r="BP10" s="83">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="BQ10" s="84">
-        <v>-36</v>
+        <v>-39</v>
       </c>
       <c r="BR10" s="85">
         <v>1</v>
@@ -6954,99 +6951,99 @@
         <v>0</v>
       </c>
       <c r="BY10" s="12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="190" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C11" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="191" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="E11" s="192" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F11" s="193" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="G11" s="194">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H11" s="195" t="s">
         <v>0</v>
       </c>
       <c r="I11" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="J11" s="194">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K11" s="195" t="s">
         <v>0</v>
       </c>
       <c r="L11" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="M11" s="194">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N11" s="195" t="s">
         <v>0</v>
       </c>
       <c r="O11" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="P11" s="194">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="Q11" s="195" t="s">
         <v>0</v>
       </c>
       <c r="R11" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="S11" s="194">
+        <v>16</v>
+      </c>
+      <c r="T11" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="U11" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="V11" s="194">
+        <v>16</v>
+      </c>
+      <c r="W11" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="X11" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y11" s="194">
         <v>15</v>
       </c>
-      <c r="T11" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="U11" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="V11" s="194">
-        <v>13</v>
-      </c>
-      <c r="W11" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="X11" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y11" s="194">
-        <v>13</v>
-      </c>
       <c r="Z11" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AA11" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AB11" s="194">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AC11" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AD11" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AE11" s="194">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF11" s="195" t="s">
         <v>0</v>
@@ -7055,49 +7052,49 @@
         <v>88</v>
       </c>
       <c r="AH11" s="194">
-        <v>6</v>
-      </c>
-      <c r="AI11" s="195" t="s">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="AI11" s="195">
+        <v>-14</v>
       </c>
       <c r="AJ11" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AK11" s="194">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AL11" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AM11" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AN11" s="194">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO11" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AT11" s="198" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AU11" s="194">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV11" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX11" s="4">
-        <v>-140</v>
+        <v>154</v>
       </c>
       <c r="AY11" s="4">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="AZ11" s="4">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="BA11" s="4">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="BB11" s="4">
         <v>8</v>
@@ -7106,39 +7103,39 @@
         <v>1</v>
       </c>
       <c r="BE11" s="76">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BF11" s="77" t="s">
         <v>99</v>
       </c>
       <c r="BG11" s="78">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="BH11" s="189"/>
       <c r="BI11" s="79">
         <v>8</v>
       </c>
       <c r="BJ11" s="80" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="BK11" s="81">
-        <v>86.727272727272734</v>
+        <v>86.833333333333329</v>
       </c>
       <c r="BL11" s="82">
-        <v>954</v>
+        <v>1042</v>
       </c>
       <c r="BM11" s="172"/>
       <c r="BN11" s="79">
         <v>4</v>
       </c>
       <c r="BO11" s="80" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BP11" s="83">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="BQ11" s="84">
-        <v>-36</v>
+        <v>-39</v>
       </c>
       <c r="BR11" s="85">
         <v>1</v>
@@ -7159,66 +7156,66 @@
         <v>0</v>
       </c>
       <c r="BY11" s="12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="190" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C12" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="191" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="E12" s="192" t="s">
         <v>88</v>
       </c>
       <c r="F12" s="193" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="G12" s="194">
-        <v>1</v>
-      </c>
-      <c r="H12" s="195" t="s">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="H12" s="195">
+        <v>-12</v>
       </c>
       <c r="I12" s="196" t="s">
         <v>60</v>
       </c>
       <c r="J12" s="194">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K12" s="195">
-        <v>-9</v>
+        <v>-12</v>
       </c>
       <c r="L12" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="M12" s="194">
-        <v>1</v>
-      </c>
-      <c r="N12" s="195" t="s">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="N12" s="195">
+        <v>-12</v>
       </c>
       <c r="O12" s="196" t="s">
         <v>60</v>
       </c>
       <c r="P12" s="194">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="Q12" s="195">
-        <v>-1</v>
+        <v>-14</v>
       </c>
       <c r="R12" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="S12" s="194">
-        <v>1</v>
-      </c>
-      <c r="T12" s="195" t="s">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="T12" s="195">
+        <v>-13</v>
       </c>
       <c r="U12" s="196" t="s">
         <v>88</v>
@@ -7230,49 +7227,49 @@
         <v>0</v>
       </c>
       <c r="X12" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="Y12" s="194">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="195">
-        <v>-1</v>
+        <v>6</v>
+      </c>
+      <c r="Z12" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AA12" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AB12" s="194">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AC12" s="195">
-        <v>-1</v>
+        <v>-11</v>
       </c>
       <c r="AD12" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AE12" s="194">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AF12" s="195">
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="AG12" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AH12" s="194">
-        <v>1</v>
-      </c>
-      <c r="AI12" s="195" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="AI12" s="195">
+        <v>-2</v>
       </c>
       <c r="AJ12" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AK12" s="194">
-        <v>1</v>
-      </c>
-      <c r="AL12" s="195" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="AL12" s="195">
+        <v>-10</v>
       </c>
       <c r="AM12" s="196" t="s">
         <v>60</v>
@@ -7287,22 +7284,22 @@
         <v>60</v>
       </c>
       <c r="AU12" s="194">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AV12" s="197">
-        <v>-2</v>
+        <v>-9</v>
       </c>
       <c r="AX12" s="4">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="AY12" s="4">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="AZ12" s="4">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="BA12" s="4">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="BB12" s="4">
         <v>9</v>
@@ -7314,42 +7311,42 @@
         <v>9</v>
       </c>
       <c r="BF12" s="77" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="BG12" s="78">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="BH12" s="189"/>
       <c r="BI12" s="79">
         <v>9</v>
       </c>
       <c r="BJ12" s="80" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="BK12" s="81">
-        <v>84.727272727272734</v>
+        <v>86.583333333333329</v>
       </c>
       <c r="BL12" s="82">
-        <v>932</v>
+        <v>1039</v>
       </c>
       <c r="BM12" s="172"/>
       <c r="BN12" s="79">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BO12" s="80" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="BP12" s="83">
-        <v>-36</v>
+        <v>-8</v>
       </c>
       <c r="BQ12" s="84">
-        <v>-36</v>
-      </c>
-      <c r="BR12" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS12" s="86" t="s">
-        <v>0</v>
+        <v>-39</v>
+      </c>
+      <c r="BR12" s="85">
+        <v>1</v>
+      </c>
+      <c r="BS12" s="86">
+        <v>31</v>
       </c>
       <c r="BT12" s="87" t="s">
         <v>0</v>
@@ -7369,13 +7366,13 @@
     </row>
     <row r="13" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="190" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C13" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="191" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="E13" s="192" t="s">
         <v>60</v>
@@ -7384,7 +7381,7 @@
         <v>60</v>
       </c>
       <c r="G13" s="194">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H13" s="195" t="s">
         <v>0</v>
@@ -7393,7 +7390,7 @@
         <v>60</v>
       </c>
       <c r="J13" s="194">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K13" s="195" t="s">
         <v>0</v>
@@ -7402,7 +7399,7 @@
         <v>60</v>
       </c>
       <c r="M13" s="194">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="N13" s="195" t="s">
         <v>0</v>
@@ -7411,7 +7408,7 @@
         <v>60</v>
       </c>
       <c r="P13" s="194">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="Q13" s="195" t="s">
         <v>0</v>
@@ -7420,7 +7417,7 @@
         <v>60</v>
       </c>
       <c r="S13" s="194">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="T13" s="195" t="s">
         <v>0</v>
@@ -7429,7 +7426,7 @@
         <v>60</v>
       </c>
       <c r="V13" s="194">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W13" s="195" t="s">
         <v>0</v>
@@ -7447,7 +7444,7 @@
         <v>60</v>
       </c>
       <c r="AB13" s="194">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AC13" s="195" t="s">
         <v>0</v>
@@ -7456,7 +7453,7 @@
         <v>60</v>
       </c>
       <c r="AE13" s="194">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AF13" s="195" t="s">
         <v>0</v>
@@ -7465,16 +7462,16 @@
         <v>88</v>
       </c>
       <c r="AH13" s="194">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AI13" s="195">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="AJ13" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AK13" s="194">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AL13" s="195" t="s">
         <v>0</v>
@@ -7483,7 +7480,7 @@
         <v>60</v>
       </c>
       <c r="AN13" s="194">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AO13" s="197" t="s">
         <v>0</v>
@@ -7492,22 +7489,22 @@
         <v>60</v>
       </c>
       <c r="AU13" s="194">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AV13" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX13" s="4">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="AY13" s="4">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="AZ13" s="4">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="BA13" s="4">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="BB13" s="4">
         <v>10</v>
@@ -7519,10 +7516,10 @@
         <v>10</v>
       </c>
       <c r="BF13" s="77" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="BG13" s="78">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="BH13" s="189"/>
       <c r="BI13" s="79">
@@ -7532,23 +7529,23 @@
         <v>101</v>
       </c>
       <c r="BK13" s="81">
-        <v>82.272727272727266</v>
+        <v>85.833333333333329</v>
       </c>
       <c r="BL13" s="82">
-        <v>905</v>
+        <v>1030</v>
       </c>
       <c r="BM13" s="172"/>
       <c r="BN13" s="79">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BO13" s="80" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="BP13" s="83">
-        <v>-36</v>
+        <v>-39</v>
       </c>
       <c r="BQ13" s="84">
-        <v>-36</v>
+        <v>-39</v>
       </c>
       <c r="BR13" s="85" t="s">
         <v>0</v>
@@ -7574,13 +7571,13 @@
     </row>
     <row r="14" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="190" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C14" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="191" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="E14" s="192" t="s">
         <v>60</v>
@@ -7589,25 +7586,25 @@
         <v>60</v>
       </c>
       <c r="G14" s="194">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H14" s="195" t="s">
         <v>0</v>
       </c>
       <c r="I14" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="J14" s="194">
-        <v>14</v>
-      </c>
-      <c r="K14" s="195" t="s">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="K14" s="195">
+        <v>-9</v>
       </c>
       <c r="L14" s="196" t="s">
         <v>60</v>
       </c>
       <c r="M14" s="194">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="N14" s="195" t="s">
         <v>0</v>
@@ -7616,70 +7613,70 @@
         <v>60</v>
       </c>
       <c r="P14" s="194">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="Q14" s="195" t="s">
         <v>0</v>
       </c>
       <c r="R14" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="S14" s="194">
-        <v>10</v>
-      </c>
-      <c r="T14" s="195" t="s">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="T14" s="195">
+        <v>-7</v>
       </c>
       <c r="U14" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="V14" s="194">
-        <v>5</v>
-      </c>
-      <c r="W14" s="195" t="s">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="W14" s="195">
+        <v>-12</v>
       </c>
       <c r="X14" s="196" t="s">
         <v>88</v>
       </c>
       <c r="Y14" s="194">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z14" s="195">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="AA14" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AB14" s="194">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AC14" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AD14" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AE14" s="194">
-        <v>11</v>
-      </c>
-      <c r="AF14" s="195" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="AF14" s="195">
+        <v>-6</v>
       </c>
       <c r="AG14" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AH14" s="194">
-        <v>4</v>
-      </c>
-      <c r="AI14" s="195" t="s">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="AI14" s="195">
+        <v>-12</v>
       </c>
       <c r="AJ14" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AK14" s="194">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AL14" s="195" t="s">
         <v>0</v>
@@ -7688,31 +7685,31 @@
         <v>60</v>
       </c>
       <c r="AN14" s="194">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO14" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AT14" s="198" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AU14" s="194">
-        <v>11</v>
-      </c>
-      <c r="AV14" s="197" t="s">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="AV14" s="197">
+        <v>-5</v>
       </c>
       <c r="AX14" s="4">
-        <v>92</v>
+        <v>-25</v>
       </c>
       <c r="AY14" s="4">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="AZ14" s="4">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="BA14" s="4">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="BB14" s="4">
         <v>11</v>
@@ -7724,10 +7721,10 @@
         <v>11</v>
       </c>
       <c r="BF14" s="77" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="BG14" s="78">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="BH14" s="189"/>
       <c r="BI14" s="79">
@@ -7737,23 +7734,23 @@
         <v>96</v>
       </c>
       <c r="BK14" s="81">
-        <v>81.545454545454547</v>
+        <v>83</v>
       </c>
       <c r="BL14" s="82">
-        <v>897</v>
+        <v>996</v>
       </c>
       <c r="BM14" s="172"/>
       <c r="BN14" s="79">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BO14" s="80" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="BP14" s="83">
-        <v>-36</v>
+        <v>-39</v>
       </c>
       <c r="BQ14" s="84">
-        <v>-36</v>
+        <v>-39</v>
       </c>
       <c r="BR14" s="85" t="s">
         <v>0</v>
@@ -7779,145 +7776,145 @@
     </row>
     <row r="15" spans="1:77" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="190" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C15" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="191" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E15" s="192" t="s">
         <v>60</v>
       </c>
       <c r="F15" s="193" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="194">
+        <v>13</v>
+      </c>
+      <c r="H15" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="G15" s="194">
-        <v>11</v>
-      </c>
-      <c r="H15" s="195">
-        <v>-11</v>
-      </c>
-      <c r="I15" s="196" t="s">
+      <c r="J15" s="194">
+        <v>7</v>
+      </c>
+      <c r="K15" s="195">
+        <v>-7</v>
+      </c>
+      <c r="L15" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="J15" s="194">
-        <v>12</v>
-      </c>
-      <c r="K15" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="L15" s="196" t="s">
-        <v>88</v>
-      </c>
       <c r="M15" s="194">
-        <v>9</v>
-      </c>
-      <c r="N15" s="195">
-        <v>-9</v>
+        <v>13</v>
+      </c>
+      <c r="N15" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="O15" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="P15" s="194">
-        <v>9</v>
-      </c>
-      <c r="Q15" s="195">
-        <v>-9</v>
+        <v>13</v>
+      </c>
+      <c r="Q15" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="R15" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="S15" s="194">
         <v>6</v>
       </c>
-      <c r="T15" s="195">
-        <v>-6</v>
+      <c r="T15" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="U15" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="V15" s="194">
-        <v>15</v>
-      </c>
-      <c r="W15" s="195">
-        <v>-15</v>
+        <v>11</v>
+      </c>
+      <c r="W15" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="X15" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="Y15" s="194">
-        <v>10</v>
-      </c>
-      <c r="Z15" s="195">
-        <v>-10</v>
+        <v>16</v>
+      </c>
+      <c r="Z15" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AA15" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AB15" s="194">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AC15" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AD15" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AE15" s="194">
-        <v>10</v>
-      </c>
-      <c r="AF15" s="195">
-        <v>-10</v>
+        <v>8</v>
+      </c>
+      <c r="AF15" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AG15" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AH15" s="194">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI15" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AJ15" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AK15" s="194">
+        <v>12</v>
+      </c>
+      <c r="AL15" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN15" s="194">
         <v>9</v>
       </c>
-      <c r="AL15" s="195">
-        <v>-9</v>
-      </c>
-      <c r="AM15" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="AN15" s="194">
-        <v>15</v>
-      </c>
-      <c r="AO15" s="197">
-        <v>-15</v>
+      <c r="AO15" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AT15" s="198" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AU15" s="194">
-        <v>6</v>
-      </c>
-      <c r="AV15" s="197">
-        <v>-6</v>
+        <v>11</v>
+      </c>
+      <c r="AV15" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AX15" s="4">
-        <v>-59</v>
+        <v>117</v>
       </c>
       <c r="AY15" s="4">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="AZ15" s="4">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="BA15" s="4">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="BB15" s="4">
         <v>12</v>
@@ -7932,7 +7929,7 @@
         <v>100</v>
       </c>
       <c r="BG15" s="91">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="BH15" s="189"/>
       <c r="BI15" s="92">
@@ -7942,23 +7939,23 @@
         <v>100</v>
       </c>
       <c r="BK15" s="94">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BL15" s="95">
-        <v>748</v>
+        <v>792</v>
       </c>
       <c r="BM15" s="172"/>
       <c r="BN15" s="92">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BO15" s="93" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="BP15" s="96">
-        <v>-36</v>
+        <v>-39</v>
       </c>
       <c r="BQ15" s="97">
-        <v>-36</v>
+        <v>-39</v>
       </c>
       <c r="BR15" s="98" t="s">
         <v>0</v>
@@ -7984,13 +7981,13 @@
     </row>
     <row r="16" spans="1:77" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B16" s="190" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C16" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="191" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E16" s="192" t="s">
         <v>88</v>
@@ -7999,16 +7996,16 @@
         <v>60</v>
       </c>
       <c r="G16" s="194">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H16" s="195">
-        <v>-3</v>
+        <v>-9</v>
       </c>
       <c r="I16" s="196" t="s">
         <v>88</v>
       </c>
       <c r="J16" s="194">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K16" s="195" t="s">
         <v>0</v>
@@ -8017,52 +8014,52 @@
         <v>60</v>
       </c>
       <c r="M16" s="194">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N16" s="195">
-        <v>-4</v>
+        <v>-10</v>
       </c>
       <c r="O16" s="196" t="s">
         <v>60</v>
       </c>
       <c r="P16" s="194">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q16" s="195">
-        <v>-4</v>
+        <v>-10</v>
       </c>
       <c r="R16" s="196" t="s">
         <v>60</v>
       </c>
       <c r="S16" s="194">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="T16" s="195">
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="U16" s="196" t="s">
         <v>60</v>
       </c>
       <c r="V16" s="194">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W16" s="195">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="X16" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="Y16" s="194">
-        <v>5</v>
-      </c>
-      <c r="Z16" s="195" t="s">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="Z16" s="195">
+        <v>-11</v>
       </c>
       <c r="AA16" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AB16" s="194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC16" s="195" t="s">
         <v>0</v>
@@ -8077,19 +8074,19 @@
         <v>-3</v>
       </c>
       <c r="AG16" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AH16" s="194">
-        <v>11</v>
-      </c>
-      <c r="AI16" s="195">
-        <v>-11</v>
+        <v>6</v>
+      </c>
+      <c r="AI16" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AJ16" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AK16" s="194">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AL16" s="195" t="s">
         <v>0</v>
@@ -8098,31 +8095,31 @@
         <v>60</v>
       </c>
       <c r="AN16" s="194">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AO16" s="197">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="AT16" s="198" t="s">
         <v>60</v>
       </c>
       <c r="AU16" s="194">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AV16" s="197">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="AX16" s="4">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="AY16" s="4">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="AZ16" s="4">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="BA16" s="4">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="BB16" s="4">
         <v>13</v>
@@ -8131,18 +8128,18 @@
         <v>1</v>
       </c>
       <c r="BY16" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="190" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C17" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="191" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="E17" s="192" t="s">
         <v>60</v>
@@ -8151,7 +8148,7 @@
         <v>60</v>
       </c>
       <c r="G17" s="194">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H17" s="195" t="s">
         <v>0</v>
@@ -8160,7 +8157,7 @@
         <v>60</v>
       </c>
       <c r="J17" s="194">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K17" s="195" t="s">
         <v>0</v>
@@ -8169,7 +8166,7 @@
         <v>60</v>
       </c>
       <c r="M17" s="194">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="N17" s="195" t="s">
         <v>0</v>
@@ -8178,7 +8175,7 @@
         <v>60</v>
       </c>
       <c r="P17" s="194">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="Q17" s="195" t="s">
         <v>0</v>
@@ -8187,7 +8184,7 @@
         <v>60</v>
       </c>
       <c r="S17" s="194">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T17" s="195" t="s">
         <v>0</v>
@@ -8196,25 +8193,25 @@
         <v>60</v>
       </c>
       <c r="V17" s="194">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="W17" s="195" t="s">
         <v>0</v>
       </c>
       <c r="X17" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="Y17" s="194">
-        <v>4</v>
-      </c>
-      <c r="Z17" s="195">
-        <v>-4</v>
+        <v>9</v>
+      </c>
+      <c r="Z17" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AA17" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AB17" s="194">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AC17" s="195" t="s">
         <v>0</v>
@@ -8223,34 +8220,34 @@
         <v>60</v>
       </c>
       <c r="AE17" s="194">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF17" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AG17" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AH17" s="194">
-        <v>12</v>
-      </c>
-      <c r="AI17" s="195">
-        <v>-12</v>
+        <v>3</v>
+      </c>
+      <c r="AI17" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AJ17" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AK17" s="194">
-        <v>3</v>
-      </c>
-      <c r="AL17" s="195">
-        <v>-3</v>
+        <v>13</v>
+      </c>
+      <c r="AL17" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AM17" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AN17" s="194">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AO17" s="197" t="s">
         <v>0</v>
@@ -8259,22 +8256,22 @@
         <v>60</v>
       </c>
       <c r="AU17" s="194">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AV17" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX17" s="4">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="AY17" s="4">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="AZ17" s="4">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="BA17" s="4">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="BB17" s="4">
         <v>14</v>
@@ -8283,150 +8280,100 @@
         <v>1</v>
       </c>
       <c r="BY17" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="190" t="s">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="C18" s="191" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D18" s="191" t="s">
-        <v>158</v>
-      </c>
-      <c r="E18" s="192" t="s">
-        <v>88</v>
-      </c>
-      <c r="F18" s="193" t="s">
-        <v>88</v>
-      </c>
-      <c r="G18" s="194">
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E18" s="192"/>
+      <c r="F18" s="193"/>
+      <c r="G18" s="194"/>
       <c r="H18" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="I18" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="J18" s="194">
-        <v>15</v>
-      </c>
+      <c r="I18" s="196"/>
+      <c r="J18" s="194"/>
       <c r="K18" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="M18" s="194">
-        <v>15</v>
-      </c>
+      <c r="L18" s="196"/>
+      <c r="M18" s="194"/>
       <c r="N18" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="O18" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="P18" s="194">
-        <v>15</v>
-      </c>
+      <c r="O18" s="196"/>
+      <c r="P18" s="194"/>
       <c r="Q18" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="R18" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="S18" s="194">
-        <v>16</v>
-      </c>
+      <c r="R18" s="196"/>
+      <c r="S18" s="194"/>
       <c r="T18" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="U18" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="V18" s="194">
-        <v>16</v>
-      </c>
+      <c r="U18" s="196"/>
+      <c r="V18" s="194"/>
       <c r="W18" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="X18" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y18" s="194">
-        <v>15</v>
-      </c>
+      <c r="X18" s="196"/>
+      <c r="Y18" s="194"/>
       <c r="Z18" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="AA18" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB18" s="194">
-        <v>15</v>
-      </c>
+      <c r="AA18" s="196"/>
+      <c r="AB18" s="194"/>
       <c r="AC18" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="AD18" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE18" s="194">
-        <v>16</v>
-      </c>
+      <c r="AD18" s="196"/>
+      <c r="AE18" s="194"/>
       <c r="AF18" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="AG18" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH18" s="194">
-        <v>14</v>
-      </c>
-      <c r="AI18" s="195">
-        <v>-14</v>
-      </c>
-      <c r="AJ18" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK18" s="194">
-        <v>15</v>
-      </c>
+      <c r="AG18" s="196"/>
+      <c r="AH18" s="194"/>
+      <c r="AI18" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="196"/>
+      <c r="AK18" s="194"/>
       <c r="AL18" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="AM18" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="AN18" s="194">
-        <v>16</v>
-      </c>
+      <c r="AM18" s="196"/>
+      <c r="AN18" s="194"/>
       <c r="AO18" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AT18" s="198" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU18" s="194">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="AU18" s="194" t="s">
+        <v>0</v>
       </c>
       <c r="AV18" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX18" s="4">
-        <v>-156</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="4">
-        <v>156</v>
+        <v>-0.1</v>
       </c>
       <c r="AZ18" s="4">
-        <v>156</v>
+        <v>-0.1</v>
       </c>
       <c r="BA18" s="4">
-        <v>156</v>
+        <v>-0.1</v>
       </c>
       <c r="BB18" s="4">
         <v>15</v>
@@ -8435,150 +8382,150 @@
         <v>1</v>
       </c>
       <c r="BY18" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="190" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="C19" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="191" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="E19" s="192" t="s">
         <v>88</v>
       </c>
       <c r="F19" s="193" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="G19" s="194">
         <v>2</v>
       </c>
-      <c r="H19" s="195">
-        <v>-2</v>
+      <c r="H19" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="I19" s="196" t="s">
         <v>60</v>
       </c>
       <c r="J19" s="194">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="K19" s="195">
-        <v>-16</v>
+        <v>-4</v>
       </c>
       <c r="L19" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="M19" s="194">
-        <v>5</v>
-      </c>
-      <c r="N19" s="195">
-        <v>-5</v>
+        <v>2</v>
+      </c>
+      <c r="N19" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="O19" s="196" t="s">
         <v>88</v>
       </c>
       <c r="P19" s="194">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q19" s="195" t="s">
         <v>0</v>
       </c>
       <c r="R19" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="S19" s="194">
-        <v>2</v>
-      </c>
-      <c r="T19" s="195">
-        <v>-2</v>
+        <v>9</v>
+      </c>
+      <c r="T19" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="U19" s="196" t="s">
         <v>60</v>
       </c>
       <c r="V19" s="194">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="W19" s="195">
-        <v>-12</v>
+        <v>-2</v>
       </c>
       <c r="X19" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="Y19" s="194">
-        <v>3</v>
-      </c>
-      <c r="Z19" s="195">
-        <v>-3</v>
+        <v>10</v>
+      </c>
+      <c r="Z19" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AA19" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AB19" s="194">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC19" s="195">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="AD19" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AE19" s="194">
-        <v>4</v>
-      </c>
-      <c r="AF19" s="195">
-        <v>-4</v>
+        <v>10</v>
+      </c>
+      <c r="AF19" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AG19" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AH19" s="194">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AI19" s="195">
-        <v>-3</v>
+        <v>-15</v>
       </c>
       <c r="AJ19" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AK19" s="194">
-        <v>5</v>
-      </c>
-      <c r="AL19" s="195">
-        <v>-5</v>
+        <v>2</v>
+      </c>
+      <c r="AL19" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AM19" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AN19" s="194">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AO19" s="197">
-        <v>-1</v>
+        <v>-12</v>
       </c>
       <c r="AT19" s="198" t="s">
         <v>60</v>
       </c>
       <c r="AU19" s="194">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV19" s="197">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="AX19" s="4">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="AY19" s="4">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="AZ19" s="4">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="BA19" s="4">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="BB19" s="4">
         <v>16</v>
@@ -8587,7 +8534,7 @@
         <v>1</v>
       </c>
       <c r="BY19" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8595,90 +8542,90 @@
       <c r="C20" s="103"/>
       <c r="D20" s="103"/>
       <c r="E20" s="199" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F20" s="104" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G20" s="105">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H20" s="122"/>
       <c r="I20" s="106" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J20" s="105">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K20" s="122"/>
       <c r="L20" s="106" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M20" s="105">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N20" s="122"/>
       <c r="O20" s="106" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P20" s="105">
         <v>42</v>
       </c>
       <c r="Q20" s="122"/>
       <c r="R20" s="106" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="S20" s="105">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="T20" s="122"/>
       <c r="U20" s="106" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="V20" s="105">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="W20" s="122"/>
       <c r="X20" s="106" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Y20" s="105">
         <v>38</v>
       </c>
       <c r="Z20" s="122"/>
       <c r="AA20" s="106" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AB20" s="105">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AC20" s="122"/>
       <c r="AD20" s="106" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AE20" s="105">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="AF20" s="122"/>
       <c r="AG20" s="106" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AH20" s="105">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="AI20" s="122"/>
       <c r="AJ20" s="106" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AK20" s="105">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="AL20" s="122"/>
       <c r="AM20" s="106" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AN20" s="105">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="AO20" s="123"/>
       <c r="AT20" s="107"/>
@@ -8695,7 +8642,7 @@
       <c r="BM20" s="13"/>
       <c r="BN20" s="13"/>
       <c r="BY20" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:77" s="13" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8704,99 +8651,99 @@
       <c r="C21" s="201"/>
       <c r="D21" s="201"/>
       <c r="E21" s="202" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F21" s="203"/>
       <c r="G21" s="204">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H21" s="205">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="I21" s="206"/>
       <c r="J21" s="204">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K21" s="205">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="L21" s="206"/>
       <c r="M21" s="204">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N21" s="205">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="O21" s="206"/>
       <c r="P21" s="204">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q21" s="205">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="R21" s="206"/>
       <c r="S21" s="204">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="T21" s="205">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="U21" s="206"/>
       <c r="V21" s="204">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="W21" s="205">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="X21" s="206"/>
       <c r="Y21" s="204">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Z21" s="205">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AA21" s="206"/>
       <c r="AB21" s="204">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC21" s="205">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="AD21" s="206"/>
       <c r="AE21" s="204">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF21" s="205">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="AG21" s="206"/>
       <c r="AH21" s="204">
         <v>12</v>
       </c>
       <c r="AI21" s="205">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AJ21" s="206"/>
       <c r="AK21" s="204">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AL21" s="205">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="AM21" s="206"/>
       <c r="AN21" s="204">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AO21" s="207">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AP21" s="3"/>
       <c r="AT21" s="208"/>
       <c r="AU21" s="209">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AV21" s="210">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="AW21" s="3"/>
       <c r="AX21" s="14"/>
@@ -8820,7 +8767,7 @@
       <c r="BV21" s="6"/>
       <c r="BW21" s="6"/>
       <c r="BY21" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:77" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8833,87 +8780,87 @@
       </c>
       <c r="F22" s="127"/>
       <c r="G22" s="128">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H22" s="129">
-        <v>88.090909090909093</v>
+        <v>89.416666666666671</v>
       </c>
       <c r="I22" s="130"/>
       <c r="J22" s="128">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K22" s="129">
-        <v>86.727272727272734</v>
+        <v>86.583333333333329</v>
       </c>
       <c r="L22" s="130"/>
       <c r="M22" s="128">
         <v>2</v>
       </c>
       <c r="N22" s="129">
-        <v>90.727272727272734</v>
+        <v>91.583333333333329</v>
       </c>
       <c r="O22" s="130"/>
       <c r="P22" s="128">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q22" s="129">
-        <v>90.63636363636364</v>
+        <v>91.25</v>
       </c>
       <c r="R22" s="130"/>
       <c r="S22" s="128">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T22" s="129">
-        <v>90.272727272727266</v>
+        <v>89.25</v>
       </c>
       <c r="U22" s="130"/>
       <c r="V22" s="128">
         <v>11</v>
       </c>
       <c r="W22" s="129">
-        <v>81.545454545454547</v>
+        <v>83</v>
       </c>
       <c r="X22" s="130"/>
       <c r="Y22" s="128">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Z22" s="129">
-        <v>89.454545454545453</v>
+        <v>91.333333333333329</v>
       </c>
       <c r="AA22" s="130"/>
       <c r="AB22" s="128">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC22" s="129">
-        <v>84.727272727272734</v>
+        <v>86.833333333333329</v>
       </c>
       <c r="AD22" s="130"/>
       <c r="AE22" s="128">
         <v>1</v>
       </c>
       <c r="AF22" s="129">
-        <v>96.818181818181813</v>
+        <v>96.833333333333329</v>
       </c>
       <c r="AG22" s="130"/>
       <c r="AH22" s="128">
         <v>12</v>
       </c>
       <c r="AI22" s="129">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AJ22" s="130"/>
       <c r="AK22" s="128">
         <v>10</v>
       </c>
       <c r="AL22" s="129">
-        <v>82.272727272727266</v>
+        <v>85.833333333333329</v>
       </c>
       <c r="AM22" s="130"/>
       <c r="AN22" s="128">
         <v>5</v>
       </c>
       <c r="AO22" s="131">
-        <v>89.545454545454547</v>
+        <v>89.916666666666671</v>
       </c>
       <c r="AP22" s="3"/>
       <c r="AU22" s="14"/>
@@ -8938,7 +8885,7 @@
       <c r="BV22" s="6"/>
       <c r="BW22" s="6"/>
       <c r="BY22" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:77" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8952,62 +8899,62 @@
       <c r="F23" s="135"/>
       <c r="G23" s="136"/>
       <c r="H23" s="137">
-        <v>969</v>
+        <v>1073</v>
       </c>
       <c r="I23" s="138"/>
       <c r="J23" s="136"/>
       <c r="K23" s="137">
-        <v>954</v>
+        <v>1039</v>
       </c>
       <c r="L23" s="138"/>
       <c r="M23" s="136"/>
       <c r="N23" s="137">
-        <v>998</v>
+        <v>1099</v>
       </c>
       <c r="O23" s="138"/>
       <c r="P23" s="136"/>
       <c r="Q23" s="137">
-        <v>997</v>
+        <v>1095</v>
       </c>
       <c r="R23" s="138"/>
       <c r="S23" s="136"/>
       <c r="T23" s="137">
-        <v>993</v>
+        <v>1071</v>
       </c>
       <c r="U23" s="138"/>
       <c r="V23" s="136"/>
       <c r="W23" s="137">
-        <v>897</v>
+        <v>996</v>
       </c>
       <c r="X23" s="138"/>
       <c r="Y23" s="136"/>
       <c r="Z23" s="137">
-        <v>984</v>
+        <v>1096</v>
       </c>
       <c r="AA23" s="138"/>
       <c r="AB23" s="136"/>
       <c r="AC23" s="137">
-        <v>932</v>
+        <v>1042</v>
       </c>
       <c r="AD23" s="138"/>
       <c r="AE23" s="136"/>
       <c r="AF23" s="137">
-        <v>1065</v>
+        <v>1162</v>
       </c>
       <c r="AG23" s="138"/>
       <c r="AH23" s="136"/>
       <c r="AI23" s="137">
-        <v>748</v>
+        <v>792</v>
       </c>
       <c r="AJ23" s="138"/>
       <c r="AK23" s="136"/>
       <c r="AL23" s="137">
-        <v>905</v>
+        <v>1030</v>
       </c>
       <c r="AM23" s="138"/>
       <c r="AN23" s="136"/>
       <c r="AO23" s="139">
-        <v>985</v>
+        <v>1079</v>
       </c>
       <c r="AP23" s="3"/>
       <c r="AU23" s="14"/>
@@ -9022,7 +8969,7 @@
       <c r="BV23" s="6"/>
       <c r="BW23" s="6"/>
       <c r="BY23" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:77" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9105,7 +9052,7 @@
       <c r="BV24" s="6"/>
       <c r="BW24" s="6"/>
       <c r="BY24" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:77" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9118,87 +9065,87 @@
       </c>
       <c r="F25" s="135"/>
       <c r="G25" s="140">
-        <v>0.8125</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="H25" s="137">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I25" s="138"/>
       <c r="J25" s="140">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="K25" s="137">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L25" s="138"/>
       <c r="M25" s="140">
-        <v>0.8125</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="N25" s="137">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O25" s="138"/>
       <c r="P25" s="140">
-        <v>0.75</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="Q25" s="137">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R25" s="138"/>
       <c r="S25" s="140">
-        <v>0.8125</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="T25" s="137">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="U25" s="138"/>
       <c r="V25" s="140">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="W25" s="137">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="X25" s="138"/>
       <c r="Y25" s="140">
-        <v>0.625</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="Z25" s="137">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA25" s="138"/>
       <c r="AB25" s="140">
-        <v>0.875</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="AC25" s="137">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AD25" s="138"/>
       <c r="AE25" s="140">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AF25" s="137">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AG25" s="138"/>
       <c r="AH25" s="140">
-        <v>0.3125</v>
+        <v>0.4</v>
       </c>
       <c r="AI25" s="137">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ25" s="138"/>
       <c r="AK25" s="140">
-        <v>0.8125</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="AL25" s="137">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM25" s="138"/>
       <c r="AN25" s="140">
-        <v>0.6875</v>
+        <v>0.6</v>
       </c>
       <c r="AO25" s="139">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AP25" s="3"/>
       <c r="AW25" s="3"/>
@@ -9212,7 +9159,7 @@
       <c r="BV25" s="6"/>
       <c r="BW25" s="6"/>
       <c r="BY25" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:77" s="13" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9225,87 +9172,87 @@
       </c>
       <c r="F26" s="144"/>
       <c r="G26" s="145">
-        <v>0.5536723163841808</v>
+        <v>0.56770833333333337</v>
       </c>
       <c r="H26" s="146">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="I26" s="147"/>
       <c r="J26" s="145">
-        <v>0.59887005649717517</v>
+        <v>0.59895833333333337</v>
       </c>
       <c r="K26" s="146">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="L26" s="147"/>
       <c r="M26" s="145">
-        <v>0.57627118644067798</v>
+        <v>0.58854166666666663</v>
       </c>
       <c r="N26" s="146">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="O26" s="147"/>
       <c r="P26" s="145">
-        <v>0.61581920903954801</v>
+        <v>0.625</v>
       </c>
       <c r="Q26" s="146">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="R26" s="147"/>
       <c r="S26" s="145">
-        <v>0.60451977401129942</v>
+        <v>0.609375</v>
       </c>
       <c r="T26" s="146">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="U26" s="147"/>
       <c r="V26" s="145">
-        <v>0.53107344632768361</v>
+        <v>0.53645833333333337</v>
       </c>
       <c r="W26" s="146">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="X26" s="147"/>
       <c r="Y26" s="145">
-        <v>0.59322033898305082</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="Z26" s="146">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="AA26" s="147"/>
       <c r="AB26" s="145">
-        <v>0.55932203389830504</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="AC26" s="146">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="AD26" s="147"/>
       <c r="AE26" s="145">
-        <v>0.64971751412429379</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="AF26" s="146">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="AG26" s="147"/>
       <c r="AH26" s="145">
-        <v>0.44067796610169491</v>
+        <v>0.4375</v>
       </c>
       <c r="AI26" s="146">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AJ26" s="147"/>
       <c r="AK26" s="145">
-        <v>0.49717514124293788</v>
+        <v>0.53125</v>
       </c>
       <c r="AL26" s="146">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="AM26" s="147"/>
       <c r="AN26" s="145">
-        <v>0.59887005649717517</v>
+        <v>0.59895833333333337</v>
       </c>
       <c r="AO26" s="148">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AP26" s="3"/>
       <c r="AW26" s="3"/>
@@ -9329,7 +9276,7 @@
       <c r="BV26" s="6"/>
       <c r="BW26" s="6"/>
       <c r="BY26" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:77" s="7" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9353,7 +9300,7 @@
         <v>68</v>
       </c>
       <c r="P27" s="153">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="Q27" s="150"/>
       <c r="R27" s="150"/>
@@ -9366,7 +9313,7 @@
         <v>69</v>
       </c>
       <c r="Y27" s="154">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Z27" s="150"/>
       <c r="AA27" s="152"/>
@@ -9379,7 +9326,7 @@
         <v>70</v>
       </c>
       <c r="AH27" s="154">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI27" s="150"/>
       <c r="AJ27" s="152"/>
@@ -9388,7 +9335,7 @@
       <c r="AM27" s="150"/>
       <c r="AN27" s="150"/>
       <c r="AO27" s="155" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AP27" s="3"/>
       <c r="AW27" s="3"/>
@@ -9402,7 +9349,7 @@
       <c r="BV27" s="6"/>
       <c r="BW27" s="6"/>
       <c r="BY27" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:77" s="7" customFormat="1" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -9459,7 +9406,7 @@
       <c r="BV28" s="6"/>
       <c r="BW28" s="6"/>
       <c r="BY28" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:77" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -9468,7 +9415,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="17"/>
@@ -9520,7 +9467,7 @@
       <c r="BV29" s="6"/>
       <c r="BW29" s="6"/>
       <c r="BY29" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:77" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -9577,7 +9524,7 @@
       <c r="BV30" s="6"/>
       <c r="BW30" s="6"/>
       <c r="BY30" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:77" s="7" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9589,7 +9536,7 @@
         <v>71</v>
       </c>
       <c r="F31" s="23">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G31" s="18"/>
       <c r="H31" s="17"/>
@@ -9656,47 +9603,47 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="25">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H32" s="26"/>
       <c r="I32" s="26"/>
       <c r="J32" s="25">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K32" s="26"/>
       <c r="L32" s="26"/>
       <c r="M32" s="25">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P32" s="25">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S32" s="25">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V32" s="25">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Y32" s="25">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AB32" s="25">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AE32" s="25">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AH32" s="25">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AK32" s="25">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AN32" s="25">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AU32" s="25">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BY32" s="12"/>
     </row>
@@ -9728,47 +9675,47 @@
       <c r="F34" s="26"/>
       <c r="G34" s="25"/>
       <c r="H34" s="26">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="I34" s="26"/>
       <c r="J34" s="26"/>
       <c r="K34" s="26">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="L34" s="26"/>
       <c r="M34" s="26"/>
       <c r="N34" s="26">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="Q34" s="26">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="T34" s="26">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="W34" s="26">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="Z34" s="26">
+        <v>112</v>
+      </c>
+      <c r="AC34" s="26">
         <v>110</v>
       </c>
-      <c r="AC34" s="26">
-        <v>131</v>
-      </c>
       <c r="AF34" s="26">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="AI34" s="26">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AL34" s="26">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="AO34" s="26">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AV34" s="26">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="BY34" s="12"/>
     </row>
@@ -9778,44 +9725,44 @@
       <c r="F35" s="3"/>
       <c r="G35" s="27"/>
       <c r="H35" s="28">
-        <v>88.090909090909093</v>
+        <v>89.416666666666671</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="28">
-        <v>86.727272727272734</v>
+        <v>86.583333333333329</v>
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="28">
-        <v>90.727272727272734</v>
+        <v>91.583333333333329</v>
       </c>
       <c r="Q35" s="28">
-        <v>90.63636363636364</v>
+        <v>91.25</v>
       </c>
       <c r="T35" s="28">
-        <v>90.272727272727266</v>
+        <v>89.25</v>
       </c>
       <c r="W35" s="28">
-        <v>81.545454545454547</v>
+        <v>83</v>
       </c>
       <c r="Z35" s="28">
-        <v>89.454545454545453</v>
+        <v>91.333333333333329</v>
       </c>
       <c r="AC35" s="28">
-        <v>84.727272727272734</v>
+        <v>86.833333333333329</v>
       </c>
       <c r="AF35" s="28">
-        <v>96.818181818181813</v>
+        <v>96.833333333333329</v>
       </c>
       <c r="AI35" s="28">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AL35" s="28">
-        <v>82.272727272727266</v>
+        <v>85.833333333333329</v>
       </c>
       <c r="AO35" s="28">
-        <v>89.545454545454547</v>
+        <v>89.916666666666671</v>
       </c>
       <c r="BY35" s="12"/>
     </row>
@@ -9825,44 +9772,44 @@
       <c r="F36" s="3"/>
       <c r="G36" s="27"/>
       <c r="H36" s="28">
-        <v>969</v>
+        <v>1073</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="28">
-        <v>954</v>
+        <v>1039</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="28">
-        <v>998</v>
+        <v>1099</v>
       </c>
       <c r="Q36" s="28">
-        <v>997</v>
+        <v>1095</v>
       </c>
       <c r="T36" s="28">
-        <v>993</v>
+        <v>1071</v>
       </c>
       <c r="W36" s="28">
-        <v>897</v>
+        <v>996</v>
       </c>
       <c r="Z36" s="28">
-        <v>984</v>
+        <v>1096</v>
       </c>
       <c r="AC36" s="28">
-        <v>932</v>
+        <v>1042</v>
       </c>
       <c r="AF36" s="28">
-        <v>1065</v>
+        <v>1162</v>
       </c>
       <c r="AI36" s="28">
-        <v>748</v>
+        <v>792</v>
       </c>
       <c r="AL36" s="28">
-        <v>905</v>
+        <v>1030</v>
       </c>
       <c r="AO36" s="28">
-        <v>985</v>
+        <v>1079</v>
       </c>
       <c r="BY36" s="12"/>
     </row>
@@ -9919,44 +9866,44 @@
       <c r="F38" s="3"/>
       <c r="G38" s="27"/>
       <c r="H38" s="28">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="28">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="28">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q38" s="28">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T38" s="28">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="W38" s="28">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z38" s="28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC38" s="28">
+        <v>11</v>
+      </c>
+      <c r="AF38" s="28">
+        <v>9</v>
+      </c>
+      <c r="AI38" s="28">
+        <v>6</v>
+      </c>
+      <c r="AL38" s="28">
         <v>14</v>
       </c>
-      <c r="AF38" s="28">
-        <v>12</v>
-      </c>
-      <c r="AI38" s="28">
-        <v>5</v>
-      </c>
-      <c r="AL38" s="28">
-        <v>13</v>
-      </c>
       <c r="AO38" s="28">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BY38" s="12"/>
     </row>
@@ -9966,44 +9913,44 @@
       <c r="F39" s="3"/>
       <c r="G39" s="27"/>
       <c r="H39" s="28">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="28">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="28">
+        <v>113</v>
+      </c>
+      <c r="Q39" s="28">
+        <v>120</v>
+      </c>
+      <c r="T39" s="28">
+        <v>117</v>
+      </c>
+      <c r="W39" s="28">
+        <v>103</v>
+      </c>
+      <c r="Z39" s="28">
+        <v>116</v>
+      </c>
+      <c r="AC39" s="28">
+        <v>110</v>
+      </c>
+      <c r="AF39" s="28">
+        <v>124</v>
+      </c>
+      <c r="AI39" s="28">
+        <v>84</v>
+      </c>
+      <c r="AL39" s="28">
         <v>102</v>
       </c>
-      <c r="Q39" s="28">
-        <v>109</v>
-      </c>
-      <c r="T39" s="28">
-        <v>107</v>
-      </c>
-      <c r="W39" s="28">
-        <v>94</v>
-      </c>
-      <c r="Z39" s="28">
-        <v>105</v>
-      </c>
-      <c r="AC39" s="28">
-        <v>99</v>
-      </c>
-      <c r="AF39" s="28">
+      <c r="AO39" s="28">
         <v>115</v>
-      </c>
-      <c r="AI39" s="28">
-        <v>78</v>
-      </c>
-      <c r="AL39" s="28">
-        <v>88</v>
-      </c>
-      <c r="AO39" s="28">
-        <v>106</v>
       </c>
       <c r="BY39" s="12"/>
     </row>
@@ -10012,12 +9959,12 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H40" s="28"/>
       <c r="I40" s="3"/>
       <c r="J40" s="27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K40" s="28"/>
       <c r="L40" s="3"/>
@@ -10026,11 +9973,11 @@
       </c>
       <c r="N40" s="28"/>
       <c r="P40" s="27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q40" s="28"/>
       <c r="S40" s="27">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T40" s="28"/>
       <c r="V40" s="27">
@@ -10038,11 +9985,11 @@
       </c>
       <c r="W40" s="28"/>
       <c r="Y40" s="27">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Z40" s="28"/>
       <c r="AB40" s="27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC40" s="28"/>
       <c r="AE40" s="27">
@@ -10074,44 +10021,44 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="27">
-        <v>0.8125</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="27">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="27">
-        <v>0.8125</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="P41" s="27">
-        <v>0.75</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="S41" s="27">
-        <v>0.8125</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="V41" s="27">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Y41" s="27">
-        <v>0.625</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="AB41" s="27">
-        <v>0.875</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="AE41" s="27">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AH41" s="27">
-        <v>0.3125</v>
+        <v>0.4</v>
       </c>
       <c r="AK41" s="27">
-        <v>0.8125</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="AN41" s="27">
-        <v>0.6875</v>
+        <v>0.6</v>
       </c>
       <c r="AR41" s="29">
         <v>1</v>
@@ -10126,44 +10073,44 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="27">
-        <v>0.5536723163841808</v>
+        <v>0.56770833333333337</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="27">
-        <v>0.59887005649717517</v>
+        <v>0.59895833333333337</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="27">
-        <v>0.57627118644067798</v>
+        <v>0.58854166666666663</v>
       </c>
       <c r="P42" s="27">
-        <v>0.61581920903954801</v>
+        <v>0.625</v>
       </c>
       <c r="S42" s="27">
-        <v>0.60451977401129942</v>
+        <v>0.609375</v>
       </c>
       <c r="V42" s="27">
-        <v>0.53107344632768361</v>
+        <v>0.53645833333333337</v>
       </c>
       <c r="Y42" s="27">
-        <v>0.59322033898305082</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="AB42" s="27">
-        <v>0.55932203389830504</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="AE42" s="27">
-        <v>0.64971751412429379</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="AH42" s="27">
-        <v>0.44067796610169491</v>
+        <v>0.4375</v>
       </c>
       <c r="AK42" s="27">
-        <v>0.49717514124293788</v>
+        <v>0.53125</v>
       </c>
       <c r="AN42" s="27">
-        <v>0.59887005649717517</v>
+        <v>0.59895833333333337</v>
       </c>
       <c r="BY42" s="12"/>
     </row>
@@ -10201,7 +10148,7 @@
         <v>76</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="BY45" s="12"/>
     </row>
@@ -12313,7 +12260,7 @@
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
       <c r="U1" s="168" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
@@ -12357,67 +12304,67 @@
       <c r="BI1" s="6"/>
     </row>
     <row r="2" spans="2:99" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="307" t="s">
-        <v>173</v>
-      </c>
-      <c r="C2" s="308" t="s">
-        <v>173</v>
-      </c>
-      <c r="D2" s="309"/>
+      <c r="B2" s="306" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="307" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="308"/>
       <c r="E2" s="156" t="s">
         <v>91</v>
       </c>
       <c r="F2" s="115">
-        <v>-36</v>
+        <v>-39</v>
       </c>
       <c r="G2" s="157"/>
       <c r="H2" s="156" t="s">
         <v>92</v>
       </c>
       <c r="I2" s="115">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="J2" s="157"/>
       <c r="K2" s="156" t="s">
         <v>93</v>
       </c>
       <c r="L2" s="115">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M2" s="157"/>
       <c r="N2" s="156" t="s">
         <v>94</v>
       </c>
       <c r="O2" s="115">
-        <v>-36</v>
+        <v>-39</v>
       </c>
       <c r="P2" s="157"/>
       <c r="Q2" s="156" t="s">
         <v>95</v>
       </c>
       <c r="R2" s="115">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="S2" s="157"/>
       <c r="T2" s="156" t="s">
         <v>96</v>
       </c>
       <c r="U2" s="115">
-        <v>-36</v>
+        <v>-39</v>
       </c>
       <c r="V2" s="157"/>
       <c r="W2" s="156" t="s">
         <v>97</v>
       </c>
       <c r="X2" s="115">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y2" s="157"/>
       <c r="Z2" s="156" t="s">
         <v>98</v>
       </c>
       <c r="AA2" s="115">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="AB2" s="157"/>
       <c r="AC2" s="156" t="s">
@@ -12431,21 +12378,21 @@
         <v>100</v>
       </c>
       <c r="AG2" s="115">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="AH2" s="157"/>
       <c r="AI2" s="156" t="s">
         <v>101</v>
       </c>
       <c r="AJ2" s="115">
-        <v>-36</v>
+        <v>-8</v>
       </c>
       <c r="AK2" s="157"/>
       <c r="AL2" s="156" t="s">
         <v>102</v>
       </c>
       <c r="AM2" s="115">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="AN2" s="158"/>
       <c r="AO2" s="211">
@@ -12455,7 +12402,7 @@
         <v>8</v>
       </c>
       <c r="AQ2" s="39">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR2" s="40" t="s">
         <v>9</v>
@@ -12587,7 +12534,7 @@
         <v>14</v>
       </c>
       <c r="AQ3" s="41">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR3" s="40" t="s">
         <v>15</v>
@@ -13800,7 +13747,7 @@
       </c>
       <c r="AQ9" s="45"/>
       <c r="AR9" s="47" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AS9" s="4">
         <v>15</v>
@@ -14012,11 +13959,11 @@
       </c>
       <c r="AO10" s="45"/>
       <c r="AP10" s="226" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AQ10" s="45"/>
       <c r="AR10" s="47" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AS10" s="4">
         <v>15</v>
@@ -14230,7 +14177,7 @@
       <c r="AP11" s="46"/>
       <c r="AQ11" s="45"/>
       <c r="AR11" s="47" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AS11" s="4">
         <v>13</v>
@@ -14444,7 +14391,7 @@
       <c r="AP12" s="46"/>
       <c r="AQ12" s="45"/>
       <c r="AR12" s="47" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AS12" s="4">
         <v>13</v>
@@ -15179,116 +15126,116 @@
       <c r="C16" s="191">
         <v>15</v>
       </c>
-      <c r="D16" s="222" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="193" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="K16" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="L16" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="M16" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="N16" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="O16" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="P16" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="R16" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="S16" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="T16" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="U16" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="V16" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="W16" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="X16" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN16" s="225" t="s">
-        <v>0</v>
+      <c r="D16" s="222">
+        <v>15</v>
+      </c>
+      <c r="E16" s="193">
+        <v>4</v>
+      </c>
+      <c r="F16" s="223">
+        <v>11</v>
+      </c>
+      <c r="G16" s="224">
+        <v>104</v>
+      </c>
+      <c r="H16" s="196">
+        <v>10</v>
+      </c>
+      <c r="I16" s="223">
+        <v>9</v>
+      </c>
+      <c r="J16" s="224">
+        <v>85</v>
+      </c>
+      <c r="K16" s="196">
+        <v>5</v>
+      </c>
+      <c r="L16" s="223">
+        <v>11</v>
+      </c>
+      <c r="M16" s="224">
+        <v>101</v>
+      </c>
+      <c r="N16" s="196">
+        <v>7</v>
+      </c>
+      <c r="O16" s="223">
+        <v>11</v>
+      </c>
+      <c r="P16" s="224">
+        <v>98</v>
+      </c>
+      <c r="Q16" s="196">
+        <v>11</v>
+      </c>
+      <c r="R16" s="223">
+        <v>10</v>
+      </c>
+      <c r="S16" s="224">
+        <v>78</v>
+      </c>
+      <c r="T16" s="196">
+        <v>6</v>
+      </c>
+      <c r="U16" s="223">
+        <v>9</v>
+      </c>
+      <c r="V16" s="224">
+        <v>99</v>
+      </c>
+      <c r="W16" s="196">
+        <v>2</v>
+      </c>
+      <c r="X16" s="223">
+        <v>11</v>
+      </c>
+      <c r="Y16" s="224">
+        <v>112</v>
+      </c>
+      <c r="Z16" s="196">
+        <v>3</v>
+      </c>
+      <c r="AA16" s="223">
+        <v>11</v>
+      </c>
+      <c r="AB16" s="224">
+        <v>110</v>
+      </c>
+      <c r="AC16" s="196">
+        <v>8</v>
+      </c>
+      <c r="AD16" s="223">
+        <v>9</v>
+      </c>
+      <c r="AE16" s="224">
+        <v>97</v>
+      </c>
+      <c r="AF16" s="196">
+        <v>12</v>
+      </c>
+      <c r="AG16" s="223">
+        <v>6</v>
+      </c>
+      <c r="AH16" s="224">
+        <v>44</v>
+      </c>
+      <c r="AI16" s="196">
+        <v>1</v>
+      </c>
+      <c r="AJ16" s="223">
+        <v>14</v>
+      </c>
+      <c r="AK16" s="224">
+        <v>125</v>
+      </c>
+      <c r="AL16" s="196">
+        <v>9</v>
+      </c>
+      <c r="AM16" s="223">
+        <v>9</v>
+      </c>
+      <c r="AN16" s="225">
+        <v>94</v>
       </c>
       <c r="AO16" s="45"/>
       <c r="AP16" s="46"/>
@@ -15302,85 +15249,85 @@
         <v>0</v>
       </c>
       <c r="BL16" s="4"/>
-      <c r="BM16" s="4" t="s">
-        <v>0</v>
+      <c r="BM16" s="4">
+        <v>104</v>
       </c>
       <c r="BN16" s="4" t="s">
         <v>0</v>
       </c>
       <c r="BO16" s="4"/>
-      <c r="BP16" s="4" t="s">
-        <v>0</v>
+      <c r="BP16" s="4">
+        <v>85</v>
       </c>
       <c r="BQ16" s="4" t="s">
         <v>0</v>
       </c>
       <c r="BR16" s="4"/>
-      <c r="BS16" s="4" t="s">
-        <v>0</v>
+      <c r="BS16" s="4">
+        <v>101</v>
       </c>
       <c r="BT16" s="4" t="s">
         <v>0</v>
       </c>
       <c r="BU16" s="4"/>
-      <c r="BV16" s="4" t="s">
-        <v>0</v>
+      <c r="BV16" s="4">
+        <v>98</v>
       </c>
       <c r="BW16" s="4" t="s">
         <v>0</v>
       </c>
       <c r="BX16" s="4"/>
-      <c r="BY16" s="4" t="s">
-        <v>0</v>
+      <c r="BY16" s="4">
+        <v>78</v>
       </c>
       <c r="BZ16" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CA16" s="4"/>
-      <c r="CB16" s="4" t="s">
-        <v>0</v>
+      <c r="CB16" s="4">
+        <v>99</v>
       </c>
       <c r="CC16" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CD16" s="4"/>
-      <c r="CE16" s="4" t="s">
-        <v>0</v>
+      <c r="CE16" s="4">
+        <v>112</v>
       </c>
       <c r="CF16" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CG16" s="4"/>
-      <c r="CH16" s="4" t="s">
-        <v>0</v>
+      <c r="CH16" s="4">
+        <v>110</v>
       </c>
       <c r="CI16" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CJ16" s="4"/>
-      <c r="CK16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="CL16" s="4" t="s">
-        <v>0</v>
+      <c r="CK16" s="4">
+        <v>97</v>
+      </c>
+      <c r="CL16" s="4">
+        <v>1</v>
       </c>
       <c r="CM16" s="4"/>
-      <c r="CN16" s="4" t="s">
-        <v>0</v>
+      <c r="CN16" s="4">
+        <v>44</v>
       </c>
       <c r="CO16" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CP16" s="4"/>
-      <c r="CQ16" s="4" t="s">
-        <v>0</v>
+      <c r="CQ16" s="4">
+        <v>125</v>
       </c>
       <c r="CR16" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CS16" s="4"/>
-      <c r="CT16" s="4" t="s">
-        <v>0</v>
+      <c r="CT16" s="4">
+        <v>94</v>
       </c>
       <c r="CU16" s="4"/>
     </row>
@@ -16238,115 +16185,115 @@
         <v>22</v>
       </c>
       <c r="D21" s="237">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="E21" s="238">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F21" s="239">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="G21" s="240">
-        <v>969</v>
+        <v>1073</v>
       </c>
       <c r="H21" s="241">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I21" s="239">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="J21" s="240">
-        <v>954</v>
+        <v>1039</v>
       </c>
       <c r="K21" s="241">
         <v>2</v>
       </c>
       <c r="L21" s="239">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="M21" s="240">
-        <v>998</v>
+        <v>1099</v>
       </c>
       <c r="N21" s="241">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O21" s="239">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="P21" s="240">
-        <v>997</v>
+        <v>1095</v>
       </c>
       <c r="Q21" s="241">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R21" s="239">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="S21" s="240">
-        <v>993</v>
+        <v>1071</v>
       </c>
       <c r="T21" s="241">
         <v>11</v>
       </c>
       <c r="U21" s="239">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="V21" s="240">
-        <v>897</v>
+        <v>996</v>
       </c>
       <c r="W21" s="241">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X21" s="239">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="Y21" s="240">
-        <v>984</v>
+        <v>1096</v>
       </c>
       <c r="Z21" s="241">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA21" s="239">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="AB21" s="240">
-        <v>932</v>
+        <v>1042</v>
       </c>
       <c r="AC21" s="241">
         <v>1</v>
       </c>
       <c r="AD21" s="239">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="AE21" s="240">
-        <v>1065</v>
+        <v>1162</v>
       </c>
       <c r="AF21" s="241">
         <v>12</v>
       </c>
       <c r="AG21" s="239">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AH21" s="240">
-        <v>748</v>
+        <v>792</v>
       </c>
       <c r="AI21" s="241">
         <v>10</v>
       </c>
       <c r="AJ21" s="239">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="AK21" s="240">
-        <v>905</v>
+        <v>1030</v>
       </c>
       <c r="AL21" s="241">
         <v>5</v>
       </c>
       <c r="AM21" s="239">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AN21" s="242">
-        <v>985</v>
+        <v>1079</v>
       </c>
       <c r="AO21" s="48"/>
       <c r="AP21" s="49"/>
@@ -16357,62 +16304,62 @@
       <c r="BK21" s="4"/>
       <c r="BL21" s="4"/>
       <c r="BM21" s="4">
-        <v>969</v>
+        <v>1073</v>
       </c>
       <c r="BN21" s="4"/>
       <c r="BO21" s="4"/>
       <c r="BP21" s="4">
-        <v>954</v>
+        <v>1039</v>
       </c>
       <c r="BQ21" s="4"/>
       <c r="BR21" s="4"/>
       <c r="BS21" s="4">
-        <v>998</v>
+        <v>1099</v>
       </c>
       <c r="BT21" s="4"/>
       <c r="BU21" s="4"/>
       <c r="BV21" s="4">
-        <v>997</v>
+        <v>1095</v>
       </c>
       <c r="BW21" s="4"/>
       <c r="BX21" s="4"/>
       <c r="BY21" s="4">
-        <v>993</v>
+        <v>1071</v>
       </c>
       <c r="BZ21" s="4"/>
       <c r="CA21" s="4"/>
       <c r="CB21" s="4">
-        <v>897</v>
+        <v>996</v>
       </c>
       <c r="CC21" s="4"/>
       <c r="CD21" s="4"/>
       <c r="CE21" s="4">
-        <v>984</v>
+        <v>1096</v>
       </c>
       <c r="CF21" s="4"/>
       <c r="CG21" s="4"/>
       <c r="CH21" s="4">
-        <v>932</v>
+        <v>1042</v>
       </c>
       <c r="CI21" s="4"/>
       <c r="CJ21" s="4"/>
       <c r="CK21" s="4">
-        <v>1065</v>
+        <v>1162</v>
       </c>
       <c r="CL21" s="4"/>
       <c r="CM21" s="4"/>
       <c r="CN21" s="4">
-        <v>748</v>
+        <v>792</v>
       </c>
       <c r="CO21" s="4"/>
       <c r="CP21" s="4"/>
       <c r="CQ21" s="4">
-        <v>905</v>
+        <v>1030</v>
       </c>
       <c r="CR21" s="4"/>
       <c r="CS21" s="4"/>
       <c r="CT21" s="4">
-        <v>985</v>
+        <v>1079</v>
       </c>
       <c r="CU21" s="4"/>
     </row>
@@ -16423,112 +16370,112 @@
         <v>23</v>
       </c>
       <c r="E22" s="246">
-        <v>5.8181818181818183</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="F22" s="247">
-        <v>8.1666666666666661</v>
+        <v>8.384615384615385</v>
       </c>
       <c r="G22" s="248">
-        <v>88.090909090909093</v>
+        <v>89.416666666666671</v>
       </c>
       <c r="H22" s="249">
-        <v>7</v>
+        <v>7.2307692307692308</v>
       </c>
       <c r="I22" s="247">
-        <v>8.8333333333333339</v>
+        <v>8.8461538461538467</v>
       </c>
       <c r="J22" s="248">
-        <v>86.727272727272734</v>
+        <v>86.583333333333329</v>
       </c>
       <c r="K22" s="249">
-        <v>4.8181818181818183</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="L22" s="247">
-        <v>8.5</v>
+        <v>8.6923076923076916</v>
       </c>
       <c r="M22" s="248">
-        <v>90.727272727272734</v>
+        <v>91.583333333333329</v>
       </c>
       <c r="N22" s="249">
-        <v>5.666666666666667</v>
+        <v>5.7692307692307692</v>
       </c>
       <c r="O22" s="247">
-        <v>9.0833333333333339</v>
+        <v>9.2307692307692299</v>
       </c>
       <c r="P22" s="248">
-        <v>90.63636363636364</v>
+        <v>91.25</v>
       </c>
       <c r="Q22" s="249">
-        <v>5.75</v>
+        <v>6.1538461538461542</v>
       </c>
       <c r="R22" s="247">
-        <v>8.9166666666666661</v>
+        <v>9</v>
       </c>
       <c r="S22" s="248">
-        <v>90.272727272727266</v>
+        <v>89.25</v>
       </c>
       <c r="T22" s="249">
-        <v>7.1818181818181817</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="U22" s="247">
-        <v>7.833333333333333</v>
+        <v>7.9230769230769234</v>
       </c>
       <c r="V22" s="248">
-        <v>81.545454545454547</v>
+        <v>83</v>
       </c>
       <c r="W22" s="249">
-        <v>5.5</v>
+        <v>5.2307692307692308</v>
       </c>
       <c r="X22" s="247">
-        <v>8.75</v>
+        <v>8.9230769230769234</v>
       </c>
       <c r="Y22" s="248">
-        <v>89.454545454545453</v>
+        <v>91.333333333333329</v>
       </c>
       <c r="Z22" s="249">
-        <v>7.083333333333333</v>
+        <v>6.7692307692307692</v>
       </c>
       <c r="AA22" s="247">
-        <v>8.25</v>
+        <v>8.4615384615384617</v>
       </c>
       <c r="AB22" s="248">
-        <v>84.727272727272734</v>
+        <v>86.833333333333329</v>
       </c>
       <c r="AC22" s="249">
-        <v>4.083333333333333</v>
+        <v>4.384615384615385</v>
       </c>
       <c r="AD22" s="247">
-        <v>9.5833333333333339</v>
+        <v>9.5384615384615383</v>
       </c>
       <c r="AE22" s="248">
-        <v>96.818181818181813</v>
+        <v>96.833333333333329</v>
       </c>
       <c r="AF22" s="249">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AG22" s="247">
+        <v>6.4615384615384617</v>
+      </c>
+      <c r="AH22" s="248">
+        <v>66</v>
+      </c>
+      <c r="AI22" s="249">
         <v>6.5</v>
       </c>
-      <c r="AH22" s="248">
-        <v>68</v>
-      </c>
-      <c r="AI22" s="249">
-        <v>7</v>
-      </c>
       <c r="AJ22" s="247">
-        <v>7.333333333333333</v>
+        <v>7.8461538461538458</v>
       </c>
       <c r="AK22" s="248">
-        <v>82.272727272727266</v>
+        <v>85.833333333333329</v>
       </c>
       <c r="AL22" s="249">
-        <v>6.583333333333333</v>
+        <v>6.7692307692307692</v>
       </c>
       <c r="AM22" s="247">
-        <v>8.8333333333333339</v>
+        <v>8.8461538461538467</v>
       </c>
       <c r="AN22" s="250">
-        <v>89.545454545454547</v>
+        <v>89.916666666666671</v>
       </c>
       <c r="AO22" s="48"/>
       <c r="AP22" s="49"/>
@@ -16630,8 +16577,8 @@
       </c>
       <c r="AG23" s="255"/>
       <c r="AH23" s="256"/>
-      <c r="AI23" s="257" t="s">
-        <v>0</v>
+      <c r="AI23" s="257">
+        <v>1</v>
       </c>
       <c r="AJ23" s="255"/>
       <c r="AK23" s="256"/>
@@ -16721,7 +16668,7 @@
       <c r="U24" s="108"/>
       <c r="V24" s="109"/>
       <c r="W24" s="75">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X24" s="108"/>
       <c r="Y24" s="109"/>
@@ -16859,8 +16806,8 @@
       </c>
       <c r="X25" s="108"/>
       <c r="Y25" s="109"/>
-      <c r="Z25" s="75" t="s">
-        <v>0</v>
+      <c r="Z25" s="75">
+        <v>1</v>
       </c>
       <c r="AA25" s="108"/>
       <c r="AB25" s="109"/>
@@ -17004,7 +16951,7 @@
       <c r="AD26" s="108"/>
       <c r="AE26" s="109"/>
       <c r="AF26" s="75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG26" s="108"/>
       <c r="AH26" s="109"/>
@@ -17285,24 +17232,24 @@
       <c r="CU28" s="4"/>
     </row>
     <row r="29" spans="2:99" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AT29" s="300" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU29" s="310"/>
-      <c r="AV29" s="310"/>
-      <c r="AW29" s="310"/>
-      <c r="AX29" s="310"/>
-      <c r="AY29" s="310"/>
-      <c r="AZ29" s="310"/>
-      <c r="BA29" s="310"/>
-      <c r="BB29" s="310"/>
-      <c r="BC29" s="310"/>
-      <c r="BD29" s="310"/>
-      <c r="BE29" s="310"/>
-      <c r="BF29" s="310"/>
-      <c r="BG29" s="310"/>
-      <c r="BH29" s="310"/>
-      <c r="BI29" s="311"/>
+      <c r="AT29" s="299" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU29" s="309"/>
+      <c r="AV29" s="309"/>
+      <c r="AW29" s="309"/>
+      <c r="AX29" s="309"/>
+      <c r="AY29" s="309"/>
+      <c r="AZ29" s="309"/>
+      <c r="BA29" s="309"/>
+      <c r="BB29" s="309"/>
+      <c r="BC29" s="309"/>
+      <c r="BD29" s="309"/>
+      <c r="BE29" s="309"/>
+      <c r="BF29" s="309"/>
+      <c r="BG29" s="309"/>
+      <c r="BH29" s="309"/>
+      <c r="BI29" s="310"/>
       <c r="BJ29" s="4"/>
       <c r="BK29" s="4"/>
       <c r="BL29" s="4">
@@ -17367,30 +17314,30 @@
       <c r="CU29" s="4"/>
     </row>
     <row r="30" spans="2:99" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AT30" s="312" t="s">
+      <c r="AT30" s="311" t="s">
         <v>3</v>
       </c>
-      <c r="AU30" s="315" t="s">
+      <c r="AU30" s="314" t="s">
         <v>36</v>
       </c>
-      <c r="AV30" s="318" t="s">
+      <c r="AV30" s="317" t="s">
         <v>37</v>
       </c>
-      <c r="AW30" s="319"/>
-      <c r="AX30" s="319"/>
-      <c r="AY30" s="319"/>
-      <c r="AZ30" s="319"/>
-      <c r="BA30" s="319"/>
-      <c r="BB30" s="320"/>
-      <c r="BC30" s="319" t="s">
+      <c r="AW30" s="318"/>
+      <c r="AX30" s="318"/>
+      <c r="AY30" s="318"/>
+      <c r="AZ30" s="318"/>
+      <c r="BA30" s="318"/>
+      <c r="BB30" s="319"/>
+      <c r="BC30" s="318" t="s">
         <v>38</v>
       </c>
-      <c r="BD30" s="319"/>
-      <c r="BE30" s="319"/>
-      <c r="BF30" s="319"/>
-      <c r="BG30" s="319"/>
-      <c r="BH30" s="319"/>
-      <c r="BI30" s="320"/>
+      <c r="BD30" s="318"/>
+      <c r="BE30" s="318"/>
+      <c r="BF30" s="318"/>
+      <c r="BG30" s="318"/>
+      <c r="BH30" s="318"/>
+      <c r="BI30" s="319"/>
       <c r="BJ30" s="4"/>
       <c r="BK30" s="4"/>
       <c r="BL30" s="4">
@@ -17455,40 +17402,40 @@
       <c r="CU30" s="4"/>
     </row>
     <row r="31" spans="2:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AT31" s="313"/>
-      <c r="AU31" s="316"/>
-      <c r="AV31" s="321" t="s">
+      <c r="AT31" s="312"/>
+      <c r="AU31" s="315"/>
+      <c r="AV31" s="320" t="s">
         <v>29</v>
       </c>
-      <c r="AW31" s="323" t="s">
+      <c r="AW31" s="322" t="s">
         <v>30</v>
       </c>
-      <c r="AX31" s="323" t="s">
+      <c r="AX31" s="322" t="s">
         <v>29</v>
       </c>
-      <c r="AY31" s="323" t="s">
+      <c r="AY31" s="322" t="s">
         <v>31</v>
       </c>
-      <c r="AZ31" s="323"/>
-      <c r="BA31" s="323" t="s">
+      <c r="AZ31" s="322"/>
+      <c r="BA31" s="322" t="s">
         <v>32</v>
       </c>
-      <c r="BB31" s="325"/>
-      <c r="BC31" s="327" t="s">
+      <c r="BB31" s="324"/>
+      <c r="BC31" s="326" t="s">
         <v>33</v>
       </c>
-      <c r="BD31" s="323" t="s">
+      <c r="BD31" s="322" t="s">
         <v>30</v>
       </c>
-      <c r="BE31" s="323"/>
-      <c r="BF31" s="323" t="s">
+      <c r="BE31" s="322"/>
+      <c r="BF31" s="322" t="s">
         <v>34</v>
       </c>
-      <c r="BG31" s="323"/>
-      <c r="BH31" s="323" t="s">
+      <c r="BG31" s="322"/>
+      <c r="BH31" s="322" t="s">
         <v>35</v>
       </c>
-      <c r="BI31" s="325"/>
+      <c r="BI31" s="324"/>
       <c r="BJ31" s="4"/>
       <c r="BK31" s="4"/>
       <c r="BL31" s="4">
@@ -17553,22 +17500,22 @@
       <c r="CU31" s="4"/>
     </row>
     <row r="32" spans="2:99" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AT32" s="314"/>
-      <c r="AU32" s="317"/>
-      <c r="AV32" s="322"/>
-      <c r="AW32" s="324"/>
-      <c r="AX32" s="324"/>
-      <c r="AY32" s="324"/>
-      <c r="AZ32" s="324"/>
-      <c r="BA32" s="324"/>
-      <c r="BB32" s="326"/>
-      <c r="BC32" s="328"/>
-      <c r="BD32" s="324"/>
-      <c r="BE32" s="324"/>
-      <c r="BF32" s="324"/>
-      <c r="BG32" s="324"/>
-      <c r="BH32" s="324"/>
-      <c r="BI32" s="326"/>
+      <c r="AT32" s="313"/>
+      <c r="AU32" s="316"/>
+      <c r="AV32" s="321"/>
+      <c r="AW32" s="323"/>
+      <c r="AX32" s="323"/>
+      <c r="AY32" s="323"/>
+      <c r="AZ32" s="323"/>
+      <c r="BA32" s="323"/>
+      <c r="BB32" s="325"/>
+      <c r="BC32" s="327"/>
+      <c r="BD32" s="323"/>
+      <c r="BE32" s="323"/>
+      <c r="BF32" s="323"/>
+      <c r="BG32" s="323"/>
+      <c r="BH32" s="323"/>
+      <c r="BI32" s="325"/>
       <c r="BJ32" s="4"/>
       <c r="BK32" s="4"/>
       <c r="BL32" s="4">
@@ -17640,7 +17587,7 @@
         <v>124</v>
       </c>
       <c r="AV33" s="273">
-        <v>-36</v>
+        <v>-39</v>
       </c>
       <c r="AW33" s="274">
         <v>4</v>
@@ -17652,7 +17599,7 @@
         <v>61</v>
       </c>
       <c r="AZ33" s="275">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="BA33" s="277" t="s">
         <v>0</v>
@@ -17735,10 +17682,10 @@
         <v>97</v>
       </c>
       <c r="AU34" s="280">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AV34" s="281">
-        <v>-36</v>
+        <v>-39</v>
       </c>
       <c r="AW34" s="282">
         <v>2</v>
@@ -17833,10 +17780,10 @@
         <v>93</v>
       </c>
       <c r="AU35" s="280">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV35" s="281">
-        <v>-36</v>
+        <v>-39</v>
       </c>
       <c r="AW35" s="282">
         <v>1</v>
@@ -17854,7 +17801,7 @@
         <v>61</v>
       </c>
       <c r="BB35" s="286">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BC35" s="287"/>
       <c r="BD35" s="282"/>
@@ -17931,10 +17878,10 @@
         <v>92</v>
       </c>
       <c r="AU36" s="280">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="AV36" s="281">
-        <v>-36</v>
+        <v>-39</v>
       </c>
       <c r="AW36" s="282">
         <v>1</v>
@@ -17963,63 +17910,63 @@
       <c r="BI36" s="286"/>
       <c r="BJ36" s="4"/>
       <c r="BK36" s="4"/>
-      <c r="BL36" s="4" t="s">
-        <v>0</v>
+      <c r="BL36" s="4">
+        <v>11</v>
       </c>
       <c r="BM36" s="4"/>
       <c r="BN36" s="4"/>
-      <c r="BO36" s="4" t="s">
-        <v>0</v>
+      <c r="BO36" s="4">
+        <v>9</v>
       </c>
       <c r="BP36" s="4"/>
       <c r="BQ36" s="4"/>
-      <c r="BR36" s="4" t="s">
-        <v>0</v>
+      <c r="BR36" s="4">
+        <v>11</v>
       </c>
       <c r="BS36" s="4"/>
       <c r="BT36" s="4"/>
-      <c r="BU36" s="4" t="s">
-        <v>0</v>
+      <c r="BU36" s="4">
+        <v>11</v>
       </c>
       <c r="BV36" s="4"/>
       <c r="BW36" s="4"/>
-      <c r="BX36" s="4" t="s">
-        <v>0</v>
+      <c r="BX36" s="4">
+        <v>10</v>
       </c>
       <c r="BY36" s="4"/>
       <c r="BZ36" s="4"/>
-      <c r="CA36" s="4" t="s">
-        <v>0</v>
+      <c r="CA36" s="4">
+        <v>9</v>
       </c>
       <c r="CB36" s="4"/>
       <c r="CC36" s="4"/>
-      <c r="CD36" s="4" t="s">
-        <v>0</v>
+      <c r="CD36" s="4">
+        <v>11</v>
       </c>
       <c r="CE36" s="4"/>
       <c r="CF36" s="4"/>
-      <c r="CG36" s="4" t="s">
-        <v>0</v>
+      <c r="CG36" s="4">
+        <v>11</v>
       </c>
       <c r="CH36" s="4"/>
       <c r="CI36" s="4"/>
-      <c r="CJ36" s="4" t="s">
-        <v>0</v>
+      <c r="CJ36" s="4">
+        <v>9</v>
       </c>
       <c r="CK36" s="4"/>
       <c r="CL36" s="4"/>
-      <c r="CM36" s="4" t="s">
-        <v>0</v>
+      <c r="CM36" s="4">
+        <v>6</v>
       </c>
       <c r="CN36" s="4"/>
       <c r="CO36" s="4"/>
-      <c r="CP36" s="4" t="s">
-        <v>0</v>
+      <c r="CP36" s="4">
+        <v>14</v>
       </c>
       <c r="CQ36" s="4"/>
       <c r="CR36" s="4"/>
-      <c r="CS36" s="4" t="s">
-        <v>0</v>
+      <c r="CS36" s="4">
+        <v>9</v>
       </c>
       <c r="CT36" s="4"/>
       <c r="CU36" s="4"/>
@@ -18029,10 +17976,10 @@
         <v>95</v>
       </c>
       <c r="AU37" s="280">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="AV37" s="281">
-        <v>-36</v>
+        <v>-39</v>
       </c>
       <c r="AW37" s="282">
         <v>1</v>
@@ -18127,10 +18074,10 @@
         <v>98</v>
       </c>
       <c r="AU38" s="280">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="AV38" s="281">
-        <v>-36</v>
+        <v>-39</v>
       </c>
       <c r="AW38" s="282">
         <v>1</v>
@@ -18225,10 +18172,10 @@
         <v>100</v>
       </c>
       <c r="AU39" s="280">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="AV39" s="281">
-        <v>-36</v>
+        <v>-39</v>
       </c>
       <c r="AW39" s="282">
         <v>1</v>
@@ -18319,14 +18266,14 @@
       <c r="CU39" s="4"/>
     </row>
     <row r="40" spans="46:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AT40" s="271" t="s">
-        <v>102</v>
+      <c r="AT40" s="328" t="s">
+        <v>101</v>
       </c>
       <c r="AU40" s="280">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="AV40" s="281">
-        <v>-36</v>
+        <v>-39</v>
       </c>
       <c r="AW40" s="282">
         <v>1</v>
@@ -18418,19 +18365,19 @@
     </row>
     <row r="41" spans="46:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AT41" s="271" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="AU41" s="280">
-        <v>-36</v>
+        <v>-8</v>
       </c>
       <c r="AV41" s="281">
-        <v>-36</v>
-      </c>
-      <c r="AW41" s="282" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX41" s="283" t="s">
-        <v>0</v>
+        <v>-39</v>
+      </c>
+      <c r="AW41" s="282">
+        <v>1</v>
+      </c>
+      <c r="AX41" s="283">
+        <v>31</v>
       </c>
       <c r="AY41" s="284" t="s">
         <v>0</v>
@@ -18454,75 +18401,75 @@
       <c r="BJ41" s="4"/>
       <c r="BK41" s="4"/>
       <c r="BL41" s="4">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="BM41" s="4"/>
       <c r="BN41" s="4"/>
       <c r="BO41" s="4">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="BP41" s="4"/>
       <c r="BQ41" s="4"/>
       <c r="BR41" s="4">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="BS41" s="4"/>
       <c r="BT41" s="4"/>
       <c r="BU41" s="4">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="BV41" s="4"/>
       <c r="BW41" s="4"/>
       <c r="BX41" s="4">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="BY41" s="4"/>
       <c r="BZ41" s="4"/>
       <c r="CA41" s="4">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="CB41" s="4"/>
       <c r="CC41" s="4"/>
       <c r="CD41" s="4">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="CE41" s="4"/>
       <c r="CF41" s="4"/>
       <c r="CG41" s="4">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="CH41" s="4"/>
       <c r="CI41" s="4"/>
       <c r="CJ41" s="4">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="CK41" s="4"/>
       <c r="CL41" s="4"/>
       <c r="CM41" s="4">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="CN41" s="4"/>
       <c r="CO41" s="4"/>
       <c r="CP41" s="4">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="CQ41" s="4"/>
       <c r="CR41" s="4"/>
       <c r="CS41" s="4">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="CT41" s="4"/>
       <c r="CU41" s="4"/>
     </row>
     <row r="42" spans="46:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AT42" s="271" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AU42" s="280">
-        <v>-36</v>
+        <v>-39</v>
       </c>
       <c r="AV42" s="281">
-        <v>-36</v>
+        <v>-39</v>
       </c>
       <c r="AW42" s="282" t="s">
         <v>0</v>
@@ -18551,62 +18498,62 @@
       <c r="BI42" s="286"/>
       <c r="BJ42" s="50"/>
       <c r="BK42" s="50">
-        <v>5.8181818181818183</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="BL42" s="50"/>
       <c r="BM42" s="50"/>
       <c r="BN42" s="50">
-        <v>7</v>
+        <v>7.2307692307692308</v>
       </c>
       <c r="BO42" s="50"/>
       <c r="BP42" s="50"/>
       <c r="BQ42" s="50">
-        <v>4.8181818181818183</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="BR42" s="50"/>
       <c r="BS42" s="50"/>
       <c r="BT42" s="50">
-        <v>5.666666666666667</v>
+        <v>5.7692307692307692</v>
       </c>
       <c r="BU42" s="50"/>
       <c r="BV42" s="50"/>
       <c r="BW42" s="50">
-        <v>5.75</v>
+        <v>6.1538461538461542</v>
       </c>
       <c r="BX42" s="50"/>
       <c r="BY42" s="50"/>
       <c r="BZ42" s="50">
-        <v>7.1818181818181817</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="CA42" s="50"/>
       <c r="CB42" s="50"/>
       <c r="CC42" s="50">
-        <v>5.5</v>
+        <v>5.2307692307692308</v>
       </c>
       <c r="CD42" s="50"/>
       <c r="CE42" s="50"/>
       <c r="CF42" s="50">
-        <v>7.083333333333333</v>
+        <v>6.7692307692307692</v>
       </c>
       <c r="CG42" s="50"/>
       <c r="CH42" s="50"/>
       <c r="CI42" s="50">
-        <v>4.083333333333333</v>
+        <v>4.384615384615385</v>
       </c>
       <c r="CJ42" s="50"/>
       <c r="CK42" s="50"/>
       <c r="CL42" s="50">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="CM42" s="50"/>
       <c r="CN42" s="50"/>
       <c r="CO42" s="50">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="CP42" s="50"/>
       <c r="CQ42" s="50"/>
       <c r="CR42" s="50">
-        <v>6.583333333333333</v>
+        <v>6.7692307692307692</v>
       </c>
       <c r="CS42" s="50"/>
       <c r="CT42" s="50"/>
@@ -18614,13 +18561,13 @@
     </row>
     <row r="43" spans="46:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AT43" s="271" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AU43" s="280">
-        <v>-36</v>
+        <v>-39</v>
       </c>
       <c r="AV43" s="281">
-        <v>-36</v>
+        <v>-39</v>
       </c>
       <c r="AW43" s="282" t="s">
         <v>0</v>
@@ -18649,40 +18596,40 @@
       <c r="BI43" s="286"/>
     </row>
     <row r="44" spans="46:99" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AT44" s="288" t="s">
-        <v>101</v>
-      </c>
-      <c r="AU44" s="289">
-        <v>-36</v>
-      </c>
-      <c r="AV44" s="290">
-        <v>-36</v>
-      </c>
-      <c r="AW44" s="291" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX44" s="292" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY44" s="293" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ44" s="292" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA44" s="294" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB44" s="295" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC44" s="296"/>
-      <c r="BD44" s="291"/>
-      <c r="BE44" s="292"/>
-      <c r="BF44" s="293"/>
-      <c r="BG44" s="292"/>
-      <c r="BH44" s="294"/>
-      <c r="BI44" s="295"/>
+      <c r="AT44" s="329" t="s">
+        <v>96</v>
+      </c>
+      <c r="AU44" s="288">
+        <v>-39</v>
+      </c>
+      <c r="AV44" s="289">
+        <v>-39</v>
+      </c>
+      <c r="AW44" s="290" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX44" s="291" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY44" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ44" s="291" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA44" s="293" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB44" s="294" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC44" s="295"/>
+      <c r="BD44" s="290"/>
+      <c r="BE44" s="291"/>
+      <c r="BF44" s="292"/>
+      <c r="BG44" s="291"/>
+      <c r="BH44" s="293"/>
+      <c r="BI44" s="294"/>
     </row>
     <row r="45" spans="46:99" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="67" spans="41:45" x14ac:dyDescent="0.2">

--- a/regular_season_final.xlsx
+++ b/regular_season_final.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="177">
   <si>
     <t/>
   </si>
@@ -449,106 +449,112 @@
     <t>Jets</t>
   </si>
   <si>
-    <t>13</t>
+    <t>14</t>
   </si>
   <si>
-    <t>Week 13 Scores</t>
+    <t>Week 14 Scores</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w13_p1_picks         = ["V","H","H","H","V","H","V","H","H","H","H","H","H","H","V"];</t>
+    <t xml:space="preserve">   var w14_p1_picks         = ["H","V","H","V","H","H","V","H","V","H","H","H","V","V","V","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w13_p2_picks         = ["V","H","H","H","V","H","V","H","H","H","V","V","V","H","H"];</t>
+    <t xml:space="preserve">   var w14_p2_picks         = ["V","H","H","V","H","H","V","H","V","H","V","V","H","H","V","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w13_p3_picks         = ["V","H","H","H","V","H","V","H","H","H","H","H","H","H","V"];</t>
+    <t xml:space="preserve">   var w14_p3_picks         = ["H","V","H","V","H","H","V","H","V","H","V","H","V","V","V","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w13_p4_picks         = ["V","H","H","H","V","H","V","H","H","H","H","H","H","H","V"];</t>
+    <t>Browns</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w13_p5_picks         = ["V","H","H","V","H","H","V","H","H","H","V","H","H","H","V"];</t>
+    <t xml:space="preserve">   var w14_p4_picks         = ["H","V","H","V","H","H","V","H","H","V","H","H","V","V","V","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w13_p6_picks         = ["V","H","V","V","H","H","V","H","V","H","V","H","H","H","H"];</t>
+    <t xml:space="preserve">   var w14_p5_picks         = ["V","V","H","V","H","H","V","H","H","H","H","H","V","V","V","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w13_p7_picks         = ["V","H","V","H","H","H","V","H","V","H","V","H","H","H","V"];</t>
+    <t xml:space="preserve">   var w14_p6_picks         = ["V","V","V","V","H","H","V","H","V","H","V","H","V","V","V","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w13_p8_picks         = ["V","H","V","H","H","H","V","H","H","H","H","H","V","H","H"];</t>
+    <t xml:space="preserve">   var w14_p7_picks         = ["H","V","V","V","H","H","V","H","V","H","H","V","V","V","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w13_p9_picks         = ["V","H","V","H","V","H","V","H","H","H","V","H","H","H","V"];</t>
+    <t xml:space="preserve">   var w14_p8_picks         = ["H","V","V","V","H","H","V","H","V","H","V","V","H","V","V","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w13_p10_picks        = ["V","H","V","V","V","H","V","V","H","V","V","H","V","H","H"];</t>
+    <t xml:space="preserve">   var w14_p9_picks         = ["V","V","H","V","H","H","V","H","V","H","V","H","H","V","V","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w13_p11_picks        = ["V","V","H","H","H","H","V","H","H","H","H","H","V","H","V"];</t>
+    <t xml:space="preserve">   var w14_p10_picks        = ["H","H","H","V","V","V","H","V","H","V","H","V","V","V","V","V"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w13_p12_picks        = ["V","H","V","H","V","H","V","H","H","H","H","H","H","H","H"];</t>
+    <t>Titans</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w13_p1_weights       = ["10","7","8","4","3","16","11","14","12","6","5","13","9","15","2"];</t>
+    <t xml:space="preserve">   var w14_p11_picks        = ["H","V","V","V","H","H","V","H","H","H","H","V","V","V","V","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w13_p2_weights       = ["16","15","14","2","3","8","10","13","12","11","9","7","6","5","4"];</t>
+    <t xml:space="preserve">   var w14_p12_picks        = ["V","V","H","V","H","H","V","H","V","H","V","V","H","V","V","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w13_p3_weights       = ["7","9","8","5","3","14","11","16","12","6","4","13","10","15","2"];</t>
+    <t xml:space="preserve">   var w14_p1_weights       = ["10","5","2","13","16","14","11","4","1","8","3","7","6","12","9","15"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w13_p4_weights       = ["7","5","3","9","8","11","12","16","14","6","4","13","10","15","2"];</t>
+    <t xml:space="preserve">   var w14_p2_weights       = ["1","10","13","9","11","12","4","7","15","6","14","5","8","3","2","16"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w13_p5_weights       = ["10","14","3","11","4","2","15","16","13","5","7","6","12","8","9"];</t>
+    <t xml:space="preserve">   var w14_p3_weights       = ["10","5","2","13","16","14","11","4","1","8","3","7","6","12","9","15"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w13_p6_weights       = ["15","7","4","5","3","9","10","16","8","13","12","11","6","14","2"];</t>
+    <t xml:space="preserve">   var w14_p4_weights       = ["10","8","5","13","16","14","11","4","1","2","3","7","9","12","6","15"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w13_p7_weights       = ["13","4","3","2","8","12","14","15","6","7","5","16","11","9","10"];</t>
+    <t xml:space="preserve">   var w14_p5_weights       = ["1","7","2","16","12","10","11","13","9","6","8","3","4","14","15","5"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w13_p8_weights       = ["10","7","2","8","4","14","9","16","11","13","6","12","3","15","5"];</t>
+    <t xml:space="preserve">   var w14_p6_weights       = ["3","14","5","13","15","12","16","2","11","7","8","1","6","4","10","9"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w13_p9_weights       = ["15","7","4","2","13","14","12","16","5","11","6","8","3","9","10"];</t>
+    <t xml:space="preserve">   var w14_p7_weights       = ["3","16","6","10","14","9","7","2","11","4","8","1","12","13","5","15"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w13_p10_weights      = ["5","7","8","16","13","9","10","14","2","4","12","11","6","3","15"];</t>
+    <t xml:space="preserve">   var w14_p8_weights       = ["10","9","7","13","15","12","11","4","5","8","6","3","1","14","2","16"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w13_p11_weights      = ["7","16","9","4","3","14","11","15","10","6","5","12","8","13","2"];</t>
+    <t xml:space="preserve">   var w14_p9_weights       = ["5","7","1","14","16","12","11","2","10","6","8","4","3","13","9","15"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w13_p12_weights      = ["11","3","4","8","7","14","16","15","10","13","2","9","5","6","12"];</t>
+    <t xml:space="preserve">   var w14_p10_weights      = ["1","14","11","6","9","7","10","13","15","16","12","8","4","5","3","2"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w13_winners          = ["V","V","H","H","H","H","V","H","V","H","H","H","V","H","V"];</t>
+    <t xml:space="preserve">   var w14_p11_weights      = ["16","5","3","13","15","6","11","12","1","8","4","2","7","14","9","10"];</t>
   </si>
   <si>
-    <t>Browns, Titans</t>
+    <t xml:space="preserve">   var w14_p12_weights      = ["3","14","2","16","10","7","13","8","6","4","11","1","5","15","9","12"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w13_mn_points        = ["48","43","49","42","44","38","38","47","44","54","54","28"];</t>
+    <t xml:space="preserve">   var w14_winners          = ["H","V","H","V","H","V","V","H","V","H","H","V","H","V","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w13_actual_mn_points = 0;</t>
+    <t>None</t>
   </si>
   <si>
-    <t>Week 13 Final</t>
+    <t xml:space="preserve">   var w14_mn_points        = ["44","48","45","42","51","45","38","42","50","60","48","52"];</t>
   </si>
   <si>
-    <t>'Week 13'!$B$2</t>
+    <t xml:space="preserve">   var w14_actual_mn_points = 0;</t>
   </si>
   <si>
-    <t>'Week 13'!$C$2</t>
+    <t>Week 14 Final</t>
   </si>
   <si>
-    <t>'Week 13'!$D$2</t>
+    <t>'Week 14'!$B$2</t>
+  </si>
+  <si>
+    <t>'Week 14'!$C$2</t>
+  </si>
+  <si>
+    <t>'Week 14'!$D$2</t>
   </si>
 </sst>
 </file>
@@ -4127,6 +4133,12 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="169" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="172" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4219,12 +4231,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="162" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="169" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="172" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5201,56 +5207,56 @@
         <v>91</v>
       </c>
       <c r="G2" s="115">
-        <v>-39</v>
+        <v>-42</v>
       </c>
       <c r="H2" s="116"/>
       <c r="I2" s="114" t="s">
         <v>92</v>
       </c>
       <c r="J2" s="115">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="K2" s="116"/>
       <c r="L2" s="114" t="s">
         <v>93</v>
       </c>
       <c r="M2" s="115">
-        <v>18</v>
+        <v>-11</v>
       </c>
       <c r="N2" s="116"/>
       <c r="O2" s="114" t="s">
         <v>94</v>
       </c>
       <c r="P2" s="115">
-        <v>-39</v>
+        <v>-42</v>
       </c>
       <c r="Q2" s="116"/>
       <c r="R2" s="114" t="s">
         <v>95</v>
       </c>
       <c r="S2" s="115">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="T2" s="116"/>
       <c r="U2" s="114" t="s">
         <v>96</v>
       </c>
       <c r="V2" s="115">
-        <v>-39</v>
+        <v>-42</v>
       </c>
       <c r="W2" s="116"/>
       <c r="X2" s="114" t="s">
         <v>97</v>
       </c>
       <c r="Y2" s="115">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="Z2" s="116"/>
       <c r="AA2" s="114" t="s">
         <v>98</v>
       </c>
       <c r="AB2" s="115">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="AC2" s="116"/>
       <c r="AD2" s="114" t="s">
@@ -5264,21 +5270,21 @@
         <v>100</v>
       </c>
       <c r="AH2" s="115">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="AI2" s="116"/>
       <c r="AJ2" s="114" t="s">
         <v>101</v>
       </c>
       <c r="AK2" s="115">
-        <v>-8</v>
+        <v>20</v>
       </c>
       <c r="AL2" s="116"/>
       <c r="AM2" s="114" t="s">
         <v>102</v>
       </c>
       <c r="AN2" s="115">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="AO2" s="117"/>
       <c r="AP2" s="3"/>
@@ -5288,41 +5294,41 @@
       <c r="AS2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AT2" s="302" t="s">
+      <c r="AT2" s="304" t="s">
         <v>42</v>
       </c>
-      <c r="AU2" s="303" t="s">
+      <c r="AU2" s="305" t="s">
         <v>42</v>
       </c>
-      <c r="AV2" s="304"/>
+      <c r="AV2" s="306"/>
       <c r="AW2" s="3"/>
-      <c r="BE2" s="299" t="s">
+      <c r="BE2" s="301" t="s">
         <v>142</v>
       </c>
-      <c r="BF2" s="300"/>
-      <c r="BG2" s="301"/>
+      <c r="BF2" s="302"/>
+      <c r="BG2" s="303"/>
       <c r="BH2" s="171"/>
-      <c r="BI2" s="299" t="s">
+      <c r="BI2" s="301" t="s">
         <v>43</v>
       </c>
-      <c r="BJ2" s="300"/>
-      <c r="BK2" s="300"/>
-      <c r="BL2" s="301"/>
+      <c r="BJ2" s="302"/>
+      <c r="BK2" s="302"/>
+      <c r="BL2" s="303"/>
       <c r="BM2" s="172"/>
-      <c r="BN2" s="299" t="s">
+      <c r="BN2" s="301" t="s">
         <v>44</v>
       </c>
-      <c r="BO2" s="300"/>
-      <c r="BP2" s="301"/>
-      <c r="BQ2" s="299" t="s">
+      <c r="BO2" s="302"/>
+      <c r="BP2" s="303"/>
+      <c r="BQ2" s="301" t="s">
         <v>45</v>
       </c>
-      <c r="BR2" s="300"/>
-      <c r="BS2" s="300"/>
-      <c r="BT2" s="300"/>
-      <c r="BU2" s="300"/>
-      <c r="BV2" s="300"/>
-      <c r="BW2" s="301"/>
+      <c r="BR2" s="302"/>
+      <c r="BS2" s="302"/>
+      <c r="BT2" s="302"/>
+      <c r="BU2" s="302"/>
+      <c r="BV2" s="302"/>
+      <c r="BW2" s="303"/>
       <c r="BY2" s="10" t="s">
         <v>1</v>
       </c>
@@ -5449,7 +5455,7 @@
       </c>
       <c r="AP3" s="3"/>
       <c r="AR3" s="11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS3" s="9" t="s">
         <v>52</v>
@@ -5499,37 +5505,37 @@
       <c r="BQ3" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="BR3" s="297" t="s">
+      <c r="BR3" s="299" t="s">
         <v>57</v>
       </c>
-      <c r="BS3" s="305"/>
-      <c r="BT3" s="297" t="s">
+      <c r="BS3" s="307"/>
+      <c r="BT3" s="299" t="s">
         <v>58</v>
       </c>
-      <c r="BU3" s="305"/>
-      <c r="BV3" s="297" t="s">
+      <c r="BU3" s="307"/>
+      <c r="BV3" s="299" t="s">
         <v>59</v>
       </c>
-      <c r="BW3" s="298"/>
+      <c r="BW3" s="300"/>
       <c r="BY3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="180" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C4" s="181" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="181" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E4" s="182" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F4" s="183" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="G4" s="184">
         <v>10</v>
@@ -5541,25 +5547,25 @@
         <v>88</v>
       </c>
       <c r="J4" s="184">
-        <v>16</v>
-      </c>
-      <c r="K4" s="185" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K4" s="185">
+        <v>-1</v>
       </c>
       <c r="L4" s="186" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="M4" s="184">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N4" s="185" t="s">
         <v>0</v>
       </c>
       <c r="O4" s="186" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="P4" s="184">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Q4" s="185" t="s">
         <v>0</v>
@@ -5568,31 +5574,31 @@
         <v>88</v>
       </c>
       <c r="S4" s="184">
-        <v>10</v>
-      </c>
-      <c r="T4" s="185" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="T4" s="185">
+        <v>-1</v>
       </c>
       <c r="U4" s="186" t="s">
         <v>88</v>
       </c>
       <c r="V4" s="184">
-        <v>15</v>
-      </c>
-      <c r="W4" s="185" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="W4" s="185">
+        <v>-3</v>
       </c>
       <c r="X4" s="186" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="Y4" s="184">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="Z4" s="185" t="s">
         <v>0</v>
       </c>
       <c r="AA4" s="186" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AB4" s="184">
         <v>10</v>
@@ -5604,25 +5610,25 @@
         <v>88</v>
       </c>
       <c r="AE4" s="184">
-        <v>15</v>
-      </c>
-      <c r="AF4" s="185" t="s">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="AF4" s="185">
+        <v>-5</v>
       </c>
       <c r="AG4" s="186" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AH4" s="184">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI4" s="185" t="s">
         <v>0</v>
       </c>
       <c r="AJ4" s="186" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AK4" s="184">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AL4" s="185" t="s">
         <v>0</v>
@@ -5631,31 +5637,31 @@
         <v>88</v>
       </c>
       <c r="AN4" s="184">
-        <v>11</v>
-      </c>
-      <c r="AO4" s="187" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="AO4" s="187">
+        <v>-3</v>
       </c>
       <c r="AT4" s="188" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AU4" s="184">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AV4" s="187" t="s">
         <v>0</v>
       </c>
       <c r="AX4" s="4">
-        <v>-126</v>
+        <v>47</v>
       </c>
       <c r="AY4" s="4">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="AZ4" s="4">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="BA4" s="4">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="BB4" s="4">
         <v>1</v>
@@ -5670,7 +5676,7 @@
         <v>101</v>
       </c>
       <c r="BG4" s="61">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="BH4" s="189"/>
       <c r="BI4" s="62">
@@ -5680,10 +5686,10 @@
         <v>99</v>
       </c>
       <c r="BK4" s="64">
-        <v>96.833333333333329</v>
+        <v>96.92307692307692</v>
       </c>
       <c r="BL4" s="65">
-        <v>1162</v>
+        <v>1260</v>
       </c>
       <c r="BM4" s="172"/>
       <c r="BN4" s="66">
@@ -5696,7 +5702,7 @@
         <v>124</v>
       </c>
       <c r="BQ4" s="69">
-        <v>-39</v>
+        <v>-42</v>
       </c>
       <c r="BR4" s="70">
         <v>4</v>
@@ -5708,7 +5714,7 @@
         <v>61</v>
       </c>
       <c r="BU4" s="71">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="BV4" s="72" t="s">
         <v>0</v>
@@ -5722,147 +5728,147 @@
     </row>
     <row r="5" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="190" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C5" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="191" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E5" s="192" t="s">
         <v>88</v>
       </c>
       <c r="F5" s="193" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="G5" s="194">
-        <v>7</v>
-      </c>
-      <c r="H5" s="195">
-        <v>-7</v>
+        <v>5</v>
+      </c>
+      <c r="H5" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="I5" s="196" t="s">
         <v>60</v>
       </c>
       <c r="J5" s="194">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K5" s="195">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="L5" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="M5" s="194">
+        <v>5</v>
+      </c>
+      <c r="N5" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="P5" s="194">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="S5" s="194">
+        <v>7</v>
+      </c>
+      <c r="T5" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="U5" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="V5" s="194">
+        <v>14</v>
+      </c>
+      <c r="W5" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="X5" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y5" s="194">
+        <v>16</v>
+      </c>
+      <c r="Z5" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB5" s="194">
         <v>9</v>
       </c>
-      <c r="N5" s="195">
-        <v>-9</v>
-      </c>
-      <c r="O5" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="P5" s="194">
-        <v>5</v>
-      </c>
-      <c r="Q5" s="195">
-        <v>-5</v>
-      </c>
-      <c r="R5" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="S5" s="194">
-        <v>14</v>
-      </c>
-      <c r="T5" s="195">
-        <v>-14</v>
-      </c>
-      <c r="U5" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="V5" s="194">
-        <v>7</v>
-      </c>
-      <c r="W5" s="195">
-        <v>-7</v>
-      </c>
-      <c r="X5" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y5" s="194">
-        <v>4</v>
-      </c>
-      <c r="Z5" s="195">
-        <v>-4</v>
-      </c>
-      <c r="AA5" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB5" s="194">
-        <v>7</v>
-      </c>
-      <c r="AC5" s="195">
-        <v>-7</v>
+      <c r="AC5" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AD5" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AE5" s="194">
         <v>7</v>
       </c>
-      <c r="AF5" s="195">
-        <v>-7</v>
+      <c r="AF5" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AG5" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AH5" s="194">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AI5" s="195">
-        <v>-7</v>
+        <v>-14</v>
       </c>
       <c r="AJ5" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AK5" s="194">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="AL5" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AM5" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AN5" s="194">
-        <v>3</v>
-      </c>
-      <c r="AO5" s="197">
-        <v>-3</v>
+        <v>14</v>
+      </c>
+      <c r="AO5" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AR5" s="8"/>
       <c r="AS5" s="9"/>
       <c r="AT5" s="198" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AU5" s="194">
-        <v>8</v>
-      </c>
-      <c r="AV5" s="197">
-        <v>-8</v>
+        <v>9</v>
+      </c>
+      <c r="AV5" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AX5" s="4">
-        <v>69</v>
+        <v>-66</v>
       </c>
       <c r="AY5" s="4">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AZ5" s="4">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="BA5" s="4">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="BB5" s="4">
         <v>2</v>
@@ -5877,20 +5883,20 @@
         <v>97</v>
       </c>
       <c r="BG5" s="78">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="BH5" s="189"/>
       <c r="BI5" s="79">
         <v>2</v>
       </c>
       <c r="BJ5" s="80" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="BK5" s="81">
-        <v>91.583333333333329</v>
+        <v>92.692307692307693</v>
       </c>
       <c r="BL5" s="82">
-        <v>1099</v>
+        <v>1205</v>
       </c>
       <c r="BM5" s="172"/>
       <c r="BN5" s="79">
@@ -5900,10 +5906,10 @@
         <v>97</v>
       </c>
       <c r="BP5" s="83">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="BQ5" s="84">
-        <v>-39</v>
+        <v>-42</v>
       </c>
       <c r="BR5" s="85">
         <v>2</v>
@@ -5918,10 +5924,10 @@
         <v>0</v>
       </c>
       <c r="BV5" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW5" s="88" t="s">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="BW5" s="88">
+        <v>28</v>
       </c>
       <c r="BY5" s="12" t="s">
         <v>144</v>
@@ -5929,13 +5935,13 @@
     </row>
     <row r="6" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="190" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="C6" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="191" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E6" s="192" t="s">
         <v>60</v>
@@ -5944,7 +5950,7 @@
         <v>60</v>
       </c>
       <c r="G6" s="194">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H6" s="195" t="s">
         <v>0</v>
@@ -5953,7 +5959,7 @@
         <v>60</v>
       </c>
       <c r="J6" s="194">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K6" s="195" t="s">
         <v>0</v>
@@ -5962,7 +5968,7 @@
         <v>60</v>
       </c>
       <c r="M6" s="194">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N6" s="195" t="s">
         <v>0</v>
@@ -5971,7 +5977,7 @@
         <v>60</v>
       </c>
       <c r="P6" s="194">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q6" s="195" t="s">
         <v>0</v>
@@ -5980,7 +5986,7 @@
         <v>60</v>
       </c>
       <c r="S6" s="194">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T6" s="195" t="s">
         <v>0</v>
@@ -5989,64 +5995,64 @@
         <v>88</v>
       </c>
       <c r="V6" s="194">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W6" s="195">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="X6" s="196" t="s">
         <v>88</v>
       </c>
       <c r="Y6" s="194">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Z6" s="195">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="AA6" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AB6" s="194">
+        <v>7</v>
+      </c>
+      <c r="AC6" s="195">
+        <v>-7</v>
+      </c>
+      <c r="AD6" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE6" s="194">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH6" s="194">
+        <v>11</v>
+      </c>
+      <c r="AI6" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK6" s="194">
+        <v>3</v>
+      </c>
+      <c r="AL6" s="195">
+        <v>-3</v>
+      </c>
+      <c r="AM6" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN6" s="194">
         <v>2</v>
       </c>
-      <c r="AC6" s="195">
-        <v>-2</v>
-      </c>
-      <c r="AD6" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE6" s="194">
-        <v>4</v>
-      </c>
-      <c r="AF6" s="195">
-        <v>-4</v>
-      </c>
-      <c r="AG6" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH6" s="194">
-        <v>8</v>
-      </c>
-      <c r="AI6" s="195">
-        <v>-8</v>
-      </c>
-      <c r="AJ6" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK6" s="194">
-        <v>9</v>
-      </c>
-      <c r="AL6" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="AN6" s="194">
-        <v>4</v>
-      </c>
-      <c r="AO6" s="197">
-        <v>-4</v>
+      <c r="AO6" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AR6" s="8"/>
       <c r="AS6" s="9"/>
@@ -6054,22 +6060,22 @@
         <v>60</v>
       </c>
       <c r="AU6" s="194">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV6" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX6" s="4">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AY6" s="4">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AZ6" s="4">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BA6" s="4">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BB6" s="4">
         <v>3</v>
@@ -6078,45 +6084,45 @@
         <v>1</v>
       </c>
       <c r="BE6" s="76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF6" s="77" t="s">
         <v>98</v>
       </c>
       <c r="BG6" s="78">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BH6" s="189"/>
       <c r="BI6" s="79">
         <v>3</v>
       </c>
       <c r="BJ6" s="80" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="BK6" s="81">
-        <v>91.333333333333329</v>
+        <v>92</v>
       </c>
       <c r="BL6" s="82">
-        <v>1096</v>
+        <v>1196</v>
       </c>
       <c r="BM6" s="172"/>
       <c r="BN6" s="79">
         <v>3</v>
       </c>
       <c r="BO6" s="80" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="BP6" s="83">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BQ6" s="84">
-        <v>-39</v>
+        <v>-42</v>
       </c>
       <c r="BR6" s="85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BS6" s="86">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="BT6" s="87" t="s">
         <v>0</v>
@@ -6125,10 +6131,10 @@
         <v>0</v>
       </c>
       <c r="BV6" s="87" t="s">
-        <v>61</v>
-      </c>
-      <c r="BW6" s="88">
-        <v>26</v>
+        <v>0</v>
+      </c>
+      <c r="BW6" s="88" t="s">
+        <v>0</v>
       </c>
       <c r="BY6" s="12" t="s">
         <v>145</v>
@@ -6136,49 +6142,49 @@
     </row>
     <row r="7" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="190" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C7" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="191" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="E7" s="192" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F7" s="193" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="G7" s="194">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H7" s="195" t="s">
         <v>0</v>
       </c>
       <c r="I7" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="J7" s="194">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K7" s="195" t="s">
         <v>0</v>
       </c>
       <c r="L7" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="M7" s="194">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N7" s="195" t="s">
         <v>0</v>
       </c>
       <c r="O7" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="P7" s="194">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Q7" s="195" t="s">
         <v>0</v>
@@ -6187,43 +6193,43 @@
         <v>88</v>
       </c>
       <c r="S7" s="194">
-        <v>11</v>
-      </c>
-      <c r="T7" s="195">
-        <v>-11</v>
+        <v>16</v>
+      </c>
+      <c r="T7" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="U7" s="196" t="s">
         <v>88</v>
       </c>
       <c r="V7" s="194">
-        <v>5</v>
-      </c>
-      <c r="W7" s="195">
-        <v>-5</v>
+        <v>13</v>
+      </c>
+      <c r="W7" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="X7" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="Y7" s="194">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="Z7" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AA7" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AB7" s="194">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AC7" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AD7" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AE7" s="194">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AF7" s="195" t="s">
         <v>0</v>
@@ -6232,49 +6238,49 @@
         <v>88</v>
       </c>
       <c r="AH7" s="194">
+        <v>6</v>
+      </c>
+      <c r="AI7" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK7" s="194">
+        <v>13</v>
+      </c>
+      <c r="AL7" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN7" s="194">
         <v>16</v>
       </c>
-      <c r="AI7" s="195">
-        <v>-16</v>
-      </c>
-      <c r="AJ7" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK7" s="194">
-        <v>4</v>
-      </c>
-      <c r="AL7" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN7" s="194">
-        <v>8</v>
-      </c>
       <c r="AO7" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AT7" s="198" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AU7" s="194">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="AV7" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX7" s="4">
-        <v>12</v>
+        <v>-149</v>
       </c>
       <c r="AY7" s="4">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="AZ7" s="4">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="BA7" s="4">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="BB7" s="4">
         <v>4</v>
@@ -6286,10 +6292,10 @@
         <v>4</v>
       </c>
       <c r="BF7" s="77" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="BG7" s="78">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="BH7" s="189"/>
       <c r="BI7" s="79">
@@ -6299,10 +6305,10 @@
         <v>94</v>
       </c>
       <c r="BK7" s="81">
-        <v>91.25</v>
+        <v>91.692307692307693</v>
       </c>
       <c r="BL7" s="82">
-        <v>1095</v>
+        <v>1192</v>
       </c>
       <c r="BM7" s="172"/>
       <c r="BN7" s="79">
@@ -6312,10 +6318,10 @@
         <v>92</v>
       </c>
       <c r="BP7" s="83">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="BQ7" s="84">
-        <v>-39</v>
+        <v>-42</v>
       </c>
       <c r="BR7" s="85">
         <v>1</v>
@@ -6336,63 +6342,63 @@
         <v>0</v>
       </c>
       <c r="BY7" s="12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="190" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="C8" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="191" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E8" s="192" t="s">
         <v>60</v>
       </c>
       <c r="F8" s="193" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="G8" s="194">
-        <v>3</v>
-      </c>
-      <c r="H8" s="195">
-        <v>-3</v>
+        <v>16</v>
+      </c>
+      <c r="H8" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="I8" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="J8" s="194">
-        <v>3</v>
-      </c>
-      <c r="K8" s="195">
-        <v>-3</v>
+        <v>11</v>
+      </c>
+      <c r="K8" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="L8" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="M8" s="194">
-        <v>3</v>
-      </c>
-      <c r="N8" s="195">
-        <v>-3</v>
+        <v>16</v>
+      </c>
+      <c r="N8" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="O8" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="P8" s="194">
-        <v>8</v>
-      </c>
-      <c r="Q8" s="195">
-        <v>-8</v>
+        <v>16</v>
+      </c>
+      <c r="Q8" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="R8" s="196" t="s">
         <v>60</v>
       </c>
       <c r="S8" s="194">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="T8" s="195" t="s">
         <v>0</v>
@@ -6401,7 +6407,7 @@
         <v>60</v>
       </c>
       <c r="V8" s="194">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="W8" s="195" t="s">
         <v>0</v>
@@ -6410,7 +6416,7 @@
         <v>60</v>
       </c>
       <c r="Y8" s="194">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="Z8" s="195" t="s">
         <v>0</v>
@@ -6419,67 +6425,67 @@
         <v>60</v>
       </c>
       <c r="AB8" s="194">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AC8" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AD8" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AE8" s="194">
-        <v>13</v>
-      </c>
-      <c r="AF8" s="195">
-        <v>-13</v>
+        <v>16</v>
+      </c>
+      <c r="AF8" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AG8" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AH8" s="194">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AI8" s="195">
-        <v>-13</v>
+        <v>-9</v>
       </c>
       <c r="AJ8" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AK8" s="194">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AL8" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AM8" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AN8" s="194">
-        <v>7</v>
-      </c>
-      <c r="AO8" s="197">
-        <v>-7</v>
+        <v>10</v>
+      </c>
+      <c r="AO8" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AT8" s="198" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AU8" s="194">
-        <v>6</v>
-      </c>
-      <c r="AV8" s="197">
-        <v>-6</v>
+        <v>15</v>
+      </c>
+      <c r="AV8" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AX8" s="4">
-        <v>-28</v>
+        <v>147</v>
       </c>
       <c r="AY8" s="4">
-        <v>28</v>
+        <v>147</v>
       </c>
       <c r="AZ8" s="4">
-        <v>28</v>
+        <v>147</v>
       </c>
       <c r="BA8" s="4">
-        <v>28</v>
+        <v>147</v>
       </c>
       <c r="BB8" s="4">
         <v>5</v>
@@ -6491,10 +6497,10 @@
         <v>5</v>
       </c>
       <c r="BF8" s="77" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="BG8" s="78">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BH8" s="189"/>
       <c r="BI8" s="79">
@@ -6504,23 +6510,23 @@
         <v>102</v>
       </c>
       <c r="BK8" s="81">
-        <v>89.916666666666671</v>
+        <v>91.15384615384616</v>
       </c>
       <c r="BL8" s="82">
-        <v>1079</v>
+        <v>1185</v>
       </c>
       <c r="BM8" s="172"/>
       <c r="BN8" s="79">
         <v>4</v>
       </c>
       <c r="BO8" s="80" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="BP8" s="83">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="BQ8" s="84">
-        <v>-39</v>
+        <v>-42</v>
       </c>
       <c r="BR8" s="85">
         <v>1</v>
@@ -6541,7 +6547,7 @@
         <v>0</v>
       </c>
       <c r="BY8" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6552,28 +6558,28 @@
         <v>6</v>
       </c>
       <c r="D9" s="191" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="E9" s="192" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F9" s="193" t="s">
         <v>60</v>
       </c>
       <c r="G9" s="194">
-        <v>16</v>
-      </c>
-      <c r="H9" s="195" t="s">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="H9" s="195">
+        <v>-14</v>
       </c>
       <c r="I9" s="196" t="s">
         <v>60</v>
       </c>
       <c r="J9" s="194">
-        <v>8</v>
-      </c>
-      <c r="K9" s="195" t="s">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="K9" s="195">
+        <v>-12</v>
       </c>
       <c r="L9" s="196" t="s">
         <v>60</v>
@@ -6581,68 +6587,68 @@
       <c r="M9" s="194">
         <v>14</v>
       </c>
-      <c r="N9" s="195" t="s">
-        <v>0</v>
+      <c r="N9" s="195">
+        <v>-14</v>
       </c>
       <c r="O9" s="196" t="s">
         <v>60</v>
       </c>
       <c r="P9" s="194">
-        <v>11</v>
-      </c>
-      <c r="Q9" s="195" t="s">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="Q9" s="195">
+        <v>-14</v>
       </c>
       <c r="R9" s="196" t="s">
         <v>60</v>
       </c>
       <c r="S9" s="194">
-        <v>2</v>
-      </c>
-      <c r="T9" s="195" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="T9" s="195">
+        <v>-10</v>
       </c>
       <c r="U9" s="196" t="s">
         <v>60</v>
       </c>
       <c r="V9" s="194">
-        <v>9</v>
-      </c>
-      <c r="W9" s="195" t="s">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="W9" s="195">
+        <v>-12</v>
       </c>
       <c r="X9" s="196" t="s">
         <v>60</v>
       </c>
       <c r="Y9" s="194">
-        <v>12</v>
-      </c>
-      <c r="Z9" s="195" t="s">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="Z9" s="195">
+        <v>-9</v>
       </c>
       <c r="AA9" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AB9" s="194">
-        <v>14</v>
-      </c>
-      <c r="AC9" s="195" t="s">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="AC9" s="195">
+        <v>-12</v>
       </c>
       <c r="AD9" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AE9" s="194">
-        <v>14</v>
-      </c>
-      <c r="AF9" s="195" t="s">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="AF9" s="195">
+        <v>-12</v>
       </c>
       <c r="AG9" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AH9" s="194">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI9" s="195" t="s">
         <v>0</v>
@@ -6651,40 +6657,40 @@
         <v>60</v>
       </c>
       <c r="AK9" s="194">
-        <v>14</v>
-      </c>
-      <c r="AL9" s="195" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="AL9" s="195">
+        <v>-6</v>
       </c>
       <c r="AM9" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AN9" s="194">
-        <v>14</v>
-      </c>
-      <c r="AO9" s="197" t="s">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="AO9" s="197">
+        <v>-7</v>
       </c>
       <c r="AT9" s="198" t="s">
         <v>60</v>
       </c>
       <c r="AU9" s="194">
-        <v>14</v>
-      </c>
-      <c r="AV9" s="197" t="s">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="AV9" s="197">
+        <v>-12</v>
       </c>
       <c r="AX9" s="4">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="AY9" s="4">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="AZ9" s="4">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="BA9" s="4">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="BB9" s="4">
         <v>6</v>
@@ -6696,10 +6702,10 @@
         <v>6</v>
       </c>
       <c r="BF9" s="77" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="BG9" s="78">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BH9" s="189"/>
       <c r="BI9" s="79">
@@ -6709,23 +6715,23 @@
         <v>91</v>
       </c>
       <c r="BK9" s="81">
-        <v>89.416666666666671</v>
+        <v>90.230769230769226</v>
       </c>
       <c r="BL9" s="82">
-        <v>1073</v>
+        <v>1173</v>
       </c>
       <c r="BM9" s="172"/>
       <c r="BN9" s="79">
         <v>4</v>
       </c>
       <c r="BO9" s="80" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="BP9" s="83">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="BQ9" s="84">
-        <v>-39</v>
+        <v>-42</v>
       </c>
       <c r="BR9" s="85">
         <v>1</v>
@@ -6746,12 +6752,12 @@
         <v>0</v>
       </c>
       <c r="BY9" s="12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="190" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="C10" s="191" t="s">
         <v>6</v>
@@ -6775,7 +6781,7 @@
         <v>88</v>
       </c>
       <c r="J10" s="194">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K10" s="195" t="s">
         <v>0</v>
@@ -6793,7 +6799,7 @@
         <v>88</v>
       </c>
       <c r="P10" s="194">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="195" t="s">
         <v>0</v>
@@ -6802,7 +6808,7 @@
         <v>88</v>
       </c>
       <c r="S10" s="194">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="T10" s="195" t="s">
         <v>0</v>
@@ -6811,7 +6817,7 @@
         <v>88</v>
       </c>
       <c r="V10" s="194">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="W10" s="195" t="s">
         <v>0</v>
@@ -6820,7 +6826,7 @@
         <v>88</v>
       </c>
       <c r="Y10" s="194">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="Z10" s="195" t="s">
         <v>0</v>
@@ -6829,7 +6835,7 @@
         <v>88</v>
       </c>
       <c r="AB10" s="194">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AC10" s="195" t="s">
         <v>0</v>
@@ -6838,19 +6844,19 @@
         <v>88</v>
       </c>
       <c r="AE10" s="194">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF10" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AG10" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AH10" s="194">
         <v>10</v>
       </c>
-      <c r="AI10" s="195" t="s">
-        <v>0</v>
+      <c r="AI10" s="195">
+        <v>-10</v>
       </c>
       <c r="AJ10" s="196" t="s">
         <v>88</v>
@@ -6865,7 +6871,7 @@
         <v>88</v>
       </c>
       <c r="AN10" s="194">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AO10" s="197" t="s">
         <v>0</v>
@@ -6874,22 +6880,22 @@
         <v>88</v>
       </c>
       <c r="AU10" s="194">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AV10" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX10" s="4">
-        <v>-141</v>
+        <v>-107</v>
       </c>
       <c r="AY10" s="4">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="AZ10" s="4">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="BA10" s="4">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="BB10" s="4">
         <v>7</v>
@@ -6901,10 +6907,10 @@
         <v>7</v>
       </c>
       <c r="BF10" s="77" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BG10" s="78">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BH10" s="189"/>
       <c r="BI10" s="79">
@@ -6914,23 +6920,23 @@
         <v>95</v>
       </c>
       <c r="BK10" s="81">
-        <v>89.25</v>
+        <v>89.615384615384613</v>
       </c>
       <c r="BL10" s="82">
-        <v>1071</v>
+        <v>1165</v>
       </c>
       <c r="BM10" s="172"/>
       <c r="BN10" s="79">
         <v>4</v>
       </c>
       <c r="BO10" s="80" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="BP10" s="83">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="BQ10" s="84">
-        <v>-39</v>
+        <v>-42</v>
       </c>
       <c r="BR10" s="85">
         <v>1</v>
@@ -6951,18 +6957,18 @@
         <v>0</v>
       </c>
       <c r="BY10" s="12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="190" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C11" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="191" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E11" s="192" t="s">
         <v>60</v>
@@ -6971,7 +6977,7 @@
         <v>60</v>
       </c>
       <c r="G11" s="194">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H11" s="195" t="s">
         <v>0</v>
@@ -6980,7 +6986,7 @@
         <v>60</v>
       </c>
       <c r="J11" s="194">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="K11" s="195" t="s">
         <v>0</v>
@@ -6989,7 +6995,7 @@
         <v>60</v>
       </c>
       <c r="M11" s="194">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="N11" s="195" t="s">
         <v>0</v>
@@ -6998,7 +7004,7 @@
         <v>60</v>
       </c>
       <c r="P11" s="194">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="Q11" s="195" t="s">
         <v>0</v>
@@ -7007,7 +7013,7 @@
         <v>60</v>
       </c>
       <c r="S11" s="194">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="T11" s="195" t="s">
         <v>0</v>
@@ -7016,7 +7022,7 @@
         <v>60</v>
       </c>
       <c r="V11" s="194">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="W11" s="195" t="s">
         <v>0</v>
@@ -7025,7 +7031,7 @@
         <v>60</v>
       </c>
       <c r="Y11" s="194">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="Z11" s="195" t="s">
         <v>0</v>
@@ -7034,7 +7040,7 @@
         <v>60</v>
       </c>
       <c r="AB11" s="194">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AC11" s="195" t="s">
         <v>0</v>
@@ -7043,7 +7049,7 @@
         <v>60</v>
       </c>
       <c r="AE11" s="194">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="AF11" s="195" t="s">
         <v>0</v>
@@ -7052,16 +7058,16 @@
         <v>88</v>
       </c>
       <c r="AH11" s="194">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI11" s="195">
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="AJ11" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AK11" s="194">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AL11" s="195" t="s">
         <v>0</v>
@@ -7070,7 +7076,7 @@
         <v>60</v>
       </c>
       <c r="AN11" s="194">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AO11" s="197" t="s">
         <v>0</v>
@@ -7079,22 +7085,22 @@
         <v>60</v>
       </c>
       <c r="AU11" s="194">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AV11" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX11" s="4">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="AY11" s="4">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="AZ11" s="4">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="BA11" s="4">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="BB11" s="4">
         <v>8</v>
@@ -7103,10 +7109,10 @@
         <v>1</v>
       </c>
       <c r="BE11" s="76">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BF11" s="77" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="BG11" s="78">
         <v>97</v>
@@ -7119,23 +7125,23 @@
         <v>98</v>
       </c>
       <c r="BK11" s="81">
-        <v>86.833333333333329</v>
+        <v>88.538461538461533</v>
       </c>
       <c r="BL11" s="82">
-        <v>1042</v>
+        <v>1151</v>
       </c>
       <c r="BM11" s="172"/>
       <c r="BN11" s="79">
         <v>4</v>
       </c>
       <c r="BO11" s="80" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BP11" s="83">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="BQ11" s="84">
-        <v>-39</v>
+        <v>-42</v>
       </c>
       <c r="BR11" s="85">
         <v>1</v>
@@ -7156,72 +7162,72 @@
         <v>0</v>
       </c>
       <c r="BY11" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="190" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C12" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="191" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E12" s="192" t="s">
         <v>88</v>
       </c>
       <c r="F12" s="193" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="G12" s="194">
-        <v>12</v>
-      </c>
-      <c r="H12" s="195">
-        <v>-12</v>
+        <v>1</v>
+      </c>
+      <c r="H12" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="I12" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="J12" s="194">
-        <v>12</v>
-      </c>
-      <c r="K12" s="195">
-        <v>-12</v>
+        <v>15</v>
+      </c>
+      <c r="K12" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="L12" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="M12" s="194">
-        <v>12</v>
-      </c>
-      <c r="N12" s="195">
-        <v>-12</v>
+        <v>1</v>
+      </c>
+      <c r="N12" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="O12" s="196" t="s">
         <v>60</v>
       </c>
       <c r="P12" s="194">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="195">
-        <v>-14</v>
+        <v>-1</v>
       </c>
       <c r="R12" s="196" t="s">
         <v>60</v>
       </c>
       <c r="S12" s="194">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="T12" s="195">
-        <v>-13</v>
+        <v>-9</v>
       </c>
       <c r="U12" s="196" t="s">
         <v>88</v>
       </c>
       <c r="V12" s="194">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="W12" s="195" t="s">
         <v>0</v>
@@ -7230,76 +7236,76 @@
         <v>88</v>
       </c>
       <c r="Y12" s="194">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Z12" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AA12" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AB12" s="194">
-        <v>11</v>
-      </c>
-      <c r="AC12" s="195">
-        <v>-11</v>
+        <v>5</v>
+      </c>
+      <c r="AC12" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AD12" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AE12" s="194">
-        <v>5</v>
-      </c>
-      <c r="AF12" s="195">
-        <v>-5</v>
+        <v>10</v>
+      </c>
+      <c r="AF12" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AG12" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AH12" s="194">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AI12" s="195">
-        <v>-2</v>
+        <v>-15</v>
       </c>
       <c r="AJ12" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AK12" s="194">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AL12" s="195">
-        <v>-10</v>
+        <v>-1</v>
       </c>
       <c r="AM12" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AN12" s="194">
-        <v>10</v>
-      </c>
-      <c r="AO12" s="197">
-        <v>-10</v>
+        <v>6</v>
+      </c>
+      <c r="AO12" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AT12" s="198" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AU12" s="194">
-        <v>9</v>
-      </c>
-      <c r="AV12" s="197">
-        <v>-9</v>
+        <v>4</v>
+      </c>
+      <c r="AV12" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AX12" s="4">
-        <v>87</v>
+        <v>-34</v>
       </c>
       <c r="AY12" s="4">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="AZ12" s="4">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="BA12" s="4">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="BB12" s="4">
         <v>9</v>
@@ -7311,7 +7317,7 @@
         <v>9</v>
       </c>
       <c r="BF12" s="77" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="BG12" s="78">
         <v>94</v>
@@ -7321,13 +7327,13 @@
         <v>9</v>
       </c>
       <c r="BJ12" s="80" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="BK12" s="81">
-        <v>86.583333333333329</v>
+        <v>87.692307692307693</v>
       </c>
       <c r="BL12" s="82">
-        <v>1039</v>
+        <v>1140</v>
       </c>
       <c r="BM12" s="172"/>
       <c r="BN12" s="79">
@@ -7337,10 +7343,10 @@
         <v>102</v>
       </c>
       <c r="BP12" s="83">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="BQ12" s="84">
-        <v>-39</v>
+        <v>-42</v>
       </c>
       <c r="BR12" s="85">
         <v>1</v>
@@ -7361,18 +7367,18 @@
         <v>0</v>
       </c>
       <c r="BY12" s="12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="190" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="C13" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="191" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="E13" s="192" t="s">
         <v>60</v>
@@ -7381,7 +7387,7 @@
         <v>60</v>
       </c>
       <c r="G13" s="194">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H13" s="195" t="s">
         <v>0</v>
@@ -7390,7 +7396,7 @@
         <v>60</v>
       </c>
       <c r="J13" s="194">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K13" s="195" t="s">
         <v>0</v>
@@ -7399,25 +7405,25 @@
         <v>60</v>
       </c>
       <c r="M13" s="194">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N13" s="195" t="s">
         <v>0</v>
       </c>
       <c r="O13" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="P13" s="194">
-        <v>6</v>
-      </c>
-      <c r="Q13" s="195" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="Q13" s="195">
+        <v>-2</v>
       </c>
       <c r="R13" s="196" t="s">
         <v>60</v>
       </c>
       <c r="S13" s="194">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T13" s="195" t="s">
         <v>0</v>
@@ -7426,7 +7432,7 @@
         <v>60</v>
       </c>
       <c r="V13" s="194">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="W13" s="195" t="s">
         <v>0</v>
@@ -7435,7 +7441,7 @@
         <v>60</v>
       </c>
       <c r="Y13" s="194">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Z13" s="195" t="s">
         <v>0</v>
@@ -7444,7 +7450,7 @@
         <v>60</v>
       </c>
       <c r="AB13" s="194">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AC13" s="195" t="s">
         <v>0</v>
@@ -7453,7 +7459,7 @@
         <v>60</v>
       </c>
       <c r="AE13" s="194">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AF13" s="195" t="s">
         <v>0</v>
@@ -7462,16 +7468,16 @@
         <v>88</v>
       </c>
       <c r="AH13" s="194">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AI13" s="195">
-        <v>-4</v>
+        <v>-16</v>
       </c>
       <c r="AJ13" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AK13" s="194">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AL13" s="195" t="s">
         <v>0</v>
@@ -7480,7 +7486,7 @@
         <v>60</v>
       </c>
       <c r="AN13" s="194">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AO13" s="197" t="s">
         <v>0</v>
@@ -7489,50 +7495,50 @@
         <v>60</v>
       </c>
       <c r="AU13" s="194">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AV13" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX13" s="4">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="AY13" s="4">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="AZ13" s="4">
-        <v>93</v>
+        <v>47.1</v>
       </c>
       <c r="BA13" s="4">
-        <v>93</v>
+        <v>47.1</v>
       </c>
       <c r="BB13" s="4">
         <v>10</v>
       </c>
       <c r="BC13" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BE13" s="76">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BF13" s="77" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="BG13" s="78">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="BH13" s="189"/>
       <c r="BI13" s="79">
         <v>10</v>
       </c>
       <c r="BJ13" s="80" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="BK13" s="81">
-        <v>85.833333333333329</v>
+        <v>87.15384615384616</v>
       </c>
       <c r="BL13" s="82">
-        <v>1030</v>
+        <v>1133</v>
       </c>
       <c r="BM13" s="172"/>
       <c r="BN13" s="79">
@@ -7542,10 +7548,10 @@
         <v>91</v>
       </c>
       <c r="BP13" s="83">
-        <v>-39</v>
+        <v>-42</v>
       </c>
       <c r="BQ13" s="84">
-        <v>-39</v>
+        <v>-42</v>
       </c>
       <c r="BR13" s="85" t="s">
         <v>0</v>
@@ -7566,18 +7572,18 @@
         <v>0</v>
       </c>
       <c r="BY13" s="12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="190" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C14" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="191" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="E14" s="192" t="s">
         <v>60</v>
@@ -7586,7 +7592,7 @@
         <v>60</v>
       </c>
       <c r="G14" s="194">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H14" s="195" t="s">
         <v>0</v>
@@ -7595,121 +7601,121 @@
         <v>88</v>
       </c>
       <c r="J14" s="194">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="K14" s="195">
-        <v>-9</v>
+        <v>-14</v>
       </c>
       <c r="L14" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="M14" s="194">
-        <v>4</v>
-      </c>
-      <c r="N14" s="195" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="N14" s="195">
+        <v>-3</v>
       </c>
       <c r="O14" s="196" t="s">
         <v>60</v>
       </c>
       <c r="P14" s="194">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q14" s="195" t="s">
         <v>0</v>
       </c>
       <c r="R14" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="S14" s="194">
-        <v>7</v>
-      </c>
-      <c r="T14" s="195">
-        <v>-7</v>
+        <v>8</v>
+      </c>
+      <c r="T14" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="U14" s="196" t="s">
         <v>88</v>
       </c>
       <c r="V14" s="194">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="W14" s="195">
-        <v>-12</v>
+        <v>-8</v>
       </c>
       <c r="X14" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y14" s="194">
+        <v>8</v>
+      </c>
+      <c r="Z14" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="196" t="s">
         <v>88</v>
-      </c>
-      <c r="Y14" s="194">
-        <v>5</v>
-      </c>
-      <c r="Z14" s="195">
-        <v>-5</v>
-      </c>
-      <c r="AA14" s="196" t="s">
-        <v>60</v>
       </c>
       <c r="AB14" s="194">
         <v>6</v>
       </c>
-      <c r="AC14" s="195" t="s">
-        <v>0</v>
+      <c r="AC14" s="195">
+        <v>-6</v>
       </c>
       <c r="AD14" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AE14" s="194">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF14" s="195">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="AG14" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AH14" s="194">
         <v>12</v>
       </c>
-      <c r="AI14" s="195">
-        <v>-12</v>
+      <c r="AI14" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AJ14" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AK14" s="194">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL14" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AM14" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AN14" s="194">
-        <v>2</v>
-      </c>
-      <c r="AO14" s="197" t="s">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="AO14" s="197">
+        <v>-11</v>
       </c>
       <c r="AT14" s="198" t="s">
         <v>88</v>
       </c>
       <c r="AU14" s="194">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV14" s="197">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="AX14" s="4">
-        <v>-25</v>
+        <v>-12</v>
       </c>
       <c r="AY14" s="4">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="AZ14" s="4">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="BA14" s="4">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="BB14" s="4">
         <v>11</v>
@@ -7721,10 +7727,10 @@
         <v>11</v>
       </c>
       <c r="BF14" s="77" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BG14" s="78">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="BH14" s="189"/>
       <c r="BI14" s="79">
@@ -7734,10 +7740,10 @@
         <v>96</v>
       </c>
       <c r="BK14" s="81">
-        <v>83</v>
+        <v>83.615384615384613</v>
       </c>
       <c r="BL14" s="82">
-        <v>996</v>
+        <v>1087</v>
       </c>
       <c r="BM14" s="172"/>
       <c r="BN14" s="79">
@@ -7747,10 +7753,10 @@
         <v>94</v>
       </c>
       <c r="BP14" s="83">
-        <v>-39</v>
+        <v>-42</v>
       </c>
       <c r="BQ14" s="84">
-        <v>-39</v>
+        <v>-42</v>
       </c>
       <c r="BR14" s="85" t="s">
         <v>0</v>
@@ -7771,90 +7777,90 @@
         <v>0</v>
       </c>
       <c r="BY14" s="12" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:77" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="190" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C15" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="191" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E15" s="192" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F15" s="193" t="s">
         <v>60</v>
       </c>
       <c r="G15" s="194">
-        <v>13</v>
-      </c>
-      <c r="H15" s="195" t="s">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="H15" s="195">
+        <v>-7</v>
       </c>
       <c r="I15" s="196" t="s">
         <v>88</v>
       </c>
       <c r="J15" s="194">
-        <v>7</v>
-      </c>
-      <c r="K15" s="195">
-        <v>-7</v>
+        <v>5</v>
+      </c>
+      <c r="K15" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="L15" s="196" t="s">
         <v>60</v>
       </c>
       <c r="M15" s="194">
-        <v>13</v>
-      </c>
-      <c r="N15" s="195" t="s">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="N15" s="195">
+        <v>-7</v>
       </c>
       <c r="O15" s="196" t="s">
         <v>60</v>
       </c>
       <c r="P15" s="194">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="195" t="s">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="Q15" s="195">
+        <v>-7</v>
       </c>
       <c r="R15" s="196" t="s">
         <v>60</v>
       </c>
       <c r="S15" s="194">
-        <v>6</v>
-      </c>
-      <c r="T15" s="195" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="T15" s="195">
+        <v>-3</v>
       </c>
       <c r="U15" s="196" t="s">
         <v>60</v>
       </c>
       <c r="V15" s="194">
-        <v>11</v>
-      </c>
-      <c r="W15" s="195" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="W15" s="195">
+        <v>-1</v>
       </c>
       <c r="X15" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="Y15" s="194">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Z15" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AA15" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AB15" s="194">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AC15" s="195" t="s">
         <v>0</v>
@@ -7863,34 +7869,34 @@
         <v>60</v>
       </c>
       <c r="AE15" s="194">
+        <v>4</v>
+      </c>
+      <c r="AF15" s="195">
+        <v>-4</v>
+      </c>
+      <c r="AG15" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH15" s="194">
         <v>8</v>
       </c>
-      <c r="AF15" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH15" s="194">
-        <v>11</v>
-      </c>
       <c r="AI15" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AJ15" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AK15" s="194">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AL15" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AM15" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AN15" s="194">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AO15" s="197" t="s">
         <v>0</v>
@@ -7899,22 +7905,22 @@
         <v>60</v>
       </c>
       <c r="AU15" s="194">
-        <v>11</v>
-      </c>
-      <c r="AV15" s="197" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AV15" s="197">
+        <v>-1</v>
       </c>
       <c r="AX15" s="4">
-        <v>117</v>
+        <v>9</v>
       </c>
       <c r="AY15" s="4">
-        <v>117</v>
+        <v>9</v>
       </c>
       <c r="AZ15" s="4">
-        <v>117</v>
+        <v>9</v>
       </c>
       <c r="BA15" s="4">
-        <v>117</v>
+        <v>9</v>
       </c>
       <c r="BB15" s="4">
         <v>12</v>
@@ -7929,7 +7935,7 @@
         <v>100</v>
       </c>
       <c r="BG15" s="91">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="BH15" s="189"/>
       <c r="BI15" s="92">
@@ -7939,10 +7945,10 @@
         <v>100</v>
       </c>
       <c r="BK15" s="94">
-        <v>66</v>
+        <v>64.769230769230774</v>
       </c>
       <c r="BL15" s="95">
-        <v>792</v>
+        <v>842</v>
       </c>
       <c r="BM15" s="172"/>
       <c r="BN15" s="92">
@@ -7952,10 +7958,10 @@
         <v>96</v>
       </c>
       <c r="BP15" s="96">
-        <v>-39</v>
+        <v>-42</v>
       </c>
       <c r="BQ15" s="97">
-        <v>-39</v>
+        <v>-42</v>
       </c>
       <c r="BR15" s="98" t="s">
         <v>0</v>
@@ -7976,69 +7982,69 @@
         <v>0</v>
       </c>
       <c r="BY15" s="12" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:77" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B16" s="190" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C16" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="191" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="E16" s="192" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="193" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="193" t="s">
+      <c r="G16" s="194">
+        <v>6</v>
+      </c>
+      <c r="H16" s="195">
+        <v>-6</v>
+      </c>
+      <c r="I16" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="194">
+      <c r="J16" s="194">
+        <v>8</v>
+      </c>
+      <c r="K16" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="M16" s="194">
+        <v>6</v>
+      </c>
+      <c r="N16" s="195">
+        <v>-6</v>
+      </c>
+      <c r="O16" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="P16" s="194">
         <v>9</v>
       </c>
-      <c r="H16" s="195">
+      <c r="Q16" s="195">
         <v>-9</v>
       </c>
-      <c r="I16" s="196" t="s">
+      <c r="R16" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="J16" s="194">
-        <v>6</v>
-      </c>
-      <c r="K16" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="L16" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="M16" s="194">
-        <v>10</v>
-      </c>
-      <c r="N16" s="195">
-        <v>-10</v>
-      </c>
-      <c r="O16" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="P16" s="194">
-        <v>10</v>
-      </c>
-      <c r="Q16" s="195">
-        <v>-10</v>
-      </c>
-      <c r="R16" s="196" t="s">
-        <v>60</v>
-      </c>
       <c r="S16" s="194">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="T16" s="195">
-        <v>-12</v>
+        <v>-4</v>
       </c>
       <c r="U16" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="V16" s="194">
         <v>6</v>
@@ -8047,19 +8053,19 @@
         <v>-6</v>
       </c>
       <c r="X16" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y16" s="194">
+        <v>12</v>
+      </c>
+      <c r="Z16" s="195">
+        <v>-12</v>
+      </c>
+      <c r="AA16" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="Y16" s="194">
-        <v>11</v>
-      </c>
-      <c r="Z16" s="195">
-        <v>-11</v>
-      </c>
-      <c r="AA16" s="196" t="s">
-        <v>88</v>
-      </c>
       <c r="AB16" s="194">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC16" s="195" t="s">
         <v>0</v>
@@ -8070,26 +8076,26 @@
       <c r="AE16" s="194">
         <v>3</v>
       </c>
-      <c r="AF16" s="195">
-        <v>-3</v>
+      <c r="AF16" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AG16" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AH16" s="194">
-        <v>6</v>
-      </c>
-      <c r="AI16" s="195" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="AI16" s="195">
+        <v>-4</v>
       </c>
       <c r="AJ16" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AK16" s="194">
-        <v>8</v>
-      </c>
-      <c r="AL16" s="195" t="s">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="AL16" s="195">
+        <v>-7</v>
       </c>
       <c r="AM16" s="196" t="s">
         <v>60</v>
@@ -8097,29 +8103,29 @@
       <c r="AN16" s="194">
         <v>5</v>
       </c>
-      <c r="AO16" s="197">
+      <c r="AO16" s="197" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="198" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU16" s="194">
+        <v>5</v>
+      </c>
+      <c r="AV16" s="197">
         <v>-5</v>
       </c>
-      <c r="AT16" s="198" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU16" s="194">
-        <v>7</v>
-      </c>
-      <c r="AV16" s="197">
-        <v>-7</v>
-      </c>
       <c r="AX16" s="4">
-        <v>43</v>
+        <v>-37</v>
       </c>
       <c r="AY16" s="4">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AZ16" s="4">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="BA16" s="4">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="BB16" s="4">
         <v>13</v>
@@ -8128,27 +8134,27 @@
         <v>1</v>
       </c>
       <c r="BY16" s="12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="190" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="C17" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="191" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E17" s="192" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F17" s="193" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="G17" s="194">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H17" s="195" t="s">
         <v>0</v>
@@ -8157,103 +8163,103 @@
         <v>60</v>
       </c>
       <c r="J17" s="194">
+        <v>3</v>
+      </c>
+      <c r="K17" s="195">
+        <v>-3</v>
+      </c>
+      <c r="L17" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="M17" s="194">
+        <v>12</v>
+      </c>
+      <c r="N17" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="O17" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="P17" s="194">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="R17" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="S17" s="194">
+        <v>14</v>
+      </c>
+      <c r="T17" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="U17" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="V17" s="194">
+        <v>4</v>
+      </c>
+      <c r="W17" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="X17" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y17" s="194">
+        <v>13</v>
+      </c>
+      <c r="Z17" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB17" s="194">
+        <v>14</v>
+      </c>
+      <c r="AC17" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE17" s="194">
+        <v>13</v>
+      </c>
+      <c r="AF17" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH17" s="194">
         <v>5</v>
       </c>
-      <c r="K17" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="L17" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="M17" s="194">
+      <c r="AI17" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK17" s="194">
+        <v>14</v>
+      </c>
+      <c r="AL17" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN17" s="194">
         <v>15</v>
       </c>
-      <c r="N17" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="O17" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="P17" s="194">
-        <v>15</v>
-      </c>
-      <c r="Q17" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="R17" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="S17" s="194">
-        <v>8</v>
-      </c>
-      <c r="T17" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="U17" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="V17" s="194">
-        <v>14</v>
-      </c>
-      <c r="W17" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="X17" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y17" s="194">
-        <v>9</v>
-      </c>
-      <c r="Z17" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB17" s="194">
-        <v>15</v>
-      </c>
-      <c r="AC17" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE17" s="194">
-        <v>9</v>
-      </c>
-      <c r="AF17" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH17" s="194">
-        <v>3</v>
-      </c>
-      <c r="AI17" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK17" s="194">
-        <v>13</v>
-      </c>
-      <c r="AL17" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM17" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN17" s="194">
-        <v>6</v>
-      </c>
       <c r="AO17" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AT17" s="198" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AU17" s="194">
         <v>13</v>
@@ -8262,16 +8268,16 @@
         <v>0</v>
       </c>
       <c r="AX17" s="4">
-        <v>127</v>
+        <v>-125</v>
       </c>
       <c r="AY17" s="4">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AZ17" s="4">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="BA17" s="4">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="BB17" s="4">
         <v>14</v>
@@ -8280,100 +8286,150 @@
         <v>1</v>
       </c>
       <c r="BY17" s="12" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="190" t="s">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="C18" s="191" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D18" s="191" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="192"/>
-      <c r="F18" s="193"/>
-      <c r="G18" s="194"/>
-      <c r="H18" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" s="196"/>
-      <c r="J18" s="194"/>
-      <c r="K18" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="L18" s="196"/>
-      <c r="M18" s="194"/>
-      <c r="N18" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="O18" s="196"/>
-      <c r="P18" s="194"/>
-      <c r="Q18" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="R18" s="196"/>
-      <c r="S18" s="194"/>
-      <c r="T18" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="U18" s="196"/>
-      <c r="V18" s="194"/>
-      <c r="W18" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="X18" s="196"/>
-      <c r="Y18" s="194"/>
+        <v>124</v>
+      </c>
+      <c r="E18" s="192" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="193" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="194">
+        <v>9</v>
+      </c>
+      <c r="H18" s="195">
+        <v>-9</v>
+      </c>
+      <c r="I18" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="J18" s="194">
+        <v>2</v>
+      </c>
+      <c r="K18" s="195">
+        <v>-2</v>
+      </c>
+      <c r="L18" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="M18" s="194">
+        <v>9</v>
+      </c>
+      <c r="N18" s="195">
+        <v>-9</v>
+      </c>
+      <c r="O18" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="P18" s="194">
+        <v>6</v>
+      </c>
+      <c r="Q18" s="195">
+        <v>-6</v>
+      </c>
+      <c r="R18" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="S18" s="194">
+        <v>15</v>
+      </c>
+      <c r="T18" s="195">
+        <v>-15</v>
+      </c>
+      <c r="U18" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="V18" s="194">
+        <v>10</v>
+      </c>
+      <c r="W18" s="195">
+        <v>-10</v>
+      </c>
+      <c r="X18" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y18" s="194">
+        <v>5</v>
+      </c>
       <c r="Z18" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="AA18" s="196"/>
-      <c r="AB18" s="194"/>
-      <c r="AC18" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="196"/>
-      <c r="AE18" s="194"/>
-      <c r="AF18" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="196"/>
-      <c r="AH18" s="194"/>
-      <c r="AI18" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="196"/>
-      <c r="AK18" s="194"/>
-      <c r="AL18" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM18" s="196"/>
-      <c r="AN18" s="194"/>
-      <c r="AO18" s="197" t="s">
-        <v>0</v>
+      <c r="AA18" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB18" s="194">
+        <v>2</v>
+      </c>
+      <c r="AC18" s="195">
+        <v>-2</v>
+      </c>
+      <c r="AD18" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE18" s="194">
+        <v>9</v>
+      </c>
+      <c r="AF18" s="195">
+        <v>-9</v>
+      </c>
+      <c r="AG18" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH18" s="194">
+        <v>3</v>
+      </c>
+      <c r="AI18" s="195">
+        <v>-3</v>
+      </c>
+      <c r="AJ18" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK18" s="194">
+        <v>9</v>
+      </c>
+      <c r="AL18" s="195">
+        <v>-9</v>
+      </c>
+      <c r="AM18" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN18" s="194">
+        <v>9</v>
+      </c>
+      <c r="AO18" s="197">
+        <v>-9</v>
       </c>
       <c r="AT18" s="198" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU18" s="194" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV18" s="197" t="s">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="AU18" s="194">
+        <v>10</v>
+      </c>
+      <c r="AV18" s="197">
+        <v>-10</v>
       </c>
       <c r="AX18" s="4">
-        <v>0</v>
+        <v>-78</v>
       </c>
       <c r="AY18" s="4">
-        <v>-0.1</v>
+        <v>78</v>
       </c>
       <c r="AZ18" s="4">
-        <v>-0.1</v>
+        <v>78</v>
       </c>
       <c r="BA18" s="4">
-        <v>-0.1</v>
+        <v>78</v>
       </c>
       <c r="BB18" s="4">
         <v>15</v>
@@ -8382,27 +8438,27 @@
         <v>1</v>
       </c>
       <c r="BY18" s="12" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="190" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C19" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="191" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E19" s="192" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F19" s="193" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="G19" s="194">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H19" s="195" t="s">
         <v>0</v>
@@ -8411,34 +8467,34 @@
         <v>60</v>
       </c>
       <c r="J19" s="194">
-        <v>4</v>
-      </c>
-      <c r="K19" s="195">
-        <v>-4</v>
+        <v>16</v>
+      </c>
+      <c r="K19" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="L19" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="M19" s="194">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="N19" s="195" t="s">
         <v>0</v>
       </c>
       <c r="O19" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="P19" s="194">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="Q19" s="195" t="s">
         <v>0</v>
       </c>
       <c r="R19" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="S19" s="194">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T19" s="195" t="s">
         <v>0</v>
@@ -8447,16 +8503,16 @@
         <v>60</v>
       </c>
       <c r="V19" s="194">
-        <v>2</v>
-      </c>
-      <c r="W19" s="195">
-        <v>-2</v>
+        <v>9</v>
+      </c>
+      <c r="W19" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="X19" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="Y19" s="194">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Z19" s="195" t="s">
         <v>0</v>
@@ -8465,34 +8521,34 @@
         <v>60</v>
       </c>
       <c r="AB19" s="194">
-        <v>5</v>
-      </c>
-      <c r="AC19" s="195">
-        <v>-5</v>
+        <v>16</v>
+      </c>
+      <c r="AC19" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AD19" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE19" s="194">
+        <v>15</v>
+      </c>
+      <c r="AF19" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="AE19" s="194">
+      <c r="AH19" s="194">
+        <v>2</v>
+      </c>
+      <c r="AI19" s="195">
+        <v>-2</v>
+      </c>
+      <c r="AJ19" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK19" s="194">
         <v>10</v>
-      </c>
-      <c r="AF19" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH19" s="194">
-        <v>15</v>
-      </c>
-      <c r="AI19" s="195">
-        <v>-15</v>
-      </c>
-      <c r="AJ19" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK19" s="194">
-        <v>2</v>
       </c>
       <c r="AL19" s="195" t="s">
         <v>0</v>
@@ -8503,29 +8559,29 @@
       <c r="AN19" s="194">
         <v>12</v>
       </c>
-      <c r="AO19" s="197">
-        <v>-12</v>
+      <c r="AO19" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AT19" s="198" t="s">
         <v>60</v>
       </c>
       <c r="AU19" s="194">
-        <v>2</v>
-      </c>
-      <c r="AV19" s="197">
-        <v>-2</v>
+        <v>14</v>
+      </c>
+      <c r="AV19" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AX19" s="4">
-        <v>1</v>
+        <v>141</v>
       </c>
       <c r="AY19" s="4">
-        <v>1</v>
+        <v>141</v>
       </c>
       <c r="AZ19" s="4">
-        <v>1</v>
+        <v>141</v>
       </c>
       <c r="BA19" s="4">
-        <v>1</v>
+        <v>141</v>
       </c>
       <c r="BB19" s="4">
         <v>16</v>
@@ -8534,7 +8590,7 @@
         <v>1</v>
       </c>
       <c r="BY19" s="12" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8548,21 +8604,21 @@
         <v>106</v>
       </c>
       <c r="G20" s="105">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H20" s="122"/>
       <c r="I20" s="106" t="s">
         <v>106</v>
       </c>
       <c r="J20" s="105">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K20" s="122"/>
       <c r="L20" s="106" t="s">
         <v>106</v>
       </c>
       <c r="M20" s="105">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N20" s="122"/>
       <c r="O20" s="106" t="s">
@@ -8576,14 +8632,14 @@
         <v>106</v>
       </c>
       <c r="S20" s="105">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="T20" s="122"/>
       <c r="U20" s="106" t="s">
         <v>106</v>
       </c>
       <c r="V20" s="105">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="W20" s="122"/>
       <c r="X20" s="106" t="s">
@@ -8597,35 +8653,35 @@
         <v>106</v>
       </c>
       <c r="AB20" s="105">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="AC20" s="122"/>
       <c r="AD20" s="106" t="s">
         <v>106</v>
       </c>
       <c r="AE20" s="105">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AF20" s="122"/>
       <c r="AG20" s="106" t="s">
         <v>106</v>
       </c>
       <c r="AH20" s="105">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="AI20" s="122"/>
       <c r="AJ20" s="106" t="s">
         <v>106</v>
       </c>
       <c r="AK20" s="105">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="AL20" s="122"/>
       <c r="AM20" s="106" t="s">
         <v>106</v>
       </c>
       <c r="AN20" s="105">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="AO20" s="123"/>
       <c r="AT20" s="107"/>
@@ -8642,7 +8698,7 @@
       <c r="BM20" s="13"/>
       <c r="BN20" s="13"/>
       <c r="BY20" s="12" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:77" s="13" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8655,95 +8711,95 @@
       </c>
       <c r="F21" s="203"/>
       <c r="G21" s="204">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H21" s="205">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I21" s="206"/>
       <c r="J21" s="204">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K21" s="205">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="L21" s="206"/>
       <c r="M21" s="204">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N21" s="205">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="O21" s="206"/>
       <c r="P21" s="204">
         <v>7</v>
       </c>
       <c r="Q21" s="205">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R21" s="206"/>
       <c r="S21" s="204">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="T21" s="205">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="U21" s="206"/>
       <c r="V21" s="204">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="W21" s="205">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="X21" s="206"/>
       <c r="Y21" s="204">
         <v>2</v>
       </c>
       <c r="Z21" s="205">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AA21" s="206"/>
       <c r="AB21" s="204">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC21" s="205">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AD21" s="206"/>
       <c r="AE21" s="204">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AF21" s="205">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG21" s="206"/>
       <c r="AH21" s="204">
         <v>12</v>
       </c>
       <c r="AI21" s="205">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AJ21" s="206"/>
       <c r="AK21" s="204">
         <v>1</v>
       </c>
       <c r="AL21" s="205">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="AM21" s="206"/>
       <c r="AN21" s="204">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AO21" s="207">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="AP21" s="3"/>
       <c r="AT21" s="208"/>
       <c r="AU21" s="209">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV21" s="210">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="AW21" s="3"/>
       <c r="AX21" s="14"/>
@@ -8767,7 +8823,7 @@
       <c r="BV21" s="6"/>
       <c r="BW21" s="6"/>
       <c r="BY21" s="12" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:77" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8783,84 +8839,84 @@
         <v>6</v>
       </c>
       <c r="H22" s="129">
-        <v>89.416666666666671</v>
+        <v>90.230769230769226</v>
       </c>
       <c r="I22" s="130"/>
       <c r="J22" s="128">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K22" s="129">
-        <v>86.583333333333329</v>
+        <v>87.15384615384616</v>
       </c>
       <c r="L22" s="130"/>
       <c r="M22" s="128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N22" s="129">
-        <v>91.583333333333329</v>
+        <v>92</v>
       </c>
       <c r="O22" s="130"/>
       <c r="P22" s="128">
         <v>4</v>
       </c>
       <c r="Q22" s="129">
-        <v>91.25</v>
+        <v>91.692307692307693</v>
       </c>
       <c r="R22" s="130"/>
       <c r="S22" s="128">
         <v>7</v>
       </c>
       <c r="T22" s="129">
-        <v>89.25</v>
+        <v>89.615384615384613</v>
       </c>
       <c r="U22" s="130"/>
       <c r="V22" s="128">
         <v>11</v>
       </c>
       <c r="W22" s="129">
-        <v>83</v>
+        <v>83.615384615384613</v>
       </c>
       <c r="X22" s="130"/>
       <c r="Y22" s="128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z22" s="129">
-        <v>91.333333333333329</v>
+        <v>92.692307692307693</v>
       </c>
       <c r="AA22" s="130"/>
       <c r="AB22" s="128">
         <v>8</v>
       </c>
       <c r="AC22" s="129">
-        <v>86.833333333333329</v>
+        <v>88.538461538461533</v>
       </c>
       <c r="AD22" s="130"/>
       <c r="AE22" s="128">
         <v>1</v>
       </c>
       <c r="AF22" s="129">
-        <v>96.833333333333329</v>
+        <v>96.92307692307692</v>
       </c>
       <c r="AG22" s="130"/>
       <c r="AH22" s="128">
         <v>12</v>
       </c>
       <c r="AI22" s="129">
-        <v>66</v>
+        <v>64.769230769230774</v>
       </c>
       <c r="AJ22" s="130"/>
       <c r="AK22" s="128">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL22" s="129">
-        <v>85.833333333333329</v>
+        <v>87.692307692307693</v>
       </c>
       <c r="AM22" s="130"/>
       <c r="AN22" s="128">
         <v>5</v>
       </c>
       <c r="AO22" s="131">
-        <v>89.916666666666671</v>
+        <v>91.15384615384616</v>
       </c>
       <c r="AP22" s="3"/>
       <c r="AU22" s="14"/>
@@ -8885,7 +8941,7 @@
       <c r="BV22" s="6"/>
       <c r="BW22" s="6"/>
       <c r="BY22" s="12" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:77" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8899,62 +8955,62 @@
       <c r="F23" s="135"/>
       <c r="G23" s="136"/>
       <c r="H23" s="137">
-        <v>1073</v>
+        <v>1173</v>
       </c>
       <c r="I23" s="138"/>
       <c r="J23" s="136"/>
       <c r="K23" s="137">
-        <v>1039</v>
+        <v>1133</v>
       </c>
       <c r="L23" s="138"/>
       <c r="M23" s="136"/>
       <c r="N23" s="137">
-        <v>1099</v>
+        <v>1196</v>
       </c>
       <c r="O23" s="138"/>
       <c r="P23" s="136"/>
       <c r="Q23" s="137">
-        <v>1095</v>
+        <v>1192</v>
       </c>
       <c r="R23" s="138"/>
       <c r="S23" s="136"/>
       <c r="T23" s="137">
-        <v>1071</v>
+        <v>1165</v>
       </c>
       <c r="U23" s="138"/>
       <c r="V23" s="136"/>
       <c r="W23" s="137">
-        <v>996</v>
+        <v>1087</v>
       </c>
       <c r="X23" s="138"/>
       <c r="Y23" s="136"/>
       <c r="Z23" s="137">
-        <v>1096</v>
+        <v>1205</v>
       </c>
       <c r="AA23" s="138"/>
       <c r="AB23" s="136"/>
       <c r="AC23" s="137">
-        <v>1042</v>
+        <v>1151</v>
       </c>
       <c r="AD23" s="138"/>
       <c r="AE23" s="136"/>
       <c r="AF23" s="137">
-        <v>1162</v>
+        <v>1260</v>
       </c>
       <c r="AG23" s="138"/>
       <c r="AH23" s="136"/>
       <c r="AI23" s="137">
-        <v>792</v>
+        <v>842</v>
       </c>
       <c r="AJ23" s="138"/>
       <c r="AK23" s="136"/>
       <c r="AL23" s="137">
-        <v>1030</v>
+        <v>1140</v>
       </c>
       <c r="AM23" s="138"/>
       <c r="AN23" s="136"/>
       <c r="AO23" s="139">
-        <v>1079</v>
+        <v>1185</v>
       </c>
       <c r="AP23" s="3"/>
       <c r="AU23" s="14"/>
@@ -8969,7 +9025,7 @@
       <c r="BV23" s="6"/>
       <c r="BW23" s="6"/>
       <c r="BY23" s="12" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:77" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9052,7 +9108,7 @@
       <c r="BV24" s="6"/>
       <c r="BW24" s="6"/>
       <c r="BY24" s="12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:77" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9065,87 +9121,87 @@
       </c>
       <c r="F25" s="135"/>
       <c r="G25" s="140">
-        <v>0.73333333333333328</v>
+        <v>0.75</v>
       </c>
       <c r="H25" s="137">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I25" s="138"/>
       <c r="J25" s="140">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="K25" s="137">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L25" s="138"/>
       <c r="M25" s="140">
-        <v>0.73333333333333328</v>
+        <v>0.6875</v>
       </c>
       <c r="N25" s="137">
         <v>11</v>
       </c>
       <c r="O25" s="138"/>
       <c r="P25" s="140">
-        <v>0.73333333333333328</v>
+        <v>0.625</v>
       </c>
       <c r="Q25" s="137">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R25" s="138"/>
       <c r="S25" s="140">
-        <v>0.66666666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="T25" s="137">
         <v>10</v>
       </c>
       <c r="U25" s="138"/>
       <c r="V25" s="140">
-        <v>0.6</v>
+        <v>0.5625</v>
       </c>
       <c r="W25" s="137">
         <v>9</v>
       </c>
       <c r="X25" s="138"/>
       <c r="Y25" s="140">
-        <v>0.73333333333333328</v>
+        <v>0.8125</v>
       </c>
       <c r="Z25" s="137">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA25" s="138"/>
       <c r="AB25" s="140">
-        <v>0.73333333333333328</v>
+        <v>0.75</v>
       </c>
       <c r="AC25" s="137">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD25" s="138"/>
       <c r="AE25" s="140">
-        <v>0.6</v>
+        <v>0.6875</v>
       </c>
       <c r="AF25" s="137">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AG25" s="138"/>
       <c r="AH25" s="140">
-        <v>0.4</v>
+        <v>0.4375</v>
       </c>
       <c r="AI25" s="137">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ25" s="138"/>
       <c r="AK25" s="140">
-        <v>0.93333333333333335</v>
+        <v>0.6875</v>
       </c>
       <c r="AL25" s="137">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AM25" s="138"/>
       <c r="AN25" s="140">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AO25" s="139">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AP25" s="3"/>
       <c r="AW25" s="3"/>
@@ -9159,7 +9215,7 @@
       <c r="BV25" s="6"/>
       <c r="BW25" s="6"/>
       <c r="BY25" s="12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:77" s="13" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9172,87 +9228,87 @@
       </c>
       <c r="F26" s="144"/>
       <c r="G26" s="145">
-        <v>0.56770833333333337</v>
+        <v>0.58173076923076927</v>
       </c>
       <c r="H26" s="146">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="I26" s="147"/>
       <c r="J26" s="145">
-        <v>0.59895833333333337</v>
+        <v>0.60096153846153844</v>
       </c>
       <c r="K26" s="146">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="L26" s="147"/>
       <c r="M26" s="145">
-        <v>0.58854166666666663</v>
+        <v>0.59615384615384615</v>
       </c>
       <c r="N26" s="146">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="O26" s="147"/>
       <c r="P26" s="145">
         <v>0.625</v>
       </c>
       <c r="Q26" s="146">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="R26" s="147"/>
       <c r="S26" s="145">
-        <v>0.609375</v>
+        <v>0.61057692307692313</v>
       </c>
       <c r="T26" s="146">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="U26" s="147"/>
       <c r="V26" s="145">
-        <v>0.53645833333333337</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="W26" s="146">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="X26" s="147"/>
       <c r="Y26" s="145">
-        <v>0.60416666666666663</v>
+        <v>0.62019230769230771</v>
       </c>
       <c r="Z26" s="146">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="AA26" s="147"/>
       <c r="AB26" s="145">
-        <v>0.57291666666666663</v>
+        <v>0.58653846153846156</v>
       </c>
       <c r="AC26" s="146">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="AD26" s="147"/>
       <c r="AE26" s="145">
-        <v>0.64583333333333337</v>
+        <v>0.64903846153846156</v>
       </c>
       <c r="AF26" s="146">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="AG26" s="147"/>
       <c r="AH26" s="145">
         <v>0.4375</v>
       </c>
       <c r="AI26" s="146">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="AJ26" s="147"/>
       <c r="AK26" s="145">
-        <v>0.53125</v>
+        <v>0.54326923076923073</v>
       </c>
       <c r="AL26" s="146">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="AM26" s="147"/>
       <c r="AN26" s="145">
-        <v>0.59895833333333337</v>
+        <v>0.61057692307692313</v>
       </c>
       <c r="AO26" s="148">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="AP26" s="3"/>
       <c r="AW26" s="3"/>
@@ -9276,7 +9332,7 @@
       <c r="BV26" s="6"/>
       <c r="BW26" s="6"/>
       <c r="BY26" s="12" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:77" s="7" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9300,7 +9356,7 @@
         <v>68</v>
       </c>
       <c r="P27" s="153">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="Q27" s="150"/>
       <c r="R27" s="150"/>
@@ -9313,7 +9369,7 @@
         <v>69</v>
       </c>
       <c r="Y27" s="154">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Z27" s="150"/>
       <c r="AA27" s="152"/>
@@ -9326,7 +9382,7 @@
         <v>70</v>
       </c>
       <c r="AH27" s="154">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI27" s="150"/>
       <c r="AJ27" s="152"/>
@@ -9349,7 +9405,7 @@
       <c r="BV27" s="6"/>
       <c r="BW27" s="6"/>
       <c r="BY27" s="12" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:77" s="7" customFormat="1" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -9406,7 +9462,7 @@
       <c r="BV28" s="6"/>
       <c r="BW28" s="6"/>
       <c r="BY28" s="12" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:77" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -9415,7 +9471,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="17"/>
@@ -9467,7 +9523,7 @@
       <c r="BV29" s="6"/>
       <c r="BW29" s="6"/>
       <c r="BY29" s="12" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:77" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -9524,7 +9580,7 @@
       <c r="BV30" s="6"/>
       <c r="BW30" s="6"/>
       <c r="BY30" s="12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:77" s="7" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9536,7 +9592,7 @@
         <v>71</v>
       </c>
       <c r="F31" s="23">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G31" s="18"/>
       <c r="H31" s="17"/>
@@ -9603,47 +9659,47 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="25">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H32" s="26"/>
       <c r="I32" s="26"/>
       <c r="J32" s="25">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K32" s="26"/>
       <c r="L32" s="26"/>
       <c r="M32" s="25">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P32" s="25">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="S32" s="25">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="V32" s="25">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Y32" s="25">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AB32" s="25">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AE32" s="25">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AH32" s="25">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK32" s="25">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AN32" s="25">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AU32" s="25">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BY32" s="12"/>
     </row>
@@ -9675,47 +9731,47 @@
       <c r="F34" s="26"/>
       <c r="G34" s="25"/>
       <c r="H34" s="26">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I34" s="26"/>
       <c r="J34" s="26"/>
       <c r="K34" s="26">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="L34" s="26"/>
       <c r="M34" s="26"/>
       <c r="N34" s="26">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Q34" s="26">
+        <v>97</v>
+      </c>
+      <c r="T34" s="26">
+        <v>94</v>
+      </c>
+      <c r="W34" s="26">
+        <v>91</v>
+      </c>
+      <c r="Z34" s="26">
+        <v>109</v>
+      </c>
+      <c r="AC34" s="26">
+        <v>109</v>
+      </c>
+      <c r="AF34" s="26">
         <v>98</v>
       </c>
-      <c r="T34" s="26">
-        <v>78</v>
-      </c>
-      <c r="W34" s="26">
-        <v>99</v>
-      </c>
-      <c r="Z34" s="26">
-        <v>112</v>
-      </c>
-      <c r="AC34" s="26">
+      <c r="AI34" s="26">
+        <v>50</v>
+      </c>
+      <c r="AL34" s="26">
         <v>110</v>
       </c>
-      <c r="AF34" s="26">
-        <v>97</v>
-      </c>
-      <c r="AI34" s="26">
-        <v>44</v>
-      </c>
-      <c r="AL34" s="26">
-        <v>125</v>
-      </c>
       <c r="AO34" s="26">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="AV34" s="26">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="BY34" s="12"/>
     </row>
@@ -9725,44 +9781,44 @@
       <c r="F35" s="3"/>
       <c r="G35" s="27"/>
       <c r="H35" s="28">
-        <v>89.416666666666671</v>
+        <v>90.230769230769226</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="28">
-        <v>86.583333333333329</v>
+        <v>87.15384615384616</v>
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="28">
-        <v>91.583333333333329</v>
+        <v>92</v>
       </c>
       <c r="Q35" s="28">
-        <v>91.25</v>
+        <v>91.692307692307693</v>
       </c>
       <c r="T35" s="28">
-        <v>89.25</v>
+        <v>89.615384615384613</v>
       </c>
       <c r="W35" s="28">
-        <v>83</v>
+        <v>83.615384615384613</v>
       </c>
       <c r="Z35" s="28">
-        <v>91.333333333333329</v>
+        <v>92.692307692307693</v>
       </c>
       <c r="AC35" s="28">
-        <v>86.833333333333329</v>
+        <v>88.538461538461533</v>
       </c>
       <c r="AF35" s="28">
-        <v>96.833333333333329</v>
+        <v>96.92307692307692</v>
       </c>
       <c r="AI35" s="28">
-        <v>66</v>
+        <v>64.769230769230774</v>
       </c>
       <c r="AL35" s="28">
-        <v>85.833333333333329</v>
+        <v>87.692307692307693</v>
       </c>
       <c r="AO35" s="28">
-        <v>89.916666666666671</v>
+        <v>91.15384615384616</v>
       </c>
       <c r="BY35" s="12"/>
     </row>
@@ -9772,44 +9828,44 @@
       <c r="F36" s="3"/>
       <c r="G36" s="27"/>
       <c r="H36" s="28">
-        <v>1073</v>
+        <v>1173</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="28">
-        <v>1039</v>
+        <v>1133</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="28">
-        <v>1099</v>
+        <v>1196</v>
       </c>
       <c r="Q36" s="28">
-        <v>1095</v>
+        <v>1192</v>
       </c>
       <c r="T36" s="28">
-        <v>1071</v>
+        <v>1165</v>
       </c>
       <c r="W36" s="28">
-        <v>996</v>
+        <v>1087</v>
       </c>
       <c r="Z36" s="28">
-        <v>1096</v>
+        <v>1205</v>
       </c>
       <c r="AC36" s="28">
-        <v>1042</v>
+        <v>1151</v>
       </c>
       <c r="AF36" s="28">
-        <v>1162</v>
+        <v>1260</v>
       </c>
       <c r="AI36" s="28">
-        <v>792</v>
+        <v>842</v>
       </c>
       <c r="AL36" s="28">
-        <v>1030</v>
+        <v>1140</v>
       </c>
       <c r="AO36" s="28">
-        <v>1079</v>
+        <v>1185</v>
       </c>
       <c r="BY36" s="12"/>
     </row>
@@ -9866,12 +9922,12 @@
       <c r="F38" s="3"/>
       <c r="G38" s="27"/>
       <c r="H38" s="28">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="28">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
@@ -9879,7 +9935,7 @@
         <v>11</v>
       </c>
       <c r="Q38" s="28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T38" s="28">
         <v>10</v>
@@ -9888,22 +9944,22 @@
         <v>9</v>
       </c>
       <c r="Z38" s="28">
+        <v>13</v>
+      </c>
+      <c r="AC38" s="28">
+        <v>12</v>
+      </c>
+      <c r="AF38" s="28">
         <v>11</v>
       </c>
-      <c r="AC38" s="28">
+      <c r="AI38" s="28">
+        <v>7</v>
+      </c>
+      <c r="AL38" s="28">
         <v>11</v>
       </c>
-      <c r="AF38" s="28">
-        <v>9</v>
-      </c>
-      <c r="AI38" s="28">
-        <v>6</v>
-      </c>
-      <c r="AL38" s="28">
-        <v>14</v>
-      </c>
       <c r="AO38" s="28">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BY38" s="12"/>
     </row>
@@ -9913,44 +9969,44 @@
       <c r="F39" s="3"/>
       <c r="G39" s="27"/>
       <c r="H39" s="28">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="28">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="28">
+        <v>124</v>
+      </c>
+      <c r="Q39" s="28">
+        <v>130</v>
+      </c>
+      <c r="T39" s="28">
+        <v>127</v>
+      </c>
+      <c r="W39" s="28">
+        <v>112</v>
+      </c>
+      <c r="Z39" s="28">
+        <v>129</v>
+      </c>
+      <c r="AC39" s="28">
+        <v>122</v>
+      </c>
+      <c r="AF39" s="28">
+        <v>135</v>
+      </c>
+      <c r="AI39" s="28">
+        <v>91</v>
+      </c>
+      <c r="AL39" s="28">
         <v>113</v>
       </c>
-      <c r="Q39" s="28">
-        <v>120</v>
-      </c>
-      <c r="T39" s="28">
-        <v>117</v>
-      </c>
-      <c r="W39" s="28">
-        <v>103</v>
-      </c>
-      <c r="Z39" s="28">
-        <v>116</v>
-      </c>
-      <c r="AC39" s="28">
-        <v>110</v>
-      </c>
-      <c r="AF39" s="28">
-        <v>124</v>
-      </c>
-      <c r="AI39" s="28">
-        <v>84</v>
-      </c>
-      <c r="AL39" s="28">
-        <v>102</v>
-      </c>
       <c r="AO39" s="28">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="BY39" s="12"/>
     </row>
@@ -9964,12 +10020,12 @@
       <c r="H40" s="28"/>
       <c r="I40" s="3"/>
       <c r="J40" s="27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K40" s="28"/>
       <c r="L40" s="3"/>
       <c r="M40" s="27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N40" s="28"/>
       <c r="P40" s="27">
@@ -9985,7 +10041,7 @@
       </c>
       <c r="W40" s="28"/>
       <c r="Y40" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z40" s="28"/>
       <c r="AB40" s="27">
@@ -10001,7 +10057,7 @@
       </c>
       <c r="AI40" s="28"/>
       <c r="AK40" s="27">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL40" s="28"/>
       <c r="AN40" s="27">
@@ -10021,44 +10077,44 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="27">
-        <v>0.73333333333333328</v>
+        <v>0.75</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="27">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="27">
-        <v>0.73333333333333328</v>
+        <v>0.6875</v>
       </c>
       <c r="P41" s="27">
-        <v>0.73333333333333328</v>
+        <v>0.625</v>
       </c>
       <c r="S41" s="27">
-        <v>0.66666666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="V41" s="27">
-        <v>0.6</v>
+        <v>0.5625</v>
       </c>
       <c r="Y41" s="27">
-        <v>0.73333333333333328</v>
+        <v>0.8125</v>
       </c>
       <c r="AB41" s="27">
-        <v>0.73333333333333328</v>
+        <v>0.75</v>
       </c>
       <c r="AE41" s="27">
-        <v>0.6</v>
+        <v>0.6875</v>
       </c>
       <c r="AH41" s="27">
-        <v>0.4</v>
+        <v>0.4375</v>
       </c>
       <c r="AK41" s="27">
-        <v>0.93333333333333335</v>
+        <v>0.6875</v>
       </c>
       <c r="AN41" s="27">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR41" s="29">
         <v>1</v>
@@ -10073,44 +10129,44 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="27">
-        <v>0.56770833333333337</v>
+        <v>0.58173076923076927</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="27">
-        <v>0.59895833333333337</v>
+        <v>0.60096153846153844</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="27">
-        <v>0.58854166666666663</v>
+        <v>0.59615384615384615</v>
       </c>
       <c r="P42" s="27">
         <v>0.625</v>
       </c>
       <c r="S42" s="27">
-        <v>0.609375</v>
+        <v>0.61057692307692313</v>
       </c>
       <c r="V42" s="27">
-        <v>0.53645833333333337</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="Y42" s="27">
-        <v>0.60416666666666663</v>
+        <v>0.62019230769230771</v>
       </c>
       <c r="AB42" s="27">
-        <v>0.57291666666666663</v>
+        <v>0.58653846153846156</v>
       </c>
       <c r="AE42" s="27">
-        <v>0.64583333333333337</v>
+        <v>0.64903846153846156</v>
       </c>
       <c r="AH42" s="27">
         <v>0.4375</v>
       </c>
       <c r="AK42" s="27">
-        <v>0.53125</v>
+        <v>0.54326923076923073</v>
       </c>
       <c r="AN42" s="27">
-        <v>0.59895833333333337</v>
+        <v>0.61057692307692313</v>
       </c>
       <c r="BY42" s="12"/>
     </row>
@@ -12304,67 +12360,67 @@
       <c r="BI1" s="6"/>
     </row>
     <row r="2" spans="2:99" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="306" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" s="307" t="s">
-        <v>171</v>
-      </c>
-      <c r="D2" s="308"/>
+      <c r="B2" s="308" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="309" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="310"/>
       <c r="E2" s="156" t="s">
         <v>91</v>
       </c>
       <c r="F2" s="115">
-        <v>-39</v>
+        <v>-42</v>
       </c>
       <c r="G2" s="157"/>
       <c r="H2" s="156" t="s">
         <v>92</v>
       </c>
       <c r="I2" s="115">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="J2" s="157"/>
       <c r="K2" s="156" t="s">
         <v>93</v>
       </c>
       <c r="L2" s="115">
-        <v>18</v>
+        <v>-11</v>
       </c>
       <c r="M2" s="157"/>
       <c r="N2" s="156" t="s">
         <v>94</v>
       </c>
       <c r="O2" s="115">
-        <v>-39</v>
+        <v>-42</v>
       </c>
       <c r="P2" s="157"/>
       <c r="Q2" s="156" t="s">
         <v>95</v>
       </c>
       <c r="R2" s="115">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="S2" s="157"/>
       <c r="T2" s="156" t="s">
         <v>96</v>
       </c>
       <c r="U2" s="115">
-        <v>-39</v>
+        <v>-42</v>
       </c>
       <c r="V2" s="157"/>
       <c r="W2" s="156" t="s">
         <v>97</v>
       </c>
       <c r="X2" s="115">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="Y2" s="157"/>
       <c r="Z2" s="156" t="s">
         <v>98</v>
       </c>
       <c r="AA2" s="115">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="AB2" s="157"/>
       <c r="AC2" s="156" t="s">
@@ -12378,21 +12434,21 @@
         <v>100</v>
       </c>
       <c r="AG2" s="115">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="AH2" s="157"/>
       <c r="AI2" s="156" t="s">
         <v>101</v>
       </c>
       <c r="AJ2" s="115">
-        <v>-8</v>
+        <v>20</v>
       </c>
       <c r="AK2" s="157"/>
       <c r="AL2" s="156" t="s">
         <v>102</v>
       </c>
       <c r="AM2" s="115">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="AN2" s="158"/>
       <c r="AO2" s="211">
@@ -12402,7 +12458,7 @@
         <v>8</v>
       </c>
       <c r="AQ2" s="39">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR2" s="40" t="s">
         <v>9</v>
@@ -12534,7 +12590,7 @@
         <v>14</v>
       </c>
       <c r="AQ3" s="41">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR3" s="40" t="s">
         <v>15</v>
@@ -13747,7 +13803,7 @@
       </c>
       <c r="AQ9" s="45"/>
       <c r="AR9" s="47" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AS9" s="4">
         <v>15</v>
@@ -13963,7 +14019,7 @@
       </c>
       <c r="AQ10" s="45"/>
       <c r="AR10" s="47" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AS10" s="4">
         <v>15</v>
@@ -14177,7 +14233,7 @@
       <c r="AP11" s="46"/>
       <c r="AQ11" s="45"/>
       <c r="AR11" s="47" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AS11" s="4">
         <v>13</v>
@@ -14391,7 +14447,7 @@
       <c r="AP12" s="46"/>
       <c r="AQ12" s="45"/>
       <c r="AR12" s="47" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AS12" s="4">
         <v>13</v>
@@ -15338,116 +15394,116 @@
       <c r="C17" s="191">
         <v>16</v>
       </c>
-      <c r="D17" s="222" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="193" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="J17" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="K17" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="L17" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="M17" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="N17" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="O17" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="P17" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="R17" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="S17" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="T17" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="U17" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="V17" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="W17" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="X17" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK17" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL17" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM17" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN17" s="225" t="s">
-        <v>0</v>
+      <c r="D17" s="222">
+        <v>16</v>
+      </c>
+      <c r="E17" s="193">
+        <v>5</v>
+      </c>
+      <c r="F17" s="223">
+        <v>12</v>
+      </c>
+      <c r="G17" s="224">
+        <v>100</v>
+      </c>
+      <c r="H17" s="196">
+        <v>9</v>
+      </c>
+      <c r="I17" s="223">
+        <v>10</v>
+      </c>
+      <c r="J17" s="224">
+        <v>94</v>
+      </c>
+      <c r="K17" s="196">
+        <v>7</v>
+      </c>
+      <c r="L17" s="223">
+        <v>11</v>
+      </c>
+      <c r="M17" s="224">
+        <v>97</v>
+      </c>
+      <c r="N17" s="196">
+        <v>7</v>
+      </c>
+      <c r="O17" s="223">
+        <v>10</v>
+      </c>
+      <c r="P17" s="224">
+        <v>97</v>
+      </c>
+      <c r="Q17" s="196">
+        <v>9</v>
+      </c>
+      <c r="R17" s="223">
+        <v>10</v>
+      </c>
+      <c r="S17" s="224">
+        <v>94</v>
+      </c>
+      <c r="T17" s="196">
+        <v>11</v>
+      </c>
+      <c r="U17" s="223">
+        <v>9</v>
+      </c>
+      <c r="V17" s="224">
+        <v>91</v>
+      </c>
+      <c r="W17" s="196">
+        <v>2</v>
+      </c>
+      <c r="X17" s="223">
+        <v>13</v>
+      </c>
+      <c r="Y17" s="224">
+        <v>109</v>
+      </c>
+      <c r="Z17" s="196">
+        <v>2</v>
+      </c>
+      <c r="AA17" s="223">
+        <v>12</v>
+      </c>
+      <c r="AB17" s="224">
+        <v>109</v>
+      </c>
+      <c r="AC17" s="196">
+        <v>6</v>
+      </c>
+      <c r="AD17" s="223">
+        <v>11</v>
+      </c>
+      <c r="AE17" s="224">
+        <v>98</v>
+      </c>
+      <c r="AF17" s="196">
+        <v>12</v>
+      </c>
+      <c r="AG17" s="223">
+        <v>7</v>
+      </c>
+      <c r="AH17" s="224">
+        <v>50</v>
+      </c>
+      <c r="AI17" s="196">
+        <v>1</v>
+      </c>
+      <c r="AJ17" s="223">
+        <v>11</v>
+      </c>
+      <c r="AK17" s="224">
+        <v>110</v>
+      </c>
+      <c r="AL17" s="196">
+        <v>4</v>
+      </c>
+      <c r="AM17" s="223">
+        <v>12</v>
+      </c>
+      <c r="AN17" s="225">
+        <v>106</v>
       </c>
       <c r="AO17" s="45"/>
       <c r="AP17" s="46"/>
@@ -15461,85 +15517,85 @@
         <v>0</v>
       </c>
       <c r="BL17" s="4"/>
-      <c r="BM17" s="4" t="s">
-        <v>0</v>
+      <c r="BM17" s="4">
+        <v>100</v>
       </c>
       <c r="BN17" s="4" t="s">
         <v>0</v>
       </c>
       <c r="BO17" s="4"/>
-      <c r="BP17" s="4" t="s">
-        <v>0</v>
+      <c r="BP17" s="4">
+        <v>94</v>
       </c>
       <c r="BQ17" s="4" t="s">
         <v>0</v>
       </c>
       <c r="BR17" s="4"/>
-      <c r="BS17" s="4" t="s">
-        <v>0</v>
+      <c r="BS17" s="4">
+        <v>97</v>
       </c>
       <c r="BT17" s="4" t="s">
         <v>0</v>
       </c>
       <c r="BU17" s="4"/>
-      <c r="BV17" s="4" t="s">
-        <v>0</v>
+      <c r="BV17" s="4">
+        <v>97</v>
       </c>
       <c r="BW17" s="4" t="s">
         <v>0</v>
       </c>
       <c r="BX17" s="4"/>
-      <c r="BY17" s="4" t="s">
-        <v>0</v>
+      <c r="BY17" s="4">
+        <v>94</v>
       </c>
       <c r="BZ17" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CA17" s="4"/>
-      <c r="CB17" s="4" t="s">
-        <v>0</v>
+      <c r="CB17" s="4">
+        <v>91</v>
       </c>
       <c r="CC17" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CD17" s="4"/>
-      <c r="CE17" s="4" t="s">
-        <v>0</v>
+      <c r="CE17" s="4">
+        <v>109</v>
       </c>
       <c r="CF17" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CG17" s="4"/>
-      <c r="CH17" s="4" t="s">
-        <v>0</v>
+      <c r="CH17" s="4">
+        <v>109</v>
       </c>
       <c r="CI17" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CJ17" s="4"/>
-      <c r="CK17" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="CL17" s="4" t="s">
-        <v>0</v>
+      <c r="CK17" s="4">
+        <v>98</v>
+      </c>
+      <c r="CL17" s="4">
+        <v>1</v>
       </c>
       <c r="CM17" s="4"/>
-      <c r="CN17" s="4" t="s">
-        <v>0</v>
+      <c r="CN17" s="4">
+        <v>50</v>
       </c>
       <c r="CO17" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CP17" s="4"/>
-      <c r="CQ17" s="4" t="s">
-        <v>0</v>
+      <c r="CQ17" s="4">
+        <v>110</v>
       </c>
       <c r="CR17" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CS17" s="4"/>
-      <c r="CT17" s="4" t="s">
-        <v>0</v>
+      <c r="CT17" s="4">
+        <v>106</v>
       </c>
       <c r="CU17" s="4"/>
     </row>
@@ -16185,115 +16241,115 @@
         <v>22</v>
       </c>
       <c r="D21" s="237">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="E21" s="238">
         <v>6</v>
       </c>
       <c r="F21" s="239">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="G21" s="240">
-        <v>1073</v>
+        <v>1173</v>
       </c>
       <c r="H21" s="241">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I21" s="239">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="J21" s="240">
-        <v>1039</v>
+        <v>1133</v>
       </c>
       <c r="K21" s="241">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21" s="239">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="M21" s="240">
-        <v>1099</v>
+        <v>1196</v>
       </c>
       <c r="N21" s="241">
         <v>4</v>
       </c>
       <c r="O21" s="239">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="P21" s="240">
-        <v>1095</v>
+        <v>1192</v>
       </c>
       <c r="Q21" s="241">
         <v>7</v>
       </c>
       <c r="R21" s="239">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="S21" s="240">
-        <v>1071</v>
+        <v>1165</v>
       </c>
       <c r="T21" s="241">
         <v>11</v>
       </c>
       <c r="U21" s="239">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="V21" s="240">
-        <v>996</v>
+        <v>1087</v>
       </c>
       <c r="W21" s="241">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X21" s="239">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="Y21" s="240">
-        <v>1096</v>
+        <v>1205</v>
       </c>
       <c r="Z21" s="241">
         <v>8</v>
       </c>
       <c r="AA21" s="239">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="AB21" s="240">
-        <v>1042</v>
+        <v>1151</v>
       </c>
       <c r="AC21" s="241">
         <v>1</v>
       </c>
       <c r="AD21" s="239">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="AE21" s="240">
-        <v>1162</v>
+        <v>1260</v>
       </c>
       <c r="AF21" s="241">
         <v>12</v>
       </c>
       <c r="AG21" s="239">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="AH21" s="240">
-        <v>792</v>
+        <v>842</v>
       </c>
       <c r="AI21" s="241">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ21" s="239">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="AK21" s="240">
-        <v>1030</v>
+        <v>1140</v>
       </c>
       <c r="AL21" s="241">
         <v>5</v>
       </c>
       <c r="AM21" s="239">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="AN21" s="242">
-        <v>1079</v>
+        <v>1185</v>
       </c>
       <c r="AO21" s="48"/>
       <c r="AP21" s="49"/>
@@ -16304,62 +16360,62 @@
       <c r="BK21" s="4"/>
       <c r="BL21" s="4"/>
       <c r="BM21" s="4">
-        <v>1073</v>
+        <v>1173</v>
       </c>
       <c r="BN21" s="4"/>
       <c r="BO21" s="4"/>
       <c r="BP21" s="4">
-        <v>1039</v>
+        <v>1133</v>
       </c>
       <c r="BQ21" s="4"/>
       <c r="BR21" s="4"/>
       <c r="BS21" s="4">
-        <v>1099</v>
+        <v>1196</v>
       </c>
       <c r="BT21" s="4"/>
       <c r="BU21" s="4"/>
       <c r="BV21" s="4">
-        <v>1095</v>
+        <v>1192</v>
       </c>
       <c r="BW21" s="4"/>
       <c r="BX21" s="4"/>
       <c r="BY21" s="4">
-        <v>1071</v>
+        <v>1165</v>
       </c>
       <c r="BZ21" s="4"/>
       <c r="CA21" s="4"/>
       <c r="CB21" s="4">
-        <v>996</v>
+        <v>1087</v>
       </c>
       <c r="CC21" s="4"/>
       <c r="CD21" s="4"/>
       <c r="CE21" s="4">
-        <v>1096</v>
+        <v>1205</v>
       </c>
       <c r="CF21" s="4"/>
       <c r="CG21" s="4"/>
       <c r="CH21" s="4">
-        <v>1042</v>
+        <v>1151</v>
       </c>
       <c r="CI21" s="4"/>
       <c r="CJ21" s="4"/>
       <c r="CK21" s="4">
-        <v>1162</v>
+        <v>1260</v>
       </c>
       <c r="CL21" s="4"/>
       <c r="CM21" s="4"/>
       <c r="CN21" s="4">
-        <v>792</v>
+        <v>842</v>
       </c>
       <c r="CO21" s="4"/>
       <c r="CP21" s="4"/>
       <c r="CQ21" s="4">
-        <v>1030</v>
+        <v>1140</v>
       </c>
       <c r="CR21" s="4"/>
       <c r="CS21" s="4"/>
       <c r="CT21" s="4">
-        <v>1079</v>
+        <v>1185</v>
       </c>
       <c r="CU21" s="4"/>
     </row>
@@ -16370,112 +16426,112 @@
         <v>23</v>
       </c>
       <c r="E22" s="246">
-        <v>5.666666666666667</v>
+        <v>5.615384615384615</v>
       </c>
       <c r="F22" s="247">
-        <v>8.384615384615385</v>
+        <v>8.6428571428571423</v>
       </c>
       <c r="G22" s="248">
-        <v>89.416666666666671</v>
+        <v>90.230769230769226</v>
       </c>
       <c r="H22" s="249">
-        <v>7.2307692307692308</v>
+        <v>7.3571428571428568</v>
       </c>
       <c r="I22" s="247">
-        <v>8.8461538461538467</v>
+        <v>8.9285714285714288</v>
       </c>
       <c r="J22" s="248">
-        <v>86.583333333333329</v>
+        <v>87.15384615384616</v>
       </c>
       <c r="K22" s="249">
-        <v>4.833333333333333</v>
+        <v>5</v>
       </c>
       <c r="L22" s="247">
-        <v>8.6923076923076916</v>
+        <v>8.8571428571428577</v>
       </c>
       <c r="M22" s="248">
-        <v>91.583333333333329</v>
+        <v>92</v>
       </c>
       <c r="N22" s="249">
-        <v>5.7692307692307692</v>
+        <v>5.8571428571428568</v>
       </c>
       <c r="O22" s="247">
-        <v>9.2307692307692299</v>
+        <v>9.2857142857142865</v>
       </c>
       <c r="P22" s="248">
-        <v>91.25</v>
+        <v>91.692307692307693</v>
       </c>
       <c r="Q22" s="249">
-        <v>6.1538461538461542</v>
+        <v>6.3571428571428568</v>
       </c>
       <c r="R22" s="247">
-        <v>9</v>
+        <v>9.0714285714285712</v>
       </c>
       <c r="S22" s="248">
-        <v>89.25</v>
+        <v>89.615384615384613</v>
       </c>
       <c r="T22" s="249">
-        <v>7.083333333333333</v>
+        <v>7.384615384615385</v>
       </c>
       <c r="U22" s="247">
-        <v>7.9230769230769234</v>
+        <v>8</v>
       </c>
       <c r="V22" s="248">
-        <v>83</v>
+        <v>83.615384615384613</v>
       </c>
       <c r="W22" s="249">
-        <v>5.2307692307692308</v>
+        <v>5</v>
       </c>
       <c r="X22" s="247">
-        <v>8.9230769230769234</v>
+        <v>9.2142857142857135</v>
       </c>
       <c r="Y22" s="248">
-        <v>91.333333333333329</v>
+        <v>92.692307692307693</v>
       </c>
       <c r="Z22" s="249">
-        <v>6.7692307692307692</v>
+        <v>6.4285714285714288</v>
       </c>
       <c r="AA22" s="247">
-        <v>8.4615384615384617</v>
+        <v>8.7142857142857135</v>
       </c>
       <c r="AB22" s="248">
-        <v>86.833333333333329</v>
+        <v>88.538461538461533</v>
       </c>
       <c r="AC22" s="249">
-        <v>4.384615384615385</v>
+        <v>4.5</v>
       </c>
       <c r="AD22" s="247">
-        <v>9.5384615384615383</v>
+        <v>9.6428571428571423</v>
       </c>
       <c r="AE22" s="248">
-        <v>96.833333333333329</v>
+        <v>96.92307692307692</v>
       </c>
       <c r="AF22" s="249">
-        <v>8</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="AG22" s="247">
-        <v>6.4615384615384617</v>
+        <v>6.5</v>
       </c>
       <c r="AH22" s="248">
-        <v>66</v>
+        <v>64.769230769230774</v>
       </c>
       <c r="AI22" s="249">
-        <v>6.5</v>
+        <v>6.0769230769230766</v>
       </c>
       <c r="AJ22" s="247">
-        <v>7.8461538461538458</v>
+        <v>8.0714285714285712</v>
       </c>
       <c r="AK22" s="248">
-        <v>85.833333333333329</v>
+        <v>87.692307692307693</v>
       </c>
       <c r="AL22" s="249">
-        <v>6.7692307692307692</v>
+        <v>6.5714285714285712</v>
       </c>
       <c r="AM22" s="247">
-        <v>8.8461538461538467</v>
+        <v>9.0714285714285712</v>
       </c>
       <c r="AN22" s="250">
-        <v>89.916666666666671</v>
+        <v>91.15384615384616</v>
       </c>
       <c r="AO22" s="48"/>
       <c r="AP22" s="49"/>
@@ -16578,7 +16634,7 @@
       <c r="AG23" s="255"/>
       <c r="AH23" s="256"/>
       <c r="AI23" s="257">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ23" s="255"/>
       <c r="AK23" s="256"/>
@@ -16668,12 +16724,12 @@
       <c r="U24" s="108"/>
       <c r="V24" s="109"/>
       <c r="W24" s="75">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X24" s="108"/>
       <c r="Y24" s="109"/>
       <c r="Z24" s="75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA24" s="108"/>
       <c r="AB24" s="109"/>
@@ -16951,7 +17007,7 @@
       <c r="AD26" s="108"/>
       <c r="AE26" s="109"/>
       <c r="AF26" s="75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG26" s="108"/>
       <c r="AH26" s="109"/>
@@ -17232,24 +17288,24 @@
       <c r="CU28" s="4"/>
     </row>
     <row r="29" spans="2:99" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AT29" s="299" t="s">
+      <c r="AT29" s="301" t="s">
         <v>104</v>
       </c>
-      <c r="AU29" s="309"/>
-      <c r="AV29" s="309"/>
-      <c r="AW29" s="309"/>
-      <c r="AX29" s="309"/>
-      <c r="AY29" s="309"/>
-      <c r="AZ29" s="309"/>
-      <c r="BA29" s="309"/>
-      <c r="BB29" s="309"/>
-      <c r="BC29" s="309"/>
-      <c r="BD29" s="309"/>
-      <c r="BE29" s="309"/>
-      <c r="BF29" s="309"/>
-      <c r="BG29" s="309"/>
-      <c r="BH29" s="309"/>
-      <c r="BI29" s="310"/>
+      <c r="AU29" s="311"/>
+      <c r="AV29" s="311"/>
+      <c r="AW29" s="311"/>
+      <c r="AX29" s="311"/>
+      <c r="AY29" s="311"/>
+      <c r="AZ29" s="311"/>
+      <c r="BA29" s="311"/>
+      <c r="BB29" s="311"/>
+      <c r="BC29" s="311"/>
+      <c r="BD29" s="311"/>
+      <c r="BE29" s="311"/>
+      <c r="BF29" s="311"/>
+      <c r="BG29" s="311"/>
+      <c r="BH29" s="311"/>
+      <c r="BI29" s="312"/>
       <c r="BJ29" s="4"/>
       <c r="BK29" s="4"/>
       <c r="BL29" s="4">
@@ -17314,30 +17370,30 @@
       <c r="CU29" s="4"/>
     </row>
     <row r="30" spans="2:99" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AT30" s="311" t="s">
+      <c r="AT30" s="313" t="s">
         <v>3</v>
       </c>
-      <c r="AU30" s="314" t="s">
+      <c r="AU30" s="316" t="s">
         <v>36</v>
       </c>
-      <c r="AV30" s="317" t="s">
+      <c r="AV30" s="319" t="s">
         <v>37</v>
       </c>
-      <c r="AW30" s="318"/>
-      <c r="AX30" s="318"/>
-      <c r="AY30" s="318"/>
-      <c r="AZ30" s="318"/>
-      <c r="BA30" s="318"/>
-      <c r="BB30" s="319"/>
-      <c r="BC30" s="318" t="s">
+      <c r="AW30" s="320"/>
+      <c r="AX30" s="320"/>
+      <c r="AY30" s="320"/>
+      <c r="AZ30" s="320"/>
+      <c r="BA30" s="320"/>
+      <c r="BB30" s="321"/>
+      <c r="BC30" s="320" t="s">
         <v>38</v>
       </c>
-      <c r="BD30" s="318"/>
-      <c r="BE30" s="318"/>
-      <c r="BF30" s="318"/>
-      <c r="BG30" s="318"/>
-      <c r="BH30" s="318"/>
-      <c r="BI30" s="319"/>
+      <c r="BD30" s="320"/>
+      <c r="BE30" s="320"/>
+      <c r="BF30" s="320"/>
+      <c r="BG30" s="320"/>
+      <c r="BH30" s="320"/>
+      <c r="BI30" s="321"/>
       <c r="BJ30" s="4"/>
       <c r="BK30" s="4"/>
       <c r="BL30" s="4">
@@ -17402,40 +17458,40 @@
       <c r="CU30" s="4"/>
     </row>
     <row r="31" spans="2:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AT31" s="312"/>
-      <c r="AU31" s="315"/>
-      <c r="AV31" s="320" t="s">
+      <c r="AT31" s="314"/>
+      <c r="AU31" s="317"/>
+      <c r="AV31" s="322" t="s">
         <v>29</v>
       </c>
-      <c r="AW31" s="322" t="s">
+      <c r="AW31" s="324" t="s">
         <v>30</v>
       </c>
-      <c r="AX31" s="322" t="s">
+      <c r="AX31" s="324" t="s">
         <v>29</v>
       </c>
-      <c r="AY31" s="322" t="s">
+      <c r="AY31" s="324" t="s">
         <v>31</v>
       </c>
-      <c r="AZ31" s="322"/>
-      <c r="BA31" s="322" t="s">
+      <c r="AZ31" s="324"/>
+      <c r="BA31" s="324" t="s">
         <v>32</v>
       </c>
-      <c r="BB31" s="324"/>
-      <c r="BC31" s="326" t="s">
+      <c r="BB31" s="326"/>
+      <c r="BC31" s="328" t="s">
         <v>33</v>
       </c>
-      <c r="BD31" s="322" t="s">
+      <c r="BD31" s="324" t="s">
         <v>30</v>
       </c>
-      <c r="BE31" s="322"/>
-      <c r="BF31" s="322" t="s">
+      <c r="BE31" s="324"/>
+      <c r="BF31" s="324" t="s">
         <v>34</v>
       </c>
-      <c r="BG31" s="322"/>
-      <c r="BH31" s="322" t="s">
+      <c r="BG31" s="324"/>
+      <c r="BH31" s="324" t="s">
         <v>35</v>
       </c>
-      <c r="BI31" s="324"/>
+      <c r="BI31" s="326"/>
       <c r="BJ31" s="4"/>
       <c r="BK31" s="4"/>
       <c r="BL31" s="4">
@@ -17500,22 +17556,22 @@
       <c r="CU31" s="4"/>
     </row>
     <row r="32" spans="2:99" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AT32" s="313"/>
-      <c r="AU32" s="316"/>
-      <c r="AV32" s="321"/>
-      <c r="AW32" s="323"/>
-      <c r="AX32" s="323"/>
-      <c r="AY32" s="323"/>
-      <c r="AZ32" s="323"/>
-      <c r="BA32" s="323"/>
-      <c r="BB32" s="325"/>
-      <c r="BC32" s="327"/>
-      <c r="BD32" s="323"/>
-      <c r="BE32" s="323"/>
-      <c r="BF32" s="323"/>
-      <c r="BG32" s="323"/>
-      <c r="BH32" s="323"/>
-      <c r="BI32" s="325"/>
+      <c r="AT32" s="315"/>
+      <c r="AU32" s="318"/>
+      <c r="AV32" s="323"/>
+      <c r="AW32" s="325"/>
+      <c r="AX32" s="325"/>
+      <c r="AY32" s="325"/>
+      <c r="AZ32" s="325"/>
+      <c r="BA32" s="325"/>
+      <c r="BB32" s="327"/>
+      <c r="BC32" s="329"/>
+      <c r="BD32" s="325"/>
+      <c r="BE32" s="325"/>
+      <c r="BF32" s="325"/>
+      <c r="BG32" s="325"/>
+      <c r="BH32" s="325"/>
+      <c r="BI32" s="327"/>
       <c r="BJ32" s="4"/>
       <c r="BK32" s="4"/>
       <c r="BL32" s="4">
@@ -17587,7 +17643,7 @@
         <v>124</v>
       </c>
       <c r="AV33" s="273">
-        <v>-39</v>
+        <v>-42</v>
       </c>
       <c r="AW33" s="274">
         <v>4</v>
@@ -17599,7 +17655,7 @@
         <v>61</v>
       </c>
       <c r="AZ33" s="275">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="BA33" s="277" t="s">
         <v>0</v>
@@ -17682,10 +17738,10 @@
         <v>97</v>
       </c>
       <c r="AU34" s="280">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="AV34" s="281">
-        <v>-39</v>
+        <v>-42</v>
       </c>
       <c r="AW34" s="282">
         <v>2</v>
@@ -17700,10 +17756,10 @@
         <v>0</v>
       </c>
       <c r="BA34" s="285" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB34" s="286" t="s">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="BB34" s="286">
+        <v>28</v>
       </c>
       <c r="BC34" s="287"/>
       <c r="BD34" s="282"/>
@@ -17776,20 +17832,20 @@
       <c r="CU34" s="4"/>
     </row>
     <row r="35" spans="46:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AT35" s="271" t="s">
-        <v>93</v>
+      <c r="AT35" s="297" t="s">
+        <v>101</v>
       </c>
       <c r="AU35" s="280">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AV35" s="281">
-        <v>-39</v>
+        <v>-42</v>
       </c>
       <c r="AW35" s="282">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX35" s="283">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="AY35" s="284" t="s">
         <v>0</v>
@@ -17798,10 +17854,10 @@
         <v>0</v>
       </c>
       <c r="BA35" s="285" t="s">
-        <v>61</v>
-      </c>
-      <c r="BB35" s="286">
-        <v>26</v>
+        <v>0</v>
+      </c>
+      <c r="BB35" s="286" t="s">
+        <v>0</v>
       </c>
       <c r="BC35" s="287"/>
       <c r="BD35" s="282"/>
@@ -17878,10 +17934,10 @@
         <v>92</v>
       </c>
       <c r="AU36" s="280">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="AV36" s="281">
-        <v>-39</v>
+        <v>-42</v>
       </c>
       <c r="AW36" s="282">
         <v>1</v>
@@ -17973,13 +18029,13 @@
     </row>
     <row r="37" spans="46:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AT37" s="271" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AU37" s="280">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="AV37" s="281">
-        <v>-39</v>
+        <v>-42</v>
       </c>
       <c r="AW37" s="282">
         <v>1</v>
@@ -18008,76 +18064,76 @@
       <c r="BI37" s="286"/>
       <c r="BJ37" s="4"/>
       <c r="BK37" s="4"/>
-      <c r="BL37" s="4" t="s">
-        <v>0</v>
+      <c r="BL37" s="4">
+        <v>12</v>
       </c>
       <c r="BM37" s="4"/>
       <c r="BN37" s="4"/>
-      <c r="BO37" s="4" t="s">
-        <v>0</v>
+      <c r="BO37" s="4">
+        <v>10</v>
       </c>
       <c r="BP37" s="4"/>
       <c r="BQ37" s="4"/>
-      <c r="BR37" s="4" t="s">
-        <v>0</v>
+      <c r="BR37" s="4">
+        <v>11</v>
       </c>
       <c r="BS37" s="4"/>
       <c r="BT37" s="4"/>
-      <c r="BU37" s="4" t="s">
-        <v>0</v>
+      <c r="BU37" s="4">
+        <v>10</v>
       </c>
       <c r="BV37" s="4"/>
       <c r="BW37" s="4"/>
-      <c r="BX37" s="4" t="s">
-        <v>0</v>
+      <c r="BX37" s="4">
+        <v>10</v>
       </c>
       <c r="BY37" s="4"/>
       <c r="BZ37" s="4"/>
-      <c r="CA37" s="4" t="s">
-        <v>0</v>
+      <c r="CA37" s="4">
+        <v>9</v>
       </c>
       <c r="CB37" s="4"/>
       <c r="CC37" s="4"/>
-      <c r="CD37" s="4" t="s">
-        <v>0</v>
+      <c r="CD37" s="4">
+        <v>13</v>
       </c>
       <c r="CE37" s="4"/>
       <c r="CF37" s="4"/>
-      <c r="CG37" s="4" t="s">
-        <v>0</v>
+      <c r="CG37" s="4">
+        <v>12</v>
       </c>
       <c r="CH37" s="4"/>
       <c r="CI37" s="4"/>
-      <c r="CJ37" s="4" t="s">
-        <v>0</v>
+      <c r="CJ37" s="4">
+        <v>11</v>
       </c>
       <c r="CK37" s="4"/>
       <c r="CL37" s="4"/>
-      <c r="CM37" s="4" t="s">
-        <v>0</v>
+      <c r="CM37" s="4">
+        <v>7</v>
       </c>
       <c r="CN37" s="4"/>
       <c r="CO37" s="4"/>
-      <c r="CP37" s="4" t="s">
-        <v>0</v>
+      <c r="CP37" s="4">
+        <v>11</v>
       </c>
       <c r="CQ37" s="4"/>
       <c r="CR37" s="4"/>
-      <c r="CS37" s="4" t="s">
-        <v>0</v>
+      <c r="CS37" s="4">
+        <v>12</v>
       </c>
       <c r="CT37" s="4"/>
       <c r="CU37" s="4"/>
     </row>
     <row r="38" spans="46:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AT38" s="271" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AU38" s="280">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="AV38" s="281">
-        <v>-39</v>
+        <v>-42</v>
       </c>
       <c r="AW38" s="282">
         <v>1</v>
@@ -18169,13 +18225,13 @@
     </row>
     <row r="39" spans="46:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AT39" s="271" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AU39" s="280">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="AV39" s="281">
-        <v>-39</v>
+        <v>-42</v>
       </c>
       <c r="AW39" s="282">
         <v>1</v>
@@ -18266,14 +18322,14 @@
       <c r="CU39" s="4"/>
     </row>
     <row r="40" spans="46:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AT40" s="328" t="s">
-        <v>101</v>
+      <c r="AT40" s="271" t="s">
+        <v>100</v>
       </c>
       <c r="AU40" s="280">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="AV40" s="281">
-        <v>-39</v>
+        <v>-42</v>
       </c>
       <c r="AW40" s="282">
         <v>1</v>
@@ -18368,10 +18424,10 @@
         <v>102</v>
       </c>
       <c r="AU41" s="280">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="AV41" s="281">
-        <v>-39</v>
+        <v>-42</v>
       </c>
       <c r="AW41" s="282">
         <v>1</v>
@@ -18401,62 +18457,62 @@
       <c r="BJ41" s="4"/>
       <c r="BK41" s="4"/>
       <c r="BL41" s="4">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="BM41" s="4"/>
       <c r="BN41" s="4"/>
       <c r="BO41" s="4">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="BP41" s="4"/>
       <c r="BQ41" s="4"/>
       <c r="BR41" s="4">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="BS41" s="4"/>
       <c r="BT41" s="4"/>
       <c r="BU41" s="4">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="BV41" s="4"/>
       <c r="BW41" s="4"/>
       <c r="BX41" s="4">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="BY41" s="4"/>
       <c r="BZ41" s="4"/>
       <c r="CA41" s="4">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="CB41" s="4"/>
       <c r="CC41" s="4"/>
       <c r="CD41" s="4">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="CE41" s="4"/>
       <c r="CF41" s="4"/>
       <c r="CG41" s="4">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="CH41" s="4"/>
       <c r="CI41" s="4"/>
       <c r="CJ41" s="4">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="CK41" s="4"/>
       <c r="CL41" s="4"/>
       <c r="CM41" s="4">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="CN41" s="4"/>
       <c r="CO41" s="4"/>
       <c r="CP41" s="4">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="CQ41" s="4"/>
       <c r="CR41" s="4"/>
       <c r="CS41" s="4">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="CT41" s="4"/>
       <c r="CU41" s="4"/>
@@ -18466,10 +18522,10 @@
         <v>91</v>
       </c>
       <c r="AU42" s="280">
-        <v>-39</v>
+        <v>-42</v>
       </c>
       <c r="AV42" s="281">
-        <v>-39</v>
+        <v>-42</v>
       </c>
       <c r="AW42" s="282" t="s">
         <v>0</v>
@@ -18498,62 +18554,62 @@
       <c r="BI42" s="286"/>
       <c r="BJ42" s="50"/>
       <c r="BK42" s="50">
-        <v>5.666666666666667</v>
+        <v>5.615384615384615</v>
       </c>
       <c r="BL42" s="50"/>
       <c r="BM42" s="50"/>
       <c r="BN42" s="50">
-        <v>7.2307692307692308</v>
+        <v>7.3571428571428568</v>
       </c>
       <c r="BO42" s="50"/>
       <c r="BP42" s="50"/>
       <c r="BQ42" s="50">
-        <v>4.833333333333333</v>
+        <v>5</v>
       </c>
       <c r="BR42" s="50"/>
       <c r="BS42" s="50"/>
       <c r="BT42" s="50">
-        <v>5.7692307692307692</v>
+        <v>5.8571428571428568</v>
       </c>
       <c r="BU42" s="50"/>
       <c r="BV42" s="50"/>
       <c r="BW42" s="50">
-        <v>6.1538461538461542</v>
+        <v>6.3571428571428568</v>
       </c>
       <c r="BX42" s="50"/>
       <c r="BY42" s="50"/>
       <c r="BZ42" s="50">
-        <v>7.083333333333333</v>
+        <v>7.384615384615385</v>
       </c>
       <c r="CA42" s="50"/>
       <c r="CB42" s="50"/>
       <c r="CC42" s="50">
-        <v>5.2307692307692308</v>
+        <v>5</v>
       </c>
       <c r="CD42" s="50"/>
       <c r="CE42" s="50"/>
       <c r="CF42" s="50">
-        <v>6.7692307692307692</v>
+        <v>6.4285714285714288</v>
       </c>
       <c r="CG42" s="50"/>
       <c r="CH42" s="50"/>
       <c r="CI42" s="50">
-        <v>4.384615384615385</v>
+        <v>4.5</v>
       </c>
       <c r="CJ42" s="50"/>
       <c r="CK42" s="50"/>
       <c r="CL42" s="50">
-        <v>8</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="CM42" s="50"/>
       <c r="CN42" s="50"/>
       <c r="CO42" s="50">
-        <v>6.5</v>
+        <v>6.0769230769230766</v>
       </c>
       <c r="CP42" s="50"/>
       <c r="CQ42" s="50"/>
       <c r="CR42" s="50">
-        <v>6.7692307692307692</v>
+        <v>6.5714285714285712</v>
       </c>
       <c r="CS42" s="50"/>
       <c r="CT42" s="50"/>
@@ -18564,10 +18620,10 @@
         <v>94</v>
       </c>
       <c r="AU43" s="280">
-        <v>-39</v>
+        <v>-42</v>
       </c>
       <c r="AV43" s="281">
-        <v>-39</v>
+        <v>-42</v>
       </c>
       <c r="AW43" s="282" t="s">
         <v>0</v>
@@ -18596,14 +18652,14 @@
       <c r="BI43" s="286"/>
     </row>
     <row r="44" spans="46:99" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AT44" s="329" t="s">
+      <c r="AT44" s="298" t="s">
         <v>96</v>
       </c>
       <c r="AU44" s="288">
-        <v>-39</v>
+        <v>-42</v>
       </c>
       <c r="AV44" s="289">
-        <v>-39</v>
+        <v>-42</v>
       </c>
       <c r="AW44" s="290" t="s">
         <v>0</v>

--- a/regular_season_final.xlsx
+++ b/regular_season_final.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="177">
   <si>
     <t/>
   </si>
@@ -449,112 +449,112 @@
     <t>Jets</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Week 14 Scores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w14_p1_picks         = ["H","V","H","V","H","H","V","H","V","H","H","H","V","V","V","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w14_p2_picks         = ["V","H","H","V","H","H","V","H","V","H","V","V","H","H","V","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w14_p3_picks         = ["H","V","H","V","H","H","V","H","V","H","V","H","V","V","V","H"];</t>
-  </si>
-  <si>
     <t>Browns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w14_p4_picks         = ["H","V","H","V","H","H","V","H","H","V","H","H","V","V","V","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w14_p5_picks         = ["V","V","H","V","H","H","V","H","H","H","H","H","V","V","V","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w14_p6_picks         = ["V","V","V","V","H","H","V","H","V","H","V","H","V","V","V","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w14_p7_picks         = ["H","V","V","V","H","H","V","H","V","H","H","V","V","V","H","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w14_p8_picks         = ["H","V","V","V","H","H","V","H","V","H","V","V","H","V","V","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w14_p9_picks         = ["V","V","H","V","H","H","V","H","V","H","V","H","H","V","V","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w14_p10_picks        = ["H","H","H","V","V","V","H","V","H","V","H","V","V","V","V","V"];</t>
   </si>
   <si>
     <t>Titans</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w14_p11_picks        = ["H","V","V","V","H","H","V","H","H","H","H","V","V","V","V","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w14_p12_picks        = ["V","V","H","V","H","H","V","H","V","H","V","V","H","V","V","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w14_p1_weights       = ["10","5","2","13","16","14","11","4","1","8","3","7","6","12","9","15"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w14_p2_weights       = ["1","10","13","9","11","12","4","7","15","6","14","5","8","3","2","16"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w14_p3_weights       = ["10","5","2","13","16","14","11","4","1","8","3","7","6","12","9","15"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w14_p4_weights       = ["10","8","5","13","16","14","11","4","1","2","3","7","9","12","6","15"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w14_p5_weights       = ["1","7","2","16","12","10","11","13","9","6","8","3","4","14","15","5"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w14_p6_weights       = ["3","14","5","13","15","12","16","2","11","7","8","1","6","4","10","9"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w14_p7_weights       = ["3","16","6","10","14","9","7","2","11","4","8","1","12","13","5","15"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w14_p8_weights       = ["10","9","7","13","15","12","11","4","5","8","6","3","1","14","2","16"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w14_p9_weights       = ["5","7","1","14","16","12","11","2","10","6","8","4","3","13","9","15"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w14_p10_weights      = ["1","14","11","6","9","7","10","13","15","16","12","8","4","5","3","2"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w14_p11_weights      = ["16","5","3","13","15","6","11","12","1","8","4","2","7","14","9","10"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w14_p12_weights      = ["3","14","2","16","10","7","13","8","6","4","11","1","5","15","9","12"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w14_winners          = ["H","V","H","V","H","V","V","H","V","H","H","V","H","V","H","H"];</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w14_mn_points        = ["44","48","45","42","51","45","38","42","50","60","48","52"];</t>
+    <t>15</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w14_actual_mn_points = 0;</t>
+    <t>Week 15 Scores</t>
   </si>
   <si>
-    <t>Week 14 Final</t>
+    <t xml:space="preserve">   var w15_p1_picks         = ["H","V","H","H","V","H","H","H","H","V","H","H","V","V","V","V"];</t>
   </si>
   <si>
-    <t>'Week 14'!$B$2</t>
+    <t xml:space="preserve">   var w15_p2_picks         = ["H","H","H","H","V","H","H","H","H","H","H","H","V","V","V","H"];</t>
   </si>
   <si>
-    <t>'Week 14'!$C$2</t>
+    <t xml:space="preserve">   var w15_p3_picks         = ["H","V","H","H","V","H","H","H","H","H","H","H","V","V","V","H"];</t>
   </si>
   <si>
-    <t>'Week 14'!$D$2</t>
+    <t xml:space="preserve">   var w15_p4_picks         = ["H","V","H","H","V","H","H","H","H","H","V","H","V","V","V","H"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w15_p5_picks         = ["H","V","H","H","V","V","H","H","H","H","H","H","V","V","V","H"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w15_p6_picks         = ["H","V","H","H","V","H","H","H","H","H","V","H","V","V","V","H"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w15_p7_picks         = ["H","V","V","H","V","H","H","H","V","V","V","H","H","H","V","H"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w15_p8_picks         = ["H","V","H","H","V","H","H","H","H","H","V","H","V","V","H","H"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w15_p9_picks         = ["H","V","H","H","V","V","H","H","H","H","H","H","V","V","V","H"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w15_p10_picks        = ["H","H","V","H","H","H","V","H","V","H","V","V","H","V","H","V"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w15_p11_picks        = ["H","V","H","H","V","H","H","H","H","H","H","H","V","H","V","V"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w15_p12_picks        = ["H","V","H","H","V","H","H","H","H","H","H","H","V","V","V","H"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w15_p1_weights       = ["16","1","11","14","12","13","10","8","6","3","2","15","9","4","7","5"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w15_p2_weights       = ["16","15","14","13","6","11","4","10","9","8","7","12","3","2","5","1"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w15_p3_weights       = ["16","1","11","14","12","13","10","8","6","7","2","15","5","4","3","9"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w15_p4_weights       = ["16","1","11","14","9","13","10","8","6","7","2","15","5","4","3","12"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w15_p5_weights       = ["16","10","9","8","11","1","5","4","3","12","2","13","7","14","15","6"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w15_p6_weights       = ["8","3","13","12","10","7","9","11","5","4","2","16","15","6","14","1"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w15_p7_weights       = ["13","11","3","12","9","8","14","10","6","5","7","15","4","2","16","1"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w15_p8_weights       = ["15","3","7","14","11","13","12","10","4","9","1","16","6","5","2","8"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w15_p9_weights       = ["16","9","2","13","12","1","11","10","7","5","4","15","14","6","8","3"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w15_p10_weights      = ["12","5","3","13","4","14","7","10","8","15","9","2","1","16","6","11"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w15_p11_weights      = ["15","1","10","13","11","12","9","16","6","7","2","14","5","4","3","8"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w15_p12_weights      = ["12","3","7","15","11","1","14","16","9","2","4","13","8","10","5","6"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w15_winners          = ["H","V","H","H","V","H","H","V","V","H","V","H","V","V","V","V"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w15_mn_points        = ["51","48","51","42","37","54","38","54","50","52","54","24"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w15_actual_mn_points = 0;</t>
+  </si>
+  <si>
+    <t>Week 15 Final</t>
+  </si>
+  <si>
+    <t>'Week 15'!$B$2</t>
+  </si>
+  <si>
+    <t>'Week 15'!$C$2</t>
+  </si>
+  <si>
+    <t>'Week 15'!$D$2</t>
   </si>
 </sst>
 </file>
@@ -4130,13 +4130,13 @@
     <xf numFmtId="165" fontId="2" fillId="3" borderId="176" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="169" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="172" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="169" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="172" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5196,8 +5196,8 @@
       <c r="B2" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="296" t="s">
-        <v>141</v>
+      <c r="C2" s="298" t="s">
+        <v>144</v>
       </c>
       <c r="D2" s="112" t="s">
         <v>105</v>
@@ -5207,56 +5207,56 @@
         <v>91</v>
       </c>
       <c r="G2" s="115">
-        <v>-42</v>
+        <v>-45</v>
       </c>
       <c r="H2" s="116"/>
       <c r="I2" s="114" t="s">
         <v>92</v>
       </c>
       <c r="J2" s="115">
-        <v>-11</v>
+        <v>-14</v>
       </c>
       <c r="K2" s="116"/>
       <c r="L2" s="114" t="s">
         <v>93</v>
       </c>
       <c r="M2" s="115">
-        <v>-11</v>
+        <v>-14</v>
       </c>
       <c r="N2" s="116"/>
       <c r="O2" s="114" t="s">
         <v>94</v>
       </c>
       <c r="P2" s="115">
-        <v>-42</v>
+        <v>-45</v>
       </c>
       <c r="Q2" s="116"/>
       <c r="R2" s="114" t="s">
         <v>95</v>
       </c>
       <c r="S2" s="115">
-        <v>-11</v>
+        <v>17</v>
       </c>
       <c r="T2" s="116"/>
       <c r="U2" s="114" t="s">
         <v>96</v>
       </c>
       <c r="V2" s="115">
-        <v>-42</v>
+        <v>-45</v>
       </c>
       <c r="W2" s="116"/>
       <c r="X2" s="114" t="s">
         <v>97</v>
       </c>
       <c r="Y2" s="115">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z2" s="116"/>
       <c r="AA2" s="114" t="s">
         <v>98</v>
       </c>
       <c r="AB2" s="115">
-        <v>-11</v>
+        <v>-14</v>
       </c>
       <c r="AC2" s="116"/>
       <c r="AD2" s="114" t="s">
@@ -5270,21 +5270,21 @@
         <v>100</v>
       </c>
       <c r="AH2" s="115">
-        <v>-11</v>
+        <v>-14</v>
       </c>
       <c r="AI2" s="116"/>
       <c r="AJ2" s="114" t="s">
         <v>101</v>
       </c>
       <c r="AK2" s="115">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AL2" s="116"/>
       <c r="AM2" s="114" t="s">
         <v>102</v>
       </c>
       <c r="AN2" s="115">
-        <v>-11</v>
+        <v>-14</v>
       </c>
       <c r="AO2" s="117"/>
       <c r="AP2" s="3"/>
@@ -5303,7 +5303,7 @@
       <c r="AV2" s="306"/>
       <c r="AW2" s="3"/>
       <c r="BE2" s="301" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="BF2" s="302"/>
       <c r="BG2" s="303"/>
@@ -5455,7 +5455,7 @@
       </c>
       <c r="AP3" s="3"/>
       <c r="AR3" s="11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS3" s="9" t="s">
         <v>52</v>
@@ -5523,13 +5523,13 @@
     </row>
     <row r="4" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="180" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C4" s="181" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="181" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E4" s="182" t="s">
         <v>60</v>
@@ -5538,25 +5538,25 @@
         <v>60</v>
       </c>
       <c r="G4" s="184">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H4" s="185" t="s">
         <v>0</v>
       </c>
       <c r="I4" s="186" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="J4" s="184">
-        <v>1</v>
-      </c>
-      <c r="K4" s="185">
-        <v>-1</v>
+        <v>16</v>
+      </c>
+      <c r="K4" s="185" t="s">
+        <v>0</v>
       </c>
       <c r="L4" s="186" t="s">
         <v>60</v>
       </c>
       <c r="M4" s="184">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N4" s="185" t="s">
         <v>0</v>
@@ -5565,34 +5565,34 @@
         <v>60</v>
       </c>
       <c r="P4" s="184">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="Q4" s="185" t="s">
         <v>0</v>
       </c>
       <c r="R4" s="186" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="S4" s="184">
-        <v>1</v>
-      </c>
-      <c r="T4" s="185">
-        <v>-1</v>
+        <v>16</v>
+      </c>
+      <c r="T4" s="185" t="s">
+        <v>0</v>
       </c>
       <c r="U4" s="186" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="V4" s="184">
-        <v>3</v>
-      </c>
-      <c r="W4" s="185">
-        <v>-3</v>
+        <v>8</v>
+      </c>
+      <c r="W4" s="185" t="s">
+        <v>0</v>
       </c>
       <c r="X4" s="186" t="s">
         <v>60</v>
       </c>
       <c r="Y4" s="184">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="Z4" s="185" t="s">
         <v>0</v>
@@ -5601,25 +5601,25 @@
         <v>60</v>
       </c>
       <c r="AB4" s="184">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AC4" s="185" t="s">
         <v>0</v>
       </c>
       <c r="AD4" s="186" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AE4" s="184">
-        <v>5</v>
-      </c>
-      <c r="AF4" s="185">
-        <v>-5</v>
+        <v>16</v>
+      </c>
+      <c r="AF4" s="185" t="s">
+        <v>0</v>
       </c>
       <c r="AG4" s="186" t="s">
         <v>60</v>
       </c>
       <c r="AH4" s="184">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AI4" s="185" t="s">
         <v>0</v>
@@ -5628,40 +5628,40 @@
         <v>60</v>
       </c>
       <c r="AK4" s="184">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL4" s="185" t="s">
         <v>0</v>
       </c>
       <c r="AM4" s="186" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AN4" s="184">
-        <v>3</v>
-      </c>
-      <c r="AO4" s="187">
-        <v>-3</v>
+        <v>12</v>
+      </c>
+      <c r="AO4" s="187" t="s">
+        <v>0</v>
       </c>
       <c r="AT4" s="188" t="s">
         <v>60</v>
       </c>
       <c r="AU4" s="184">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AV4" s="187" t="s">
         <v>0</v>
       </c>
       <c r="AX4" s="4">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="AY4" s="4">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="AZ4" s="4">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="BA4" s="4">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="BB4" s="4">
         <v>1</v>
@@ -5673,10 +5673,10 @@
         <v>1</v>
       </c>
       <c r="BF4" s="60" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="BG4" s="61">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BH4" s="189"/>
       <c r="BI4" s="62">
@@ -5686,10 +5686,10 @@
         <v>99</v>
       </c>
       <c r="BK4" s="64">
-        <v>96.92307692307692</v>
+        <v>97.928571428571431</v>
       </c>
       <c r="BL4" s="65">
-        <v>1260</v>
+        <v>1371</v>
       </c>
       <c r="BM4" s="172"/>
       <c r="BN4" s="66">
@@ -5702,7 +5702,7 @@
         <v>124</v>
       </c>
       <c r="BQ4" s="69">
-        <v>-42</v>
+        <v>-45</v>
       </c>
       <c r="BR4" s="70">
         <v>4</v>
@@ -5714,7 +5714,7 @@
         <v>61</v>
       </c>
       <c r="BU4" s="71">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="BV4" s="72" t="s">
         <v>0</v>
@@ -5723,18 +5723,18 @@
         <v>0</v>
       </c>
       <c r="BY4" s="12" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="190" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C5" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="191" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E5" s="192" t="s">
         <v>88</v>
@@ -5743,7 +5743,7 @@
         <v>88</v>
       </c>
       <c r="G5" s="194">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H5" s="195" t="s">
         <v>0</v>
@@ -5752,16 +5752,16 @@
         <v>60</v>
       </c>
       <c r="J5" s="194">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K5" s="195">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="L5" s="196" t="s">
         <v>88</v>
       </c>
       <c r="M5" s="194">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N5" s="195" t="s">
         <v>0</v>
@@ -5770,7 +5770,7 @@
         <v>88</v>
       </c>
       <c r="P5" s="194">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="195" t="s">
         <v>0</v>
@@ -5779,7 +5779,7 @@
         <v>88</v>
       </c>
       <c r="S5" s="194">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T5" s="195" t="s">
         <v>0</v>
@@ -5788,7 +5788,7 @@
         <v>88</v>
       </c>
       <c r="V5" s="194">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="W5" s="195" t="s">
         <v>0</v>
@@ -5797,7 +5797,7 @@
         <v>88</v>
       </c>
       <c r="Y5" s="194">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Z5" s="195" t="s">
         <v>0</v>
@@ -5806,7 +5806,7 @@
         <v>88</v>
       </c>
       <c r="AB5" s="194">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AC5" s="195" t="s">
         <v>0</v>
@@ -5815,7 +5815,7 @@
         <v>88</v>
       </c>
       <c r="AE5" s="194">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AF5" s="195" t="s">
         <v>0</v>
@@ -5824,16 +5824,16 @@
         <v>60</v>
       </c>
       <c r="AH5" s="194">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AI5" s="195">
-        <v>-14</v>
+        <v>-5</v>
       </c>
       <c r="AJ5" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AK5" s="194">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AL5" s="195" t="s">
         <v>0</v>
@@ -5842,7 +5842,7 @@
         <v>88</v>
       </c>
       <c r="AN5" s="194">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="AO5" s="197" t="s">
         <v>0</v>
@@ -5853,22 +5853,22 @@
         <v>88</v>
       </c>
       <c r="AU5" s="194">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AV5" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX5" s="4">
-        <v>-66</v>
+        <v>-23</v>
       </c>
       <c r="AY5" s="4">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="AZ5" s="4">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="BA5" s="4">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="BB5" s="4">
         <v>2</v>
@@ -5880,10 +5880,10 @@
         <v>2</v>
       </c>
       <c r="BF5" s="77" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BG5" s="78">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="BH5" s="189"/>
       <c r="BI5" s="79">
@@ -5893,10 +5893,10 @@
         <v>97</v>
       </c>
       <c r="BK5" s="81">
-        <v>92.692307692307693</v>
+        <v>94</v>
       </c>
       <c r="BL5" s="82">
-        <v>1205</v>
+        <v>1316</v>
       </c>
       <c r="BM5" s="172"/>
       <c r="BN5" s="79">
@@ -5906,10 +5906,10 @@
         <v>97</v>
       </c>
       <c r="BP5" s="83">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BQ5" s="84">
-        <v>-42</v>
+        <v>-45</v>
       </c>
       <c r="BR5" s="85">
         <v>2</v>
@@ -5927,21 +5927,21 @@
         <v>61</v>
       </c>
       <c r="BW5" s="88">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BY5" s="12" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="190" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="C6" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="191" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E6" s="192" t="s">
         <v>60</v>
@@ -5950,7 +5950,7 @@
         <v>60</v>
       </c>
       <c r="G6" s="194">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H6" s="195" t="s">
         <v>0</v>
@@ -5959,7 +5959,7 @@
         <v>60</v>
       </c>
       <c r="J6" s="194">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K6" s="195" t="s">
         <v>0</v>
@@ -5968,7 +5968,7 @@
         <v>60</v>
       </c>
       <c r="M6" s="194">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="N6" s="195" t="s">
         <v>0</v>
@@ -5977,7 +5977,7 @@
         <v>60</v>
       </c>
       <c r="P6" s="194">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="195" t="s">
         <v>0</v>
@@ -5986,70 +5986,70 @@
         <v>60</v>
       </c>
       <c r="S6" s="194">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="T6" s="195" t="s">
         <v>0</v>
       </c>
       <c r="U6" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="V6" s="194">
-        <v>5</v>
-      </c>
-      <c r="W6" s="195">
-        <v>-5</v>
+        <v>13</v>
+      </c>
+      <c r="W6" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="X6" s="196" t="s">
         <v>88</v>
       </c>
       <c r="Y6" s="194">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Z6" s="195">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="AA6" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AB6" s="194">
         <v>7</v>
       </c>
-      <c r="AC6" s="195">
-        <v>-7</v>
+      <c r="AC6" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AD6" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AE6" s="194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF6" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AG6" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH6" s="194">
+        <v>3</v>
+      </c>
+      <c r="AI6" s="195">
+        <v>-3</v>
+      </c>
+      <c r="AJ6" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="AH6" s="194">
-        <v>11</v>
-      </c>
-      <c r="AI6" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="196" t="s">
-        <v>88</v>
-      </c>
       <c r="AK6" s="194">
-        <v>3</v>
-      </c>
-      <c r="AL6" s="195">
-        <v>-3</v>
+        <v>10</v>
+      </c>
+      <c r="AL6" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AM6" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AN6" s="194">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AO6" s="197" t="s">
         <v>0</v>
@@ -6060,22 +6060,22 @@
         <v>60</v>
       </c>
       <c r="AU6" s="194">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AV6" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX6" s="4">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="AY6" s="4">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="AZ6" s="4">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="BA6" s="4">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="BB6" s="4">
         <v>3</v>
@@ -6084,13 +6084,13 @@
         <v>1</v>
       </c>
       <c r="BE6" s="76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BF6" s="77" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="BG6" s="78">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="BH6" s="189"/>
       <c r="BI6" s="79">
@@ -6100,23 +6100,23 @@
         <v>93</v>
       </c>
       <c r="BK6" s="81">
-        <v>92</v>
+        <v>93.357142857142861</v>
       </c>
       <c r="BL6" s="82">
-        <v>1196</v>
+        <v>1307</v>
       </c>
       <c r="BM6" s="172"/>
       <c r="BN6" s="79">
         <v>3</v>
       </c>
       <c r="BO6" s="80" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="BP6" s="83">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BQ6" s="84">
-        <v>-42</v>
+        <v>-45</v>
       </c>
       <c r="BR6" s="85">
         <v>2</v>
@@ -6137,114 +6137,114 @@
         <v>0</v>
       </c>
       <c r="BY6" s="12" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="190" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C7" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="191" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E7" s="192" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F7" s="193" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="G7" s="194">
+        <v>14</v>
+      </c>
+      <c r="H7" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" s="194">
         <v>13</v>
       </c>
-      <c r="H7" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="J7" s="194">
-        <v>9</v>
-      </c>
       <c r="K7" s="195" t="s">
         <v>0</v>
       </c>
       <c r="L7" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="M7" s="194">
+        <v>14</v>
+      </c>
+      <c r="N7" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" s="194">
+        <v>14</v>
+      </c>
+      <c r="Q7" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="R7" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="S7" s="194">
+        <v>8</v>
+      </c>
+      <c r="T7" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="U7" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="V7" s="194">
+        <v>12</v>
+      </c>
+      <c r="W7" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="X7" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y7" s="194">
+        <v>12</v>
+      </c>
+      <c r="Z7" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB7" s="194">
+        <v>14</v>
+      </c>
+      <c r="AC7" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE7" s="194">
         <v>13</v>
       </c>
-      <c r="N7" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="O7" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="P7" s="194">
+      <c r="AF7" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH7" s="194">
         <v>13</v>
       </c>
-      <c r="Q7" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="R7" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="S7" s="194">
-        <v>16</v>
-      </c>
-      <c r="T7" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="U7" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="V7" s="194">
-        <v>13</v>
-      </c>
-      <c r="W7" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="X7" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y7" s="194">
-        <v>10</v>
-      </c>
-      <c r="Z7" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB7" s="194">
-        <v>13</v>
-      </c>
-      <c r="AC7" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE7" s="194">
-        <v>14</v>
-      </c>
-      <c r="AF7" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH7" s="194">
-        <v>6</v>
-      </c>
       <c r="AI7" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AJ7" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AK7" s="194">
         <v>13</v>
@@ -6253,34 +6253,34 @@
         <v>0</v>
       </c>
       <c r="AM7" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AN7" s="194">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO7" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AT7" s="198" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AU7" s="194">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AV7" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX7" s="4">
-        <v>-149</v>
+        <v>155</v>
       </c>
       <c r="AY7" s="4">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AZ7" s="4">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="BA7" s="4">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="BB7" s="4">
         <v>4</v>
@@ -6292,10 +6292,10 @@
         <v>4</v>
       </c>
       <c r="BF7" s="77" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="BG7" s="78">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="BH7" s="189"/>
       <c r="BI7" s="79">
@@ -6305,29 +6305,29 @@
         <v>94</v>
       </c>
       <c r="BK7" s="81">
-        <v>91.692307692307693</v>
+        <v>93</v>
       </c>
       <c r="BL7" s="82">
-        <v>1192</v>
+        <v>1302</v>
       </c>
       <c r="BM7" s="172"/>
       <c r="BN7" s="79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BO7" s="80" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="BP7" s="83">
-        <v>-11</v>
+        <v>17</v>
       </c>
       <c r="BQ7" s="84">
-        <v>-42</v>
+        <v>-45</v>
       </c>
       <c r="BR7" s="85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BS7" s="86">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="BT7" s="87" t="s">
         <v>0</v>
@@ -6342,150 +6342,150 @@
         <v>0</v>
       </c>
       <c r="BY7" s="12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="190" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C8" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="191" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E8" s="192" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="193" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="194">
+        <v>12</v>
+      </c>
+      <c r="H8" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" s="194">
+        <v>6</v>
+      </c>
+      <c r="K8" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" s="194">
+        <v>12</v>
+      </c>
+      <c r="N8" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="P8" s="194">
+        <v>9</v>
+      </c>
+      <c r="Q8" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="S8" s="194">
+        <v>11</v>
+      </c>
+      <c r="T8" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="U8" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="V8" s="194">
+        <v>10</v>
+      </c>
+      <c r="W8" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="X8" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y8" s="194">
+        <v>9</v>
+      </c>
+      <c r="Z8" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB8" s="194">
+        <v>11</v>
+      </c>
+      <c r="AC8" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE8" s="194">
+        <v>12</v>
+      </c>
+      <c r="AF8" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="193" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" s="194">
-        <v>16</v>
-      </c>
-      <c r="H8" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" s="194">
+      <c r="AH8" s="194">
+        <v>4</v>
+      </c>
+      <c r="AI8" s="195">
+        <v>-4</v>
+      </c>
+      <c r="AJ8" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK8" s="194">
         <v>11</v>
       </c>
-      <c r="K8" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="L8" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="M8" s="194">
-        <v>16</v>
-      </c>
-      <c r="N8" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="O8" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="P8" s="194">
-        <v>16</v>
-      </c>
-      <c r="Q8" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="R8" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="S8" s="194">
+      <c r="AL8" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN8" s="194">
+        <v>11</v>
+      </c>
+      <c r="AO8" s="197" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="198" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU8" s="194">
         <v>12</v>
       </c>
-      <c r="T8" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="U8" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="V8" s="194">
-        <v>15</v>
-      </c>
-      <c r="W8" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="X8" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y8" s="194">
-        <v>14</v>
-      </c>
-      <c r="Z8" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB8" s="194">
-        <v>15</v>
-      </c>
-      <c r="AC8" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE8" s="194">
-        <v>16</v>
-      </c>
-      <c r="AF8" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH8" s="194">
-        <v>9</v>
-      </c>
-      <c r="AI8" s="195">
-        <v>-9</v>
-      </c>
-      <c r="AJ8" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK8" s="194">
-        <v>15</v>
-      </c>
-      <c r="AL8" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN8" s="194">
-        <v>10</v>
-      </c>
-      <c r="AO8" s="197" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="198" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU8" s="194">
-        <v>15</v>
-      </c>
       <c r="AV8" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX8" s="4">
-        <v>147</v>
+        <v>-110</v>
       </c>
       <c r="AY8" s="4">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="AZ8" s="4">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="BA8" s="4">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="BB8" s="4">
         <v>5</v>
@@ -6497,36 +6497,36 @@
         <v>5</v>
       </c>
       <c r="BF8" s="77" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="BG8" s="78">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="BH8" s="189"/>
       <c r="BI8" s="79">
         <v>5</v>
       </c>
       <c r="BJ8" s="80" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="BK8" s="81">
-        <v>91.15384615384616</v>
+        <v>92.142857142857139</v>
       </c>
       <c r="BL8" s="82">
-        <v>1185</v>
+        <v>1290</v>
       </c>
       <c r="BM8" s="172"/>
       <c r="BN8" s="79">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BO8" s="80" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BP8" s="83">
-        <v>-11</v>
+        <v>-14</v>
       </c>
       <c r="BQ8" s="84">
-        <v>-42</v>
+        <v>-45</v>
       </c>
       <c r="BR8" s="85">
         <v>1</v>
@@ -6547,108 +6547,108 @@
         <v>0</v>
       </c>
       <c r="BY8" s="12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="190" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C9" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="191" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="E9" s="192" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F9" s="193" t="s">
         <v>60</v>
       </c>
       <c r="G9" s="194">
-        <v>14</v>
-      </c>
-      <c r="H9" s="195">
-        <v>-14</v>
+        <v>13</v>
+      </c>
+      <c r="H9" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="I9" s="196" t="s">
         <v>60</v>
       </c>
       <c r="J9" s="194">
-        <v>12</v>
-      </c>
-      <c r="K9" s="195">
-        <v>-12</v>
+        <v>11</v>
+      </c>
+      <c r="K9" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="L9" s="196" t="s">
         <v>60</v>
       </c>
       <c r="M9" s="194">
-        <v>14</v>
-      </c>
-      <c r="N9" s="195">
-        <v>-14</v>
+        <v>13</v>
+      </c>
+      <c r="N9" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="O9" s="196" t="s">
         <v>60</v>
       </c>
       <c r="P9" s="194">
-        <v>14</v>
-      </c>
-      <c r="Q9" s="195">
-        <v>-14</v>
+        <v>13</v>
+      </c>
+      <c r="Q9" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="R9" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="S9" s="194">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T9" s="195">
-        <v>-10</v>
+        <v>-1</v>
       </c>
       <c r="U9" s="196" t="s">
         <v>60</v>
       </c>
       <c r="V9" s="194">
-        <v>12</v>
-      </c>
-      <c r="W9" s="195">
-        <v>-12</v>
+        <v>7</v>
+      </c>
+      <c r="W9" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="X9" s="196" t="s">
         <v>60</v>
       </c>
       <c r="Y9" s="194">
-        <v>9</v>
-      </c>
-      <c r="Z9" s="195">
-        <v>-9</v>
+        <v>8</v>
+      </c>
+      <c r="Z9" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AA9" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AB9" s="194">
-        <v>12</v>
-      </c>
-      <c r="AC9" s="195">
-        <v>-12</v>
+        <v>13</v>
+      </c>
+      <c r="AC9" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AD9" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE9" s="194">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="195">
+        <v>-1</v>
+      </c>
+      <c r="AG9" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="AE9" s="194">
-        <v>12</v>
-      </c>
-      <c r="AF9" s="195">
-        <v>-12</v>
-      </c>
-      <c r="AG9" s="196" t="s">
-        <v>88</v>
-      </c>
       <c r="AH9" s="194">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AI9" s="195" t="s">
         <v>0</v>
@@ -6657,40 +6657,40 @@
         <v>60</v>
       </c>
       <c r="AK9" s="194">
-        <v>6</v>
-      </c>
-      <c r="AL9" s="195">
-        <v>-6</v>
+        <v>12</v>
+      </c>
+      <c r="AL9" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AM9" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AN9" s="194">
-        <v>7</v>
-      </c>
-      <c r="AO9" s="197">
-        <v>-7</v>
+        <v>1</v>
+      </c>
+      <c r="AO9" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AT9" s="198" t="s">
         <v>60</v>
       </c>
       <c r="AU9" s="194">
-        <v>12</v>
-      </c>
-      <c r="AV9" s="197">
-        <v>-12</v>
+        <v>11</v>
+      </c>
+      <c r="AV9" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AX9" s="4">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="AY9" s="4">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="AZ9" s="4">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="BA9" s="4">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="BB9" s="4">
         <v>6</v>
@@ -6699,39 +6699,39 @@
         <v>1</v>
       </c>
       <c r="BE9" s="76">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BF9" s="77" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BG9" s="78">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="BH9" s="189"/>
       <c r="BI9" s="79">
         <v>6</v>
       </c>
       <c r="BJ9" s="80" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="BK9" s="81">
-        <v>90.230769230769226</v>
+        <v>91.857142857142861</v>
       </c>
       <c r="BL9" s="82">
-        <v>1173</v>
+        <v>1286</v>
       </c>
       <c r="BM9" s="172"/>
       <c r="BN9" s="79">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BO9" s="80" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="BP9" s="83">
-        <v>-11</v>
+        <v>-14</v>
       </c>
       <c r="BQ9" s="84">
-        <v>-42</v>
+        <v>-45</v>
       </c>
       <c r="BR9" s="85">
         <v>1</v>
@@ -6752,33 +6752,33 @@
         <v>0</v>
       </c>
       <c r="BY9" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="190" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C10" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="191" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="E10" s="192" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F10" s="193" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="G10" s="194">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" s="195" t="s">
         <v>0</v>
       </c>
       <c r="I10" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="J10" s="194">
         <v>4</v>
@@ -6787,61 +6787,61 @@
         <v>0</v>
       </c>
       <c r="L10" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="M10" s="194">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N10" s="195" t="s">
         <v>0</v>
       </c>
       <c r="O10" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="P10" s="194">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q10" s="195" t="s">
         <v>0</v>
       </c>
       <c r="R10" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="S10" s="194">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="T10" s="195" t="s">
         <v>0</v>
       </c>
       <c r="U10" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="V10" s="194">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="W10" s="195" t="s">
         <v>0</v>
       </c>
       <c r="X10" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="Y10" s="194">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="Z10" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AA10" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AB10" s="194">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC10" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AD10" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AE10" s="194">
         <v>11</v>
@@ -6850,52 +6850,52 @@
         <v>0</v>
       </c>
       <c r="AG10" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH10" s="194">
+        <v>7</v>
+      </c>
+      <c r="AI10" s="195">
+        <v>-7</v>
+      </c>
+      <c r="AJ10" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="AH10" s="194">
+      <c r="AK10" s="194">
+        <v>9</v>
+      </c>
+      <c r="AL10" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN10" s="194">
+        <v>14</v>
+      </c>
+      <c r="AO10" s="197" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="198" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU10" s="194">
         <v>10</v>
       </c>
-      <c r="AI10" s="195">
-        <v>-10</v>
-      </c>
-      <c r="AJ10" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK10" s="194">
-        <v>11</v>
-      </c>
-      <c r="AL10" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="AN10" s="194">
-        <v>13</v>
-      </c>
-      <c r="AO10" s="197" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT10" s="198" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU10" s="194">
-        <v>11</v>
-      </c>
       <c r="AV10" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX10" s="4">
-        <v>-107</v>
+        <v>101</v>
       </c>
       <c r="AY10" s="4">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AZ10" s="4">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="BA10" s="4">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="BB10" s="4">
         <v>7</v>
@@ -6904,13 +6904,13 @@
         <v>1</v>
       </c>
       <c r="BE10" s="76">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BF10" s="77" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="BG10" s="78">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="BH10" s="189"/>
       <c r="BI10" s="79">
@@ -6920,23 +6920,23 @@
         <v>95</v>
       </c>
       <c r="BK10" s="81">
-        <v>89.615384615384613</v>
+        <v>91.785714285714292</v>
       </c>
       <c r="BL10" s="82">
-        <v>1165</v>
+        <v>1285</v>
       </c>
       <c r="BM10" s="172"/>
       <c r="BN10" s="79">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BO10" s="80" t="s">
         <v>98</v>
       </c>
       <c r="BP10" s="83">
-        <v>-11</v>
+        <v>-14</v>
       </c>
       <c r="BQ10" s="84">
-        <v>-42</v>
+        <v>-45</v>
       </c>
       <c r="BR10" s="85">
         <v>1</v>
@@ -6957,150 +6957,150 @@
         <v>0</v>
       </c>
       <c r="BY10" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="190" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="C11" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="191" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E11" s="192" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F11" s="193" t="s">
         <v>60</v>
       </c>
       <c r="G11" s="194">
-        <v>4</v>
-      </c>
-      <c r="H11" s="195" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="H11" s="195">
+        <v>-8</v>
       </c>
       <c r="I11" s="196" t="s">
         <v>60</v>
       </c>
       <c r="J11" s="194">
-        <v>7</v>
-      </c>
-      <c r="K11" s="195" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="K11" s="195">
+        <v>-10</v>
       </c>
       <c r="L11" s="196" t="s">
         <v>60</v>
       </c>
       <c r="M11" s="194">
-        <v>4</v>
-      </c>
-      <c r="N11" s="195" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="N11" s="195">
+        <v>-8</v>
       </c>
       <c r="O11" s="196" t="s">
         <v>60</v>
       </c>
       <c r="P11" s="194">
-        <v>4</v>
-      </c>
-      <c r="Q11" s="195" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="Q11" s="195">
+        <v>-8</v>
       </c>
       <c r="R11" s="196" t="s">
         <v>60</v>
       </c>
       <c r="S11" s="194">
-        <v>13</v>
-      </c>
-      <c r="T11" s="195" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="T11" s="195">
+        <v>-4</v>
       </c>
       <c r="U11" s="196" t="s">
         <v>60</v>
       </c>
       <c r="V11" s="194">
-        <v>2</v>
-      </c>
-      <c r="W11" s="195" t="s">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="W11" s="195">
+        <v>-11</v>
       </c>
       <c r="X11" s="196" t="s">
         <v>60</v>
       </c>
       <c r="Y11" s="194">
-        <v>2</v>
-      </c>
-      <c r="Z11" s="195" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="Z11" s="195">
+        <v>-10</v>
       </c>
       <c r="AA11" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AB11" s="194">
-        <v>4</v>
-      </c>
-      <c r="AC11" s="195" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="AC11" s="195">
+        <v>-10</v>
       </c>
       <c r="AD11" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AE11" s="194">
-        <v>2</v>
-      </c>
-      <c r="AF11" s="195" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="AF11" s="195">
+        <v>-10</v>
       </c>
       <c r="AG11" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AH11" s="194">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AI11" s="195">
-        <v>-13</v>
+        <v>-10</v>
       </c>
       <c r="AJ11" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AK11" s="194">
-        <v>12</v>
-      </c>
-      <c r="AL11" s="195" t="s">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="AL11" s="195">
+        <v>-16</v>
       </c>
       <c r="AM11" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AN11" s="194">
-        <v>8</v>
-      </c>
-      <c r="AO11" s="197" t="s">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="AO11" s="197">
+        <v>-16</v>
       </c>
       <c r="AT11" s="198" t="s">
         <v>60</v>
       </c>
       <c r="AU11" s="194">
-        <v>8</v>
-      </c>
-      <c r="AV11" s="197" t="s">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="AV11" s="197">
+        <v>-13</v>
       </c>
       <c r="AX11" s="4">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="AY11" s="4">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="AZ11" s="4">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="BA11" s="4">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="BB11" s="4">
         <v>8</v>
@@ -7109,13 +7109,13 @@
         <v>1</v>
       </c>
       <c r="BE11" s="76">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BF11" s="77" t="s">
         <v>94</v>
       </c>
       <c r="BG11" s="78">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="BH11" s="189"/>
       <c r="BI11" s="79">
@@ -7125,23 +7125,23 @@
         <v>98</v>
       </c>
       <c r="BK11" s="81">
-        <v>88.538461538461533</v>
+        <v>90.214285714285708</v>
       </c>
       <c r="BL11" s="82">
-        <v>1151</v>
+        <v>1263</v>
       </c>
       <c r="BM11" s="172"/>
       <c r="BN11" s="79">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BO11" s="80" t="s">
         <v>100</v>
       </c>
       <c r="BP11" s="83">
-        <v>-11</v>
+        <v>-14</v>
       </c>
       <c r="BQ11" s="84">
-        <v>-42</v>
+        <v>-45</v>
       </c>
       <c r="BR11" s="85">
         <v>1</v>
@@ -7162,150 +7162,150 @@
         <v>0</v>
       </c>
       <c r="BY11" s="12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="190" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C12" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="191" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E12" s="192" t="s">
         <v>88</v>
       </c>
       <c r="F12" s="193" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="G12" s="194">
-        <v>1</v>
-      </c>
-      <c r="H12" s="195" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="H12" s="195">
+        <v>-6</v>
       </c>
       <c r="I12" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="J12" s="194">
-        <v>15</v>
-      </c>
-      <c r="K12" s="195" t="s">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="K12" s="195">
+        <v>-9</v>
       </c>
       <c r="L12" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="M12" s="194">
-        <v>1</v>
-      </c>
-      <c r="N12" s="195" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="N12" s="195">
+        <v>-6</v>
       </c>
       <c r="O12" s="196" t="s">
         <v>60</v>
       </c>
       <c r="P12" s="194">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q12" s="195">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="R12" s="196" t="s">
         <v>60</v>
       </c>
       <c r="S12" s="194">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="T12" s="195">
-        <v>-9</v>
+        <v>-3</v>
       </c>
       <c r="U12" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="V12" s="194">
-        <v>11</v>
-      </c>
-      <c r="W12" s="195" t="s">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="W12" s="195">
+        <v>-5</v>
       </c>
       <c r="X12" s="196" t="s">
         <v>88</v>
       </c>
       <c r="Y12" s="194">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Z12" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AA12" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB12" s="194">
+        <v>4</v>
+      </c>
+      <c r="AC12" s="195">
+        <v>-4</v>
+      </c>
+      <c r="AD12" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE12" s="194">
+        <v>7</v>
+      </c>
+      <c r="AF12" s="195">
+        <v>-7</v>
+      </c>
+      <c r="AG12" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="AB12" s="194">
-        <v>5</v>
-      </c>
-      <c r="AC12" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE12" s="194">
-        <v>10</v>
-      </c>
-      <c r="AF12" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="196" t="s">
-        <v>60</v>
-      </c>
       <c r="AH12" s="194">
-        <v>15</v>
-      </c>
-      <c r="AI12" s="195">
-        <v>-15</v>
+        <v>8</v>
+      </c>
+      <c r="AI12" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AJ12" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AK12" s="194">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AL12" s="195">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="AM12" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AN12" s="194">
-        <v>6</v>
-      </c>
-      <c r="AO12" s="197" t="s">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="AO12" s="197">
+        <v>-9</v>
       </c>
       <c r="AT12" s="198" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AU12" s="194">
         <v>4</v>
       </c>
-      <c r="AV12" s="197" t="s">
-        <v>0</v>
+      <c r="AV12" s="197">
+        <v>-4</v>
       </c>
       <c r="AX12" s="4">
-        <v>-34</v>
+        <v>47</v>
       </c>
       <c r="AY12" s="4">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="AZ12" s="4">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="BA12" s="4">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="BB12" s="4">
         <v>9</v>
@@ -7317,10 +7317,10 @@
         <v>9</v>
       </c>
       <c r="BF12" s="77" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="BG12" s="78">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="BH12" s="189"/>
       <c r="BI12" s="79">
@@ -7330,23 +7330,23 @@
         <v>101</v>
       </c>
       <c r="BK12" s="81">
-        <v>87.692307692307693</v>
+        <v>89.142857142857139</v>
       </c>
       <c r="BL12" s="82">
-        <v>1140</v>
+        <v>1248</v>
       </c>
       <c r="BM12" s="172"/>
       <c r="BN12" s="79">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BO12" s="80" t="s">
         <v>102</v>
       </c>
       <c r="BP12" s="83">
-        <v>-11</v>
+        <v>-14</v>
       </c>
       <c r="BQ12" s="84">
-        <v>-42</v>
+        <v>-45</v>
       </c>
       <c r="BR12" s="85">
         <v>1</v>
@@ -7367,36 +7367,36 @@
         <v>0</v>
       </c>
       <c r="BY12" s="12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="190" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="C13" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="191" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E13" s="192" t="s">
         <v>60</v>
       </c>
       <c r="F13" s="193" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="G13" s="194">
-        <v>8</v>
-      </c>
-      <c r="H13" s="195" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="H13" s="195">
+        <v>-3</v>
       </c>
       <c r="I13" s="196" t="s">
         <v>60</v>
       </c>
       <c r="J13" s="194">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K13" s="195" t="s">
         <v>0</v>
@@ -7405,25 +7405,25 @@
         <v>60</v>
       </c>
       <c r="M13" s="194">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N13" s="195" t="s">
         <v>0</v>
       </c>
       <c r="O13" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="P13" s="194">
-        <v>2</v>
-      </c>
-      <c r="Q13" s="195">
-        <v>-2</v>
+        <v>7</v>
+      </c>
+      <c r="Q13" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="R13" s="196" t="s">
         <v>60</v>
       </c>
       <c r="S13" s="194">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="T13" s="195" t="s">
         <v>0</v>
@@ -7432,25 +7432,25 @@
         <v>60</v>
       </c>
       <c r="V13" s="194">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="W13" s="195" t="s">
         <v>0</v>
       </c>
       <c r="X13" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="Y13" s="194">
-        <v>4</v>
-      </c>
-      <c r="Z13" s="195" t="s">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="Z13" s="195">
+        <v>-5</v>
       </c>
       <c r="AA13" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AB13" s="194">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC13" s="195" t="s">
         <v>0</v>
@@ -7459,25 +7459,25 @@
         <v>60</v>
       </c>
       <c r="AE13" s="194">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF13" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AG13" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AH13" s="194">
-        <v>16</v>
-      </c>
-      <c r="AI13" s="195">
-        <v>-16</v>
+        <v>15</v>
+      </c>
+      <c r="AI13" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AJ13" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AK13" s="194">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL13" s="195" t="s">
         <v>0</v>
@@ -7486,7 +7486,7 @@
         <v>60</v>
       </c>
       <c r="AN13" s="194">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO13" s="197" t="s">
         <v>0</v>
@@ -7495,37 +7495,37 @@
         <v>60</v>
       </c>
       <c r="AU13" s="194">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV13" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX13" s="4">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="AY13" s="4">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="AZ13" s="4">
-        <v>47.1</v>
+        <v>68</v>
       </c>
       <c r="BA13" s="4">
-        <v>47.1</v>
+        <v>68</v>
       </c>
       <c r="BB13" s="4">
         <v>10</v>
       </c>
       <c r="BC13" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BE13" s="76">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BF13" s="77" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="BG13" s="78">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="BH13" s="189"/>
       <c r="BI13" s="79">
@@ -7535,10 +7535,10 @@
         <v>92</v>
       </c>
       <c r="BK13" s="81">
-        <v>87.15384615384616</v>
+        <v>87.642857142857139</v>
       </c>
       <c r="BL13" s="82">
-        <v>1133</v>
+        <v>1227</v>
       </c>
       <c r="BM13" s="172"/>
       <c r="BN13" s="79">
@@ -7548,10 +7548,10 @@
         <v>91</v>
       </c>
       <c r="BP13" s="83">
-        <v>-42</v>
+        <v>-45</v>
       </c>
       <c r="BQ13" s="84">
-        <v>-42</v>
+        <v>-45</v>
       </c>
       <c r="BR13" s="85" t="s">
         <v>0</v>
@@ -7572,54 +7572,54 @@
         <v>0</v>
       </c>
       <c r="BY13" s="12" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="190" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="C14" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="191" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="E14" s="192" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F14" s="193" t="s">
         <v>60</v>
       </c>
       <c r="G14" s="194">
-        <v>3</v>
-      </c>
-      <c r="H14" s="195" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="H14" s="195">
+        <v>-2</v>
       </c>
       <c r="I14" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="J14" s="194">
+        <v>7</v>
+      </c>
+      <c r="K14" s="195">
+        <v>-7</v>
+      </c>
+      <c r="L14" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="M14" s="194">
+        <v>2</v>
+      </c>
+      <c r="N14" s="195">
+        <v>-2</v>
+      </c>
+      <c r="O14" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="J14" s="194">
-        <v>14</v>
-      </c>
-      <c r="K14" s="195">
-        <v>-14</v>
-      </c>
-      <c r="L14" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="M14" s="194">
-        <v>3</v>
-      </c>
-      <c r="N14" s="195">
-        <v>-3</v>
-      </c>
-      <c r="O14" s="196" t="s">
-        <v>60</v>
-      </c>
       <c r="P14" s="194">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q14" s="195" t="s">
         <v>0</v>
@@ -7628,25 +7628,25 @@
         <v>60</v>
       </c>
       <c r="S14" s="194">
-        <v>8</v>
-      </c>
-      <c r="T14" s="195" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="T14" s="195">
+        <v>-2</v>
       </c>
       <c r="U14" s="196" t="s">
         <v>88</v>
       </c>
       <c r="V14" s="194">
-        <v>8</v>
-      </c>
-      <c r="W14" s="195">
-        <v>-8</v>
+        <v>2</v>
+      </c>
+      <c r="W14" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="X14" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="Y14" s="194">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z14" s="195" t="s">
         <v>0</v>
@@ -7655,25 +7655,25 @@
         <v>88</v>
       </c>
       <c r="AB14" s="194">
-        <v>6</v>
-      </c>
-      <c r="AC14" s="195">
-        <v>-6</v>
+        <v>1</v>
+      </c>
+      <c r="AC14" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AD14" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE14" s="194">
+        <v>4</v>
+      </c>
+      <c r="AF14" s="195">
+        <v>-4</v>
+      </c>
+      <c r="AG14" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="AE14" s="194">
-        <v>8</v>
-      </c>
-      <c r="AF14" s="195">
-        <v>-8</v>
-      </c>
-      <c r="AG14" s="196" t="s">
-        <v>60</v>
-      </c>
       <c r="AH14" s="194">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AI14" s="195" t="s">
         <v>0</v>
@@ -7682,40 +7682,40 @@
         <v>60</v>
       </c>
       <c r="AK14" s="194">
+        <v>2</v>
+      </c>
+      <c r="AL14" s="195">
+        <v>-2</v>
+      </c>
+      <c r="AM14" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN14" s="194">
         <v>4</v>
       </c>
-      <c r="AL14" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM14" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="AN14" s="194">
-        <v>11</v>
-      </c>
       <c r="AO14" s="197">
-        <v>-11</v>
+        <v>-4</v>
       </c>
       <c r="AT14" s="198" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AU14" s="194">
+        <v>1</v>
+      </c>
+      <c r="AV14" s="197">
+        <v>-1</v>
+      </c>
+      <c r="AX14" s="4">
         <v>2</v>
       </c>
-      <c r="AV14" s="197">
-        <v>-2</v>
-      </c>
-      <c r="AX14" s="4">
-        <v>-12</v>
-      </c>
       <c r="AY14" s="4">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AZ14" s="4">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="BA14" s="4">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="BB14" s="4">
         <v>11</v>
@@ -7727,10 +7727,10 @@
         <v>11</v>
       </c>
       <c r="BF14" s="77" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="BG14" s="78">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="BH14" s="189"/>
       <c r="BI14" s="79">
@@ -7740,10 +7740,10 @@
         <v>96</v>
       </c>
       <c r="BK14" s="81">
-        <v>83.615384615384613</v>
+        <v>86.142857142857139</v>
       </c>
       <c r="BL14" s="82">
-        <v>1087</v>
+        <v>1206</v>
       </c>
       <c r="BM14" s="172"/>
       <c r="BN14" s="79">
@@ -7753,10 +7753,10 @@
         <v>94</v>
       </c>
       <c r="BP14" s="83">
-        <v>-42</v>
+        <v>-45</v>
       </c>
       <c r="BQ14" s="84">
-        <v>-42</v>
+        <v>-45</v>
       </c>
       <c r="BR14" s="85" t="s">
         <v>0</v>
@@ -7777,36 +7777,36 @@
         <v>0</v>
       </c>
       <c r="BY14" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:77" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="190" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C15" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="191" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="E15" s="192" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F15" s="193" t="s">
         <v>60</v>
       </c>
       <c r="G15" s="194">
-        <v>7</v>
-      </c>
-      <c r="H15" s="195">
-        <v>-7</v>
+        <v>15</v>
+      </c>
+      <c r="H15" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="I15" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="J15" s="194">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K15" s="195" t="s">
         <v>0</v>
@@ -7815,52 +7815,52 @@
         <v>60</v>
       </c>
       <c r="M15" s="194">
-        <v>7</v>
-      </c>
-      <c r="N15" s="195">
-        <v>-7</v>
+        <v>15</v>
+      </c>
+      <c r="N15" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="O15" s="196" t="s">
         <v>60</v>
       </c>
       <c r="P15" s="194">
-        <v>7</v>
-      </c>
-      <c r="Q15" s="195">
-        <v>-7</v>
+        <v>15</v>
+      </c>
+      <c r="Q15" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="R15" s="196" t="s">
         <v>60</v>
       </c>
       <c r="S15" s="194">
-        <v>3</v>
-      </c>
-      <c r="T15" s="195">
-        <v>-3</v>
+        <v>13</v>
+      </c>
+      <c r="T15" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="U15" s="196" t="s">
         <v>60</v>
       </c>
       <c r="V15" s="194">
-        <v>1</v>
-      </c>
-      <c r="W15" s="195">
-        <v>-1</v>
+        <v>16</v>
+      </c>
+      <c r="W15" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="X15" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="Y15" s="194">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="Z15" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AA15" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AB15" s="194">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="AC15" s="195" t="s">
         <v>0</v>
@@ -7869,34 +7869,34 @@
         <v>60</v>
       </c>
       <c r="AE15" s="194">
-        <v>4</v>
-      </c>
-      <c r="AF15" s="195">
-        <v>-4</v>
+        <v>15</v>
+      </c>
+      <c r="AF15" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AG15" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AH15" s="194">
-        <v>8</v>
-      </c>
-      <c r="AI15" s="195" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="AI15" s="195">
+        <v>-2</v>
       </c>
       <c r="AJ15" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AK15" s="194">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AL15" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AM15" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AN15" s="194">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AO15" s="197" t="s">
         <v>0</v>
@@ -7905,22 +7905,22 @@
         <v>60</v>
       </c>
       <c r="AU15" s="194">
-        <v>1</v>
-      </c>
-      <c r="AV15" s="197">
-        <v>-1</v>
+        <v>15</v>
+      </c>
+      <c r="AV15" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AX15" s="4">
-        <v>9</v>
+        <v>157</v>
       </c>
       <c r="AY15" s="4">
-        <v>9</v>
+        <v>157</v>
       </c>
       <c r="AZ15" s="4">
-        <v>9</v>
+        <v>157</v>
       </c>
       <c r="BA15" s="4">
-        <v>9</v>
+        <v>157</v>
       </c>
       <c r="BB15" s="4">
         <v>12</v>
@@ -7932,10 +7932,10 @@
         <v>12</v>
       </c>
       <c r="BF15" s="90" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="BG15" s="91">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="BH15" s="189"/>
       <c r="BI15" s="92">
@@ -7945,10 +7945,10 @@
         <v>100</v>
       </c>
       <c r="BK15" s="94">
-        <v>64.769230769230774</v>
+        <v>67.142857142857139</v>
       </c>
       <c r="BL15" s="95">
-        <v>842</v>
+        <v>940</v>
       </c>
       <c r="BM15" s="172"/>
       <c r="BN15" s="92">
@@ -7958,10 +7958,10 @@
         <v>96</v>
       </c>
       <c r="BP15" s="96">
-        <v>-42</v>
+        <v>-45</v>
       </c>
       <c r="BQ15" s="97">
-        <v>-42</v>
+        <v>-45</v>
       </c>
       <c r="BR15" s="98" t="s">
         <v>0</v>
@@ -7982,36 +7982,36 @@
         <v>0</v>
       </c>
       <c r="BY15" s="12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:77" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B16" s="190" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="C16" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="191" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="E16" s="192" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F16" s="193" t="s">
         <v>88</v>
       </c>
       <c r="G16" s="194">
-        <v>6</v>
-      </c>
-      <c r="H16" s="195">
-        <v>-6</v>
+        <v>9</v>
+      </c>
+      <c r="H16" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="I16" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="J16" s="194">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K16" s="195" t="s">
         <v>0</v>
@@ -8020,88 +8020,88 @@
         <v>88</v>
       </c>
       <c r="M16" s="194">
-        <v>6</v>
-      </c>
-      <c r="N16" s="195">
-        <v>-6</v>
+        <v>5</v>
+      </c>
+      <c r="N16" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="O16" s="196" t="s">
         <v>88</v>
       </c>
       <c r="P16" s="194">
-        <v>9</v>
-      </c>
-      <c r="Q16" s="195">
-        <v>-9</v>
+        <v>5</v>
+      </c>
+      <c r="Q16" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="R16" s="196" t="s">
         <v>88</v>
       </c>
       <c r="S16" s="194">
-        <v>4</v>
-      </c>
-      <c r="T16" s="195">
-        <v>-4</v>
+        <v>7</v>
+      </c>
+      <c r="T16" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="U16" s="196" t="s">
         <v>88</v>
       </c>
       <c r="V16" s="194">
+        <v>15</v>
+      </c>
+      <c r="W16" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="X16" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y16" s="194">
+        <v>4</v>
+      </c>
+      <c r="Z16" s="195">
+        <v>-4</v>
+      </c>
+      <c r="AA16" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB16" s="194">
         <v>6</v>
       </c>
-      <c r="W16" s="195">
-        <v>-6</v>
-      </c>
-      <c r="X16" s="196" t="s">
+      <c r="AC16" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="Y16" s="194">
-        <v>12</v>
-      </c>
-      <c r="Z16" s="195">
-        <v>-12</v>
-      </c>
-      <c r="AA16" s="196" t="s">
+      <c r="AE16" s="194">
+        <v>14</v>
+      </c>
+      <c r="AF16" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="AB16" s="194">
+      <c r="AH16" s="194">
         <v>1</v>
       </c>
-      <c r="AC16" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE16" s="194">
-        <v>3</v>
-      </c>
-      <c r="AF16" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH16" s="194">
-        <v>4</v>
-      </c>
       <c r="AI16" s="195">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="AJ16" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AK16" s="194">
-        <v>7</v>
-      </c>
-      <c r="AL16" s="195">
-        <v>-7</v>
+        <v>5</v>
+      </c>
+      <c r="AL16" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AM16" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AN16" s="194">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AO16" s="197" t="s">
         <v>0</v>
@@ -8110,22 +8110,22 @@
         <v>88</v>
       </c>
       <c r="AU16" s="194">
-        <v>5</v>
-      </c>
-      <c r="AV16" s="197">
-        <v>-5</v>
+        <v>8</v>
+      </c>
+      <c r="AV16" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AX16" s="4">
-        <v>-37</v>
+        <v>-72</v>
       </c>
       <c r="AY16" s="4">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="AZ16" s="4">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="BA16" s="4">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="BB16" s="4">
         <v>13</v>
@@ -8134,18 +8134,18 @@
         <v>1</v>
       </c>
       <c r="BY16" s="12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="190" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C17" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="191" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="E17" s="192" t="s">
         <v>88</v>
@@ -8154,25 +8154,25 @@
         <v>88</v>
       </c>
       <c r="G17" s="194">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H17" s="195" t="s">
         <v>0</v>
       </c>
       <c r="I17" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="J17" s="194">
-        <v>3</v>
-      </c>
-      <c r="K17" s="195">
-        <v>-3</v>
+        <v>2</v>
+      </c>
+      <c r="K17" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="L17" s="196" t="s">
         <v>88</v>
       </c>
       <c r="M17" s="194">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="N17" s="195" t="s">
         <v>0</v>
@@ -8181,7 +8181,7 @@
         <v>88</v>
       </c>
       <c r="P17" s="194">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="Q17" s="195" t="s">
         <v>0</v>
@@ -8199,25 +8199,25 @@
         <v>88</v>
       </c>
       <c r="V17" s="194">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W17" s="195" t="s">
         <v>0</v>
       </c>
       <c r="X17" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="Y17" s="194">
-        <v>13</v>
-      </c>
-      <c r="Z17" s="195" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="Z17" s="195">
+        <v>-2</v>
       </c>
       <c r="AA17" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AB17" s="194">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AC17" s="195" t="s">
         <v>0</v>
@@ -8226,7 +8226,7 @@
         <v>88</v>
       </c>
       <c r="AE17" s="194">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AF17" s="195" t="s">
         <v>0</v>
@@ -8235,25 +8235,25 @@
         <v>88</v>
       </c>
       <c r="AH17" s="194">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AI17" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AJ17" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AK17" s="194">
-        <v>14</v>
-      </c>
-      <c r="AL17" s="195" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="AL17" s="195">
+        <v>-4</v>
       </c>
       <c r="AM17" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AN17" s="194">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AO17" s="197" t="s">
         <v>0</v>
@@ -8262,22 +8262,22 @@
         <v>88</v>
       </c>
       <c r="AU17" s="194">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AV17" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX17" s="4">
-        <v>-125</v>
+        <v>-65</v>
       </c>
       <c r="AY17" s="4">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="AZ17" s="4">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="BA17" s="4">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="BB17" s="4">
         <v>14</v>
@@ -8286,57 +8286,57 @@
         <v>1</v>
       </c>
       <c r="BY17" s="12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="190" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C18" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="191" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E18" s="192" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F18" s="193" t="s">
         <v>88</v>
       </c>
       <c r="G18" s="194">
-        <v>9</v>
-      </c>
-      <c r="H18" s="195">
-        <v>-9</v>
+        <v>7</v>
+      </c>
+      <c r="H18" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="I18" s="196" t="s">
         <v>88</v>
       </c>
       <c r="J18" s="194">
-        <v>2</v>
-      </c>
-      <c r="K18" s="195">
-        <v>-2</v>
+        <v>5</v>
+      </c>
+      <c r="K18" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="L18" s="196" t="s">
         <v>88</v>
       </c>
       <c r="M18" s="194">
-        <v>9</v>
-      </c>
-      <c r="N18" s="195">
-        <v>-9</v>
+        <v>3</v>
+      </c>
+      <c r="N18" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="O18" s="196" t="s">
         <v>88</v>
       </c>
       <c r="P18" s="194">
-        <v>6</v>
-      </c>
-      <c r="Q18" s="195">
-        <v>-6</v>
+        <v>3</v>
+      </c>
+      <c r="Q18" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="R18" s="196" t="s">
         <v>88</v>
@@ -8344,29 +8344,29 @@
       <c r="S18" s="194">
         <v>15</v>
       </c>
-      <c r="T18" s="195">
-        <v>-15</v>
+      <c r="T18" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="U18" s="196" t="s">
         <v>88</v>
       </c>
       <c r="V18" s="194">
-        <v>10</v>
-      </c>
-      <c r="W18" s="195">
-        <v>-10</v>
+        <v>14</v>
+      </c>
+      <c r="W18" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="X18" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y18" s="194">
+        <v>16</v>
+      </c>
+      <c r="Z18" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="196" t="s">
         <v>60</v>
-      </c>
-      <c r="Y18" s="194">
-        <v>5</v>
-      </c>
-      <c r="Z18" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="196" t="s">
-        <v>88</v>
       </c>
       <c r="AB18" s="194">
         <v>2</v>
@@ -8378,58 +8378,58 @@
         <v>88</v>
       </c>
       <c r="AE18" s="194">
-        <v>9</v>
-      </c>
-      <c r="AF18" s="195">
-        <v>-9</v>
+        <v>8</v>
+      </c>
+      <c r="AF18" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AG18" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AH18" s="194">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AI18" s="195">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="AJ18" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AK18" s="194">
-        <v>9</v>
-      </c>
-      <c r="AL18" s="195">
-        <v>-9</v>
+        <v>3</v>
+      </c>
+      <c r="AL18" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AM18" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AN18" s="194">
-        <v>9</v>
-      </c>
-      <c r="AO18" s="197">
-        <v>-9</v>
+        <v>5</v>
+      </c>
+      <c r="AO18" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AT18" s="198" t="s">
         <v>88</v>
       </c>
       <c r="AU18" s="194">
-        <v>10</v>
-      </c>
-      <c r="AV18" s="197">
-        <v>-10</v>
+        <v>7</v>
+      </c>
+      <c r="AV18" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AX18" s="4">
-        <v>-78</v>
+        <v>-71</v>
       </c>
       <c r="AY18" s="4">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AZ18" s="4">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="BA18" s="4">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="BB18" s="4">
         <v>15</v>
@@ -8438,27 +8438,27 @@
         <v>1</v>
       </c>
       <c r="BY18" s="12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="190" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C19" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="191" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E19" s="192" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F19" s="193" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="G19" s="194">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H19" s="195" t="s">
         <v>0</v>
@@ -8467,88 +8467,88 @@
         <v>60</v>
       </c>
       <c r="J19" s="194">
-        <v>16</v>
-      </c>
-      <c r="K19" s="195" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K19" s="195">
+        <v>-1</v>
       </c>
       <c r="L19" s="196" t="s">
         <v>60</v>
       </c>
       <c r="M19" s="194">
-        <v>15</v>
-      </c>
-      <c r="N19" s="195" t="s">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="N19" s="195">
+        <v>-9</v>
       </c>
       <c r="O19" s="196" t="s">
         <v>60</v>
       </c>
       <c r="P19" s="194">
-        <v>15</v>
-      </c>
-      <c r="Q19" s="195" t="s">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="Q19" s="195">
+        <v>-12</v>
       </c>
       <c r="R19" s="196" t="s">
         <v>60</v>
       </c>
       <c r="S19" s="194">
-        <v>5</v>
-      </c>
-      <c r="T19" s="195" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="T19" s="195">
+        <v>-6</v>
       </c>
       <c r="U19" s="196" t="s">
         <v>60</v>
       </c>
       <c r="V19" s="194">
-        <v>9</v>
-      </c>
-      <c r="W19" s="195" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="W19" s="195">
+        <v>-1</v>
       </c>
       <c r="X19" s="196" t="s">
         <v>60</v>
       </c>
       <c r="Y19" s="194">
-        <v>15</v>
-      </c>
-      <c r="Z19" s="195" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Z19" s="195">
+        <v>-1</v>
       </c>
       <c r="AA19" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AB19" s="194">
-        <v>16</v>
-      </c>
-      <c r="AC19" s="195" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="AC19" s="195">
+        <v>-8</v>
       </c>
       <c r="AD19" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AE19" s="194">
-        <v>15</v>
-      </c>
-      <c r="AF19" s="195" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="AF19" s="195">
+        <v>-3</v>
       </c>
       <c r="AG19" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AH19" s="194">
-        <v>2</v>
-      </c>
-      <c r="AI19" s="195">
-        <v>-2</v>
+        <v>11</v>
+      </c>
+      <c r="AI19" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AJ19" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AK19" s="194">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AL19" s="195" t="s">
         <v>0</v>
@@ -8557,40 +8557,40 @@
         <v>60</v>
       </c>
       <c r="AN19" s="194">
-        <v>12</v>
-      </c>
-      <c r="AO19" s="197" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="AO19" s="197">
+        <v>-6</v>
       </c>
       <c r="AT19" s="198" t="s">
         <v>60</v>
       </c>
       <c r="AU19" s="194">
-        <v>14</v>
-      </c>
-      <c r="AV19" s="197" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="AV19" s="197">
+        <v>-3</v>
       </c>
       <c r="AX19" s="4">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="AY19" s="4">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="AZ19" s="4">
-        <v>141</v>
+        <v>23.1</v>
       </c>
       <c r="BA19" s="4">
-        <v>141</v>
+        <v>23.1</v>
       </c>
       <c r="BB19" s="4">
         <v>16</v>
       </c>
       <c r="BC19" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BY19" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8604,7 +8604,7 @@
         <v>106</v>
       </c>
       <c r="G20" s="105">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H20" s="122"/>
       <c r="I20" s="106" t="s">
@@ -8618,7 +8618,7 @@
         <v>106</v>
       </c>
       <c r="M20" s="105">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="N20" s="122"/>
       <c r="O20" s="106" t="s">
@@ -8632,14 +8632,14 @@
         <v>106</v>
       </c>
       <c r="S20" s="105">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="T20" s="122"/>
       <c r="U20" s="106" t="s">
         <v>106</v>
       </c>
       <c r="V20" s="105">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="W20" s="122"/>
       <c r="X20" s="106" t="s">
@@ -8653,7 +8653,7 @@
         <v>106</v>
       </c>
       <c r="AB20" s="105">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="AC20" s="122"/>
       <c r="AD20" s="106" t="s">
@@ -8667,21 +8667,21 @@
         <v>106</v>
       </c>
       <c r="AH20" s="105">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="AI20" s="122"/>
       <c r="AJ20" s="106" t="s">
         <v>106</v>
       </c>
       <c r="AK20" s="105">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="AL20" s="122"/>
       <c r="AM20" s="106" t="s">
         <v>106</v>
       </c>
       <c r="AN20" s="105">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="AO20" s="123"/>
       <c r="AT20" s="107"/>
@@ -8698,7 +8698,7 @@
       <c r="BM20" s="13"/>
       <c r="BN20" s="13"/>
       <c r="BY20" s="12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:77" s="13" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8711,87 +8711,87 @@
       </c>
       <c r="F21" s="203"/>
       <c r="G21" s="204">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H21" s="205">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="I21" s="206"/>
       <c r="J21" s="204">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K21" s="205">
         <v>94</v>
       </c>
       <c r="L21" s="206"/>
       <c r="M21" s="204">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N21" s="205">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="O21" s="206"/>
       <c r="P21" s="204">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q21" s="205">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="R21" s="206"/>
       <c r="S21" s="204">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="T21" s="205">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="U21" s="206"/>
       <c r="V21" s="204">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="W21" s="205">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="X21" s="206"/>
       <c r="Y21" s="204">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Z21" s="205">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AA21" s="206"/>
       <c r="AB21" s="204">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC21" s="205">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AD21" s="206"/>
       <c r="AE21" s="204">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF21" s="205">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="AG21" s="206"/>
       <c r="AH21" s="204">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI21" s="205">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="AJ21" s="206"/>
       <c r="AK21" s="204">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AL21" s="205">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AM21" s="206"/>
       <c r="AN21" s="204">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AO21" s="207">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="AP21" s="3"/>
       <c r="AT21" s="208"/>
@@ -8799,7 +8799,7 @@
         <v>4</v>
       </c>
       <c r="AV21" s="210">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AW21" s="3"/>
       <c r="AX21" s="14"/>
@@ -8823,7 +8823,7 @@
       <c r="BV21" s="6"/>
       <c r="BW21" s="6"/>
       <c r="BY21" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:77" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8836,87 +8836,87 @@
       </c>
       <c r="F22" s="127"/>
       <c r="G22" s="128">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H22" s="129">
-        <v>90.230769230769226</v>
+        <v>92.142857142857139</v>
       </c>
       <c r="I22" s="130"/>
       <c r="J22" s="128">
         <v>10</v>
       </c>
       <c r="K22" s="129">
-        <v>87.15384615384616</v>
+        <v>87.642857142857139</v>
       </c>
       <c r="L22" s="130"/>
       <c r="M22" s="128">
         <v>3</v>
       </c>
       <c r="N22" s="129">
-        <v>92</v>
+        <v>93.357142857142861</v>
       </c>
       <c r="O22" s="130"/>
       <c r="P22" s="128">
         <v>4</v>
       </c>
       <c r="Q22" s="129">
-        <v>91.692307692307693</v>
+        <v>93</v>
       </c>
       <c r="R22" s="130"/>
       <c r="S22" s="128">
         <v>7</v>
       </c>
       <c r="T22" s="129">
-        <v>89.615384615384613</v>
+        <v>91.785714285714292</v>
       </c>
       <c r="U22" s="130"/>
       <c r="V22" s="128">
         <v>11</v>
       </c>
       <c r="W22" s="129">
-        <v>83.615384615384613</v>
+        <v>86.142857142857139</v>
       </c>
       <c r="X22" s="130"/>
       <c r="Y22" s="128">
         <v>2</v>
       </c>
       <c r="Z22" s="129">
-        <v>92.692307692307693</v>
+        <v>94</v>
       </c>
       <c r="AA22" s="130"/>
       <c r="AB22" s="128">
         <v>8</v>
       </c>
       <c r="AC22" s="129">
-        <v>88.538461538461533</v>
+        <v>90.214285714285708</v>
       </c>
       <c r="AD22" s="130"/>
       <c r="AE22" s="128">
         <v>1</v>
       </c>
       <c r="AF22" s="129">
-        <v>96.92307692307692</v>
+        <v>97.928571428571431</v>
       </c>
       <c r="AG22" s="130"/>
       <c r="AH22" s="128">
         <v>12</v>
       </c>
       <c r="AI22" s="129">
-        <v>64.769230769230774</v>
+        <v>67.142857142857139</v>
       </c>
       <c r="AJ22" s="130"/>
       <c r="AK22" s="128">
         <v>9</v>
       </c>
       <c r="AL22" s="129">
-        <v>87.692307692307693</v>
+        <v>89.142857142857139</v>
       </c>
       <c r="AM22" s="130"/>
       <c r="AN22" s="128">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO22" s="131">
-        <v>91.15384615384616</v>
+        <v>91.857142857142861</v>
       </c>
       <c r="AP22" s="3"/>
       <c r="AU22" s="14"/>
@@ -8941,7 +8941,7 @@
       <c r="BV22" s="6"/>
       <c r="BW22" s="6"/>
       <c r="BY22" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:77" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8955,62 +8955,62 @@
       <c r="F23" s="135"/>
       <c r="G23" s="136"/>
       <c r="H23" s="137">
-        <v>1173</v>
+        <v>1290</v>
       </c>
       <c r="I23" s="138"/>
       <c r="J23" s="136"/>
       <c r="K23" s="137">
-        <v>1133</v>
+        <v>1227</v>
       </c>
       <c r="L23" s="138"/>
       <c r="M23" s="136"/>
       <c r="N23" s="137">
-        <v>1196</v>
+        <v>1307</v>
       </c>
       <c r="O23" s="138"/>
       <c r="P23" s="136"/>
       <c r="Q23" s="137">
-        <v>1192</v>
+        <v>1302</v>
       </c>
       <c r="R23" s="138"/>
       <c r="S23" s="136"/>
       <c r="T23" s="137">
-        <v>1165</v>
+        <v>1285</v>
       </c>
       <c r="U23" s="138"/>
       <c r="V23" s="136"/>
       <c r="W23" s="137">
-        <v>1087</v>
+        <v>1206</v>
       </c>
       <c r="X23" s="138"/>
       <c r="Y23" s="136"/>
       <c r="Z23" s="137">
-        <v>1205</v>
+        <v>1316</v>
       </c>
       <c r="AA23" s="138"/>
       <c r="AB23" s="136"/>
       <c r="AC23" s="137">
-        <v>1151</v>
+        <v>1263</v>
       </c>
       <c r="AD23" s="138"/>
       <c r="AE23" s="136"/>
       <c r="AF23" s="137">
-        <v>1260</v>
+        <v>1371</v>
       </c>
       <c r="AG23" s="138"/>
       <c r="AH23" s="136"/>
       <c r="AI23" s="137">
-        <v>842</v>
+        <v>940</v>
       </c>
       <c r="AJ23" s="138"/>
       <c r="AK23" s="136"/>
       <c r="AL23" s="137">
-        <v>1140</v>
+        <v>1248</v>
       </c>
       <c r="AM23" s="138"/>
       <c r="AN23" s="136"/>
       <c r="AO23" s="139">
-        <v>1185</v>
+        <v>1286</v>
       </c>
       <c r="AP23" s="3"/>
       <c r="AU23" s="14"/>
@@ -9025,7 +9025,7 @@
       <c r="BV23" s="6"/>
       <c r="BW23" s="6"/>
       <c r="BY23" s="12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:77" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9108,7 +9108,7 @@
       <c r="BV24" s="6"/>
       <c r="BW24" s="6"/>
       <c r="BY24" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:77" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9128,45 +9128,45 @@
       </c>
       <c r="I25" s="138"/>
       <c r="J25" s="140">
-        <v>0.625</v>
+        <v>0.6875</v>
       </c>
       <c r="K25" s="137">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L25" s="138"/>
       <c r="M25" s="140">
-        <v>0.6875</v>
+        <v>0.75</v>
       </c>
       <c r="N25" s="137">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O25" s="138"/>
       <c r="P25" s="140">
-        <v>0.625</v>
+        <v>0.8125</v>
       </c>
       <c r="Q25" s="137">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="R25" s="138"/>
       <c r="S25" s="140">
-        <v>0.625</v>
+        <v>0.6875</v>
       </c>
       <c r="T25" s="137">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U25" s="138"/>
       <c r="V25" s="140">
-        <v>0.5625</v>
+        <v>0.8125</v>
       </c>
       <c r="W25" s="137">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="X25" s="138"/>
       <c r="Y25" s="140">
-        <v>0.8125</v>
+        <v>0.625</v>
       </c>
       <c r="Z25" s="137">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AA25" s="138"/>
       <c r="AB25" s="140">
@@ -9184,17 +9184,17 @@
       </c>
       <c r="AG25" s="138"/>
       <c r="AH25" s="140">
-        <v>0.4375</v>
+        <v>0.5</v>
       </c>
       <c r="AI25" s="137">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ25" s="138"/>
       <c r="AK25" s="140">
-        <v>0.6875</v>
+        <v>0.75</v>
       </c>
       <c r="AL25" s="137">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM25" s="138"/>
       <c r="AN25" s="140">
@@ -9215,7 +9215,7 @@
       <c r="BV25" s="6"/>
       <c r="BW25" s="6"/>
       <c r="BY25" s="12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:77" s="13" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9228,87 +9228,87 @@
       </c>
       <c r="F26" s="144"/>
       <c r="G26" s="145">
-        <v>0.58173076923076927</v>
+        <v>0.59375</v>
       </c>
       <c r="H26" s="146">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="I26" s="147"/>
       <c r="J26" s="145">
-        <v>0.60096153846153844</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="K26" s="146">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="L26" s="147"/>
       <c r="M26" s="145">
-        <v>0.59615384615384615</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="N26" s="146">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="O26" s="147"/>
       <c r="P26" s="145">
-        <v>0.625</v>
+        <v>0.6383928571428571</v>
       </c>
       <c r="Q26" s="146">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="R26" s="147"/>
       <c r="S26" s="145">
-        <v>0.61057692307692313</v>
+        <v>0.6160714285714286</v>
       </c>
       <c r="T26" s="146">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="U26" s="147"/>
       <c r="V26" s="145">
-        <v>0.53846153846153844</v>
+        <v>0.5580357142857143</v>
       </c>
       <c r="W26" s="146">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="X26" s="147"/>
       <c r="Y26" s="145">
-        <v>0.62019230769230771</v>
+        <v>0.6205357142857143</v>
       </c>
       <c r="Z26" s="146">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="AA26" s="147"/>
       <c r="AB26" s="145">
-        <v>0.58653846153846156</v>
+        <v>0.5982142857142857</v>
       </c>
       <c r="AC26" s="146">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="AD26" s="147"/>
       <c r="AE26" s="145">
-        <v>0.64903846153846156</v>
+        <v>0.6517857142857143</v>
       </c>
       <c r="AF26" s="146">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="AG26" s="147"/>
       <c r="AH26" s="145">
-        <v>0.4375</v>
+        <v>0.4419642857142857</v>
       </c>
       <c r="AI26" s="146">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="AJ26" s="147"/>
       <c r="AK26" s="145">
-        <v>0.54326923076923073</v>
+        <v>0.5580357142857143</v>
       </c>
       <c r="AL26" s="146">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="AM26" s="147"/>
       <c r="AN26" s="145">
-        <v>0.61057692307692313</v>
+        <v>0.6205357142857143</v>
       </c>
       <c r="AO26" s="148">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="AP26" s="3"/>
       <c r="AW26" s="3"/>
@@ -9332,7 +9332,7 @@
       <c r="BV26" s="6"/>
       <c r="BW26" s="6"/>
       <c r="BY26" s="12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:77" s="7" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9356,7 +9356,7 @@
         <v>68</v>
       </c>
       <c r="P27" s="153">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="Q27" s="150"/>
       <c r="R27" s="150"/>
@@ -9369,7 +9369,7 @@
         <v>69</v>
       </c>
       <c r="Y27" s="154">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Z27" s="150"/>
       <c r="AA27" s="152"/>
@@ -9382,7 +9382,7 @@
         <v>70</v>
       </c>
       <c r="AH27" s="154">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AI27" s="150"/>
       <c r="AJ27" s="152"/>
@@ -9405,7 +9405,7 @@
       <c r="BV27" s="6"/>
       <c r="BW27" s="6"/>
       <c r="BY27" s="12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:77" s="7" customFormat="1" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -9462,7 +9462,7 @@
       <c r="BV28" s="6"/>
       <c r="BW28" s="6"/>
       <c r="BY28" s="12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:77" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -9471,7 +9471,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="17"/>
@@ -9731,7 +9731,7 @@
       <c r="F34" s="26"/>
       <c r="G34" s="25"/>
       <c r="H34" s="26">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="I34" s="26"/>
       <c r="J34" s="26"/>
@@ -9741,37 +9741,37 @@
       <c r="L34" s="26"/>
       <c r="M34" s="26"/>
       <c r="N34" s="26">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="Q34" s="26">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="T34" s="26">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="W34" s="26">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="Z34" s="26">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AC34" s="26">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AF34" s="26">
+        <v>111</v>
+      </c>
+      <c r="AI34" s="26">
         <v>98</v>
       </c>
-      <c r="AI34" s="26">
-        <v>50</v>
-      </c>
       <c r="AL34" s="26">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AO34" s="26">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="AV34" s="26">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="BY34" s="12"/>
     </row>
@@ -9781,44 +9781,44 @@
       <c r="F35" s="3"/>
       <c r="G35" s="27"/>
       <c r="H35" s="28">
-        <v>90.230769230769226</v>
+        <v>92.142857142857139</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="28">
-        <v>87.15384615384616</v>
+        <v>87.642857142857139</v>
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="28">
-        <v>92</v>
+        <v>93.357142857142861</v>
       </c>
       <c r="Q35" s="28">
-        <v>91.692307692307693</v>
+        <v>93</v>
       </c>
       <c r="T35" s="28">
-        <v>89.615384615384613</v>
+        <v>91.785714285714292</v>
       </c>
       <c r="W35" s="28">
-        <v>83.615384615384613</v>
+        <v>86.142857142857139</v>
       </c>
       <c r="Z35" s="28">
-        <v>92.692307692307693</v>
+        <v>94</v>
       </c>
       <c r="AC35" s="28">
-        <v>88.538461538461533</v>
+        <v>90.214285714285708</v>
       </c>
       <c r="AF35" s="28">
-        <v>96.92307692307692</v>
+        <v>97.928571428571431</v>
       </c>
       <c r="AI35" s="28">
-        <v>64.769230769230774</v>
+        <v>67.142857142857139</v>
       </c>
       <c r="AL35" s="28">
-        <v>87.692307692307693</v>
+        <v>89.142857142857139</v>
       </c>
       <c r="AO35" s="28">
-        <v>91.15384615384616</v>
+        <v>91.857142857142861</v>
       </c>
       <c r="BY35" s="12"/>
     </row>
@@ -9828,44 +9828,44 @@
       <c r="F36" s="3"/>
       <c r="G36" s="27"/>
       <c r="H36" s="28">
-        <v>1173</v>
+        <v>1290</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="28">
-        <v>1133</v>
+        <v>1227</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="28">
-        <v>1196</v>
+        <v>1307</v>
       </c>
       <c r="Q36" s="28">
-        <v>1192</v>
+        <v>1302</v>
       </c>
       <c r="T36" s="28">
-        <v>1165</v>
+        <v>1285</v>
       </c>
       <c r="W36" s="28">
-        <v>1087</v>
+        <v>1206</v>
       </c>
       <c r="Z36" s="28">
-        <v>1205</v>
+        <v>1316</v>
       </c>
       <c r="AC36" s="28">
-        <v>1151</v>
+        <v>1263</v>
       </c>
       <c r="AF36" s="28">
-        <v>1260</v>
+        <v>1371</v>
       </c>
       <c r="AI36" s="28">
-        <v>842</v>
+        <v>940</v>
       </c>
       <c r="AL36" s="28">
-        <v>1140</v>
+        <v>1248</v>
       </c>
       <c r="AO36" s="28">
-        <v>1185</v>
+        <v>1286</v>
       </c>
       <c r="BY36" s="12"/>
     </row>
@@ -9927,24 +9927,24 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="28">
+        <v>12</v>
+      </c>
+      <c r="Q38" s="28">
+        <v>13</v>
+      </c>
+      <c r="T38" s="28">
         <v>11</v>
       </c>
-      <c r="Q38" s="28">
+      <c r="W38" s="28">
+        <v>13</v>
+      </c>
+      <c r="Z38" s="28">
         <v>10</v>
-      </c>
-      <c r="T38" s="28">
-        <v>10</v>
-      </c>
-      <c r="W38" s="28">
-        <v>9</v>
-      </c>
-      <c r="Z38" s="28">
-        <v>13</v>
       </c>
       <c r="AC38" s="28">
         <v>12</v>
@@ -9953,10 +9953,10 @@
         <v>11</v>
       </c>
       <c r="AI38" s="28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL38" s="28">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO38" s="28">
         <v>12</v>
@@ -9969,44 +9969,44 @@
       <c r="F39" s="3"/>
       <c r="G39" s="27"/>
       <c r="H39" s="28">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="28">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="28">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="Q39" s="28">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="T39" s="28">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="W39" s="28">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="Z39" s="28">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="AC39" s="28">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="AF39" s="28">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="AI39" s="28">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="AL39" s="28">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="AO39" s="28">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="BY39" s="12"/>
     </row>
@@ -10015,7 +10015,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H40" s="28"/>
       <c r="I40" s="3"/>
@@ -10061,7 +10061,7 @@
       </c>
       <c r="AL40" s="28"/>
       <c r="AN40" s="27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO40" s="28"/>
       <c r="AR40" s="29">
@@ -10082,24 +10082,24 @@
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="27">
-        <v>0.625</v>
+        <v>0.6875</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="27">
+        <v>0.75</v>
+      </c>
+      <c r="P41" s="27">
+        <v>0.8125</v>
+      </c>
+      <c r="S41" s="27">
         <v>0.6875</v>
       </c>
-      <c r="P41" s="27">
+      <c r="V41" s="27">
+        <v>0.8125</v>
+      </c>
+      <c r="Y41" s="27">
         <v>0.625</v>
-      </c>
-      <c r="S41" s="27">
-        <v>0.625</v>
-      </c>
-      <c r="V41" s="27">
-        <v>0.5625</v>
-      </c>
-      <c r="Y41" s="27">
-        <v>0.8125</v>
       </c>
       <c r="AB41" s="27">
         <v>0.75</v>
@@ -10108,10 +10108,10 @@
         <v>0.6875</v>
       </c>
       <c r="AH41" s="27">
-        <v>0.4375</v>
+        <v>0.5</v>
       </c>
       <c r="AK41" s="27">
-        <v>0.6875</v>
+        <v>0.75</v>
       </c>
       <c r="AN41" s="27">
         <v>0.75</v>
@@ -10129,44 +10129,44 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="27">
-        <v>0.58173076923076927</v>
+        <v>0.59375</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="27">
-        <v>0.60096153846153844</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="27">
-        <v>0.59615384615384615</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="P42" s="27">
-        <v>0.625</v>
+        <v>0.6383928571428571</v>
       </c>
       <c r="S42" s="27">
-        <v>0.61057692307692313</v>
+        <v>0.6160714285714286</v>
       </c>
       <c r="V42" s="27">
-        <v>0.53846153846153844</v>
+        <v>0.5580357142857143</v>
       </c>
       <c r="Y42" s="27">
-        <v>0.62019230769230771</v>
+        <v>0.6205357142857143</v>
       </c>
       <c r="AB42" s="27">
-        <v>0.58653846153846156</v>
+        <v>0.5982142857142857</v>
       </c>
       <c r="AE42" s="27">
-        <v>0.64903846153846156</v>
+        <v>0.6517857142857143</v>
       </c>
       <c r="AH42" s="27">
-        <v>0.4375</v>
+        <v>0.4419642857142857</v>
       </c>
       <c r="AK42" s="27">
-        <v>0.54326923076923073</v>
+        <v>0.5580357142857143</v>
       </c>
       <c r="AN42" s="27">
-        <v>0.61057692307692313</v>
+        <v>0.6205357142857143</v>
       </c>
       <c r="BY42" s="12"/>
     </row>
@@ -12222,7 +12222,7 @@
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
-  <pageSetup scale="64" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="57" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12371,56 +12371,56 @@
         <v>91</v>
       </c>
       <c r="F2" s="115">
-        <v>-42</v>
+        <v>-45</v>
       </c>
       <c r="G2" s="157"/>
       <c r="H2" s="156" t="s">
         <v>92</v>
       </c>
       <c r="I2" s="115">
-        <v>-11</v>
+        <v>-14</v>
       </c>
       <c r="J2" s="157"/>
       <c r="K2" s="156" t="s">
         <v>93</v>
       </c>
       <c r="L2" s="115">
-        <v>-11</v>
+        <v>-14</v>
       </c>
       <c r="M2" s="157"/>
       <c r="N2" s="156" t="s">
         <v>94</v>
       </c>
       <c r="O2" s="115">
-        <v>-42</v>
+        <v>-45</v>
       </c>
       <c r="P2" s="157"/>
       <c r="Q2" s="156" t="s">
         <v>95</v>
       </c>
       <c r="R2" s="115">
-        <v>-11</v>
+        <v>17</v>
       </c>
       <c r="S2" s="157"/>
       <c r="T2" s="156" t="s">
         <v>96</v>
       </c>
       <c r="U2" s="115">
-        <v>-42</v>
+        <v>-45</v>
       </c>
       <c r="V2" s="157"/>
       <c r="W2" s="156" t="s">
         <v>97</v>
       </c>
       <c r="X2" s="115">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y2" s="157"/>
       <c r="Z2" s="156" t="s">
         <v>98</v>
       </c>
       <c r="AA2" s="115">
-        <v>-11</v>
+        <v>-14</v>
       </c>
       <c r="AB2" s="157"/>
       <c r="AC2" s="156" t="s">
@@ -12434,21 +12434,21 @@
         <v>100</v>
       </c>
       <c r="AG2" s="115">
-        <v>-11</v>
+        <v>-14</v>
       </c>
       <c r="AH2" s="157"/>
       <c r="AI2" s="156" t="s">
         <v>101</v>
       </c>
       <c r="AJ2" s="115">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AK2" s="157"/>
       <c r="AL2" s="156" t="s">
         <v>102</v>
       </c>
       <c r="AM2" s="115">
-        <v>-11</v>
+        <v>-14</v>
       </c>
       <c r="AN2" s="158"/>
       <c r="AO2" s="211">
@@ -12458,7 +12458,7 @@
         <v>8</v>
       </c>
       <c r="AQ2" s="39">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR2" s="40" t="s">
         <v>9</v>
@@ -12590,7 +12590,7 @@
         <v>14</v>
       </c>
       <c r="AQ3" s="41">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR3" s="40" t="s">
         <v>15</v>
@@ -15606,116 +15606,116 @@
       <c r="C18" s="191">
         <v>16</v>
       </c>
-      <c r="D18" s="222" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="193" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="J18" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="K18" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="L18" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="M18" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="N18" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="O18" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="P18" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="R18" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="S18" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="T18" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="U18" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="V18" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="W18" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="X18" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM18" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN18" s="225" t="s">
-        <v>0</v>
+      <c r="D18" s="222">
+        <v>16</v>
+      </c>
+      <c r="E18" s="193">
+        <v>3</v>
+      </c>
+      <c r="F18" s="223">
+        <v>12</v>
+      </c>
+      <c r="G18" s="224">
+        <v>117</v>
+      </c>
+      <c r="H18" s="196">
+        <v>12</v>
+      </c>
+      <c r="I18" s="223">
+        <v>11</v>
+      </c>
+      <c r="J18" s="224">
+        <v>94</v>
+      </c>
+      <c r="K18" s="196">
+        <v>5</v>
+      </c>
+      <c r="L18" s="223">
+        <v>12</v>
+      </c>
+      <c r="M18" s="224">
+        <v>111</v>
+      </c>
+      <c r="N18" s="196">
+        <v>8</v>
+      </c>
+      <c r="O18" s="223">
+        <v>13</v>
+      </c>
+      <c r="P18" s="224">
+        <v>110</v>
+      </c>
+      <c r="Q18" s="196">
+        <v>1</v>
+      </c>
+      <c r="R18" s="223">
+        <v>11</v>
+      </c>
+      <c r="S18" s="224">
+        <v>120</v>
+      </c>
+      <c r="T18" s="196">
+        <v>2</v>
+      </c>
+      <c r="U18" s="223">
+        <v>13</v>
+      </c>
+      <c r="V18" s="224">
+        <v>119</v>
+      </c>
+      <c r="W18" s="196">
+        <v>5</v>
+      </c>
+      <c r="X18" s="223">
+        <v>10</v>
+      </c>
+      <c r="Y18" s="224">
+        <v>111</v>
+      </c>
+      <c r="Z18" s="196">
+        <v>4</v>
+      </c>
+      <c r="AA18" s="223">
+        <v>12</v>
+      </c>
+      <c r="AB18" s="224">
+        <v>112</v>
+      </c>
+      <c r="AC18" s="196">
+        <v>5</v>
+      </c>
+      <c r="AD18" s="223">
+        <v>11</v>
+      </c>
+      <c r="AE18" s="224">
+        <v>111</v>
+      </c>
+      <c r="AF18" s="196">
+        <v>11</v>
+      </c>
+      <c r="AG18" s="223">
+        <v>8</v>
+      </c>
+      <c r="AH18" s="224">
+        <v>98</v>
+      </c>
+      <c r="AI18" s="196">
+        <v>9</v>
+      </c>
+      <c r="AJ18" s="223">
+        <v>12</v>
+      </c>
+      <c r="AK18" s="224">
+        <v>108</v>
+      </c>
+      <c r="AL18" s="196">
+        <v>10</v>
+      </c>
+      <c r="AM18" s="223">
+        <v>12</v>
+      </c>
+      <c r="AN18" s="225">
+        <v>101</v>
       </c>
       <c r="AO18" s="45"/>
       <c r="AP18" s="46"/>
@@ -15729,85 +15729,85 @@
         <v>0</v>
       </c>
       <c r="BL18" s="4"/>
-      <c r="BM18" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN18" s="4" t="s">
-        <v>0</v>
+      <c r="BM18" s="4">
+        <v>117</v>
+      </c>
+      <c r="BN18" s="4">
+        <v>1</v>
       </c>
       <c r="BO18" s="4"/>
-      <c r="BP18" s="4" t="s">
-        <v>0</v>
+      <c r="BP18" s="4">
+        <v>94</v>
       </c>
       <c r="BQ18" s="4" t="s">
         <v>0</v>
       </c>
       <c r="BR18" s="4"/>
-      <c r="BS18" s="4" t="s">
-        <v>0</v>
+      <c r="BS18" s="4">
+        <v>111</v>
       </c>
       <c r="BT18" s="4" t="s">
         <v>0</v>
       </c>
       <c r="BU18" s="4"/>
-      <c r="BV18" s="4" t="s">
-        <v>0</v>
+      <c r="BV18" s="4">
+        <v>110</v>
       </c>
       <c r="BW18" s="4" t="s">
         <v>0</v>
       </c>
       <c r="BX18" s="4"/>
-      <c r="BY18" s="4" t="s">
-        <v>0</v>
+      <c r="BY18" s="4">
+        <v>120</v>
       </c>
       <c r="BZ18" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CA18" s="4"/>
-      <c r="CB18" s="4" t="s">
-        <v>0</v>
+      <c r="CB18" s="4">
+        <v>119</v>
       </c>
       <c r="CC18" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CD18" s="4"/>
-      <c r="CE18" s="4" t="s">
-        <v>0</v>
+      <c r="CE18" s="4">
+        <v>111</v>
       </c>
       <c r="CF18" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CG18" s="4"/>
-      <c r="CH18" s="4" t="s">
-        <v>0</v>
+      <c r="CH18" s="4">
+        <v>112</v>
       </c>
       <c r="CI18" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CJ18" s="4"/>
-      <c r="CK18" s="4" t="s">
-        <v>0</v>
+      <c r="CK18" s="4">
+        <v>111</v>
       </c>
       <c r="CL18" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CM18" s="4"/>
-      <c r="CN18" s="4" t="s">
-        <v>0</v>
+      <c r="CN18" s="4">
+        <v>98</v>
       </c>
       <c r="CO18" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CP18" s="4"/>
-      <c r="CQ18" s="4" t="s">
-        <v>0</v>
+      <c r="CQ18" s="4">
+        <v>108</v>
       </c>
       <c r="CR18" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CS18" s="4"/>
-      <c r="CT18" s="4" t="s">
-        <v>0</v>
+      <c r="CT18" s="4">
+        <v>101</v>
       </c>
       <c r="CU18" s="4"/>
     </row>
@@ -16241,115 +16241,115 @@
         <v>22</v>
       </c>
       <c r="D21" s="237">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="E21" s="238">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F21" s="239">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="G21" s="240">
-        <v>1173</v>
+        <v>1290</v>
       </c>
       <c r="H21" s="241">
         <v>10</v>
       </c>
       <c r="I21" s="239">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="J21" s="240">
-        <v>1133</v>
+        <v>1227</v>
       </c>
       <c r="K21" s="241">
         <v>3</v>
       </c>
       <c r="L21" s="239">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="M21" s="240">
-        <v>1196</v>
+        <v>1307</v>
       </c>
       <c r="N21" s="241">
         <v>4</v>
       </c>
       <c r="O21" s="239">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="P21" s="240">
-        <v>1192</v>
+        <v>1302</v>
       </c>
       <c r="Q21" s="241">
         <v>7</v>
       </c>
       <c r="R21" s="239">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="S21" s="240">
-        <v>1165</v>
+        <v>1285</v>
       </c>
       <c r="T21" s="241">
         <v>11</v>
       </c>
       <c r="U21" s="239">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="V21" s="240">
-        <v>1087</v>
+        <v>1206</v>
       </c>
       <c r="W21" s="241">
         <v>2</v>
       </c>
       <c r="X21" s="239">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="Y21" s="240">
-        <v>1205</v>
+        <v>1316</v>
       </c>
       <c r="Z21" s="241">
         <v>8</v>
       </c>
       <c r="AA21" s="239">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="AB21" s="240">
-        <v>1151</v>
+        <v>1263</v>
       </c>
       <c r="AC21" s="241">
         <v>1</v>
       </c>
       <c r="AD21" s="239">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="AE21" s="240">
-        <v>1260</v>
+        <v>1371</v>
       </c>
       <c r="AF21" s="241">
         <v>12</v>
       </c>
       <c r="AG21" s="239">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="AH21" s="240">
-        <v>842</v>
+        <v>940</v>
       </c>
       <c r="AI21" s="241">
         <v>9</v>
       </c>
       <c r="AJ21" s="239">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="AK21" s="240">
-        <v>1140</v>
+        <v>1248</v>
       </c>
       <c r="AL21" s="241">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM21" s="239">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="AN21" s="242">
-        <v>1185</v>
+        <v>1286</v>
       </c>
       <c r="AO21" s="48"/>
       <c r="AP21" s="49"/>
@@ -16360,62 +16360,62 @@
       <c r="BK21" s="4"/>
       <c r="BL21" s="4"/>
       <c r="BM21" s="4">
-        <v>1173</v>
+        <v>1290</v>
       </c>
       <c r="BN21" s="4"/>
       <c r="BO21" s="4"/>
       <c r="BP21" s="4">
-        <v>1133</v>
+        <v>1227</v>
       </c>
       <c r="BQ21" s="4"/>
       <c r="BR21" s="4"/>
       <c r="BS21" s="4">
-        <v>1196</v>
+        <v>1307</v>
       </c>
       <c r="BT21" s="4"/>
       <c r="BU21" s="4"/>
       <c r="BV21" s="4">
-        <v>1192</v>
+        <v>1302</v>
       </c>
       <c r="BW21" s="4"/>
       <c r="BX21" s="4"/>
       <c r="BY21" s="4">
-        <v>1165</v>
+        <v>1285</v>
       </c>
       <c r="BZ21" s="4"/>
       <c r="CA21" s="4"/>
       <c r="CB21" s="4">
-        <v>1087</v>
+        <v>1206</v>
       </c>
       <c r="CC21" s="4"/>
       <c r="CD21" s="4"/>
       <c r="CE21" s="4">
-        <v>1205</v>
+        <v>1316</v>
       </c>
       <c r="CF21" s="4"/>
       <c r="CG21" s="4"/>
       <c r="CH21" s="4">
-        <v>1151</v>
+        <v>1263</v>
       </c>
       <c r="CI21" s="4"/>
       <c r="CJ21" s="4"/>
       <c r="CK21" s="4">
-        <v>1260</v>
+        <v>1371</v>
       </c>
       <c r="CL21" s="4"/>
       <c r="CM21" s="4"/>
       <c r="CN21" s="4">
-        <v>842</v>
+        <v>940</v>
       </c>
       <c r="CO21" s="4"/>
       <c r="CP21" s="4"/>
       <c r="CQ21" s="4">
-        <v>1140</v>
+        <v>1248</v>
       </c>
       <c r="CR21" s="4"/>
       <c r="CS21" s="4"/>
       <c r="CT21" s="4">
-        <v>1185</v>
+        <v>1286</v>
       </c>
       <c r="CU21" s="4"/>
     </row>
@@ -16426,112 +16426,112 @@
         <v>23</v>
       </c>
       <c r="E22" s="246">
-        <v>5.615384615384615</v>
+        <v>5.4285714285714288</v>
       </c>
       <c r="F22" s="247">
-        <v>8.6428571428571423</v>
+        <v>8.8666666666666671</v>
       </c>
       <c r="G22" s="248">
-        <v>90.230769230769226</v>
+        <v>92.142857142857139</v>
       </c>
       <c r="H22" s="249">
-        <v>7.3571428571428568</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="I22" s="247">
-        <v>8.9285714285714288</v>
+        <v>9.0666666666666664</v>
       </c>
       <c r="J22" s="248">
-        <v>87.15384615384616</v>
+        <v>87.642857142857139</v>
       </c>
       <c r="K22" s="249">
         <v>5</v>
       </c>
       <c r="L22" s="247">
-        <v>8.8571428571428577</v>
+        <v>9.0666666666666664</v>
       </c>
       <c r="M22" s="248">
-        <v>92</v>
+        <v>93.357142857142861</v>
       </c>
       <c r="N22" s="249">
-        <v>5.8571428571428568</v>
+        <v>6</v>
       </c>
       <c r="O22" s="247">
-        <v>9.2857142857142865</v>
+        <v>9.5333333333333332</v>
       </c>
       <c r="P22" s="248">
-        <v>91.692307692307693</v>
+        <v>93</v>
       </c>
       <c r="Q22" s="249">
-        <v>6.3571428571428568</v>
+        <v>6</v>
       </c>
       <c r="R22" s="247">
-        <v>9.0714285714285712</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="S22" s="248">
-        <v>89.615384615384613</v>
+        <v>91.785714285714292</v>
       </c>
       <c r="T22" s="249">
-        <v>7.384615384615385</v>
+        <v>7</v>
       </c>
       <c r="U22" s="247">
-        <v>8</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="V22" s="248">
-        <v>83.615384615384613</v>
+        <v>86.142857142857139</v>
       </c>
       <c r="W22" s="249">
         <v>5</v>
       </c>
       <c r="X22" s="247">
-        <v>9.2142857142857135</v>
+        <v>9.2666666666666675</v>
       </c>
       <c r="Y22" s="248">
-        <v>92.692307692307693</v>
+        <v>94</v>
       </c>
       <c r="Z22" s="249">
-        <v>6.4285714285714288</v>
+        <v>6.2666666666666666</v>
       </c>
       <c r="AA22" s="247">
-        <v>8.7142857142857135</v>
+        <v>8.9333333333333336</v>
       </c>
       <c r="AB22" s="248">
-        <v>88.538461538461533</v>
+        <v>90.214285714285708</v>
       </c>
       <c r="AC22" s="249">
-        <v>4.5</v>
+        <v>4.5333333333333332</v>
       </c>
       <c r="AD22" s="247">
-        <v>9.6428571428571423</v>
+        <v>9.7333333333333325</v>
       </c>
       <c r="AE22" s="248">
-        <v>96.92307692307692</v>
+        <v>97.928571428571431</v>
       </c>
       <c r="AF22" s="249">
+        <v>8.5384615384615383</v>
+      </c>
+      <c r="AG22" s="247">
+        <v>6.6</v>
+      </c>
+      <c r="AH22" s="248">
+        <v>67.142857142857139</v>
+      </c>
+      <c r="AI22" s="249">
+        <v>6.2857142857142856</v>
+      </c>
+      <c r="AJ22" s="247">
         <v>8.3333333333333339</v>
       </c>
-      <c r="AG22" s="247">
-        <v>6.5</v>
-      </c>
-      <c r="AH22" s="248">
-        <v>64.769230769230774</v>
-      </c>
-      <c r="AI22" s="249">
-        <v>6.0769230769230766</v>
-      </c>
-      <c r="AJ22" s="247">
-        <v>8.0714285714285712</v>
-      </c>
       <c r="AK22" s="248">
-        <v>87.692307692307693</v>
+        <v>89.142857142857139</v>
       </c>
       <c r="AL22" s="249">
-        <v>6.5714285714285712</v>
+        <v>6.8</v>
       </c>
       <c r="AM22" s="247">
-        <v>9.0714285714285712</v>
+        <v>9.2666666666666675</v>
       </c>
       <c r="AN22" s="250">
-        <v>91.15384615384616</v>
+        <v>91.857142857142861</v>
       </c>
       <c r="AO22" s="48"/>
       <c r="AP22" s="49"/>
@@ -16604,7 +16604,7 @@
       <c r="O23" s="255"/>
       <c r="P23" s="256"/>
       <c r="Q23" s="257">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R23" s="255"/>
       <c r="S23" s="256"/>
@@ -16719,7 +16719,7 @@
       <c r="R24" s="108"/>
       <c r="S24" s="109"/>
       <c r="T24" s="75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U24" s="108"/>
       <c r="V24" s="109"/>
@@ -16828,7 +16828,7 @@
         <v>26</v>
       </c>
       <c r="E25" s="74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" s="108"/>
       <c r="G25" s="109"/>
@@ -16967,7 +16967,7 @@
       <c r="F26" s="108"/>
       <c r="G26" s="109"/>
       <c r="H26" s="75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I26" s="108"/>
       <c r="J26" s="109"/>
@@ -17643,7 +17643,7 @@
         <v>124</v>
       </c>
       <c r="AV33" s="273">
-        <v>-42</v>
+        <v>-45</v>
       </c>
       <c r="AW33" s="274">
         <v>4</v>
@@ -17655,7 +17655,7 @@
         <v>61</v>
       </c>
       <c r="AZ33" s="275">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="BA33" s="277" t="s">
         <v>0</v>
@@ -17738,10 +17738,10 @@
         <v>97</v>
       </c>
       <c r="AU34" s="280">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AV34" s="281">
-        <v>-42</v>
+        <v>-45</v>
       </c>
       <c r="AW34" s="282">
         <v>2</v>
@@ -17759,7 +17759,7 @@
         <v>61</v>
       </c>
       <c r="BB34" s="286">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BC34" s="287"/>
       <c r="BD34" s="282"/>
@@ -17832,14 +17832,14 @@
       <c r="CU34" s="4"/>
     </row>
     <row r="35" spans="46:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AT35" s="297" t="s">
-        <v>101</v>
+      <c r="AT35" s="271" t="s">
+        <v>95</v>
       </c>
       <c r="AU35" s="280">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AV35" s="281">
-        <v>-42</v>
+        <v>-45</v>
       </c>
       <c r="AW35" s="282">
         <v>2</v>
@@ -17930,20 +17930,20 @@
       <c r="CU35" s="4"/>
     </row>
     <row r="36" spans="46:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AT36" s="271" t="s">
-        <v>92</v>
+      <c r="AT36" s="296" t="s">
+        <v>101</v>
       </c>
       <c r="AU36" s="280">
-        <v>-11</v>
+        <v>17</v>
       </c>
       <c r="AV36" s="281">
-        <v>-42</v>
+        <v>-45</v>
       </c>
       <c r="AW36" s="282">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX36" s="283">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="AY36" s="284" t="s">
         <v>0</v>
@@ -18029,13 +18029,13 @@
     </row>
     <row r="37" spans="46:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AT37" s="271" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AU37" s="280">
-        <v>-11</v>
+        <v>-14</v>
       </c>
       <c r="AV37" s="281">
-        <v>-42</v>
+        <v>-45</v>
       </c>
       <c r="AW37" s="282">
         <v>1</v>
@@ -18127,13 +18127,13 @@
     </row>
     <row r="38" spans="46:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AT38" s="271" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AU38" s="280">
-        <v>-11</v>
+        <v>-14</v>
       </c>
       <c r="AV38" s="281">
-        <v>-42</v>
+        <v>-45</v>
       </c>
       <c r="AW38" s="282">
         <v>1</v>
@@ -18162,63 +18162,63 @@
       <c r="BI38" s="286"/>
       <c r="BJ38" s="4"/>
       <c r="BK38" s="4"/>
-      <c r="BL38" s="4" t="s">
-        <v>0</v>
+      <c r="BL38" s="4">
+        <v>12</v>
       </c>
       <c r="BM38" s="4"/>
       <c r="BN38" s="4"/>
-      <c r="BO38" s="4" t="s">
-        <v>0</v>
+      <c r="BO38" s="4">
+        <v>11</v>
       </c>
       <c r="BP38" s="4"/>
       <c r="BQ38" s="4"/>
-      <c r="BR38" s="4" t="s">
-        <v>0</v>
+      <c r="BR38" s="4">
+        <v>12</v>
       </c>
       <c r="BS38" s="4"/>
       <c r="BT38" s="4"/>
-      <c r="BU38" s="4" t="s">
-        <v>0</v>
+      <c r="BU38" s="4">
+        <v>13</v>
       </c>
       <c r="BV38" s="4"/>
       <c r="BW38" s="4"/>
-      <c r="BX38" s="4" t="s">
-        <v>0</v>
+      <c r="BX38" s="4">
+        <v>11</v>
       </c>
       <c r="BY38" s="4"/>
       <c r="BZ38" s="4"/>
-      <c r="CA38" s="4" t="s">
-        <v>0</v>
+      <c r="CA38" s="4">
+        <v>13</v>
       </c>
       <c r="CB38" s="4"/>
       <c r="CC38" s="4"/>
-      <c r="CD38" s="4" t="s">
-        <v>0</v>
+      <c r="CD38" s="4">
+        <v>10</v>
       </c>
       <c r="CE38" s="4"/>
       <c r="CF38" s="4"/>
-      <c r="CG38" s="4" t="s">
-        <v>0</v>
+      <c r="CG38" s="4">
+        <v>12</v>
       </c>
       <c r="CH38" s="4"/>
       <c r="CI38" s="4"/>
-      <c r="CJ38" s="4" t="s">
-        <v>0</v>
+      <c r="CJ38" s="4">
+        <v>11</v>
       </c>
       <c r="CK38" s="4"/>
       <c r="CL38" s="4"/>
-      <c r="CM38" s="4" t="s">
-        <v>0</v>
+      <c r="CM38" s="4">
+        <v>8</v>
       </c>
       <c r="CN38" s="4"/>
       <c r="CO38" s="4"/>
-      <c r="CP38" s="4" t="s">
-        <v>0</v>
+      <c r="CP38" s="4">
+        <v>12</v>
       </c>
       <c r="CQ38" s="4"/>
       <c r="CR38" s="4"/>
-      <c r="CS38" s="4" t="s">
-        <v>0</v>
+      <c r="CS38" s="4">
+        <v>12</v>
       </c>
       <c r="CT38" s="4"/>
       <c r="CU38" s="4"/>
@@ -18228,10 +18228,10 @@
         <v>98</v>
       </c>
       <c r="AU39" s="280">
-        <v>-11</v>
+        <v>-14</v>
       </c>
       <c r="AV39" s="281">
-        <v>-42</v>
+        <v>-45</v>
       </c>
       <c r="AW39" s="282">
         <v>1</v>
@@ -18326,10 +18326,10 @@
         <v>100</v>
       </c>
       <c r="AU40" s="280">
-        <v>-11</v>
+        <v>-14</v>
       </c>
       <c r="AV40" s="281">
-        <v>-42</v>
+        <v>-45</v>
       </c>
       <c r="AW40" s="282">
         <v>1</v>
@@ -18424,10 +18424,10 @@
         <v>102</v>
       </c>
       <c r="AU41" s="280">
-        <v>-11</v>
+        <v>-14</v>
       </c>
       <c r="AV41" s="281">
-        <v>-42</v>
+        <v>-45</v>
       </c>
       <c r="AW41" s="282">
         <v>1</v>
@@ -18457,62 +18457,62 @@
       <c r="BJ41" s="4"/>
       <c r="BK41" s="4"/>
       <c r="BL41" s="4">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="BM41" s="4"/>
       <c r="BN41" s="4"/>
       <c r="BO41" s="4">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="BP41" s="4"/>
       <c r="BQ41" s="4"/>
       <c r="BR41" s="4">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="BS41" s="4"/>
       <c r="BT41" s="4"/>
       <c r="BU41" s="4">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="BV41" s="4"/>
       <c r="BW41" s="4"/>
       <c r="BX41" s="4">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="BY41" s="4"/>
       <c r="BZ41" s="4"/>
       <c r="CA41" s="4">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="CB41" s="4"/>
       <c r="CC41" s="4"/>
       <c r="CD41" s="4">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="CE41" s="4"/>
       <c r="CF41" s="4"/>
       <c r="CG41" s="4">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="CH41" s="4"/>
       <c r="CI41" s="4"/>
       <c r="CJ41" s="4">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="CK41" s="4"/>
       <c r="CL41" s="4"/>
       <c r="CM41" s="4">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="CN41" s="4"/>
       <c r="CO41" s="4"/>
       <c r="CP41" s="4">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="CQ41" s="4"/>
       <c r="CR41" s="4"/>
       <c r="CS41" s="4">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="CT41" s="4"/>
       <c r="CU41" s="4"/>
@@ -18522,10 +18522,10 @@
         <v>91</v>
       </c>
       <c r="AU42" s="280">
-        <v>-42</v>
+        <v>-45</v>
       </c>
       <c r="AV42" s="281">
-        <v>-42</v>
+        <v>-45</v>
       </c>
       <c r="AW42" s="282" t="s">
         <v>0</v>
@@ -18554,12 +18554,12 @@
       <c r="BI42" s="286"/>
       <c r="BJ42" s="50"/>
       <c r="BK42" s="50">
-        <v>5.615384615384615</v>
+        <v>5.4285714285714288</v>
       </c>
       <c r="BL42" s="50"/>
       <c r="BM42" s="50"/>
       <c r="BN42" s="50">
-        <v>7.3571428571428568</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="BO42" s="50"/>
       <c r="BP42" s="50"/>
@@ -18569,17 +18569,17 @@
       <c r="BR42" s="50"/>
       <c r="BS42" s="50"/>
       <c r="BT42" s="50">
-        <v>5.8571428571428568</v>
+        <v>6</v>
       </c>
       <c r="BU42" s="50"/>
       <c r="BV42" s="50"/>
       <c r="BW42" s="50">
-        <v>6.3571428571428568</v>
+        <v>6</v>
       </c>
       <c r="BX42" s="50"/>
       <c r="BY42" s="50"/>
       <c r="BZ42" s="50">
-        <v>7.384615384615385</v>
+        <v>7</v>
       </c>
       <c r="CA42" s="50"/>
       <c r="CB42" s="50"/>
@@ -18589,27 +18589,27 @@
       <c r="CD42" s="50"/>
       <c r="CE42" s="50"/>
       <c r="CF42" s="50">
-        <v>6.4285714285714288</v>
+        <v>6.2666666666666666</v>
       </c>
       <c r="CG42" s="50"/>
       <c r="CH42" s="50"/>
       <c r="CI42" s="50">
-        <v>4.5</v>
+        <v>4.5333333333333332</v>
       </c>
       <c r="CJ42" s="50"/>
       <c r="CK42" s="50"/>
       <c r="CL42" s="50">
-        <v>8.3333333333333339</v>
+        <v>8.5384615384615383</v>
       </c>
       <c r="CM42" s="50"/>
       <c r="CN42" s="50"/>
       <c r="CO42" s="50">
-        <v>6.0769230769230766</v>
+        <v>6.2857142857142856</v>
       </c>
       <c r="CP42" s="50"/>
       <c r="CQ42" s="50"/>
       <c r="CR42" s="50">
-        <v>6.5714285714285712</v>
+        <v>6.8</v>
       </c>
       <c r="CS42" s="50"/>
       <c r="CT42" s="50"/>
@@ -18620,10 +18620,10 @@
         <v>94</v>
       </c>
       <c r="AU43" s="280">
-        <v>-42</v>
+        <v>-45</v>
       </c>
       <c r="AV43" s="281">
-        <v>-42</v>
+        <v>-45</v>
       </c>
       <c r="AW43" s="282" t="s">
         <v>0</v>
@@ -18652,14 +18652,14 @@
       <c r="BI43" s="286"/>
     </row>
     <row r="44" spans="46:99" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AT44" s="298" t="s">
+      <c r="AT44" s="297" t="s">
         <v>96</v>
       </c>
       <c r="AU44" s="288">
-        <v>-42</v>
+        <v>-45</v>
       </c>
       <c r="AV44" s="289">
-        <v>-42</v>
+        <v>-45</v>
       </c>
       <c r="AW44" s="290" t="s">
         <v>0</v>

--- a/regular_season_final.xlsx
+++ b/regular_season_final.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="178">
   <si>
     <t/>
   </si>
@@ -458,103 +458,106 @@
     <t>None</t>
   </si>
   <si>
-    <t>15</t>
+    <t>16</t>
   </si>
   <si>
-    <t>Week 15 Scores</t>
+    <t>Week 16 Scores</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w15_p1_picks         = ["H","V","H","H","V","H","H","H","H","V","H","H","V","V","V","V"];</t>
+    <t xml:space="preserve">   var w16_p1_picks         = [];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w15_p2_picks         = ["H","H","H","H","V","H","H","H","H","H","H","H","V","V","V","H"];</t>
+    <t xml:space="preserve">   var w16_p2_picks         = ["V","V","H","V","V","H","V","H","H","H","H","H","H","H","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w15_p3_picks         = ["H","V","H","H","V","H","H","H","H","H","H","H","V","V","V","H"];</t>
+    <t xml:space="preserve">   var w16_p3_picks         = ["V","H","V","V","V","H","V","H","H","H","H","H","V","H","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w15_p4_picks         = ["H","V","H","H","V","H","H","H","H","H","V","H","V","V","V","H"];</t>
+    <t xml:space="preserve">   var w16_p4_picks         = ["H","H","H","V","V","H","V","H","H","V","H","H","H","H","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w15_p5_picks         = ["H","V","H","H","V","V","H","H","H","H","H","H","V","V","V","H"];</t>
+    <t xml:space="preserve">   var w16_p5_picks         = ["V","H","V","V","V","H","V","H","H","H","V","H","H","H","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w15_p6_picks         = ["H","V","H","H","V","H","H","H","H","H","V","H","V","V","V","H"];</t>
+    <t xml:space="preserve">   var w16_p6_picks         = ["V","V","V","V","V","H","V","H","V","H","V","H","H","V","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w15_p7_picks         = ["H","V","V","H","V","H","H","H","V","V","V","H","H","H","V","H"];</t>
+    <t xml:space="preserve">   var w16_p7_picks         = ["H","H","V","H","V","H","V","H","H","V","H","H","H","H","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w15_p8_picks         = ["H","V","H","H","V","H","H","H","H","H","V","H","V","V","H","H"];</t>
+    <t xml:space="preserve">   var w16_p8_picks         = ["V","H","V","V","V","H","V","H","H","H","H","H","V","H","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w15_p9_picks         = ["H","V","H","H","V","V","H","H","H","H","H","H","V","V","V","H"];</t>
+    <t xml:space="preserve">   var w16_p9_picks         = ["V","V","V","V","V","H","V","H","H","H","H","H","H","H","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w15_p10_picks        = ["H","H","V","H","H","H","V","H","V","H","V","V","H","V","H","V"];</t>
+    <t xml:space="preserve">   var w16_p10_picks        = ["H","H","H","V","H","V","V","V","V","H","H","V","V","V","V","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w15_p11_picks        = ["H","V","H","H","V","H","H","H","H","H","H","H","V","H","V","V"];</t>
+    <t xml:space="preserve">   var w16_p11_picks        = [];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w15_p12_picks        = ["H","V","H","H","V","H","H","H","H","H","H","H","V","V","V","H"];</t>
+    <t xml:space="preserve">   var w16_p12_picks        = ["V","V","V","V","V","H","V","H","V","H","H","H","H","H","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w15_p1_weights       = ["16","1","11","14","12","13","10","8","6","3","2","15","9","4","7","5"];</t>
+    <t xml:space="preserve">   var w16_p1_weights       = [];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w15_p2_weights       = ["16","15","14","13","6","11","4","10","9","8","7","12","3","2","5","1"];</t>
+    <t xml:space="preserve">   var w16_p2_weights       = ["1","2","3","16","8","4","5","11","15","14","6","13","12","7","10","9"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w15_p3_weights       = ["16","1","11","14","12","13","10","8","6","7","2","15","5","4","3","9"];</t>
+    <t xml:space="preserve">   var w16_p3_weights       = ["2","8","5","3","12","13","10","16","4","7","6","15","1","11","9","14"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w15_p4_weights       = ["16","1","11","14","9","13","10","8","6","7","2","15","5","4","3","12"];</t>
+    <t xml:space="preserve">   var w16_p4_weights       = ["2","8","7","3","12","13","10","16","4","5","6","15","1","11","9","14"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w15_p5_weights       = ["16","10","9","8","11","1","5","4","3","12","2","13","7","14","15","6"];</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">   var w15_p6_weights       = ["8","3","13","12","10","7","9","11","5","4","2","16","15","6","14","1"];</t>
+    <t xml:space="preserve">   var w16_p5_weights       = ["9","3","4","2","16","14","13","15","7","8","12","10","1","5","11","6"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w15_p7_weights       = ["13","11","3","12","9","8","14","10","6","5","7","15","4","2","16","1"];</t>
+    <t xml:space="preserve">   var w16_p6_weights       = ["12","2","4","11","8","10","9","16","5","7","3","15","6","1","13","14"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w15_p8_weights       = ["15","3","7","14","11","13","12","10","4","9","1","16","6","5","2","8"];</t>
+    <t xml:space="preserve">   var w16_p7_weights       = ["8","7","6","2","14","9","13","15","10","4","3","5","11","16","12","1"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w15_p9_weights       = ["16","9","2","13","12","1","11","10","7","5","4","15","14","6","8","3"];</t>
+    <t xml:space="preserve">   var w16_p8_weights       = ["1","8","9","7","14","13","11","16","6","5","3","15","2","12","4","10"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w15_p10_weights      = ["12","5","3","13","4","14","7","10","8","15","9","2","1","16","6","11"];</t>
+    <t xml:space="preserve">   var w16_p9_weights       = ["10","5","2","1","12","15","7","16","4","9","6","14","3","8","11","13"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w15_p11_weights      = ["15","1","10","13","11","12","9","16","6","7","2","14","5","4","3","8"];</t>
+    <t xml:space="preserve">   var w16_p10_weights      = ["12","11","1","3","8","16","7","4","6","2","10","13","5","14","9","15"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w15_p12_weights      = ["12","3","7","15","11","1","14","16","9","2","4","13","8","10","5","6"];</t>
+    <t xml:space="preserve">   var w16_p11_weights      = [];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w15_winners          = ["H","V","H","H","V","H","H","V","V","H","V","H","V","V","V","V"];</t>
+    <t xml:space="preserve">   var w16_p12_weights      = ["8","3","4","11","6","15","13","16","7","12","2","1","5","14","9","10"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w15_mn_points        = ["51","48","51","42","37","54","38","54","50","52","54","24"];</t>
+    <t xml:space="preserve">   var w16_winners          = ["H","V","V","V","H","H","H","H","H","H","V","V","H","H","H","H"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w15_actual_mn_points = 0;</t>
+    <t xml:space="preserve">   var w16_mn_points        = ["","51","43","42","37","54","38","45","49","31","","38"];</t>
   </si>
   <si>
-    <t>Week 15 Final</t>
+    <t xml:space="preserve">   var w16_actual_mn_points = 0;</t>
   </si>
   <si>
-    <t>'Week 15'!$B$2</t>
+    <t>Week 16 Final</t>
   </si>
   <si>
-    <t>'Week 15'!$C$2</t>
+    <t>'Week 16'!$B$2</t>
   </si>
   <si>
-    <t>'Week 15'!$D$2</t>
+    <t>'Week 16'!$C$2</t>
+  </si>
+  <si>
+    <t>'Week 16'!$D$2</t>
   </si>
 </sst>
 </file>
@@ -5207,56 +5210,56 @@
         <v>91</v>
       </c>
       <c r="G2" s="115">
-        <v>-45</v>
+        <v>-48</v>
       </c>
       <c r="H2" s="116"/>
       <c r="I2" s="114" t="s">
         <v>92</v>
       </c>
       <c r="J2" s="115">
-        <v>-14</v>
+        <v>14</v>
       </c>
       <c r="K2" s="116"/>
       <c r="L2" s="114" t="s">
         <v>93</v>
       </c>
       <c r="M2" s="115">
-        <v>-14</v>
+        <v>-17</v>
       </c>
       <c r="N2" s="116"/>
       <c r="O2" s="114" t="s">
         <v>94</v>
       </c>
       <c r="P2" s="115">
-        <v>-45</v>
+        <v>-48</v>
       </c>
       <c r="Q2" s="116"/>
       <c r="R2" s="114" t="s">
         <v>95</v>
       </c>
       <c r="S2" s="115">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="T2" s="116"/>
       <c r="U2" s="114" t="s">
         <v>96</v>
       </c>
       <c r="V2" s="115">
-        <v>-45</v>
+        <v>-48</v>
       </c>
       <c r="W2" s="116"/>
       <c r="X2" s="114" t="s">
         <v>97</v>
       </c>
       <c r="Y2" s="115">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Z2" s="116"/>
       <c r="AA2" s="114" t="s">
         <v>98</v>
       </c>
       <c r="AB2" s="115">
-        <v>-14</v>
+        <v>-17</v>
       </c>
       <c r="AC2" s="116"/>
       <c r="AD2" s="114" t="s">
@@ -5270,21 +5273,21 @@
         <v>100</v>
       </c>
       <c r="AH2" s="115">
-        <v>-14</v>
+        <v>-17</v>
       </c>
       <c r="AI2" s="116"/>
       <c r="AJ2" s="114" t="s">
         <v>101</v>
       </c>
       <c r="AK2" s="115">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AL2" s="116"/>
       <c r="AM2" s="114" t="s">
         <v>102</v>
       </c>
       <c r="AN2" s="115">
-        <v>-14</v>
+        <v>-17</v>
       </c>
       <c r="AO2" s="117"/>
       <c r="AP2" s="3"/>
@@ -5455,7 +5458,7 @@
       </c>
       <c r="AP3" s="3"/>
       <c r="AR3" s="11">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS3" s="9" t="s">
         <v>52</v>
@@ -5523,97 +5526,93 @@
     </row>
     <row r="4" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="180" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C4" s="181" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="181" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E4" s="182" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="183" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="184">
-        <v>16</v>
-      </c>
+      <c r="F4" s="183"/>
+      <c r="G4" s="184"/>
       <c r="H4" s="185" t="s">
         <v>0</v>
       </c>
       <c r="I4" s="186" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="J4" s="184">
-        <v>16</v>
-      </c>
-      <c r="K4" s="185" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K4" s="185">
+        <v>-1</v>
       </c>
       <c r="L4" s="186" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="M4" s="184">
-        <v>16</v>
-      </c>
-      <c r="N4" s="185" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="N4" s="185">
+        <v>-2</v>
       </c>
       <c r="O4" s="186" t="s">
         <v>60</v>
       </c>
       <c r="P4" s="184">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="Q4" s="185" t="s">
         <v>0</v>
       </c>
       <c r="R4" s="186" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="S4" s="184">
-        <v>16</v>
-      </c>
-      <c r="T4" s="185" t="s">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="T4" s="185">
+        <v>-9</v>
       </c>
       <c r="U4" s="186" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="V4" s="184">
-        <v>8</v>
-      </c>
-      <c r="W4" s="185" t="s">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="W4" s="185">
+        <v>-12</v>
       </c>
       <c r="X4" s="186" t="s">
         <v>60</v>
       </c>
       <c r="Y4" s="184">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Z4" s="185" t="s">
         <v>0</v>
       </c>
       <c r="AA4" s="186" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AB4" s="184">
-        <v>15</v>
-      </c>
-      <c r="AC4" s="185" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AC4" s="185">
+        <v>-1</v>
       </c>
       <c r="AD4" s="186" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AE4" s="184">
-        <v>16</v>
-      </c>
-      <c r="AF4" s="185" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="AF4" s="185">
+        <v>-10</v>
       </c>
       <c r="AG4" s="186" t="s">
         <v>60</v>
@@ -5624,44 +5623,40 @@
       <c r="AI4" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="AJ4" s="186" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK4" s="184">
-        <v>15</v>
-      </c>
+      <c r="AJ4" s="186"/>
+      <c r="AK4" s="184"/>
       <c r="AL4" s="185" t="s">
         <v>0</v>
       </c>
       <c r="AM4" s="186" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AN4" s="184">
-        <v>12</v>
-      </c>
-      <c r="AO4" s="187" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="AO4" s="187">
+        <v>-8</v>
       </c>
       <c r="AT4" s="188" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AU4" s="184">
-        <v>16</v>
-      </c>
-      <c r="AV4" s="187" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AV4" s="187">
+        <v>-1</v>
       </c>
       <c r="AX4" s="4">
-        <v>171</v>
+        <v>-21</v>
       </c>
       <c r="AY4" s="4">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="AZ4" s="4">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="BA4" s="4">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="BB4" s="4">
         <v>1</v>
@@ -5673,10 +5668,10 @@
         <v>1</v>
       </c>
       <c r="BF4" s="60" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="BG4" s="61">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BH4" s="189"/>
       <c r="BI4" s="62">
@@ -5686,10 +5681,10 @@
         <v>99</v>
       </c>
       <c r="BK4" s="64">
-        <v>97.928571428571431</v>
+        <v>97.2</v>
       </c>
       <c r="BL4" s="65">
-        <v>1371</v>
+        <v>1458</v>
       </c>
       <c r="BM4" s="172"/>
       <c r="BN4" s="66">
@@ -5702,7 +5697,7 @@
         <v>124</v>
       </c>
       <c r="BQ4" s="69">
-        <v>-45</v>
+        <v>-48</v>
       </c>
       <c r="BR4" s="70">
         <v>4</v>
@@ -5714,7 +5709,7 @@
         <v>61</v>
       </c>
       <c r="BU4" s="71">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="BV4" s="72" t="s">
         <v>0</v>
@@ -5734,88 +5729,84 @@
         <v>6</v>
       </c>
       <c r="D5" s="191" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E5" s="192" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="193" t="s">
+      <c r="F5" s="193"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="G5" s="194">
-        <v>1</v>
-      </c>
-      <c r="H5" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="196" t="s">
+      <c r="J5" s="194">
+        <v>2</v>
+      </c>
+      <c r="K5" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="194">
-        <v>15</v>
-      </c>
-      <c r="K5" s="195">
-        <v>-15</v>
-      </c>
-      <c r="L5" s="196" t="s">
-        <v>88</v>
-      </c>
       <c r="M5" s="194">
-        <v>1</v>
-      </c>
-      <c r="N5" s="195" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="N5" s="195">
+        <v>-8</v>
       </c>
       <c r="O5" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="P5" s="194">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="195" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="Q5" s="195">
+        <v>-8</v>
       </c>
       <c r="R5" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="S5" s="194">
-        <v>10</v>
-      </c>
-      <c r="T5" s="195" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="T5" s="195">
+        <v>-3</v>
       </c>
       <c r="U5" s="196" t="s">
         <v>88</v>
       </c>
       <c r="V5" s="194">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W5" s="195" t="s">
         <v>0</v>
       </c>
       <c r="X5" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="Y5" s="194">
-        <v>11</v>
-      </c>
-      <c r="Z5" s="195" t="s">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="Z5" s="195">
+        <v>-7</v>
       </c>
       <c r="AA5" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AB5" s="194">
-        <v>3</v>
-      </c>
-      <c r="AC5" s="195" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="AC5" s="195">
+        <v>-8</v>
       </c>
       <c r="AD5" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AE5" s="194">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AF5" s="195" t="s">
         <v>0</v>
@@ -5824,17 +5815,13 @@
         <v>60</v>
       </c>
       <c r="AH5" s="194">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AI5" s="195">
-        <v>-5</v>
-      </c>
-      <c r="AJ5" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK5" s="194">
-        <v>1</v>
-      </c>
+        <v>-11</v>
+      </c>
+      <c r="AJ5" s="196"/>
+      <c r="AK5" s="194"/>
       <c r="AL5" s="195" t="s">
         <v>0</v>
       </c>
@@ -5850,25 +5837,25 @@
       <c r="AR5" s="8"/>
       <c r="AS5" s="9"/>
       <c r="AT5" s="198" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AU5" s="194">
-        <v>2</v>
-      </c>
-      <c r="AV5" s="197" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="AV5" s="197">
+        <v>-6</v>
       </c>
       <c r="AX5" s="4">
-        <v>-23</v>
+        <v>33</v>
       </c>
       <c r="AY5" s="4">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="AZ5" s="4">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="BA5" s="4">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="BB5" s="4">
         <v>2</v>
@@ -5880,10 +5867,10 @@
         <v>2</v>
       </c>
       <c r="BF5" s="77" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="BG5" s="78">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="BH5" s="189"/>
       <c r="BI5" s="79">
@@ -5893,10 +5880,10 @@
         <v>97</v>
       </c>
       <c r="BK5" s="81">
-        <v>94</v>
+        <v>93.6</v>
       </c>
       <c r="BL5" s="82">
-        <v>1316</v>
+        <v>1404</v>
       </c>
       <c r="BM5" s="172"/>
       <c r="BN5" s="79">
@@ -5906,10 +5893,10 @@
         <v>97</v>
       </c>
       <c r="BP5" s="83">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BQ5" s="84">
-        <v>-45</v>
+        <v>-48</v>
       </c>
       <c r="BR5" s="85">
         <v>2</v>
@@ -5927,7 +5914,7 @@
         <v>61</v>
       </c>
       <c r="BW5" s="88">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BY5" s="12" t="s">
         <v>147</v>
@@ -5935,23 +5922,19 @@
     </row>
     <row r="6" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="190" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="C6" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="191" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E6" s="192" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="193" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" s="194">
-        <v>11</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="F6" s="193"/>
+      <c r="G6" s="194"/>
       <c r="H6" s="195" t="s">
         <v>0</v>
       </c>
@@ -5959,16 +5942,16 @@
         <v>60</v>
       </c>
       <c r="J6" s="194">
-        <v>14</v>
-      </c>
-      <c r="K6" s="195" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="K6" s="195">
+        <v>-3</v>
       </c>
       <c r="L6" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="M6" s="194">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="N6" s="195" t="s">
         <v>0</v>
@@ -5977,25 +5960,25 @@
         <v>60</v>
       </c>
       <c r="P6" s="194">
-        <v>11</v>
-      </c>
-      <c r="Q6" s="195" t="s">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="Q6" s="195">
+        <v>-7</v>
       </c>
       <c r="R6" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="S6" s="194">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="T6" s="195" t="s">
         <v>0</v>
       </c>
       <c r="U6" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="V6" s="194">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="W6" s="195" t="s">
         <v>0</v>
@@ -6004,22 +5987,22 @@
         <v>88</v>
       </c>
       <c r="Y6" s="194">
-        <v>3</v>
-      </c>
-      <c r="Z6" s="195">
-        <v>-3</v>
+        <v>6</v>
+      </c>
+      <c r="Z6" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AA6" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AB6" s="194">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AC6" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AD6" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AE6" s="194">
         <v>2</v>
@@ -6028,28 +6011,24 @@
         <v>0</v>
       </c>
       <c r="AG6" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH6" s="194">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="195">
+        <v>-1</v>
+      </c>
+      <c r="AJ6" s="196"/>
+      <c r="AK6" s="194"/>
+      <c r="AL6" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="AH6" s="194">
-        <v>3</v>
-      </c>
-      <c r="AI6" s="195">
-        <v>-3</v>
-      </c>
-      <c r="AJ6" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK6" s="194">
-        <v>10</v>
-      </c>
-      <c r="AL6" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="196" t="s">
-        <v>60</v>
-      </c>
       <c r="AN6" s="194">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AO6" s="197" t="s">
         <v>0</v>
@@ -6057,25 +6036,25 @@
       <c r="AR6" s="8"/>
       <c r="AS6" s="9"/>
       <c r="AT6" s="198" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AU6" s="194">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AV6" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX6" s="4">
-        <v>89</v>
+        <v>-23</v>
       </c>
       <c r="AY6" s="4">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="AZ6" s="4">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="BA6" s="4">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="BB6" s="4">
         <v>3</v>
@@ -6087,10 +6066,10 @@
         <v>3</v>
       </c>
       <c r="BF6" s="77" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="BG6" s="78">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="BH6" s="189"/>
       <c r="BI6" s="79">
@@ -6100,23 +6079,23 @@
         <v>93</v>
       </c>
       <c r="BK6" s="81">
-        <v>93.357142857142861</v>
+        <v>92.6</v>
       </c>
       <c r="BL6" s="82">
-        <v>1307</v>
+        <v>1389</v>
       </c>
       <c r="BM6" s="172"/>
       <c r="BN6" s="79">
         <v>3</v>
       </c>
       <c r="BO6" s="80" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="BP6" s="83">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BQ6" s="84">
-        <v>-45</v>
+        <v>-48</v>
       </c>
       <c r="BR6" s="85">
         <v>2</v>
@@ -6142,67 +6121,63 @@
     </row>
     <row r="7" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="190" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C7" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="191" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E7" s="192" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="193" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" s="194">
-        <v>14</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="F7" s="193"/>
+      <c r="G7" s="194"/>
       <c r="H7" s="195" t="s">
         <v>0</v>
       </c>
       <c r="I7" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="J7" s="194">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K7" s="195" t="s">
         <v>0</v>
       </c>
       <c r="L7" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="M7" s="194">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="N7" s="195" t="s">
         <v>0</v>
       </c>
       <c r="O7" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="P7" s="194">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="Q7" s="195" t="s">
         <v>0</v>
       </c>
       <c r="R7" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="S7" s="194">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="T7" s="195" t="s">
         <v>0</v>
       </c>
       <c r="U7" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="V7" s="194">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W7" s="195" t="s">
         <v>0</v>
@@ -6211,76 +6186,72 @@
         <v>60</v>
       </c>
       <c r="Y7" s="194">
-        <v>12</v>
-      </c>
-      <c r="Z7" s="195" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="Z7" s="195">
+        <v>-2</v>
       </c>
       <c r="AA7" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AB7" s="194">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AC7" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AD7" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AE7" s="194">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AF7" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AG7" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AH7" s="194">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AI7" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="AJ7" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK7" s="194">
-        <v>13</v>
-      </c>
+      <c r="AJ7" s="196"/>
+      <c r="AK7" s="194"/>
       <c r="AL7" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AM7" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AN7" s="194">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AO7" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AT7" s="198" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AU7" s="194">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AV7" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX7" s="4">
-        <v>155</v>
+        <v>-55</v>
       </c>
       <c r="AY7" s="4">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="AZ7" s="4">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="BA7" s="4">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="BB7" s="4">
         <v>4</v>
@@ -6292,36 +6263,36 @@
         <v>4</v>
       </c>
       <c r="BF7" s="77" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BG7" s="78">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="BH7" s="189"/>
       <c r="BI7" s="79">
         <v>4</v>
       </c>
       <c r="BJ7" s="80" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="BK7" s="81">
-        <v>93</v>
+        <v>92.333333333333329</v>
       </c>
       <c r="BL7" s="82">
-        <v>1302</v>
+        <v>1385</v>
       </c>
       <c r="BM7" s="172"/>
       <c r="BN7" s="79">
         <v>3</v>
       </c>
       <c r="BO7" s="80" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="BP7" s="83">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BQ7" s="84">
-        <v>-45</v>
+        <v>-48</v>
       </c>
       <c r="BR7" s="85">
         <v>2</v>
@@ -6347,23 +6318,19 @@
     </row>
     <row r="8" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="190" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="C8" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="191" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="E8" s="192" t="s">
-        <v>88</v>
-      </c>
-      <c r="F8" s="193" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8" s="194">
-        <v>12</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="F8" s="193"/>
+      <c r="G8" s="194"/>
       <c r="H8" s="195" t="s">
         <v>0</v>
       </c>
@@ -6371,10 +6338,10 @@
         <v>88</v>
       </c>
       <c r="J8" s="194">
-        <v>6</v>
-      </c>
-      <c r="K8" s="195" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="K8" s="195">
+        <v>-8</v>
       </c>
       <c r="L8" s="196" t="s">
         <v>88</v>
@@ -6382,53 +6349,53 @@
       <c r="M8" s="194">
         <v>12</v>
       </c>
-      <c r="N8" s="195" t="s">
-        <v>0</v>
+      <c r="N8" s="195">
+        <v>-12</v>
       </c>
       <c r="O8" s="196" t="s">
         <v>88</v>
       </c>
       <c r="P8" s="194">
-        <v>9</v>
-      </c>
-      <c r="Q8" s="195" t="s">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="Q8" s="195">
+        <v>-12</v>
       </c>
       <c r="R8" s="196" t="s">
         <v>88</v>
       </c>
       <c r="S8" s="194">
-        <v>11</v>
-      </c>
-      <c r="T8" s="195" t="s">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="T8" s="195">
+        <v>-16</v>
       </c>
       <c r="U8" s="196" t="s">
         <v>88</v>
       </c>
       <c r="V8" s="194">
-        <v>10</v>
-      </c>
-      <c r="W8" s="195" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="W8" s="195">
+        <v>-8</v>
       </c>
       <c r="X8" s="196" t="s">
         <v>88</v>
       </c>
       <c r="Y8" s="194">
-        <v>9</v>
-      </c>
-      <c r="Z8" s="195" t="s">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="Z8" s="195">
+        <v>-14</v>
       </c>
       <c r="AA8" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AB8" s="194">
-        <v>11</v>
-      </c>
-      <c r="AC8" s="195" t="s">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="AC8" s="195">
+        <v>-14</v>
       </c>
       <c r="AD8" s="196" t="s">
         <v>88</v>
@@ -6436,24 +6403,20 @@
       <c r="AE8" s="194">
         <v>12</v>
       </c>
-      <c r="AF8" s="195" t="s">
-        <v>0</v>
+      <c r="AF8" s="195">
+        <v>-12</v>
       </c>
       <c r="AG8" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AH8" s="194">
-        <v>4</v>
-      </c>
-      <c r="AI8" s="195">
-        <v>-4</v>
-      </c>
-      <c r="AJ8" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK8" s="194">
-        <v>11</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="AI8" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="196"/>
+      <c r="AK8" s="194"/>
       <c r="AL8" s="195" t="s">
         <v>0</v>
       </c>
@@ -6461,31 +6424,31 @@
         <v>88</v>
       </c>
       <c r="AN8" s="194">
-        <v>11</v>
-      </c>
-      <c r="AO8" s="197" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="AO8" s="197">
+        <v>-6</v>
       </c>
       <c r="AT8" s="198" t="s">
         <v>88</v>
       </c>
       <c r="AU8" s="194">
-        <v>12</v>
-      </c>
-      <c r="AV8" s="197" t="s">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="AV8" s="197">
+        <v>-13</v>
       </c>
       <c r="AX8" s="4">
-        <v>-110</v>
+        <v>-94</v>
       </c>
       <c r="AY8" s="4">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AZ8" s="4">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="BA8" s="4">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="BB8" s="4">
         <v>5</v>
@@ -6497,42 +6460,42 @@
         <v>5</v>
       </c>
       <c r="BF8" s="77" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="BG8" s="78">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="BH8" s="189"/>
       <c r="BI8" s="79">
         <v>5</v>
       </c>
       <c r="BJ8" s="80" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="BK8" s="81">
-        <v>92.142857142857139</v>
+        <v>91.666666666666671</v>
       </c>
       <c r="BL8" s="82">
-        <v>1290</v>
+        <v>1375</v>
       </c>
       <c r="BM8" s="172"/>
       <c r="BN8" s="79">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BO8" s="80" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="BP8" s="83">
-        <v>-14</v>
+        <v>14</v>
       </c>
       <c r="BQ8" s="84">
-        <v>-45</v>
+        <v>-48</v>
       </c>
       <c r="BR8" s="85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BS8" s="86">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="BT8" s="87" t="s">
         <v>0</v>
@@ -6552,23 +6515,19 @@
     </row>
     <row r="9" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="190" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="191" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E9" s="192" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="193" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="194">
-        <v>13</v>
-      </c>
+      <c r="F9" s="193"/>
+      <c r="G9" s="194"/>
       <c r="H9" s="195" t="s">
         <v>0</v>
       </c>
@@ -6576,7 +6535,7 @@
         <v>60</v>
       </c>
       <c r="J9" s="194">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K9" s="195" t="s">
         <v>0</v>
@@ -6600,19 +6559,19 @@
         <v>0</v>
       </c>
       <c r="R9" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="S9" s="194">
-        <v>1</v>
-      </c>
-      <c r="T9" s="195">
-        <v>-1</v>
+        <v>14</v>
+      </c>
+      <c r="T9" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="U9" s="196" t="s">
         <v>60</v>
       </c>
       <c r="V9" s="194">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="W9" s="195" t="s">
         <v>0</v>
@@ -6621,7 +6580,7 @@
         <v>60</v>
       </c>
       <c r="Y9" s="194">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z9" s="195" t="s">
         <v>0</v>
@@ -6636,29 +6595,25 @@
         <v>0</v>
       </c>
       <c r="AD9" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE9" s="194">
+        <v>15</v>
+      </c>
+      <c r="AF9" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="AE9" s="194">
-        <v>1</v>
-      </c>
-      <c r="AF9" s="195">
-        <v>-1</v>
-      </c>
-      <c r="AG9" s="196" t="s">
-        <v>60</v>
-      </c>
       <c r="AH9" s="194">
-        <v>14</v>
-      </c>
-      <c r="AI9" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK9" s="194">
-        <v>12</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="AI9" s="195">
+        <v>-16</v>
+      </c>
+      <c r="AJ9" s="196"/>
+      <c r="AK9" s="194"/>
       <c r="AL9" s="195" t="s">
         <v>0</v>
       </c>
@@ -6666,7 +6621,7 @@
         <v>60</v>
       </c>
       <c r="AN9" s="194">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AO9" s="197" t="s">
         <v>0</v>
@@ -6681,16 +6636,16 @@
         <v>0</v>
       </c>
       <c r="AX9" s="4">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="AY9" s="4">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="AZ9" s="4">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="BA9" s="4">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="BB9" s="4">
         <v>6</v>
@@ -6699,39 +6654,39 @@
         <v>1</v>
       </c>
       <c r="BE9" s="76">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BF9" s="77" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="BG9" s="78">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="BH9" s="189"/>
       <c r="BI9" s="79">
         <v>6</v>
       </c>
       <c r="BJ9" s="80" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="BK9" s="81">
-        <v>91.857142857142861</v>
+        <v>91.333333333333329</v>
       </c>
       <c r="BL9" s="82">
-        <v>1286</v>
+        <v>1370</v>
       </c>
       <c r="BM9" s="172"/>
       <c r="BN9" s="79">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BO9" s="80" t="s">
         <v>93</v>
       </c>
       <c r="BP9" s="83">
-        <v>-14</v>
+        <v>-17</v>
       </c>
       <c r="BQ9" s="84">
-        <v>-45</v>
+        <v>-48</v>
       </c>
       <c r="BR9" s="85">
         <v>1</v>
@@ -6757,97 +6712,93 @@
     </row>
     <row r="10" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="190" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="C10" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="191" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E10" s="192" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="193" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="194">
-        <v>10</v>
-      </c>
+      <c r="F10" s="193"/>
+      <c r="G10" s="194"/>
       <c r="H10" s="195" t="s">
         <v>0</v>
       </c>
       <c r="I10" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="J10" s="194">
-        <v>4</v>
-      </c>
-      <c r="K10" s="195" t="s">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="K10" s="195">
+        <v>-5</v>
       </c>
       <c r="L10" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="M10" s="194">
         <v>10</v>
       </c>
-      <c r="N10" s="195" t="s">
-        <v>0</v>
+      <c r="N10" s="195">
+        <v>-10</v>
       </c>
       <c r="O10" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="P10" s="194">
         <v>10</v>
       </c>
-      <c r="Q10" s="195" t="s">
-        <v>0</v>
+      <c r="Q10" s="195">
+        <v>-10</v>
       </c>
       <c r="R10" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="S10" s="194">
-        <v>5</v>
-      </c>
-      <c r="T10" s="195" t="s">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="T10" s="195">
+        <v>-13</v>
       </c>
       <c r="U10" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="V10" s="194">
         <v>9</v>
       </c>
-      <c r="W10" s="195" t="s">
-        <v>0</v>
+      <c r="W10" s="195">
+        <v>-9</v>
       </c>
       <c r="X10" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="Y10" s="194">
-        <v>14</v>
-      </c>
-      <c r="Z10" s="195" t="s">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="Z10" s="195">
+        <v>-13</v>
       </c>
       <c r="AA10" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AB10" s="194">
-        <v>12</v>
-      </c>
-      <c r="AC10" s="195" t="s">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="AC10" s="195">
+        <v>-11</v>
       </c>
       <c r="AD10" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AE10" s="194">
-        <v>11</v>
-      </c>
-      <c r="AF10" s="195" t="s">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="AF10" s="195">
+        <v>-7</v>
       </c>
       <c r="AG10" s="196" t="s">
         <v>88</v>
@@ -6858,44 +6809,40 @@
       <c r="AI10" s="195">
         <v>-7</v>
       </c>
-      <c r="AJ10" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK10" s="194">
-        <v>9</v>
-      </c>
+      <c r="AJ10" s="196"/>
+      <c r="AK10" s="194"/>
       <c r="AL10" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AM10" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AN10" s="194">
+        <v>13</v>
+      </c>
+      <c r="AO10" s="197">
+        <v>-13</v>
+      </c>
+      <c r="AT10" s="198" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU10" s="194">
         <v>14</v>
       </c>
-      <c r="AO10" s="197" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT10" s="198" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU10" s="194">
-        <v>10</v>
-      </c>
-      <c r="AV10" s="197" t="s">
-        <v>0</v>
+      <c r="AV10" s="197">
+        <v>-14</v>
       </c>
       <c r="AX10" s="4">
-        <v>101</v>
+        <v>-98</v>
       </c>
       <c r="AY10" s="4">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="AZ10" s="4">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="BA10" s="4">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="BB10" s="4">
         <v>7</v>
@@ -6904,39 +6851,39 @@
         <v>1</v>
       </c>
       <c r="BE10" s="76">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BF10" s="77" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="BG10" s="78">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="BH10" s="189"/>
       <c r="BI10" s="79">
         <v>7</v>
       </c>
       <c r="BJ10" s="80" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="BK10" s="81">
-        <v>91.785714285714292</v>
+        <v>89.666666666666671</v>
       </c>
       <c r="BL10" s="82">
-        <v>1285</v>
+        <v>1345</v>
       </c>
       <c r="BM10" s="172"/>
       <c r="BN10" s="79">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BO10" s="80" t="s">
         <v>98</v>
       </c>
       <c r="BP10" s="83">
-        <v>-14</v>
+        <v>-17</v>
       </c>
       <c r="BQ10" s="84">
-        <v>-45</v>
+        <v>-48</v>
       </c>
       <c r="BR10" s="85">
         <v>1</v>
@@ -6962,115 +6909,107 @@
     </row>
     <row r="11" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="190" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C11" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="191" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="E11" s="192" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11" s="193" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="194">
-        <v>8</v>
-      </c>
-      <c r="H11" s="195">
-        <v>-8</v>
+      <c r="F11" s="193"/>
+      <c r="G11" s="194"/>
+      <c r="H11" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="I11" s="196" t="s">
         <v>60</v>
       </c>
       <c r="J11" s="194">
-        <v>10</v>
-      </c>
-      <c r="K11" s="195">
-        <v>-10</v>
+        <v>11</v>
+      </c>
+      <c r="K11" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="L11" s="196" t="s">
         <v>60</v>
       </c>
       <c r="M11" s="194">
-        <v>8</v>
-      </c>
-      <c r="N11" s="195">
-        <v>-8</v>
+        <v>16</v>
+      </c>
+      <c r="N11" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="O11" s="196" t="s">
         <v>60</v>
       </c>
       <c r="P11" s="194">
-        <v>8</v>
-      </c>
-      <c r="Q11" s="195">
-        <v>-8</v>
+        <v>16</v>
+      </c>
+      <c r="Q11" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="R11" s="196" t="s">
         <v>60</v>
       </c>
       <c r="S11" s="194">
-        <v>4</v>
-      </c>
-      <c r="T11" s="195">
-        <v>-4</v>
+        <v>15</v>
+      </c>
+      <c r="T11" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="U11" s="196" t="s">
         <v>60</v>
       </c>
       <c r="V11" s="194">
-        <v>11</v>
-      </c>
-      <c r="W11" s="195">
-        <v>-11</v>
+        <v>16</v>
+      </c>
+      <c r="W11" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="X11" s="196" t="s">
         <v>60</v>
       </c>
       <c r="Y11" s="194">
-        <v>10</v>
-      </c>
-      <c r="Z11" s="195">
-        <v>-10</v>
+        <v>15</v>
+      </c>
+      <c r="Z11" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AA11" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AB11" s="194">
-        <v>10</v>
-      </c>
-      <c r="AC11" s="195">
-        <v>-10</v>
+        <v>16</v>
+      </c>
+      <c r="AC11" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AD11" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AE11" s="194">
-        <v>10</v>
-      </c>
-      <c r="AF11" s="195">
-        <v>-10</v>
+        <v>16</v>
+      </c>
+      <c r="AF11" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AG11" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AH11" s="194">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AI11" s="195">
-        <v>-10</v>
-      </c>
-      <c r="AJ11" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK11" s="194">
-        <v>16</v>
-      </c>
-      <c r="AL11" s="195">
-        <v>-16</v>
+        <v>-4</v>
+      </c>
+      <c r="AJ11" s="196"/>
+      <c r="AK11" s="194"/>
+      <c r="AL11" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AM11" s="196" t="s">
         <v>60</v>
@@ -7078,29 +7017,29 @@
       <c r="AN11" s="194">
         <v>16</v>
       </c>
-      <c r="AO11" s="197">
-        <v>-16</v>
+      <c r="AO11" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AT11" s="198" t="s">
         <v>60</v>
       </c>
       <c r="AU11" s="194">
-        <v>13</v>
-      </c>
-      <c r="AV11" s="197">
-        <v>-13</v>
+        <v>16</v>
+      </c>
+      <c r="AV11" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AX11" s="4">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="AY11" s="4">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="AZ11" s="4">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="BA11" s="4">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="BB11" s="4">
         <v>8</v>
@@ -7109,39 +7048,39 @@
         <v>1</v>
       </c>
       <c r="BE11" s="76">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BF11" s="77" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="BG11" s="78">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="BH11" s="189"/>
       <c r="BI11" s="79">
         <v>8</v>
       </c>
       <c r="BJ11" s="80" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="BK11" s="81">
-        <v>90.214285714285708</v>
+        <v>88.466666666666669</v>
       </c>
       <c r="BL11" s="82">
-        <v>1263</v>
+        <v>1327</v>
       </c>
       <c r="BM11" s="172"/>
       <c r="BN11" s="79">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BO11" s="80" t="s">
         <v>100</v>
       </c>
       <c r="BP11" s="83">
-        <v>-14</v>
+        <v>-17</v>
       </c>
       <c r="BQ11" s="84">
-        <v>-45</v>
+        <v>-48</v>
       </c>
       <c r="BR11" s="85">
         <v>1</v>
@@ -7167,64 +7106,60 @@
     </row>
     <row r="12" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="190" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C12" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="191" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E12" s="192" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="193" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="194">
-        <v>6</v>
-      </c>
-      <c r="H12" s="195">
-        <v>-6</v>
+      <c r="F12" s="193"/>
+      <c r="G12" s="194"/>
+      <c r="H12" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="I12" s="196" t="s">
         <v>60</v>
       </c>
       <c r="J12" s="194">
-        <v>9</v>
-      </c>
-      <c r="K12" s="195">
-        <v>-9</v>
+        <v>15</v>
+      </c>
+      <c r="K12" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="L12" s="196" t="s">
         <v>60</v>
       </c>
       <c r="M12" s="194">
-        <v>6</v>
-      </c>
-      <c r="N12" s="195">
-        <v>-6</v>
+        <v>4</v>
+      </c>
+      <c r="N12" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="O12" s="196" t="s">
         <v>60</v>
       </c>
       <c r="P12" s="194">
-        <v>6</v>
-      </c>
-      <c r="Q12" s="195">
-        <v>-6</v>
+        <v>4</v>
+      </c>
+      <c r="Q12" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="R12" s="196" t="s">
         <v>60</v>
       </c>
       <c r="S12" s="194">
-        <v>3</v>
-      </c>
-      <c r="T12" s="195">
-        <v>-3</v>
+        <v>7</v>
+      </c>
+      <c r="T12" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="U12" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="V12" s="194">
         <v>5</v>
@@ -7233,10 +7168,10 @@
         <v>-5</v>
       </c>
       <c r="X12" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="Y12" s="194">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Z12" s="195" t="s">
         <v>0</v>
@@ -7245,67 +7180,63 @@
         <v>60</v>
       </c>
       <c r="AB12" s="194">
-        <v>4</v>
-      </c>
-      <c r="AC12" s="195">
-        <v>-4</v>
+        <v>6</v>
+      </c>
+      <c r="AC12" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AD12" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AE12" s="194">
-        <v>7</v>
-      </c>
-      <c r="AF12" s="195">
-        <v>-7</v>
+        <v>4</v>
+      </c>
+      <c r="AF12" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AG12" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AH12" s="194">
-        <v>8</v>
-      </c>
-      <c r="AI12" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK12" s="194">
         <v>6</v>
       </c>
-      <c r="AL12" s="195">
+      <c r="AI12" s="195">
         <v>-6</v>
       </c>
+      <c r="AJ12" s="196"/>
+      <c r="AK12" s="194"/>
+      <c r="AL12" s="195" t="s">
+        <v>0</v>
+      </c>
       <c r="AM12" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AN12" s="194">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AO12" s="197">
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="AT12" s="198" t="s">
         <v>60</v>
       </c>
       <c r="AU12" s="194">
-        <v>4</v>
-      </c>
-      <c r="AV12" s="197">
-        <v>-4</v>
+        <v>5</v>
+      </c>
+      <c r="AV12" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AX12" s="4">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="AY12" s="4">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="AZ12" s="4">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="BA12" s="4">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="BB12" s="4">
         <v>9</v>
@@ -7317,36 +7248,36 @@
         <v>9</v>
       </c>
       <c r="BF12" s="77" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="BG12" s="78">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="BH12" s="189"/>
       <c r="BI12" s="79">
         <v>9</v>
       </c>
       <c r="BJ12" s="80" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="BK12" s="81">
-        <v>89.142857142857139</v>
+        <v>86.13333333333334</v>
       </c>
       <c r="BL12" s="82">
-        <v>1248</v>
+        <v>1292</v>
       </c>
       <c r="BM12" s="172"/>
       <c r="BN12" s="79">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BO12" s="80" t="s">
         <v>102</v>
       </c>
       <c r="BP12" s="83">
-        <v>-14</v>
+        <v>-17</v>
       </c>
       <c r="BQ12" s="84">
-        <v>-45</v>
+        <v>-48</v>
       </c>
       <c r="BR12" s="85">
         <v>1</v>
@@ -7372,31 +7303,27 @@
     </row>
     <row r="13" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="190" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C13" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="191" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E13" s="192" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="193" t="s">
-        <v>88</v>
-      </c>
-      <c r="G13" s="194">
-        <v>3</v>
-      </c>
-      <c r="H13" s="195">
-        <v>-3</v>
+      <c r="F13" s="193"/>
+      <c r="G13" s="194"/>
+      <c r="H13" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="I13" s="196" t="s">
         <v>60</v>
       </c>
       <c r="J13" s="194">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K13" s="195" t="s">
         <v>0</v>
@@ -7411,19 +7338,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="P13" s="194">
-        <v>7</v>
-      </c>
-      <c r="Q13" s="195" t="s">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="Q13" s="195">
+        <v>-5</v>
       </c>
       <c r="R13" s="196" t="s">
         <v>60</v>
       </c>
       <c r="S13" s="194">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="T13" s="195" t="s">
         <v>0</v>
@@ -7432,7 +7359,7 @@
         <v>60</v>
       </c>
       <c r="V13" s="194">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="W13" s="195" t="s">
         <v>0</v>
@@ -7441,16 +7368,16 @@
         <v>88</v>
       </c>
       <c r="Y13" s="194">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z13" s="195">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="AA13" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AB13" s="194">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AC13" s="195" t="s">
         <v>0</v>
@@ -7459,7 +7386,7 @@
         <v>60</v>
       </c>
       <c r="AE13" s="194">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AF13" s="195" t="s">
         <v>0</v>
@@ -7468,17 +7395,13 @@
         <v>60</v>
       </c>
       <c r="AH13" s="194">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="AI13" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="AJ13" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK13" s="194">
-        <v>7</v>
-      </c>
+      <c r="AJ13" s="196"/>
+      <c r="AK13" s="194"/>
       <c r="AL13" s="195" t="s">
         <v>0</v>
       </c>
@@ -7486,7 +7409,7 @@
         <v>60</v>
       </c>
       <c r="AN13" s="194">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AO13" s="197" t="s">
         <v>0</v>
@@ -7495,50 +7418,50 @@
         <v>60</v>
       </c>
       <c r="AU13" s="194">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV13" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX13" s="4">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="AY13" s="4">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="AZ13" s="4">
-        <v>68</v>
+        <v>55.1</v>
       </c>
       <c r="BA13" s="4">
-        <v>68</v>
+        <v>55.1</v>
       </c>
       <c r="BB13" s="4">
         <v>10</v>
       </c>
       <c r="BC13" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BE13" s="76">
         <v>10</v>
       </c>
       <c r="BF13" s="77" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BG13" s="78">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="BH13" s="189"/>
       <c r="BI13" s="79">
         <v>10</v>
       </c>
       <c r="BJ13" s="80" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BK13" s="81">
-        <v>87.642857142857139</v>
+        <v>86</v>
       </c>
       <c r="BL13" s="82">
-        <v>1227</v>
+        <v>1290</v>
       </c>
       <c r="BM13" s="172"/>
       <c r="BN13" s="79">
@@ -7548,10 +7471,10 @@
         <v>91</v>
       </c>
       <c r="BP13" s="83">
-        <v>-45</v>
+        <v>-48</v>
       </c>
       <c r="BQ13" s="84">
-        <v>-45</v>
+        <v>-48</v>
       </c>
       <c r="BR13" s="85" t="s">
         <v>0</v>
@@ -7577,145 +7500,137 @@
     </row>
     <row r="14" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="190" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C14" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="191" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E14" s="192" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="193" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="194">
-        <v>2</v>
-      </c>
-      <c r="H14" s="195">
-        <v>-2</v>
+      <c r="F14" s="193"/>
+      <c r="G14" s="194"/>
+      <c r="H14" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="I14" s="196" t="s">
         <v>60</v>
       </c>
       <c r="J14" s="194">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K14" s="195">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="L14" s="196" t="s">
         <v>60</v>
       </c>
       <c r="M14" s="194">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N14" s="195">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="O14" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" s="194">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="195">
+        <v>-6</v>
+      </c>
+      <c r="R14" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="P14" s="194">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="R14" s="196" t="s">
-        <v>60</v>
-      </c>
       <c r="S14" s="194">
-        <v>2</v>
-      </c>
-      <c r="T14" s="195">
-        <v>-2</v>
+        <v>12</v>
+      </c>
+      <c r="T14" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="U14" s="196" t="s">
         <v>88</v>
       </c>
       <c r="V14" s="194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W14" s="195" t="s">
         <v>0</v>
       </c>
       <c r="X14" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="Y14" s="194">
-        <v>7</v>
-      </c>
-      <c r="Z14" s="195" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="Z14" s="195">
+        <v>-3</v>
       </c>
       <c r="AA14" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AB14" s="194">
-        <v>1</v>
-      </c>
-      <c r="AC14" s="195" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="AC14" s="195">
+        <v>-3</v>
       </c>
       <c r="AD14" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AE14" s="194">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF14" s="195">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="AG14" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AH14" s="194">
-        <v>9</v>
-      </c>
-      <c r="AI14" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK14" s="194">
-        <v>2</v>
-      </c>
-      <c r="AL14" s="195">
-        <v>-2</v>
+        <v>10</v>
+      </c>
+      <c r="AI14" s="195">
+        <v>-10</v>
+      </c>
+      <c r="AJ14" s="196"/>
+      <c r="AK14" s="194"/>
+      <c r="AL14" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AM14" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AN14" s="194">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO14" s="197">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="AT14" s="198" t="s">
         <v>60</v>
       </c>
       <c r="AU14" s="194">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV14" s="197">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AX14" s="4">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="AY14" s="4">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="AZ14" s="4">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="BA14" s="4">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="BB14" s="4">
         <v>11</v>
@@ -7727,23 +7642,23 @@
         <v>11</v>
       </c>
       <c r="BF14" s="77" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BG14" s="78">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="BH14" s="189"/>
       <c r="BI14" s="79">
         <v>11</v>
       </c>
       <c r="BJ14" s="80" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="BK14" s="81">
-        <v>86.142857142857139</v>
+        <v>83.2</v>
       </c>
       <c r="BL14" s="82">
-        <v>1206</v>
+        <v>1248</v>
       </c>
       <c r="BM14" s="172"/>
       <c r="BN14" s="79">
@@ -7753,10 +7668,10 @@
         <v>94</v>
       </c>
       <c r="BP14" s="83">
-        <v>-45</v>
+        <v>-48</v>
       </c>
       <c r="BQ14" s="84">
-        <v>-45</v>
+        <v>-48</v>
       </c>
       <c r="BR14" s="85" t="s">
         <v>0</v>
@@ -7782,23 +7697,19 @@
     </row>
     <row r="15" spans="1:77" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="190" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C15" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="191" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="E15" s="192" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="193" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="194">
-        <v>15</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="F15" s="193"/>
+      <c r="G15" s="194"/>
       <c r="H15" s="195" t="s">
         <v>0</v>
       </c>
@@ -7806,10 +7717,10 @@
         <v>60</v>
       </c>
       <c r="J15" s="194">
-        <v>12</v>
-      </c>
-      <c r="K15" s="195" t="s">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="K15" s="195">
+        <v>-13</v>
       </c>
       <c r="L15" s="196" t="s">
         <v>60</v>
@@ -7817,8 +7728,8 @@
       <c r="M15" s="194">
         <v>15</v>
       </c>
-      <c r="N15" s="195" t="s">
-        <v>0</v>
+      <c r="N15" s="195">
+        <v>-15</v>
       </c>
       <c r="O15" s="196" t="s">
         <v>60</v>
@@ -7826,69 +7737,65 @@
       <c r="P15" s="194">
         <v>15</v>
       </c>
-      <c r="Q15" s="195" t="s">
-        <v>0</v>
+      <c r="Q15" s="195">
+        <v>-15</v>
       </c>
       <c r="R15" s="196" t="s">
         <v>60</v>
       </c>
       <c r="S15" s="194">
-        <v>13</v>
-      </c>
-      <c r="T15" s="195" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="T15" s="195">
+        <v>-10</v>
       </c>
       <c r="U15" s="196" t="s">
         <v>60</v>
       </c>
       <c r="V15" s="194">
-        <v>16</v>
-      </c>
-      <c r="W15" s="195" t="s">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="W15" s="195">
+        <v>-15</v>
       </c>
       <c r="X15" s="196" t="s">
         <v>60</v>
       </c>
       <c r="Y15" s="194">
-        <v>15</v>
-      </c>
-      <c r="Z15" s="195" t="s">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="Z15" s="195">
+        <v>-5</v>
       </c>
       <c r="AA15" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AB15" s="194">
-        <v>16</v>
-      </c>
-      <c r="AC15" s="195" t="s">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="AC15" s="195">
+        <v>-15</v>
       </c>
       <c r="AD15" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AE15" s="194">
-        <v>15</v>
-      </c>
-      <c r="AF15" s="195" t="s">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="AF15" s="195">
+        <v>-14</v>
       </c>
       <c r="AG15" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AH15" s="194">
-        <v>2</v>
-      </c>
-      <c r="AI15" s="195">
-        <v>-2</v>
-      </c>
-      <c r="AJ15" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK15" s="194">
-        <v>14</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="AI15" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="196"/>
+      <c r="AK15" s="194"/>
       <c r="AL15" s="195" t="s">
         <v>0</v>
       </c>
@@ -7896,46 +7803,46 @@
         <v>60</v>
       </c>
       <c r="AN15" s="194">
-        <v>13</v>
-      </c>
-      <c r="AO15" s="197" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AO15" s="197">
+        <v>-1</v>
       </c>
       <c r="AT15" s="198" t="s">
         <v>60</v>
       </c>
       <c r="AU15" s="194">
-        <v>15</v>
-      </c>
-      <c r="AV15" s="197" t="s">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="AV15" s="197">
+        <v>-12</v>
       </c>
       <c r="AX15" s="4">
-        <v>157</v>
+        <v>90</v>
       </c>
       <c r="AY15" s="4">
-        <v>157</v>
+        <v>90</v>
       </c>
       <c r="AZ15" s="4">
-        <v>157</v>
+        <v>90.1</v>
       </c>
       <c r="BA15" s="4">
-        <v>157</v>
+        <v>90.1</v>
       </c>
       <c r="BB15" s="4">
         <v>12</v>
       </c>
       <c r="BC15" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BE15" s="89">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BF15" s="90" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="BG15" s="91">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="BH15" s="189"/>
       <c r="BI15" s="92">
@@ -7945,10 +7852,10 @@
         <v>100</v>
       </c>
       <c r="BK15" s="94">
-        <v>67.142857142857139</v>
+        <v>66.2</v>
       </c>
       <c r="BL15" s="95">
-        <v>940</v>
+        <v>993</v>
       </c>
       <c r="BM15" s="172"/>
       <c r="BN15" s="92">
@@ -7958,10 +7865,10 @@
         <v>96</v>
       </c>
       <c r="BP15" s="96">
-        <v>-45</v>
+        <v>-48</v>
       </c>
       <c r="BQ15" s="97">
-        <v>-45</v>
+        <v>-48</v>
       </c>
       <c r="BR15" s="98" t="s">
         <v>0</v>
@@ -7987,31 +7894,27 @@
     </row>
     <row r="16" spans="1:77" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B16" s="190" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C16" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="191" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="E16" s="192" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" s="193" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="194">
-        <v>9</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="F16" s="193"/>
+      <c r="G16" s="194"/>
       <c r="H16" s="195" t="s">
         <v>0</v>
       </c>
       <c r="I16" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="J16" s="194">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="K16" s="195" t="s">
         <v>0</v>
@@ -8020,34 +7923,34 @@
         <v>88</v>
       </c>
       <c r="M16" s="194">
-        <v>5</v>
-      </c>
-      <c r="N16" s="195" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N16" s="195">
+        <v>-1</v>
       </c>
       <c r="O16" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="P16" s="194">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="195" t="s">
         <v>0</v>
       </c>
       <c r="R16" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="S16" s="194">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T16" s="195" t="s">
         <v>0</v>
       </c>
       <c r="U16" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="V16" s="194">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="W16" s="195" t="s">
         <v>0</v>
@@ -8056,76 +7959,72 @@
         <v>60</v>
       </c>
       <c r="Y16" s="194">
-        <v>4</v>
-      </c>
-      <c r="Z16" s="195">
-        <v>-4</v>
+        <v>11</v>
+      </c>
+      <c r="Z16" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AA16" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AB16" s="194">
-        <v>6</v>
-      </c>
-      <c r="AC16" s="195" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="AC16" s="195">
+        <v>-2</v>
       </c>
       <c r="AD16" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE16" s="194">
+        <v>3</v>
+      </c>
+      <c r="AF16" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="AE16" s="194">
-        <v>14</v>
-      </c>
-      <c r="AF16" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="196" t="s">
+      <c r="AH16" s="194">
+        <v>5</v>
+      </c>
+      <c r="AI16" s="195">
+        <v>-5</v>
+      </c>
+      <c r="AJ16" s="196"/>
+      <c r="AK16" s="194"/>
+      <c r="AL16" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="AH16" s="194">
-        <v>1</v>
-      </c>
-      <c r="AI16" s="195">
-        <v>-1</v>
-      </c>
-      <c r="AJ16" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK16" s="194">
+      <c r="AN16" s="194">
         <v>5</v>
       </c>
-      <c r="AL16" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="AN16" s="194">
-        <v>8</v>
-      </c>
       <c r="AO16" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AT16" s="198" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AU16" s="194">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AV16" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX16" s="4">
-        <v>-72</v>
+        <v>31</v>
       </c>
       <c r="AY16" s="4">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="AZ16" s="4">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="BA16" s="4">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="BB16" s="4">
         <v>13</v>
@@ -8139,58 +8038,54 @@
     </row>
     <row r="17" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="190" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C17" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="191" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="E17" s="192" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="193" t="s">
-        <v>88</v>
-      </c>
-      <c r="G17" s="194">
-        <v>4</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="F17" s="193"/>
+      <c r="G17" s="194"/>
       <c r="H17" s="195" t="s">
         <v>0</v>
       </c>
       <c r="I17" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="J17" s="194">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K17" s="195" t="s">
         <v>0</v>
       </c>
       <c r="L17" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="M17" s="194">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N17" s="195" t="s">
         <v>0</v>
       </c>
       <c r="O17" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="P17" s="194">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="195" t="s">
         <v>0</v>
       </c>
       <c r="R17" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="S17" s="194">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="T17" s="195" t="s">
         <v>0</v>
@@ -8199,34 +8094,34 @@
         <v>88</v>
       </c>
       <c r="V17" s="194">
-        <v>6</v>
-      </c>
-      <c r="W17" s="195" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="W17" s="195">
+        <v>-1</v>
       </c>
       <c r="X17" s="196" t="s">
         <v>60</v>
       </c>
       <c r="Y17" s="194">
-        <v>2</v>
-      </c>
-      <c r="Z17" s="195">
-        <v>-2</v>
+        <v>16</v>
+      </c>
+      <c r="Z17" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AA17" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AB17" s="194">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AC17" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AD17" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AE17" s="194">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF17" s="195" t="s">
         <v>0</v>
@@ -8235,49 +8130,45 @@
         <v>88</v>
       </c>
       <c r="AH17" s="194">
-        <v>16</v>
-      </c>
-      <c r="AI17" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="196" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI17" s="195">
+        <v>-14</v>
+      </c>
+      <c r="AJ17" s="196"/>
+      <c r="AK17" s="194"/>
+      <c r="AL17" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="AK17" s="194">
-        <v>4</v>
-      </c>
-      <c r="AL17" s="195">
-        <v>-4</v>
-      </c>
-      <c r="AM17" s="196" t="s">
-        <v>88</v>
-      </c>
       <c r="AN17" s="194">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AO17" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AT17" s="198" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AU17" s="194">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AV17" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX17" s="4">
-        <v>-65</v>
+        <v>69</v>
       </c>
       <c r="AY17" s="4">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AZ17" s="4">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="BA17" s="4">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="BB17" s="4">
         <v>14</v>
@@ -8291,76 +8182,72 @@
     </row>
     <row r="18" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="190" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="C18" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="191" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="E18" s="192" t="s">
-        <v>88</v>
-      </c>
-      <c r="F18" s="193" t="s">
-        <v>88</v>
-      </c>
-      <c r="G18" s="194">
-        <v>7</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="F18" s="193"/>
+      <c r="G18" s="194"/>
       <c r="H18" s="195" t="s">
         <v>0</v>
       </c>
       <c r="I18" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="J18" s="194">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K18" s="195" t="s">
         <v>0</v>
       </c>
       <c r="L18" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="M18" s="194">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N18" s="195" t="s">
         <v>0</v>
       </c>
       <c r="O18" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="P18" s="194">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="Q18" s="195" t="s">
         <v>0</v>
       </c>
       <c r="R18" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="S18" s="194">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="T18" s="195" t="s">
         <v>0</v>
       </c>
       <c r="U18" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="V18" s="194">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W18" s="195" t="s">
         <v>0</v>
       </c>
       <c r="X18" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="Y18" s="194">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Z18" s="195" t="s">
         <v>0</v>
@@ -8369,67 +8256,63 @@
         <v>60</v>
       </c>
       <c r="AB18" s="194">
-        <v>2</v>
-      </c>
-      <c r="AC18" s="195">
-        <v>-2</v>
+        <v>4</v>
+      </c>
+      <c r="AC18" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AD18" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE18" s="194">
+        <v>11</v>
+      </c>
+      <c r="AF18" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="AE18" s="194">
-        <v>8</v>
-      </c>
-      <c r="AF18" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="196" t="s">
+      <c r="AH18" s="194">
+        <v>9</v>
+      </c>
+      <c r="AI18" s="195">
+        <v>-9</v>
+      </c>
+      <c r="AJ18" s="196"/>
+      <c r="AK18" s="194"/>
+      <c r="AL18" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="AH18" s="194">
-        <v>6</v>
-      </c>
-      <c r="AI18" s="195">
-        <v>-6</v>
-      </c>
-      <c r="AJ18" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK18" s="194">
-        <v>3</v>
-      </c>
-      <c r="AL18" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM18" s="196" t="s">
-        <v>88</v>
-      </c>
       <c r="AN18" s="194">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AO18" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AT18" s="198" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AU18" s="194">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AV18" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX18" s="4">
-        <v>-71</v>
+        <v>79</v>
       </c>
       <c r="AY18" s="4">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="AZ18" s="4">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="BA18" s="4">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="BB18" s="4">
         <v>15</v>
@@ -8443,23 +8326,19 @@
     </row>
     <row r="19" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="190" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C19" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="191" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E19" s="192" t="s">
-        <v>88</v>
-      </c>
-      <c r="F19" s="193" t="s">
-        <v>88</v>
-      </c>
-      <c r="G19" s="194">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="F19" s="193"/>
+      <c r="G19" s="194"/>
       <c r="H19" s="195" t="s">
         <v>0</v>
       </c>
@@ -8467,28 +8346,28 @@
         <v>60</v>
       </c>
       <c r="J19" s="194">
-        <v>1</v>
-      </c>
-      <c r="K19" s="195">
-        <v>-1</v>
+        <v>9</v>
+      </c>
+      <c r="K19" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="L19" s="196" t="s">
         <v>60</v>
       </c>
       <c r="M19" s="194">
-        <v>9</v>
-      </c>
-      <c r="N19" s="195">
-        <v>-9</v>
+        <v>14</v>
+      </c>
+      <c r="N19" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="O19" s="196" t="s">
         <v>60</v>
       </c>
       <c r="P19" s="194">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="195">
-        <v>-12</v>
+        <v>14</v>
+      </c>
+      <c r="Q19" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="R19" s="196" t="s">
         <v>60</v>
@@ -8496,17 +8375,17 @@
       <c r="S19" s="194">
         <v>6</v>
       </c>
-      <c r="T19" s="195">
-        <v>-6</v>
+      <c r="T19" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="U19" s="196" t="s">
         <v>60</v>
       </c>
       <c r="V19" s="194">
-        <v>1</v>
-      </c>
-      <c r="W19" s="195">
-        <v>-1</v>
+        <v>14</v>
+      </c>
+      <c r="W19" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="X19" s="196" t="s">
         <v>60</v>
@@ -8514,42 +8393,38 @@
       <c r="Y19" s="194">
         <v>1</v>
       </c>
-      <c r="Z19" s="195">
-        <v>-1</v>
+      <c r="Z19" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AA19" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AB19" s="194">
-        <v>8</v>
-      </c>
-      <c r="AC19" s="195">
-        <v>-8</v>
+        <v>10</v>
+      </c>
+      <c r="AC19" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AD19" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AE19" s="194">
-        <v>3</v>
-      </c>
-      <c r="AF19" s="195">
-        <v>-3</v>
+        <v>13</v>
+      </c>
+      <c r="AF19" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AG19" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AH19" s="194">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AI19" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="AJ19" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK19" s="194">
-        <v>8</v>
-      </c>
+      <c r="AJ19" s="196"/>
+      <c r="AK19" s="194"/>
       <c r="AL19" s="195" t="s">
         <v>0</v>
       </c>
@@ -8557,37 +8432,37 @@
         <v>60</v>
       </c>
       <c r="AN19" s="194">
-        <v>6</v>
-      </c>
-      <c r="AO19" s="197">
-        <v>-6</v>
+        <v>10</v>
+      </c>
+      <c r="AO19" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AT19" s="198" t="s">
         <v>60</v>
       </c>
       <c r="AU19" s="194">
-        <v>3</v>
-      </c>
-      <c r="AV19" s="197">
-        <v>-3</v>
+        <v>15</v>
+      </c>
+      <c r="AV19" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AX19" s="4">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="AY19" s="4">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="AZ19" s="4">
-        <v>23.1</v>
+        <v>106</v>
       </c>
       <c r="BA19" s="4">
-        <v>23.1</v>
+        <v>106</v>
       </c>
       <c r="BB19" s="4">
         <v>16</v>
       </c>
       <c r="BC19" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BY19" s="12" t="s">
         <v>161</v>
@@ -8601,24 +8476,22 @@
         <v>108</v>
       </c>
       <c r="F20" s="104" t="s">
-        <v>106</v>
-      </c>
-      <c r="G20" s="105">
-        <v>51</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G20" s="105"/>
       <c r="H20" s="122"/>
       <c r="I20" s="106" t="s">
         <v>106</v>
       </c>
       <c r="J20" s="105">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K20" s="122"/>
       <c r="L20" s="106" t="s">
         <v>106</v>
       </c>
       <c r="M20" s="105">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="N20" s="122"/>
       <c r="O20" s="106" t="s">
@@ -8653,35 +8526,33 @@
         <v>106</v>
       </c>
       <c r="AB20" s="105">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="AC20" s="122"/>
       <c r="AD20" s="106" t="s">
         <v>106</v>
       </c>
       <c r="AE20" s="105">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AF20" s="122"/>
       <c r="AG20" s="106" t="s">
         <v>106</v>
       </c>
       <c r="AH20" s="105">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="AI20" s="122"/>
       <c r="AJ20" s="106" t="s">
-        <v>106</v>
-      </c>
-      <c r="AK20" s="105">
-        <v>54</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="AK20" s="105"/>
       <c r="AL20" s="122"/>
       <c r="AM20" s="106" t="s">
         <v>106</v>
       </c>
       <c r="AN20" s="105">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="AO20" s="123"/>
       <c r="AT20" s="107"/>
@@ -8698,7 +8569,7 @@
       <c r="BM20" s="13"/>
       <c r="BN20" s="13"/>
       <c r="BY20" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:77" s="13" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8711,87 +8582,87 @@
       </c>
       <c r="F21" s="203"/>
       <c r="G21" s="204">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H21" s="205">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="I21" s="206"/>
       <c r="J21" s="204">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K21" s="205">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="L21" s="206"/>
       <c r="M21" s="204">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N21" s="205">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="O21" s="206"/>
       <c r="P21" s="204">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q21" s="205">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="R21" s="206"/>
       <c r="S21" s="204">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T21" s="205">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="U21" s="206"/>
       <c r="V21" s="204">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W21" s="205">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="X21" s="206"/>
       <c r="Y21" s="204">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z21" s="205">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="AA21" s="206"/>
       <c r="AB21" s="204">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AC21" s="205">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="AD21" s="206"/>
       <c r="AE21" s="204">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF21" s="205">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="AG21" s="206"/>
       <c r="AH21" s="204">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI21" s="205">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="AJ21" s="206"/>
       <c r="AK21" s="204">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AL21" s="205">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="AM21" s="206"/>
       <c r="AN21" s="204">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AO21" s="207">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AP21" s="3"/>
       <c r="AT21" s="208"/>
@@ -8799,7 +8670,7 @@
         <v>4</v>
       </c>
       <c r="AV21" s="210">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="AW21" s="3"/>
       <c r="AX21" s="14"/>
@@ -8823,7 +8694,7 @@
       <c r="BV21" s="6"/>
       <c r="BW21" s="6"/>
       <c r="BY21" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:77" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8836,87 +8707,87 @@
       </c>
       <c r="F22" s="127"/>
       <c r="G22" s="128">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H22" s="129">
-        <v>92.142857142857139</v>
+        <v>86</v>
       </c>
       <c r="I22" s="130"/>
       <c r="J22" s="128">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K22" s="129">
-        <v>87.642857142857139</v>
+        <v>88.466666666666669</v>
       </c>
       <c r="L22" s="130"/>
       <c r="M22" s="128">
         <v>3</v>
       </c>
       <c r="N22" s="129">
-        <v>93.357142857142861</v>
+        <v>92.6</v>
       </c>
       <c r="O22" s="130"/>
       <c r="P22" s="128">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q22" s="129">
-        <v>93</v>
+        <v>91.666666666666671</v>
       </c>
       <c r="R22" s="130"/>
       <c r="S22" s="128">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T22" s="129">
-        <v>91.785714285714292</v>
+        <v>91.333333333333329</v>
       </c>
       <c r="U22" s="130"/>
       <c r="V22" s="128">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="W22" s="129">
-        <v>86.142857142857139</v>
+        <v>86.13333333333334</v>
       </c>
       <c r="X22" s="130"/>
       <c r="Y22" s="128">
         <v>2</v>
       </c>
       <c r="Z22" s="129">
-        <v>94</v>
+        <v>93.6</v>
       </c>
       <c r="AA22" s="130"/>
       <c r="AB22" s="128">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC22" s="129">
-        <v>90.214285714285708</v>
+        <v>89.666666666666671</v>
       </c>
       <c r="AD22" s="130"/>
       <c r="AE22" s="128">
         <v>1</v>
       </c>
       <c r="AF22" s="129">
-        <v>97.928571428571431</v>
+        <v>97.2</v>
       </c>
       <c r="AG22" s="130"/>
       <c r="AH22" s="128">
         <v>12</v>
       </c>
       <c r="AI22" s="129">
-        <v>67.142857142857139</v>
+        <v>66.2</v>
       </c>
       <c r="AJ22" s="130"/>
       <c r="AK22" s="128">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AL22" s="129">
-        <v>89.142857142857139</v>
+        <v>83.2</v>
       </c>
       <c r="AM22" s="130"/>
       <c r="AN22" s="128">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AO22" s="131">
-        <v>91.857142857142861</v>
+        <v>92.333333333333329</v>
       </c>
       <c r="AP22" s="3"/>
       <c r="AU22" s="14"/>
@@ -8941,7 +8812,7 @@
       <c r="BV22" s="6"/>
       <c r="BW22" s="6"/>
       <c r="BY22" s="12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:77" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8960,47 +8831,47 @@
       <c r="I23" s="138"/>
       <c r="J23" s="136"/>
       <c r="K23" s="137">
-        <v>1227</v>
+        <v>1327</v>
       </c>
       <c r="L23" s="138"/>
       <c r="M23" s="136"/>
       <c r="N23" s="137">
-        <v>1307</v>
+        <v>1389</v>
       </c>
       <c r="O23" s="138"/>
       <c r="P23" s="136"/>
       <c r="Q23" s="137">
-        <v>1302</v>
+        <v>1375</v>
       </c>
       <c r="R23" s="138"/>
       <c r="S23" s="136"/>
       <c r="T23" s="137">
-        <v>1285</v>
+        <v>1370</v>
       </c>
       <c r="U23" s="138"/>
       <c r="V23" s="136"/>
       <c r="W23" s="137">
-        <v>1206</v>
+        <v>1292</v>
       </c>
       <c r="X23" s="138"/>
       <c r="Y23" s="136"/>
       <c r="Z23" s="137">
-        <v>1316</v>
+        <v>1404</v>
       </c>
       <c r="AA23" s="138"/>
       <c r="AB23" s="136"/>
       <c r="AC23" s="137">
-        <v>1263</v>
+        <v>1345</v>
       </c>
       <c r="AD23" s="138"/>
       <c r="AE23" s="136"/>
       <c r="AF23" s="137">
-        <v>1371</v>
+        <v>1458</v>
       </c>
       <c r="AG23" s="138"/>
       <c r="AH23" s="136"/>
       <c r="AI23" s="137">
-        <v>940</v>
+        <v>993</v>
       </c>
       <c r="AJ23" s="138"/>
       <c r="AK23" s="136"/>
@@ -9010,7 +8881,7 @@
       <c r="AM23" s="138"/>
       <c r="AN23" s="136"/>
       <c r="AO23" s="139">
-        <v>1286</v>
+        <v>1385</v>
       </c>
       <c r="AP23" s="3"/>
       <c r="AU23" s="14"/>
@@ -9025,7 +8896,7 @@
       <c r="BV23" s="6"/>
       <c r="BW23" s="6"/>
       <c r="BY23" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:77" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9108,7 +8979,7 @@
       <c r="BV24" s="6"/>
       <c r="BW24" s="6"/>
       <c r="BY24" s="12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:77" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9121,31 +8992,31 @@
       </c>
       <c r="F25" s="135"/>
       <c r="G25" s="140">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="H25" s="137">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I25" s="138"/>
       <c r="J25" s="140">
-        <v>0.6875</v>
+        <v>0.625</v>
       </c>
       <c r="K25" s="137">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L25" s="138"/>
       <c r="M25" s="140">
-        <v>0.75</v>
+        <v>0.5625</v>
       </c>
       <c r="N25" s="137">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O25" s="138"/>
       <c r="P25" s="140">
-        <v>0.8125</v>
+        <v>0.5625</v>
       </c>
       <c r="Q25" s="137">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="R25" s="138"/>
       <c r="S25" s="140">
@@ -9156,24 +9027,24 @@
       </c>
       <c r="U25" s="138"/>
       <c r="V25" s="140">
-        <v>0.8125</v>
+        <v>0.625</v>
       </c>
       <c r="W25" s="137">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="X25" s="138"/>
       <c r="Y25" s="140">
-        <v>0.625</v>
+        <v>0.5625</v>
       </c>
       <c r="Z25" s="137">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA25" s="138"/>
       <c r="AB25" s="140">
-        <v>0.75</v>
+        <v>0.5625</v>
       </c>
       <c r="AC25" s="137">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AD25" s="138"/>
       <c r="AE25" s="140">
@@ -9184,24 +9055,24 @@
       </c>
       <c r="AG25" s="138"/>
       <c r="AH25" s="140">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AI25" s="137">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AJ25" s="138"/>
       <c r="AK25" s="140">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AL25" s="137">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AM25" s="138"/>
       <c r="AN25" s="140">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="AO25" s="139">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AP25" s="3"/>
       <c r="AW25" s="3"/>
@@ -9215,7 +9086,7 @@
       <c r="BV25" s="6"/>
       <c r="BW25" s="6"/>
       <c r="BY25" s="12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:77" s="13" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9228,87 +9099,87 @@
       </c>
       <c r="F26" s="144"/>
       <c r="G26" s="145">
-        <v>0.59375</v>
+        <v>0.5541666666666667</v>
       </c>
       <c r="H26" s="146">
         <v>133</v>
       </c>
       <c r="I26" s="147"/>
       <c r="J26" s="145">
-        <v>0.6071428571428571</v>
+        <v>0.60833333333333328</v>
       </c>
       <c r="K26" s="146">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="L26" s="147"/>
       <c r="M26" s="145">
-        <v>0.6071428571428571</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="N26" s="146">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="O26" s="147"/>
       <c r="P26" s="145">
-        <v>0.6383928571428571</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="Q26" s="146">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="R26" s="147"/>
       <c r="S26" s="145">
-        <v>0.6160714285714286</v>
+        <v>0.62083333333333335</v>
       </c>
       <c r="T26" s="146">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="U26" s="147"/>
       <c r="V26" s="145">
-        <v>0.5580357142857143</v>
+        <v>0.5625</v>
       </c>
       <c r="W26" s="146">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="X26" s="147"/>
       <c r="Y26" s="145">
-        <v>0.6205357142857143</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="Z26" s="146">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="AA26" s="147"/>
       <c r="AB26" s="145">
-        <v>0.5982142857142857</v>
+        <v>0.59583333333333333</v>
       </c>
       <c r="AC26" s="146">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="AD26" s="147"/>
       <c r="AE26" s="145">
-        <v>0.6517857142857143</v>
+        <v>0.65416666666666667</v>
       </c>
       <c r="AF26" s="146">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AG26" s="147"/>
       <c r="AH26" s="145">
-        <v>0.4419642857142857</v>
+        <v>0.4375</v>
       </c>
       <c r="AI26" s="146">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AJ26" s="147"/>
       <c r="AK26" s="145">
-        <v>0.5580357142857143</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="AL26" s="146">
         <v>125</v>
       </c>
       <c r="AM26" s="147"/>
       <c r="AN26" s="145">
-        <v>0.6205357142857143</v>
+        <v>0.62083333333333335</v>
       </c>
       <c r="AO26" s="148">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="AP26" s="3"/>
       <c r="AW26" s="3"/>
@@ -9332,7 +9203,7 @@
       <c r="BV26" s="6"/>
       <c r="BW26" s="6"/>
       <c r="BY26" s="12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:77" s="7" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9356,7 +9227,7 @@
         <v>68</v>
       </c>
       <c r="P27" s="153">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="Q27" s="150"/>
       <c r="R27" s="150"/>
@@ -9369,7 +9240,7 @@
         <v>69</v>
       </c>
       <c r="Y27" s="154">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z27" s="150"/>
       <c r="AA27" s="152"/>
@@ -9382,7 +9253,7 @@
         <v>70</v>
       </c>
       <c r="AH27" s="154">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI27" s="150"/>
       <c r="AJ27" s="152"/>
@@ -9405,7 +9276,7 @@
       <c r="BV27" s="6"/>
       <c r="BW27" s="6"/>
       <c r="BY27" s="12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:77" s="7" customFormat="1" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -9462,7 +9333,7 @@
       <c r="BV28" s="6"/>
       <c r="BW28" s="6"/>
       <c r="BY28" s="12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:77" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -9523,7 +9394,7 @@
       <c r="BV29" s="6"/>
       <c r="BW29" s="6"/>
       <c r="BY29" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:77" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -9580,7 +9451,7 @@
       <c r="BV30" s="6"/>
       <c r="BW30" s="6"/>
       <c r="BY30" s="12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:77" s="7" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9659,7 +9530,7 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="25">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="H32" s="26"/>
       <c r="I32" s="26"/>
@@ -9693,7 +9564,7 @@
         <v>136</v>
       </c>
       <c r="AK32" s="25">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="AN32" s="25">
         <v>136</v>
@@ -9731,47 +9602,47 @@
       <c r="F34" s="26"/>
       <c r="G34" s="25"/>
       <c r="H34" s="26">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="I34" s="26"/>
       <c r="J34" s="26"/>
       <c r="K34" s="26">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="L34" s="26"/>
       <c r="M34" s="26"/>
       <c r="N34" s="26">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="Q34" s="26">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="T34" s="26">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="W34" s="26">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="Z34" s="26">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="AC34" s="26">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="AF34" s="26">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="AI34" s="26">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="AL34" s="26">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="AO34" s="26">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AV34" s="26">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="BY34" s="12"/>
     </row>
@@ -9781,44 +9652,44 @@
       <c r="F35" s="3"/>
       <c r="G35" s="27"/>
       <c r="H35" s="28">
-        <v>92.142857142857139</v>
+        <v>86</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="28">
-        <v>87.642857142857139</v>
+        <v>88.466666666666669</v>
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="28">
-        <v>93.357142857142861</v>
+        <v>92.6</v>
       </c>
       <c r="Q35" s="28">
-        <v>93</v>
+        <v>91.666666666666671</v>
       </c>
       <c r="T35" s="28">
-        <v>91.785714285714292</v>
+        <v>91.333333333333329</v>
       </c>
       <c r="W35" s="28">
-        <v>86.142857142857139</v>
+        <v>86.13333333333334</v>
       </c>
       <c r="Z35" s="28">
-        <v>94</v>
+        <v>93.6</v>
       </c>
       <c r="AC35" s="28">
-        <v>90.214285714285708</v>
+        <v>89.666666666666671</v>
       </c>
       <c r="AF35" s="28">
-        <v>97.928571428571431</v>
+        <v>97.2</v>
       </c>
       <c r="AI35" s="28">
-        <v>67.142857142857139</v>
+        <v>66.2</v>
       </c>
       <c r="AL35" s="28">
-        <v>89.142857142857139</v>
+        <v>83.2</v>
       </c>
       <c r="AO35" s="28">
-        <v>91.857142857142861</v>
+        <v>92.333333333333329</v>
       </c>
       <c r="BY35" s="12"/>
     </row>
@@ -9833,39 +9704,39 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="28">
-        <v>1227</v>
+        <v>1327</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="28">
-        <v>1307</v>
+        <v>1389</v>
       </c>
       <c r="Q36" s="28">
-        <v>1302</v>
+        <v>1375</v>
       </c>
       <c r="T36" s="28">
-        <v>1285</v>
+        <v>1370</v>
       </c>
       <c r="W36" s="28">
-        <v>1206</v>
+        <v>1292</v>
       </c>
       <c r="Z36" s="28">
-        <v>1316</v>
+        <v>1404</v>
       </c>
       <c r="AC36" s="28">
-        <v>1263</v>
+        <v>1345</v>
       </c>
       <c r="AF36" s="28">
-        <v>1371</v>
+        <v>1458</v>
       </c>
       <c r="AI36" s="28">
-        <v>940</v>
+        <v>993</v>
       </c>
       <c r="AL36" s="28">
         <v>1248</v>
       </c>
       <c r="AO36" s="28">
-        <v>1286</v>
+        <v>1385</v>
       </c>
       <c r="BY36" s="12"/>
     </row>
@@ -9922,44 +9793,44 @@
       <c r="F38" s="3"/>
       <c r="G38" s="27"/>
       <c r="H38" s="28">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="28">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q38" s="28">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="T38" s="28">
         <v>11</v>
       </c>
       <c r="W38" s="28">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Z38" s="28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC38" s="28">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AF38" s="28">
         <v>11</v>
       </c>
       <c r="AI38" s="28">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AL38" s="28">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AO38" s="28">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BY38" s="12"/>
     </row>
@@ -9974,39 +9845,39 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="28">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="28">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="Q39" s="28">
+        <v>152</v>
+      </c>
+      <c r="T39" s="28">
+        <v>149</v>
+      </c>
+      <c r="W39" s="28">
+        <v>135</v>
+      </c>
+      <c r="Z39" s="28">
+        <v>148</v>
+      </c>
+      <c r="AC39" s="28">
         <v>143</v>
       </c>
-      <c r="T39" s="28">
-        <v>138</v>
-      </c>
-      <c r="W39" s="28">
-        <v>125</v>
-      </c>
-      <c r="Z39" s="28">
-        <v>139</v>
-      </c>
-      <c r="AC39" s="28">
-        <v>134</v>
-      </c>
       <c r="AF39" s="28">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AI39" s="28">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AL39" s="28">
         <v>125</v>
       </c>
       <c r="AO39" s="28">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="BY39" s="12"/>
     </row>
@@ -10015,12 +9886,12 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="27">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H40" s="28"/>
       <c r="I40" s="3"/>
       <c r="J40" s="27">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K40" s="28"/>
       <c r="L40" s="3"/>
@@ -10029,15 +9900,15 @@
       </c>
       <c r="N40" s="28"/>
       <c r="P40" s="27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q40" s="28"/>
       <c r="S40" s="27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T40" s="28"/>
       <c r="V40" s="27">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="W40" s="28"/>
       <c r="Y40" s="27">
@@ -10045,7 +9916,7 @@
       </c>
       <c r="Z40" s="28"/>
       <c r="AB40" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC40" s="28"/>
       <c r="AE40" s="27">
@@ -10057,11 +9928,11 @@
       </c>
       <c r="AI40" s="28"/>
       <c r="AK40" s="27">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AL40" s="28"/>
       <c r="AN40" s="27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AO40" s="28"/>
       <c r="AR40" s="29">
@@ -10077,44 +9948,44 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="27">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="27">
-        <v>0.6875</v>
+        <v>0.625</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="27">
-        <v>0.75</v>
+        <v>0.5625</v>
       </c>
       <c r="P41" s="27">
-        <v>0.8125</v>
+        <v>0.5625</v>
       </c>
       <c r="S41" s="27">
         <v>0.6875</v>
       </c>
       <c r="V41" s="27">
-        <v>0.8125</v>
+        <v>0.625</v>
       </c>
       <c r="Y41" s="27">
-        <v>0.625</v>
+        <v>0.5625</v>
       </c>
       <c r="AB41" s="27">
-        <v>0.75</v>
+        <v>0.5625</v>
       </c>
       <c r="AE41" s="27">
         <v>0.6875</v>
       </c>
       <c r="AH41" s="27">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AK41" s="27">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AN41" s="27">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="AR41" s="29">
         <v>1</v>
@@ -10129,44 +10000,44 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="27">
-        <v>0.59375</v>
+        <v>0.5541666666666667</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="27">
-        <v>0.6071428571428571</v>
+        <v>0.60833333333333328</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="27">
-        <v>0.6071428571428571</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="P42" s="27">
-        <v>0.6383928571428571</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="S42" s="27">
-        <v>0.6160714285714286</v>
+        <v>0.62083333333333335</v>
       </c>
       <c r="V42" s="27">
-        <v>0.5580357142857143</v>
+        <v>0.5625</v>
       </c>
       <c r="Y42" s="27">
-        <v>0.6205357142857143</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="AB42" s="27">
-        <v>0.5982142857142857</v>
+        <v>0.59583333333333333</v>
       </c>
       <c r="AE42" s="27">
-        <v>0.6517857142857143</v>
+        <v>0.65416666666666667</v>
       </c>
       <c r="AH42" s="27">
-        <v>0.4419642857142857</v>
+        <v>0.4375</v>
       </c>
       <c r="AK42" s="27">
-        <v>0.5580357142857143</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="AN42" s="27">
-        <v>0.6205357142857143</v>
+        <v>0.62083333333333335</v>
       </c>
       <c r="BY42" s="12"/>
     </row>
@@ -12361,66 +12232,66 @@
     </row>
     <row r="2" spans="2:99" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="308" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C2" s="309" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D2" s="310"/>
       <c r="E2" s="156" t="s">
         <v>91</v>
       </c>
       <c r="F2" s="115">
-        <v>-45</v>
+        <v>-48</v>
       </c>
       <c r="G2" s="157"/>
       <c r="H2" s="156" t="s">
         <v>92</v>
       </c>
       <c r="I2" s="115">
-        <v>-14</v>
+        <v>14</v>
       </c>
       <c r="J2" s="157"/>
       <c r="K2" s="156" t="s">
         <v>93</v>
       </c>
       <c r="L2" s="115">
-        <v>-14</v>
+        <v>-17</v>
       </c>
       <c r="M2" s="157"/>
       <c r="N2" s="156" t="s">
         <v>94</v>
       </c>
       <c r="O2" s="115">
-        <v>-45</v>
+        <v>-48</v>
       </c>
       <c r="P2" s="157"/>
       <c r="Q2" s="156" t="s">
         <v>95</v>
       </c>
       <c r="R2" s="115">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="S2" s="157"/>
       <c r="T2" s="156" t="s">
         <v>96</v>
       </c>
       <c r="U2" s="115">
-        <v>-45</v>
+        <v>-48</v>
       </c>
       <c r="V2" s="157"/>
       <c r="W2" s="156" t="s">
         <v>97</v>
       </c>
       <c r="X2" s="115">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y2" s="157"/>
       <c r="Z2" s="156" t="s">
         <v>98</v>
       </c>
       <c r="AA2" s="115">
-        <v>-14</v>
+        <v>-17</v>
       </c>
       <c r="AB2" s="157"/>
       <c r="AC2" s="156" t="s">
@@ -12434,21 +12305,21 @@
         <v>100</v>
       </c>
       <c r="AG2" s="115">
-        <v>-14</v>
+        <v>-17</v>
       </c>
       <c r="AH2" s="157"/>
       <c r="AI2" s="156" t="s">
         <v>101</v>
       </c>
       <c r="AJ2" s="115">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AK2" s="157"/>
       <c r="AL2" s="156" t="s">
         <v>102</v>
       </c>
       <c r="AM2" s="115">
-        <v>-14</v>
+        <v>-17</v>
       </c>
       <c r="AN2" s="158"/>
       <c r="AO2" s="211">
@@ -12458,7 +12329,7 @@
         <v>8</v>
       </c>
       <c r="AQ2" s="39">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR2" s="40" t="s">
         <v>9</v>
@@ -12590,7 +12461,7 @@
         <v>14</v>
       </c>
       <c r="AQ3" s="41">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR3" s="40" t="s">
         <v>15</v>
@@ -13803,7 +13674,7 @@
       </c>
       <c r="AQ9" s="45"/>
       <c r="AR9" s="47" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AS9" s="4">
         <v>15</v>
@@ -14019,7 +13890,7 @@
       </c>
       <c r="AQ10" s="45"/>
       <c r="AR10" s="47" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AS10" s="4">
         <v>15</v>
@@ -14233,7 +14104,7 @@
       <c r="AP11" s="46"/>
       <c r="AQ11" s="45"/>
       <c r="AR11" s="47" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AS11" s="4">
         <v>13</v>
@@ -14447,7 +14318,7 @@
       <c r="AP12" s="46"/>
       <c r="AQ12" s="45"/>
       <c r="AR12" s="47" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AS12" s="4">
         <v>13</v>
@@ -15818,116 +15689,116 @@
       <c r="C19" s="191">
         <v>16</v>
       </c>
-      <c r="D19" s="222" t="s">
-        <v>0</v>
+      <c r="D19" s="222">
+        <v>16</v>
       </c>
       <c r="E19" s="193" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="J19" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="K19" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="L19" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="M19" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="N19" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="O19" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="P19" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="R19" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="S19" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="T19" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="U19" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="V19" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="W19" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="X19" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="224" t="s">
-        <v>0</v>
+      <c r="F19" s="223">
+        <v>0</v>
+      </c>
+      <c r="G19" s="224">
+        <v>0</v>
+      </c>
+      <c r="H19" s="196">
+        <v>1</v>
+      </c>
+      <c r="I19" s="223">
+        <v>10</v>
+      </c>
+      <c r="J19" s="224">
+        <v>100</v>
+      </c>
+      <c r="K19" s="196">
+        <v>7</v>
+      </c>
+      <c r="L19" s="223">
+        <v>9</v>
+      </c>
+      <c r="M19" s="224">
+        <v>82</v>
+      </c>
+      <c r="N19" s="196">
+        <v>9</v>
+      </c>
+      <c r="O19" s="223">
+        <v>9</v>
+      </c>
+      <c r="P19" s="224">
+        <v>73</v>
+      </c>
+      <c r="Q19" s="196">
+        <v>6</v>
+      </c>
+      <c r="R19" s="223">
+        <v>11</v>
+      </c>
+      <c r="S19" s="224">
+        <v>85</v>
+      </c>
+      <c r="T19" s="196">
+        <v>5</v>
+      </c>
+      <c r="U19" s="223">
+        <v>10</v>
+      </c>
+      <c r="V19" s="224">
+        <v>86</v>
+      </c>
+      <c r="W19" s="196">
+        <v>3</v>
+      </c>
+      <c r="X19" s="223">
+        <v>9</v>
+      </c>
+      <c r="Y19" s="224">
+        <v>88</v>
+      </c>
+      <c r="Z19" s="196">
+        <v>7</v>
+      </c>
+      <c r="AA19" s="223">
+        <v>9</v>
+      </c>
+      <c r="AB19" s="224">
+        <v>82</v>
+      </c>
+      <c r="AC19" s="196">
+        <v>4</v>
+      </c>
+      <c r="AD19" s="223">
+        <v>11</v>
+      </c>
+      <c r="AE19" s="224">
+        <v>87</v>
+      </c>
+      <c r="AF19" s="196">
+        <v>10</v>
+      </c>
+      <c r="AG19" s="223">
+        <v>6</v>
+      </c>
+      <c r="AH19" s="224">
+        <v>53</v>
       </c>
       <c r="AI19" s="196" t="s">
         <v>0</v>
       </c>
-      <c r="AJ19" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK19" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL19" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM19" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN19" s="225" t="s">
-        <v>0</v>
+      <c r="AJ19" s="223">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="224">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="196">
+        <v>2</v>
+      </c>
+      <c r="AM19" s="223">
+        <v>10</v>
+      </c>
+      <c r="AN19" s="225">
+        <v>99</v>
       </c>
       <c r="AO19" s="45"/>
       <c r="AP19" s="46"/>
@@ -15948,64 +15819,64 @@
         <v>0</v>
       </c>
       <c r="BO19" s="4"/>
-      <c r="BP19" s="4" t="s">
-        <v>0</v>
+      <c r="BP19" s="4">
+        <v>100</v>
       </c>
       <c r="BQ19" s="4" t="s">
         <v>0</v>
       </c>
       <c r="BR19" s="4"/>
-      <c r="BS19" s="4" t="s">
-        <v>0</v>
+      <c r="BS19" s="4">
+        <v>82</v>
       </c>
       <c r="BT19" s="4" t="s">
         <v>0</v>
       </c>
       <c r="BU19" s="4"/>
-      <c r="BV19" s="4" t="s">
-        <v>0</v>
+      <c r="BV19" s="4">
+        <v>73</v>
       </c>
       <c r="BW19" s="4" t="s">
         <v>0</v>
       </c>
       <c r="BX19" s="4"/>
-      <c r="BY19" s="4" t="s">
-        <v>0</v>
+      <c r="BY19" s="4">
+        <v>85</v>
       </c>
       <c r="BZ19" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CA19" s="4"/>
-      <c r="CB19" s="4" t="s">
-        <v>0</v>
+      <c r="CB19" s="4">
+        <v>86</v>
       </c>
       <c r="CC19" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CD19" s="4"/>
-      <c r="CE19" s="4" t="s">
-        <v>0</v>
+      <c r="CE19" s="4">
+        <v>88</v>
       </c>
       <c r="CF19" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CG19" s="4"/>
-      <c r="CH19" s="4" t="s">
-        <v>0</v>
+      <c r="CH19" s="4">
+        <v>82</v>
       </c>
       <c r="CI19" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CJ19" s="4"/>
-      <c r="CK19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="CL19" s="4" t="s">
-        <v>0</v>
+      <c r="CK19" s="4">
+        <v>87</v>
+      </c>
+      <c r="CL19" s="4">
+        <v>1</v>
       </c>
       <c r="CM19" s="4"/>
-      <c r="CN19" s="4" t="s">
-        <v>0</v>
+      <c r="CN19" s="4">
+        <v>53</v>
       </c>
       <c r="CO19" s="4" t="s">
         <v>0</v>
@@ -16018,8 +15889,8 @@
         <v>0</v>
       </c>
       <c r="CS19" s="4"/>
-      <c r="CT19" s="4" t="s">
-        <v>0</v>
+      <c r="CT19" s="4">
+        <v>99</v>
       </c>
       <c r="CU19" s="4"/>
     </row>
@@ -16241,10 +16112,10 @@
         <v>22</v>
       </c>
       <c r="D21" s="237">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="E21" s="238">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F21" s="239">
         <v>133</v>
@@ -16253,88 +16124,88 @@
         <v>1290</v>
       </c>
       <c r="H21" s="241">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I21" s="239">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="J21" s="240">
-        <v>1227</v>
+        <v>1327</v>
       </c>
       <c r="K21" s="241">
         <v>3</v>
       </c>
       <c r="L21" s="239">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="M21" s="240">
-        <v>1307</v>
+        <v>1389</v>
       </c>
       <c r="N21" s="241">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O21" s="239">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="P21" s="240">
-        <v>1302</v>
+        <v>1375</v>
       </c>
       <c r="Q21" s="241">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R21" s="239">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="S21" s="240">
-        <v>1285</v>
+        <v>1370</v>
       </c>
       <c r="T21" s="241">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U21" s="239">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="V21" s="240">
-        <v>1206</v>
+        <v>1292</v>
       </c>
       <c r="W21" s="241">
         <v>2</v>
       </c>
       <c r="X21" s="239">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="Y21" s="240">
-        <v>1316</v>
+        <v>1404</v>
       </c>
       <c r="Z21" s="241">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA21" s="239">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="AB21" s="240">
-        <v>1263</v>
+        <v>1345</v>
       </c>
       <c r="AC21" s="241">
         <v>1</v>
       </c>
       <c r="AD21" s="239">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AE21" s="240">
-        <v>1371</v>
+        <v>1458</v>
       </c>
       <c r="AF21" s="241">
         <v>12</v>
       </c>
       <c r="AG21" s="239">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AH21" s="240">
-        <v>940</v>
+        <v>993</v>
       </c>
       <c r="AI21" s="241">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AJ21" s="239">
         <v>125</v>
@@ -16343,13 +16214,13 @@
         <v>1248</v>
       </c>
       <c r="AL21" s="241">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AM21" s="239">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="AN21" s="242">
-        <v>1286</v>
+        <v>1385</v>
       </c>
       <c r="AO21" s="48"/>
       <c r="AP21" s="49"/>
@@ -16365,47 +16236,47 @@
       <c r="BN21" s="4"/>
       <c r="BO21" s="4"/>
       <c r="BP21" s="4">
-        <v>1227</v>
+        <v>1327</v>
       </c>
       <c r="BQ21" s="4"/>
       <c r="BR21" s="4"/>
       <c r="BS21" s="4">
-        <v>1307</v>
+        <v>1389</v>
       </c>
       <c r="BT21" s="4"/>
       <c r="BU21" s="4"/>
       <c r="BV21" s="4">
-        <v>1302</v>
+        <v>1375</v>
       </c>
       <c r="BW21" s="4"/>
       <c r="BX21" s="4"/>
       <c r="BY21" s="4">
-        <v>1285</v>
+        <v>1370</v>
       </c>
       <c r="BZ21" s="4"/>
       <c r="CA21" s="4"/>
       <c r="CB21" s="4">
-        <v>1206</v>
+        <v>1292</v>
       </c>
       <c r="CC21" s="4"/>
       <c r="CD21" s="4"/>
       <c r="CE21" s="4">
-        <v>1316</v>
+        <v>1404</v>
       </c>
       <c r="CF21" s="4"/>
       <c r="CG21" s="4"/>
       <c r="CH21" s="4">
-        <v>1263</v>
+        <v>1345</v>
       </c>
       <c r="CI21" s="4"/>
       <c r="CJ21" s="4"/>
       <c r="CK21" s="4">
-        <v>1371</v>
+        <v>1458</v>
       </c>
       <c r="CL21" s="4"/>
       <c r="CM21" s="4"/>
       <c r="CN21" s="4">
-        <v>940</v>
+        <v>993</v>
       </c>
       <c r="CO21" s="4"/>
       <c r="CP21" s="4"/>
@@ -16415,7 +16286,7 @@
       <c r="CR21" s="4"/>
       <c r="CS21" s="4"/>
       <c r="CT21" s="4">
-        <v>1286</v>
+        <v>1385</v>
       </c>
       <c r="CU21" s="4"/>
     </row>
@@ -16429,109 +16300,109 @@
         <v>5.4285714285714288</v>
       </c>
       <c r="F22" s="247">
-        <v>8.8666666666666671</v>
+        <v>8.3125</v>
       </c>
       <c r="G22" s="248">
-        <v>92.142857142857139</v>
+        <v>86</v>
       </c>
       <c r="H22" s="249">
-        <v>7.666666666666667</v>
+        <v>7.25</v>
       </c>
       <c r="I22" s="247">
-        <v>9.0666666666666664</v>
+        <v>9.125</v>
       </c>
       <c r="J22" s="248">
-        <v>87.642857142857139</v>
+        <v>88.466666666666669</v>
       </c>
       <c r="K22" s="249">
-        <v>5</v>
+        <v>5.1333333333333337</v>
       </c>
       <c r="L22" s="247">
-        <v>9.0666666666666664</v>
+        <v>9.0625</v>
       </c>
       <c r="M22" s="248">
-        <v>93.357142857142861</v>
+        <v>92.6</v>
       </c>
       <c r="N22" s="249">
-        <v>6</v>
+        <v>6.1875</v>
       </c>
       <c r="O22" s="247">
-        <v>9.5333333333333332</v>
+        <v>9.5</v>
       </c>
       <c r="P22" s="248">
-        <v>93</v>
+        <v>91.666666666666671</v>
       </c>
       <c r="Q22" s="249">
         <v>6</v>
       </c>
       <c r="R22" s="247">
-        <v>9.1999999999999993</v>
+        <v>9.3125</v>
       </c>
       <c r="S22" s="248">
-        <v>91.785714285714292</v>
+        <v>91.333333333333329</v>
       </c>
       <c r="T22" s="249">
-        <v>7</v>
+        <v>6.8666666666666663</v>
       </c>
       <c r="U22" s="247">
-        <v>8.3333333333333339</v>
+        <v>8.4375</v>
       </c>
       <c r="V22" s="248">
-        <v>86.142857142857139</v>
+        <v>86.13333333333334</v>
       </c>
       <c r="W22" s="249">
-        <v>5</v>
+        <v>4.875</v>
       </c>
       <c r="X22" s="247">
-        <v>9.2666666666666675</v>
+        <v>9.25</v>
       </c>
       <c r="Y22" s="248">
-        <v>94</v>
+        <v>93.6</v>
       </c>
       <c r="Z22" s="249">
-        <v>6.2666666666666666</v>
+        <v>6.3125</v>
       </c>
       <c r="AA22" s="247">
-        <v>8.9333333333333336</v>
+        <v>8.9375</v>
       </c>
       <c r="AB22" s="248">
-        <v>90.214285714285708</v>
+        <v>89.666666666666671</v>
       </c>
       <c r="AC22" s="249">
-        <v>4.5333333333333332</v>
+        <v>4.5</v>
       </c>
       <c r="AD22" s="247">
-        <v>9.7333333333333325</v>
+        <v>9.8125</v>
       </c>
       <c r="AE22" s="248">
-        <v>97.928571428571431</v>
+        <v>97.2</v>
       </c>
       <c r="AF22" s="249">
-        <v>8.5384615384615383</v>
+        <v>8.6428571428571423</v>
       </c>
       <c r="AG22" s="247">
-        <v>6.6</v>
+        <v>6.5625</v>
       </c>
       <c r="AH22" s="248">
-        <v>67.142857142857139</v>
+        <v>66.2</v>
       </c>
       <c r="AI22" s="249">
         <v>6.2857142857142856</v>
       </c>
       <c r="AJ22" s="247">
-        <v>8.3333333333333339</v>
+        <v>7.8125</v>
       </c>
       <c r="AK22" s="248">
-        <v>89.142857142857139</v>
+        <v>83.2</v>
       </c>
       <c r="AL22" s="249">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AM22" s="247">
-        <v>9.2666666666666675</v>
+        <v>9.3125</v>
       </c>
       <c r="AN22" s="250">
-        <v>91.857142857142861</v>
+        <v>92.333333333333329</v>
       </c>
       <c r="AO22" s="48"/>
       <c r="AP22" s="49"/>
@@ -16589,7 +16460,7 @@
       <c r="F23" s="255"/>
       <c r="G23" s="256"/>
       <c r="H23" s="257">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" s="255"/>
       <c r="J23" s="256"/>
@@ -16749,7 +16620,7 @@
       <c r="AJ24" s="108"/>
       <c r="AK24" s="109"/>
       <c r="AL24" s="75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM24" s="108"/>
       <c r="AN24" s="110"/>
@@ -16857,8 +16728,8 @@
       </c>
       <c r="U25" s="108"/>
       <c r="V25" s="109"/>
-      <c r="W25" s="75" t="s">
-        <v>0</v>
+      <c r="W25" s="75">
+        <v>1</v>
       </c>
       <c r="X25" s="108"/>
       <c r="Y25" s="109"/>
@@ -17007,7 +16878,7 @@
       <c r="AD26" s="108"/>
       <c r="AE26" s="109"/>
       <c r="AF26" s="75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG26" s="108"/>
       <c r="AH26" s="109"/>
@@ -17096,7 +16967,7 @@
         <v>28</v>
       </c>
       <c r="E27" s="265">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" s="266"/>
       <c r="G27" s="267"/>
@@ -17146,7 +17017,7 @@
       <c r="AG27" s="266"/>
       <c r="AH27" s="267"/>
       <c r="AI27" s="268">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ27" s="266"/>
       <c r="AK27" s="267"/>
@@ -17643,7 +17514,7 @@
         <v>124</v>
       </c>
       <c r="AV33" s="273">
-        <v>-45</v>
+        <v>-48</v>
       </c>
       <c r="AW33" s="274">
         <v>4</v>
@@ -17655,7 +17526,7 @@
         <v>61</v>
       </c>
       <c r="AZ33" s="275">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="BA33" s="277" t="s">
         <v>0</v>
@@ -17738,10 +17609,10 @@
         <v>97</v>
       </c>
       <c r="AU34" s="280">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AV34" s="281">
-        <v>-45</v>
+        <v>-48</v>
       </c>
       <c r="AW34" s="282">
         <v>2</v>
@@ -17759,7 +17630,7 @@
         <v>61</v>
       </c>
       <c r="BB34" s="286">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BC34" s="287"/>
       <c r="BD34" s="282"/>
@@ -17833,13 +17704,13 @@
     </row>
     <row r="35" spans="46:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AT35" s="271" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AU35" s="280">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AV35" s="281">
-        <v>-45</v>
+        <v>-48</v>
       </c>
       <c r="AW35" s="282">
         <v>2</v>
@@ -17930,14 +17801,14 @@
       <c r="CU35" s="4"/>
     </row>
     <row r="36" spans="46:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AT36" s="296" t="s">
-        <v>101</v>
+      <c r="AT36" s="271" t="s">
+        <v>95</v>
       </c>
       <c r="AU36" s="280">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AV36" s="281">
-        <v>-45</v>
+        <v>-48</v>
       </c>
       <c r="AW36" s="282">
         <v>2</v>
@@ -18028,20 +17899,20 @@
       <c r="CU36" s="4"/>
     </row>
     <row r="37" spans="46:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AT37" s="271" t="s">
-        <v>92</v>
+      <c r="AT37" s="296" t="s">
+        <v>101</v>
       </c>
       <c r="AU37" s="280">
-        <v>-14</v>
+        <v>14</v>
       </c>
       <c r="AV37" s="281">
-        <v>-45</v>
+        <v>-48</v>
       </c>
       <c r="AW37" s="282">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX37" s="283">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="AY37" s="284" t="s">
         <v>0</v>
@@ -18130,10 +18001,10 @@
         <v>93</v>
       </c>
       <c r="AU38" s="280">
-        <v>-14</v>
+        <v>-17</v>
       </c>
       <c r="AV38" s="281">
-        <v>-45</v>
+        <v>-48</v>
       </c>
       <c r="AW38" s="282">
         <v>1</v>
@@ -18228,10 +18099,10 @@
         <v>98</v>
       </c>
       <c r="AU39" s="280">
-        <v>-14</v>
+        <v>-17</v>
       </c>
       <c r="AV39" s="281">
-        <v>-45</v>
+        <v>-48</v>
       </c>
       <c r="AW39" s="282">
         <v>1</v>
@@ -18260,63 +18131,63 @@
       <c r="BI39" s="286"/>
       <c r="BJ39" s="4"/>
       <c r="BK39" s="4"/>
-      <c r="BL39" s="4" t="s">
+      <c r="BL39" s="4">
         <v>0</v>
       </c>
       <c r="BM39" s="4"/>
       <c r="BN39" s="4"/>
-      <c r="BO39" s="4" t="s">
-        <v>0</v>
+      <c r="BO39" s="4">
+        <v>10</v>
       </c>
       <c r="BP39" s="4"/>
       <c r="BQ39" s="4"/>
-      <c r="BR39" s="4" t="s">
-        <v>0</v>
+      <c r="BR39" s="4">
+        <v>9</v>
       </c>
       <c r="BS39" s="4"/>
       <c r="BT39" s="4"/>
-      <c r="BU39" s="4" t="s">
-        <v>0</v>
+      <c r="BU39" s="4">
+        <v>9</v>
       </c>
       <c r="BV39" s="4"/>
       <c r="BW39" s="4"/>
-      <c r="BX39" s="4" t="s">
-        <v>0</v>
+      <c r="BX39" s="4">
+        <v>11</v>
       </c>
       <c r="BY39" s="4"/>
       <c r="BZ39" s="4"/>
-      <c r="CA39" s="4" t="s">
-        <v>0</v>
+      <c r="CA39" s="4">
+        <v>10</v>
       </c>
       <c r="CB39" s="4"/>
       <c r="CC39" s="4"/>
-      <c r="CD39" s="4" t="s">
-        <v>0</v>
+      <c r="CD39" s="4">
+        <v>9</v>
       </c>
       <c r="CE39" s="4"/>
       <c r="CF39" s="4"/>
-      <c r="CG39" s="4" t="s">
-        <v>0</v>
+      <c r="CG39" s="4">
+        <v>9</v>
       </c>
       <c r="CH39" s="4"/>
       <c r="CI39" s="4"/>
-      <c r="CJ39" s="4" t="s">
-        <v>0</v>
+      <c r="CJ39" s="4">
+        <v>11</v>
       </c>
       <c r="CK39" s="4"/>
       <c r="CL39" s="4"/>
-      <c r="CM39" s="4" t="s">
-        <v>0</v>
+      <c r="CM39" s="4">
+        <v>6</v>
       </c>
       <c r="CN39" s="4"/>
       <c r="CO39" s="4"/>
-      <c r="CP39" s="4" t="s">
+      <c r="CP39" s="4">
         <v>0</v>
       </c>
       <c r="CQ39" s="4"/>
       <c r="CR39" s="4"/>
-      <c r="CS39" s="4" t="s">
-        <v>0</v>
+      <c r="CS39" s="4">
+        <v>10</v>
       </c>
       <c r="CT39" s="4"/>
       <c r="CU39" s="4"/>
@@ -18326,10 +18197,10 @@
         <v>100</v>
       </c>
       <c r="AU40" s="280">
-        <v>-14</v>
+        <v>-17</v>
       </c>
       <c r="AV40" s="281">
-        <v>-45</v>
+        <v>-48</v>
       </c>
       <c r="AW40" s="282">
         <v>1</v>
@@ -18424,10 +18295,10 @@
         <v>102</v>
       </c>
       <c r="AU41" s="280">
-        <v>-14</v>
+        <v>-17</v>
       </c>
       <c r="AV41" s="281">
-        <v>-45</v>
+        <v>-48</v>
       </c>
       <c r="AW41" s="282">
         <v>1</v>
@@ -18462,47 +18333,47 @@
       <c r="BM41" s="4"/>
       <c r="BN41" s="4"/>
       <c r="BO41" s="4">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="BP41" s="4"/>
       <c r="BQ41" s="4"/>
       <c r="BR41" s="4">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="BS41" s="4"/>
       <c r="BT41" s="4"/>
       <c r="BU41" s="4">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="BV41" s="4"/>
       <c r="BW41" s="4"/>
       <c r="BX41" s="4">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="BY41" s="4"/>
       <c r="BZ41" s="4"/>
       <c r="CA41" s="4">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="CB41" s="4"/>
       <c r="CC41" s="4"/>
       <c r="CD41" s="4">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="CE41" s="4"/>
       <c r="CF41" s="4"/>
       <c r="CG41" s="4">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="CH41" s="4"/>
       <c r="CI41" s="4"/>
       <c r="CJ41" s="4">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="CK41" s="4"/>
       <c r="CL41" s="4"/>
       <c r="CM41" s="4">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="CN41" s="4"/>
       <c r="CO41" s="4"/>
@@ -18512,7 +18383,7 @@
       <c r="CQ41" s="4"/>
       <c r="CR41" s="4"/>
       <c r="CS41" s="4">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="CT41" s="4"/>
       <c r="CU41" s="4"/>
@@ -18522,10 +18393,10 @@
         <v>91</v>
       </c>
       <c r="AU42" s="280">
-        <v>-45</v>
+        <v>-48</v>
       </c>
       <c r="AV42" s="281">
-        <v>-45</v>
+        <v>-48</v>
       </c>
       <c r="AW42" s="282" t="s">
         <v>0</v>
@@ -18559,17 +18430,17 @@
       <c r="BL42" s="50"/>
       <c r="BM42" s="50"/>
       <c r="BN42" s="50">
-        <v>7.666666666666667</v>
+        <v>7.25</v>
       </c>
       <c r="BO42" s="50"/>
       <c r="BP42" s="50"/>
       <c r="BQ42" s="50">
-        <v>5</v>
+        <v>5.1333333333333337</v>
       </c>
       <c r="BR42" s="50"/>
       <c r="BS42" s="50"/>
       <c r="BT42" s="50">
-        <v>6</v>
+        <v>6.1875</v>
       </c>
       <c r="BU42" s="50"/>
       <c r="BV42" s="50"/>
@@ -18579,27 +18450,27 @@
       <c r="BX42" s="50"/>
       <c r="BY42" s="50"/>
       <c r="BZ42" s="50">
-        <v>7</v>
+        <v>6.8666666666666663</v>
       </c>
       <c r="CA42" s="50"/>
       <c r="CB42" s="50"/>
       <c r="CC42" s="50">
-        <v>5</v>
+        <v>4.875</v>
       </c>
       <c r="CD42" s="50"/>
       <c r="CE42" s="50"/>
       <c r="CF42" s="50">
-        <v>6.2666666666666666</v>
+        <v>6.3125</v>
       </c>
       <c r="CG42" s="50"/>
       <c r="CH42" s="50"/>
       <c r="CI42" s="50">
-        <v>4.5333333333333332</v>
+        <v>4.5</v>
       </c>
       <c r="CJ42" s="50"/>
       <c r="CK42" s="50"/>
       <c r="CL42" s="50">
-        <v>8.5384615384615383</v>
+        <v>8.6428571428571423</v>
       </c>
       <c r="CM42" s="50"/>
       <c r="CN42" s="50"/>
@@ -18609,7 +18480,7 @@
       <c r="CP42" s="50"/>
       <c r="CQ42" s="50"/>
       <c r="CR42" s="50">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="CS42" s="50"/>
       <c r="CT42" s="50"/>
@@ -18620,10 +18491,10 @@
         <v>94</v>
       </c>
       <c r="AU43" s="280">
-        <v>-45</v>
+        <v>-48</v>
       </c>
       <c r="AV43" s="281">
-        <v>-45</v>
+        <v>-48</v>
       </c>
       <c r="AW43" s="282" t="s">
         <v>0</v>
@@ -18656,10 +18527,10 @@
         <v>96</v>
       </c>
       <c r="AU44" s="288">
-        <v>-45</v>
+        <v>-48</v>
       </c>
       <c r="AV44" s="289">
-        <v>-45</v>
+        <v>-48</v>
       </c>
       <c r="AW44" s="290" t="s">
         <v>0</v>

--- a/regular_season_final.xlsx
+++ b/regular_season_final.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="177">
   <si>
     <t/>
   </si>
@@ -458,106 +458,103 @@
     <t>None</t>
   </si>
   <si>
-    <t>16</t>
+    <t>17</t>
   </si>
   <si>
-    <t>Week 16 Scores</t>
+    <t>Week 17 Scores</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w16_p1_picks         = [];</t>
+    <t xml:space="preserve">   var w17_p1_picks         = ["H","V","V","H","V","H","V","V","H","H","V","H","H","V","V","V"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w16_p2_picks         = ["V","V","H","V","V","H","V","H","H","H","H","H","H","H","H","H"];</t>
+    <t xml:space="preserve">   var w17_p2_picks         = ["H","V","V","H","V","H","V","V","H","H","H","V","H","V","V","V"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w16_p3_picks         = ["V","H","V","V","V","H","V","H","H","H","H","H","V","H","H","H"];</t>
+    <t xml:space="preserve">   var w17_p3_picks         = ["H","H","V","H","V","H","V","H","H","H","H","H","H","V","V","V"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w16_p4_picks         = ["H","H","H","V","V","H","V","H","H","V","H","H","H","H","H","H"];</t>
+    <t xml:space="preserve">   var w17_p4_picks         = ["V","H","V","H","V","H","V","H","H","H","H","H","H","V","V","V"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w16_p5_picks         = ["V","H","V","V","V","H","V","H","H","H","V","H","H","H","H","H"];</t>
+    <t xml:space="preserve">   var w17_p5_picks         = ["H","H","V","H","V","H","V","H","H","H","H","H","H","V","V","V"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w16_p6_picks         = ["V","V","V","V","V","H","V","H","V","H","V","H","H","V","H","H"];</t>
+    <t xml:space="preserve">   var w17_p6_picks         = ["H","V","V","H","H","H","V","V","H","V","V","H","V","V","V","V"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w16_p7_picks         = ["H","H","V","H","V","H","V","H","H","V","H","H","H","H","H","H"];</t>
+    <t xml:space="preserve">   var w17_p7_picks         = ["H","V","H","H","V","H","V","V","H","H","V","H","H","V","V","V"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w16_p8_picks         = ["V","H","V","V","V","H","V","H","H","H","H","H","V","H","H","H"];</t>
+    <t xml:space="preserve">   var w17_p8_picks         = ["H","H","V","H","V","H","V","H","V","H","H","H","V","V","V","V"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w16_p9_picks         = ["V","V","V","V","V","H","V","H","H","H","H","H","H","H","H","H"];</t>
+    <t xml:space="preserve">   var w17_p9_picks         = ["H","V","V","H","V","H","V","V","H","H","V","H","V","V","V","V"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w16_p10_picks        = ["H","H","H","V","H","V","V","V","V","H","H","V","V","V","V","H"];</t>
+    <t xml:space="preserve">   var w17_p10_picks        = ["H","H","V","H","V","H","V","H","H","H","H","H","H","V","V","V"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w16_p11_picks        = [];</t>
+    <t xml:space="preserve">   var w17_p11_picks        = ["H","V","V","H","V","H","V","H","H","H","H","H","H","V","V","V"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w16_p12_picks        = ["V","V","V","V","V","H","V","H","V","H","H","H","H","H","H","H"];</t>
+    <t xml:space="preserve">   var w17_p12_picks        = ["H","V","V","H","V","H","V","V","H","H","V","H","V","V","V","V"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w16_p1_weights       = [];</t>
+    <t xml:space="preserve">   var w17_p1_weights       = ["13","1","4","8","16","12","5","2","14","6","3","10","7","11","9","15"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w16_p2_weights       = ["1","2","3","16","8","4","5","11","15","14","6","13","12","7","10","9"];</t>
+    <t xml:space="preserve">   var w17_p2_weights       = ["1","3","10","9","14","15","8","11","16","7","6","2","5","13","4","12"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w16_p3_weights       = ["2","8","5","3","12","13","10","16","4","7","6","15","1","11","9","14"];</t>
+    <t xml:space="preserve">   var w17_p3_weights       = ["13","1","4","8","16","12","5","7","10","6","3","14","2","11","9","15"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w16_p4_weights       = ["2","8","7","3","12","13","10","16","4","5","6","15","1","11","9","14"];</t>
+    <t xml:space="preserve">   var w17_p4_weights       = ["13","1","4","8","16","12","5","7","10","6","3","14","2","11","9","15"];</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t xml:space="preserve">   var w17_p5_weights       = ["3","2","9","8","10","11","7","1","12","13","4","6","5","15","14","16"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w16_p5_weights       = ["9","3","4","2","16","14","13","15","7","8","12","10","1","5","11","6"];</t>
+    <t xml:space="preserve">   var w17_p6_weights       = ["11","9","10","6","16","2","7","15","13","5","3","1","4","8","12","14"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w16_p6_weights       = ["12","2","4","11","8","10","9","16","5","7","3","15","6","1","13","14"];</t>
+    <t xml:space="preserve">   var w17_p7_weights       = ["11","7","1","9","13","5","4","3","16","6","12","10","2","8","14","15"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w16_p7_weights       = ["8","7","6","2","14","9","13","15","10","4","3","5","11","16","12","1"];</t>
+    <t xml:space="preserve">   var w17_p8_weights       = ["13","3","5","7","16","12","6","10","1","8","4","14","2","11","9","15"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w16_p8_weights       = ["1","8","9","7","14","13","11","16","6","5","3","15","2","12","4","10"];</t>
+    <t xml:space="preserve">   var w17_p9_weights       = ["12","3","14","9","10","4","7","1","13","2","5","8","6","15","11","16"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w16_p9_weights       = ["10","5","2","1","12","15","7","16","4","9","6","14","3","8","11","13"];</t>
+    <t xml:space="preserve">   var w17_p10_weights      = ["13","1","4","8","16","12","5","7","10","6","3","14","2","11","9","15"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w16_p10_weights      = ["12","11","1","3","8","16","7","4","6","2","10","13","5","14","9","15"];</t>
+    <t xml:space="preserve">   var w17_p11_weights      = ["13","4","3","11","14","10","9","2","5","8","7","6","15","1","16","12"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w16_p11_weights      = [];</t>
+    <t xml:space="preserve">   var w17_p12_weights      = ["7","8","4","12","14","10","3","9","16","5","6","2","1","13","11","15"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w16_p12_weights      = ["8","3","4","11","6","15","13","16","7","12","2","1","5","14","9","10"];</t>
+    <t xml:space="preserve">   var w17_winners          = ["H","H","V","H","V","H","H","H","H","H","H","V","H","V","V","V"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w16_winners          = ["H","V","V","V","H","H","H","H","H","H","V","V","H","H","H","H"];</t>
+    <t xml:space="preserve">   var w17_mn_points        = ["43","49","43","42","34","42","38","38","42","43","46","38"];</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w16_mn_points        = ["","51","43","42","37","54","38","45","49","31","","38"];</t>
+    <t xml:space="preserve">   var w17_actual_mn_points = 0;</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w16_actual_mn_points = 0;</t>
+    <t>Week 17 Final</t>
   </si>
   <si>
-    <t>Week 16 Final</t>
+    <t>'Week 17'!$B$2</t>
   </si>
   <si>
-    <t>'Week 16'!$B$2</t>
+    <t>'Week 17'!$C$2</t>
   </si>
   <si>
-    <t>'Week 16'!$C$2</t>
-  </si>
-  <si>
-    <t>'Week 16'!$D$2</t>
+    <t>'Week 17'!$D$2</t>
   </si>
 </sst>
 </file>
@@ -5210,56 +5207,56 @@
         <v>91</v>
       </c>
       <c r="G2" s="115">
-        <v>-48</v>
+        <v>-51</v>
       </c>
       <c r="H2" s="116"/>
       <c r="I2" s="114" t="s">
         <v>92</v>
       </c>
       <c r="J2" s="115">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K2" s="116"/>
       <c r="L2" s="114" t="s">
         <v>93</v>
       </c>
       <c r="M2" s="115">
-        <v>-17</v>
+        <v>14</v>
       </c>
       <c r="N2" s="116"/>
       <c r="O2" s="114" t="s">
         <v>94</v>
       </c>
       <c r="P2" s="115">
-        <v>-48</v>
+        <v>-51</v>
       </c>
       <c r="Q2" s="116"/>
       <c r="R2" s="114" t="s">
         <v>95</v>
       </c>
       <c r="S2" s="115">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="T2" s="116"/>
       <c r="U2" s="114" t="s">
         <v>96</v>
       </c>
       <c r="V2" s="115">
-        <v>-48</v>
+        <v>-51</v>
       </c>
       <c r="W2" s="116"/>
       <c r="X2" s="114" t="s">
         <v>97</v>
       </c>
       <c r="Y2" s="115">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="Z2" s="116"/>
       <c r="AA2" s="114" t="s">
         <v>98</v>
       </c>
       <c r="AB2" s="115">
-        <v>-17</v>
+        <v>-20</v>
       </c>
       <c r="AC2" s="116"/>
       <c r="AD2" s="114" t="s">
@@ -5273,21 +5270,21 @@
         <v>100</v>
       </c>
       <c r="AH2" s="115">
-        <v>-17</v>
+        <v>-20</v>
       </c>
       <c r="AI2" s="116"/>
       <c r="AJ2" s="114" t="s">
         <v>101</v>
       </c>
       <c r="AK2" s="115">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AL2" s="116"/>
       <c r="AM2" s="114" t="s">
         <v>102</v>
       </c>
       <c r="AN2" s="115">
-        <v>-17</v>
+        <v>-20</v>
       </c>
       <c r="AO2" s="117"/>
       <c r="AP2" s="3"/>
@@ -5458,7 +5455,7 @@
       </c>
       <c r="AP3" s="3"/>
       <c r="AR3" s="11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS3" s="9" t="s">
         <v>52</v>
@@ -5526,137 +5523,145 @@
     </row>
     <row r="4" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="180" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C4" s="181" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="181" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="E4" s="182" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="183"/>
-      <c r="G4" s="184"/>
+      <c r="F4" s="183" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="184">
+        <v>13</v>
+      </c>
       <c r="H4" s="185" t="s">
         <v>0</v>
       </c>
       <c r="I4" s="186" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="J4" s="184">
         <v>1</v>
       </c>
-      <c r="K4" s="185">
-        <v>-1</v>
+      <c r="K4" s="185" t="s">
+        <v>0</v>
       </c>
       <c r="L4" s="186" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" s="184">
+        <v>13</v>
+      </c>
+      <c r="N4" s="185" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="186" t="s">
         <v>88</v>
       </c>
-      <c r="M4" s="184">
-        <v>2</v>
-      </c>
-      <c r="N4" s="185">
-        <v>-2</v>
-      </c>
-      <c r="O4" s="186" t="s">
+      <c r="P4" s="184">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="185">
+        <v>-13</v>
+      </c>
+      <c r="R4" s="186" t="s">
         <v>60</v>
       </c>
-      <c r="P4" s="184">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="185" t="s">
-        <v>0</v>
-      </c>
-      <c r="R4" s="186" t="s">
-        <v>88</v>
-      </c>
       <c r="S4" s="184">
-        <v>9</v>
-      </c>
-      <c r="T4" s="185">
-        <v>-9</v>
+        <v>3</v>
+      </c>
+      <c r="T4" s="185" t="s">
+        <v>0</v>
       </c>
       <c r="U4" s="186" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="V4" s="184">
-        <v>12</v>
-      </c>
-      <c r="W4" s="185">
-        <v>-12</v>
+        <v>11</v>
+      </c>
+      <c r="W4" s="185" t="s">
+        <v>0</v>
       </c>
       <c r="X4" s="186" t="s">
         <v>60</v>
       </c>
       <c r="Y4" s="184">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Z4" s="185" t="s">
         <v>0</v>
       </c>
       <c r="AA4" s="186" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AB4" s="184">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="185">
-        <v>-1</v>
+        <v>13</v>
+      </c>
+      <c r="AC4" s="185" t="s">
+        <v>0</v>
       </c>
       <c r="AD4" s="186" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AE4" s="184">
-        <v>10</v>
-      </c>
-      <c r="AF4" s="185">
-        <v>-10</v>
+        <v>12</v>
+      </c>
+      <c r="AF4" s="185" t="s">
+        <v>0</v>
       </c>
       <c r="AG4" s="186" t="s">
         <v>60</v>
       </c>
       <c r="AH4" s="184">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI4" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="AJ4" s="186"/>
-      <c r="AK4" s="184"/>
+      <c r="AJ4" s="186" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK4" s="184">
+        <v>13</v>
+      </c>
       <c r="AL4" s="185" t="s">
         <v>0</v>
       </c>
       <c r="AM4" s="186" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AN4" s="184">
+        <v>7</v>
+      </c>
+      <c r="AO4" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="188" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU4" s="184">
         <v>8</v>
       </c>
-      <c r="AO4" s="187">
-        <v>-8</v>
-      </c>
-      <c r="AT4" s="188" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU4" s="184">
-        <v>1</v>
-      </c>
-      <c r="AV4" s="187">
-        <v>-1</v>
+      <c r="AV4" s="187" t="s">
+        <v>0</v>
       </c>
       <c r="AX4" s="4">
-        <v>-21</v>
+        <v>97</v>
       </c>
       <c r="AY4" s="4">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="AZ4" s="4">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="BA4" s="4">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="BB4" s="4">
         <v>1</v>
@@ -5668,10 +5673,10 @@
         <v>1</v>
       </c>
       <c r="BF4" s="60" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="BG4" s="61">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="BH4" s="189"/>
       <c r="BI4" s="62">
@@ -5681,10 +5686,10 @@
         <v>99</v>
       </c>
       <c r="BK4" s="64">
-        <v>97.2</v>
+        <v>97.75</v>
       </c>
       <c r="BL4" s="65">
-        <v>1458</v>
+        <v>1564</v>
       </c>
       <c r="BM4" s="172"/>
       <c r="BN4" s="66">
@@ -5697,7 +5702,7 @@
         <v>124</v>
       </c>
       <c r="BQ4" s="69">
-        <v>-48</v>
+        <v>-51</v>
       </c>
       <c r="BR4" s="70">
         <v>4</v>
@@ -5709,7 +5714,7 @@
         <v>61</v>
       </c>
       <c r="BU4" s="71">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="BV4" s="72" t="s">
         <v>0</v>
@@ -5723,69 +5728,73 @@
     </row>
     <row r="5" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="190" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C5" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="191" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E5" s="192" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="193" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="193"/>
-      <c r="G5" s="194"/>
-      <c r="H5" s="195" t="s">
-        <v>0</v>
+      <c r="G5" s="194">
+        <v>1</v>
+      </c>
+      <c r="H5" s="195">
+        <v>-1</v>
       </c>
       <c r="I5" s="196" t="s">
         <v>88</v>
       </c>
       <c r="J5" s="194">
-        <v>2</v>
-      </c>
-      <c r="K5" s="195" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="K5" s="195">
+        <v>-3</v>
       </c>
       <c r="L5" s="196" t="s">
         <v>60</v>
       </c>
       <c r="M5" s="194">
-        <v>8</v>
-      </c>
-      <c r="N5" s="195">
-        <v>-8</v>
+        <v>1</v>
+      </c>
+      <c r="N5" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="O5" s="196" t="s">
         <v>60</v>
       </c>
       <c r="P5" s="194">
-        <v>8</v>
-      </c>
-      <c r="Q5" s="195">
-        <v>-8</v>
+        <v>1</v>
+      </c>
+      <c r="Q5" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="R5" s="196" t="s">
         <v>60</v>
       </c>
       <c r="S5" s="194">
-        <v>3</v>
-      </c>
-      <c r="T5" s="195">
-        <v>-3</v>
+        <v>2</v>
+      </c>
+      <c r="T5" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="U5" s="196" t="s">
         <v>88</v>
       </c>
       <c r="V5" s="194">
-        <v>2</v>
-      </c>
-      <c r="W5" s="195" t="s">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="W5" s="195">
+        <v>-9</v>
       </c>
       <c r="X5" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="Y5" s="194">
         <v>7</v>
@@ -5797,65 +5806,69 @@
         <v>60</v>
       </c>
       <c r="AB5" s="194">
-        <v>8</v>
-      </c>
-      <c r="AC5" s="195">
-        <v>-8</v>
+        <v>3</v>
+      </c>
+      <c r="AC5" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AD5" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AE5" s="194">
-        <v>5</v>
-      </c>
-      <c r="AF5" s="195" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="AF5" s="195">
+        <v>-3</v>
       </c>
       <c r="AG5" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AH5" s="194">
-        <v>11</v>
-      </c>
-      <c r="AI5" s="195">
-        <v>-11</v>
-      </c>
-      <c r="AJ5" s="196"/>
-      <c r="AK5" s="194"/>
-      <c r="AL5" s="195" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AI5" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK5" s="194">
+        <v>4</v>
+      </c>
+      <c r="AL5" s="195">
+        <v>-4</v>
       </c>
       <c r="AM5" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AN5" s="194">
-        <v>3</v>
-      </c>
-      <c r="AO5" s="197" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="AO5" s="197">
+        <v>-8</v>
       </c>
       <c r="AR5" s="8"/>
       <c r="AS5" s="9"/>
       <c r="AT5" s="198" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AU5" s="194">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AV5" s="197">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="AX5" s="4">
-        <v>33</v>
+        <v>-27</v>
       </c>
       <c r="AY5" s="4">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="AZ5" s="4">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="BA5" s="4">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="BB5" s="4">
         <v>2</v>
@@ -5867,42 +5880,42 @@
         <v>2</v>
       </c>
       <c r="BF5" s="77" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="BG5" s="78">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="BH5" s="189"/>
       <c r="BI5" s="79">
         <v>2</v>
       </c>
       <c r="BJ5" s="80" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="BK5" s="81">
-        <v>93.6</v>
+        <v>94.125</v>
       </c>
       <c r="BL5" s="82">
-        <v>1404</v>
+        <v>1506</v>
       </c>
       <c r="BM5" s="172"/>
       <c r="BN5" s="79">
         <v>2</v>
       </c>
       <c r="BO5" s="80" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="BP5" s="83">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="BQ5" s="84">
-        <v>-48</v>
+        <v>-51</v>
       </c>
       <c r="BR5" s="85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BS5" s="86">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="BT5" s="87" t="s">
         <v>0</v>
@@ -5911,10 +5924,10 @@
         <v>0</v>
       </c>
       <c r="BV5" s="87" t="s">
-        <v>61</v>
-      </c>
-      <c r="BW5" s="88">
-        <v>32</v>
+        <v>0</v>
+      </c>
+      <c r="BW5" s="88" t="s">
+        <v>0</v>
       </c>
       <c r="BY5" s="12" t="s">
         <v>147</v>
@@ -5922,54 +5935,58 @@
     </row>
     <row r="6" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="190" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="C6" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="191" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="E6" s="192" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="193"/>
-      <c r="G6" s="194"/>
+      <c r="F6" s="193" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="194">
+        <v>4</v>
+      </c>
       <c r="H6" s="195" t="s">
         <v>0</v>
       </c>
       <c r="I6" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="J6" s="194">
-        <v>3</v>
-      </c>
-      <c r="K6" s="195">
-        <v>-3</v>
+        <v>10</v>
+      </c>
+      <c r="K6" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="L6" s="196" t="s">
         <v>88</v>
       </c>
       <c r="M6" s="194">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N6" s="195" t="s">
         <v>0</v>
       </c>
       <c r="O6" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="P6" s="194">
-        <v>7</v>
-      </c>
-      <c r="Q6" s="195">
-        <v>-7</v>
+        <v>4</v>
+      </c>
+      <c r="Q6" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="R6" s="196" t="s">
         <v>88</v>
       </c>
       <c r="S6" s="194">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="T6" s="195" t="s">
         <v>0</v>
@@ -5978,25 +5995,25 @@
         <v>88</v>
       </c>
       <c r="V6" s="194">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="W6" s="195" t="s">
         <v>0</v>
       </c>
       <c r="X6" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="Y6" s="194">
-        <v>6</v>
-      </c>
-      <c r="Z6" s="195" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Z6" s="195">
+        <v>-1</v>
       </c>
       <c r="AA6" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AB6" s="194">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AC6" s="195" t="s">
         <v>0</v>
@@ -6005,22 +6022,26 @@
         <v>88</v>
       </c>
       <c r="AE6" s="194">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AF6" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AG6" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AH6" s="194">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="195">
-        <v>-1</v>
-      </c>
-      <c r="AJ6" s="196"/>
-      <c r="AK6" s="194"/>
+        <v>4</v>
+      </c>
+      <c r="AI6" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK6" s="194">
+        <v>3</v>
+      </c>
       <c r="AL6" s="195" t="s">
         <v>0</v>
       </c>
@@ -6039,22 +6060,22 @@
         <v>88</v>
       </c>
       <c r="AU6" s="194">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV6" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX6" s="4">
-        <v>-23</v>
+        <v>-70</v>
       </c>
       <c r="AY6" s="4">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="AZ6" s="4">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="BA6" s="4">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="BB6" s="4">
         <v>3</v>
@@ -6063,45 +6084,45 @@
         <v>1</v>
       </c>
       <c r="BE6" s="76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF6" s="77" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="BG6" s="78">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="BH6" s="189"/>
       <c r="BI6" s="79">
         <v>3</v>
       </c>
       <c r="BJ6" s="80" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="BK6" s="81">
-        <v>92.6</v>
+        <v>93.9375</v>
       </c>
       <c r="BL6" s="82">
-        <v>1389</v>
+        <v>1503</v>
       </c>
       <c r="BM6" s="172"/>
       <c r="BN6" s="79">
         <v>3</v>
       </c>
       <c r="BO6" s="80" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="BP6" s="83">
         <v>14</v>
       </c>
       <c r="BQ6" s="84">
-        <v>-48</v>
+        <v>-51</v>
       </c>
       <c r="BR6" s="85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BS6" s="86">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="BT6" s="87" t="s">
         <v>0</v>
@@ -6110,10 +6131,10 @@
         <v>0</v>
       </c>
       <c r="BV6" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW6" s="88" t="s">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="BW6" s="88">
+        <v>34</v>
       </c>
       <c r="BY6" s="12" t="s">
         <v>148</v>
@@ -6121,63 +6142,67 @@
     </row>
     <row r="7" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="190" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="C7" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="191" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E7" s="192" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" s="193"/>
-      <c r="G7" s="194"/>
+        <v>60</v>
+      </c>
+      <c r="F7" s="193" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="194">
+        <v>8</v>
+      </c>
       <c r="H7" s="195" t="s">
         <v>0</v>
       </c>
       <c r="I7" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="J7" s="194">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="K7" s="195" t="s">
         <v>0</v>
       </c>
       <c r="L7" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="M7" s="194">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N7" s="195" t="s">
         <v>0</v>
       </c>
       <c r="O7" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="P7" s="194">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Q7" s="195" t="s">
         <v>0</v>
       </c>
       <c r="R7" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="S7" s="194">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T7" s="195" t="s">
         <v>0</v>
       </c>
       <c r="U7" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="V7" s="194">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="W7" s="195" t="s">
         <v>0</v>
@@ -6186,13 +6211,13 @@
         <v>60</v>
       </c>
       <c r="Y7" s="194">
-        <v>2</v>
-      </c>
-      <c r="Z7" s="195">
-        <v>-2</v>
+        <v>9</v>
+      </c>
+      <c r="Z7" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AA7" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AB7" s="194">
         <v>7</v>
@@ -6201,57 +6226,61 @@
         <v>0</v>
       </c>
       <c r="AD7" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AE7" s="194">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AF7" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AG7" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AH7" s="194">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AI7" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="AJ7" s="196"/>
-      <c r="AK7" s="194"/>
+      <c r="AJ7" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK7" s="194">
+        <v>11</v>
+      </c>
       <c r="AL7" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AM7" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AN7" s="194">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO7" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AT7" s="198" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AU7" s="194">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AV7" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX7" s="4">
-        <v>-55</v>
+        <v>103</v>
       </c>
       <c r="AY7" s="4">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="AZ7" s="4">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="BA7" s="4">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="BB7" s="4">
         <v>4</v>
@@ -6260,39 +6289,39 @@
         <v>1</v>
       </c>
       <c r="BE7" s="76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BF7" s="77" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="BG7" s="78">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="BH7" s="189"/>
       <c r="BI7" s="79">
         <v>4</v>
       </c>
       <c r="BJ7" s="80" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="BK7" s="81">
-        <v>92.333333333333329</v>
+        <v>93.3125</v>
       </c>
       <c r="BL7" s="82">
-        <v>1385</v>
+        <v>1493</v>
       </c>
       <c r="BM7" s="172"/>
       <c r="BN7" s="79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BO7" s="80" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="BP7" s="83">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BQ7" s="84">
-        <v>-48</v>
+        <v>-51</v>
       </c>
       <c r="BR7" s="85">
         <v>2</v>
@@ -6318,19 +6347,23 @@
     </row>
     <row r="8" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="190" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C8" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="191" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="E8" s="192" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="193"/>
-      <c r="G8" s="194"/>
+        <v>88</v>
+      </c>
+      <c r="F8" s="193" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="194">
+        <v>16</v>
+      </c>
       <c r="H8" s="195" t="s">
         <v>0</v>
       </c>
@@ -6338,85 +6371,89 @@
         <v>88</v>
       </c>
       <c r="J8" s="194">
-        <v>8</v>
-      </c>
-      <c r="K8" s="195">
-        <v>-8</v>
+        <v>14</v>
+      </c>
+      <c r="K8" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="L8" s="196" t="s">
         <v>88</v>
       </c>
       <c r="M8" s="194">
-        <v>12</v>
-      </c>
-      <c r="N8" s="195">
-        <v>-12</v>
+        <v>16</v>
+      </c>
+      <c r="N8" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="O8" s="196" t="s">
         <v>88</v>
       </c>
       <c r="P8" s="194">
-        <v>12</v>
-      </c>
-      <c r="Q8" s="195">
-        <v>-12</v>
+        <v>16</v>
+      </c>
+      <c r="Q8" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="R8" s="196" t="s">
         <v>88</v>
       </c>
       <c r="S8" s="194">
+        <v>10</v>
+      </c>
+      <c r="T8" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="U8" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="V8" s="194">
         <v>16</v>
       </c>
-      <c r="T8" s="195">
+      <c r="W8" s="195">
         <v>-16</v>
-      </c>
-      <c r="U8" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="V8" s="194">
-        <v>8</v>
-      </c>
-      <c r="W8" s="195">
-        <v>-8</v>
       </c>
       <c r="X8" s="196" t="s">
         <v>88</v>
       </c>
       <c r="Y8" s="194">
-        <v>14</v>
-      </c>
-      <c r="Z8" s="195">
-        <v>-14</v>
+        <v>13</v>
+      </c>
+      <c r="Z8" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AA8" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AB8" s="194">
-        <v>14</v>
-      </c>
-      <c r="AC8" s="195">
-        <v>-14</v>
+        <v>16</v>
+      </c>
+      <c r="AC8" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AD8" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AE8" s="194">
-        <v>12</v>
-      </c>
-      <c r="AF8" s="195">
-        <v>-12</v>
+        <v>10</v>
+      </c>
+      <c r="AF8" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AG8" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AH8" s="194">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AI8" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="AJ8" s="196"/>
-      <c r="AK8" s="194"/>
+      <c r="AJ8" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK8" s="194">
+        <v>14</v>
+      </c>
       <c r="AL8" s="195" t="s">
         <v>0</v>
       </c>
@@ -6424,31 +6461,31 @@
         <v>88</v>
       </c>
       <c r="AN8" s="194">
-        <v>6</v>
-      </c>
-      <c r="AO8" s="197">
-        <v>-6</v>
+        <v>14</v>
+      </c>
+      <c r="AO8" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AT8" s="198" t="s">
         <v>88</v>
       </c>
       <c r="AU8" s="194">
-        <v>13</v>
-      </c>
-      <c r="AV8" s="197">
-        <v>-13</v>
+        <v>15</v>
+      </c>
+      <c r="AV8" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AX8" s="4">
-        <v>-94</v>
+        <v>-139</v>
       </c>
       <c r="AY8" s="4">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="AZ8" s="4">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="BA8" s="4">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="BB8" s="4">
         <v>5</v>
@@ -6460,36 +6497,36 @@
         <v>5</v>
       </c>
       <c r="BF8" s="77" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="BG8" s="78">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="BH8" s="189"/>
       <c r="BI8" s="79">
         <v>5</v>
       </c>
       <c r="BJ8" s="80" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="BK8" s="81">
-        <v>91.666666666666671</v>
+        <v>93.25</v>
       </c>
       <c r="BL8" s="82">
-        <v>1375</v>
+        <v>1492</v>
       </c>
       <c r="BM8" s="172"/>
       <c r="BN8" s="79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BO8" s="80" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="BP8" s="83">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BQ8" s="84">
-        <v>-48</v>
+        <v>-51</v>
       </c>
       <c r="BR8" s="85">
         <v>2</v>
@@ -6515,19 +6552,23 @@
     </row>
     <row r="9" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="190" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C9" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="191" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E9" s="192" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="193"/>
-      <c r="G9" s="194"/>
+      <c r="F9" s="193" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="194">
+        <v>12</v>
+      </c>
       <c r="H9" s="195" t="s">
         <v>0</v>
       </c>
@@ -6535,7 +6576,7 @@
         <v>60</v>
       </c>
       <c r="J9" s="194">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="K9" s="195" t="s">
         <v>0</v>
@@ -6544,7 +6585,7 @@
         <v>60</v>
       </c>
       <c r="M9" s="194">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N9" s="195" t="s">
         <v>0</v>
@@ -6553,7 +6594,7 @@
         <v>60</v>
       </c>
       <c r="P9" s="194">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q9" s="195" t="s">
         <v>0</v>
@@ -6562,7 +6603,7 @@
         <v>60</v>
       </c>
       <c r="S9" s="194">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="T9" s="195" t="s">
         <v>0</v>
@@ -6571,7 +6612,7 @@
         <v>60</v>
       </c>
       <c r="V9" s="194">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="W9" s="195" t="s">
         <v>0</v>
@@ -6580,7 +6621,7 @@
         <v>60</v>
       </c>
       <c r="Y9" s="194">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Z9" s="195" t="s">
         <v>0</v>
@@ -6589,7 +6630,7 @@
         <v>60</v>
       </c>
       <c r="AB9" s="194">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC9" s="195" t="s">
         <v>0</v>
@@ -6598,22 +6639,26 @@
         <v>60</v>
       </c>
       <c r="AE9" s="194">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="AF9" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AG9" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AH9" s="194">
-        <v>16</v>
-      </c>
-      <c r="AI9" s="195">
-        <v>-16</v>
-      </c>
-      <c r="AJ9" s="196"/>
-      <c r="AK9" s="194"/>
+        <v>12</v>
+      </c>
+      <c r="AI9" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK9" s="194">
+        <v>10</v>
+      </c>
       <c r="AL9" s="195" t="s">
         <v>0</v>
       </c>
@@ -6621,7 +6666,7 @@
         <v>60</v>
       </c>
       <c r="AN9" s="194">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AO9" s="197" t="s">
         <v>0</v>
@@ -6636,16 +6681,16 @@
         <v>0</v>
       </c>
       <c r="AX9" s="4">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="AY9" s="4">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="AZ9" s="4">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="BA9" s="4">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="BB9" s="4">
         <v>6</v>
@@ -6657,42 +6702,42 @@
         <v>6</v>
       </c>
       <c r="BF9" s="77" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="BG9" s="78">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="BH9" s="189"/>
       <c r="BI9" s="79">
         <v>6</v>
       </c>
       <c r="BJ9" s="80" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BK9" s="81">
-        <v>91.333333333333329</v>
+        <v>92.4375</v>
       </c>
       <c r="BL9" s="82">
-        <v>1370</v>
+        <v>1479</v>
       </c>
       <c r="BM9" s="172"/>
       <c r="BN9" s="79">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BO9" s="80" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="BP9" s="83">
-        <v>-17</v>
+        <v>11</v>
       </c>
       <c r="BQ9" s="84">
-        <v>-48</v>
+        <v>-51</v>
       </c>
       <c r="BR9" s="85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BS9" s="86">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="BT9" s="87" t="s">
         <v>0</v>
@@ -6712,84 +6757,88 @@
     </row>
     <row r="10" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="190" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C10" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="191" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="E10" s="192" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="193"/>
-      <c r="G10" s="194"/>
-      <c r="H10" s="195" t="s">
-        <v>0</v>
+      <c r="F10" s="193" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="194">
+        <v>5</v>
+      </c>
+      <c r="H10" s="195">
+        <v>-5</v>
       </c>
       <c r="I10" s="196" t="s">
         <v>88</v>
       </c>
       <c r="J10" s="194">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K10" s="195">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="L10" s="196" t="s">
         <v>88</v>
       </c>
       <c r="M10" s="194">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N10" s="195">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="O10" s="196" t="s">
         <v>88</v>
       </c>
       <c r="P10" s="194">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q10" s="195">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="R10" s="196" t="s">
         <v>88</v>
       </c>
       <c r="S10" s="194">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="T10" s="195">
-        <v>-13</v>
+        <v>-7</v>
       </c>
       <c r="U10" s="196" t="s">
         <v>88</v>
       </c>
       <c r="V10" s="194">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="W10" s="195">
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="X10" s="196" t="s">
         <v>88</v>
       </c>
       <c r="Y10" s="194">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="Z10" s="195">
-        <v>-13</v>
+        <v>-4</v>
       </c>
       <c r="AA10" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AB10" s="194">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AC10" s="195">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="AD10" s="196" t="s">
         <v>88</v>
@@ -6804,45 +6853,49 @@
         <v>88</v>
       </c>
       <c r="AH10" s="194">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI10" s="195">
-        <v>-7</v>
-      </c>
-      <c r="AJ10" s="196"/>
-      <c r="AK10" s="194"/>
-      <c r="AL10" s="195" t="s">
-        <v>0</v>
+        <v>-5</v>
+      </c>
+      <c r="AJ10" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK10" s="194">
+        <v>9</v>
+      </c>
+      <c r="AL10" s="195">
+        <v>-9</v>
       </c>
       <c r="AM10" s="196" t="s">
         <v>88</v>
       </c>
       <c r="AN10" s="194">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AO10" s="197">
-        <v>-13</v>
+        <v>-3</v>
       </c>
       <c r="AT10" s="198" t="s">
         <v>88</v>
       </c>
       <c r="AU10" s="194">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AV10" s="197">
-        <v>-14</v>
+        <v>-7</v>
       </c>
       <c r="AX10" s="4">
-        <v>-98</v>
+        <v>-71</v>
       </c>
       <c r="AY10" s="4">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="AZ10" s="4">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="BA10" s="4">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="BB10" s="4">
         <v>7</v>
@@ -6854,10 +6907,10 @@
         <v>7</v>
       </c>
       <c r="BF10" s="77" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="BG10" s="78">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="BH10" s="189"/>
       <c r="BI10" s="79">
@@ -6867,23 +6920,23 @@
         <v>98</v>
       </c>
       <c r="BK10" s="81">
-        <v>89.666666666666671</v>
+        <v>91.125</v>
       </c>
       <c r="BL10" s="82">
-        <v>1345</v>
+        <v>1458</v>
       </c>
       <c r="BM10" s="172"/>
       <c r="BN10" s="79">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BO10" s="80" t="s">
         <v>98</v>
       </c>
       <c r="BP10" s="83">
-        <v>-17</v>
+        <v>-20</v>
       </c>
       <c r="BQ10" s="84">
-        <v>-48</v>
+        <v>-51</v>
       </c>
       <c r="BR10" s="85">
         <v>1</v>
@@ -6909,36 +6962,40 @@
     </row>
     <row r="11" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="190" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="C11" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="191" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E11" s="192" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="193"/>
-      <c r="G11" s="194"/>
-      <c r="H11" s="195" t="s">
-        <v>0</v>
+      <c r="F11" s="193" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="194">
+        <v>2</v>
+      </c>
+      <c r="H11" s="195">
+        <v>-2</v>
       </c>
       <c r="I11" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="J11" s="194">
         <v>11</v>
       </c>
-      <c r="K11" s="195" t="s">
-        <v>0</v>
+      <c r="K11" s="195">
+        <v>-11</v>
       </c>
       <c r="L11" s="196" t="s">
         <v>60</v>
       </c>
       <c r="M11" s="194">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="N11" s="195" t="s">
         <v>0</v>
@@ -6947,7 +7004,7 @@
         <v>60</v>
       </c>
       <c r="P11" s="194">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="Q11" s="195" t="s">
         <v>0</v>
@@ -6956,90 +7013,94 @@
         <v>60</v>
       </c>
       <c r="S11" s="194">
+        <v>1</v>
+      </c>
+      <c r="T11" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="U11" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="V11" s="194">
         <v>15</v>
       </c>
-      <c r="T11" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="U11" s="196" t="s">
-        <v>60</v>
-      </c>
-      <c r="V11" s="194">
-        <v>16</v>
-      </c>
-      <c r="W11" s="195" t="s">
-        <v>0</v>
+      <c r="W11" s="195">
+        <v>-15</v>
       </c>
       <c r="X11" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="Y11" s="194">
-        <v>15</v>
-      </c>
-      <c r="Z11" s="195" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="Z11" s="195">
+        <v>-3</v>
       </c>
       <c r="AA11" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AB11" s="194">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AC11" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AD11" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE11" s="194">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="195">
+        <v>-1</v>
+      </c>
+      <c r="AG11" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="AE11" s="194">
-        <v>16</v>
-      </c>
-      <c r="AF11" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="196" t="s">
+      <c r="AH11" s="194">
+        <v>7</v>
+      </c>
+      <c r="AI11" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK11" s="194">
+        <v>2</v>
+      </c>
+      <c r="AL11" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="AH11" s="194">
-        <v>4</v>
-      </c>
-      <c r="AI11" s="195">
-        <v>-4</v>
-      </c>
-      <c r="AJ11" s="196"/>
-      <c r="AK11" s="194"/>
-      <c r="AL11" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="196" t="s">
-        <v>60</v>
-      </c>
       <c r="AN11" s="194">
-        <v>16</v>
-      </c>
-      <c r="AO11" s="197" t="s">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="AO11" s="197">
+        <v>-9</v>
       </c>
       <c r="AT11" s="198" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AU11" s="194">
-        <v>16</v>
-      </c>
-      <c r="AV11" s="197" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="AV11" s="197">
+        <v>-2</v>
       </c>
       <c r="AX11" s="4">
-        <v>133</v>
+        <v>-7</v>
       </c>
       <c r="AY11" s="4">
-        <v>133</v>
+        <v>7</v>
       </c>
       <c r="AZ11" s="4">
-        <v>133</v>
+        <v>7</v>
       </c>
       <c r="BA11" s="4">
-        <v>133</v>
+        <v>7</v>
       </c>
       <c r="BB11" s="4">
         <v>8</v>
@@ -7048,13 +7109,13 @@
         <v>1</v>
       </c>
       <c r="BE11" s="76">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BF11" s="77" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="BG11" s="78">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="BH11" s="189"/>
       <c r="BI11" s="79">
@@ -7064,23 +7125,23 @@
         <v>92</v>
       </c>
       <c r="BK11" s="81">
-        <v>88.466666666666669</v>
+        <v>90.0625</v>
       </c>
       <c r="BL11" s="82">
-        <v>1327</v>
+        <v>1441</v>
       </c>
       <c r="BM11" s="172"/>
       <c r="BN11" s="79">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BO11" s="80" t="s">
         <v>100</v>
       </c>
       <c r="BP11" s="83">
-        <v>-17</v>
+        <v>-20</v>
       </c>
       <c r="BQ11" s="84">
-        <v>-48</v>
+        <v>-51</v>
       </c>
       <c r="BR11" s="85">
         <v>1</v>
@@ -7106,19 +7167,23 @@
     </row>
     <row r="12" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="190" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="C12" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="191" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E12" s="192" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="193"/>
-      <c r="G12" s="194"/>
+      <c r="F12" s="193" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="194">
+        <v>14</v>
+      </c>
       <c r="H12" s="195" t="s">
         <v>0</v>
       </c>
@@ -7126,7 +7191,7 @@
         <v>60</v>
       </c>
       <c r="J12" s="194">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K12" s="195" t="s">
         <v>0</v>
@@ -7135,7 +7200,7 @@
         <v>60</v>
       </c>
       <c r="M12" s="194">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N12" s="195" t="s">
         <v>0</v>
@@ -7144,7 +7209,7 @@
         <v>60</v>
       </c>
       <c r="P12" s="194">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q12" s="195" t="s">
         <v>0</v>
@@ -7153,90 +7218,94 @@
         <v>60</v>
       </c>
       <c r="S12" s="194">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="T12" s="195" t="s">
         <v>0</v>
       </c>
       <c r="U12" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="V12" s="194">
-        <v>5</v>
-      </c>
-      <c r="W12" s="195">
-        <v>-5</v>
+        <v>13</v>
+      </c>
+      <c r="W12" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="X12" s="196" t="s">
         <v>60</v>
       </c>
       <c r="Y12" s="194">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="Z12" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AA12" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AB12" s="194">
-        <v>6</v>
-      </c>
-      <c r="AC12" s="195" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AC12" s="195">
+        <v>-1</v>
       </c>
       <c r="AD12" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AE12" s="194">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AF12" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AG12" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AH12" s="194">
-        <v>6</v>
-      </c>
-      <c r="AI12" s="195">
-        <v>-6</v>
-      </c>
-      <c r="AJ12" s="196"/>
-      <c r="AK12" s="194"/>
+        <v>10</v>
+      </c>
+      <c r="AI12" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK12" s="194">
+        <v>5</v>
+      </c>
       <c r="AL12" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AM12" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AN12" s="194">
-        <v>7</v>
-      </c>
-      <c r="AO12" s="197">
-        <v>-7</v>
+        <v>16</v>
+      </c>
+      <c r="AO12" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AT12" s="198" t="s">
         <v>60</v>
       </c>
       <c r="AU12" s="194">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AV12" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX12" s="4">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="AY12" s="4">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="AZ12" s="4">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="BA12" s="4">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="BB12" s="4">
         <v>9</v>
@@ -7248,36 +7317,36 @@
         <v>9</v>
       </c>
       <c r="BF12" s="77" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="BG12" s="78">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="BH12" s="189"/>
       <c r="BI12" s="79">
         <v>9</v>
       </c>
       <c r="BJ12" s="80" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="BK12" s="81">
-        <v>86.13333333333334</v>
+        <v>87.8125</v>
       </c>
       <c r="BL12" s="82">
-        <v>1292</v>
+        <v>1405</v>
       </c>
       <c r="BM12" s="172"/>
       <c r="BN12" s="79">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BO12" s="80" t="s">
         <v>102</v>
       </c>
       <c r="BP12" s="83">
-        <v>-17</v>
+        <v>-20</v>
       </c>
       <c r="BQ12" s="84">
-        <v>-48</v>
+        <v>-51</v>
       </c>
       <c r="BR12" s="85">
         <v>1</v>
@@ -7303,19 +7372,23 @@
     </row>
     <row r="13" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="190" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C13" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="191" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="E13" s="192" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="193"/>
-      <c r="G13" s="194"/>
+      <c r="F13" s="193" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="194">
+        <v>6</v>
+      </c>
       <c r="H13" s="195" t="s">
         <v>0</v>
       </c>
@@ -7323,7 +7396,7 @@
         <v>60</v>
       </c>
       <c r="J13" s="194">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K13" s="195" t="s">
         <v>0</v>
@@ -7332,52 +7405,52 @@
         <v>60</v>
       </c>
       <c r="M13" s="194">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N13" s="195" t="s">
         <v>0</v>
       </c>
       <c r="O13" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="P13" s="194">
-        <v>5</v>
-      </c>
-      <c r="Q13" s="195">
-        <v>-5</v>
+        <v>6</v>
+      </c>
+      <c r="Q13" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="R13" s="196" t="s">
         <v>60</v>
       </c>
       <c r="S13" s="194">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="T13" s="195" t="s">
         <v>0</v>
       </c>
       <c r="U13" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="V13" s="194">
+        <v>5</v>
+      </c>
+      <c r="W13" s="195">
+        <v>-5</v>
+      </c>
+      <c r="X13" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="V13" s="194">
-        <v>7</v>
-      </c>
-      <c r="W13" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="X13" s="196" t="s">
-        <v>88</v>
-      </c>
       <c r="Y13" s="194">
-        <v>4</v>
-      </c>
-      <c r="Z13" s="195">
-        <v>-4</v>
+        <v>6</v>
+      </c>
+      <c r="Z13" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AA13" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AB13" s="194">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AC13" s="195" t="s">
         <v>0</v>
@@ -7386,7 +7459,7 @@
         <v>60</v>
       </c>
       <c r="AE13" s="194">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AF13" s="195" t="s">
         <v>0</v>
@@ -7395,13 +7468,17 @@
         <v>60</v>
       </c>
       <c r="AH13" s="194">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AI13" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="AJ13" s="196"/>
-      <c r="AK13" s="194"/>
+      <c r="AJ13" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK13" s="194">
+        <v>8</v>
+      </c>
       <c r="AL13" s="195" t="s">
         <v>0</v>
       </c>
@@ -7409,7 +7486,7 @@
         <v>60</v>
       </c>
       <c r="AN13" s="194">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AO13" s="197" t="s">
         <v>0</v>
@@ -7418,50 +7495,50 @@
         <v>60</v>
       </c>
       <c r="AU13" s="194">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AV13" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX13" s="4">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="AY13" s="4">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="AZ13" s="4">
-        <v>55.1</v>
+        <v>68</v>
       </c>
       <c r="BA13" s="4">
-        <v>55.1</v>
+        <v>68</v>
       </c>
       <c r="BB13" s="4">
         <v>10</v>
       </c>
       <c r="BC13" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BE13" s="76">
         <v>10</v>
       </c>
       <c r="BF13" s="77" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="BG13" s="78">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="BH13" s="189"/>
       <c r="BI13" s="79">
         <v>10</v>
       </c>
       <c r="BJ13" s="80" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="BK13" s="81">
-        <v>86</v>
+        <v>85.5</v>
       </c>
       <c r="BL13" s="82">
-        <v>1290</v>
+        <v>1368</v>
       </c>
       <c r="BM13" s="172"/>
       <c r="BN13" s="79">
@@ -7471,10 +7548,10 @@
         <v>91</v>
       </c>
       <c r="BP13" s="83">
-        <v>-48</v>
+        <v>-51</v>
       </c>
       <c r="BQ13" s="84">
-        <v>-48</v>
+        <v>-51</v>
       </c>
       <c r="BR13" s="85" t="s">
         <v>0</v>
@@ -7500,21 +7577,25 @@
     </row>
     <row r="14" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="190" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C14" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="191" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="E14" s="192" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="193" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="193"/>
-      <c r="G14" s="194"/>
-      <c r="H14" s="195" t="s">
-        <v>0</v>
+      <c r="G14" s="194">
+        <v>3</v>
+      </c>
+      <c r="H14" s="195">
+        <v>-3</v>
       </c>
       <c r="I14" s="196" t="s">
         <v>60</v>
@@ -7522,32 +7603,32 @@
       <c r="J14" s="194">
         <v>6</v>
       </c>
-      <c r="K14" s="195">
-        <v>-6</v>
+      <c r="K14" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="L14" s="196" t="s">
         <v>60</v>
       </c>
       <c r="M14" s="194">
-        <v>6</v>
-      </c>
-      <c r="N14" s="195">
-        <v>-6</v>
+        <v>3</v>
+      </c>
+      <c r="N14" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="O14" s="196" t="s">
         <v>60</v>
       </c>
       <c r="P14" s="194">
-        <v>6</v>
-      </c>
-      <c r="Q14" s="195">
-        <v>-6</v>
+        <v>3</v>
+      </c>
+      <c r="Q14" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="R14" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="S14" s="194">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="T14" s="195" t="s">
         <v>0</v>
@@ -7558,79 +7639,83 @@
       <c r="V14" s="194">
         <v>3</v>
       </c>
-      <c r="W14" s="195" t="s">
-        <v>0</v>
+      <c r="W14" s="195">
+        <v>-3</v>
       </c>
       <c r="X14" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="Y14" s="194">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Z14" s="195">
-        <v>-3</v>
+        <v>-12</v>
       </c>
       <c r="AA14" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AB14" s="194">
-        <v>3</v>
-      </c>
-      <c r="AC14" s="195">
-        <v>-3</v>
+        <v>4</v>
+      </c>
+      <c r="AC14" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AD14" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AE14" s="194">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF14" s="195">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="AG14" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AH14" s="194">
-        <v>10</v>
-      </c>
-      <c r="AI14" s="195">
-        <v>-10</v>
-      </c>
-      <c r="AJ14" s="196"/>
-      <c r="AK14" s="194"/>
+        <v>3</v>
+      </c>
+      <c r="AI14" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK14" s="194">
+        <v>7</v>
+      </c>
       <c r="AL14" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AM14" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AN14" s="194">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AO14" s="197">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="AT14" s="198" t="s">
         <v>60</v>
       </c>
       <c r="AU14" s="194">
-        <v>3</v>
-      </c>
-      <c r="AV14" s="197">
-        <v>-3</v>
+        <v>1</v>
+      </c>
+      <c r="AV14" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AX14" s="4">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="AY14" s="4">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="AZ14" s="4">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="BA14" s="4">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="BB14" s="4">
         <v>11</v>
@@ -7642,10 +7727,10 @@
         <v>11</v>
       </c>
       <c r="BF14" s="77" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="BG14" s="78">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BH14" s="189"/>
       <c r="BI14" s="79">
@@ -7655,10 +7740,10 @@
         <v>101</v>
       </c>
       <c r="BK14" s="81">
-        <v>83.2</v>
+        <v>85.3125</v>
       </c>
       <c r="BL14" s="82">
-        <v>1248</v>
+        <v>1365</v>
       </c>
       <c r="BM14" s="172"/>
       <c r="BN14" s="79">
@@ -7668,10 +7753,10 @@
         <v>94</v>
       </c>
       <c r="BP14" s="83">
-        <v>-48</v>
+        <v>-51</v>
       </c>
       <c r="BQ14" s="84">
-        <v>-48</v>
+        <v>-51</v>
       </c>
       <c r="BR14" s="85" t="s">
         <v>0</v>
@@ -7697,137 +7782,145 @@
     </row>
     <row r="15" spans="1:77" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="190" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C15" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="191" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E15" s="192" t="s">
         <v>88</v>
       </c>
-      <c r="F15" s="193"/>
-      <c r="G15" s="194"/>
-      <c r="H15" s="195" t="s">
-        <v>0</v>
+      <c r="F15" s="193" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="194">
+        <v>10</v>
+      </c>
+      <c r="H15" s="195">
+        <v>-10</v>
       </c>
       <c r="I15" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="J15" s="194">
-        <v>13</v>
-      </c>
-      <c r="K15" s="195">
-        <v>-13</v>
+        <v>2</v>
+      </c>
+      <c r="K15" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="L15" s="196" t="s">
         <v>60</v>
       </c>
       <c r="M15" s="194">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N15" s="195">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="O15" s="196" t="s">
         <v>60</v>
       </c>
       <c r="P15" s="194">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q15" s="195">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="R15" s="196" t="s">
         <v>60</v>
       </c>
       <c r="S15" s="194">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T15" s="195">
-        <v>-10</v>
+        <v>-6</v>
       </c>
       <c r="U15" s="196" t="s">
         <v>60</v>
       </c>
       <c r="V15" s="194">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="W15" s="195">
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="X15" s="196" t="s">
         <v>60</v>
       </c>
       <c r="Y15" s="194">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Z15" s="195">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="AA15" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AB15" s="194">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC15" s="195">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="AD15" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AE15" s="194">
+        <v>8</v>
+      </c>
+      <c r="AF15" s="195">
+        <v>-8</v>
+      </c>
+      <c r="AG15" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH15" s="194">
         <v>14</v>
       </c>
-      <c r="AF15" s="195">
+      <c r="AI15" s="195">
         <v>-14</v>
       </c>
-      <c r="AG15" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH15" s="194">
-        <v>13</v>
-      </c>
-      <c r="AI15" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="196"/>
-      <c r="AK15" s="194"/>
-      <c r="AL15" s="195" t="s">
-        <v>0</v>
+      <c r="AJ15" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK15" s="194">
+        <v>6</v>
+      </c>
+      <c r="AL15" s="195">
+        <v>-6</v>
       </c>
       <c r="AM15" s="196" t="s">
         <v>60</v>
       </c>
       <c r="AN15" s="194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO15" s="197">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AT15" s="198" t="s">
         <v>60</v>
       </c>
       <c r="AU15" s="194">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AV15" s="197">
-        <v>-12</v>
+        <v>-9</v>
       </c>
       <c r="AX15" s="4">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="AY15" s="4">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="AZ15" s="4">
-        <v>90.1</v>
+        <v>97.1</v>
       </c>
       <c r="BA15" s="4">
-        <v>90.1</v>
+        <v>97.1</v>
       </c>
       <c r="BB15" s="4">
         <v>12</v>
@@ -7836,13 +7929,13 @@
         <v>2</v>
       </c>
       <c r="BE15" s="89">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BF15" s="90" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="BG15" s="91">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="BH15" s="189"/>
       <c r="BI15" s="92">
@@ -7852,10 +7945,10 @@
         <v>100</v>
       </c>
       <c r="BK15" s="94">
-        <v>66.2</v>
+        <v>69.375</v>
       </c>
       <c r="BL15" s="95">
-        <v>993</v>
+        <v>1110</v>
       </c>
       <c r="BM15" s="172"/>
       <c r="BN15" s="92">
@@ -7865,10 +7958,10 @@
         <v>96</v>
       </c>
       <c r="BP15" s="96">
-        <v>-48</v>
+        <v>-51</v>
       </c>
       <c r="BQ15" s="97">
-        <v>-48</v>
+        <v>-51</v>
       </c>
       <c r="BR15" s="98" t="s">
         <v>0</v>
@@ -7894,19 +7987,23 @@
     </row>
     <row r="16" spans="1:77" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B16" s="190" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C16" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="191" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="E16" s="192" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="193"/>
-      <c r="G16" s="194"/>
+      <c r="F16" s="193" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="194">
+        <v>7</v>
+      </c>
       <c r="H16" s="195" t="s">
         <v>0</v>
       </c>
@@ -7914,25 +8011,25 @@
         <v>60</v>
       </c>
       <c r="J16" s="194">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K16" s="195" t="s">
         <v>0</v>
       </c>
       <c r="L16" s="196" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="M16" s="194">
-        <v>1</v>
-      </c>
-      <c r="N16" s="195">
-        <v>-1</v>
+        <v>2</v>
+      </c>
+      <c r="N16" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="O16" s="196" t="s">
         <v>60</v>
       </c>
       <c r="P16" s="194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q16" s="195" t="s">
         <v>0</v>
@@ -7941,25 +8038,25 @@
         <v>60</v>
       </c>
       <c r="S16" s="194">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T16" s="195" t="s">
         <v>0</v>
       </c>
       <c r="U16" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="V16" s="194">
-        <v>6</v>
-      </c>
-      <c r="W16" s="195" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="W16" s="195">
+        <v>-4</v>
       </c>
       <c r="X16" s="196" t="s">
         <v>60</v>
       </c>
       <c r="Y16" s="194">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="Z16" s="195" t="s">
         <v>0</v>
@@ -7974,36 +8071,40 @@
         <v>-2</v>
       </c>
       <c r="AD16" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE16" s="194">
+        <v>6</v>
+      </c>
+      <c r="AF16" s="195">
+        <v>-6</v>
+      </c>
+      <c r="AG16" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="AE16" s="194">
-        <v>3</v>
-      </c>
-      <c r="AF16" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="196" t="s">
+      <c r="AH16" s="194">
+        <v>2</v>
+      </c>
+      <c r="AI16" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK16" s="194">
+        <v>15</v>
+      </c>
+      <c r="AL16" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="AH16" s="194">
-        <v>5</v>
-      </c>
-      <c r="AI16" s="195">
-        <v>-5</v>
-      </c>
-      <c r="AJ16" s="196"/>
-      <c r="AK16" s="194"/>
-      <c r="AL16" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="196" t="s">
-        <v>60</v>
-      </c>
       <c r="AN16" s="194">
-        <v>5</v>
-      </c>
-      <c r="AO16" s="197" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AO16" s="197">
+        <v>-1</v>
       </c>
       <c r="AT16" s="198" t="s">
         <v>60</v>
@@ -8015,22 +8116,22 @@
         <v>0</v>
       </c>
       <c r="AX16" s="4">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AY16" s="4">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AZ16" s="4">
-        <v>31</v>
+        <v>27.1</v>
       </c>
       <c r="BA16" s="4">
-        <v>31</v>
+        <v>27.1</v>
       </c>
       <c r="BB16" s="4">
         <v>13</v>
       </c>
       <c r="BC16" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BY16" s="12" t="s">
         <v>158</v>
@@ -8038,33 +8139,37 @@
     </row>
     <row r="17" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="190" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C17" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="191" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E17" s="192" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="193"/>
-      <c r="G17" s="194"/>
+        <v>88</v>
+      </c>
+      <c r="F17" s="193" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="194">
+        <v>11</v>
+      </c>
       <c r="H17" s="195" t="s">
         <v>0</v>
       </c>
       <c r="I17" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="J17" s="194">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="K17" s="195" t="s">
         <v>0</v>
       </c>
       <c r="L17" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="M17" s="194">
         <v>11</v>
@@ -8073,7 +8178,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="P17" s="194">
         <v>11</v>
@@ -8082,10 +8187,10 @@
         <v>0</v>
       </c>
       <c r="R17" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="S17" s="194">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="T17" s="195" t="s">
         <v>0</v>
@@ -8094,34 +8199,34 @@
         <v>88</v>
       </c>
       <c r="V17" s="194">
-        <v>1</v>
-      </c>
-      <c r="W17" s="195">
-        <v>-1</v>
+        <v>8</v>
+      </c>
+      <c r="W17" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="X17" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="Y17" s="194">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="Z17" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AA17" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AB17" s="194">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC17" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AD17" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AE17" s="194">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AF17" s="195" t="s">
         <v>0</v>
@@ -8130,45 +8235,49 @@
         <v>88</v>
       </c>
       <c r="AH17" s="194">
-        <v>14</v>
-      </c>
-      <c r="AI17" s="195">
-        <v>-14</v>
-      </c>
-      <c r="AJ17" s="196"/>
-      <c r="AK17" s="194"/>
+        <v>11</v>
+      </c>
+      <c r="AI17" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK17" s="194">
+        <v>1</v>
+      </c>
       <c r="AL17" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AM17" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AN17" s="194">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO17" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AT17" s="198" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AU17" s="194">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AV17" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX17" s="4">
-        <v>69</v>
+        <v>-128</v>
       </c>
       <c r="AY17" s="4">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="AZ17" s="4">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="BA17" s="4">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="BB17" s="4">
         <v>14</v>
@@ -8182,33 +8291,37 @@
     </row>
     <row r="18" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="190" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="C18" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="191" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="E18" s="192" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="193"/>
-      <c r="G18" s="194"/>
+        <v>88</v>
+      </c>
+      <c r="F18" s="193" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="194">
+        <v>9</v>
+      </c>
       <c r="H18" s="195" t="s">
         <v>0</v>
       </c>
       <c r="I18" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="J18" s="194">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K18" s="195" t="s">
         <v>0</v>
       </c>
       <c r="L18" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="M18" s="194">
         <v>9</v>
@@ -8217,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="P18" s="194">
         <v>9</v>
@@ -8226,43 +8339,43 @@
         <v>0</v>
       </c>
       <c r="R18" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="S18" s="194">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="T18" s="195" t="s">
         <v>0</v>
       </c>
       <c r="U18" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="V18" s="194">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W18" s="195" t="s">
         <v>0</v>
       </c>
       <c r="X18" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="Y18" s="194">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Z18" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AA18" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AB18" s="194">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AC18" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AD18" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AE18" s="194">
         <v>11</v>
@@ -8276,43 +8389,47 @@
       <c r="AH18" s="194">
         <v>9</v>
       </c>
-      <c r="AI18" s="195">
-        <v>-9</v>
-      </c>
-      <c r="AJ18" s="196"/>
-      <c r="AK18" s="194"/>
+      <c r="AI18" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK18" s="194">
+        <v>16</v>
+      </c>
       <c r="AL18" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AM18" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AN18" s="194">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AO18" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AT18" s="198" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AU18" s="194">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AV18" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX18" s="4">
-        <v>79</v>
+        <v>-127</v>
       </c>
       <c r="AY18" s="4">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="AZ18" s="4">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="BA18" s="4">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="BB18" s="4">
         <v>15</v>
@@ -8326,60 +8443,64 @@
     </row>
     <row r="19" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="190" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C19" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="191" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E19" s="192" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" s="193"/>
-      <c r="G19" s="194"/>
+        <v>88</v>
+      </c>
+      <c r="F19" s="193" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="194">
+        <v>15</v>
+      </c>
       <c r="H19" s="195" t="s">
         <v>0</v>
       </c>
       <c r="I19" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="J19" s="194">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K19" s="195" t="s">
         <v>0</v>
       </c>
       <c r="L19" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="M19" s="194">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N19" s="195" t="s">
         <v>0</v>
       </c>
       <c r="O19" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="P19" s="194">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q19" s="195" t="s">
         <v>0</v>
       </c>
       <c r="R19" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="S19" s="194">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="T19" s="195" t="s">
         <v>0</v>
       </c>
       <c r="U19" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="V19" s="194">
         <v>14</v>
@@ -8388,34 +8509,34 @@
         <v>0</v>
       </c>
       <c r="X19" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="Y19" s="194">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="Z19" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AA19" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AB19" s="194">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AC19" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AD19" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AE19" s="194">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AF19" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AG19" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AH19" s="194">
         <v>15</v>
@@ -8423,40 +8544,44 @@
       <c r="AI19" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="AJ19" s="196"/>
-      <c r="AK19" s="194"/>
+      <c r="AJ19" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK19" s="194">
+        <v>12</v>
+      </c>
       <c r="AL19" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AM19" s="196" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AN19" s="194">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AO19" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AT19" s="198" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AU19" s="194">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV19" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX19" s="4">
-        <v>106</v>
+        <v>-175</v>
       </c>
       <c r="AY19" s="4">
-        <v>106</v>
+        <v>175</v>
       </c>
       <c r="AZ19" s="4">
-        <v>106</v>
+        <v>175</v>
       </c>
       <c r="BA19" s="4">
-        <v>106</v>
+        <v>175</v>
       </c>
       <c r="BB19" s="4">
         <v>16</v>
@@ -8476,15 +8601,17 @@
         <v>108</v>
       </c>
       <c r="F20" s="104" t="s">
-        <v>162</v>
-      </c>
-      <c r="G20" s="105"/>
+        <v>106</v>
+      </c>
+      <c r="G20" s="105">
+        <v>43</v>
+      </c>
       <c r="H20" s="122"/>
       <c r="I20" s="106" t="s">
         <v>106</v>
       </c>
       <c r="J20" s="105">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K20" s="122"/>
       <c r="L20" s="106" t="s">
@@ -8505,14 +8632,14 @@
         <v>106</v>
       </c>
       <c r="S20" s="105">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T20" s="122"/>
       <c r="U20" s="106" t="s">
         <v>106</v>
       </c>
       <c r="V20" s="105">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="W20" s="122"/>
       <c r="X20" s="106" t="s">
@@ -8526,27 +8653,29 @@
         <v>106</v>
       </c>
       <c r="AB20" s="105">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AC20" s="122"/>
       <c r="AD20" s="106" t="s">
         <v>106</v>
       </c>
       <c r="AE20" s="105">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AF20" s="122"/>
       <c r="AG20" s="106" t="s">
         <v>106</v>
       </c>
       <c r="AH20" s="105">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="AI20" s="122"/>
       <c r="AJ20" s="106" t="s">
-        <v>162</v>
-      </c>
-      <c r="AK20" s="105"/>
+        <v>106</v>
+      </c>
+      <c r="AK20" s="105">
+        <v>46</v>
+      </c>
       <c r="AL20" s="122"/>
       <c r="AM20" s="106" t="s">
         <v>106</v>
@@ -8569,7 +8698,7 @@
       <c r="BM20" s="13"/>
       <c r="BN20" s="13"/>
       <c r="BY20" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:77" s="13" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8582,95 +8711,95 @@
       </c>
       <c r="F21" s="203"/>
       <c r="G21" s="204">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H21" s="205">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="I21" s="206"/>
       <c r="J21" s="204">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K21" s="205">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="L21" s="206"/>
       <c r="M21" s="204">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N21" s="205">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="O21" s="206"/>
       <c r="P21" s="204">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q21" s="205">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="R21" s="206"/>
       <c r="S21" s="204">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T21" s="205">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="U21" s="206"/>
       <c r="V21" s="204">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="W21" s="205">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="X21" s="206"/>
       <c r="Y21" s="204">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="Z21" s="205">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AA21" s="206"/>
       <c r="AB21" s="204">
         <v>7</v>
       </c>
       <c r="AC21" s="205">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="AD21" s="206"/>
       <c r="AE21" s="204">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AF21" s="205">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="AG21" s="206"/>
       <c r="AH21" s="204">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AI21" s="205">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="AJ21" s="206"/>
       <c r="AK21" s="204">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AL21" s="205">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="AM21" s="206"/>
       <c r="AN21" s="204">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AO21" s="207">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="AP21" s="3"/>
       <c r="AT21" s="208"/>
       <c r="AU21" s="209">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV21" s="210">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="AW21" s="3"/>
       <c r="AX21" s="14"/>
@@ -8694,7 +8823,7 @@
       <c r="BV21" s="6"/>
       <c r="BW21" s="6"/>
       <c r="BY21" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:77" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8707,87 +8836,87 @@
       </c>
       <c r="F22" s="127"/>
       <c r="G22" s="128">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H22" s="129">
-        <v>86</v>
+        <v>87.8125</v>
       </c>
       <c r="I22" s="130"/>
       <c r="J22" s="128">
         <v>8</v>
       </c>
       <c r="K22" s="129">
-        <v>88.466666666666669</v>
+        <v>90.0625</v>
       </c>
       <c r="L22" s="130"/>
       <c r="M22" s="128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N22" s="129">
-        <v>92.6</v>
+        <v>94.125</v>
       </c>
       <c r="O22" s="130"/>
       <c r="P22" s="128">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q22" s="129">
-        <v>91.666666666666671</v>
+        <v>92.4375</v>
       </c>
       <c r="R22" s="130"/>
       <c r="S22" s="128">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T22" s="129">
-        <v>91.333333333333329</v>
+        <v>93.3125</v>
       </c>
       <c r="U22" s="130"/>
       <c r="V22" s="128">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W22" s="129">
-        <v>86.13333333333334</v>
+        <v>85.5</v>
       </c>
       <c r="X22" s="130"/>
       <c r="Y22" s="128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z22" s="129">
-        <v>93.6</v>
+        <v>93.9375</v>
       </c>
       <c r="AA22" s="130"/>
       <c r="AB22" s="128">
         <v>7</v>
       </c>
       <c r="AC22" s="129">
-        <v>89.666666666666671</v>
+        <v>91.125</v>
       </c>
       <c r="AD22" s="130"/>
       <c r="AE22" s="128">
         <v>1</v>
       </c>
       <c r="AF22" s="129">
-        <v>97.2</v>
+        <v>97.75</v>
       </c>
       <c r="AG22" s="130"/>
       <c r="AH22" s="128">
         <v>12</v>
       </c>
       <c r="AI22" s="129">
-        <v>66.2</v>
+        <v>69.375</v>
       </c>
       <c r="AJ22" s="130"/>
       <c r="AK22" s="128">
         <v>11</v>
       </c>
       <c r="AL22" s="129">
-        <v>83.2</v>
+        <v>85.3125</v>
       </c>
       <c r="AM22" s="130"/>
       <c r="AN22" s="128">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO22" s="131">
-        <v>92.333333333333329</v>
+        <v>93.25</v>
       </c>
       <c r="AP22" s="3"/>
       <c r="AU22" s="14"/>
@@ -8812,7 +8941,7 @@
       <c r="BV22" s="6"/>
       <c r="BW22" s="6"/>
       <c r="BY22" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:77" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8826,62 +8955,62 @@
       <c r="F23" s="135"/>
       <c r="G23" s="136"/>
       <c r="H23" s="137">
-        <v>1290</v>
+        <v>1405</v>
       </c>
       <c r="I23" s="138"/>
       <c r="J23" s="136"/>
       <c r="K23" s="137">
-        <v>1327</v>
+        <v>1441</v>
       </c>
       <c r="L23" s="138"/>
       <c r="M23" s="136"/>
       <c r="N23" s="137">
-        <v>1389</v>
+        <v>1506</v>
       </c>
       <c r="O23" s="138"/>
       <c r="P23" s="136"/>
       <c r="Q23" s="137">
-        <v>1375</v>
+        <v>1479</v>
       </c>
       <c r="R23" s="138"/>
       <c r="S23" s="136"/>
       <c r="T23" s="137">
-        <v>1370</v>
+        <v>1493</v>
       </c>
       <c r="U23" s="138"/>
       <c r="V23" s="136"/>
       <c r="W23" s="137">
-        <v>1292</v>
+        <v>1368</v>
       </c>
       <c r="X23" s="138"/>
       <c r="Y23" s="136"/>
       <c r="Z23" s="137">
-        <v>1404</v>
+        <v>1503</v>
       </c>
       <c r="AA23" s="138"/>
       <c r="AB23" s="136"/>
       <c r="AC23" s="137">
-        <v>1345</v>
+        <v>1458</v>
       </c>
       <c r="AD23" s="138"/>
       <c r="AE23" s="136"/>
       <c r="AF23" s="137">
-        <v>1458</v>
+        <v>1564</v>
       </c>
       <c r="AG23" s="138"/>
       <c r="AH23" s="136"/>
       <c r="AI23" s="137">
-        <v>993</v>
+        <v>1110</v>
       </c>
       <c r="AJ23" s="138"/>
       <c r="AK23" s="136"/>
       <c r="AL23" s="137">
-        <v>1248</v>
+        <v>1365</v>
       </c>
       <c r="AM23" s="138"/>
       <c r="AN23" s="136"/>
       <c r="AO23" s="139">
-        <v>1385</v>
+        <v>1492</v>
       </c>
       <c r="AP23" s="3"/>
       <c r="AU23" s="14"/>
@@ -8896,7 +9025,7 @@
       <c r="BV23" s="6"/>
       <c r="BW23" s="6"/>
       <c r="BY23" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:77" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8979,7 +9108,7 @@
       <c r="BV24" s="6"/>
       <c r="BW24" s="6"/>
       <c r="BY24" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:77" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8992,80 +9121,80 @@
       </c>
       <c r="F25" s="135"/>
       <c r="G25" s="140">
-        <v>0</v>
+        <v>0.6875</v>
       </c>
       <c r="H25" s="137">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I25" s="138"/>
       <c r="J25" s="140">
-        <v>0.625</v>
+        <v>0.8125</v>
       </c>
       <c r="K25" s="137">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L25" s="138"/>
       <c r="M25" s="140">
-        <v>0.5625</v>
+        <v>0.875</v>
       </c>
       <c r="N25" s="137">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="O25" s="138"/>
       <c r="P25" s="140">
-        <v>0.5625</v>
+        <v>0.8125</v>
       </c>
       <c r="Q25" s="137">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="R25" s="138"/>
       <c r="S25" s="140">
-        <v>0.6875</v>
+        <v>0.875</v>
       </c>
       <c r="T25" s="137">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="U25" s="138"/>
       <c r="V25" s="140">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="W25" s="137">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="X25" s="138"/>
       <c r="Y25" s="140">
-        <v>0.5625</v>
+        <v>0.625</v>
       </c>
       <c r="Z25" s="137">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA25" s="138"/>
       <c r="AB25" s="140">
-        <v>0.5625</v>
+        <v>0.75</v>
       </c>
       <c r="AC25" s="137">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AD25" s="138"/>
       <c r="AE25" s="140">
-        <v>0.6875</v>
+        <v>0.625</v>
       </c>
       <c r="AF25" s="137">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG25" s="138"/>
       <c r="AH25" s="140">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="AI25" s="137">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AJ25" s="138"/>
       <c r="AK25" s="140">
-        <v>0</v>
+        <v>0.8125</v>
       </c>
       <c r="AL25" s="137">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AM25" s="138"/>
       <c r="AN25" s="140">
@@ -9086,7 +9215,7 @@
       <c r="BV25" s="6"/>
       <c r="BW25" s="6"/>
       <c r="BY25" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:77" s="13" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9099,87 +9228,87 @@
       </c>
       <c r="F26" s="144"/>
       <c r="G26" s="145">
-        <v>0.5541666666666667</v>
+        <v>0.5625</v>
       </c>
       <c r="H26" s="146">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="I26" s="147"/>
       <c r="J26" s="145">
-        <v>0.60833333333333328</v>
+        <v>0.62109375</v>
       </c>
       <c r="K26" s="146">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="L26" s="147"/>
       <c r="M26" s="145">
-        <v>0.60416666666666663</v>
+        <v>0.62109375</v>
       </c>
       <c r="N26" s="146">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="O26" s="147"/>
       <c r="P26" s="145">
-        <v>0.6333333333333333</v>
+        <v>0.64453125</v>
       </c>
       <c r="Q26" s="146">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="R26" s="147"/>
       <c r="S26" s="145">
-        <v>0.62083333333333335</v>
+        <v>0.63671875</v>
       </c>
       <c r="T26" s="146">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="U26" s="147"/>
       <c r="V26" s="145">
-        <v>0.5625</v>
+        <v>0.55859375</v>
       </c>
       <c r="W26" s="146">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="X26" s="147"/>
       <c r="Y26" s="145">
-        <v>0.6166666666666667</v>
+        <v>0.6171875</v>
       </c>
       <c r="Z26" s="146">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="AA26" s="147"/>
       <c r="AB26" s="145">
-        <v>0.59583333333333333</v>
+        <v>0.60546875</v>
       </c>
       <c r="AC26" s="146">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="AD26" s="147"/>
       <c r="AE26" s="145">
-        <v>0.65416666666666667</v>
+        <v>0.65234375</v>
       </c>
       <c r="AF26" s="146">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="AG26" s="147"/>
       <c r="AH26" s="145">
-        <v>0.4375</v>
+        <v>0.46484375</v>
       </c>
       <c r="AI26" s="146">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="AJ26" s="147"/>
       <c r="AK26" s="145">
-        <v>0.52083333333333337</v>
+        <v>0.5390625</v>
       </c>
       <c r="AL26" s="146">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="AM26" s="147"/>
       <c r="AN26" s="145">
-        <v>0.62083333333333335</v>
+        <v>0.62109375</v>
       </c>
       <c r="AO26" s="148">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="AP26" s="3"/>
       <c r="AW26" s="3"/>
@@ -9203,7 +9332,7 @@
       <c r="BV26" s="6"/>
       <c r="BW26" s="6"/>
       <c r="BY26" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:77" s="7" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9227,7 +9356,7 @@
         <v>68</v>
       </c>
       <c r="P27" s="153">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="Q27" s="150"/>
       <c r="R27" s="150"/>
@@ -9240,7 +9369,7 @@
         <v>69</v>
       </c>
       <c r="Y27" s="154">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Z27" s="150"/>
       <c r="AA27" s="152"/>
@@ -9253,7 +9382,7 @@
         <v>70</v>
       </c>
       <c r="AH27" s="154">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AI27" s="150"/>
       <c r="AJ27" s="152"/>
@@ -9276,7 +9405,7 @@
       <c r="BV27" s="6"/>
       <c r="BW27" s="6"/>
       <c r="BY27" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:77" s="7" customFormat="1" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -9333,7 +9462,7 @@
       <c r="BV28" s="6"/>
       <c r="BW28" s="6"/>
       <c r="BY28" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:77" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -9394,7 +9523,7 @@
       <c r="BV29" s="6"/>
       <c r="BW29" s="6"/>
       <c r="BY29" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:77" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -9451,7 +9580,7 @@
       <c r="BV30" s="6"/>
       <c r="BW30" s="6"/>
       <c r="BY30" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:77" s="7" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9530,7 +9659,7 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="25">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="H32" s="26"/>
       <c r="I32" s="26"/>
@@ -9564,7 +9693,7 @@
         <v>136</v>
       </c>
       <c r="AK32" s="25">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="AN32" s="25">
         <v>136</v>
@@ -9602,47 +9731,47 @@
       <c r="F34" s="26"/>
       <c r="G34" s="25"/>
       <c r="H34" s="26">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="I34" s="26"/>
       <c r="J34" s="26"/>
       <c r="K34" s="26">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="L34" s="26"/>
       <c r="M34" s="26"/>
       <c r="N34" s="26">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="Q34" s="26">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="T34" s="26">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="W34" s="26">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="Z34" s="26">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC34" s="26">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="AF34" s="26">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="AI34" s="26">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="AL34" s="26">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="AO34" s="26">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="AV34" s="26">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="BY34" s="12"/>
     </row>
@@ -9652,44 +9781,44 @@
       <c r="F35" s="3"/>
       <c r="G35" s="27"/>
       <c r="H35" s="28">
-        <v>86</v>
+        <v>87.8125</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="28">
-        <v>88.466666666666669</v>
+        <v>90.0625</v>
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="28">
-        <v>92.6</v>
+        <v>94.125</v>
       </c>
       <c r="Q35" s="28">
-        <v>91.666666666666671</v>
+        <v>92.4375</v>
       </c>
       <c r="T35" s="28">
-        <v>91.333333333333329</v>
+        <v>93.3125</v>
       </c>
       <c r="W35" s="28">
-        <v>86.13333333333334</v>
+        <v>85.5</v>
       </c>
       <c r="Z35" s="28">
-        <v>93.6</v>
+        <v>93.9375</v>
       </c>
       <c r="AC35" s="28">
-        <v>89.666666666666671</v>
+        <v>91.125</v>
       </c>
       <c r="AF35" s="28">
-        <v>97.2</v>
+        <v>97.75</v>
       </c>
       <c r="AI35" s="28">
-        <v>66.2</v>
+        <v>69.375</v>
       </c>
       <c r="AL35" s="28">
-        <v>83.2</v>
+        <v>85.3125</v>
       </c>
       <c r="AO35" s="28">
-        <v>92.333333333333329</v>
+        <v>93.25</v>
       </c>
       <c r="BY35" s="12"/>
     </row>
@@ -9699,44 +9828,44 @@
       <c r="F36" s="3"/>
       <c r="G36" s="27"/>
       <c r="H36" s="28">
-        <v>1290</v>
+        <v>1405</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="28">
-        <v>1327</v>
+        <v>1441</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="28">
-        <v>1389</v>
+        <v>1506</v>
       </c>
       <c r="Q36" s="28">
-        <v>1375</v>
+        <v>1479</v>
       </c>
       <c r="T36" s="28">
-        <v>1370</v>
+        <v>1493</v>
       </c>
       <c r="W36" s="28">
-        <v>1292</v>
+        <v>1368</v>
       </c>
       <c r="Z36" s="28">
-        <v>1404</v>
+        <v>1503</v>
       </c>
       <c r="AC36" s="28">
-        <v>1345</v>
+        <v>1458</v>
       </c>
       <c r="AF36" s="28">
-        <v>1458</v>
+        <v>1564</v>
       </c>
       <c r="AI36" s="28">
-        <v>993</v>
+        <v>1110</v>
       </c>
       <c r="AL36" s="28">
-        <v>1248</v>
+        <v>1365</v>
       </c>
       <c r="AO36" s="28">
-        <v>1385</v>
+        <v>1492</v>
       </c>
       <c r="BY36" s="12"/>
     </row>
@@ -9793,41 +9922,41 @@
       <c r="F38" s="3"/>
       <c r="G38" s="27"/>
       <c r="H38" s="28">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="28">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="28">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Q38" s="28">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="T38" s="28">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="W38" s="28">
+        <v>8</v>
+      </c>
+      <c r="Z38" s="28">
         <v>10</v>
       </c>
-      <c r="Z38" s="28">
-        <v>9</v>
-      </c>
       <c r="AC38" s="28">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AF38" s="28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI38" s="28">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AL38" s="28">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AO38" s="28">
         <v>10</v>
@@ -9840,44 +9969,44 @@
       <c r="F39" s="3"/>
       <c r="G39" s="27"/>
       <c r="H39" s="28">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="28">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="28">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="Q39" s="28">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="T39" s="28">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="W39" s="28">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="Z39" s="28">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="AC39" s="28">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="AF39" s="28">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="AI39" s="28">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="AL39" s="28">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="AO39" s="28">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="BY39" s="12"/>
     </row>
@@ -9886,7 +10015,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="27">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H40" s="28"/>
       <c r="I40" s="3"/>
@@ -9896,23 +10025,23 @@
       <c r="K40" s="28"/>
       <c r="L40" s="3"/>
       <c r="M40" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N40" s="28"/>
       <c r="P40" s="27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q40" s="28"/>
       <c r="S40" s="27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T40" s="28"/>
       <c r="V40" s="27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W40" s="28"/>
       <c r="Y40" s="27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z40" s="28"/>
       <c r="AB40" s="27">
@@ -9932,7 +10061,7 @@
       </c>
       <c r="AL40" s="28"/>
       <c r="AN40" s="27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO40" s="28"/>
       <c r="AR40" s="29">
@@ -9948,41 +10077,41 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="27">
-        <v>0</v>
+        <v>0.6875</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="27">
-        <v>0.625</v>
+        <v>0.8125</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="27">
-        <v>0.5625</v>
+        <v>0.875</v>
       </c>
       <c r="P41" s="27">
-        <v>0.5625</v>
+        <v>0.8125</v>
       </c>
       <c r="S41" s="27">
-        <v>0.6875</v>
+        <v>0.875</v>
       </c>
       <c r="V41" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="Y41" s="27">
         <v>0.625</v>
       </c>
-      <c r="Y41" s="27">
-        <v>0.5625</v>
-      </c>
       <c r="AB41" s="27">
-        <v>0.5625</v>
+        <v>0.75</v>
       </c>
       <c r="AE41" s="27">
-        <v>0.6875</v>
+        <v>0.625</v>
       </c>
       <c r="AH41" s="27">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="AK41" s="27">
-        <v>0</v>
+        <v>0.8125</v>
       </c>
       <c r="AN41" s="27">
         <v>0.625</v>
@@ -10000,44 +10129,44 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="27">
-        <v>0.5541666666666667</v>
+        <v>0.5625</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="27">
-        <v>0.60833333333333328</v>
+        <v>0.62109375</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="27">
-        <v>0.60416666666666663</v>
+        <v>0.62109375</v>
       </c>
       <c r="P42" s="27">
-        <v>0.6333333333333333</v>
+        <v>0.64453125</v>
       </c>
       <c r="S42" s="27">
-        <v>0.62083333333333335</v>
+        <v>0.63671875</v>
       </c>
       <c r="V42" s="27">
-        <v>0.5625</v>
+        <v>0.55859375</v>
       </c>
       <c r="Y42" s="27">
-        <v>0.6166666666666667</v>
+        <v>0.6171875</v>
       </c>
       <c r="AB42" s="27">
-        <v>0.59583333333333333</v>
+        <v>0.60546875</v>
       </c>
       <c r="AE42" s="27">
-        <v>0.65416666666666667</v>
+        <v>0.65234375</v>
       </c>
       <c r="AH42" s="27">
-        <v>0.4375</v>
+        <v>0.46484375</v>
       </c>
       <c r="AK42" s="27">
-        <v>0.52083333333333337</v>
+        <v>0.5390625</v>
       </c>
       <c r="AN42" s="27">
-        <v>0.62083333333333335</v>
+        <v>0.62109375</v>
       </c>
       <c r="BY42" s="12"/>
     </row>
@@ -12232,66 +12361,66 @@
     </row>
     <row r="2" spans="2:99" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="308" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C2" s="309" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D2" s="310"/>
       <c r="E2" s="156" t="s">
         <v>91</v>
       </c>
       <c r="F2" s="115">
-        <v>-48</v>
+        <v>-51</v>
       </c>
       <c r="G2" s="157"/>
       <c r="H2" s="156" t="s">
         <v>92</v>
       </c>
       <c r="I2" s="115">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J2" s="157"/>
       <c r="K2" s="156" t="s">
         <v>93</v>
       </c>
       <c r="L2" s="115">
-        <v>-17</v>
+        <v>14</v>
       </c>
       <c r="M2" s="157"/>
       <c r="N2" s="156" t="s">
         <v>94</v>
       </c>
       <c r="O2" s="115">
-        <v>-48</v>
+        <v>-51</v>
       </c>
       <c r="P2" s="157"/>
       <c r="Q2" s="156" t="s">
         <v>95</v>
       </c>
       <c r="R2" s="115">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="S2" s="157"/>
       <c r="T2" s="156" t="s">
         <v>96</v>
       </c>
       <c r="U2" s="115">
-        <v>-48</v>
+        <v>-51</v>
       </c>
       <c r="V2" s="157"/>
       <c r="W2" s="156" t="s">
         <v>97</v>
       </c>
       <c r="X2" s="115">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="Y2" s="157"/>
       <c r="Z2" s="156" t="s">
         <v>98</v>
       </c>
       <c r="AA2" s="115">
-        <v>-17</v>
+        <v>-20</v>
       </c>
       <c r="AB2" s="157"/>
       <c r="AC2" s="156" t="s">
@@ -12305,21 +12434,21 @@
         <v>100</v>
       </c>
       <c r="AG2" s="115">
-        <v>-17</v>
+        <v>-20</v>
       </c>
       <c r="AH2" s="157"/>
       <c r="AI2" s="156" t="s">
         <v>101</v>
       </c>
       <c r="AJ2" s="115">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AK2" s="157"/>
       <c r="AL2" s="156" t="s">
         <v>102</v>
       </c>
       <c r="AM2" s="115">
-        <v>-17</v>
+        <v>-20</v>
       </c>
       <c r="AN2" s="158"/>
       <c r="AO2" s="211">
@@ -12329,7 +12458,7 @@
         <v>8</v>
       </c>
       <c r="AQ2" s="39">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR2" s="40" t="s">
         <v>9</v>
@@ -12461,7 +12590,7 @@
         <v>14</v>
       </c>
       <c r="AQ3" s="41">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR3" s="40" t="s">
         <v>15</v>
@@ -13674,7 +13803,7 @@
       </c>
       <c r="AQ9" s="45"/>
       <c r="AR9" s="47" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AS9" s="4">
         <v>15</v>
@@ -13890,7 +14019,7 @@
       </c>
       <c r="AQ10" s="45"/>
       <c r="AR10" s="47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AS10" s="4">
         <v>15</v>
@@ -14104,7 +14233,7 @@
       <c r="AP11" s="46"/>
       <c r="AQ11" s="45"/>
       <c r="AR11" s="47" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AS11" s="4">
         <v>13</v>
@@ -14318,7 +14447,7 @@
       <c r="AP12" s="46"/>
       <c r="AQ12" s="45"/>
       <c r="AR12" s="47" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AS12" s="4">
         <v>13</v>
@@ -15901,116 +16030,116 @@
       <c r="C20" s="228">
         <v>16</v>
       </c>
-      <c r="D20" s="229" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="230" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" s="231" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" s="232" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="233" t="s">
-        <v>0</v>
-      </c>
-      <c r="I20" s="231" t="s">
-        <v>0</v>
-      </c>
-      <c r="J20" s="232" t="s">
-        <v>0</v>
-      </c>
-      <c r="K20" s="233" t="s">
-        <v>0</v>
-      </c>
-      <c r="L20" s="231" t="s">
-        <v>0</v>
-      </c>
-      <c r="M20" s="232" t="s">
-        <v>0</v>
-      </c>
-      <c r="N20" s="233" t="s">
-        <v>0</v>
-      </c>
-      <c r="O20" s="231" t="s">
-        <v>0</v>
-      </c>
-      <c r="P20" s="232" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="233" t="s">
-        <v>0</v>
-      </c>
-      <c r="R20" s="231" t="s">
-        <v>0</v>
-      </c>
-      <c r="S20" s="232" t="s">
-        <v>0</v>
-      </c>
-      <c r="T20" s="233" t="s">
-        <v>0</v>
-      </c>
-      <c r="U20" s="231" t="s">
-        <v>0</v>
-      </c>
-      <c r="V20" s="232" t="s">
-        <v>0</v>
-      </c>
-      <c r="W20" s="233" t="s">
-        <v>0</v>
-      </c>
-      <c r="X20" s="231" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="232" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="233" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="231" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="232" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="233" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="231" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="232" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="233" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="231" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="232" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI20" s="233" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ20" s="231" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK20" s="232" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL20" s="233" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM20" s="231" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN20" s="234" t="s">
-        <v>0</v>
+      <c r="D20" s="229">
+        <v>16</v>
+      </c>
+      <c r="E20" s="230">
+        <v>5</v>
+      </c>
+      <c r="F20" s="231">
+        <v>11</v>
+      </c>
+      <c r="G20" s="232">
+        <v>115</v>
+      </c>
+      <c r="H20" s="233">
+        <v>6</v>
+      </c>
+      <c r="I20" s="231">
+        <v>13</v>
+      </c>
+      <c r="J20" s="232">
+        <v>114</v>
+      </c>
+      <c r="K20" s="233">
+        <v>2</v>
+      </c>
+      <c r="L20" s="231">
+        <v>14</v>
+      </c>
+      <c r="M20" s="232">
+        <v>117</v>
+      </c>
+      <c r="N20" s="233">
+        <v>10</v>
+      </c>
+      <c r="O20" s="231">
+        <v>13</v>
+      </c>
+      <c r="P20" s="232">
+        <v>104</v>
+      </c>
+      <c r="Q20" s="233">
+        <v>1</v>
+      </c>
+      <c r="R20" s="231">
+        <v>14</v>
+      </c>
+      <c r="S20" s="232">
+        <v>123</v>
+      </c>
+      <c r="T20" s="233">
+        <v>12</v>
+      </c>
+      <c r="U20" s="231">
+        <v>8</v>
+      </c>
+      <c r="V20" s="232">
+        <v>76</v>
+      </c>
+      <c r="W20" s="233">
+        <v>11</v>
+      </c>
+      <c r="X20" s="231">
+        <v>10</v>
+      </c>
+      <c r="Y20" s="232">
+        <v>99</v>
+      </c>
+      <c r="Z20" s="233">
+        <v>7</v>
+      </c>
+      <c r="AA20" s="231">
+        <v>12</v>
+      </c>
+      <c r="AB20" s="232">
+        <v>113</v>
+      </c>
+      <c r="AC20" s="233">
+        <v>9</v>
+      </c>
+      <c r="AD20" s="231">
+        <v>10</v>
+      </c>
+      <c r="AE20" s="232">
+        <v>106</v>
+      </c>
+      <c r="AF20" s="233">
+        <v>2</v>
+      </c>
+      <c r="AG20" s="231">
+        <v>14</v>
+      </c>
+      <c r="AH20" s="232">
+        <v>117</v>
+      </c>
+      <c r="AI20" s="233">
+        <v>2</v>
+      </c>
+      <c r="AJ20" s="231">
+        <v>13</v>
+      </c>
+      <c r="AK20" s="232">
+        <v>117</v>
+      </c>
+      <c r="AL20" s="233">
+        <v>8</v>
+      </c>
+      <c r="AM20" s="231">
+        <v>10</v>
+      </c>
+      <c r="AN20" s="234">
+        <v>107</v>
       </c>
       <c r="AO20" s="45"/>
       <c r="AP20" s="46"/>
@@ -16024,85 +16153,85 @@
         <v>0</v>
       </c>
       <c r="BL20" s="4"/>
-      <c r="BM20" s="4" t="s">
-        <v>0</v>
+      <c r="BM20" s="4">
+        <v>115</v>
       </c>
       <c r="BN20" s="4" t="s">
         <v>0</v>
       </c>
       <c r="BO20" s="4"/>
-      <c r="BP20" s="4" t="s">
-        <v>0</v>
+      <c r="BP20" s="4">
+        <v>114</v>
       </c>
       <c r="BQ20" s="4" t="s">
         <v>0</v>
       </c>
       <c r="BR20" s="4"/>
-      <c r="BS20" s="4" t="s">
-        <v>0</v>
+      <c r="BS20" s="4">
+        <v>117</v>
       </c>
       <c r="BT20" s="4" t="s">
         <v>0</v>
       </c>
       <c r="BU20" s="4"/>
-      <c r="BV20" s="4" t="s">
-        <v>0</v>
+      <c r="BV20" s="4">
+        <v>104</v>
       </c>
       <c r="BW20" s="4" t="s">
         <v>0</v>
       </c>
       <c r="BX20" s="4"/>
-      <c r="BY20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ20" s="4" t="s">
-        <v>0</v>
+      <c r="BY20" s="4">
+        <v>123</v>
+      </c>
+      <c r="BZ20" s="4">
+        <v>1</v>
       </c>
       <c r="CA20" s="4"/>
-      <c r="CB20" s="4" t="s">
-        <v>0</v>
+      <c r="CB20" s="4">
+        <v>76</v>
       </c>
       <c r="CC20" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CD20" s="4"/>
-      <c r="CE20" s="4" t="s">
-        <v>0</v>
+      <c r="CE20" s="4">
+        <v>99</v>
       </c>
       <c r="CF20" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CG20" s="4"/>
-      <c r="CH20" s="4" t="s">
-        <v>0</v>
+      <c r="CH20" s="4">
+        <v>113</v>
       </c>
       <c r="CI20" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CJ20" s="4"/>
-      <c r="CK20" s="4" t="s">
-        <v>0</v>
+      <c r="CK20" s="4">
+        <v>106</v>
       </c>
       <c r="CL20" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CM20" s="4"/>
-      <c r="CN20" s="4" t="s">
-        <v>0</v>
+      <c r="CN20" s="4">
+        <v>117</v>
       </c>
       <c r="CO20" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CP20" s="4"/>
-      <c r="CQ20" s="4" t="s">
-        <v>0</v>
+      <c r="CQ20" s="4">
+        <v>117</v>
       </c>
       <c r="CR20" s="4" t="s">
         <v>0</v>
       </c>
       <c r="CS20" s="4"/>
-      <c r="CT20" s="4" t="s">
-        <v>0</v>
+      <c r="CT20" s="4">
+        <v>107</v>
       </c>
       <c r="CU20" s="4"/>
     </row>
@@ -16112,115 +16241,115 @@
         <v>22</v>
       </c>
       <c r="D21" s="237">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="E21" s="238">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" s="239">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="G21" s="240">
-        <v>1290</v>
+        <v>1405</v>
       </c>
       <c r="H21" s="241">
         <v>8</v>
       </c>
       <c r="I21" s="239">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="J21" s="240">
-        <v>1327</v>
+        <v>1441</v>
       </c>
       <c r="K21" s="241">
+        <v>2</v>
+      </c>
+      <c r="L21" s="239">
+        <v>159</v>
+      </c>
+      <c r="M21" s="240">
+        <v>1506</v>
+      </c>
+      <c r="N21" s="241">
+        <v>6</v>
+      </c>
+      <c r="O21" s="239">
+        <v>165</v>
+      </c>
+      <c r="P21" s="240">
+        <v>1479</v>
+      </c>
+      <c r="Q21" s="241">
+        <v>4</v>
+      </c>
+      <c r="R21" s="239">
+        <v>163</v>
+      </c>
+      <c r="S21" s="240">
+        <v>1493</v>
+      </c>
+      <c r="T21" s="241">
+        <v>10</v>
+      </c>
+      <c r="U21" s="239">
+        <v>143</v>
+      </c>
+      <c r="V21" s="240">
+        <v>1368</v>
+      </c>
+      <c r="W21" s="241">
         <v>3</v>
       </c>
-      <c r="L21" s="239">
-        <v>145</v>
-      </c>
-      <c r="M21" s="240">
-        <v>1389</v>
-      </c>
-      <c r="N21" s="241">
-        <v>5</v>
-      </c>
-      <c r="O21" s="239">
-        <v>152</v>
-      </c>
-      <c r="P21" s="240">
-        <v>1375</v>
-      </c>
-      <c r="Q21" s="241">
-        <v>6</v>
-      </c>
-      <c r="R21" s="239">
-        <v>149</v>
-      </c>
-      <c r="S21" s="240">
-        <v>1370</v>
-      </c>
-      <c r="T21" s="241">
-        <v>9</v>
-      </c>
-      <c r="U21" s="239">
-        <v>135</v>
-      </c>
-      <c r="V21" s="240">
-        <v>1292</v>
-      </c>
-      <c r="W21" s="241">
-        <v>2</v>
-      </c>
       <c r="X21" s="239">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="Y21" s="240">
-        <v>1404</v>
+        <v>1503</v>
       </c>
       <c r="Z21" s="241">
         <v>7</v>
       </c>
       <c r="AA21" s="239">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="AB21" s="240">
-        <v>1345</v>
+        <v>1458</v>
       </c>
       <c r="AC21" s="241">
         <v>1</v>
       </c>
       <c r="AD21" s="239">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="AE21" s="240">
-        <v>1458</v>
+        <v>1564</v>
       </c>
       <c r="AF21" s="241">
         <v>12</v>
       </c>
       <c r="AG21" s="239">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="AH21" s="240">
-        <v>993</v>
+        <v>1110</v>
       </c>
       <c r="AI21" s="241">
         <v>11</v>
       </c>
       <c r="AJ21" s="239">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="AK21" s="240">
-        <v>1248</v>
+        <v>1365</v>
       </c>
       <c r="AL21" s="241">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM21" s="239">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="AN21" s="242">
-        <v>1385</v>
+        <v>1492</v>
       </c>
       <c r="AO21" s="48"/>
       <c r="AP21" s="49"/>
@@ -16231,62 +16360,62 @@
       <c r="BK21" s="4"/>
       <c r="BL21" s="4"/>
       <c r="BM21" s="4">
-        <v>1290</v>
+        <v>1405</v>
       </c>
       <c r="BN21" s="4"/>
       <c r="BO21" s="4"/>
       <c r="BP21" s="4">
-        <v>1327</v>
+        <v>1441</v>
       </c>
       <c r="BQ21" s="4"/>
       <c r="BR21" s="4"/>
       <c r="BS21" s="4">
-        <v>1389</v>
+        <v>1506</v>
       </c>
       <c r="BT21" s="4"/>
       <c r="BU21" s="4"/>
       <c r="BV21" s="4">
-        <v>1375</v>
+        <v>1479</v>
       </c>
       <c r="BW21" s="4"/>
       <c r="BX21" s="4"/>
       <c r="BY21" s="4">
-        <v>1370</v>
+        <v>1493</v>
       </c>
       <c r="BZ21" s="4"/>
       <c r="CA21" s="4"/>
       <c r="CB21" s="4">
-        <v>1292</v>
+        <v>1368</v>
       </c>
       <c r="CC21" s="4"/>
       <c r="CD21" s="4"/>
       <c r="CE21" s="4">
-        <v>1404</v>
+        <v>1503</v>
       </c>
       <c r="CF21" s="4"/>
       <c r="CG21" s="4"/>
       <c r="CH21" s="4">
-        <v>1345</v>
+        <v>1458</v>
       </c>
       <c r="CI21" s="4"/>
       <c r="CJ21" s="4"/>
       <c r="CK21" s="4">
-        <v>1458</v>
+        <v>1564</v>
       </c>
       <c r="CL21" s="4"/>
       <c r="CM21" s="4"/>
       <c r="CN21" s="4">
-        <v>993</v>
+        <v>1110</v>
       </c>
       <c r="CO21" s="4"/>
       <c r="CP21" s="4"/>
       <c r="CQ21" s="4">
-        <v>1248</v>
+        <v>1365</v>
       </c>
       <c r="CR21" s="4"/>
       <c r="CS21" s="4"/>
       <c r="CT21" s="4">
-        <v>1385</v>
+        <v>1492</v>
       </c>
       <c r="CU21" s="4"/>
     </row>
@@ -16297,112 +16426,112 @@
         <v>23</v>
       </c>
       <c r="E22" s="246">
-        <v>5.4285714285714288</v>
+        <v>5.4</v>
       </c>
       <c r="F22" s="247">
-        <v>8.3125</v>
+        <v>8.4705882352941178</v>
       </c>
       <c r="G22" s="248">
-        <v>86</v>
+        <v>87.8125</v>
       </c>
       <c r="H22" s="249">
-        <v>7.25</v>
+        <v>7.1764705882352944</v>
       </c>
       <c r="I22" s="247">
-        <v>9.125</v>
+        <v>9.3529411764705888</v>
       </c>
       <c r="J22" s="248">
-        <v>88.466666666666669</v>
+        <v>90.0625</v>
       </c>
       <c r="K22" s="249">
-        <v>5.1333333333333337</v>
+        <v>4.9375</v>
       </c>
       <c r="L22" s="247">
-        <v>9.0625</v>
+        <v>9.3529411764705888</v>
       </c>
       <c r="M22" s="248">
-        <v>92.6</v>
+        <v>94.125</v>
       </c>
       <c r="N22" s="249">
-        <v>6.1875</v>
+        <v>6.4117647058823533</v>
       </c>
       <c r="O22" s="247">
-        <v>9.5</v>
+        <v>9.7058823529411757</v>
       </c>
       <c r="P22" s="248">
-        <v>91.666666666666671</v>
+        <v>92.4375</v>
       </c>
       <c r="Q22" s="249">
+        <v>5.7058823529411766</v>
+      </c>
+      <c r="R22" s="247">
+        <v>9.5882352941176467</v>
+      </c>
+      <c r="S22" s="248">
+        <v>93.3125</v>
+      </c>
+      <c r="T22" s="249">
+        <v>7.1875</v>
+      </c>
+      <c r="U22" s="247">
+        <v>8.4117647058823533</v>
+      </c>
+      <c r="V22" s="248">
+        <v>85.5</v>
+      </c>
+      <c r="W22" s="249">
+        <v>5.2352941176470589</v>
+      </c>
+      <c r="X22" s="247">
+        <v>9.2941176470588243</v>
+      </c>
+      <c r="Y22" s="248">
+        <v>93.9375</v>
+      </c>
+      <c r="Z22" s="249">
+        <v>6.3529411764705879</v>
+      </c>
+      <c r="AA22" s="247">
+        <v>9.117647058823529</v>
+      </c>
+      <c r="AB22" s="248">
+        <v>91.125</v>
+      </c>
+      <c r="AC22" s="249">
+        <v>4.7647058823529411</v>
+      </c>
+      <c r="AD22" s="247">
+        <v>9.8235294117647065</v>
+      </c>
+      <c r="AE22" s="248">
+        <v>97.75</v>
+      </c>
+      <c r="AF22" s="249">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AG22" s="247">
+        <v>7</v>
+      </c>
+      <c r="AH22" s="248">
+        <v>69.375</v>
+      </c>
+      <c r="AI22" s="249">
         <v>6</v>
       </c>
-      <c r="R22" s="247">
-        <v>9.3125</v>
-      </c>
-      <c r="S22" s="248">
-        <v>91.333333333333329</v>
-      </c>
-      <c r="T22" s="249">
-        <v>6.8666666666666663</v>
-      </c>
-      <c r="U22" s="247">
-        <v>8.4375</v>
-      </c>
-      <c r="V22" s="248">
-        <v>86.13333333333334</v>
-      </c>
-      <c r="W22" s="249">
-        <v>4.875</v>
-      </c>
-      <c r="X22" s="247">
-        <v>9.25</v>
-      </c>
-      <c r="Y22" s="248">
-        <v>93.6</v>
-      </c>
-      <c r="Z22" s="249">
-        <v>6.3125</v>
-      </c>
-      <c r="AA22" s="247">
-        <v>8.9375</v>
-      </c>
-      <c r="AB22" s="248">
-        <v>89.666666666666671</v>
-      </c>
-      <c r="AC22" s="249">
-        <v>4.5</v>
-      </c>
-      <c r="AD22" s="247">
-        <v>9.8125</v>
-      </c>
-      <c r="AE22" s="248">
-        <v>97.2</v>
-      </c>
-      <c r="AF22" s="249">
-        <v>8.6428571428571423</v>
-      </c>
-      <c r="AG22" s="247">
-        <v>6.5625</v>
-      </c>
-      <c r="AH22" s="248">
-        <v>66.2</v>
-      </c>
-      <c r="AI22" s="249">
-        <v>6.2857142857142856</v>
-      </c>
       <c r="AJ22" s="247">
-        <v>7.8125</v>
+        <v>8.117647058823529</v>
       </c>
       <c r="AK22" s="248">
-        <v>83.2</v>
+        <v>85.3125</v>
       </c>
       <c r="AL22" s="249">
-        <v>6.5</v>
+        <v>6.5882352941176467</v>
       </c>
       <c r="AM22" s="247">
-        <v>9.3125</v>
+        <v>9.3529411764705888</v>
       </c>
       <c r="AN22" s="250">
-        <v>92.333333333333329</v>
+        <v>93.25</v>
       </c>
       <c r="AO22" s="48"/>
       <c r="AP22" s="49"/>
@@ -16475,7 +16604,7 @@
       <c r="O23" s="255"/>
       <c r="P23" s="256"/>
       <c r="Q23" s="257">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R23" s="255"/>
       <c r="S23" s="256"/>
@@ -16575,7 +16704,7 @@
       <c r="I24" s="108"/>
       <c r="J24" s="109"/>
       <c r="K24" s="75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24" s="108"/>
       <c r="M24" s="109"/>
@@ -16609,13 +16738,13 @@
       </c>
       <c r="AD24" s="108"/>
       <c r="AE24" s="109"/>
-      <c r="AF24" s="75" t="s">
-        <v>0</v>
+      <c r="AF24" s="75">
+        <v>1</v>
       </c>
       <c r="AG24" s="108"/>
       <c r="AH24" s="109"/>
       <c r="AI24" s="75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ24" s="108"/>
       <c r="AK24" s="109"/>
@@ -16858,7 +16987,7 @@
       <c r="R26" s="108"/>
       <c r="S26" s="109"/>
       <c r="T26" s="75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U26" s="108"/>
       <c r="V26" s="109"/>
@@ -17514,7 +17643,7 @@
         <v>124</v>
       </c>
       <c r="AV33" s="273">
-        <v>-48</v>
+        <v>-51</v>
       </c>
       <c r="AW33" s="274">
         <v>4</v>
@@ -17526,7 +17655,7 @@
         <v>61</v>
       </c>
       <c r="AZ33" s="275">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="BA33" s="277" t="s">
         <v>0</v>
@@ -17606,19 +17735,19 @@
     </row>
     <row r="34" spans="46:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AT34" s="271" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AU34" s="280">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AV34" s="281">
-        <v>-48</v>
+        <v>-51</v>
       </c>
       <c r="AW34" s="282">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX34" s="283">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="AY34" s="284" t="s">
         <v>0</v>
@@ -17627,10 +17756,10 @@
         <v>0</v>
       </c>
       <c r="BA34" s="285" t="s">
-        <v>61</v>
-      </c>
-      <c r="BB34" s="286">
-        <v>32</v>
+        <v>0</v>
+      </c>
+      <c r="BB34" s="286" t="s">
+        <v>0</v>
       </c>
       <c r="BC34" s="287"/>
       <c r="BD34" s="282"/>
@@ -17704,19 +17833,19 @@
     </row>
     <row r="35" spans="46:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AT35" s="271" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AU35" s="280">
         <v>14</v>
       </c>
       <c r="AV35" s="281">
-        <v>-48</v>
+        <v>-51</v>
       </c>
       <c r="AW35" s="282">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX35" s="283">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="AY35" s="284" t="s">
         <v>0</v>
@@ -17725,10 +17854,10 @@
         <v>0</v>
       </c>
       <c r="BA35" s="285" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB35" s="286" t="s">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="BB35" s="286">
+        <v>34</v>
       </c>
       <c r="BC35" s="287"/>
       <c r="BD35" s="282"/>
@@ -17802,13 +17931,13 @@
     </row>
     <row r="36" spans="46:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AT36" s="271" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AU36" s="280">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AV36" s="281">
-        <v>-48</v>
+        <v>-51</v>
       </c>
       <c r="AW36" s="282">
         <v>2</v>
@@ -17899,14 +18028,14 @@
       <c r="CU36" s="4"/>
     </row>
     <row r="37" spans="46:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AT37" s="296" t="s">
-        <v>101</v>
+      <c r="AT37" s="271" t="s">
+        <v>97</v>
       </c>
       <c r="AU37" s="280">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AV37" s="281">
-        <v>-48</v>
+        <v>-51</v>
       </c>
       <c r="AW37" s="282">
         <v>2</v>
@@ -17997,20 +18126,20 @@
       <c r="CU37" s="4"/>
     </row>
     <row r="38" spans="46:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AT38" s="271" t="s">
-        <v>93</v>
+      <c r="AT38" s="296" t="s">
+        <v>101</v>
       </c>
       <c r="AU38" s="280">
-        <v>-17</v>
+        <v>11</v>
       </c>
       <c r="AV38" s="281">
-        <v>-48</v>
+        <v>-51</v>
       </c>
       <c r="AW38" s="282">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX38" s="283">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="AY38" s="284" t="s">
         <v>0</v>
@@ -18099,10 +18228,10 @@
         <v>98</v>
       </c>
       <c r="AU39" s="280">
-        <v>-17</v>
+        <v>-20</v>
       </c>
       <c r="AV39" s="281">
-        <v>-48</v>
+        <v>-51</v>
       </c>
       <c r="AW39" s="282">
         <v>1</v>
@@ -18197,10 +18326,10 @@
         <v>100</v>
       </c>
       <c r="AU40" s="280">
-        <v>-17</v>
+        <v>-20</v>
       </c>
       <c r="AV40" s="281">
-        <v>-48</v>
+        <v>-51</v>
       </c>
       <c r="AW40" s="282">
         <v>1</v>
@@ -18229,63 +18358,63 @@
       <c r="BI40" s="286"/>
       <c r="BJ40" s="4"/>
       <c r="BK40" s="4"/>
-      <c r="BL40" s="4" t="s">
-        <v>0</v>
+      <c r="BL40" s="4">
+        <v>11</v>
       </c>
       <c r="BM40" s="4"/>
       <c r="BN40" s="4"/>
-      <c r="BO40" s="4" t="s">
-        <v>0</v>
+      <c r="BO40" s="4">
+        <v>13</v>
       </c>
       <c r="BP40" s="4"/>
       <c r="BQ40" s="4"/>
-      <c r="BR40" s="4" t="s">
-        <v>0</v>
+      <c r="BR40" s="4">
+        <v>14</v>
       </c>
       <c r="BS40" s="4"/>
       <c r="BT40" s="4"/>
-      <c r="BU40" s="4" t="s">
-        <v>0</v>
+      <c r="BU40" s="4">
+        <v>13</v>
       </c>
       <c r="BV40" s="4"/>
       <c r="BW40" s="4"/>
-      <c r="BX40" s="4" t="s">
-        <v>0</v>
+      <c r="BX40" s="4">
+        <v>14</v>
       </c>
       <c r="BY40" s="4"/>
       <c r="BZ40" s="4"/>
-      <c r="CA40" s="4" t="s">
-        <v>0</v>
+      <c r="CA40" s="4">
+        <v>8</v>
       </c>
       <c r="CB40" s="4"/>
       <c r="CC40" s="4"/>
-      <c r="CD40" s="4" t="s">
-        <v>0</v>
+      <c r="CD40" s="4">
+        <v>10</v>
       </c>
       <c r="CE40" s="4"/>
       <c r="CF40" s="4"/>
-      <c r="CG40" s="4" t="s">
-        <v>0</v>
+      <c r="CG40" s="4">
+        <v>12</v>
       </c>
       <c r="CH40" s="4"/>
       <c r="CI40" s="4"/>
-      <c r="CJ40" s="4" t="s">
-        <v>0</v>
+      <c r="CJ40" s="4">
+        <v>10</v>
       </c>
       <c r="CK40" s="4"/>
       <c r="CL40" s="4"/>
-      <c r="CM40" s="4" t="s">
-        <v>0</v>
+      <c r="CM40" s="4">
+        <v>14</v>
       </c>
       <c r="CN40" s="4"/>
       <c r="CO40" s="4"/>
-      <c r="CP40" s="4" t="s">
-        <v>0</v>
+      <c r="CP40" s="4">
+        <v>13</v>
       </c>
       <c r="CQ40" s="4"/>
       <c r="CR40" s="4"/>
-      <c r="CS40" s="4" t="s">
-        <v>0</v>
+      <c r="CS40" s="4">
+        <v>10</v>
       </c>
       <c r="CT40" s="4"/>
       <c r="CU40" s="4"/>
@@ -18295,10 +18424,10 @@
         <v>102</v>
       </c>
       <c r="AU41" s="280">
-        <v>-17</v>
+        <v>-20</v>
       </c>
       <c r="AV41" s="281">
-        <v>-48</v>
+        <v>-51</v>
       </c>
       <c r="AW41" s="282">
         <v>1</v>
@@ -18328,62 +18457,62 @@
       <c r="BJ41" s="4"/>
       <c r="BK41" s="4"/>
       <c r="BL41" s="4">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="BM41" s="4"/>
       <c r="BN41" s="4"/>
       <c r="BO41" s="4">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="BP41" s="4"/>
       <c r="BQ41" s="4"/>
       <c r="BR41" s="4">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="BS41" s="4"/>
       <c r="BT41" s="4"/>
       <c r="BU41" s="4">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="BV41" s="4"/>
       <c r="BW41" s="4"/>
       <c r="BX41" s="4">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="BY41" s="4"/>
       <c r="BZ41" s="4"/>
       <c r="CA41" s="4">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="CB41" s="4"/>
       <c r="CC41" s="4"/>
       <c r="CD41" s="4">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="CE41" s="4"/>
       <c r="CF41" s="4"/>
       <c r="CG41" s="4">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="CH41" s="4"/>
       <c r="CI41" s="4"/>
       <c r="CJ41" s="4">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="CK41" s="4"/>
       <c r="CL41" s="4"/>
       <c r="CM41" s="4">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="CN41" s="4"/>
       <c r="CO41" s="4"/>
       <c r="CP41" s="4">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="CQ41" s="4"/>
       <c r="CR41" s="4"/>
       <c r="CS41" s="4">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="CT41" s="4"/>
       <c r="CU41" s="4"/>
@@ -18393,10 +18522,10 @@
         <v>91</v>
       </c>
       <c r="AU42" s="280">
-        <v>-48</v>
+        <v>-51</v>
       </c>
       <c r="AV42" s="281">
-        <v>-48</v>
+        <v>-51</v>
       </c>
       <c r="AW42" s="282" t="s">
         <v>0</v>
@@ -18425,62 +18554,62 @@
       <c r="BI42" s="286"/>
       <c r="BJ42" s="50"/>
       <c r="BK42" s="50">
-        <v>5.4285714285714288</v>
+        <v>5.4</v>
       </c>
       <c r="BL42" s="50"/>
       <c r="BM42" s="50"/>
       <c r="BN42" s="50">
-        <v>7.25</v>
+        <v>7.1764705882352944</v>
       </c>
       <c r="BO42" s="50"/>
       <c r="BP42" s="50"/>
       <c r="BQ42" s="50">
-        <v>5.1333333333333337</v>
+        <v>4.9375</v>
       </c>
       <c r="BR42" s="50"/>
       <c r="BS42" s="50"/>
       <c r="BT42" s="50">
-        <v>6.1875</v>
+        <v>6.4117647058823533</v>
       </c>
       <c r="BU42" s="50"/>
       <c r="BV42" s="50"/>
       <c r="BW42" s="50">
-        <v>6</v>
+        <v>5.7058823529411766</v>
       </c>
       <c r="BX42" s="50"/>
       <c r="BY42" s="50"/>
       <c r="BZ42" s="50">
-        <v>6.8666666666666663</v>
+        <v>7.1875</v>
       </c>
       <c r="CA42" s="50"/>
       <c r="CB42" s="50"/>
       <c r="CC42" s="50">
-        <v>4.875</v>
+        <v>5.2352941176470589</v>
       </c>
       <c r="CD42" s="50"/>
       <c r="CE42" s="50"/>
       <c r="CF42" s="50">
-        <v>6.3125</v>
+        <v>6.3529411764705879</v>
       </c>
       <c r="CG42" s="50"/>
       <c r="CH42" s="50"/>
       <c r="CI42" s="50">
-        <v>4.5</v>
+        <v>4.7647058823529411</v>
       </c>
       <c r="CJ42" s="50"/>
       <c r="CK42" s="50"/>
       <c r="CL42" s="50">
-        <v>8.6428571428571423</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="CM42" s="50"/>
       <c r="CN42" s="50"/>
       <c r="CO42" s="50">
-        <v>6.2857142857142856</v>
+        <v>6</v>
       </c>
       <c r="CP42" s="50"/>
       <c r="CQ42" s="50"/>
       <c r="CR42" s="50">
-        <v>6.5</v>
+        <v>6.5882352941176467</v>
       </c>
       <c r="CS42" s="50"/>
       <c r="CT42" s="50"/>
@@ -18491,10 +18620,10 @@
         <v>94</v>
       </c>
       <c r="AU43" s="280">
-        <v>-48</v>
+        <v>-51</v>
       </c>
       <c r="AV43" s="281">
-        <v>-48</v>
+        <v>-51</v>
       </c>
       <c r="AW43" s="282" t="s">
         <v>0</v>
@@ -18527,10 +18656,10 @@
         <v>96</v>
       </c>
       <c r="AU44" s="288">
-        <v>-48</v>
+        <v>-51</v>
       </c>
       <c r="AV44" s="289">
-        <v>-48</v>
+        <v>-51</v>
       </c>
       <c r="AW44" s="290" t="s">
         <v>0</v>

--- a/regular_season_final.xlsx
+++ b/regular_season_final.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2069" uniqueCount="176">
   <si>
     <t/>
   </si>
@@ -431,127 +431,127 @@
     <t>2017 Football Pool</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Week 1 Scores</t>
-  </si>
-  <si>
     <t>Pick</t>
   </si>
   <si>
     <t>Weight</t>
   </si>
   <si>
-    <t xml:space="preserve">   var w1_p1_picks         = ["H","H","V","H","V","V","H","V","V","H","H","V","H","H","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w1_p2_picks         = ["H","H","V","H","V","H","H","V","H","H","H","V","V","H","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w1_p3_picks         = ["H","H","V","H","V","V","H","H","V","H","H","V","H","H","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w1_p4_picks         = ["H","H","V","H","V","V","H","V","V","V","H","V","H","V","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w1_p5_picks         = ["H","H","V","H","V","V","H","V","V","V","H","V","H","V","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w1_p6_picks         = ["H","H","V","V","V","V","H","V","H","H","H","V","V","V","V"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w1_p7_picks         = ["H","H","V","H","V","H","H","V","H","H","V","V","V","V","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w1_p8_picks         = ["H","H","V","H","V","H","H","H","V","V","H","V","H","H","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w1_p9_picks         = ["H","H","V","V","V","H","H","V","H","V","H","V","H","H","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w1_p10_picks        = ["H","H","V","H","V","V","H","H","V","H","H","V","H","H","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w1_p11_picks        = ["V","H","V","H","V","H","H","H","V","V","V","V","H","V","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w1_p12_picks        = ["H","H","V","H","V","V","H","V","H","V","H","V","H","H","H"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w1_p1_weights       = ["15","16","13","6","14","3","11","7","2","4","5","12","9","8","10"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w1_p2_weights       = ["4","8","5","9","6","12","10","15","14","13","16","11","3","7","2"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w1_p3_weights       = ["15","16","13","6","14","3","11","4","2","10","5","12","9","8","7"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w1_p4_weights       = ["16","13","14","7","15","4","11","3","2","5","6","12","8","9","10"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w1_p5_weights       = ["16","15","12","10","14","9","13","4","6","5","2","11","8","7","3"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w1_p6_weights       = ["12","10","16","6","15","9","14","7","2","3","8","13","4","11","5"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w1_p7_weights       = ["10","11","15","3","16","9","14","13","8","2","4","12","7","5","6"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w1_p8_weights       = ["16","14","13","8","15","4","12","5","3","2","7","11","6","10","9"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w1_p9_weights       = ["12","4","15","8","16","5","9","2","3","11","7","14","6","10","13"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w1_p10_weights      = ["15","16","13","6","14","3","11","4","2","9","5","12","10","8","7"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w1_p11_weights      = ["16","14","13","8","15","2","11","4","10","6","7","12","3","5","9"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w1_p12_weights      = ["6","4","15","9","16","14","11","13","5","8","2","10","3","12","7"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w1_winners          = ["V","H","V","V","V","H","V","V","V","H","H","V","H","H","H"];</t>
-  </si>
-  <si>
-    <t>Dolphins, Buccaneers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w1_mn_points        = ["42","49","43","42","34","49","35","38","46","43","48","42"];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   var w1_actual_mn_points = 45;</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Under</t>
-  </si>
-  <si>
-    <t>Over</t>
-  </si>
-  <si>
     <t>2017 Season Summary</t>
   </si>
   <si>
-    <t>Week 1 Final</t>
+    <t>2017 Football Pool Results</t>
   </si>
   <si>
-    <t>'Week 1'!$B$2</t>
+    <t>2</t>
   </si>
   <si>
-    <t>'Week 1'!$C$2</t>
+    <t>Week 2 Scores</t>
   </si>
   <si>
-    <t>'Week 1'!$D$2</t>
+    <t xml:space="preserve">   var w2_p1_picks         = ["H","H","H","V","V","H","V","H","H","H","H","V","H","H","V","H"];</t>
   </si>
   <si>
-    <t>2017 Football Pool Results</t>
+    <t xml:space="preserve">   var w2_p2_picks         = ["H","H","H","H","H","H","H","H","H","H","H","V","H","H","H","H"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w2_p3_picks         = ["H","H","H","V","H","H","V","H","H","H","H","V","H","H","V","H"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w2_p4_picks         = ["H","H","H","V","H","V","H","H","H","H","H","H","H","H","H","H"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w2_p5_picks         = ["V","H","H","V","V","H","V","V","H","V","H","V","H","H","V","H"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w2_p6_picks         = ["H","H","H","V","V","H","V","H","H","H","H","V","V","H","H","H"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w2_p7_picks         = ["V","H","H","V","V","H","V","H","H","V","H","H","V","H","H","V"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w2_p8_picks         = ["H","H","H","V","H","H","V","H","H","V","H","V","V","H","V","V"];</t>
+  </si>
+  <si>
+    <t>Buccaneers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w2_p9_picks         = ["H","H","H","V","H","H","V","H","H","H","H","V","H","H","V","H"];</t>
+  </si>
+  <si>
+    <t>Dolphins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w2_p10_picks        = ["H","H","H","V","V","H","V","H","H","H","H","V","H","H","H","H"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w2_p11_picks        = ["V","H","H","V","H","H","V","H","H","H","H","H","H","H","V","H"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w2_p12_picks        = ["H","H","H","V","H","H","V","H","V","H","H","H","H","H","V","H"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w2_p1_weights       = ["6","14","11","13","1","7","10","8","12","9","16","5","4","15","3","2"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w2_p2_weights       = ["10","15","16","1","3","14","2","4","9","12","13","11","8","7","6","5"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w2_p3_weights       = ["10","14","12","13","2","7","9","8","11","6","16","1","3","15","4","5"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w2_p4_weights       = ["10","14","12","13","4","7","2","8","11","6","16","1","3","15","9","5"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w2_p5_weights       = ["6","10","8","15","9","5","2","1","11","4","14","7","13","16","3","12"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w2_p6_weights       = ["1","15","11","6","9","5","7","8","12","3","16","2","10","13","4","14"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w2_p7_weights       = ["5","11","8","15","1","10","9","16","6","3","14","2","4","13","7","12"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w2_p8_weights       = ["11","14","8","12","6","7","9","13","10","5","15","3","4","16","1","2"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w2_p9_weights       = ["6","10","12","13","5","11","14","8","2","1","15","9","7","16","4","3"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w2_p10_weights      = ["10","14","12","13","2","7","9","8","11","6","16","1","3","15","4","5"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w2_p11_weights      = ["1","14","13","12","8","16","10","9","11","6","7","2","4","15","3","5"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w2_p12_weights      = ["9","12","13","10","5","8","15","11","4","3","14","2","6","16","1","7"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w2_winners          = ["V","H","H","V","V","H","V","H","H","V","H","H","V","H","H","V"];</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w2_mn_points        = ["42","45","43","43","31","49","38","47","46","43","47","55"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var w2_actual_mn_points = 0;</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Week 2 Final</t>
+  </si>
+  <si>
+    <t>'Week 2'!$B$2</t>
+  </si>
+  <si>
+    <t>'Week 2'!$C$2</t>
+  </si>
+  <si>
+    <t>'Week 2'!$D$2</t>
   </si>
 </sst>
 </file>
@@ -3248,7 +3248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="335">
+  <cellXfs count="330">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4228,21 +4228,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="162" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5209,7 +5194,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="298" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D2" s="112" t="s">
         <v>99</v>
@@ -5219,84 +5204,84 @@
         <v>87</v>
       </c>
       <c r="G2" s="115">
-        <v>-0.5</v>
+        <v>-6</v>
       </c>
       <c r="H2" s="116"/>
       <c r="I2" s="114" t="s">
         <v>88</v>
       </c>
       <c r="J2" s="115">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="K2" s="116"/>
       <c r="L2" s="114" t="s">
         <v>89</v>
       </c>
       <c r="M2" s="115">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="N2" s="116"/>
       <c r="O2" s="114" t="s">
         <v>90</v>
       </c>
       <c r="P2" s="115">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="Q2" s="116"/>
       <c r="R2" s="114" t="s">
         <v>91</v>
       </c>
       <c r="S2" s="115">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="T2" s="116"/>
       <c r="U2" s="114" t="s">
         <v>92</v>
       </c>
       <c r="V2" s="115">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="W2" s="116"/>
       <c r="X2" s="114" t="s">
         <v>93</v>
       </c>
       <c r="Y2" s="115">
-        <v>-3</v>
+        <v>31</v>
       </c>
       <c r="Z2" s="116"/>
       <c r="AA2" s="114" t="s">
         <v>94</v>
       </c>
       <c r="AB2" s="115">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="AC2" s="116"/>
       <c r="AD2" s="114" t="s">
         <v>95</v>
       </c>
       <c r="AE2" s="115">
-        <v>30.5</v>
+        <v>25</v>
       </c>
       <c r="AF2" s="116"/>
       <c r="AG2" s="114" t="s">
         <v>96</v>
       </c>
       <c r="AH2" s="115">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="AI2" s="116"/>
       <c r="AJ2" s="114" t="s">
         <v>97</v>
       </c>
       <c r="AK2" s="115">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="AL2" s="116"/>
       <c r="AM2" s="114" t="s">
         <v>98</v>
       </c>
       <c r="AN2" s="115">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="AO2" s="117"/>
       <c r="AP2" s="3"/>
@@ -5315,7 +5300,7 @@
       <c r="AV2" s="306"/>
       <c r="AW2" s="3"/>
       <c r="BE2" s="301" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="BF2" s="302"/>
       <c r="BG2" s="303"/>
@@ -5358,125 +5343,125 @@
         <v>48</v>
       </c>
       <c r="F3" s="173" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G3" s="174" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H3" s="175" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="176" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J3" s="177" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K3" s="175" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="176" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M3" s="177" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N3" s="175" t="s">
         <v>4</v>
       </c>
       <c r="O3" s="176" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="P3" s="177" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q3" s="175" t="s">
         <v>4</v>
       </c>
       <c r="R3" s="176" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="S3" s="177" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="T3" s="175" t="s">
         <v>4</v>
       </c>
       <c r="U3" s="176" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="V3" s="177" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W3" s="175" t="s">
         <v>4</v>
       </c>
       <c r="X3" s="176" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Y3" s="177" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Z3" s="175" t="s">
         <v>4</v>
       </c>
       <c r="AA3" s="176" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AB3" s="177" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AC3" s="175" t="s">
         <v>4</v>
       </c>
       <c r="AD3" s="176" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AE3" s="177" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AF3" s="175" t="s">
         <v>4</v>
       </c>
       <c r="AG3" s="176" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AH3" s="177" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AI3" s="175" t="s">
         <v>4</v>
       </c>
       <c r="AJ3" s="176" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AK3" s="177" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AL3" s="175" t="s">
         <v>4</v>
       </c>
       <c r="AM3" s="176" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AN3" s="177" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AO3" s="178" t="s">
         <v>4</v>
       </c>
       <c r="AP3" s="3"/>
       <c r="AR3" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS3" s="9" t="s">
         <v>49</v>
       </c>
       <c r="AT3" s="159" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AU3" s="177" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AV3" s="178" t="s">
         <v>4</v>
@@ -5535,13 +5520,13 @@
     </row>
     <row r="4" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="180" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C4" s="181" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="181" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E4" s="182" t="s">
         <v>85</v>
@@ -5550,97 +5535,97 @@
         <v>57</v>
       </c>
       <c r="G4" s="184">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H4" s="185">
-        <v>-15</v>
+        <v>-6</v>
       </c>
       <c r="I4" s="186" t="s">
         <v>57</v>
       </c>
       <c r="J4" s="184">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K4" s="185">
-        <v>-4</v>
+        <v>-10</v>
       </c>
       <c r="L4" s="186" t="s">
         <v>57</v>
       </c>
       <c r="M4" s="184">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N4" s="185">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="O4" s="186" t="s">
         <v>57</v>
       </c>
       <c r="P4" s="184">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Q4" s="185">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="R4" s="186" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="S4" s="184">
-        <v>16</v>
-      </c>
-      <c r="T4" s="185">
-        <v>-16</v>
+        <v>6</v>
+      </c>
+      <c r="T4" s="185" t="s">
+        <v>0</v>
       </c>
       <c r="U4" s="186" t="s">
         <v>57</v>
       </c>
       <c r="V4" s="184">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="W4" s="185">
-        <v>-12</v>
+        <v>-1</v>
       </c>
       <c r="X4" s="186" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="Y4" s="184">
-        <v>10</v>
-      </c>
-      <c r="Z4" s="185">
-        <v>-10</v>
+        <v>5</v>
+      </c>
+      <c r="Z4" s="185" t="s">
+        <v>0</v>
       </c>
       <c r="AA4" s="186" t="s">
         <v>57</v>
       </c>
       <c r="AB4" s="184">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AC4" s="185">
-        <v>-16</v>
+        <v>-11</v>
       </c>
       <c r="AD4" s="186" t="s">
         <v>57</v>
       </c>
       <c r="AE4" s="184">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AF4" s="185">
-        <v>-12</v>
+        <v>-6</v>
       </c>
       <c r="AG4" s="186" t="s">
         <v>57</v>
       </c>
       <c r="AH4" s="184">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AI4" s="185">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="AJ4" s="186" t="s">
         <v>85</v>
       </c>
       <c r="AK4" s="184">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AL4" s="185" t="s">
         <v>0</v>
@@ -5649,31 +5634,31 @@
         <v>57</v>
       </c>
       <c r="AN4" s="184">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AO4" s="187">
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="AT4" s="188" t="s">
         <v>57</v>
       </c>
       <c r="AU4" s="184">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AV4" s="187">
-        <v>-11</v>
+        <v>-7</v>
       </c>
       <c r="AX4" s="4">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="AY4" s="4">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="AZ4" s="4">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="BA4" s="4">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="BB4" s="4">
         <v>1</v>
@@ -5685,36 +5670,36 @@
         <v>1</v>
       </c>
       <c r="BF4" s="60" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="BG4" s="61">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="BH4" s="189"/>
       <c r="BI4" s="62">
         <v>1</v>
       </c>
       <c r="BJ4" s="63" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="BK4" s="64">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="BL4" s="65">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="BM4" s="172"/>
       <c r="BN4" s="66">
         <v>1</v>
       </c>
       <c r="BO4" s="67" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="BP4" s="68">
-        <v>30.5</v>
+        <v>31</v>
       </c>
       <c r="BQ4" s="69">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="BR4" s="70">
         <v>1</v>
@@ -5726,7 +5711,7 @@
         <v>58</v>
       </c>
       <c r="BU4" s="71">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="BV4" s="72" t="s">
         <v>0</v>
@@ -5735,18 +5720,18 @@
         <v>0</v>
       </c>
       <c r="BY4" s="12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="190" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C5" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="191" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="E5" s="192" t="s">
         <v>57</v>
@@ -5755,7 +5740,7 @@
         <v>57</v>
       </c>
       <c r="G5" s="194">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H5" s="195" t="s">
         <v>0</v>
@@ -5764,7 +5749,7 @@
         <v>57</v>
       </c>
       <c r="J5" s="194">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K5" s="195" t="s">
         <v>0</v>
@@ -5773,7 +5758,7 @@
         <v>57</v>
       </c>
       <c r="M5" s="194">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N5" s="195" t="s">
         <v>0</v>
@@ -5782,7 +5767,7 @@
         <v>57</v>
       </c>
       <c r="P5" s="194">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q5" s="195" t="s">
         <v>0</v>
@@ -5791,7 +5776,7 @@
         <v>57</v>
       </c>
       <c r="S5" s="194">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T5" s="195" t="s">
         <v>0</v>
@@ -5800,7 +5785,7 @@
         <v>57</v>
       </c>
       <c r="V5" s="194">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="W5" s="195" t="s">
         <v>0</v>
@@ -5827,7 +5812,7 @@
         <v>57</v>
       </c>
       <c r="AE5" s="194">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AF5" s="195" t="s">
         <v>0</v>
@@ -5836,7 +5821,7 @@
         <v>57</v>
       </c>
       <c r="AH5" s="194">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AI5" s="195" t="s">
         <v>0</v>
@@ -5854,7 +5839,7 @@
         <v>57</v>
       </c>
       <c r="AN5" s="194">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AO5" s="197" t="s">
         <v>0</v>
@@ -5865,22 +5850,22 @@
         <v>57</v>
       </c>
       <c r="AU5" s="194">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV5" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX5" s="4">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="AY5" s="4">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="AZ5" s="4">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="BA5" s="4">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="BB5" s="4">
         <v>2</v>
@@ -5892,48 +5877,48 @@
         <v>2</v>
       </c>
       <c r="BF5" s="77" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="BG5" s="78">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="BH5" s="189"/>
       <c r="BI5" s="79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ5" s="80" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="BK5" s="81">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="BL5" s="82">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="BM5" s="172"/>
       <c r="BN5" s="79">
         <v>2</v>
       </c>
       <c r="BO5" s="80" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="BP5" s="83">
-        <v>-0.5</v>
+        <v>25</v>
       </c>
       <c r="BQ5" s="84">
-        <v>-3</v>
-      </c>
-      <c r="BR5" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS5" s="86" t="s">
-        <v>0</v>
+        <v>-6</v>
+      </c>
+      <c r="BR5" s="85">
+        <v>1</v>
+      </c>
+      <c r="BS5" s="86">
+        <v>31</v>
       </c>
       <c r="BT5" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="BU5" s="86">
-        <v>2.5</v>
+        <v>0</v>
+      </c>
+      <c r="BU5" s="86" t="s">
+        <v>0</v>
       </c>
       <c r="BV5" s="87" t="s">
         <v>0</v>
@@ -5942,114 +5927,114 @@
         <v>0</v>
       </c>
       <c r="BY5" s="12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="190" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C6" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="191" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E6" s="192" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="F6" s="193" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="G6" s="194">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H6" s="195" t="s">
         <v>0</v>
       </c>
       <c r="I6" s="196" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="J6" s="194">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="K6" s="195" t="s">
         <v>0</v>
       </c>
       <c r="L6" s="196" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="M6" s="194">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N6" s="195" t="s">
         <v>0</v>
       </c>
       <c r="O6" s="196" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="P6" s="194">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="195" t="s">
         <v>0</v>
       </c>
       <c r="R6" s="196" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="S6" s="194">
+        <v>8</v>
+      </c>
+      <c r="T6" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="U6" s="196" t="s">
+        <v>57</v>
+      </c>
+      <c r="V6" s="194">
+        <v>11</v>
+      </c>
+      <c r="W6" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="X6" s="196" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y6" s="194">
+        <v>8</v>
+      </c>
+      <c r="Z6" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="196" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB6" s="194">
+        <v>8</v>
+      </c>
+      <c r="AC6" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="196" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE6" s="194">
         <v>12</v>
       </c>
-      <c r="T6" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="U6" s="196" t="s">
-        <v>85</v>
-      </c>
-      <c r="V6" s="194">
-        <v>16</v>
-      </c>
-      <c r="W6" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="X6" s="196" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y6" s="194">
-        <v>15</v>
-      </c>
-      <c r="Z6" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="196" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB6" s="194">
-        <v>13</v>
-      </c>
-      <c r="AC6" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="196" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE6" s="194">
-        <v>15</v>
-      </c>
       <c r="AF6" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AG6" s="196" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="AH6" s="194">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI6" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AJ6" s="196" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="AK6" s="194">
         <v>13</v>
@@ -6058,10 +6043,10 @@
         <v>0</v>
       </c>
       <c r="AM6" s="196" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="AN6" s="194">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO6" s="197" t="s">
         <v>0</v>
@@ -6069,25 +6054,25 @@
       <c r="AR6" s="8"/>
       <c r="AS6" s="9"/>
       <c r="AT6" s="198" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="AU6" s="194">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AV6" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX6" s="4">
-        <v>-157</v>
+        <v>136</v>
       </c>
       <c r="AY6" s="4">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="AZ6" s="4">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="BA6" s="4">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="BB6" s="4">
         <v>3</v>
@@ -6099,36 +6084,36 @@
         <v>3</v>
       </c>
       <c r="BF6" s="77" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="BG6" s="78">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="BH6" s="189"/>
       <c r="BI6" s="79">
         <v>3</v>
       </c>
       <c r="BJ6" s="80" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="BK6" s="81">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="BL6" s="82">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="BM6" s="172"/>
       <c r="BN6" s="79">
         <v>3</v>
       </c>
       <c r="BO6" s="80" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="BP6" s="83">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="BQ6" s="84">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="BR6" s="85" t="s">
         <v>0</v>
@@ -6143,72 +6128,72 @@
         <v>0</v>
       </c>
       <c r="BV6" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW6" s="88" t="s">
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="BW6" s="88">
+        <v>4</v>
       </c>
       <c r="BY6" s="12" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="190" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C7" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="191" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E7" s="192" t="s">
         <v>85</v>
       </c>
       <c r="F7" s="193" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="G7" s="194">
-        <v>6</v>
-      </c>
-      <c r="H7" s="195">
-        <v>-6</v>
+        <v>13</v>
+      </c>
+      <c r="H7" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="I7" s="196" t="s">
         <v>57</v>
       </c>
       <c r="J7" s="194">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K7" s="195">
-        <v>-9</v>
+        <v>-1</v>
       </c>
       <c r="L7" s="196" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="M7" s="194">
-        <v>6</v>
-      </c>
-      <c r="N7" s="195">
-        <v>-6</v>
+        <v>13</v>
+      </c>
+      <c r="N7" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="O7" s="196" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="P7" s="194">
-        <v>7</v>
-      </c>
-      <c r="Q7" s="195">
-        <v>-7</v>
+        <v>13</v>
+      </c>
+      <c r="Q7" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="R7" s="196" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="S7" s="194">
-        <v>10</v>
-      </c>
-      <c r="T7" s="195">
-        <v>-10</v>
+        <v>15</v>
+      </c>
+      <c r="T7" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="U7" s="196" t="s">
         <v>85</v>
@@ -6220,79 +6205,79 @@
         <v>0</v>
       </c>
       <c r="X7" s="196" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="Y7" s="194">
-        <v>3</v>
-      </c>
-      <c r="Z7" s="195">
-        <v>-3</v>
+        <v>15</v>
+      </c>
+      <c r="Z7" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AA7" s="196" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="AB7" s="194">
-        <v>8</v>
-      </c>
-      <c r="AC7" s="195">
-        <v>-8</v>
+        <v>12</v>
+      </c>
+      <c r="AC7" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AD7" s="196" t="s">
         <v>85</v>
       </c>
       <c r="AE7" s="194">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AF7" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AG7" s="196" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="AH7" s="194">
-        <v>6</v>
-      </c>
-      <c r="AI7" s="195">
-        <v>-6</v>
+        <v>13</v>
+      </c>
+      <c r="AI7" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AJ7" s="196" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="AK7" s="194">
-        <v>8</v>
-      </c>
-      <c r="AL7" s="195">
-        <v>-8</v>
+        <v>12</v>
+      </c>
+      <c r="AL7" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AM7" s="196" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="AN7" s="194">
-        <v>9</v>
-      </c>
-      <c r="AO7" s="197">
-        <v>-9</v>
+        <v>10</v>
+      </c>
+      <c r="AO7" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AT7" s="198" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="AU7" s="194">
-        <v>9</v>
-      </c>
-      <c r="AV7" s="197">
-        <v>-9</v>
+        <v>12</v>
+      </c>
+      <c r="AV7" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AX7" s="4">
-        <v>58</v>
+        <v>-134</v>
       </c>
       <c r="AY7" s="4">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="AZ7" s="4">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="BA7" s="4">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="BB7" s="4">
         <v>4</v>
@@ -6301,39 +6286,39 @@
         <v>1</v>
       </c>
       <c r="BE7" s="76">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BF7" s="77" t="s">
         <v>96</v>
       </c>
       <c r="BG7" s="78">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="BH7" s="189"/>
       <c r="BI7" s="79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ7" s="80" t="s">
         <v>96</v>
       </c>
       <c r="BK7" s="81">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="BL7" s="82">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="BM7" s="172"/>
       <c r="BN7" s="79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BO7" s="80" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BP7" s="83">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="BQ7" s="84">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="BR7" s="85" t="s">
         <v>0</v>
@@ -6354,18 +6339,18 @@
         <v>0</v>
       </c>
       <c r="BY7" s="12" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="190" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="C8" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="191" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="E8" s="192" t="s">
         <v>85</v>
@@ -6374,43 +6359,43 @@
         <v>85</v>
       </c>
       <c r="G8" s="194">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H8" s="195" t="s">
         <v>0</v>
       </c>
       <c r="I8" s="196" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="J8" s="194">
-        <v>6</v>
-      </c>
-      <c r="K8" s="195" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="K8" s="195">
+        <v>-3</v>
       </c>
       <c r="L8" s="196" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="M8" s="194">
-        <v>14</v>
-      </c>
-      <c r="N8" s="195" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="N8" s="195">
+        <v>-2</v>
       </c>
       <c r="O8" s="196" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="P8" s="194">
-        <v>15</v>
-      </c>
-      <c r="Q8" s="195" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="Q8" s="195">
+        <v>-4</v>
       </c>
       <c r="R8" s="196" t="s">
         <v>85</v>
       </c>
       <c r="S8" s="194">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="T8" s="195" t="s">
         <v>0</v>
@@ -6419,7 +6404,7 @@
         <v>85</v>
       </c>
       <c r="V8" s="194">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="W8" s="195" t="s">
         <v>0</v>
@@ -6428,76 +6413,76 @@
         <v>85</v>
       </c>
       <c r="Y8" s="194">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Z8" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AA8" s="196" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="AB8" s="194">
-        <v>15</v>
-      </c>
-      <c r="AC8" s="195" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="AC8" s="195">
+        <v>-6</v>
       </c>
       <c r="AD8" s="196" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="AE8" s="194">
-        <v>16</v>
-      </c>
-      <c r="AF8" s="195" t="s">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="AF8" s="195">
+        <v>-5</v>
       </c>
       <c r="AG8" s="196" t="s">
         <v>85</v>
       </c>
       <c r="AH8" s="194">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="AI8" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AJ8" s="196" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="AK8" s="194">
-        <v>15</v>
-      </c>
-      <c r="AL8" s="195" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="AL8" s="195">
+        <v>-8</v>
       </c>
       <c r="AM8" s="196" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="AN8" s="194">
-        <v>16</v>
-      </c>
-      <c r="AO8" s="197" t="s">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="AO8" s="197">
+        <v>-5</v>
       </c>
       <c r="AT8" s="198" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="AU8" s="194">
-        <v>16</v>
-      </c>
-      <c r="AV8" s="197" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AV8" s="197">
+        <v>-1</v>
       </c>
       <c r="AX8" s="4">
-        <v>-170</v>
+        <v>11</v>
       </c>
       <c r="AY8" s="4">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="AZ8" s="4">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="BA8" s="4">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="BB8" s="4">
         <v>5</v>
@@ -6509,36 +6494,36 @@
         <v>5</v>
       </c>
       <c r="BF8" s="77" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="BG8" s="78">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="BH8" s="189"/>
       <c r="BI8" s="79">
         <v>5</v>
       </c>
       <c r="BJ8" s="80" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="BK8" s="81">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="BL8" s="82">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="BM8" s="172"/>
       <c r="BN8" s="79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BO8" s="80" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="BP8" s="83">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="BQ8" s="84">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="BR8" s="85" t="s">
         <v>0</v>
@@ -6559,81 +6544,81 @@
         <v>0</v>
       </c>
       <c r="BY8" s="12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="190" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="C9" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="191" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="E9" s="192" t="s">
         <v>57</v>
       </c>
       <c r="F9" s="193" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="G9" s="194">
-        <v>3</v>
-      </c>
-      <c r="H9" s="195">
-        <v>-3</v>
+        <v>7</v>
+      </c>
+      <c r="H9" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="I9" s="196" t="s">
         <v>57</v>
       </c>
       <c r="J9" s="194">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K9" s="195" t="s">
         <v>0</v>
       </c>
       <c r="L9" s="196" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="M9" s="194">
-        <v>3</v>
-      </c>
-      <c r="N9" s="195">
-        <v>-3</v>
+        <v>7</v>
+      </c>
+      <c r="N9" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="O9" s="196" t="s">
         <v>85</v>
       </c>
       <c r="P9" s="194">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q9" s="195">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="R9" s="196" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="S9" s="194">
-        <v>9</v>
-      </c>
-      <c r="T9" s="195">
-        <v>-9</v>
+        <v>5</v>
+      </c>
+      <c r="T9" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="U9" s="196" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="V9" s="194">
-        <v>9</v>
-      </c>
-      <c r="W9" s="195">
-        <v>-9</v>
+        <v>5</v>
+      </c>
+      <c r="W9" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="X9" s="196" t="s">
         <v>57</v>
       </c>
       <c r="Y9" s="194">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z9" s="195" t="s">
         <v>0</v>
@@ -6642,7 +6627,7 @@
         <v>57</v>
       </c>
       <c r="AB9" s="194">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AC9" s="195" t="s">
         <v>0</v>
@@ -6651,58 +6636,58 @@
         <v>57</v>
       </c>
       <c r="AE9" s="194">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AF9" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AG9" s="196" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="AH9" s="194">
-        <v>3</v>
-      </c>
-      <c r="AI9" s="195">
-        <v>-3</v>
+        <v>7</v>
+      </c>
+      <c r="AI9" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AJ9" s="196" t="s">
         <v>57</v>
       </c>
       <c r="AK9" s="194">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="AL9" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AM9" s="196" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="AN9" s="194">
-        <v>14</v>
-      </c>
-      <c r="AO9" s="197">
-        <v>-14</v>
+        <v>8</v>
+      </c>
+      <c r="AO9" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AT9" s="198" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="AU9" s="194">
-        <v>4</v>
-      </c>
-      <c r="AV9" s="197">
-        <v>-4</v>
+        <v>8</v>
+      </c>
+      <c r="AV9" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AX9" s="4">
-        <v>-13</v>
+        <v>90</v>
       </c>
       <c r="AY9" s="4">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="AZ9" s="4">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="BA9" s="4">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="BB9" s="4">
         <v>6</v>
@@ -6714,36 +6699,36 @@
         <v>6</v>
       </c>
       <c r="BF9" s="77" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="BG9" s="78">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="BH9" s="189"/>
       <c r="BI9" s="79">
         <v>6</v>
       </c>
       <c r="BJ9" s="80" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="BK9" s="81">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="BL9" s="82">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="BM9" s="172"/>
       <c r="BN9" s="79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BO9" s="80" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="BP9" s="83">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="BQ9" s="84">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="BR9" s="85" t="s">
         <v>0</v>
@@ -6764,191 +6749,191 @@
         <v>0</v>
       </c>
       <c r="BY9" s="12" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="190" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="C10" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="191" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E10" s="192" t="s">
         <v>85</v>
       </c>
       <c r="F10" s="193" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="G10" s="194">
-        <v>11</v>
-      </c>
-      <c r="H10" s="195">
-        <v>-11</v>
+        <v>10</v>
+      </c>
+      <c r="H10" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="I10" s="196" t="s">
         <v>57</v>
       </c>
       <c r="J10" s="194">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K10" s="195">
-        <v>-10</v>
+        <v>-2</v>
       </c>
       <c r="L10" s="196" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="M10" s="194">
-        <v>11</v>
-      </c>
-      <c r="N10" s="195">
-        <v>-11</v>
+        <v>9</v>
+      </c>
+      <c r="N10" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="O10" s="196" t="s">
         <v>57</v>
       </c>
       <c r="P10" s="194">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="Q10" s="195">
-        <v>-11</v>
+        <v>-2</v>
       </c>
       <c r="R10" s="196" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="S10" s="194">
-        <v>13</v>
-      </c>
-      <c r="T10" s="195">
-        <v>-13</v>
+        <v>2</v>
+      </c>
+      <c r="T10" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="U10" s="196" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="V10" s="194">
+        <v>7</v>
+      </c>
+      <c r="W10" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="X10" s="196" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y10" s="194">
+        <v>9</v>
+      </c>
+      <c r="Z10" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="196" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB10" s="194">
+        <v>9</v>
+      </c>
+      <c r="AC10" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="196" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE10" s="194">
         <v>14</v>
       </c>
-      <c r="W10" s="195">
-        <v>-14</v>
-      </c>
-      <c r="X10" s="196" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y10" s="194">
-        <v>14</v>
-      </c>
-      <c r="Z10" s="195">
-        <v>-14</v>
-      </c>
-      <c r="AA10" s="196" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB10" s="194">
-        <v>12</v>
-      </c>
-      <c r="AC10" s="195">
-        <v>-12</v>
-      </c>
-      <c r="AD10" s="196" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE10" s="194">
+      <c r="AF10" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="196" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH10" s="194">
         <v>9</v>
       </c>
-      <c r="AF10" s="195">
-        <v>-9</v>
-      </c>
-      <c r="AG10" s="196" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH10" s="194">
-        <v>11</v>
-      </c>
-      <c r="AI10" s="195">
-        <v>-11</v>
+      <c r="AI10" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AJ10" s="196" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="AK10" s="194">
-        <v>11</v>
-      </c>
-      <c r="AL10" s="195">
-        <v>-11</v>
+        <v>10</v>
+      </c>
+      <c r="AL10" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AM10" s="196" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="AN10" s="194">
-        <v>11</v>
-      </c>
-      <c r="AO10" s="197">
-        <v>-11</v>
+        <v>15</v>
+      </c>
+      <c r="AO10" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AT10" s="198" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="AU10" s="194">
-        <v>12</v>
-      </c>
-      <c r="AV10" s="197">
-        <v>-12</v>
+        <v>9</v>
+      </c>
+      <c r="AV10" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AX10" s="4">
-        <v>138</v>
+        <v>-90</v>
       </c>
       <c r="AY10" s="4">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="AZ10" s="4">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="BA10" s="4">
-        <v>138</v>
+        <v>90.1</v>
       </c>
       <c r="BB10" s="4">
         <v>7</v>
       </c>
       <c r="BC10" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BE10" s="76">
         <v>7</v>
       </c>
       <c r="BF10" s="77" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="BG10" s="78">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="BH10" s="189"/>
       <c r="BI10" s="79">
         <v>7</v>
       </c>
       <c r="BJ10" s="80" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="BK10" s="81">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="BL10" s="82">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="BM10" s="172"/>
       <c r="BN10" s="79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BO10" s="80" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="BP10" s="83">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="BQ10" s="84">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="BR10" s="85" t="s">
         <v>0</v>
@@ -6969,150 +6954,150 @@
         <v>0</v>
       </c>
       <c r="BY10" s="12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="190" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="C11" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="191" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="E11" s="192" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="193" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="194">
+        <v>8</v>
+      </c>
+      <c r="H11" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="196" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="194">
+        <v>4</v>
+      </c>
+      <c r="K11" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="196" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" s="194">
+        <v>8</v>
+      </c>
+      <c r="N11" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="O11" s="196" t="s">
+        <v>57</v>
+      </c>
+      <c r="P11" s="194">
+        <v>8</v>
+      </c>
+      <c r="Q11" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="R11" s="196" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="330" t="s">
-        <v>85</v>
-      </c>
-      <c r="G11" s="331">
-        <v>7</v>
-      </c>
-      <c r="H11" s="332" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="333" t="s">
-        <v>85</v>
-      </c>
-      <c r="J11" s="331">
-        <v>15</v>
-      </c>
-      <c r="K11" s="332" t="s">
-        <v>0</v>
-      </c>
-      <c r="L11" s="333" t="s">
+      <c r="S11" s="194">
+        <v>1</v>
+      </c>
+      <c r="T11" s="195">
+        <v>-1</v>
+      </c>
+      <c r="U11" s="196" t="s">
         <v>57</v>
       </c>
-      <c r="M11" s="331">
-        <v>4</v>
-      </c>
-      <c r="N11" s="332">
-        <v>-4</v>
-      </c>
-      <c r="O11" s="333" t="s">
-        <v>85</v>
-      </c>
-      <c r="P11" s="331">
-        <v>3</v>
-      </c>
-      <c r="Q11" s="332" t="s">
-        <v>0</v>
-      </c>
-      <c r="R11" s="333" t="s">
-        <v>85</v>
-      </c>
-      <c r="S11" s="331">
-        <v>4</v>
-      </c>
-      <c r="T11" s="332" t="s">
-        <v>0</v>
-      </c>
-      <c r="U11" s="333" t="s">
-        <v>85</v>
-      </c>
-      <c r="V11" s="331">
-        <v>7</v>
-      </c>
-      <c r="W11" s="332" t="s">
-        <v>0</v>
-      </c>
-      <c r="X11" s="333" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y11" s="331">
+      <c r="V11" s="194">
+        <v>8</v>
+      </c>
+      <c r="W11" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="X11" s="196" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y11" s="194">
+        <v>16</v>
+      </c>
+      <c r="Z11" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="196" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB11" s="194">
         <v>13</v>
       </c>
-      <c r="Z11" s="332" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="333" t="s">
+      <c r="AC11" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="196" t="s">
         <v>57</v>
       </c>
-      <c r="AB11" s="331">
-        <v>5</v>
-      </c>
-      <c r="AC11" s="332">
-        <v>-5</v>
-      </c>
-      <c r="AD11" s="333" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE11" s="331">
-        <v>2</v>
-      </c>
-      <c r="AF11" s="332" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="333" t="s">
+      <c r="AE11" s="194">
+        <v>8</v>
+      </c>
+      <c r="AF11" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="196" t="s">
         <v>57</v>
       </c>
-      <c r="AH11" s="331">
-        <v>4</v>
-      </c>
-      <c r="AI11" s="332">
-        <v>-4</v>
-      </c>
-      <c r="AJ11" s="333" t="s">
+      <c r="AH11" s="194">
+        <v>8</v>
+      </c>
+      <c r="AI11" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="196" t="s">
         <v>57</v>
       </c>
-      <c r="AK11" s="331">
-        <v>4</v>
-      </c>
-      <c r="AL11" s="332">
-        <v>-4</v>
-      </c>
-      <c r="AM11" s="333" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN11" s="331">
-        <v>13</v>
-      </c>
-      <c r="AO11" s="334" t="s">
+      <c r="AK11" s="194">
+        <v>9</v>
+      </c>
+      <c r="AL11" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="196" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN11" s="194">
+        <v>11</v>
+      </c>
+      <c r="AO11" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AT11" s="198" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="AU11" s="194">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AV11" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX11" s="4">
-        <v>-47</v>
+        <v>100</v>
       </c>
       <c r="AY11" s="4">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="AZ11" s="4">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="BA11" s="4">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="BB11" s="4">
         <v>8</v>
@@ -7124,36 +7109,36 @@
         <v>8</v>
       </c>
       <c r="BF11" s="77" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="BG11" s="78">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="BH11" s="189"/>
       <c r="BI11" s="79">
         <v>8</v>
       </c>
       <c r="BJ11" s="80" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="BK11" s="81">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="BL11" s="82">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="BM11" s="172"/>
       <c r="BN11" s="79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BO11" s="80" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="BP11" s="83">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="BQ11" s="84">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="BR11" s="85" t="s">
         <v>0</v>
@@ -7174,27 +7159,27 @@
         <v>0</v>
       </c>
       <c r="BY11" s="12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="190" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="C12" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="191" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="E12" s="192" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="F12" s="193" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="G12" s="194">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H12" s="195" t="s">
         <v>0</v>
@@ -7203,34 +7188,34 @@
         <v>57</v>
       </c>
       <c r="J12" s="194">
-        <v>14</v>
-      </c>
-      <c r="K12" s="195">
-        <v>-14</v>
+        <v>9</v>
+      </c>
+      <c r="K12" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="L12" s="196" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="M12" s="194">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="N12" s="195" t="s">
         <v>0</v>
       </c>
       <c r="O12" s="196" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="P12" s="194">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="195" t="s">
         <v>0</v>
       </c>
       <c r="R12" s="196" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="S12" s="194">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="T12" s="195" t="s">
         <v>0</v>
@@ -7239,25 +7224,25 @@
         <v>57</v>
       </c>
       <c r="V12" s="194">
-        <v>2</v>
-      </c>
-      <c r="W12" s="195">
-        <v>-2</v>
+        <v>12</v>
+      </c>
+      <c r="W12" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="X12" s="196" t="s">
         <v>57</v>
       </c>
       <c r="Y12" s="194">
-        <v>8</v>
-      </c>
-      <c r="Z12" s="195">
-        <v>-8</v>
+        <v>6</v>
+      </c>
+      <c r="Z12" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AA12" s="196" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="AB12" s="194">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AC12" s="195" t="s">
         <v>0</v>
@@ -7266,58 +7251,58 @@
         <v>57</v>
       </c>
       <c r="AE12" s="194">
-        <v>3</v>
-      </c>
-      <c r="AF12" s="195">
-        <v>-3</v>
+        <v>2</v>
+      </c>
+      <c r="AF12" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AG12" s="196" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH12" s="194">
+        <v>11</v>
+      </c>
+      <c r="AI12" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="196" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK12" s="194">
+        <v>11</v>
+      </c>
+      <c r="AL12" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="196" t="s">
         <v>85</v>
       </c>
-      <c r="AH12" s="194">
-        <v>2</v>
-      </c>
-      <c r="AI12" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="196" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK12" s="194">
-        <v>10</v>
-      </c>
-      <c r="AL12" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="196" t="s">
-        <v>57</v>
-      </c>
       <c r="AN12" s="194">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO12" s="197">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="AT12" s="198" t="s">
         <v>57</v>
       </c>
       <c r="AU12" s="194">
-        <v>3</v>
-      </c>
-      <c r="AV12" s="197">
-        <v>-3</v>
+        <v>11</v>
+      </c>
+      <c r="AV12" s="197" t="s">
+        <v>0</v>
       </c>
       <c r="AX12" s="4">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="AY12" s="4">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="AZ12" s="4">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="BA12" s="4">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="BB12" s="4">
         <v>9</v>
@@ -7326,39 +7311,39 @@
         <v>1</v>
       </c>
       <c r="BE12" s="76">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BF12" s="77" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="BG12" s="78">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="BH12" s="189"/>
       <c r="BI12" s="79">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BJ12" s="80" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="BK12" s="81">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="BL12" s="82">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="BM12" s="172"/>
       <c r="BN12" s="79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BO12" s="80" t="s">
         <v>94</v>
       </c>
       <c r="BP12" s="83">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="BQ12" s="84">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="BR12" s="85" t="s">
         <v>0</v>
@@ -7379,66 +7364,66 @@
         <v>0</v>
       </c>
       <c r="BY12" s="12" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="190" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="C13" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="191" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="E13" s="192" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="F13" s="193" t="s">
         <v>57</v>
       </c>
       <c r="G13" s="194">
-        <v>4</v>
-      </c>
-      <c r="H13" s="195" t="s">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="H13" s="195">
+        <v>-9</v>
       </c>
       <c r="I13" s="196" t="s">
         <v>57</v>
       </c>
       <c r="J13" s="194">
-        <v>13</v>
-      </c>
-      <c r="K13" s="195" t="s">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="K13" s="195">
+        <v>-12</v>
       </c>
       <c r="L13" s="196" t="s">
         <v>57</v>
       </c>
       <c r="M13" s="194">
-        <v>10</v>
-      </c>
-      <c r="N13" s="195" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="N13" s="195">
+        <v>-6</v>
       </c>
       <c r="O13" s="196" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="P13" s="194">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q13" s="195">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="R13" s="196" t="s">
         <v>85</v>
       </c>
       <c r="S13" s="194">
-        <v>5</v>
-      </c>
-      <c r="T13" s="195">
-        <v>-5</v>
+        <v>4</v>
+      </c>
+      <c r="T13" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="U13" s="196" t="s">
         <v>57</v>
@@ -7446,14 +7431,14 @@
       <c r="V13" s="194">
         <v>3</v>
       </c>
-      <c r="W13" s="195" t="s">
-        <v>0</v>
+      <c r="W13" s="195">
+        <v>-3</v>
       </c>
       <c r="X13" s="196" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="Y13" s="194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z13" s="195" t="s">
         <v>0</v>
@@ -7462,31 +7447,31 @@
         <v>85</v>
       </c>
       <c r="AB13" s="194">
-        <v>2</v>
-      </c>
-      <c r="AC13" s="195">
-        <v>-2</v>
+        <v>5</v>
+      </c>
+      <c r="AC13" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AD13" s="196" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="AE13" s="194">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AF13" s="195">
-        <v>-11</v>
+        <v>-1</v>
       </c>
       <c r="AG13" s="196" t="s">
         <v>57</v>
       </c>
       <c r="AH13" s="194">
-        <v>9</v>
-      </c>
-      <c r="AI13" s="195" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="AI13" s="195">
+        <v>-6</v>
       </c>
       <c r="AJ13" s="196" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="AK13" s="194">
         <v>6</v>
@@ -7495,34 +7480,34 @@
         <v>-6</v>
       </c>
       <c r="AM13" s="196" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="AN13" s="194">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AO13" s="197">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="AT13" s="198" t="s">
         <v>57</v>
       </c>
       <c r="AU13" s="194">
-        <v>2</v>
-      </c>
-      <c r="AV13" s="197" t="s">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="AV13" s="197">
+        <v>-5</v>
       </c>
       <c r="AX13" s="4">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="AY13" s="4">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="AZ13" s="4">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="BA13" s="4">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="BB13" s="4">
         <v>10</v>
@@ -7534,36 +7519,36 @@
         <v>10</v>
       </c>
       <c r="BF13" s="77" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="BG13" s="78">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="BH13" s="189"/>
       <c r="BI13" s="79">
         <v>10</v>
       </c>
       <c r="BJ13" s="80" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="BK13" s="81">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="BL13" s="82">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="BM13" s="172"/>
       <c r="BN13" s="79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BO13" s="80" t="s">
         <v>96</v>
       </c>
       <c r="BP13" s="83">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="BQ13" s="84">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="BR13" s="85" t="s">
         <v>0</v>
@@ -7584,18 +7569,18 @@
         <v>0</v>
       </c>
       <c r="BY13" s="12" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="190" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="C14" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="191" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="E14" s="192" t="s">
         <v>57</v>
@@ -7604,7 +7589,7 @@
         <v>57</v>
       </c>
       <c r="G14" s="194">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H14" s="195" t="s">
         <v>0</v>
@@ -7613,7 +7598,7 @@
         <v>57</v>
       </c>
       <c r="J14" s="194">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K14" s="195" t="s">
         <v>0</v>
@@ -7622,7 +7607,7 @@
         <v>57</v>
       </c>
       <c r="M14" s="194">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="N14" s="195" t="s">
         <v>0</v>
@@ -7631,7 +7616,7 @@
         <v>57</v>
       </c>
       <c r="P14" s="194">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="Q14" s="195" t="s">
         <v>0</v>
@@ -7640,7 +7625,7 @@
         <v>57</v>
       </c>
       <c r="S14" s="194">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="T14" s="195" t="s">
         <v>0</v>
@@ -7649,25 +7634,25 @@
         <v>57</v>
       </c>
       <c r="V14" s="194">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="W14" s="195" t="s">
         <v>0</v>
       </c>
       <c r="X14" s="196" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="Y14" s="194">
-        <v>4</v>
-      </c>
-      <c r="Z14" s="195">
-        <v>-4</v>
+        <v>14</v>
+      </c>
+      <c r="Z14" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AA14" s="196" t="s">
         <v>57</v>
       </c>
       <c r="AB14" s="194">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AC14" s="195" t="s">
         <v>0</v>
@@ -7676,7 +7661,7 @@
         <v>57</v>
       </c>
       <c r="AE14" s="194">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AF14" s="195" t="s">
         <v>0</v>
@@ -7685,25 +7670,25 @@
         <v>57</v>
       </c>
       <c r="AH14" s="194">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AI14" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AJ14" s="196" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="AK14" s="194">
         <v>7</v>
       </c>
-      <c r="AL14" s="195">
-        <v>-7</v>
+      <c r="AL14" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AM14" s="196" t="s">
         <v>57</v>
       </c>
       <c r="AN14" s="194">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AO14" s="197" t="s">
         <v>0</v>
@@ -7712,22 +7697,22 @@
         <v>57</v>
       </c>
       <c r="AU14" s="194">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AV14" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX14" s="4">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="AY14" s="4">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="AZ14" s="4">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="BA14" s="4">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="BB14" s="4">
         <v>11</v>
@@ -7739,36 +7724,36 @@
         <v>11</v>
       </c>
       <c r="BF14" s="77" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="BG14" s="78">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="BH14" s="189"/>
       <c r="BI14" s="79">
         <v>11</v>
       </c>
       <c r="BJ14" s="80" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="BK14" s="81">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="BL14" s="82">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="BM14" s="172"/>
       <c r="BN14" s="79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BO14" s="80" t="s">
         <v>97</v>
       </c>
       <c r="BP14" s="83">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="BQ14" s="84">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="BR14" s="85" t="s">
         <v>0</v>
@@ -7789,30 +7774,30 @@
         <v>0</v>
       </c>
       <c r="BY14" s="12" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:77" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="190" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C15" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="191" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="E15" s="192" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="F15" s="193" t="s">
         <v>85</v>
       </c>
       <c r="G15" s="194">
-        <v>12</v>
-      </c>
-      <c r="H15" s="195" t="s">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="H15" s="195">
+        <v>-5</v>
       </c>
       <c r="I15" s="196" t="s">
         <v>85</v>
@@ -7820,23 +7805,23 @@
       <c r="J15" s="194">
         <v>11</v>
       </c>
-      <c r="K15" s="195" t="s">
-        <v>0</v>
+      <c r="K15" s="195">
+        <v>-11</v>
       </c>
       <c r="L15" s="196" t="s">
         <v>85</v>
       </c>
       <c r="M15" s="194">
-        <v>12</v>
-      </c>
-      <c r="N15" s="195" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N15" s="195">
+        <v>-1</v>
       </c>
       <c r="O15" s="196" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="P15" s="194">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="195" t="s">
         <v>0</v>
@@ -7845,25 +7830,25 @@
         <v>85</v>
       </c>
       <c r="S15" s="194">
-        <v>11</v>
-      </c>
-      <c r="T15" s="195" t="s">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="T15" s="195">
+        <v>-7</v>
       </c>
       <c r="U15" s="196" t="s">
         <v>85</v>
       </c>
       <c r="V15" s="194">
-        <v>13</v>
-      </c>
-      <c r="W15" s="195" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="W15" s="195">
+        <v>-2</v>
       </c>
       <c r="X15" s="196" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="Y15" s="194">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="Z15" s="195" t="s">
         <v>0</v>
@@ -7872,43 +7857,43 @@
         <v>85</v>
       </c>
       <c r="AB15" s="194">
-        <v>11</v>
-      </c>
-      <c r="AC15" s="195" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="AC15" s="195">
+        <v>-3</v>
       </c>
       <c r="AD15" s="196" t="s">
         <v>85</v>
       </c>
       <c r="AE15" s="194">
-        <v>14</v>
-      </c>
-      <c r="AF15" s="195" t="s">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="AF15" s="195">
+        <v>-9</v>
       </c>
       <c r="AG15" s="196" t="s">
         <v>85</v>
       </c>
       <c r="AH15" s="194">
-        <v>12</v>
-      </c>
-      <c r="AI15" s="195" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AI15" s="195">
+        <v>-1</v>
       </c>
       <c r="AJ15" s="196" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="AK15" s="194">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AL15" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AM15" s="196" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="AN15" s="194">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AO15" s="197" t="s">
         <v>0</v>
@@ -7917,22 +7902,22 @@
         <v>85</v>
       </c>
       <c r="AU15" s="194">
-        <v>14</v>
-      </c>
-      <c r="AV15" s="197" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="AV15" s="197">
+        <v>-3</v>
       </c>
       <c r="AX15" s="4">
-        <v>-142</v>
+        <v>-32</v>
       </c>
       <c r="AY15" s="4">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="AZ15" s="4">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="BA15" s="4">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="BB15" s="4">
         <v>12</v>
@@ -7944,36 +7929,36 @@
         <v>12</v>
       </c>
       <c r="BF15" s="90" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="BG15" s="91">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="BH15" s="189"/>
       <c r="BI15" s="92">
         <v>12</v>
       </c>
       <c r="BJ15" s="93" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="BK15" s="94">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="BL15" s="95">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="BM15" s="172"/>
       <c r="BN15" s="92">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BO15" s="93" t="s">
         <v>98</v>
       </c>
       <c r="BP15" s="96">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="BQ15" s="97">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="BR15" s="98" t="s">
         <v>0</v>
@@ -7994,90 +7979,90 @@
         <v>0</v>
       </c>
       <c r="BY15" s="12" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:77" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B16" s="190" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C16" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="191" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E16" s="192" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="F16" s="193" t="s">
         <v>57</v>
       </c>
       <c r="G16" s="194">
-        <v>9</v>
-      </c>
-      <c r="H16" s="195" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="H16" s="195">
+        <v>-4</v>
       </c>
       <c r="I16" s="196" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="J16" s="194">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K16" s="195">
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="L16" s="196" t="s">
         <v>57</v>
       </c>
       <c r="M16" s="194">
-        <v>9</v>
-      </c>
-      <c r="N16" s="195" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="N16" s="195">
+        <v>-3</v>
       </c>
       <c r="O16" s="196" t="s">
         <v>57</v>
       </c>
       <c r="P16" s="194">
-        <v>8</v>
-      </c>
-      <c r="Q16" s="195" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="Q16" s="195">
+        <v>-3</v>
       </c>
       <c r="R16" s="196" t="s">
         <v>57</v>
       </c>
       <c r="S16" s="194">
-        <v>8</v>
-      </c>
-      <c r="T16" s="195" t="s">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="T16" s="195">
+        <v>-13</v>
       </c>
       <c r="U16" s="196" t="s">
         <v>85</v>
       </c>
       <c r="V16" s="194">
-        <v>4</v>
-      </c>
-      <c r="W16" s="195">
-        <v>-4</v>
+        <v>10</v>
+      </c>
+      <c r="W16" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="X16" s="196" t="s">
         <v>85</v>
       </c>
       <c r="Y16" s="194">
-        <v>7</v>
-      </c>
-      <c r="Z16" s="195">
-        <v>-7</v>
+        <v>4</v>
+      </c>
+      <c r="Z16" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AA16" s="196" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="AB16" s="194">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AC16" s="195" t="s">
         <v>0</v>
@@ -8086,58 +8071,58 @@
         <v>57</v>
       </c>
       <c r="AE16" s="194">
-        <v>6</v>
-      </c>
-      <c r="AF16" s="195" t="s">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="AF16" s="195">
+        <v>-7</v>
       </c>
       <c r="AG16" s="196" t="s">
         <v>57</v>
       </c>
       <c r="AH16" s="194">
-        <v>10</v>
-      </c>
-      <c r="AI16" s="195" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="AI16" s="195">
+        <v>-3</v>
       </c>
       <c r="AJ16" s="196" t="s">
         <v>57</v>
       </c>
       <c r="AK16" s="194">
-        <v>3</v>
-      </c>
-      <c r="AL16" s="195" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="AL16" s="195">
+        <v>-4</v>
       </c>
       <c r="AM16" s="196" t="s">
         <v>57</v>
       </c>
       <c r="AN16" s="194">
-        <v>3</v>
-      </c>
-      <c r="AO16" s="197" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="AO16" s="197">
+        <v>-6</v>
       </c>
       <c r="AT16" s="198" t="s">
         <v>57</v>
       </c>
       <c r="AU16" s="194">
-        <v>7</v>
-      </c>
-      <c r="AV16" s="197" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="AV16" s="197">
+        <v>-4</v>
       </c>
       <c r="AX16" s="4">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="AY16" s="4">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="AZ16" s="4">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="BA16" s="4">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="BB16" s="4">
         <v>13</v>
@@ -8146,18 +8131,18 @@
         <v>1</v>
       </c>
       <c r="BY16" s="12" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:77" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="190" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C17" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="191" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E17" s="192" t="s">
         <v>57</v>
@@ -8166,7 +8151,7 @@
         <v>57</v>
       </c>
       <c r="G17" s="194">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H17" s="195" t="s">
         <v>0</v>
@@ -8184,52 +8169,52 @@
         <v>57</v>
       </c>
       <c r="M17" s="194">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N17" s="195" t="s">
         <v>0</v>
       </c>
       <c r="O17" s="196" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="P17" s="194">
-        <v>9</v>
-      </c>
-      <c r="Q17" s="195">
-        <v>-9</v>
+        <v>15</v>
+      </c>
+      <c r="Q17" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="R17" s="196" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="S17" s="194">
-        <v>7</v>
-      </c>
-      <c r="T17" s="195">
-        <v>-7</v>
+        <v>16</v>
+      </c>
+      <c r="T17" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="U17" s="196" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="V17" s="194">
-        <v>11</v>
-      </c>
-      <c r="W17" s="195">
-        <v>-11</v>
+        <v>13</v>
+      </c>
+      <c r="W17" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="X17" s="196" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="Y17" s="194">
-        <v>5</v>
-      </c>
-      <c r="Z17" s="195">
-        <v>-5</v>
+        <v>13</v>
+      </c>
+      <c r="Z17" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AA17" s="196" t="s">
         <v>57</v>
       </c>
       <c r="AB17" s="194">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AC17" s="195" t="s">
         <v>0</v>
@@ -8238,7 +8223,7 @@
         <v>57</v>
       </c>
       <c r="AE17" s="194">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AF17" s="195" t="s">
         <v>0</v>
@@ -8247,25 +8232,25 @@
         <v>57</v>
       </c>
       <c r="AH17" s="194">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AI17" s="195" t="s">
         <v>0</v>
       </c>
       <c r="AJ17" s="196" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="AK17" s="194">
-        <v>5</v>
-      </c>
-      <c r="AL17" s="195">
-        <v>-5</v>
+        <v>15</v>
+      </c>
+      <c r="AL17" s="195" t="s">
+        <v>0</v>
       </c>
       <c r="AM17" s="196" t="s">
         <v>57</v>
       </c>
       <c r="AN17" s="194">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AO17" s="197" t="s">
         <v>0</v>
@@ -8274,216 +8259,266 @@
         <v>57</v>
       </c>
       <c r="AU17" s="194">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AV17" s="197" t="s">
         <v>0</v>
       </c>
       <c r="AX17" s="4">
-        <v>26</v>
+        <v>172</v>
       </c>
       <c r="AY17" s="4">
-        <v>26</v>
+        <v>172</v>
       </c>
       <c r="AZ17" s="4">
-        <v>26</v>
+        <v>172.1</v>
       </c>
       <c r="BA17" s="4">
-        <v>26</v>
+        <v>172.1</v>
       </c>
       <c r="BB17" s="4">
         <v>14</v>
       </c>
       <c r="BC17" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BY17" s="12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:77" ht="18" customHeight="1" x14ac:dyDesc